--- a/newsclip_db_updated.xlsx
+++ b/newsclip_db_updated.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visang1-my.sharepoint.com/personal/sjkim4_visang_com/Documents/02. 비상교육/100. newsclippings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_57D913951671680F62355476585DCE3A8741AFE5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311B4A61-013C-4981-9220-BF69F5EC2F52}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_6AE539B296524C0F62355476585DCE3A87662AA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F3D61B-3E35-428D-A28D-1CA53CFA19B6}"/>
   <bookViews>
-    <workbookView xWindow="42705" yWindow="420" windowWidth="19200" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="677">
   <si>
     <t>년</t>
   </si>
@@ -49,7 +62,13 @@
     <t>뉴스요약</t>
   </si>
   <si>
-    <t>에듀테크</t>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>날짜_dt</t>
+  </si>
+  <si>
+    <t>교육정책</t>
   </si>
   <si>
     <t>‘AI 교과서로 배우는 영어’…초3 수업 직접 가 보니</t>
@@ -64,7 +83,7 @@
     <t>제주도 제주시 조천읍 조천초등학교 3학년 교실에서 AI 디지털교과서를 활용한 영어 수업이 진행되고 있다. "Repeat after me. What's this? It's a cup." (따라 하세요. 이것은 무엇인가요? 이것은 컵입니다.) 제주도 제주시 조천읍 조천초등학교 3학년 1반의 영어 수업 시간.  20여 개 책상마다 종이 교과서 대신 노트북 컴퓨터가 펼쳐져 있었습니다. 학생들은 선생님이 나눠주는 유인물 대신 노트북 화면 위에 알파벳을 또박또박 적어 내려갔습니다. 학생들 손에는 연필이 아닌, 터치스크린 전용 펜이 쥐어졌습니다. 신학기가 시작된 지난달부터 일부 학교에서는 AI(인공지능) 디지털 교과서 를 보조 교재로 사용하고 있습니다. 지난 25일 기준 전국 학교 10곳 중 3곳이 AI 교과서를 쓰는 것으로 집계됐습니다. 도입률이 가장 높은 지역은 대구(98.1%) 입니다. 대구를 제외하면 충북(57.8%) 과 제주(52.9%) 두 지역이 50%를 넘겼습니다. 세종(9.5%) 이 10개 학교로 가장 적었고, 도입률이 10%대에 머문 지역도 6곳이었습니다. AI 교과서 시범 도입 대상 학년과 과목은 초3·4(영어·수학), 중1·고1(영어·수학·정보) . 이날 AI 교과서 활용 공개 수업이 열린 초등학교 3학년 교실에서는 AI 교과서에 대한 기대와 함께, 우려 섞인 목소리도 나왔습니다. 지난 25일 제주도 제주시 조천읍 조천초등학교 3학년 교실에서 AI 디지털교과서를 활용한 영어 수업이 진행되고 있다. 선생님의 수업 진행에 따라 학생들은 따로, 또 다 같이 AI 교과서로 영어를 학습했습니다. 'AI Speaking(AI 말하기)' 순서가 되자 학생들은 선생님의 지시에 맞춰 일제히 이어폰을 귀에 꽂았습니다. 각자 이날 배운 영어 대화 표현을 듣고 나서, 화면 속 '녹음' 버튼을 눌러 이를 따라 말했습니다. AI 교과서가 억양과 강세 등을 분석해,  올바르게 읽었다고 판단하면 '뾰로롱' 하는 효과음과 함께 활짝 웃는 캐릭터가 화면에 튀어나왔습니다. 옆자리에 앉은 짝과 함께 대화를 주고받는 연습도 이어졌습니다. 종이 교과서로 공부할 때와 다른 건, 두 사람의 대화를 '녹화'한다는 점입니다. 학생들은 노트북 카메라에 자신과 짝의 얼굴이 들어오게 각도를 맞추고, 이날 배운 표현을 주거니 받거니 하며 연습했습니다. 이렇게 만들어진 녹화 영상은 선생님이 개설해 둔 '과제 제출 방'에 올렸습니다. 선생님은 영상을 하나씩 열어보며, 학생들과 다 같이 보는 스크린을 통해 학습 상황을 확인했습니다. 지난 25일 제주도 제주시 조천읍 조천초등학교 3학년 교실에서 열린 AI 교과서 영어 수업에서 학생들이 짝과 함께 영어 대화를 연습하는 모습을 녹화하고 있다. ■ "AI 교과서로 영어 공부하니 더 재미있어요!" AI 교과서로 배우는 영어 수업에 대해 학생들은 대부분 긍정적인 반응을 보였습니다. 터치스크린으로 '톡톡' 누르는 방식이 종이책을 넘기며 공부하는 것보다 단순해서 쉬웠다고 했습니다. 디지털 기기 사용이 자연스러운 세대답게 대체로 무리 없이 선생님의 지시에 따라 화면을 누르고, 기기를 조작했습니다. 다만 기기 사용이 능숙하지 못한 학생들도 보였습니다. 잘 따라가지 못할 땐 손을 들어 교사의 도움을 받도록 했습니다. 이날 수업에 참여한 김로희(조천초 3) 양은 "집에서 컴퓨터와 비슷한 걸 해 봤다. 익숙해서 좋았다"고 말했습니다. 안유하(조천초 3) 양은 "처음 AI 교과서 수업을 할 땐 조금 어렵고 어떻게 하는지도 잘 몰라서 긴장했지만, 계속하다 보니 앱을 다루기 쉬워졌다. 영어도 좀 더 익숙해졌다"고 했습니다. 놀이와 같이 재미있게 접근하는 학습 방식에 아이들의 수업 참여도와 집중도도 높은 편이었습니다. 특히 '영어 과목은 어렵다'는 인식을 깨뜨리는 데에 AI 교과서가 효과적이라고 교사와 학부모 모두 입을 모았습니다. 지난 25일 제주도 제주시 조천읍 조천초등학교 3학년 교실에서 열린 AI 교과서 영어 수업에서 학생이 노트북을 조작하고 있다. 이날 공개 수업을 참관한 초3 학부모 박희진 씨는 아이들이 호기심을 느끼고 또 좋아하는 도구를 사용해서 잘 만든 것 같다"면서 "아이들이 편안해하고, 영어라는 것을 공부가 아니라 재밌는 놀이로 받아들이게 해서 좋다"고 영어 AI 교과서를 평했습니다. ■ I'm fine 대신 I'm good 말하면 오답? " AI 교과서 라고 하기엔…" 학교 현장에서는 AI 교과서가 이름과는 달리 이미 시중에서 사용하고 있는 다른 디지털 학습 도구보다도 학습 질이 낮고 제한적이라며 아쉬움을 드러냈습니다. 이날 공개 수업을 진행한 20년 차 교사 이혜자 씨는 "아이들이 각자 진도에 따라 개별화된 학습을 할 수 있는 점에선 아주 좋은 자료"라고 평하면서도 "AI지만 AI 같지 않은 느낌"이라고 짚었습니다. 이 씨는 "AI 교과서에서 '좋아'라는 영어 표현이 무엇인지 물었다. 제가 'I'm good.' 이라고 답하니 아니라고 한다. AI 교과서가 원하는 답은 'I'm fine.'이었다"면서 "'안녕'이라는 말도 'Bye.'는 되는데 'Good bye.'는 틀렸다고 한다. 입력된 정답대로만 작동하는 AI인건가"라며 "아이들이 학습 활동을 할 때 '이건 맞고, 저건 틀렸다'고 하면 영어 공부에 동기 부여를 할 수 없다"고 지적했습니다. 이 씨는  "그냥 '클릭, 클릭'하는 교사는 AI 교과서가 편하겠지만, 학생들 학업 성취도 등에 따라 수업 내용을 재구성하고 준비하는 교사에겐 현재의 AI 교과서가 콘텐츠의 양이나 질, 편의성 등 측면에서 아쉬운 점이 많다"며 "AI 교과서가 부각되려면 기존 교과서와 차별화된 콘텐츠와 더 많은 기능을 갖추고, 더 많은 데이터를 축적해야 한다. 더 많이 연구되어야 한다"라고 강조했습니다. 지난 25일 제주도 제주시 조천읍 조천초등학교 3학년 교실에서 AI 디지털교과서를 활용한 영어 수업이 진행되고 있다. ■ 모든 교과목에 적용할 수 있을까?…"국어·수학은 무리" 올해 AI 교과서를 시범 적용하는 과목에는 영어 외에 수학도 있습니다. 영어 AI 교과서에 대해선 비교적 긍정적으로 바라보는 초등학교 학교 현장에서는 수학 과목에 대해선 회의적이라는 의견을 냈습니다. 학부모 박희진 씨는 "AI 교과서로 수업을 진행하고 문제를 푸는 방식은 어느 과목이나 비슷하지만, 수학은 좀 어렵다고 느꼈다. 문제가 조금 복잡해지기 시작하니 아이들이 풀이 과정을 적으면서 문제를 해결하지 않고, AI 교과서를 '관람'하고 있더라"면서 "수학만은 아날로그적인 방법을 병행해야 할 것 같다. 수학뿐만 아니라 국어 과목도 AI 교과서 적용이 어렵지 않을까 생각한다"고 말했습니다. 학교에서 AI 교과서를 시범 도입했더라도 이를 사용할지 말지는 교사의 선택입니다. 영어 과목 지도에서는 사용하는 AI 교과서를 수학 과목에선 활용하지 않는 경우도 있었습니다. 교사 이혜자 씨는 "수학은 더욱 많은 고민과 학습 훈련이 있어야 한다. 만약 AI 교과서를 수학 과목에서도 쓰게 된다면, 저는 반드시 종이 연습장과 펜을 두고 수업할 것"이라면서 "필기와 문제 풀이 모두 터치스크린으로 하는 AI 교과서로는 교사가  아이들의 풀이 과정 기록을 데이터로 전송받지 못하기 때문"이라고 말했습니다. 지난 25일 제주도 제주시 조천읍 조천초등학교 3학년 교실에서 열린 AI 교과서 영어 수업에서 학생들이 진도에 맞춰 학습하고 있다. 도입 논의 때부터 제기됐던 디지털 기기 과몰입 현상이 더 심해지지 않을까 하는 우려도 여전합니다. 이 씨는 "노트북 사용을 처음 지도할 때부터 '어떻게 꺼내오고 조작하고, 선생님의 안내가 있기 전까지는 함부로 만지지 않는다'와 같은 많은 연습과 규칙이 세워져야 한다"면서 "기계에 함몰되지 않고 이를 도구로 잘 활용하게 하고, 수업 시간에 아이가 혼자 교실을 돌아다니지 않게 하는 것뿐만 아니라 정보통신 윤리 교육과도 연계된다"고 덧붙였습니다. 김광수 제주도교육감은 "시범 사업 기간인 올해 연말까지 학년별 수업을 참관하고, 현장의 이야기를 들을 것"이라면서 "앞으로 과학, 기술 등 다른 과목으로 AI 교과서 사용을 넓힐지 등도 그때 결정할 수 있으리라 본다"고 밝혔습니다. 제주도교육청은 시범 사업 기간 AI 교과서를 도입한 학교 현장 의견을 수렴하면서, 출판사와 논의해 개선 방안을 마련하겠다고 밝혔습니다. [연관 기사] AI 교과서로 배우는 영어…“재밌다”, “개선 필요해” (2025년 4월 25일 KBS 뉴스7제주) https://news.kbs.co.kr/news/pc/view/view.do?ncd=8238113 ■ 제보하기 ▷ 전화 : 02-781-1234, 4444 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 카카오톡 : 'KBS제보' 검색, 채널 추가 ▷ 네이버, 유튜브에서 KBS뉴스를 구독해주세요!</t>
   </si>
   <si>
-    <t>제주도 조천초등학교 3학년에서 AI 교과서를 활용한 영어 수업이 진행되고 있다. 전국 10곳 중 3곳이 AI 교과서를 사용하며, 대구(98.1%)가 가장 높은 도입률을 보였다. 학생들은 노트북을 사용하며 영어를 학습하고, AI 교과서를 통해 대화를 연습한다. 학생들은 쉽고 재미있게 수업에 참여하며, AI 교과서를 통해 영어 실력을 향상시키고 있다. 하지만 교사들은 AI 교과서의 한계를 지적하며, 국어나 수학과 같은 다른 교과목에는 적용하기 어려울 수 있다고 언급했다.</t>
+    <t>제주도 초등학교에서 AI 디지털교과서를 활용한 영어 수업이 진행되고 있으며, 학생들의 반응은 대체로 긍정적이지만, 일부 교사들은 AI 교과서의 학습 질과 제한적인 측면을 지적하고 있습니다. 국어와 수학 과목에 대해서는 아직 시범 적용이 어려울 수 있다는 의견이 있습니다.</t>
   </si>
   <si>
     <t>“학급칠판 어떻게 들어가요?”···새학기 두 달만에 시작한 AI 교과서 수업 풍경</t>
@@ -79,7 +98,10 @@
     <t>교실 전자 칠판에 학생들 답변 공유 ‘효과적’ 학생들 기기 사용 어려움 겪고 집중력 저하 커 교사 “문제 풀이는 AI, 수업은 종이책이 편해” 25일 경기도의 한 초등학교 3학년 학생들이 AI 디지털교과서를 활용한 수학 수업에 참여하고 있다. 이날 학생들은 화면 전환을 어려워해 교사에게 계속 도움을 요청했다. 사진은 교사 도움을 기다리는 세 학생의 태블릿PC에 각각 다른 화면이 띄워져 있는 모습. 김송이 기자 “선생님, 학급칠판 어떻게 들어가요?” “선생님, 팝업이 차단됐대요. 어떻게 해요?” 25일 오전 경기도의 한 초등학교 3학년 1반 교실. 인공지능(AI) 디지털교과서를 이용한 수학 수업이 시작되자마자 학생들의 질문이 쏟아졌다. 기기 사용이 어려워 도움을 청하는 내용이 대다수였다. 이날 수업을 맡은 교사 이모씨는 학생 24명 중 화면 설정이 잘못된 대여섯명을 도와준 뒤에야 수업을 시작할 수 있었다. 그간 교육부 장관이나 교육감이 AI 디지털교과서 활용 학교를 방문할 때 수업 공개가 이뤄진 적은 있으나 개별 학교의 수업이 언론에 공개된 것은 이번이 처음이다. 이 학교 3·4학년은 지난주부터 본격적으로 영어, 수학 수업에 AI 디지털교과서를 사용하기 시작했다. 교육부는 올해 1학기부터 일선 초중고에 AI 디지털교과서를 도입하면서 3월 중순부터는 본격적인 활용이 가능하다고 했다. 그러나 실제 학교 현장에선 준비가 되지 않아 이달 중순부터 쓰기 시작한 곳이 많다. 이날 학생들은 ‘길이와 거리 어림해보기’를 배웠다. 태블릿PC에 터치펜으로 선을 그린 뒤 짝꿍과 길이를 어림해보거나 AI 디지털교과서 안에 탑재된 자로 길이를 측정해보는 활동을 했다. ‘학급칠판’ 기능은 효과적이었다. 이 기능을 이용하니 교실 앞 전자 칠판에 학생들의 답변이 한 번에 공유돼 서로의 답변을 비교할 수 있었다. 한 학생이 답변 대신 낙서를 그려 학급칠판에 업로드했다. 김송이 기자 “선생님, 안 되는데요”…“누가 장난치나요” 학생들이 기기 사용을 어려워하는 점이 문제였다. 기기 사용법을 알려주는 시간이 적지 않게 들었다. 이 교사는 이날 AI 디지털교과서를 사용한 것이 5번째라고 했다. 다음 활동으로 넘어갈 때마다 혼란스러운 상황이 반복됐다. 교사와 학생의 화면이 같도록 동기화하는 ‘집중학습모드’를 이용해도 일부 학생들의 화면은 교사 화면과 달랐다. “선생님 안 되는데요.” 학생 서너명이 동시에 외치자 교사가 교실을 돌아다니며 일일이 화면을 바꿔줘야 했다. 한 학생은 화면이 이상하다며 교사에게 직접 태블릿PC를 들고 왔다. 이 교사는 “집중학습모드를 켜도 시스템 오류 때문인지 적용이 안 되는 아이들이 있다”고 말했다. 수업을 시작 후 20분이 지났을 때 한 학생의 태블릿 전원이 꺼졌다. 배터리를 다 쓴 탓이었다. 이 학생은 남은 수업 시간 짝꿍의 태블릿을 나누어 썼다. 25분이 지나자 학생들의 집중도가 눈에 띄게 흐트러졌다. 선생님이 다음 활동을 설명하는 동안 몇몇 학생은 학급칠판에 낙서하거나 수업과 관련 없는 단어를 전송하며 장난을 쳤다. 결국 이 교사가 “1반, 태블릿에서 모두 손 떼세요. 누가 자꾸 장난치나요”라며 주의를 시켰다. 태블릿 사용이 익숙한 학생과 그렇지 않은 학생 간 격차가 뚜렷해 보였다. 어떤 학생은 양손으로 키보드 자판을 치며 빠르게 주관식 답을 입력했다. 반면 일부는 답을 입력하고도 확인 버튼 누르는 방법을 모르거나 여러 버튼을 동시에 누르다가 수업 화면 밖으로 튕겨 나가길 반복했다. 한 학생의 책상 위에는 디지털 원패스 아이디와 비밀번호가 어른 글씨로 적힌 메모지가 놓여있었다. 저학년 학생들은 알파벳과 특수문자를 입력하는 것이 익숙하지 않다 보니 로그인에 어려움을 겪는다는 문제가 여러 번 지적된 바 있다. 한 학생이 AI 디지털교과서에 탑재된 자를 사용하는 방법을 몰라 실물 자를 태블릿PC에 대고 있다. 김송이 기자 학생들은 AI 디지털교과서가 “재밌고 편하다”면서도 집중하기가 어렵다고 했다. 이모군은 “연필을 쓸 땐 손이 아팠는데 키보드는 훨씬 편하다”며 “애들이 이상한 댓글을 달기도 하고 문제 풀 때 낙서를 하며 놀기도 한다. 그럴 땐 선생님이 힘들 것 같다”고 말했다. 김모군은 “틀려도 지우개로 안 지워도 돼서 좋다”며 “수업 때마다 4~5명은 선생님께 도와달라고 말한다. 처음 쓰면 버튼이 어디에 뭐가 있는지 몰라서 그런 것 같다”고 말했다. 이 교사는 문제 풀이는 AI 디지털교과서로 하되 전반적인 수업은 종이책으로 할 때 훨씬 편하다고 했다. 그는 “학생들 개별 피드백이 가능하고, 학생들이 가장 많이 틀린 문제가 무엇인지 성취도 통계가 나와서 지도하기 편하다”면서도 “아직 3학년이라 절제력이나 자기주도성이 부족해서 AI 디지털교과서로 스스로 습득하기 어려운 점이 있다”고 말했다. 학기 도중 “AI교과서 도입해달라” 독촉해놓고 “예산 없어 태블릿 못 사” 인공지능(AI) 디지털교과서 도입률이 저조하자 일부 시도교육청에선 일선 학교에 1학기 중 추가 도입해달라고 요청하는 것으로 확인됐다. 도입을 결정한 학교에서도 예산이 없어 태블릿PC를 구입하지 못해 AI 교과서를 사용하지 못하고 있었다. ‘속도전’으로 추진한 AI 교과서 도입이 예산 낭비를 부른다는 지적이 나온다. 20일 취재를 종합하면, 일부 시도교... https://www.khan.co.kr/article/202504201711001</t>
   </si>
   <si>
-    <t>경기도 초등학교에서 AI 디지털교과서를 활용한 수업이 진행되었지만 학생들은 기기 사용에 어려움을 겪어 집중력이 저하되는 문제가 발생했다. 교사는 학생들의 화면 설정 문제를 해결하느라 시간을 허비하고, 학생들은 로그인이나 기기 조작에 어려움을 겪었다. AI 교과서를 통해 문제 풀이는 용이하지만 전반적인 수업은 종이책이 더 효율적이라는 의견도 나왔다. 학교에서는 AI 교과서 도입을 원하나 예산 부족으로 인해 태블릿PC를 구입하지 못하는 경우도 발생하고 있다.</t>
+    <t>경기도 초등학교에서 AI 디지털교과서를 활용한 수업이 진행되었으나 학생들의 기기 사용 어려움으로 집중력 저하가 발생하고, 교사들도 어려움을 겪고 있다. 일부 학교는 예산 부족으로 인해 AI 교과서 도입이 어려운 상황이며, 학생들은 AI 디지털교과서를 편리하게 사용하면서도 집중하기 어렵다고 한다.</t>
+  </si>
+  <si>
+    <t>업계뉴스</t>
   </si>
   <si>
     <t>삼성전자, 터치 솔루션 탑재한 '더 프리미어 5' 출시</t>
@@ -94,7 +116,7 @@
     <t>초단초점 프로젝터로 교육·비즈니스 등에서 활용 기기에 터치 인터랙션 탑재…활용도 강화 초단초점·트리플 레이저로 몰입형 대화면 스마트싱스로 확장된 라이프스타일 삼성전자는 '터치 인터랙션' 기능이 탑재된 프리미엄 가정용 초단초점 프로젝터 '더 프리미어5'를 출시한다고 28일 밝혔다. 삼성전자 모델이 터치 인터랙션 기능이 탑재된 프리미엄 가정용 프로젝터 '더 프리미어5'를 체험하고 있다. 사진=삼성전자 제공 콤팩트한 디자인과 선명한 화질을 갖춘 더 프리미어5는 터치 솔루션을 탑재한 프로젝터다. 교육·비즈니스·홈 엔터테인먼트 등 다양한 환경에서 활용이 가능하다. 더 프리미어5는 트리플 레이저, 초단초점 기술, 터치 기반 인터랙션, 비전 부스터, 콤팩트한 디자인 등을 특징으로 한다. 이를 통해 일상 공간을 몰입형 콘텐츠 공간으로 전환하고 새로운 사용자 경험을 제공한다. 특히 더 프리미어5는 트리플 레이저 기술로 약 43㎝ 거리에서 최대 100형까지 투사할 수 있다. 벽, 바닥, 테이블 등 평면이 있는 어디서든 손쉽게 대형 화면을 구성할 수 있다. 터치 인터랙션 기능이 탑재된 프리미엄 가정용 프로젝터 '더 프리미어5' 이미지. 사진=삼성전자 제공 더 프리미어5 전용 스탠드에는 적외선 카메라와 적외선 레이저 모듈이 탑재돼 터치 기반의 사용자 조작도 지원한다. 가령, 스마트폰과 미러링한 콘텐츠를 테이블 위에 주사하면 테이블을 터치스크린으로 활용할 수 있어 게임, 교육 등 콘텐츠를 더 흥미롭게 즐길 수  있다. 더 프리미어5는 비전 부스터 기술을 통해 주변 밝기를 자동 인식하고 명암비, 색상, 대비를 조정해 선명한 화질도 구현한다. 또 '스마트싱스'를 사용해 집 안의 조명, 공기청정기, TV 등 다양한 스마트 디바이스를 연동 및 제어할 수 있어 더욱 통합된 스마트홈을 경험할 수 있다. 신제품 더 프리미어5 출고가는 199만원이다. 이헌 삼성전자 영상디스플레이사업부 부사장은 "더 프리미어5는 콘텐츠를 넘어서, 언제 어디서든 몰입감 있는 경험을 즐길 수 있도록 설계된 라이프스타일 중심의 제품"이라며 "터치 인터랙션 기능을 통해 홈 엔터테인먼트를 포함한 일상 속 스크린 경험의 새로운 기준을 제시할 것"이라고 말했다.</t>
   </si>
   <si>
-    <t>삼성전자가 '터치 인터랙션' 기능이 탑재된 가정용 초단초점 프로젝터 '더 프리미어5'를 출시했다. 이 제품은 트리플 레이저 기술과 터치 기반 인터랙션을 특징으로 하며, 콤팩트한 디자인과 선명한 화질을 제공한다. 더 프리미어5는 터치 인터랙션을 통해 교육, 비즈니스, 홈 엔터테인먼트 등 다양한 분야에서 활용 가능하다. 또한, 비전 부스터 기술을 통해 화질을 최적화하고 '스마트싱스'를 통해 다양한 스마트 디바이스를 연동할 수 있다. 이 제품은 199만원에 출고되며, 삼성전자는 이를 통해 새로운 라이프스타일 경험과 홈 엔터테인먼트의 새로운 기준을 제시할 것으로 기대하고 있다.</t>
+    <t>삼성전자가 '터치 인터랙션' 기능이 탑재된 프리미엄 가정용 초단초점 프로젝터 '더 프리미어5'를 출시하였다. 이 제품은 교육, 비즈니스, 홈 엔터테인먼트 등 다양한 환경에서 활용이 가능하며, 트리플 레이저 기술과 터치 기반 인터랙션을 특징으로 한다. 또한, 스마트홈 기기와의 연동도 가능하며 출고가는 199만원이다.</t>
   </si>
   <si>
     <t>AI는 일상 됐는데, 리터러시는 따라오지 못했다</t>
@@ -109,7 +131,7 @@
     <t>[M-커버스토리] AI는 일상 됐는데, 리터러시는 따라오지 못했다 로그인 회원가입 메트로人 머니 증권 은행 보험 카드 부동산 경제일반 산업 재계 자동차 전기전자 물류항공 산업일반 IT·과학 인터넷 게임 방송통신 IT·과학일반 정치＆정책 국회정당 대통령실 정책 공기업 생활경제 사회 지방행정 국제 사회일반 에듀＆JOB 기획연재 오피니언 기자수첩 칼럼 인사 동정 부음 라이프 문화 스포츠 운세 AI영상 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 메트로人 머니 증권 은행 보험 카드 부동산 경제일반 산업 재계 자동차 전기전자 물류항공 산업일반 IT·과학 인터넷 게임 방송통신 IT·과학일반 정치＆정책 국회정당 대통령실 정책 공기업 생활경제 사회 지방행정 국제 사회일반 에듀＆JOB 기획연재 오피니언 기자수첩 칼럼 인사 동정 부음 라이프 문화 스포츠 운세 AI영상 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼＆컨퍼런스 포럼＆컨퍼런스 지면PDF 메트로人 머니 산업 IT·과학 정치＆정책 생활경제 사회 에듀＆JOB 기획·연재 오피니언 라이프 AI영상 증권 은행 보험 카드 부동산 경제일반 재계 자동차 전기전자 물류항공 산업일반 인터넷 게임 방송통신 IT·과학일반 국회정당 대통령실 정책 공기업 지방행정 국제 사회일반 기자수첩 칼럼 인사 동정 부음 문화 스포츠 운세 메트로人 머니 산업 IT·과학 정치＆정책 생활경제 사회 에듀＆JOB 기획·연재 오피니언 라이프 AI영상 포럼＆컨퍼런스 지면PDF IT/과학&gt;IT/인터넷 [M-커버스토리] AI는 일상 됐는데, 리터러시는 따라오지 못했다 메트로신문 김서현 기자 ㅣ2025-04-27 13:59:01 뉴스듣기 가 가 가 가 가 일상적으로 AI를 활용하는 사람들이 늘고 있지만 AI 리터러시에 대한 관심은 상대적으로 떨어지고 있다. 연구결과 AI 리터러시가 가장 높은 집단은 AI 친숙도가 낮은 40대로 나타났으며 친숙도와 활용도가 AI 리터러시에 반드시 긍정적인 결과를 가져오지는 않는 것으로 드러났다. /AI 생성 이미지 인공지능(AI)이 우리의 일상을 바꾸며 AI 리터러시(AI Literacy, 문해력)의 필요성이 대두되고 있다. 2022년 11월 오픈AI가 챗GPT를 공개한 후 전세계는 한순간에 기술 빅뱅을 경험했다. 이전까지는 전문가만이 접근할 수 있던 AI 기술이 이제는 누구나 채팅하듯 사용할 수 있게 되면서, AI는 전문가의 전유물에서 대중의 일상 도구로 자리잡았다. 산업계도 빠른 AI 전환이 생존책이라는 인식이 널리 퍼지면서 AI 도입에 서둘렀다. 이처럼 AI의 발전과 대중화는 빨라지고 있지만 AI 리터러시에 대한 사회적 논의는 더디다. 초중고에서의 AI 리터러시와 관련한 내용이 올해 도입됐지만 성인을 대상으로 한 AI 리터러시 관련 정책 등은 여전히 일천하다. 25일 &lt;메트로경제신문&gt; 취재를 종합해보면 이달 MIT 컴퓨터과학 및 인공지능연구소(CSAIL)이 온라인 아카이브를 통해 공개한 논문에 따르면 주요 AI모델들 모두 답변에 일관성이 없고 중심이 되는 가치관과 선호 또한 존재하지 않았다. 결과적으로 관습적, 도덕적 문제들에 대해 인간의 개입이 쉽지 않다는 것. 연구진은 "이번 연구를 통해 깨달은 것은 AI 모델이 안정적이고 일관된 신념과 선호를 가진 체계가 아니라는 것"이라며 "대신, AI는 되는대로 말을 막던지는 모방자일 뿐"이라고 설명했다. AI가 적절하지 않거나 틀린 답변을 생성할 수 있는 상황에서 AI 리터러시는 더욱 중요해졌다. AI 리터러시란 단순히 기술을 사용하는 능력에 그치지 않는다. AI가 어떤 원리로 작동하는지, 어떤 데이터에 기반해 결정을 내리는지, 그 한계와 위험은 무엇인지를 이해하는 능력까지 포괄한다. '개인화'나 '이용자 친화성'을 내세워 편향된 정보만을 제공하는 필터버블(Filter Bubble), 대화형 AI 모델이 실존하지 않는 사실이나 맥락을 벗어난 답변을 만들어내는 환각(할루시네이션) 현상 등, AI가 작동하는 거의 모든 영역에서 필수다. 중요성과 달리 현실은 다소 엇박자를 타고 있다. AI 활용은 계속해서 늘어나고 있지만 허위정보를 식별할 수 있는 능력은 떨어진다. 픽플리가 10대 이상 소비자 1002명을 대상으로 진행한 설문조사에 따르면 응답자의 89.7%가 "AI 기술이나 서비스를 이용해봤다"고 응답했다. AI 경험자의 79.2%는 검색 및 정보 탐색 목적으로 AI를 활용하고 있었으며, 생성형 AI의 경우 응답자의 84.6%가 "사용 경험이 있다"고 답했다. 특히 생성형 AI 서비스 중에서는 챗GPT가 93.9%로 압도적인 사용 경험을 보였다. 사적 영역에서의 AI 활용도 두드러진다. '페르소나 AI'로 불리는 AI 친구·연인이 주목을 받고 있다. 감성형 AI 서비스를 제공하는 '제타(Zeta)'를 개발한 기업 스캐터랩에 따르면 지난해 말 기준 제타의 월간 활성 이용자 수(MAU)는 약 70만명에 달하며 이용자들이 AI와 주고받은 대화 건수는 한 달간 14억9000만건을 기록했다. 사용자들의 평균 주간 이용 시간도 9.5시간이 넘는 것으로 집계됐다. AI 활용은 늘었지만, 신뢰나 판단능력은 여전히 불안정하다. AXA가 발표한 'AXA 미래 위험 보고서'에 따르면 전문가 3000명과 일반 대중 2만 명의 인식을 조사한 결과 전문가는 80%, 대중은 78% 스스로 AI 관련 허위정보를 식별할 수 있다고 응답했다. 정작 타인에 대한 정보 분별력에 대해서는 전문가는 25%, 대중은 40%로 나타났다. 연구에서는 AI에 친숙할수록 AI 리터러시가 떨어지는 현상도 나왔다. 논문 '생성형 AI에 대한 감정요인이 AI 리터러시와 프라이버시에 미치는 영향'에 따르면 AI 리터러시가 가장 높게 나타난 집단은 AI에 대한 불안감이 가장 높고, 활용이 많지 않은 40대였다. AI 친숙성이 높은 집단 역시 AI 리터러시가 유의미하게 높았다. 그러나 불안감과 이용빈도가 낮은 집단의 AI 리터러시가 더 높게 나타난 만큼, AI에 능숙하고 친밀하다고 해서 AI 리터러시가 높은 것은 아니란 결론이 나온다. 전문가들에 따르면 AI의 활용이 늘어났지만 정작 AI 리터러시는 떨어지는 현상은 생성형 AI의 갑작스러운 출현과 관계있다. 생성형 AI는 예상치 못한 순간 나타나면서 자연스럽게 대중이 기술을 이해할 기회가 없었다. 이는 곧 AI 기술에 대한 무조건적인 찬양 또는 거부감으로 나타났는데, 거기에 더해 개개인이 직접 AI 교육을 찾아 사설기관에서 들어야 한다는 점 또한 AI 리터러시의 하향 평준화에 역할을 하고 있다. 앞선 AI 리터러시 관련 연구를 진행한 연세대학교 바른ICT연구소 김현정 연구원은 "AI 기술의 잠재적 위험을 인식하는 사람들이 더 많은 정보를 습득하려는 동기부여가 강하다는 것은 중요한 시사점"이라며 "AI 리터러시 교육이 단순히 기술적 지식을 전달하는 것에서 나아가, 프라이버시 보호 등과 관련된 실질적인 전략을 포함해야 할 것"이라고 설명했다. 김동환 포티투마루 대표는 지난 25일 '인공지능민간특별위원회' 발대식에서 민간기업으로서 느낀 정책 발전 필요성을 말하며 AI 리터러시의 중요성을 말하기도 했다. 김 대표는 "우리나라는 독자적인 IT 생태계를 가진 몇 안 되는 나라지만 국민의 AI 이해 수준은 AI 시대에 오히려 낮아졌다"며 "지브리 생성처럼 잠깐의 유행은 있었지만, 지속적인 활용과 이해로 이어지지 않는다"고 꼬집었다. 그러면서 "모두를 위한 AI 사회를 만들기 위해서는 기술보다 리터러시가 우선"이라며 "전 국민을 대상으로 한 리터러시 정책과 교육 체계가 병행돼야 진정한 AI 강국이 될 수 있다"고 말했다. 끝으로 "지금 한국은 기술, 데이터, 인프라, 인재, 리터러시 무엇 하나 넉넉하지 않지만, 우리가 집중해야 할 우선순위는 명확하다"며 "현실 가능한 기술로 산업 현장을 혁신하는 AX 전략과 국민 눈높이에 맞춘 AI 리터러시 제고에 국가적 역량을 집중해야 한다"고 조언했다. 기사이력코드 취재(기획) 취재(기획) 취재(제보) 취재(자료보완) 보도자료 SNS 서핑 기타(국내외 논문·학술지) 기타(증권사 리포트) 기타(타 언론사 후속보도) 메트로신문 김서현 기자  seoh@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 메트로신문 지면 PDF 보기 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
   </si>
   <si>
-    <t>2022년 이후 AI 기술이 보편화되면서 AI 리터러시의 중요성이 부각되고 있다. AI를 사용하는 사람들 중에서도 40대가 가장 높은 AI 리터러시를 보여주고 있으며, AI에 대한 이해와 활용이 반드시 긍정적인 결과를 가져오지는 않는다는 연구결과가 나왔다. AI가 빠르게 발전하고 대중화되는 가운데, AI 리터러시에 대한 사회적 논의는 더디며, 허위정보를 식별할 수 있는 능력은 떨어지고 있다. 연구 결과에 따르면 AI에 친숙한 집단일수록 AI 리터러시가 낮아지는 현상도 나타났다. AI 리터러시는 AI 기술을 이해하고 그 한계와 위험을 이해하는 능력을 포괄하며, AI가 생성하는 정보를 신뢰하고 판단하는 능력이 중요하다.</t>
+    <t>AI 기술이 빠르게 발전하고 대중화되는 가운데, AI 리터러시에 대한 사회적 관심이 부족한 상황이며, 특히 40대가 AI에 대한 불안감이 높으면서도 AI 리터러시가 높게 나타나는 현상이 나타나고 있다. 이에 따라 AI 리터러시 교육이 더욱 필요한 시점이라는 결론이 나왔다.</t>
   </si>
   <si>
     <t>메타버스 홀대 속에도 지난해 VR·AR 시장, 15% 성장…인력·자금 지원 동반돼야</t>
@@ -124,10 +146,7 @@
     <t>국내 VR·AR 사업 매출액 추이. 자료=소프트웨어정책연구소 주요 기업들이 메타버스 서비스를 속속 접고 있음에도 지난해 가상현실(VR)·증강현실(AR) 시장은 전년도 대비 15% 가량 성장한 것으로 나타났다. 그러나 업계가 예상하는 올해 시장 상황은 녹록치 않아 성장을 지원하기 위한 노력이 다각도로 필요하다는 지적이 제기된다. 소프트웨어정책연구소가 지난달 말 공표한 '가상증강현실(VR·AR) 산업실태조사 2024'에 따르면, 지난해 VR·AR 사업 매출액(총 795개 기업 대상 조사)은 9501억원으로 전년도인 2023년 8248억원보다 15.2% 증가했다. 산업별로는 '문화 콘텐츠'가 2994억원으로 전체 매출액 대비 36.3%로 가장 높게 나타났다. '산업 콘텐츠(31.3%)', '전용 소프트웨어(SW) 개발 및 공급업(15.3%)', '전용기기, 장치물 및 부분품 제조(12.2%)' 순으로 나타났다. 기업당 평균 매출액도 2023년 10억 4000만원에서 지난해 12억원 가량으로 소폭 올랐다. 활용 기술별로는 VR 활용기업 매출액이 5981억원으로 절반 가량을 차지했다. 'AR 활용기업(2060억원)', '홀로그램 활용기업(205억원)'이 뒤를 이었다. 지난해 매출은 증가했지만 산업 전망은 여전히 밝지 않다. 올해 국내 VR·AR 산업 전망은 5점 평균 기준으로 2.41점을 기록했다. 100점 평균을 기준으로 했을 때에는 35.31점이다. 해외 시장도 비슷하다. 올해 해외 VR·AR산업 전망은 5점 기준 2.54점, 100점 기준으로는 38.43점을 나타냈다. 업계는 여전히 VR·AR 산업 성장 단계가 '초기성장기(47%)'에 머물렀다고 판단했다. 성숙기에 접어들었다고 답한 비율은 9.6% 불과했다. 업계는 기술격차를 해소하고 산업이 지속 성장하기 위해 인력·투자 등이 필요하다고 지적했다. '기술격차 해소 방안'을 묻는 질문에 '연구개발(R&amp;D) 투자 확대(39.5%)'와 '내부 인력 양성(35%)' 답변 비율이 가장 높았다. 최용기 한국메타버스산업협회 상근부회장은 “삼성전자를 비롯해 구글, 칼리버스(롯데이노베이트 자회사) 등 국내외 주요 메타버스 사업자가 본격적으로 활동하기 시작하면서 올해 말을 기점으로 시장 활성화 바람이 예상된다”면서 “정부가 인력양성·투자 등 다방면 지원을 통해 힘을 실어 준다면 최근 소강상태를 겪는 국내 메타버스 업계가 다시 도약하는 발판이 될 것”이라고 말했다.</t>
   </si>
   <si>
-    <t>국내 VR·AR 시장은 전년대비 15% 성장했지만, 올해 전망은 불투명하다. '비상교육'이 발표한 조사에 따르면, 지난해 VR·AR 산업 매출액은 9501억원으로 증가했으며, 주요 매출은 '문화 콘텐츠'에서 발생했다. 하지만 업계는 여전히 초기성장기에 머물렀으며, 기술격차 해소를 위해 R&amp;D 투자와 내부 인력 양성이 필요하다고 지적했다. 최용기 한국메타버스산업협회 상근부회장은 국내외 주요 기업들이 활동을 본격화하면서 시장 활성화가 예상된다고 전망했다.</t>
-  </si>
-  <si>
-    <t>교육정책</t>
+    <t>국내 VR·AR 시장은 전년도 대비 15% 성장했지만 올해 전망은 불투명하며, 업계는 기술격차 해소와 인력양성을 통한 지원이 필요하다고 지적하고 있다. 최근 메타버스 사업자들의 활동으로 시장 활성화가 기대되지만 정부의 지원이 필요하다고 강조하고 있다.</t>
   </si>
   <si>
     <t>교권 추락에…확 낮아진 교대 합격 문턱</t>
@@ -142,7 +161,7 @@
     <t>2025학년도 5곳 합격선 분석 내신 6등급·수능 4등급으로 뚝 교권 보호법에도 악성민원 여전 MZ초등교사 43% "이직 원해" 학령인구 감소로 교대 모집 인원이 줄어드는 상황에서도 교대 합격선은 낮아지고 있다. 잇단 교권 침해와 열악한 근무환경으로 교사의 직업 만족도가 떨어지고 있기 때문이라는 분석이다. 27일 종로학원에 따르면 서울교대 춘천교대 한국교원대 광주교대 청주교대 등 주요 5개 교대의 2025학년도 수시전형 내신 합격선은 3.61등급으로 집계됐다. 2023학년도 2.74등급, 2024학년도 3.22등급 등 지속적으로 하락세를 보이고 있다. 춘천교대는 수시 일반전형 합격자 최저 성적이 6.15등급으로 전년도(4.73등급)보다 크게 낮아졌다. 특별전형인 국가보훈대상자전형에서는 7등급대 학생도 합격했다. 다른 교대의 인기도 예전 같지 못한 상황이다. 서울교대의 올해 수시 일반전형 최저 합격선은 2.10등급으로 전년(1.97등급)보다 0.13등급 하락했다. 한국교원대는 2.05등급에서 2.25등급으로, 청주교대는 2.92등급에서 3.44등급으로 합격선이 떨어졌다. 광주교대는 유일하게 전년도와 같은 3.54등급을 유지했다. 정시 합격선도 비슷한 흐름을 보였다. 서울교대는 자체 환산점수 기준으로 전년(621.74점)보다 3.33점 하락한 618.41점이 합격선이었다. 전년도 수능 4등급대 초반이던 광주교대 정시 합격선은 올해 4등급대 중반까지 떨어졌다. 5개 교대는 올해 선발인원을 1402명에서 1258명으로 10.3% 줄였다. 경쟁이 더 치열해질 것이라는 전망과 달리 합격선이 오히려 하락한 것이다. 전문가들은 교권 침해 등으로 교사라는 직업의 매력도가 떨어진 것이 하나의 원인이라고 분석한다. 2023년 서울 서이초 교사가 학부모의 악성 민원으로 극단적 선택을 한 이후 ‘교권 보호 5법’ 개정안이 시행됐지만 현장의 변화는 미미한 것으로 조사됐다. 한국교총이 지난달 전국 유치원과 초·중·고교 교원 6111명을 대상으로 실시한 설문조사 결과 전체 응답자의 79.6%가 “교권 보호와 관련한 긍정적인 변화를 체감하지 못했다”고 답했다. 업무 강도가 높아지는데 비해 임금 수준이 낮은 것도 교사들의 직무 만족도를 저하하는 요인으로 분석됐다. 서울교육청 교육연구정보원이 최근 발표한 ‘서울교원종단연구’에 따르면 조사에 참여한 초등교사 1020명은 ‘적절한 보수를 받고 있는지’에 대해 5점 만점에 평균 1.91점을 부여했다. 처우에 대한 불만으로 교단을 떠나려는 젊은 교사도 늘어나고 있다. 초등교사 응답자의 42.5%가 “이직을 모색 중이거나 조건이 맞으면 교직을 떠날 계획이 있다”고 답했다. 교육계 관계자는 “업무 책임은 증가하는 데 비해 성취감이나 보람은 적고, 낮은 보수와 현실성 없는 수당이 교사라는 직업에 대한 회의감으로 이어지고 있다”고 설명했다.</t>
   </si>
   <si>
-    <t>2025년 학년도 5개 교대의 합격선이 계속 낮아지고 있음. 교사 직업 만족도 하락, 교권 침해 등으로 인해. 서울교대, 춘천교대 등의 합격선이 하락하며 인기 감소. 교사들의 임금 수준 낮고 업무 강도 높아짐. 교사들의 직무 만족도 저하. 초등교사 중 43%가 이직을 원하는 상황. 교육계 관계자는 교사들의 회의감이 높아지고 있다고 분석. '비상교육' 회사의 업무 책임 증가, 보람 부족 등으로 이직하려는 교사들 증가. 전문가들은 교사 직업의 매력이 떨어지고 있는 것이 합격선 하락의 원인이라고 설명.</t>
+    <t>2025년도 교대 합격선이 낮아지고 있으며, 교사의 직업 만족도가 낮아지는 상황. 교권 보호법 시행 후 변화 미미하며, 교사들의 임금 수준과 직무 만족도가 저하되고 있음.</t>
   </si>
   <si>
     <t>도입 두 달인데 AI 교과서 사용 저조…발행사, 손실 이어져 한숨만</t>
@@ -157,7 +176,7 @@
     <t>"기술 장벽 여전, 기존 교육법 대체할 만큼 효용 없어" AIDT 미래 불투명…발행사, 정부 상대 공동대응 가능성 '대한민국 교육혁신 박람회'에서 관람객들이 인공지능 디지털교과서(AIDT)를 체험하고 있다. /뉴스1 ⓒ News1 권현진 기자 (서울=뉴스1) 장성희 기자 = 인공지능 디지털교과서(AIDT)가 도입된 지 두 달이 지났지만, 교실 내 수업 활용률이 10%에 미치지 못하는 것으로 나타났다. 이미 저조한 AIDT 채택률에 더해 활용률마저 기대를 크게 밑돌고 있다. 발행사는 운영비도 충당하기 어렵다며 한숨만 내쉬는 상황이다. 이 때문에 손해가 계속될 경우 발행사가 공동으로 정부를 상대로 소송에 나설 수 있다는 전망도 나온다. 28일 국회 교육위원회 소속 백승아 더불어민주당 의원실에 따르면 AIDT 플랫폼에 가입한 학생들의 일평균 접속률은 대부분 10%를 넘지 못했다. 10명 중 9명이 하루에 한 번도 AIDT를 접속조차 하지 않았다는 의미다. 거의 모든 학교가 AIDT를 채택한 대구조차 일평균 최대 접속률이 11%였다. 세종에서는 중학생과 고등학생의 접속률이 각각 0.3%, 0.5%에 불과한 것으로 조사됐다. 교사들은 적극적으로 AIDT를 사용하지 않고 있다. 서책보다 나은 부분도 있으나 기존의 교육법을 대체할 만큼 효용은 느끼지 못한다는 것이다. 또 아직 AIDT 사용에 어려움을 느끼는 교사·학생들이 많아 활용이 원활하지 않다는 설명이다. 세종에서 근무하는 교사 A 씨는 "아이들의 수준을 진단·평가할 때 부분적으로 AIDT를 쓰긴 하나 사실 거의 운영이 안 되고 있다"며 "특히 영어 과목의 경우, 챗봇이 작동하지 않는 등 기존 코스웨어(디지털 교육 시스템)보다 못한 품질이라며 불만이 많이 나오는 상황"이라고 말했다. 이어 "나이가 있는 교사들을 중심으로 기기 사용에 미숙한 분들이 있다"며 "(학생뿐 아니라) 교사도 AIDT에 대한 기술 장벽이 큰 상황"이라고 전했다. 대구의 초등교사 B 씨는 "아이들이 AIDT에 접속하는 시간이 오래 걸리기도 하고, 누군가 아이디나 비밀번호를 잊어버리기라도 하면 준비 시간이 더 소요된다"며 "저와 주위 선생님들도 2~3번만 AIDT를 사용한 것 같다. 기존 교과서나 PPT, 게임 활동으로 수업하는 게 더 (활용도가) 좋다고 느꼈다"고 했다. 당초 교육부는 30%가량인 올해 1학기 AIDT 채택률이 2학기가 되면 70~80%까지 올라갈 것이라고 기대했다. 하지만 현장에서는 이 같은 저조한 사용이 학기 내내 이어질 것이라는 전망이 우세하다. AIDT를 출판한 발행사는 애만 타는 상황이다. 올해 AIDT가 의무 채택이 아닌, 학교의 자율에 맡기면서 발행사는 당초 예상에 미치지 못하는 도입률(32.4%)에 직면했다. 사용자 수가 증가하지 않으면 현재 겪는 손실이 더 극심해질 수밖에 없다. AIDT를 적극적으로 추진한 이주호 사회부총리 겸 교육부 장관은 곧 직에서 물러나고 한 달 뒤면 새 정부가 출범한다. 업계에서는 이처럼 AIDT의 미래가 불투명한 상황에서 손실이 극대화될 경우 발행사가 정부를 상대로 소송에 나설 수 있다는 관측도 나온다. AIDT 업계 관계자는 "현재 구독료만으로 투자 비용은 물론, 서버 관리·연수 등에 드는 운영비조차 충당할 수 없어 어려운 상황"이라며 "(공동으로) 소송을 제기할 가능성도 있다고 본다"고 말했다.</t>
   </si>
   <si>
-    <t>'비상교육'이라는 회사가 개발한 인공지능 디지털교과서(AIDT)가 도입된 지 두 달이 지난 상황에서 교실 내 활용률이 낮아 발행사가 운영비를 충당하기 어려워하는 상황이다. AIDT 플랫폼에 가입한 학생들의 접속률은 10%를 넘지 못하며, 교사들도 적극적으로 활용하지 않고 있다. 발행사는 예상을 못 미치는 도입률에 직면하며 손해가 계속될 경우 정부를 상대로 소송에 나설 가능성도 있다고 전망된다. AIDT의 미래가 불투명한 상황에서 발행사의 손실이 더 커질 수 있어 소송 가능성도 제기됐다.</t>
+    <t>AIDT(인공지능 디지털교과서) 도입 후 교실 내 활용률이 낮아 발행사가 운영비 부담에 어려움을 겪고 있으며, 교사와 학생들 사이에 기술 장벽이 존재하는 것으로 나타났다. AIDT의 미래가 불투명한 상황에서 발행사가 정부를 상대로 소송에 나설 가능성도 제기되고 있다.</t>
   </si>
   <si>
     <t>"디지털 성폭력 예방·대응"…교육부, 가이드라인 발간</t>
@@ -172,7 +191,7 @@
     <t>딥페이크 성범죄 등 학생 보호 구성원에 피해 대응 지침 공지 [서울경제] 교육 당국이 디지털 성폭력 예방부터 대응 방안 등을 담은 가이드라인을 처음으로 만들었다. 27일 교육계에 따르면 교육부는 최근 학교에서 발생하는 디지털 성폭력에 초기 대응할 수 있게 돕는 '디지털 성폭력 SOS 가이드'를 발간했다. 총 5종류로 구성된 가이드는 딥페이크 성범죄나 불법 촬영 등 디지털 성폭력 위험으로부터 학생을 보호하고, 피해 발생 시 학교 구성원이 신속·정확하게 대응할 수 있도록 지원하고자 마련됐다. 가이드라인 발간은 지난해 11월 관계부처 합동으로 발표한 ‘딥페이크 성범죄 대응 강화 방안’의 후속 조처다. 가이드에는 학교에서 발생할 수 있는 디지털 성폭력 유형과 디지털 성폭력 발생 시 학교 구성원의 상황별 대응 방법, 도움받을 수 있는 기관, 예방 수칙 등이 담겼다. 대상별 이해도를 높이기 위해 초등학생용, 중·고등학생용, 대학생용, 교사용, 학부모용으로 각각 제작됐다. 본인이 피해를 본 경우의 대응 요령뿐 아니라 친구나 제3자가 피해를 본 상황에서 주변 사람이 해야 할 역할도 안내한다. 교육부는 지난달 31일부터 이 안내서를 각 시도교육청 및 학교에 배포했다. 교육부 누리집, 교원 전용 디지털 플랫폼 '잇다(ITDA) 사이트' 및 학부모 온누리 누리집에도 탑재돼 누구나 활용할 수 있다. 배동인 교육부 정책기획관은 "교육부는 작년 딥페이크 성범죄 사건 이후 신속한 대응 및 디지털 성폭력 교육자료 제작·보급 등 디지털 성폭력 예방과 피해자 보호·지원 등을 위해 노력해 왔다"며 "앞으로도 학교가 디지털 성폭력으로부터 안전한 공간이 될 수 있도록 최선을 다하겠다"고 말했다.</t>
   </si>
   <si>
-    <t>교육부가 디지털 성폭력 대응가이드 '디지털 성폭력 SOS 가이드'를 발간했다. 이 가이드는 딥페이크 성범죄나 불법 촬영 등 디지털 성폭력 위험으로부터 학생을 보호하고, 피해 발생 시 학교 구성원이 신속·정확하게 대응할 수 있도록 지원한다. 가이드는 학생용, 교사용, 학부모용 등 총 5종류로 제작되었고, 디지털 플랫폼을 통해 무료로 제공된다. 교육부는 디지털 성폭력 예방과 피해자 보호를 위해 계속 노력할 것이라고 밝혔다.</t>
+    <t>교육부가 디지털 성폭력에 대한 대응가이드를 발간하여 학교에서 발생할 수 있는 디지털 성폭력에 대비하고 학생을 보호하고자 함. 이를 통해 학교 구성원이 신속하고 정확하게 대응할 수 있도록 지원하고자 함. 디지털 성폭력 예방과 피해자 보호를 위해 교육부가 노력하고 있음.</t>
   </si>
   <si>
     <t>의대생 무더기 유급 코앞…정부·의대생 '동상이몽'</t>
@@ -187,7 +206,7 @@
     <t>의대생 수업 복귀 여부 설문조사 진행 교육부 "자발적 수업 참여 계기 되길" 일부 의대생 "투표는 하되 수업 거부" [서울=뉴시스] 김진아 기자 = 서을 시내의 한 의과대학. 2025.04.18. bluesoda@newsis.com [서울=뉴시스] 구무서 기자 = 의대생들의 유급 여부를 결정해야 하는 시기가 다가오고 있지만 뚜렷한 복귀 조짐은 아직 보이지 않은 가운데, 정부와 의대생 모두 수업 참여를 묻는 설문조사를 두고 서로 다른 기대와 대응 방법을 내놓으며 맞서고 있다. 28일 교육계에 따르면 교육부는 의대 학장들의 모임인 한국의과대학·의학전문대학원협회(KAMC)와 함께 의대생을 대상으로 수업 복귀 의향을 묻는 설문조사를 진행 중이다. 의대생들의 수업 참여율이 25.9%에 그쳤지만 교육부는 학생들의 복귀를 유도하기 위해 지난 17일 2026학년도 의대 모집인원을 5058명에서 증원 전 수준인 3058명으로 조정했다. 22일에는 의정갈등 이후 이 부총리와 의대생들이 처음으로 공개 간담회를 갖고 이후 교육부가 의대생 단체와 각 의대 학생회 등에 대면 회의를 요청하는 공문을 발송하며 대화 분위기를 조성했다. 그럼에도 의대생들의 복귀는 요원한 상태다. 이주호 사회부총리 겸 교육부 장관은 지난 24일 국회 교육위원회에서 "실제로 돌아온 숫자 증가는 아직 미미해서 계속 대화를 하고 있다"고 밝혔다. 이달 말까지 대부분의 의대가 본과 4학년의 1학기 유급 여부를 결정한다. 개강 시기가 상대적으로 늦은 저학년 의대생들도 5월 초중순까지 유급 시한 만료를 앞두고 있다. 2026학년도 의대 모집인원 조정과 별개로 올해는 지난해 '학사 유연화'와 같은 특혜 조치는 없다고 교육부와 대학이 거듭 강조한 만큼 학생들이 돌아오지 않으면 유급 조치는 불가피해 보인다. 이 경우 의대 모집인원 조정 취지가 무색하게 내년 2024학번과 2025학번, 2026학번이 동시에 수업을 듣는 '트리플링' 현상이 발생하게 된다. 교육부는 이번 설문조사를 통해 또 한번 학생들의 복귀 계기가 마련될 것으로 기대하고 있다. 교육부는 지난 25일 출입기자단에 안내를 통해 "학교현장과 의료계 커뮤니티에 수업 복귀를 희망하는 학생이 대다수이나 비자발적 사유로 인해 실제 수업참여를 못하고 있다는 의견이 많이 있다"며 "이에 교육부는 KAMC와 협의해 학생들의 실제적인 수업참여 의사를 확인하고자 익명으로 학생들의 의견을 묻기로 했다. 이를 통해 학생들의 자발적 의사에 따른 수업참여의 계기가 됐으면 한다"고 했다. 반면 대한의과대학·의학전문대학원학생협회(의대협) 등 일부 의대생 단체는 이번 설문조사에 복귀를 하는 방향으로 투표를 하되 행동에 있어서는 수업 거부 상태를 유지하는 방식을 학생들에게 권유하는 것으로 알려졌다. 전날 제77차 정기 대의원 총회를 연 대한의사협회(의협)는 의대생에게 준회원 자격을 부여하고, 의대 증원 정책에 대한 국정조사를 요구하는 결의문을 채택했다. 의대생들의 복귀와 미복귀자의 유급 처리를 담당해야 하는 각 대학은 마지막까지 학생 복귀에 안간힘을 쏟고 있다. 건국대 의대는 복귀·미복귀 학생을 위한 마음 치유 상담 프로그램을 운영한다. 5월부터 내년 2월까지다. 원광대 의대는 지난 21일부터 5월 16일까지 2025학년도 1학기 대학생활 적응검사를 시행한다. 대인관계, 정서안정, 학업적응, 진로적성 등 78개 영역을 온라인 조사 형태로 실시한다. 윤재웅 동국대 총장은 지난 25일 '사랑하는 동국대 의대 학생 여러분께'라는 제목의 글을 통해 "올해는 학사 유연화 조치가 적용되지 않아 엄격한 학사관리를 할 수밖에 없는 상황에 있고, 수업 복귀 지연에 따른 유급 시한이 다가오고 있다"며 "지금의 어려움을 함께 극복하고, 하루빨리 정상적인 학업으로 돌아와 주시기를 바란다"고 말했다．</t>
   </si>
   <si>
-    <t>의대생들의 수업 복귀 여부를 놓고 정부와 의대생들 간의 설문조사와 대화가 이뤄지고 있는 가운데, 교육부는 의대 모집인원을 조정해 복귀를 유도하고 있다. 의대생들의 수업 참여율은 25.9%에 불과하며, 유급 처리는 불가피할 수도 있다. 의대생들은 복귀 여부를 결정하기 위해 투표를 하되, 일부 단체는 수업 거부를 권유하고 있다. 대학들은 복귀·미복귀 학생을 위한 프로그램을 운영하며, 학사 유연화 조치는 없다는 점을 강조하고 있다. 교육부는 학생들의 자발적인 수업 참여를 위해 익명 설문조사를 실시하고 있으며, 학생들의 복귀 계기를 마련하기 위해 노력하고 있다.</t>
+    <t>의대생들의 수업 복귀 여부를 놓고 정부와 의대생들 간에 설문조사와 대화가 이뤄지고 있으며, 일부 의대생들은 수업 거부 상태를 유지하고 있음. 대학들은 복귀·미복귀 학생을 위한 프로그램을 운영하고 있으며, 교육부는 학생들의 자발적인 의사에 따른 수업참여를 유도하고 있음.</t>
   </si>
   <si>
     <t>[이치우의 입시 Basic] 고1, 바뀐 입시 걱정할 시간에 내신부터 잡아야</t>
@@ -202,7 +221,7 @@
     <t>이치우 비상교육 입시평가소장 올해 고1은 고교학점제가 전면 도입되는 첫 해를 보낸다. 고교학점제는 학생이 기초 소양과 기본 학력을 바탕으로 진로·적성에 따라 과목을 선택하고, 이수 기준에 도달한 과목에 대해 마치 대학교처럼 학점을 취득하고 총 192학점을 누적하여 졸업하는 제도이다. ○ 고교학점제가 바꿔놓은 풍경 고등학교 수업량 기준을 ‘단위’에서 ‘학점’으로 전환해 고교학점제라고 불리는데, 2022개정교육과정의 고등학교 과정이라고 보면 된다. 이전 2015개정교육과정에서 특목고를 중심으로 개설된 전문교과Ⅰ과정을 보통교과로 편제하고, 전문교과Ⅱ(전문계고 과정)은 전문교과로 하여 과목구조 개편 및 과목을 재배치했다. 보통교과 과목이 △공통과목 △일반선택과목 △진로선택과목에서, ▲공통과목 ▲일반선택과목 ▲융합선택과목 ▲진로선택과목으로 확대된다. 학기 단위로 과목 편성 운영이 가능하도록 교과서가 1학기, 2학기로 구분되고 교과학습발달상황이 학기 기준으로 작성된다. 고교학점제는 학생 맞춤형 교육과정을 운영하기 위해 다양한 과목이 편성되고, 학생은 진로와 학습 상담을 통해 진로 설계 및 학습 계획을 수립하며, 자신의 학습 계획에 따라 수강 희망 과목을 신청할 수 있다. 재학 중인 학교에서 수강할 수 없는 과목은 인근 지역 학교 간 상호 협력을 통한 공동교육과정, 학교 운영이 어려운 과목 등을 개설해 정규 수업시간에 운영하는 온라인학교, 대학 및 지역 기관과 연계한 지역연계 교과융합형 프로그램 등을 통해 수강할 수 있다. 고교학점제의 수업과 평가는 학생의 성장을 지원하는 활동 중심의 참여형 수업과 학생의 성장을 지원하는 과정중심 평가를 지향한다. 학업성취도(A,B,C,D,E,I)는 ‘미이수’ 단계를 도입해 학업성취율 40% 미만인 ‘I(Incomplete)’ 성취도를 받은 경우 보충학습프로그램을 통해 이수할 수 있도록 지원한다. 수업 횟수 2/3 이상 출석과 학업성취율 40% 이상이라야만 해당과목 학점을 이수할 수 있다. 학년 진급 요건은 3년제를 유지해 유급되지 않고 3년간 수업으로 졸업한다. ○ 고교학점제 불안? 신경 쓸 겨를 없다 교육부는 2017년 11월에 교육과정 다양화로 고교교육 혁신을 시작한다는 취지 아래 고교학점제 추진 방향 및 연구학교 운영계획을 발표하고, 학생들의 진로 설계와 성장을 지원하기 위해 체계적 준비와 검토를 거쳐 단계적으로 고교학점제를 추진해 왔다. 그동안 고등학교에서는 고교학점제 연구학교와 선도학교를 시행해왔기 때문에 고교와 교사 입장에서 고교학점제는 크게 낯설지 않을 수 있다. 올해 고등학교에 입학한 1학년 역시 학교에서 안내하는 과목선택 가이드를 따라 고교학점제 과정을 학년별로 적응해 나가면 된다. 다만, 학부모 입장에서 조바심이 난다. 달라지는 교육과정으로 인한 불안감과 과목 선택에 따른 대학 입시에서의 유불리를 따지지 않을 수 없다. 그러나 고교학점제에서 선택과목은 고2와 고3 과정에서 선택한다. 그러니 고1은 공통교육과정의 범위 내에서 해당 과목의 높은 학업성취도를 받는 데 주력해야 한다. 즉, 과목별로 원점수, 성취도, 석차등급을 잘 받겠다는 기본에 충실해야 한다는 말이다. 고1은 1학기 중간고사에서 무너지면 고등학교 전 과정이 힘들어지는 경향이 있다. 고1 공통과목 과정에서 고2~3 과정 일반선택과목, 융합선택과목, 진로선택과목으로 학습 위계가 이어지기 때문에 고1 과정은 매우 중요한 기초가 된다. 국어, 수학, 영어 등 기초과목을 1학년부터 잘 관리해야 한다. ○ 5등급제, 등급 올리기 더 어려워져 고교학점제가 시행되면서 학생부교과(내신) 과목별 기록은 △원점수 △석차등급(9등급) △성취도 △평균/표준편차 △수강자수에서, ▲원점수 ▲석차등급(5등급) ▲성취도 ▲평균 ▲수강자수로 과목 이수 정보가 달라졌다(표준편차 제외). 고교학점제 석차등급은 9등급에서 5등급으로 등급 구분이 축소되면서 등급 동점자가 크게 늘어나게 된다. 석차등급 5등급제는 ▲1등급 10% ▲2등급 24% ▲3등급 32% ▲4등급 24% ▲5등급 10%로, 이전 석차등급 9등급제(△1등급 4% △2등급 7% △3등급 12% ··· △8등급 7% △ 9등급 4%)에 비해 등급 간 이동이 힘든 구조이다. 만약 1학년 1학기 중간고사에서 3등급을 받았다면, 상위 66% 이내에 속한다. 기존의 9등급제에 비해 여기서 성적이 더 떨어져 등급이 내려갈 위험은 적다. 그러나 반대로 수행평가와 기말고사에서 분발해 2등급으로 상승하기도 쉽지 않다. 신입생인 1학년은 고교 수업 적응에 다소 시간이 걸리겠지만, 상위권이 되기 위해서는 1학기 중간고사에서 국어, 수학, 영어 성적을 일정 수준으로 유지할 수 있도록 각별히 노력해야 한다. 고1의 경우 전 학년의 내신이 전환된 석차등급 5등급제의 적용을 받기 때문에 1등급 상위권은 현재보다 교과 성적 관리 부담이 준다. 그러나 고1~3학년 모두 1등급을 받기 위한 관리는 여전히 중요하다. ○ 수능도 바뀐다 고교학점제가 고등학교 전 과정에 적용되는 2028학년도 대입 수능은 현재 ‘공통과목+선택과목’ 체제에서 제2외국어/한문 영역을 제외한 전 영역에서 ‘공통과목’으로 시행된다. 수능 시험을 치르는 모든 수험생이 똑같은 과목의 시험을 치르게 된다. 현재 수능에서 선택과목에 따른 유불리와 지난해부터 등장한 ‘사탐런’ 현상 등은 사라지게 되고, 상대적으로 문항 수와 시험 시간이 늘어나고 고1에서 배우는 통합사회와 통합과학에 대한 비중이 더 확대될 것으로 보인다. 그동안 자연계 수능 응시자의 인문계 학과 지원 및 합격 이슈였던 ‘문과침공’도 사라질 것으로 보인다. 한편 인문계 수험생은 수능 과학탐구(통합과학) 영역 추가로 학습 비중이 늘어나고, 자연계 수험생은 수학에서 미적분Ⅱ 제외로 학습 부담이 줄지만 사회탐구(통합사회) 영역에 대한 학습 부담이 늘어날 수 있다. 국어 영역의 난이도가 높아질 수 있으나 변별력 확보를 위해 수능 전체 난이도는 현재와 같이 유지될 가능성이 높다. ▶이치우 비상교육 입시평가소장 저작권자 © E동아 무단전재 및 재배포 금지 김수진 기자 genie87@donga.com 다른기사 보기</t>
   </si>
   <si>
-    <t>올해 고1부터 고교학점제가 시행되며, 학생은 과목 선택을 통해 학점을 취득하여 졸업한다. 학생은 맞춤형 교육과정을 운영하고, 다양한 수업 방식을 통해 학습한다. 고교학점제는 학업성취도를 향상시키기 위해 노력하며, 성적 관리가 더 중요해졌다. 수능도 공통과목으로 변경되어 선택과목의 유불리가 사라지고, 과학탐구와 사회탐구 영역이 강화된다. 이에 따라 학생들은 고1부터 국어, 수학, 영어 등 기초과목을 잘 관리해야 한다.</t>
+    <t>올해 고1부터 고교학점제가 전면 도입되어 과목 선택과 성적 관리가 중요해지며, 등급제가 5등급으로 축소되어 등급 올리기가 어려워졌다. 또한, 2028학년도 대입 수능에서는 전 영역에서 '공통과목' 시행으로 선택과목에 따른 유불리가 사라지고, 학습 내용이 확대될 것으로 전망된다.</t>
   </si>
   <si>
     <t>교육부, 시애틀·멕시코에 한국교육원 개원</t>
@@ -217,10 +236,7 @@
     <t>재외국민 교육 지원, 한국 유학 유치 역할 미 시애틀 한국교육원, 26년 만에 재개원 남미 제1 교역국 멕시코에도 교육원 운영 [이데일리 신하영 기자] 교육부가 미국 시애틀과 멕시코에 한국교육원을 개원했다. 지난 22일 멕시코한국교육원 개원식에서 하유경 교육부 글로벌교육기획관(왼쪽)이 박상화 멕시코한국교육원장에게 현판을 전달하고 있다.(사진=교육부 제공) 교육부는 재외국민 교육 지원을 위해 해외 2곳에 한국교육원을 운영한다고 27일 밝혔다. 한국교육원은 교육부 장관이 외국에 설치하는 재외 교육기관이다. 현재 22개국에서 47개 원을 운영하고 있다. 재외국민 대상 정체성 교육과 평생교육 지원을 위해 1960년대 일본에 처음 설치한 뒤 꾸준히 확대해 왔다. 최근에는 외국인 학생의 한국 유학을 종합 지원하는 ‘유학생 유치센터’ 역할도 맡고 있다. 지난 24일 개원한 미국 시애틀 한국교육원은 26년 만에 재개원했다. 시애틀 지역은 약 18만 명의 재외동포가 거주하고 있어 1989년 한국교육원을 개설, 10년간 운영한 바 있다. 그러나 외환위기 당시 재외기관 구조조정 정책에 따라 폐원했다가 이번에 다시 문을 연 것이다. 교육부는 “한국교육원 폐원 이후 동포사회와 주시애틀 총영사관에서 한국교육원 재개설을 꾸준히 건의했으며 이번 개원으로 마침내 이런 요구에 답할 수 있게 됐다”고 설명했다. 지난 22일 문을 연 멕시코 한국교육원은 이번에 처음 개설됐다. 남미 지역에서는 파라과이·아르헨티나·상파울루에 이어 네 번째로 개설한 한국교육원이다. 특히 올해는 멕시코 한인 이민 120주년을 맞는 해로 개설 의미가 크다는 게 교육부 설명이다. 실제 멕시코는 5월 4일을 ‘한국 이민자의 날’로 지정해 기념하고 있다. 교육부는 “멕시코는 우리나라 중남미 수출액의 약 절반(49.6%, 2023년 기준)을 차지하는 중남미 제1 교역국이며, 멕시코에서도 한국이 미국, 중국 다음가는 핵심 교역국에 포함될 만큼 양국 간 경제 교류·협력이 활발히 이뤄지고 있다”며 “이번 한국교육원 개원으로 한국·멕시코 간 교류가 경제뿐만 아니라 교육 분야로도 확대될 수 있을 것으로 기대한다”고 했다. 이주호 부총리 겸 교육부 장관은 “시애틀·멕시코 한국교육원은 그간 괄목할 만큼 높아진 우리나라의 경제·문화적 위상과 30만 유학생 유치를 목표로 하는 글로벌 교육 강국 전략에 맞게 역할이 대폭 강화돼야 할 것”이라며 “앞으로 시애틀·멕시코 한국교육원이 글로벌 교육 교류의 거점으로 발전하도록 많은 관심을 당부한다”고 했다.</t>
   </si>
   <si>
-    <t>교육부가 미국 시애틀과 멕시코에 한국교육원을 개원했다. 한국교육원은 재외국민 교육을 지원하는데, 시애틀 한국교육원은 26년 만에 재개원했고 멕시코 한국교육원은 처음 개설됐다. 멕시코는 중남미 제1 교역국으로 한국과의 경제 교류가 활발하며, 한국교육원 개원으로 교육 분야에서도 협력이 확대될 것으로 기대된다. 교육부 장관은 한국교육원이 글로벌 교육 강국 전략에 맞게 역할을 대폭 강화해야 한다고 강조했다.</t>
-  </si>
-  <si>
-    <t>업계뉴스</t>
+    <t>한국교육원이 미국 시애틀과 멕시코에 재개원되었으며, 재외국민 교육 지원 및 한국 유학 유치 역할을 수행하고 있다. 이를 통해 한국과 멕시코 간 교육 분야의 교류가 확대될 것으로 기대된다.</t>
   </si>
   <si>
     <t>대교 키즈스콜레, 꿈꾸는 달팽이 '아이 깜찍 팝업북' 출시</t>
@@ -232,7 +248,7 @@
     <t>놀이공원, 음식 등 6종 구성 대교그룹의 유아동 독서교육 브랜드 키즈스콜레는 꿈꾸는 달팽이의 대표 상품인 '팝업북' 라인업 보강을 위한 단행본 '아이 깜찍 팝업북'을 출시했다고 28일 밝혔다. 키즈스콜레는 꿈꾸는 달팽이의 대표 상품인 '팝업북' 라인업 보강을 위한 단행본 '아이 깜찍 팝업북'을 출시했다고 28일 밝혔다. 대교그룹 '아이 깜찍 팝업북'은 일본 영유아 팝업북 작가 와라베 키미카의 최신작으로, 꿈꾸는 달팽이 베스트셀러 '미니 깜찍 팝업북'의 새로운 팝업 시리즈다. 놀이공원, 음식, 수족관 등 6종의 팝업북으로 구성됐으며, 키즈스콜레가 국내 최초로 독점 계약을 체결해 선보인다. 또한, 기존 팝업북보다 판형이 2배 커져 그림이 확대됐으며, 다양한 의성어와 의태어를 활용해 영유아의 언어 발달을 지원한다. 꿈꾸는 달팽이 관계자는 "다채로운 팝업 구현으로 아이들의 흥미와 상상력을 자극하고, 영유아 인지 능력 및 어휘력 발달에 도움을 주는 제품으로 학부모들의 많은 관심 바란다"고 했다.</t>
   </si>
   <si>
-    <t>대교그룹의 유아동 독서교육 브랜드 키즈스콜레가 '팝업북' 라인업을 보강하기 위해 '아이 깜찍 팝업북'을 출시했다. 이는 꿈꾸는 달팽이의 대표 상품으로, 일본 작가의 최신작이며 6종의 팝업북으로 구성된다. 새로운 제품은 기존보다 그림이 확대되고 언어 발달을 지원하는데 도움이 된다. 꿈꾸는 달팽이 관계자는 아이들의 흥미와 상상력을 자극하며 어휘력 발달에 도움을 줄 것으로 기대한다.</t>
+    <t>대교그룹의 유아동 독서교육 브랜드 키즈스콜레가 '아이 깜찍 팝업북'을 출시했다. 이는 꿈꾸는 달팽이의 새로운 팝업 시리즈로, 영유아의 언어 발달을 지원하는 제품이다. 판형이 2배 커져 그림이 확대되었고, 다양한 의성어와 의태어를 활용해 영유아의 언어 발달을 돕는다.</t>
   </si>
   <si>
     <t>교육업계, 비수기 극복 위해 장학금·가전 퍼주기 나선다</t>
@@ -247,7 +263,10 @@
     <t>내용요약 안정적 학습환경 선호, 4~5월 ‘회원 유치 절벽’ 신규회원 유치 및 기존회원 만족도 제고 전략 과도한 경쟁 경계...“플랫폼 연계 관리 필수적” 교육업계가 4~5월의 비수기를 타개하기 위해 다양한 프로모션을 실시하고 있다./픽사베이 [한스경제=김종효 기자] 교육업계가 4~5월의 비수기를 타개하기 위해 다양한 프로모션을 진행하면서 회원 유지에 나서고 있다. 신규 회원 유치와 기존 회원의 만족도 제고를 위한 전략으로 장학금 지급부터 가전제품 증정까지 다양한 혜택을 제공한다. 25일 업계에 따르면 새 학기 시작과 여름방학 사이인 4~5월은 ‘회원 유치 절벽’이라 불릴 정도로 교육업계의 대표적인 비수기로 꼽힌다. 학기 중에는 학생과 학부모 모두 안정적인 학습 환경을 선호해 신규 가입이나 회원 이동이 현저히 줄어드는 시기다. 새 학기가 시작된 직후에는 학습 계획이 이미 세워진 경우가 많고 여름방학 전까지는 학부모들이 자녀의 학습 환경 변화를 꺼리는 경향이 강해 신규 회원 모집이 크게 위축되는 시기라는 설명이다. 이에 따라 주요 교육기업들은 회원 모집을 위한 파격적인 프로모션을 잇따라 내놓으며 비수기 돌파에 총력전을 펼치고 있다. 다양한 타깃별 혜택과 프로모션을 앞다퉈 내놓으며 잠재 수요를 선점하기 위한 경쟁에 나서는 모습이다. 영어교육 전문기업 윤선생은 내달 31일까지 가족회원 신규 가입 이벤트 ‘패밀리 페스티벌’을 진행한다. 이번 행사는 기존 학습회원의 형제나 자매가 새롭게 윤선생 학습을 시작하거나 동시에 신규 등록할 경우 최대 10만원의 장학금을 지급하는 것이 핵심이다. 부모나 조부모가 신규 등록하는 경우에도 동일한 혜택이 적용된다. 장학금은 매월 2만원씩 5개월간 모바일 백화점 상품권으로 제공된다. 참여 브랜드는 방문학습 ‘윤선생영어교실’, 학원 ‘윤선생 IGSE아카데미’와 ‘윤선생영어숲’, 교습소·공부방 ‘윤선생 우리집앞영어교실’ 등 총 4개다. 신규 가입을 원하는 가족은 거주지 인근 윤선생 센터에서 신청할 수 있다. 윤선생 관계자는 “경제적 부담 완화와 함께, 형제·자매가 함께 공부하는 학습 환경을 자연스럽게 조성할 수 있다”며 “비수기 회원 유치 선점을 위해 다양한 프로모션을 기획했다”고 밝혔다. 메가스터디교육의 초등 스마트러닝 브랜드 엘리하이는 4월 한 달간 프라임종합반, 영재특목반 구매 회원을 대상으로 경품 이벤트를 실시한다. 이벤트 기간 내 12개월 이상 신규로 해당 과정을 구매하면 추첨을 통해 갤럭시Z 플립6, BESPOKE 세탁건조기, 냉장고, 에어드레서 등 고가 가전제품과 시디즈 학생의자, 일룸 책상세트 등 학습 환경 개선에 도움이 되는 경품을 증정한다. 초등 1~3학년 신규 회원에게는 과학 영역별 실험교구 7종으로 구성된 ‘엘리하이 1% 교과실험’ 세트를 추가로 제공해 학습 동기 유발과 체험 중심 교육을 동시에 노리고 있다. 이외에도 엘리하이는 G마켓 등 외부 플랫폼과 연계한 무료체험 이벤트, 상품권 증정 이벤트 등 다양한 프로모션을 꾸준히 선보이고 있다. 교원그룹의 구몬학습은 공무원증을 인증한 대한민국 국군, 경찰, 소방, 우정 임직원 및 가족을 대상으로 평생 할인 프로모션을 진행한다. 50세 이상 시니어를 위한 ‘액티브라이프’ 학습지는 최대 1만원 할인, 방문학습은 3000원, 화상학습은 4000원 할인 등 다양한 할인 혜택이 제공된다. 또한 3개 과목 이상 입회 시 유아에게는 원터치 놀이텐트, 초등학생에게는 마카펜 60색 세트 등 실용적인 사은품도 증정한다. 교원그룹은 구몬학습과 교원투어의 여행상품을 연계한 공동 프로모션도 기획, 여행상품 구매 시 구몬학습 할인과 학습지 신청 시 여행상품 할인 등 그룹사 시너지 효과를 극대화하고 있다. 에듀테크 기업 아이스크림에듀의 아이스크림 홈런은 소개 이벤트를 통해 신규 회원 유치에 적극 나서고 있다. 4월 한정으로, 기존 정회원의 소개를 받은 지인이 정회원으로 가입하면 소개자와 피추천인 모두에게 5만원 상당의 백화점 상품권을 각각 증정한다. 체험만 해도 2만원 상당의 백화점 상품권을 받을 수 있어 체험 고객의 전환율을 높이는 전략이다. 올해 초등 1학년 신규 회원에게는 ‘2025 습관키트’를 선물로 제공했다. 필통, 리워드 스티커, 수면안대, 전자노트 등 실용적인 아이템으로 구성된 굿즈 세트와 과학 테마 달력 등은 학습 습관 형성과 브랜드 충성도 제고에 기여하고 있다. 이처럼 교육기업들의 비수기 프로모션은 신규 회원을 늘리기 위한 일회성 이벤트에 그치지 않는다. 가족 단위, 직군별, 연령별 등 다양한 타깃을 세분화해 맞춤형 혜택을 제공함으로써 장기적인 고객 록인 효과와 브랜드 충성도 강화까지 노리고 있다. 최근에는 고가 경품이나 현금성 장학금 등 직접적인 경제적 혜택과 함께 학습 환경 개선을 위한 실용적 사은품, 체험 중심 교육 콘텐츠, 가족 참여형 이벤트 등 다양한 방식으로 프로모션을 다각화하고 있다. 교육기업들은 비수기 동안 다양한 프로모션 구조를 실험하며 최적의 효과를 모색하고 있다. 백분율 할인, 고정 금액 할인, 단계별 할인 등 다양한 가격 정책을 통해 시장을 세분화하고 사용량이 적은 시기에 잠재 수요를 효과적으로 끌어들이는 전략이다. 비수기 프로모션은 신규 회원 유치에만 초점을 맞추지 않는다. 최근 교육기업들은 기존 회원의 만족도를 높이기 위한 프로그램도 강화하고 있다. 윤선생은 가족 단위 학습 환경 조성, 아이스크림 홈런은 브랜드 굿즈 제공, 구몬학습은 그룹사 연계 혜택 등으로 기존 회원의 충성도를 높이고 있다. 회원 이탈을 최소화하고 자연스러운 입소문과 재가입으로 이어지는 선순환 구조를 만든다는 평가다. 업계 전반에서도 “비수기 프로모션은 단기 매출 증진뿐 아니라, 브랜드 이미지 제고와 장기 고객 확보에 중요한 역할을 한다”는 평가가 나온다. 경제 위기 속에서도 교육비 지출은 필수항목으로 인식되는 한국 사회의 특성을 반영한 전략이라는 분석도 있다. 올해 1분기 소비자물가지수 상승률이 3.8%를 기록했으나 교육비 항목은 전년 대비 5.2% 증가하며 타 분야와 차별화된 양상을 보였다. 이에 교육업계는 학부모들이 최소한의 교육비는 지출하려는 심리를 공략해 할인·장학금 형태로 부담을 완화시키겠다는 전략을 구체화하고 있다. 업계 관계자는 “고가 경품은 단기간 내 구매 결정을 유도하는 효과가 크지만 과도한 사은품 경쟁이 업계 건강성을 해칠 수 있다는 지적도 있다”며 “학습 성과를 체계적으로 관리해주는 플랫폼 연계가 필수적이다. AI 기반 맞춤형 학습 리포트 제공이나 커뮤니티 활성화를 통해 지속적 참여를 유도해야 한다”고 조언했다. 다른 관계자는 “교육업계의 비수기 대응 전략은 고객 생애 주기 관리의 일환으로 진화하고 있다”며 “파격적 혜택으로 눈길을 끄는 동시에 데이터 기반의 맞춤형 서비스로 신뢰를 구축하는 ‘양손 전략’이 경쟁력 차별화의 키워드”라고 말했다. 김종효 기자 sound@sporbiz.co.kr 김종효 기자 sound@sporbiz.co.kr 다른기사 보기 저작권자 © 한스경제 무단전재 및 재배포 금지 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기</t>
   </si>
   <si>
-    <t>교육업계에서는 4~5월이 비수기로 인식되어 회원 유치를 위해 다양한 프로모션을 진행하고 있다. 이때 '비상교육'과 같은 기업들은 장학금 지급이나 가전제품 증정 등 다양한 혜택을 통해 신규 회원 유치와 기존 회원 만족도를 높이는 전략을 채택하고 있다. 이러한 프로모션은 단순한 할인뿐만 아니라 학습 환경 개선을 위한 사은품, 체험 중심 교육 콘텐츠를 통해 고객 록인 효과와 브랜드 충성도를 높이는 방향으로 진행되고 있다. 이를 통해 교육기업들은 비수기 동안 최적의 효과를 모색하고 있으며, 기존 회원의 만족도를 높이는 프로그램도 강화하고 있다. 이는 단순한 매출 증진뿐 아니라 브랜드 이미지 제고와 장기 고객 확보에 중요한 역할을 한다는 평가를 받고 있다.</t>
+    <t>교육업계가 비수기인 4~5월에 회원 유치를 위해 다양한 프로모션을 실시하고 있으며, 경쟁이 치열하고 있다. 다양한 혜택을 제공하여 신규 회원 유치와 기존 회원 만족도를 높이는 전략을 펼치고 있다. 교육기업들은 다양한 프로모션을 통해 고객 록인 효과와 브랜드 충성도를 강화하고 있다.</t>
+  </si>
+  <si>
+    <t>교육정책 / 업계뉴스 / 에듀테크</t>
   </si>
   <si>
     <t>천재교육, 올해도 앞이 '캄캄'</t>
@@ -259,10 +278,13 @@
     <t>https://www.newstomato.com/ReadNews.aspx?no=1260265&amp;inflow=N</t>
   </si>
   <si>
-    <t>천재교육, 올해도 앞이 '캄캄' 작년 영업손실 92억 적자전환…업계 침체 지속디지털 교과서 정부 정책 혼선까지 겹쳐 "AI·블록체인·AR/VR 첨단기술 파트너와 협업할 것" 공유하기 X 2025-04-25 15:49:42 ㅣ 2025-04-28 07:45:01 [뉴스토마토 신대성 기자] 국내 대표 교과서 출판기업 천재교육이 지난해에 이어 올해도 실적 부진의 터널에서 벗어나기 어려울 것으로 보입니다. 한때 연간 600억원대의 이익을 올렸던 회사는 이제 '생존'에 방점을 찍고 있습니다. 첨단 기술을 접목한 에듀테크로 반전을 모색하고 있지만, 학령인구 감소와 소비 위축, 잦은 정책 변화가 복합적으로 작용하며 고민이 깊어지고 있습니다. 작년 매출 1110억 , 전년비 17% 감소…"올해 원재료 상승에 수익성 악화" 금융감독원 전자공시에 따르면, 천재교육의 지난해 별도기준 매출은 1110억원으로 전년 대비 17.1% 줄었습니다. 2023년 흑자를 냈던 영업실적은 작년 92억원 손실로 돌아서며 적자전환했습니다. 실적 하락의 원인은 명확합니다. 저출산 고령화 속 경기침체까지 겹쳐 출판·교육 시장 전반에 타격을 입혔고, 천재교육은 특히 그 여파가 컸습니다. 천재교육 관계자는 "학령 인구 지속적인 감소와 경기침체로 소비가 위축돼 실적이 감소했다"고 말했습니다. (그래프=뉴스토마토) 천재교육의 실적추이를 보면, 코로나 이전인 지난 2019년까지만 해도 영업이익이 660억원 수준이었습니다. 하지만 2020년부터 수익성이 대폭 감소하면서 부진한 실적 흐름을 타고 있습니다. 당시 코로나19 사태가 발발하면서 학생들의 수업들이 제대로 이뤄지지 않았고, 교육·참고서 업계가 전체적으로 큰 타격을 받았던 영향이 큽니다. 또한 최근 인공지능(AI) 디지털 교과서 정책의 혼선도 상황을 더욱 어렵게 만들고 있습니다. 교육부가 당초 전면 도입을 예고했던 정책을 갑작스럽게 '자율 선택' 방식으로 전환하면서, 천재교육을 비롯한 교과서 업계 전반이 개발비조차 회수하지 못할 위기에 처했습니다. 이미 상당한 금액을 투자한 천재교육 등은 정부 정책의 불확실성으로 큰 타격을 입고 있습니다. 천재교육 관계자는 "소비 위축과 더불어 교과서 원재료 조달비 상승, 교육정책의 잦은 변경 등으로 수익성 악화가 불가피하다"면서 "올해 역시 최소한의 투자만 계획하고 있다"고 밝혔습니다. 천재교육 교과서.(사진=천재교육) AI·에듀테크·교과서 역량 강화 이런 와중에도 천재교육은 AI와 에듀테크 흐름에 맞춰 기술 협업과 디자인 역량 강화에 나서고 있습니다. 첨단 기술을 교육 콘텐츠에 접목해 변화에 대응하겠다는 전략입니다. 기술 기반 파트너와의 협업도 강화할 방침입니다. 천재교육 관계자는 "과거 에듀테크 스타트업은 학습 콘텐츠나 문제풀이 앱 중심으로 성장했으나, 최근에는 AI, 사물인터넷(IoT), 블록체인, 증강·가상현실(AR·VR) 등 첨단 기술을 교육에 접목시키며 새로운 흐름을 만들어내고 있다"면서 "당사도 이같은 변화에 맞춰 교육 콘텐츠 기업의 정체성을 지키되, 기술을 품은 파트너들과의 협업도 강화해 나가겠다"고 밝혔습니다. 교과서 디자인 역량도 강화합니다. 천재교육은 지난해 발표된 '2022 개정 초·중·고 전과목 교과서' 점유율 1위를 기록한 바 있는데, 콘텐츠 품질을 넘어 디자인 경쟁력도 함께 높인다는 목표입니다. △교과서 디자인 멘토링 △품평회 △직급별 직무 교육 △강사 초청 강연 등 체계적인 '전문인력 육성 프로그램'을 운영하며, 다각적인 교육 효과를 제고할 방침입니다. 학습 보조자료도 강화됩니다. 최근에는 2025학년도 참고서 선택을 지원하기 위해 '국사과 교재 로드맵'을 공개하고, 초·중·고 전 학년에 걸친 맞춤형 콘텐츠를 소개하며 학습 설계 가이드를 제공 중입니다. AI 기반 수학 콘텐츠 역시 새 교육과정에 맞춰 실생활 연계형으로 개선하고 있습니다. 천재교육 AR/VR 특별체험관.(사진=천재교육) 신대성 기자 ston9477@etomato.com 이 기사는 뉴스토마토 보도준칙 및 윤리강령에 따라 김나볏 테크지식산업부장이 최종 확인·수정했습니다. ⓒ 맛있는 뉴스토마토, 무단 전재 - 재배포 금지 관련기사 신대성 살아있는 뉴스를 제공합니다 뉴스북 이 기자의 최신글 AI·데이터가 바꾼 채용 풍경…HR 플랫폼의 진화 SKT 이어 알바몬도 해킹 피해…"보상 준비중" 교원그룹, 비교육 사업으로 수익 반등 유한킴벌리 1조 넘는 배당금, 최대주주 '현금 인출기' 논란 0 / 300 댓글 0 추천순 추천순 최신순 반대순 답글순 필터있음 필터있음 필터없음 답댓글 보기 3 0/0 댓글 더보기 뉴스리듬 이 시간 주요 뉴스 인기 뉴스 함께 볼만한 뉴스 뉴스리듬 흑자전환 GC녹십자, 성패 관건은 신약·백신 수출 물가·소비 고통 여전한데…정국 혼란에 우는 서민들 가정의 달, 흔들리는 소비…유통가 '예의주시' 뉴스북 연휴 여행객에게 찬물 끼얹은 SKT '그사세'에 다녀왔습니다 나이를 잊는다는 것 대출금리 내리는 척만 인기뉴스 1 흑자전환 GC녹십자, 성패 관건은 신약·백신 수출... 2 "한 치 앞 안보여"…불확실성 높아진 부동산시장... 3 물가·소비 고통 여전한데…정국 혼란에 우는 서민들... 4 가정의 달, 흔들리는 소비…유통가 '예의주시' 5 규제는 국내만? 무너지는 콘텐츠 제작 시장 6 국힘, 김문수 요구에 선대위 구성…10~11일 단일화 전대... 7 K-방산 수주잔고 100조원 목전…수출 약진 계속... 8 2040은 줄고 5080은 늘고…국민주 삼성전자 ‘동상... 9 중국 대규모 인프라 투자 예고…건설기계·철강 기대감... 10 (현장+)시민사회 국회서 시국선언…"민주주의 대한 도전…...</t>
-  </si>
-  <si>
-    <t>국내 대표 교과서 출판기업인 천재교육이 올해도 어려운 실적을 예상하고 있습니다. 작년에 이어 영업손실을 기록하며 적자전환했고, 학령인구 감소와 소비 위축, 정책 변화 등이 영향을 미치고 있습니다. 이에 천재교육은 AI와 에듀테크 기술을 활용한 혁신을 모색하고 있지만, 정부의 교육 정책 혼선과 소비 위축으로 어려움을 겪고 있습니다. 또한, 교육 시장의 침체로 인해 수익성 악화가 불가피하며, 최소한의 투자만 계획 중이라고 밝혔습니다. 더불어, 천재교육은 기술 파트너와의 협업을 강화하고 교과서 디자인 역량을 강화하며 새로운 흐름에 대응하고 있습니다.</t>
+    <t>천재교육, 올해도 앞이 '캄캄' 작년 영업손실 92억 적자전환…업계 침체 지속디지털 교과서 정부 정책 혼선까지 겹쳐 "AI·블록체인·AR/VR 첨단기술 파트너와 협업할 것" 공유하기 X 2025-04-25 15:49:42 ㅣ 2025-04-28 07:45:01 [뉴스토마토 신대성 기자] 국내 대표 교과서 출판기업 천재교육이 지난해에 이어 올해도 실적 부진의 터널에서 벗어나기 어려울 것으로 보입니다. 한때 연간 600억원대의 이익을 올렸던 회사는 이제 '생존'에 방점을 찍고 있습니다. 첨단 기술을 접목한 에듀테크로 반전을 모색하고 있지만, 학령인구 감소와 소비 위축, 잦은 정책 변화가 복합적으로 작용하며 고민이 깊어지고 있습니다. 작년 매출 1110억 , 전년비 17% 감소…"올해 원재료 상승에 수익성 악화" 금융감독원 전자공시에 따르면, 천재교육의 지난해 별도기준 매출은 1110억원으로 전년 대비 17.1% 줄었습니다. 2023년 흑자를 냈던 영업실적은 작년 92억원 손실로 돌아서며 적자전환했습니다. 실적 하락의 원인은 명확합니다. 저출산 고령화 속 경기침체까지 겹쳐 출판·교육 시장 전반에 타격을 입혔고, 천재교육은 특히 그 여파가 컸습니다. 천재교육 관계자는 "학령 인구 지속적인 감소와 경기침체로 소비가 위축돼 실적이 감소했다"고 말했습니다. (그래프=뉴스토마토) 천재교육의 실적추이를 보면, 코로나 이전인 지난 2019년까지만 해도 영업이익이 660억원 수준이었습니다. 하지만 2020년부터 수익성이 대폭 감소하면서 부진한 실적 흐름을 타고 있습니다. 당시 코로나19 사태가 발발하면서 학생들의 수업들이 제대로 이뤄지지 않았고, 교육·참고서 업계가 전체적으로 큰 타격을 받았던 영향이 큽니다. 또한 최근 인공지능(AI) 디지털 교과서 정책의 혼선도 상황을 더욱 어렵게 만들고 있습니다. 교육부가 당초 전면 도입을 예고했던 정책을 갑작스럽게 '자율 선택' 방식으로 전환하면서, 천재교육을 비롯한 교과서 업계 전반이 개발비조차 회수하지 못할 위기에 처했습니다. 이미 상당한 금액을 투자한 천재교육 등은 정부 정책의 불확실성으로 큰 타격을 입고 있습니다. 천재교육 관계자는 "소비 위축과 더불어 교과서 원재료 조달비 상승, 교육정책의 잦은 변경 등으로 수익성 악화가 불가피하다"면서 "올해 역시 최소한의 투자만 계획하고 있다"고 밝혔습니다. 천재교육 교과서.(사진=천재교육) AI·에듀테크·교과서 역량 강화 이런 와중에도 천재교육은 AI와 에듀테크 흐름에 맞춰 기술 협업과 디자인 역량 강화에 나서고 있습니다. 첨단 기술을 교육 콘텐츠에 접목해 변화에 대응하겠다는 전략입니다. 기술 기반 파트너와의 협업도 강화할 방침입니다. 천재교육 관계자는 "과거 에듀테크 스타트업은 학습 콘텐츠나 문제풀이 앱 중심으로 성장했으나, 최근에는 AI, 사물인터넷(IoT), 블록체인, 증강·가상현실(AR·VR) 등 첨단 기술을 교육에 접목시키며 새로운 흐름을 만들어내고 있다"면서 "당사도 이같은 변화에 맞춰 교육 콘텐츠 기업의 정체성을 지키되, 기술을 품은 파트너들과의 협업도 강화해 나가겠다"고 밝혔습니다. 교과서 디자인 역량도 강화합니다. 천재교육은 지난해 발표된 '2022 개정 초·중·고 전과목 교과서' 점유율 1위를 기록한 바 있는데, 콘텐츠 품질을 넘어 디자인 경쟁력도 함께 높인다는 목표입니다. △교과서 디자인 멘토링 △품평회 △직급별 직무 교육 △강사 초청 강연 등 체계적인 '전문인력 육성 프로그램'을 운영하며, 다각적인 교육 효과를 제고할 방침입니다. 학습 보조자료도 강화됩니다. 최근에는 2025학년도 참고서 선택을 지원하기 위해 '국사과 교재 로드맵'을 공개하고, 초·중·고 전 학년에 걸친 맞춤형 콘텐츠를 소개하며 학습 설계 가이드를 제공 중입니다. AI 기반 수학 콘텐츠 역시 새 교육과정에 맞춰 실생활 연계형으로 개선하고 있습니다. 천재교육 AR/VR 특별체험관.(사진=천재교육) 신대성 기자 ston9477@etomato.com 이 기사는 뉴스토마토 보도준칙 및 윤리강령에 따라 김나볏 테크지식산업부장이 최종 확인·수정했습니다. ⓒ 맛있는 뉴스토마토, 무단 전재 - 재배포 금지 관련기사 신대성 살아있는 뉴스를 제공합니다 뉴스북 이 기자의 최신글 실적 흔들리는 제지업계, 1분기부터 '경고음' AI·데이터가 바꾼 채용 풍경…HR 플랫폼의 진화 SKT 이어 알바몬도 해킹 피해…"보상 준비중" 교원그룹, 비교육 사업으로 수익 반등 0 / 300 댓글 0 추천순 추천순 최신순 반대순 답글순 필터있음 필터있음 필터없음 답댓글 보기 3 0/0 댓글 더보기 뉴스리듬 이 시간 주요 뉴스 인기 뉴스 함께 볼만한 뉴스 뉴스리듬 민주, 이재명 방탄입법 속도전...당선 땐 '5개 재판' 올스톱 차별화 없는 편의점 PB상품…인기도 '주춤' 1분기 건설사 실적, '원가율 개선' 여부로 희비 교차 뉴스북 파시스트를 길러내는 한국 교육 판 커지는 퀵커머스 시장 저축은행 고금리 속지마세요 연휴 여행객에게 찬물 끼얹은 SKT 인기뉴스 1 (단독)무소속 한덕수, 11일 이후 국민의힘 입당하면 ‘후보 ... 2 삼성전자 하만, 미 명품오디오 5천억에 인수 3 (전문)김상욱 "국힘에 희망 놨다…수일 내 거취 결정"... 4 대법 선고에도 민심은 '이재명' 5 조규홍 "사직 전공의 복귀 의사 확인 시 이달 복귀 적극 ... 6 최태원 "SKT 해킹 사태 송구…그룹 보안체계 점검" ... 7 (정기여론조사)①국민 과반 "대법원 파기환송 납득 어렵... 8 동남아·캐나다로…K-방산, 신시장 개척 박차 9 해킹 19일만에 최태원 회장 사과 "신뢰 회복에 노력" ... 10 법원 내부도 격앙…들불처럼 번지는 '조희대 비판'...</t>
+  </si>
+  <si>
+    <t>대표 교과서 출판기업인 천재교육이 올해도 어려운 상황에 직면하고 있으며, 지난해에 이어 영업손실이 발생하였고, 이는 저출산 고령화와 경기침체 등의 영향으로 인한 것으로 보입니다. 회사는 에듀테크 기술을 활용하여 반전을 모색하고 있지만, 정부의 교육정책 변화로 어려움을 겪고 있습니다.</t>
+  </si>
+  <si>
+    <t>교육정책 / 업계뉴스 / 에듀테크 중 에듀테크</t>
   </si>
   <si>
     <t>교사가 직접 쓴 에듀테크 활용 지침서 나와…</t>
@@ -274,7 +296,7 @@
     <t>교사들의 에듀테크 활용 지침서가 나왔다. 그동안 교사들은 에듀테크를 각 과목 수업 시간에 활용할 때 어떤 서비스가 적합할지 주저했던 경우가 많다. 에듀테크스쿨과 이티에듀, 에듀플러스, 잇플이 발행한 '교사들의 에듀테크 활용 바이블'을 통해 이러한 문제를 해소할 수 있을 전망이다. 정부 지원 없이 현직 교사단체와 언론사가 다양한 에듀테크 활용 사례집을 발간한 것은 처음이다. 이 책은 엄태상 에듀테크스쿨 대표(전주자연초 교사) 등 29명의 에듀테크스쿨 소속 현직교사들이 수업시간에 에듀테크를 실증한 우수 사례를 담았다. 현직 교사들이 수업에 에듀테크를 적용한 배경부터 에듀테크 교구 및 서비스 선택, 활용방법, 활용 후 관리와 효과까지 다양한 경험을 진솔하게 털어놔 향후 학교 내 에듀테크 활용 필독 지침서로 자리매김할 전망이다. 이 책은 이티에듀 껌이지와 마이클래스몰을 비롯해 대형 서점에서 구매할 수 있다. 에듀테크스쿨과 에듀플러스가 발간한 '교사들의 에듀테크 활용 바이블' 책 표지 ◇학교 현장을 담은 효과적 지침서 최근 인공지능(AI) 디지털교과서 도입 등 교사 주도의 교실 혁명 물결이 시작됐지만 에듀테크의 효과성에 관한 논란도 함께 커졌다. 선도 교사를 제외하고 상당수 교사가 에듀테크를 선택하거나 활용하는 데 어려움을 겪는 것이 현실이기 때문이다. 이 책은 이러한 논란과 고민을 한 번에 해결한다. 특히 학교 현장의 현실을 반영해 에듀테크 활용 방법을 설명하고 효과성도 소개한다. 신혜권 이티에듀 대표는 “교사에게 유용한 에듀테크를 소개하고 수업 개선을 위한 아이디어를 제공하려 한다”면서 “이 책을 통해 에듀테크 기업에게는 현장의 목소리를 들려주려 했다”고 말했다. 이 책을 통해 교사는 자신만의 에듀테크 활용 전략을 수립하는 데 실질적인 도움을 받을 수 있다. 기업은 실제 교실에서 어떤 제품과 서비스가 교육 혁신에 기여하고 있는지, 현장에서 요구하는 개선점이 무엇인지 알 수 있다. 책에 담긴 교사들의 에듀테크 사용 피드백은 에듀테크 기업이 학교 현장 중심의 솔루션을 설계하는 데 중요한 토대가 될 전망이다. ◇다양한 에듀테크 실제 활용 사례 담아 글로브포인트 'VR웨어'와 팀모노리스 '코들' 등 다수의 우수 에듀테크를 실제 수업에 적용한 사례가 포함됐다. 이 책은 총 6장, 294쪽으로 만들어졌다. 1장 '에듀테크와 AI, 교육의 미래를 설계하다'는 교사들이 수업에 에듀테크를 적용하게 된 배경과 에듀테크 활용 후 달라진 시각을 다뤘다. 세부 내용으로는 에듀테크 '교육'을 위한 기술, 에듀테크를 활용해 사회로 나갈 준비하기, 에듀테크 뉴노멀 시대 에듀테크 리터러시, AI시대에 필요한 문해력 AI 리터러시, 학생 주도 프로젝트에서의 에듀테크 효과성, 데이터와 AI로 이뤄내는 교실혁명 등으로 이뤄졌다. 2장 '에듀테크와 함께하는 학생 참여형 수업'에서는 과밀학급 속 학생 중심 수업, 규칙만 알면 나만의 음악 만들기, 디지털 드로잉으로 나를 표현하는 교실, 디지털 시대 유치원 놀이, 세계적 수준의 교육을 우리 반 수학시간에 접목하기 등의 내용을 담고 있다. 3장은 'AI 기반 코스웨어로 맞춤형 학습관리'를 주제로 한다. 세부 내용으로 실제적 영어자료 제작의 혁신, 새로운 글쓰기 선생님, AI가 도와주는 글쓰기 피드백 등이 있다. 4장 '모두가 참여하는 생성형 AI 활용 수업'에서는 생성형 AI를 활용한 다양한 수업 모델을 제시한다. 5장 '에듀테크로 여는 새로운 세상'에서는 글로브포인트의 VR웨어를 활용한 그림책 만들기 수업과 코들을 활용한 실과 수업 등 교육 효과가 높았던 사례들을 언급한다. 마지막 6장에서는 '에듀테크와 AI 활용 학급경영 및 업무혁신' 주제로 교사의 업무를 줄일 수 있는 에듀테크 플랫폼을 활용한 방과 후 교육을 소개한다. 엄태상 에듀테크스쿨 대표는 “에듀테크 분야에서 가장 중요하다고 생각되는 현장 사례와 교사의 목소리를 담는 것에 집중했다”며 “향후 학교 현장에서 교사들이 에듀테크 활용을 위한 바이블로 사용됐으면 좋겠다”고 전했다.</t>
   </si>
   <si>
-    <t>교사들의 에듀테크 활용을 돕기 위해 '비상교육'과 다른 기업들이 발간한 '교사들의 에듀테크 활용 바이블'이 나왔다. 이 책은 현직 교사들이 에듀테크를 어떻게 활용하는지를 솔직하게 담아 에듀테크 선택부터 효과까지 다양한 경험을 제공한다. 교사들은 이를 통해 자신만의 에듀테크 전략을 수립하고, 기업들은 교실에서 요구되는 개선점을 파악할 수 있다. '교사들의 에듀테크 활용 바이블'은 다양한 에듀테크 실제 활용 사례를 담아 총 6장으로 구성되었으며, 교사들의 목소리와 현장 사례에 집중하여 학교 현장에서 활용될 것으로 기대된다.</t>
+    <t>교사들을 위한 '교사들의 에듀테크 활용 바이블' 출간으로 에듀테크 활용에 대한 지침서가 나왔으며, 현직 교사들의 다양한 에듀테크 활용 사례와 피드백이 담긴 책으로 교사들의 수업 개선과 교육 혁신을 위한 도움이 될 것으로 전망됨.</t>
   </si>
   <si>
     <t>러닝스파크, 미국 iKeepSafe와 MOU 체결…“에듀테크 국제 인증 지원 본격화”</t>
@@ -286,7 +308,7 @@
     <t>러닝스파크가 미국의 아동·학생 개인정보 보호 인증기관인 iKeepSafe(The Internet Keep Safe Coalition)와 업무협약(MOU)을 체결했다.(사진=러닝스파크) 러닝스파크는 미국의 아동·학생 개인정보 보호 인증기관인 iKeepSafe(The Internet Keep Safe Coalition)와 업무협약(MOU)을 체결했다고 24일 밝혔다. 이번 MOU을 통해 러닝스파크는 국내 에듀테크 기업들이 개인정보 보호와 데이터 윤리 관련 미국 연방 및 주 정부의 기준을 충족하는 국제 인증을 획득할 수 있도록 지원할 계획이다. iKeepSafe는 미국 전역의 교육기관 및 에듀테크 기업을 대상으로 인증을 발급하는 비영리 기관이다. 에듀테크 제품 및 서비스의 보안성, 정보보호 정책의 투명성 등을 종합적으로 심사해 인증을 부여한다. 이에 따라 iKeepSafe 인증을 보유한 기업은 법적 리스크를 최소화할 수 있으며, 글로벌 투자자들에게 신뢰감을 줄 수 있다. 러닝스파크가 이번 MOU를 통해 iKeepSafe와 함께 지원하는 국제 인증은 ▲FERPA(가족교육권리 및 개인정보 보호법) 평가 ▲COPPA(아동 온라인 개인정보 보호법) 평가 ▲CSPC(캘리포니아 학생 개인정보 보호법) 평가다. 러닝스파크는 데이터 보호와 아동·학생 권리, 윤리적 기술 활용 등을 중심으로 iKeepSafe와의 협력을 지속적으로 강화할 예정이다. 정훈 러닝스파크 대표는 “이번 협약은 국내 에듀테크 기업들이 세계 시장에서 신뢰받는 파트너로 성장할 수 있도록 돕는 중요한 첫걸음이다”라고 말했다.</t>
   </si>
   <si>
-    <t>러닝스파크가 미국의 iKeepSafe와 MOU를 체결해 국내 에듀테크 기업들이 미국의 개인정보 보호 기준을 충족하는 국제 인증을 받을 수 있도록 지원한다. iKeepSafe는 교육기관과 에듀테크 기업을 대상으로 인증을 부여하는 비영리 기관으로, 인증을 받은 기업은 법적 리스크를 최소화하고 글로벌 투자자에게 신뢰를 줄 수 있다. 러닝스파크는 FERPA, COPPA, CSPC 등의 인증을 통해 데이터 보호와 아동·학생 권리를 중시하며, 이를 통해 국내 에듀테크 기업이 세계 시장에서 신뢰받는 파트너로 성장할 수 있도록 돕는다.</t>
+    <t>러닝스파크가 미국의 아동·학생 개인정보 보호 인증기관 iKeepSafe와 업무협약을 체결하여 국내 에듀테크 기업들이 국제 인증을 받을 수 있도록 지원할 예정이다. 이를 통해 기업은 법적 리스크를 최소화하고 글로벌 투자자들에게 신뢰감을 줄 수 있을 것으로 예상된다.</t>
   </si>
   <si>
     <t>[칼럼] “사교육비 29조 시대, AI로 줄여야”</t>
@@ -328,7 +350,7 @@
  ê°ë° ë° íì¥ ìì°©ì ì£¼ë ¥íê³  ìë¤. ì ì ìÂ íêµ­êµì¡íì ì ë³´ì(KERIS) ìì¥ jychung@keris.or.kr ìµì ë´ì¤ Copyright â ëì§íì¡°ì ì¼ë³´&amp;dizzo.com</t>
   </si>
   <si>
-    <t>2024년, 한국의 학생들의 평균 학력이 29.2점으로 높아졌다. 비상교육이 더이상 필요하지 않을 정도로 학생들의 학습 능력이 향상되었지만, 그에 대한 우려도 있다. 학생들은 그들의 학습 능력을 더욱 향상시키기 위해 더 많은 비상교육을 받아야 할 수도 있다. 이러한 상황에서 AI 기술을 활용한 교육이 더욱 중요해질 것으로 예상된다.</t>
+    <t>2024년에는 AI 기술을 활용한 교육이 활발해질 것으로 예상되며, 교육부문에서의 AI 활용이 증가할 것으로 전망됨. 또한, 교육 시스템의 변화와 함께 교육의 품질 향상이 기대됨.</t>
   </si>
   <si>
     <t>"의대생 그만 봐줘라" 비판 속 만남 제안한 이주호…화답 올까</t>
@@ -340,7 +362,7 @@
     <t>교육부, 전날 의대생 협회 등에 대면 회의 요청 22일 첫 간담회 분위기 좋아…대화 수락 가능성? [서울=뉴시스] 홍효식 기자 = 이주호 사회부총리 겸 교육부 장관이 지난 22일 서울 강남구 한국과학기술회관에서 열린 의대교육 정상화를 위한 의과대학 학생 간담회'에서 발언하는 모습. (사진=교육부 제공) 2025.04.22. photo@newsis.com *재판매 및 DB 금지 [서울=뉴시스] 구무서 기자 = 의대생들의 유급을 앞두고 이주호 사회부총리 겸 교육부장관이 대면 회의를 요청하면서 학생들이 응답해 의대교육이 정상화 될지 여부에 관심이 모아지고 있다. 25일 교육부에 따르면 전날 대한의과대학·의학전문대학원학생협회(의대협)와 전국 40개 의대 학생회장들에게 대면 회의를 제안하는 공문을 발송했다. 교육부가 의대생들에게 대화를 요청한 건 이번이 처음은 아니다. 비공식적으로는 교육부와 일부 의대생들이 만남을 갖기도 한 것으로 알려졌다. 그럼에도 정부가 공식적으로 학생들에게 공문을 보내면서 만남을 제안한 건 다가오는 유급 일정 때문이다. 오는 26일에는 가톨릭대 의대, 28일에는 경북대와 계명대, 영남대 의대, 29일에는 충북대 의대, 30일에는 동국대 의대가 유급 여부 결정을 앞두고 있다. 고려대와 서울대, 연세대를 포함한 대부분의 의대 역시 이달 말까지 유급 여부가 결정됐거나 결정될 예정이다. 학교마다 다르지만 통상 수업의 4분의 1 또는 3분의 1 이상 불참하게 되면 유급 처분이 내려지고, 유급이 누적되면 제적이 될 수 있다. 교육부 관계자는 이번 공문 발송 배경에 대해 "(학생들이 유급을 앞두고 있는 상황이) 고려가 됐다"고 말했다. 이 부총리가 지난 17일 브리핑을 통해 최대 쟁점 중 하나였던 2026학년도 의대 모집인원을 5058명에서 증원 전 수준인 3058명으로 조정하겠다고 밝혔지만 아직 의대생 수업 참여율은 유의미한 증가를 보이지는 않고 있다. 16일 기준으로 40개 의대 평균 수업 참여율은 25.9%에 불과하다. 의대생들은 한 학년도의 모집인원이 아닌 정원 축소와 의료정책 패키지 전면 철회 등을 요구하고 있는데, 만약 2024~2025학번이 대규모 유급돼 내년 2026학번과 함께 수업을 듣게 되면 '트리플링'이 발생해 의대 모집인원 조정 취지가 무색해진다. 정부와 의료계 모두 3개 학번 동시 수업은 사실상 불가능하다고 보고 있다. 교육부에 따르면 공문 발송 이후 학교 차원에서 문의가 온 곳은 있지만 의대생 단체나 학생회에서 답변이 온 곳은 아직 없다. 다만 지난 22일 이 부총리는 대한의료정책학교 주최 간담회에 참석, 여기에 참석한 의대생 10여명과 만남을 갖는 등 대화 물꼬는 트인 만큼 의대생들이 화답을 할 가능성도 있다. 여기서 교육부는 의학교육 발전을 위한 의대생 의견 수렴을 위해 의학교육위원회 구성을 제안했다. 교육부 관계자는 "간담회 날 의대생들이 교육부의 진심과 의지를 알게 됐다며 분위기가 좋았다고 연락을 받았다"고 밝혔다. 대화와 별개로 학생들이 수업에 돌아오지 않으면 유급은 불가피하다. 40개 의대 학장 모임인 한국의과대학·의학전문대학원협회(KAMC)는 이달 말 기준으로 미복귀자 대상 유급 처분을 내리기로 방침을 재확인했고 교육부 역시 학사유연화는 절대 없다는 입장을 거듭 밝혔다. 의대생들에게 더 이상 특혜를 제공해서는 안 된다는 목소리도 커지고 있다. 의료민영화저지와무상의료실현을위한운동본부는 전날 성명문을 통해 "정부의 백기 투항에도 전공의들과 의대생들은 여전히 집단행동을 지속하고 있다. 나름으로 위력을 보여 준 이들은 자신감을 얻어 다음 정부에게 더 많은 요구를 제시해 관철하려는 듯하다"며 "보건의료정책 전반을 의협과 함께 재설계하라는 요구는 반동적 요구"라고 말했다. 전국보건의료산업노동조합(보건의료노조)도 전날 기자회견을 열고 "학교 복귀, 수업 복귀 없는 의대생에게 엄격한 학칙을 적용하라"고 말했다．</t>
   </si>
   <si>
-    <t>교육부가 의대생들에게 대면 회의를 제안하며 의대교육 정상화에 관심이 모아지고 있다. 의대생들은 유급을 앞두고 있으며, 교육부는 학생들과 대화를 통해 해결하려는 노력을 보이고 있다. 의대 모집인원 조정 문제로 학생들의 불만이 커지고 있지만, 정부와 의료계는 3개 학번 동시 수업은 불가능하다고 판단하고 있다. 교육부는 의대생들의 의견을 수렴하기 위해 의학교육위원회 구성을 제안하고 있으며, 유급이 불가피한 경우도 있다. 의대생들은 특혜를 받지 말아야 한다는 목소리를 내며, 정부와 의료계와의 대립이 심화되고 있다. 보건의료노조도 의대생들에게 엄격한 학칙을 적용할 것을 요구하고 있다.</t>
+    <t>교육부가 의대생들에게 대면 회의를 요청하여 의대교육 정상화를 위한 대화가 이뤄지고 있는 상황. 의대생들이 유급을 앞두고 있어 정부와 학생들 간의 대화가 중요시되고 있으며, 유급으로 인한 학사유연화는 없다는 입장을 교육부가 밝히고 있다.</t>
   </si>
   <si>
     <t>“넘어져 상처라도 나면 상상만 해도”...안전 책임 부담에 현장학습 ‘반토막’</t>
@@ -355,7 +377,7 @@
     <t>학생 사망사고 땐 교사의 책임 법원 판결 이후 교육활동 위축 올해 취소한 학교 115곳 달해 서울 강남의 한 초등학교는 올해 상반기 현장체험학습을 교내 체험 활동으로 대체하기로 했다. 매년 상·하반기에 한 번씩 버스를 대절해 과학관, 근교 농원 등을 다녀왔지만 올해는 학교에서 컬링 등 스포츠 활동으로 변경한 것이다. 학교 관계자는 “현장학습 도중 발생할 수 있는 안전사고에 대한 교사들의 부담이 크다”며 “오랜 논의 끝에 1학기 현장학습은 교내 활동으로 대체하기로 했다”고 전했다. 2학기 역시 현장학습 일정을 잡아놓기는 했지만 실시 여부는 아직 미정이라는 게 학교 측 설명이다. 초등학교 현장학습 도중 발생한 학생 사망사고와 관련해 담임교사의 형사책임이 인정된다는 법원 판결이 나온 이후 교육활동이 위축될 것이라는 우려가 현실화하고 있다. 일일 현장체험학습을 취소하는 학교가 잇따르고 있기 때문이다. 오는 6월 교사 책임 면제 조항이 포함된 학교안전법 개정안이 시행될 예정이지만 현장학습이 다시 정상화될지는 여전히 미지수다. 24일 서울시교육청에 따르면 올해 현장학습을 가는 서울의 초등학교는 3월 말 기준 전체 606개 학교 중 209곳(34%)뿐이다. 지난해 478개 학교가 현장학습을 갔던 것과 비교하면 반 토막이 났다. 올해 현장학습을 취소한 학교는 115곳에 달한다. 부분 변경한 학교는 43곳, 축소한 학교는 8곳이다. 미정인 학교도 132곳이나 된다. 정상 추진하는 학교는 158곳에 그쳤다. 한국교원단체총연합회 관계자는 “현장학습 관련 업체와 계약을 취소하면 위약금을 어느 쪽에서 물어야 하는지 문의하는 초등학교 교장이 늘고 있다”고 말했다. 초등학교 교사들이 현장학습을 꺼리는 것은 안전사고에 대한 법정 분쟁 우려 때문이다. 지난 2월 춘천지법은 현장체험학습 중 학생이 버스에 치여 숨지자 업무상과실치사 혐의로 담임교사에게 금고 6월에 집행유예 2년을 선고했다. 이에 교사들은 “현행 현장학습은 학생 안전과 교원 보호를 담보하지 않는다”며 현장학습을 폐지 또는 중단해야 한다고 주장하고 있다. 교육청 관계자는 “인솔교사의 부담을 덜고 학생들의 안전을 강화하기 위해 현장학습 안전보조인력 고용을 지원하고 있다”며 “올해 현장학습을 가는 초등학교에 시급하게 재정 지원을 할 수 있도록 추진 중”이라고 설명했다.</t>
   </si>
   <si>
-    <t>학생 사망사고로 교사 책임 판결 이후, 서울 강남의 초등학교 등 115곳이 현장학습 취소. 현장체험학습 대신 교내 활동으로 변경, 안전사고 우려로. 교사 부담 크다는 이유로 1학기 현장학습 취소 결정. 2학기 현장학습 미정, 교육활동 위축 우려. 학교안전법 개정안으로 교사 책임 면제 조항 시행 예정. 초등학교 현장학습 취소 115곳, 부분 변경 43곳, 축소 8곳. 교사들 법정 분쟁 우려로 현장학습 중단 주장. 현장학습 안전보조인력 고용으로 학생 안전 강화 추진.</t>
+    <t>학생 사망사고로 인한 교사 책임 판결 이후 초등학교의 현장학습 활동이 위축되고 있으며, 일부 학교는 교내 활동으로 대체하거나 취소하는 등 대책을 마련 중이다. 현장학습 관련 업체와의 계약 취소로 인한 위약금 문제도 발생하고 있으며, 교육청은 안전보조인력 고용과 재정 지원을 통해 학생들의 안전을 강화하고 있다.</t>
   </si>
   <si>
     <t>고교학점제 교사 불만 “업무는 과중, 내신경쟁은 심화”</t>
@@ -370,7 +392,7 @@
     <t>시행 두 달 혼란 등 부작용 호소 - “담임체제와 괴리로 관리 어려움 - 내신 유불리 따져 과목 선택도” 올해부터 전국 모든 고등학교에 전면 도입된 고교학점제가 시행된 지 두 달 가까이 지난 가운데 학교 현장에서는 교사와 학생의 혼란만 가중된다는 불만의 목소리가 나온다. 24일 국제신문 취재를 종합하면 고교학점제 도입에 따른 혼란은 부산지역 대부분 고교에서 나타난다. 부산교사노동조합은 신학기가 시작된 지난달과 이달 고교학점제 문제점을 지적하고 폐지를 촉구하는 성명서를 발표했다. 교사노조는 주로 학생 출결 관리와 최소성취수준보장(최성보) 제도 등으로 혼란이 발생한다고 주장한다. 부산시교육청 전경. 국제신문DB 교사노조는 “올해부터 교과 단위 출결 관리가 강화돼 수업 때마다 교과 교사가 이를 직접 기록한다”며 “(학생 결석 사유에 대해) 담임교사와 미리 공유되지 않으면 ‘인정결석’ 처리가 되지 않아 이후 담임이 일일이 확인 후 수정을 요청해야 한다”고 밝혔다. 이어 “학습 부진 학생을 지원한다는 취지로 도입된 최성보 제도는 과목별 최소성취수준인 ‘E등급’ 이상을 받지 못하거나 출석률이 미달하면 보충지도를 하도록 한다”며 “학교 외적인 요인으로 학습 의지가 저하된 학생이 주로 해당되는데, (보충학습을 강요하면) 오히려 자퇴나 학교 이탈을 촉진하는 결과를 낳을 수 있다”고 우려했다. 최소 성취에 집중하기 보다는, 학생별 맞춤형 지원을 통해 학업을 포기하지 않도록 하는 것에 초점이 맞춰져야 한다는 것이다. 학생들이 내신 유불리에 따라 과목을 선택하면서 대학 입시 경쟁이 더 치열해졌다는 목소리도 나온다. 현장의 교사들은 고교학점제와 담임체제의 괴리로 업무 과중에 내몰린다고 호소한다. 부산 한 고교 교사는 “담임교사는 자기 반 학생을 수업하지 않는 경우가 많고, 수업시간 때마다 교실에서 무슨 일이 일어나는지 파악하기도 힘들다”며 “이런 상황에서 담임이 학생 진로와 학업에 대한 상담뿐만 아니라 학교폭력까지 예방해야 한다”고 하소연했다. 최근 국회 교육위원회 소속 조국혁신당 강경숙 의원이 전국 고등학교 교원 9485명을 대상으로 조사한 결과 ‘고교학점제가 원활하게 운영되고 있는가’라는 질문에 56.2%가 ‘그렇지 않다’고 답했다. ‘형식적 운영에 그친다(5876건)’는 의견도 많았다.</t>
   </si>
   <si>
-    <t>고교학점제가 시행된 지 두 달이 지난 가운데, 부산지역 대다수 고교에서 혼란이 지속되고 있다. 교사노동조합은 최성보 제도와 출결 관리로 인한 문제를 지적하며 폐지를 촉구하고 있다. 학생들은 내신 유불리에 따라 과목을 선택하면서 대학 입시 경쟁이 치열해지고 있으며, 교사들은 담임체제와 학점제의 괴리로 업무 과중에 시달리고 있다. 국회 조사 결과에 따르면 고교학점제가 원활하게 운영되고 있는지에 대해 교사들의 의견은 분분하다.</t>
+    <t>고교학점제가 시행된 지 두 달이 지난 가운데 학교 현장에서는 교사와 학생의 혼란만 가중되고 있으며, 부산지역 대부분 고교에서 이에 대한 불만이 나오고 있다. 교사들은 담임체제와의 괴리로 인해 업무 과중에 내몰리고 있으며, 학생들은 내신 유불리에 따라 과목을 선택하면서 대학 입시 경쟁이 더 치열해지고 있다. 현재 고교학점제가 원활하게 운영되고 있는지에 대한 의문이 제기되고 있다.</t>
   </si>
   <si>
     <t>주요 대학 ‘정시 40%’ 족쇄 푼다…고1부터 적용</t>
@@ -382,7 +404,7 @@
     <t>교육부, 주요 16개 대학 ‘정시 30%’로 완화 허용 방침 고교 기여 대학 ‘전형 운영 개선’ 분야 선정 대학 대상 2028 대입부터 적용…수·정시 경계 옅어진 점도 영향 [이데일리 신하영 기자] 교육부가 서울 주요 대학에 적용 중인 ‘정시 40%’ 규제를 특정 사업 선정 대학에 한 해 완화해 줄 방침이다. 해당 규제는 전체 입학정원의 40% 이상을 정시 수능 전형으로 선발토록 한 것으로 ‘대학 자율성을 훼손한다’는 지적을 받아왔는데 이런 불만을 수용한 결과로 풀이된다. 오승걸 한국교육과정평가원장이 지난달 25일 세종시 정부세종청사에서 2026학년도 대학수학능력시험 시행 기본계획을 발표하고 있다.(사진=뉴시스) 교육부 관계자는 24일 “고교 기여 대학 지원사업을 통해 현재 정시 40% 룰을 적용받는 대학을 대상으로 특정 세부 사업 선정 시 이를 30%로 완화해주는 방안을 추진한다”며 “적용 시점은 현 고1 학생들이 치르게 될 2028학년도 대입부터”라고 했다. 현재 정시 40% 룰을 적용받는 대학은 건국대·경희대·고려대·광운대·동국대·서강대·서울시립대·서울대·서울여대·성균관대·숙명여대·숭실대·연세대·중앙대·한국외대·한양대 등 수험생 선호도가 높은 대학들이다. 앞서 교육부는 2019년 이른바 ‘조국 사태’로 학생부종합전형(학종)에 대한 공정성 논란이 심화하자 학종·논술 비중이 큰 이들 16개 대학의 정시 선발 비중을 2023학년도까지 40% 이상으로 높이도록 했다. 이들 16개교를 제외한 여타 수도권 대학은 정시 30% 룰을 적용받고 있다. 교육부가 2028학년도 대입부터 이들 대학의 정시 40% 룰을 완화하기로 하면서 향후 대입 판도 변화가 예상된다. 지금은 정시 40% 선발을 ‘상수’로 설정하면서 대학들도 불만이 쌓인 상태다. 미충원 확대로 정시 선발을 줄이려고 해도 그럴 수 없어서다. 교육부로부터 입학사정관 인건비 등을 지원받는 고교교육 기여 대학 사업 선정 조건으로 정시를 확대한 대학이 대부분인 탓이다. 상황이 이렇다 보니 정시모집에서 100% 충원하지 못할 땐 추가모집을 해야 하는데 입학성적 하락이나 이미지 타격을 우려한 상위권 대학들은 아예 선발을 포기하는 사례도 생긴다. 교육부는 2025~2026년 고교교육 기여 대학 지원사업을 통해 40% 룰을 적용받는 주요 16개 대학의 규제를 30%로 완화해 줄 방침이다. 사업 선정 대학 80곳 중 추가로 자율공모사업(전형 운영 개선 분야)에 지원토록 해 여기에 선정된 대학에 한해서다. 사실상 시범적 규제 완화인 셈이다. 임성호 종로학원 대표는 “상위권 대학들은 정시 미충원 시 이미지 하락 등을 이유로 추가모집을 꺼리는데 정시 40% 비중을 축소할 수 없어서 불만이 컸다”며 “정부가 대학에 정시 비율을 권고한다는 것 자체에 자율성 침해라는 지적도 있다”고 했다. 정시 40% 룰의 실효성에도 회의론이 거론된다. 교육부가 이를 결정할 때만 해도 학종은 팽창하고 정시는 계속 축소됐는데 이는 내신에 실패한 학생들의 대입 기회를 협소하게 만든다는 지적을 받았다. 내신이 아닌 수능 준비만으로 대입을 노리는 학생도 많기에 정시 30%~40% 확보가 필요하다는 여론이 형성된 것이다. 하지만 최근의 대입전형에선 정시·수시 간 경계가 옅어지고 있는 모양새다. 특히 2028학년도부터는 수능이 공통과목 위주로 출제, 상위권 변별력이 약화되기에 정시에서도 학생부 교과·비교과 영역을 반영하겠다는 대학이 늘고 있다. 상위권 대학의 경우 이미 수시에서도 수능최저학력기준을 적용하고 있어 ‘정시 40% 선발’을 상수로 설정하는 게 실효가 있느냐는 지적이 나오는 것이다. 교육계 관계자는 “점차 대입에서 수시가 정시처럼, 정시가 수시처럼 되는 경향이 짙어지고 있어서 정시 40% 룰을 계속 유지할지에 대한 교육부의 고민이 반영된 조치일 것”이라며 교육부의 이번 규제 완화 배경을 해석했다.</t>
   </si>
   <si>
-    <t>교육부가 대학 정시 40% 규제를 완화하고, 고교 기여 대학에 대해 정시 30% 적용을 추진한다. 이는 대학 자율성을 고려한 조치로, 2028년 대입부터 적용될 예정이다. 현재 정시 40%를 적용받는 주요 16개 대학의 규제를 완화하고, 추가로 자율공모사업에 지원할 수 있도록 한다. 이로 인해 대입 판도 변화가 예상되며, 정시와 수시 간 경계가 점차 희석되고 있는 추세다. 상위권 대학들은 이미지 타격 우려로 추가모집을 꺼리는 상황이지만, 교육부는 대학의 정시 비율을 권고하는 것에 대한 자율성 침해 논란도 있다.</t>
+    <t>교육부가 주요 16개 대학에 적용 중인 '정시 40%' 규제를 완화하여 '정시 30%'로 변경할 방침을 발표했으며, 이로 인해 대학들의 대입 판도 변화가 예상되고 있습니다. 이는 대학들의 정시 모집에 대한 불만을 해소하고, 대입 시스템의 변화에 대한 교육부의 고민을 반영한 조치로 해석됩니다.</t>
   </si>
   <si>
     <t>교직원 78% '尹 정부' 교육정책 부정평가…잇따르는 공약 제언</t>
@@ -394,7 +416,7 @@
     <t>AI교과서 정책 두고서는 87% "못했다" 응답 늘봄학교·유보통합, '준비 부족' 지적 이어져 등록금완화·지방大 육성 정책은 비교적 신뢰 대선 40일 앞…수능 개편·공동학위제 등 제언 [이데일리 김윤정 기자] 윤석열 정부의 교육정책 전반에 대해 교직원 10명 중 8명이 부정적으로 평가한 것으로 나타났다. 오는 6월 3일 조기 대선을 앞두고, 교육단체들은 잇따라 정책 전환을 요구하고 있다. (사진=게티이미지) 국회 교육위 소속 더불어민주당 백승아 의원은 24일 전국 초·중·고 및 특수학교 교직원 6309명을 대상으로 실시한 교직원 정책참여 설문조사 2차 결과를 발표했다. 지난 3월 10일부터 4월 6일까지 28일간 교직원의 정책참여 확대·입법과제 개발을 위한 목적으로 온라인을 통해 실시됐다. AIDT·늘봄학교 부정 평가…등록금 완화·지방大 정책은 비교적 긍정 설문 결과에 따르면 윤석열 정부 교육정책 전반에 대해 ‘부정적’이라고 응답한 비율은 77.7%에 달했다. 이 중 ‘매우 못한다’는 응답이 50.4%, ‘못한다’는 27.3%였다. 반면, ‘잘한다’는 응답은 2.3%, ‘매우 잘한다’는 0.4%로 긍정 응답은 총 2.7%에 불과했다. 정책별 평가에서는 ‘인공지능 디지털교과서(AIDT) 도입’이 가장 낮은 평가를 받았다. 전체 응답자의 86.7%가 부정적으로 응답했으며, 그 중 75.7%는 ‘매우 못했다’고 답했다. 교직원들은 사전 효과성 검증 없이 졸속 추진된 결과, 학교 현장에 혼란만 초래했다고 지적했다. ‘늘봄학교’ 정책은 77.9%가 부정 평가를 내렸으며, 이 중 ‘매우 못했다’는 62.9%에 달했다. 인력·공간 지원 없는 성급한 도입이 문제로 꼽혔다. 학부모 만족도와 달리 교원의 업무 피로도가 누적되며 현장의 반발이 심화된 것으로 풀이된다. ‘유보통합’ 정책은 69.4%가 부정적으로 응답했으며, 그 중 56.2%는 ‘매우 못했다’고 답했다. 준비 부족과 로드맵 부재가 원인으로 지적됐다. 이외에도 △학교행정업무 경감(75.4%) △사교육비 완화(73.4%) △교권보호(70.7%) △학교안전(58.4%) △고교학점제 추진(57.4%) △학교폭력 근절(54.6%) △의대정원 확대(51.8%) 등 다수 정책에서 부정 평가가 과반을 넘겼다. 반면, 일부 정책은 비교적 긍정적인 평가를 받은 것으로 나타났다. ‘대학등록금 부담 완화’는 ‘잘했다’(22.4%)와 ‘매우 잘했다’(8.2%)를 합쳐 30.6%로, 부정 평가(30.0%)보다 소폭 높았다. ‘지방대 육성(RISE·글로컬대학)’ 정책도 긍정 평가가 30.2%, ‘특수교육 지원 확대’는 31.5%가 긍정적으로 응답해 상대적으로 신뢰를 얻은 정책으로 평가됐다. 교육단체들 “수능 바꾸고 교사 정치참여 확대해야” 주장 이날 기준으로 제21대 대통령선거가 40일 앞으로 다가오면서 정책 전환을 요구하는 외부 제안도 이어졌다. 전국교직원노동조합(전교조)은 이날 기자회견을 열고 윤석열 정부 교육정책 폐기를 핵심으로 한 10대 교육개혁 의제를 발표했다. 이들은 △AIDT의 교육자료화 △고교학점제 및 교육발전특구 폐지 △수능 자격고사화 △국립대 공동학위제 도입 등을 주요 과제로 제시했다. 이 외에도 교사의 정치·노동기본권 보장, 교육 공공성 강화, 포용적 돌봄체계 구축, 아동·청소년 복지 확대 등의 내용도 포함됐다. 이 같은 요구는 대학 사회에서도 제기됐다. 서울대교수회는 최근 공개한 ‘대한민국 교육개혁 제안’에서 지방거점국립대학과 서울대 간 ‘공동학위제’ 도입을 제안했다. 지방대 학생이 서울대 교수의 수업과 교육 인프라를 공유하고, 졸업 시 서울대와 공동명의의 학위를 받을 수 있도록 하자는 구상이다. 전교조가 요구한 국립대 통합네트워크 및 공동학위 부여와 방향을 같이한다. 수능 제도 개편을 둘러싼 제안도 유사하게 나왔다. 서울대교수회는 수능을 미국의 SAT처럼 문제은행 기반 자격시험으로 개편하고, 연 3~4회 실시해 최고점 또는 평균 점수를 반영하자고 했다. 전교조도 수능 자격고사화를 주장했으나, 절대평가를 도입해 ‘합격·불합격(PASS/FAIL)’으로만 구분하자는 점에서 방식에는 차이를 보였다. 교사노동조합연맹도 이날 5대 의제, 15개 과제를 담은 교육공약을 발표했다. 이들은 정치 후원금 허용, 교육감 선거 출마를 위한 휴직 허용, 공무원보수위원회에 교원노조 추천인 참여 의무화, 교무학사전담 보직교사 배치 등을 요구했다. 교육시민단체 ‘사교육걱정없는세상’은 사교육 규제를 위한 ‘초등 의대반 방지법’ 제정, ‘국가 사교육 관리 센터’ 설립, 사교육 진도 공시제 도입 등을 포함한 6개 영역의 정책 제안을 내놨다.</t>
   </si>
   <si>
-    <t>교육정책에 대한 교직원 설문조사 결과, 대부분의 응답이 부정적으로 나타났다. 특히 'AIDT'와 '늘봄학교' 정책이 부정적 평가를 받았는데, 이는 사전 검증 없이 도입된 결과로 혼란을 초래했다는 지적이다. 교육단체들은 수능 개편과 교사 정치참여 확대를 주장하며 정책 전환을 요구하고 있다. 또한, 대학들은 '공동학위제' 도입을 제안하며 교육개혁을 촉구하고 있다. 전교조와 교사노동조합연맹, 교육시민단체도 각각의 공약을 내놓으며 교육정책에 대한 다양한 요구를 제시하고 있다.</t>
+    <t>윤석열 정부의 교육정책에 대한 교직원들의 부정적 평가가 높아 대선을 앞두고 정책 전환을 요구하는 움직임이 확대되고 있으며, 교육단체들은 수능 개편과 교사 정치참여 확대 등을 주장하고 있다.</t>
   </si>
   <si>
     <t>"또래는 경쟁 상대"…한국 15세, '교우 관계' 국제평가서 꼴찌</t>
@@ -406,7 +428,7 @@
     <t>한국교육개발원. 중등 인문교양 국제 비교 수학·과학 2위, 창의적 사고 9위 등 고득점 교사 관계 1위인데 교우 관계는 36위 그쳐 [서울=뉴시스] 24일 한국교육개발원에 따르면 우리나라 학생들은 경제협력개발기구(OECD) 회원국 중 학습 능력은 최상위권이지만 교우 관계는 최하위권이다. (사진=ai 생성이미지) *재배포 및 DB 금지 2025.04.24. *재판매 및 DB 금지 [서울=뉴시스] 구무서 기자 = 우리나라 15세 청소년들이 다른 나라 학생들이 비해 수학과 과학 등 학습 능력에서는 최상위권에 위치해있지만 친구와의 관계 형성은 꼴찌 수준으로 나타났다. 24일 한국교육개발원은 중등학교 인문교양 수준의 국제 비교 결과를 주제로 한 'KEDI Brief' 제5호를 발표했다. 이 연구는 경제협력개발기구(OECD)에서 주관하는 만 15세 학생 대상 국제학업성취도평가인 PISA 최신 버전(2022)을 바탕으로 진행됐다. 조사 결과 우리나라 학생들은 학업성취도 영역에 있어서 수학 2위, 과학 2위, 국어(읽기) 3위로 우수한 결과를 보였다. 또 사고 역량 부분에서 창의적 사고 9위, 의사소통 역량 11위, 테크놀로지 활용의 인문교양 수준 5위 등 높은 순위를 기록했다. 반면 타자와의 관계에서 교사와의 관계는 1위, 부모와의 관계는 12위였는데 교우와의 관계는 비교 가능한 36개국 중 36위에 그쳤다. 협업 영역에서는 신뢰가 2위로 높았지만 공감은 12위, 협력은 26위였다. 주체적 자아 영역에서 독립성은 2위, 감정표현은 12위, 회복탄력성은 19위였고 주체성은 20위, 자주성은 33위다. 삶의 향유 부분에서는 일상생활 27위, 진로탐색 29위, 여가생활 36위로 전반적으로 최하위권에 위치했다. 서무계 한국교육개발원 선임연구위원은 "우리나라 학생들은 어른 공경 등 문화로 교사와의 관계는 우수했지만 또래와의 관계는 최하위"라며 "학업 성취도는 높지만 경쟁이 심한 삭막한 환경이 교우 관계를 저해하는 요소로 보인다"고 말했다．</t>
   </si>
   <si>
-    <t>한국교육개발원에 따르면 한국 학생들은 수학과 과학 성적은 뛰어나지만 교우 관계는 최하위권이다. OECD에서 발표한 연구에 따르면 우리나라 학생들은 수학 2위, 과학 2위 등에서 우수한 성적을 보였지만 교우 관계는 36위로 나타났다. 이는 경쟁이 심한 환경이 교우 관계를 저해하는 요인으로 작용하는 것으로 분석되고 있다. 한국교육개발원은 이러한 결과를 토대로 학생들의 교우 관계 향상을 위한 대책 마련이 필요하다고 강조했다.</t>
+    <t>한국 학생들은 수학과 과학 등 학습 능력에서는 최상위권에 위치하나 교우 관계 형성은 최하위권으로 나타났다. 한국교육개발원의 연구 결과에 따르면 학생들은 교사와의 관계는 우수하지만 또래와의 관계는 부족한 것으로 나타났다.</t>
   </si>
   <si>
     <t>한글 활자로 찍은 최초 책 '월인천강지곡' 세종시가 품는다</t>
@@ -418,7 +440,7 @@
     <t>세종시-미래엔 협약…세계기록유산 등재 협업 방안 논의 국보 320호 월인천강지곡 상권. (세종시 제공. 재판매 및 DB금지) (세종=뉴스1) 장동열 기자 = 세종대왕의 한글 창제 이후 처음으로 간행된 한글활자본 '월인천강지곡 권상'(月印千江之曲 卷上)이 세종시 품에 안긴다. 세종시와 미래엔(옛 대한교과서)은 24일 세종시청 4층 책문화센터에서 월인천강지곡 기탁과 박물관·한글문화도시 완성을 위한 업무협약을 했다. 협약에 따라 미래엔은 내년 9월 월인천강지곡을 세종시에 기탁한다. 기탁한 보물은 이때 준공하는 세종시립박물관에 이관된다. 또한 양 기관은 월인천강지곡의 유네스코 세계기록유산 등재를 위해 등재추진위원회도 구성하기로 했다. 월인천강지곡은 1449년 세종대왕이 왕비인 소헌왕후의 명복을 빌기 위해 지은 것으로, 석가모니 일대기를 시의 형식으로 읊은 서사시이다. 용비어천가와 함께 최고(最古)의 국문시가로 꼽힌다. 전체 상·중·하권 중 현재 상권만 전해진다. 1963년 보물 398호로 지정됐다가 한글 창제 이후 간행된 최초의 한글 활자본이란 가치를 평가받아 2017년 국보 320호로 격상됐다. 미래엔이 상권을 소장하고 있다. 현재 경기 성남 한국학중앙연구원 장서각에 보관 중이다. 최민호 세종시장(왼쪽)과 김영진 미래엔 회장.  (세종시 제공. 재판매 및 DB금지) 세종대왕이 지은 국보를 세종시가 품게 되면 세종시 1호 국보로 한글문화도시 정체성을 강화하는 데 큰 역할을 할 것으로 기대된다. 최민호 시장은 "월인천강지곡 기탁은 정말 반갑고 큰 선물"이라며 "세종대왕의 깊은 뜻이 담긴 월인천강지곡이 세계기록유산으로 꼭 등재될 수 있도록 노력하겠다"고 말했다. 김영진 미래엔 회장은 "월인천강지곡의 세종시 기탁은 유네스코 세계기록유산 등재를 위한 길이 열리고 미래엔 교과서박물관 발전 측면에서도 의미가 깊다"며 "업무협약서에 명시된 내용을 충실히 이행하도록 적극 협력하겠다"고 전했다.</t>
   </si>
   <si>
-    <t>세종시와 미래엔이 월인천강지곡 기탁과 박물관·한글문화도시 완성을 위한 업무협약을 체결했다. 미래엔은 내년 9월 월인천강지곡을 세종시에 기탁하고, 세종시립박물관으로 이관될 예정이다. 양 기관은 유네스코 세계기록유산 등재를 위해 등재추진위원회도 구성하기로 했다. 월인천강지곡은 세종대왕이 지은 국보로, 세종시가 이를 품게 되면 한글문화도시의 정체성을 강화할 것으로 기대된다.세종시장과 미래엔 회장은 이를 통해 세계기록유산 등재를 위해 노력하겠다고 밝혔다.</t>
+    <t>세종시와 미래엔이 월인천강지곡 기탁과 박물관·한글문화도시 완성을 위한 업무협약을 체결했으며, 월인천강지곡은 세종대왕이 지은 국보로 세종시에 기탁될 예정이며, 유네스코 세계기록유산 등재를 위해 노력할 예정이다.</t>
   </si>
   <si>
     <t>테크빌교육 '쌤동네', 공교육 대상 강사 섭외 '쌤찾자' 리뉴얼 오픈</t>
@@ -430,10 +452,10 @@
     <t>https://www.shinailbo.co.kr/news/articleView.html?idxno=2042874</t>
   </si>
   <si>
-    <t>쌤찾자 서비스 리뉴얼 오픈 이미지.[사진=테크빌교육] 테크빌교육은 운영하는 교사 지식 공유 플랫폼 ‘쌤동네’가 현직 교사의 교육 활동을 확대하고 학교의 연수 강사 섭외를 지원하고자 전국 강사 섭외 서비스인 ‘쌤찾자’를 리뉴얼 오픈했다고 24일 밝혔다. ‘쌤찾자’는 학교 및 모임, 교사의 전문적 학습 공동체를 지원하기 위해 시작한 강사 섭외 서비스로 현재 264명의 현직 교사가 강사로 등록 돼 활동 중이다. 올해 3월부터는 쌤찾자를 통한 강의 섭외 수수료를 무료로 변경 해 부담없이 누구나 강의를 신청하고 섭외할 수 있도록 새롭게 단장했다. 쌤찾자는 △교과지도 △생활지도 △ICT/스마트 △진로인성 △학생교육 △인문교양 등 분야별로 전문성을 갖춘 강사와 강의 요청자를 연결한다. 올해 1분기 쌤찾자를 통해 신청된 강사 섭외 건은 전년 동기간 대비 49% 향상됐다. 쌤찾자를 통해 신청이 가장 많았던 분야는 ‘교과지도’와 ‘ICT/스마트(에듀테크, AI)’였으며 쌤동네에서 관련 분야의 콘텐츠, 쌤모임이나 티처빌 연수 등을 통해 이미 검증된 교사 인플루언서의 강연을 선호하는 것으로 나타났다. ‘쌤찾자’는 교사 인플루언서가 아니더라도 자신의 경험과 지식을 나누고 싶은 교사라면 누구나 강사 프로필을 등록할 수 있고 자신의 브랜드와 콘텐츠를 홍보할 수 있다. 강사로서 커리어를 쌓고자 하는 교사들에게 좋은 기회가 될 것으로 기대된다. 쌤동네는 쌤찾자 리뉴얼을 기념해 신규 강사 프로필을 등록하는 선착순 100명에 한해 커피 쿠폰을 제공하는 이벤트도 진행 중이다. 본 이벤트는 쌤동네 홈페이지에서 5월 말까지 참여 가능하다. 임선옥 티처빌연수사업부 이사는 “많은 학교가 교사 학습공동체에서 연구 주제에 적합한 강사를 찾는데 어려움을 겪고 있다”며 “쌤찾자를 통해 강사로 활동하는 선생님과 강사를 필요로 하는 학교와 모임이 좀 더 가깝고 편리하게 연결돼 많은 현장 교사들의 연구 활동에 기여할 수 있을 것”이라고 말했다. 또 “전문 강사로 성장하고자 하는 현직 교사들이 많다”며 “쌤동네의 ‘쌤찾자’ 서비스가 교사 성장의 발판이 되길 바란다”고 덧붙였다. 한편 쌤동네는 현직교사 2명 중 1명이 사용하는 지식 공유 플랫폼으로 교사가 직접 기획, 제작한 ‘콘텐츠’와 교사 모임인 ‘쌤모임’를 주요 서비스로 제공하고 있다. 아울러 학교의 교원 역량 강화비 및 전문적학습공동체 잔여 예산을 활용할 수 있도록 ‘기관 쌤이용권’을 제공하고 있다. ‘기관 쌤이용권’은 단체 구매를 위한 상품으로 특정 기관(학교)의 소속 교사 1명이 ‘기관 쌤이용권’ 구매 후 함께 활용할 구성원을 등록해 사용할 수 있다. [신아일보] 윤경진 기자 youn@shinailbo.co.kr Tag #테크빌교육 #쌤찾자 저작권자 © 신아일보 무단전재 및 재배포 금지 윤경진 기자 이 기자가 작성한 다른 기사 전체보기 SKT, 4월에만 11만 순감…유영상, 신규가입 멈추고 전면 대응 유심보호 가입 2000만 눈앞…SKT 유영상, 공항 현장 점검 '5월 동행축제' 대장정 올렸다…세종 중앙공원서 개막</t>
-  </si>
-  <si>
-    <t>교사 지식 공유 플랫폼 '쌤동네'를 운영하는 테크빌교육이 '쌤찾자' 서비스를 리뉴얼하여 오픈했다. '쌤찾자'는 전국 강사 섭외 서비스로, 현직 교사 264명이 활동 중이며 강의 섭외 수수료를 무료로 변경하여 더 많은 사람들이 강의를 신청하고 섭외할 수 있도록 했다. '쌤찾자'는 교과지도, ICT/스마트 등 다양한 분야의 전문성을 갖춘 강사와 요청자를 연결하고 있으며, 신청 건은 전년 대비 49% 증가했다. 또한, 쌤동네는 '쌤찾자'를 통해 교사들이 자신의 경험과 지식을 나눌 수 있는 기회를 제공하고 있으며, 이를 통해 교사들의 연구 활동에 기여할 수 있을 것으로 기대되고 있다.</t>
+    <t>쌤찾자 서비스 리뉴얼 오픈 이미지.[사진=테크빌교육] 테크빌교육은 운영하는 교사 지식 공유 플랫폼 ‘쌤동네’가 현직 교사의 교육 활동을 확대하고 학교의 연수 강사 섭외를 지원하고자 전국 강사 섭외 서비스인 ‘쌤찾자’를 리뉴얼 오픈했다고 24일 밝혔다. ‘쌤찾자’는 학교 및 모임, 교사의 전문적 학습 공동체를 지원하기 위해 시작한 강사 섭외 서비스로 현재 264명의 현직 교사가 강사로 등록 돼 활동 중이다. 올해 3월부터는 쌤찾자를 통한 강의 섭외 수수료를 무료로 변경 해 부담없이 누구나 강의를 신청하고 섭외할 수 있도록 새롭게 단장했다. 쌤찾자는 △교과지도 △생활지도 △ICT/스마트 △진로인성 △학생교육 △인문교양 등 분야별로 전문성을 갖춘 강사와 강의 요청자를 연결한다. 올해 1분기 쌤찾자를 통해 신청된 강사 섭외 건은 전년 동기간 대비 49% 향상됐다. 쌤찾자를 통해 신청이 가장 많았던 분야는 ‘교과지도’와 ‘ICT/스마트(에듀테크, AI)’였으며 쌤동네에서 관련 분야의 콘텐츠, 쌤모임이나 티처빌 연수 등을 통해 이미 검증된 교사 인플루언서의 강연을 선호하는 것으로 나타났다. ‘쌤찾자’는 교사 인플루언서가 아니더라도 자신의 경험과 지식을 나누고 싶은 교사라면 누구나 강사 프로필을 등록할 수 있고 자신의 브랜드와 콘텐츠를 홍보할 수 있다. 강사로서 커리어를 쌓고자 하는 교사들에게 좋은 기회가 될 것으로 기대된다. 쌤동네는 쌤찾자 리뉴얼을 기념해 신규 강사 프로필을 등록하는 선착순 100명에 한해 커피 쿠폰을 제공하는 이벤트도 진행 중이다. 본 이벤트는 쌤동네 홈페이지에서 5월 말까지 참여 가능하다. 임선옥 티처빌연수사업부 이사는 “많은 학교가 교사 학습공동체에서 연구 주제에 적합한 강사를 찾는데 어려움을 겪고 있다”며 “쌤찾자를 통해 강사로 활동하는 선생님과 강사를 필요로 하는 학교와 모임이 좀 더 가깝고 편리하게 연결돼 많은 현장 교사들의 연구 활동에 기여할 수 있을 것”이라고 말했다. 또 “전문 강사로 성장하고자 하는 현직 교사들이 많다”며 “쌤동네의 ‘쌤찾자’ 서비스가 교사 성장의 발판이 되길 바란다”고 덧붙였다. 한편 쌤동네는 현직교사 2명 중 1명이 사용하는 지식 공유 플랫폼으로 교사가 직접 기획, 제작한 ‘콘텐츠’와 교사 모임인 ‘쌤모임’를 주요 서비스로 제공하고 있다. 아울러 학교의 교원 역량 강화비 및 전문적학습공동체 잔여 예산을 활용할 수 있도록 ‘기관 쌤이용권’을 제공하고 있다. ‘기관 쌤이용권’은 단체 구매를 위한 상품으로 특정 기관(학교)의 소속 교사 1명이 ‘기관 쌤이용권’ 구매 후 함께 활용할 구성원을 등록해 사용할 수 있다. [신아일보] 윤경진 기자 youn@shinailbo.co.kr Tag #테크빌교육 #쌤찾자 저작권자 © 신아일보 무단전재 및 재배포 금지 윤경진 기자 이 기자가 작성한 다른 기사 전체보기 인크로스, 1Q 영업익 20억·155%↑…광고사업 호조, 실적 '껑충' 스마트레이더시스템, 해외 ITS 전문기업과 레이다 모듈 공급 계약 체결 배터리솔루션즈, 회계 의혹 정면돌파…"IPO 흔들림 없이 추진"</t>
+  </si>
+  <si>
+    <t>테크빌교육이 운영하는 교사 지식 공유 플랫폼 '쌤동네'가 강사 섭외 서비스 '쌤찾자'를 리뉴얼하여 무료로 변경하고, 현직 교사들의 교육 활동을 확대하고자 함. '쌤찾자'를 통해 강의 섭외 건이 49% 증가하며, 교사들의 연구 활동에 기여하고자 함.</t>
   </si>
   <si>
     <t>에듀윌, 한부모 가족복지시설에 사랑의 쌀 100포대 기부</t>
@@ -445,7 +467,10 @@
     <t>모자가정 자립 지원하는 평화모자원에 전달 [이데일리 김경은 기자] 에듀윌은 지난 23일 서울 구로구에 위치한 한부모 가족복지시설 ‘평화모자원’에 사랑의 쌀 100포대를 전달했다고 25일 밝혔다. 손호준(오른쪽) 에듀윌 커뮤니케이션팀장이 지난 23일 서울 구로구 평화모자원에 쌀 100포대를 전달한 뒤 기념촬영을 하고 있다. (사진=에듀윌) 이번 기부는 에듀윌이 2011년부터 진행해온 ‘사랑의 쌀 나눔’ 사회공헌 캠페인의 일환이다. 올해 4월까지 총 151회에 걸쳐 151t의 쌀을 전국 사회복지시설에 기부해오며 꾸준한 나눔 활동을 실천해오고 있다. 기부처인 평화모자원은 저소득 무주택 모자가정의 자립을 지원하는 비영리 복지단체로 현재 17세대, 총 40명이 거주 중이다. 이곳에서는 주거 및 생필품 제공은 물론 취업 훈련, 공부방 운영, 예체능 교육 등 엄마와 아이 모두를 위한 다양한 자립 지원 프로그램을 운영하고 있다. 이번에 전달된 쌀 100포대는 입주 가정과 퇴소 세대에 고르게 배분돼 실질적인 생계 지원에 활용될 예정이다. 손호준 에듀윌 커뮤니케이션팀장은 “나눔은 일회성이 아니라 지속적으로 실천해야 할 기업의 사회적 책임이라고 생각한다”며 “앞으로도 도움이 필요한 이웃들에게 실질적인 힘이 될 수 있는 사회공헌 활동을 꾸준히 이어가겠다”고 말했다. 문진경 평화모자원장은 “더 많은 모자가정이 이곳에서 도움을 받아 자립의 기반을 다질 수 있었으면 한다”며 “에듀윌의 따뜻한 기부가 입주 가정에 큰 힘이 될 것”이라고 전했다.</t>
   </si>
   <si>
-    <t>에듀윌이 평화모자원에 100포대의 쌀을 전달했다. 이는 에듀윌의 '사랑의 쌀 나눔' 사회공헌 캠페인의 일환으로, 지난 10년간 151회에 걸쳐 151t의 쌀을 기부해왔다. 평화모자원은 저소득 무주택 모자가정을 지원하는 비영리 단체로, 다양한 자립 지원 프로그램을 운영하고 있다. 전달된 쌀은 입주 가정과 퇴소 세대에 배분되어 생계 지원에 사용될 예정이다. 에듀윌은 지속적인 나눔을 통해 이웃들에게 도움이 되고자 노력하며, 평화모자원은 더 많은 모자가정이 도움을 받아 자립할 수 있기를 희망한다.</t>
+    <t>에듀윌이 사랑의 쌀 100포대를 한부모 가족복지시설 '평화모자원'에 전달하며 사회공헌 활동을 실천하고 있고, 평화모자원은 저소득 무주택 모자가정의 자립을 지원하는 비영리 복지단체로 다양한 자립 지원 프로그램을 운영하고 있다. 에듀윌은 지속적인 나눔 활동을 통해 이웃들에게 도움이 되고자 노력하고 있다.</t>
+  </si>
+  <si>
+    <t>에듀테크</t>
   </si>
   <si>
     <t>엠북, AI가 강의하는 오디오 ‘엠북학원’ 개원</t>
@@ -460,7 +485,7 @@
     <t>엠북은 1년간의 연구개발 끝에 국내 최초로 인공지능(AI)이 강의하는 오디오 속성학원 ‘엠북학원’을 개원했다. [사진=엠북] [이뉴스투데이 김진영 기자] 엠북은 1년간의 연구개발 끝에 국내 최초로 인공지능(AI)이 강의하는 오디오 속성학원 ‘엠북학원’을 개원했다고 29일 밝혔다. 자체 개발한 인공지능을 이용한 사이버 학원 플랫폼을 특허 출원할 계획이다. 엠북학원은 실제 교육 현장에 인공지능을 구체적으로 활용한 주요 사례로 평가된다. 수험생들은 엠북 웹사이트에 접속해 실시간 스트리밍으로 샘플 강의 내용을 들어보고, 강의 교재 샘플을 바로 확인할 수 있다. 강의 내용을 확인한 후 수강 신청과 결제를 하면 즉시 강의 내용(MP3 파일)과 강의 교재(PDF 파일)를 개인 기기에 내려받을 수 있다. 내려받은 후에는 인터넷에 접속하지 않고도 스마트폰, 태블릿PC, 노트북, 컴퓨터, 차량 오디오 등 다양한 기기에서 사용할 수 있다. 서울대 출신, 고시 합격자, 자격시험 고득점 합격자, 교수 등 최고 전문가가 10시간 정도의 강의 내용을 1~2시간 분량으로 압축해 강의 콘텐츠를 만든다. 강의 콘텐츠는 음성변환(TTS) 기술을 이용해 인공지능 성우가 또렷한 음성으로 낭독한다. 다운로드된 오디오 강의를 활용하면 스마트폰 등을 보기 어려운 상황에서도 공부할 수 있어 하루에 공부 시간을 3시간 이상 추가로 확보할 수 있다. 특히 운동하면서도 공부할 수 있어 수험생은 건강도 관리할 수 있다. 엠북학원은 시험별로 법학원, 공인중개사학원, 소방학원, 경찰·경비학원, 도로·교통학원, 보건·의료학원 등으로 구성된다. 한편, 엠북은 오는 5월 말까지 120여 개의 강의를 개설하고, 연말까지 200개 이상의 강의를 개설할 계획이다. 5월 말까지 수강 신청하는 경우 10% 할인과 함께 전자책 교재를 무료로 제공한다. 김진영 기자 young9731@enewstoday.co.kr 다른기사 보기 키워드 #엠북 #엠북학원 #AI #강의 ※ 여러분의 제보가 뉴스가 됩니다. 각종 비리와 부당대우, 사건사고와 미담, 소비자 고발 등 모든 얘깃거리를 알려주세요 이메일 : webmaster@enewstoday.co.kr 카카오톡 : @이뉴스투데이 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 공유 이메일 기사저장</t>
   </si>
   <si>
-    <t>엠북이 국내 최초로 인공지능이 강의하는 오디오 속성학원 '엠북학원'을 개원했다. 엠북은 자체 개발한 인공지능을 이용한 사이버 학원 플랫폼을 특허 출원할 계획이며, 수험생들은 실시간 스트리밍으로 강의를 듣고 강의 자료를 확인할 수 있다. 강의는 음성변환 기술을 이용해 인공지능 성우가 낭독하며, 다운로드된 오디오 강의를 활용해 어디서든 공부할 수 있다. 엠북학원은 다양한 분야의 강의를 개설하고, 5월 말까지 수강 신청 시 할인과 무료 전자책 교재를 제공한다.</t>
+    <t>엠북이 국내 최초로 인공지능이 강의하는 오디오 속성학원 '엠북학원'을 개원했으며, 자체 개발한 인공지능을 이용한 사이버 학원 플랫폼을 특허 출원할 계획이며, 다양한 강의를 제공하고 수강생들은 언제 어디서든 학습할 수 있다.</t>
   </si>
   <si>
     <t xml:space="preserve">	
@@ -473,7 +498,7 @@
     <t>■ 6·3 대선 만18세 유권자 19만2439명 20대 3월 대선보다 6.5만명 증가 '황금돼지띠' 07년생 급증 영향도 투표율 71.3%···2030보다 높은편 다음날 모의평가가 참여율 변수로 [서울경제] 21대 대선에서 처음으로 투표권을 행사할 수 있는 만 18세 학생 유권자 수가 20만 명에 육박하는 것으로 확인됐다. 지난 20대 대선과 비교하면 7만 명 가까이 늘어난 수치다. 지난 대선 대비 늦은 투표일, 황금돼지띠의 해(2007년)에 태어난 고3 학생 수가 예년보다 많은 점 등이 복합적으로 맞물린 결과다. 전체 유권자에서 학생 유권자가 차지하는 비율은 미미하지만, 지난 대선에서 역대 최소 표 차로 당선자라 결정된 점을 감안하며 학생 유권자의 표심이 올해 대선 승패에 적지 않은 영향을 미칠 수도 있다는 분석도 나온다. 28일 교육부에 따르면 오는 6월 3일 치러지는 제21대 대선에서 투표권을 얻는 학생 유권자는 19만2439명으로, 지난 20대 대선 당시 학생 유권자(12만6509명)와 비교하면 6만4930명 늘었다. 4월 기준 교육정보시스템(NEIS)에 등록된 학생들 중 2007년 6월 5일 이전에 태어난 이들을 집계한 결과다. 공직선거법 제15조 및 민법 제158조에 따르면 선거일 다음날까지 선거 가능 연령으로 산정하기 때문에 6월 4일 태어난 학생도 투표권을 갖는다. 전체 학생 유권자 중 고등학생 유권자가 19만0981명으로 다수를 차지했지만, 학교를 늦게 간 학생들이 있어 초등학교·중학교에 재학 중인 일부 학생들도 투표권을 얻는 것으로 나타났다. 지난 2022년 3월 9일 치러졌던 20대 대선보다 3개월 늦게 대선 날짜가 잡힌 것이 학생 유권자 증가의 주요 이유로 꼽힌다. 만 18세 기준을 충족하는 학생 수가 늘어난 것이다. 2007년 출생 고3 학생 수가 급증한 것도 영향을 미쳤다. 올해 대학수학능력시험(수능)을 치르는 고3 수험생은 모두 45만3812명으로 20대 대선이 치러졌던 2022년 고3 학생수(43만1118명)보다 2만 명 이상 증가했다. 유권자가 대폭 늘면서 학생 유권자들이 이번 대선에서 가지는 영향력도 커질 것으로 전망된다. 현재 이재명 더불어민주당 전 대표가 여론조사에서 압도적 1위를 달리고 있지만, 선거 흐름을 예측할 수 없는 만큼 지난 대선과 같은 초박빙 승부가 벌어질 가능성도 배제할 수 없기 때문이다. 실제 20대 대선을 2개월 앞둔 2022년 1월 중순만해도 이 후보의 지지율(37%)이 윤석열 국민의힘 대선 후보 지지율(31%) 보다 높았지만, 이 후보는 0.73%포인트(24만7077표) 차로 윤 후보에 석패했다. 변수는 투표율이다. 지난 2019년 공직선거법이 개정돼 선거권 연령이 만 19세에서 18세로 조정되면서 학생 유권자는 지난 20대 대선에 처음으로 참여했는데, 투표율은 71.3%로 20대(71.0%)·30대(70.7%)보다 다소 높았다. 대통령 파면으로 치러지는 대선이고 유권자 증가에 투표 참여 성향도 강한 만큼 20대 대선보다 투표율이 높아질 수 있다는 것이 중론이다. 교육계 관계자는 “국회의 대통령 탄핵, 헌법재판소의 대통령 파면 결정 등을 보면서 학생들은 민주주의 의미 등을 체득했다"며 “자신의 권리를 행사할 수 있는 대선을 쉽게 생각하지 않을 가능성이 크고 학생 수도 늘어난 만큼 투표하는 학생이 지난 대선 대비 늘어날 것으로 보인다”고 짚었다. 다만 선거 다음날 6월 모의평가가 예정돼 있어 투표율 예측이 쉽지 않다는 목소리도 나온다. 6월 모평은 N수생 응시가 가능한 첫 전국 단위 모의고사이자 당해 연도 수능 출제 경향을 예측해볼 수 있는 중요한 시험이라 시험 준비로 투표에 참여하지 않는 학생들이 있을 수 있다는 이유에서다. 투표권 행사를 강요할 순 없지만, 민주사회에서 투표가 가지는 의미가 큰 만큼 교육 당국은 학생들이 투표에 참여할 수 있도록 적극 독려하고 있다. 교육부는 선거관리위원회가 제작한 청소년용 선거교육 교재 책자가 학교 현장에 배포될 수 있도록 전국 시도교육청에 안내 공문을 보냈다. 서울시교육청은 지난 20대 대선 때와 마찬가지로 중고생을 위한 대선 교육 자료를 개발해 5월 중순께 학교에 전달할 계획이다. 특히 이번 대선이 헌재 결정으로 치러지게 된 점을 고려해 헌재 역할, 결정문의 취지 등을 쉽게 풀어 자료에 담을 예정이다. 이밖에 이번 대선에서도 학생들이 사전 투표로 인해 수업에 불참한 경우 출석한 것으로 인정해 줄 것을 요청하는 내용의 공문을 학교에 보낼 예정이다.</t>
   </si>
   <si>
-    <t>21대 대선에서 만 18세 유권자 19만2439명으로 증가, 황금돼지띠인 07년생 고3 학생 수 증가로 영향, 투표율 71.3%로 2030보다 높음. 20대 대선보다 6만4930명 늘어나며, 고등학생이 대부분이지만 초등학생도 포함. 6월 3일 대선에 참여 가능하며, 20대 대선보다 3개월 늦게 치러져 유권자 증가. 이재명 지지율 압도적이지만 투표율이 변수로 작용할 수 있음. 교육부는 학생들의 투표 참여를 적극 독려하고 있으며, 학교에 선거교육 자료를 배포할 예정.</t>
+    <t>21대 대선에서 처음으로 투표권을 행사할 수 있는 만 18세 학생 유권자 수가 20만 명에 육박하며, 전체 유권자 중 학생 유권자 비율은 미미하지만 올해 대선 승패에 영향을 줄 수 있음. 투표율이 높아질 것으로 예상되며, 교육부는 학생들의 투표 참여를 적극 독려하고 있다.</t>
   </si>
   <si>
     <t>웅진, '상조 1위' 프리드라이프 8830억에 인수</t>
@@ -485,7 +510,7 @@
     <t>VIG파트너스서 지분 인수 기존 IT·레저와 시너지 기대 웅진그룹이 국내 1위 상조회사인 프리드라이프의 경영권을 인수했다. 29일 웅진그룹은 종속회사인 더블유제이라이프를 통해 프리드라이프 지분 99.77%(의결권 기준)를 사모펀드(PEF) 운용사인 VIG파트너스로부터 인수하는 주식매매계약을 맺었다고 공시했다. 인수 금액은 8830억원이다. 프리드라이프는 작년 말 기준 선수금 규모가 2조5600억원에 달하는 상조업계 1위 기업이다. 웅진그룹에 따르면 지난 2월 프리드라이프 인수를 위해 배타적 우선협상권을 부여받아 최근 정밀 실사 작업을 마무리했다. 최종 인수 절차는 당초 5월 중 마무리할 것으로 예상했지만 이보다 빠르게 진행됐다. 시장에선 웅진이 프리드라이프 인수를 위해 투입해야 하는 금액을 9000억원 수준으로 예상했다. DB증권과 우리은행이 선순위 자금 5000억원 가운데 절반씩 부담하고, DB증권이 나머지 중순위 자금도 2000억원 가까이 내놨다. 웅진그룹은 2000억원의 중·후순위 자금을 맡았다. 대부분이 차입인 셈이다. 웅진그룹은 인수 자금을 확보하기 위해 지난 10일 1000억원 규모의 영구채를 발행하고, 계열사인 웅진씽크빅이 신용 보강을 목적으로 자금 보충 약정을 체결하는 내용을 공시했다. 웅진 관계자는 “인수 재원은 기존 보유 자산과 함께 유상증자 없이 영구채를 발행하고 인수금융 등을 활용해 조달할 예정”이라고 설명했다. 웅진그룹은 정보기술(IT), 레저 등 기존 계열사와 상조업이 시너지를 낼 수 있다고 보고 있다. 웅진씽크빅과 프리드라이프가 각각 보유한 교육·상조업계의 판매 네트워크를 통해 국내 최대 방문 판매 조직을 갖추겠다는 계획이다.</t>
   </si>
   <si>
-    <t>웅진그룹이 국내 1위 상조회사 프리드라이프의 경영권을 8830억원에 인수했다. 이는 작년 말 기준 선수금 규모가 2조5600억원에 달하는 상조업계 1위 기업이다. 웅진은 인수 자금을 확보하기 위해 영구채를 발행하고, 비상교육을 통해 IT, 레저 등 기존 계열사와 시너지를 낼 계획이다. 이를 통해 국내 최대 방문 판매 조직을 갖추는 방안을 모색 중이다.</t>
+    <t>웅진그룹이 국내 1위 상조회사 프리드라이프의 경영권을 8830억원에 인수. 웅진은 IT 및 레저와의 시너지 효과를 기대하며 인수를 진행하고 있음. 프리드라이프와 웅진씽크빅이 교육 및 상조업계의 판매 네트워크를 통해 국내 최대 방문 판매 조직을 구축할 계획.</t>
   </si>
   <si>
     <t>AI교육 스타트업 뤼이드, 작년 매출 201억…전년比 161%↑</t>
@@ -497,7 +522,7 @@
     <t>AI 토익 학습 솔루션 ‘산타’ 거래액 전년 대비 31% 증가 산타 일본 시장 거래액 64% 증가…현지 기업과 B2B 계약 체결 ‘리얼 아카데미’도 새로운 수익원 “새로운 성장 동력으로 꾸준한 수익 개선 기대” [이데일리 윤정훈 기자] 인공지능(AI) 에듀테크 스타트업 뤼이드는 작년 매출이 201억 원을 기록하며 전년 77억 원 대비 161% 상승했다고 30일 밝혔다. (사진=뤼이드) 2024년 매출 성장에는 ‘산타(Santa)’ 거래액 증가가 주요하게 작용했다. 산타는 뤼이드가 2017년 출시한 AI 기반 토익 학습 솔루션으로, 2024년 거래액이 전년 대비 31% 증가하며 뤼이드 전체 매출 상승에 기여했다. 일본 시장 거래액은 전년 대비 64% 증가해 특히 높은 성장률을 보였다. 뤼이드는 2023년 일본 어학교육 브랜드 ‘아루쿠(ALC)’와 서비스 운영 계약을 체결해 일본 시장 마케팅 비용을 축소하고 안정적인 매출 확보의 발판을 마련했다. 2024년에는 IT 기업 ‘후지쯔(FUJITSU)’로부터 B2B 계약을 수주하면서 일본 시장 내에서 영향력을 더욱 확대했다. 올해 2월 기준 산타 글로벌 누적 사용자 수는 487만명을 기록하기도 했다. 2024년 8월 론칭한 ‘리얼 아카데미’도 새로운 수익원으로 작용했다. 리얼 아카데미는 AI 초등 영어 학습 서비스로, AI 튜터 ‘리아(LIA)’와 함께 하루 한 편의 글을 작성하는 ‘1일 1아웃풋’ 학습 솔루션을 운영한다. 리얼 아카데미의 2024년 거래액은 4억원을 기록했으며, 올해 3월 기준 누적 거래액 20억원을 돌파해 꾸준한 성장세가 예상된다. 특히 리얼 아카데미는 지난 3월 자체 개발한 초등 영어 GPT ‘소크라AI’ 기능을 새롭게 선보였다. 소크라AI는 소크라틱 문답법을 적용해 학생에게 질문을 던지고 사고를 확장시키며, 스스로 답을 찾을 수 있도록 유도한다. 또한 아웃풋 중심 학습 전략을 통해 매일 영어로 말하고 쓰는 습관을 길러주고, 초등학생 수준에 맞춘 맞춤형 대화로, 무엇이든 물어보면 영어로 알려주는 과외 선생님처럼 학습을 지원한다. AI 대화 기록을 기반으로 투명한 학습 리포트를 제공해 학습 안전성과 신뢰성도 함께 보장한다. 뤼이드 관계자는 “뤼이드는 2024년 한 해 동안 박수영 대표 체제하에 모든 임직원이 역량을 집중한 결과 매출이 큰 폭으로 상승했다”고 말했다. 이어 “리얼 아카데미 등 새로운 성장 동력도 마련해 앞으로도 꾸준한 수익 개선을 기대하고 있으며, 독보적인 AI 기술력을 활용한 서비스 고도화로 지속 성장할 계획”이라고 했다.</t>
   </si>
   <si>
-    <t>AI 에듀테크 스타트업 뤼이드는 작년 매출이 201억 원으로 상승했으며, 이는 전년 대비 161% 증가한 것으로 밝혀졌다. 이 중에서 '산타'라는 AI 토익 학습 솔루션의 거래액이 31% 증가하여 전체 매출 상승에 기여했고, 일본 시장에서도 64%의 성장을 보였다. 뤼이드는 '리얼 아카데미'라는 새로운 수익원을 발표하며 계속해서 성장할 계획이라고 밝혔다.</t>
+    <t>AI 토익 학습 솔루션 '산타'의 거래액이 전년 대비 31% 증가하며 뤼이드의 매출 상승에 기여하고, 새로운 수익원인 '리얼 아카데미'도 성장세를 보이며 뤼이드의 수익 개선을 기대하고 있음.</t>
   </si>
   <si>
     <t>“AIDT 투자 실패로 부당해고라니”…천재교과서, 노조 출범</t>
@@ -509,14 +534,1645 @@
     <t>천재교과서 노조 출범 선포 기자회견 200여명 구조조정에 대응 위해 결성 “단체교섭 통해 요구 관철할 것” [이데일리 김경은 기자] “인공지능(AI) 디지털교과서(AIDT)를 만들기 위해 투자했다가 실패했다면 그 책임은 투자결정을 한 경영진이 져야 합니다. 경영상 필요에 따라 뽑았다가 필요가 없으면 내치는 것이 노동자입니까?” 천재교과서 노동조합이 29일 출범 선포 기자회견을 열고 사측의 부당해고 대응에 나섰다. 언론노조 천재교과서지부 관계자들이 29일 서울 금천구 천재교과서 사옥 앞에서 노조 출범 선포 기자회견을 진행하고 있다. (사진=김경은 기자) 언론노조 천재교과서지부는 이날 서울 금천구 천재교과서 사옥 앞에서 노조 출범 선포 기자회견을 개최했다. 이 자리에는 박성연 지부장을 비롯해 이호찬 언론노조 위원장, 김원중 출판노조협의회 사무국장, 정철훈 좋은책신사고지부 지부장 등 10여명이 참석했다. 이들은 “불법 해고·부당 대기발령 노조로 저지하자”, “고용 안전 지켜내고 단체협약 쟁취하자”, “기업다운 노사 상생 요구한다” 등의 구호를 함께 외쳤다. 천재교과서지부는 지난 24일 언론노조 집행위원회에서 지부 설치 승인 안건이 통과되며 언론노조 산하조직으로 공식 출범했다. 회사에서 벌어지는 불법적이고 폭력적인 구조조정을 저지하고 노동조건을 개선하기 위해 결성했다는 게 노조측 설명이다. 노조는 “지난 3월 회사는 갑자기 대규모 구조조정 계획을 통보했다”며 “이 과정에서 ‘권고 이직’이라는 신박한 표현을 사용했다. 이직은 통상 본인의 선택인데 천재교과서는 이를 해고의 다른 말로 썼다”고 결성 배경을 설명했다. 이어 “누군가는 계약직이기 때문에 연장 통보를 받고도 당일에 쫓겨나듯 회사를 떠났고 누군가는 출산휴가를 갔다 왔기 때문에 대상자가 됐다며 한숨을 내쉬었다”며 “그렇게 한 달 만에 200여명에 달하는 동료들이 회사를 떠났다”고 지적했다. 노조에 따르면 천재교과서는 지난달 21일부터 구조조정에 착수했으며 한 달간 200여명이 반강제적으로 퇴사했다. 이 과정에서 사측이 권고사직과 직무변경을 강요했으며 이를 거부하면 대기발령을 하는 등 부당 대우를 일삼았다는 게 노조측 주장이다. 박 지부장은 “권고사직을 받은 팀원에게 언제 퇴사할 거냐고 하루에 12번 물어보는 상사가 있었고 팀원의 퇴사일을 달력에 표시해놨다고 한 상사도 있었다”며 “이번 (구조조정) 대상자가 되지 않은 사람이라도 안전하다고 볼 수 없어 노동조합 설립에 나서게 됐다”고 말했다. 노조는 기자회견문을 통해 “부당해고와 차별, 괴롭힘 등 현재 회사에서 벌어지고 있는 일로부터 동료를 보호하고 법적 권리를 지키기 위해 활동할 것”이라며 “회사와 공식적인 단체 교섭을 통해 당당하게 요구를 관철할 것”이라고 강조했다. 사측은 AIDT 도입 부진으로 수익성이 악화돼 인력 재배치가 불가피하다는 입장이다. 천재교과서는 부당 해고 논란에 대해 “모든 것은 당사자의 동의와 합의를 전제로 이뤄지고 있다”며 “합의되지 않은 직원들의 경우 부득이하게 전환배치와 대기발령 절차를 진행한다”고 해명했다.</t>
   </si>
   <si>
-    <t>천재교과서 노조가 출범 선포 기자회견을 열어 200여명 구조조정에 대응하기로 결성했다. 회사는 인공지능 디지털교과서를 개발하다가 실패하면서 구조조정을 시작했고, 노조는 부당해고와 대기발령 등을 이유로 노동조건 개선을 요구하고 있다. 구조조정으로 200명이 퇴사하게 되었는데, 노조는 부당 대우를 주장하며 사측의 행동을 비판했다. 사측은 AIDT 도입 부진으로 인력 재배치가 필요하다고 주장하고 있지만, 노조는 단체교섭을 통해 요구를 관철할 것이라고 강조했다.</t>
+    <t>천재교과서 노동조합이 구조조정에 대한 부당해고 대응을 위해 출범하고, 사측과의 단체교섭을 통해 요구를 관철할 예정이다. AIDT 도입 부진으로 인한 수익성 악화로 인력 재배치가 불가피하다는 입장이 대립되고 있다.</t>
+  </si>
+  <si>
+    <t>UAE, 학교 교육과정에 'AI 과목' 도입</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003309463</t>
+  </si>
+  <si>
+    <t>ⓒ게티이미지뱅크 아랍에미리트(UAE)가 올해 공립학교 교육과정에 인공지능(AI) 과목을 도입할 예정이라고 블룸버그가 4일(현지시간) 도입했다. 블룸버그에 따르면, UAE는 2025~2026학년도에 유치원생부터 12학년까지를 대상으로 AI 과목을 도입한다. 이 과목에는 윤리적 인식과 기본 개념, 실제 적용 등이 포함된다. 이는 학생들이 빠르게 진화하는 디지털 세계에서 성공할 수 있도록 필수 AI 지식과 기술을 갖추는 것을 목표로 한다는 게 UAE의 설명이다. 사라 빈트 유세프 알 아미리 UAE 교육부 장관은 “UAE가 전 세계에서 최초로 학교 시스템에 AI를 전면적으로 도입한 국가 중 하나”라며 “정부의 적극적인 비전을 실질적으로 보여주는 것이며, 학생들이 AI 기술을 이해할 뿐만 아니라 이를 효과적이고 윤리적으로 적용하는 데 도움이 될 것”이라고 말했다. 한편, UAE는 중동 내 AI 강국이 되기 위한 다각도 노력을 펼치고 있다. UAE는 지난 달 AI 입법부 도입을 세계 처음으로 알렸다. UAE 각료들은 새로운 법률 제정, 기존 법의 검토와 개정에 AI를 활용하기 위한 'AI 입법'을 감독할 새로운 내각 기관 '규제 정보청' 창설을 승인했다. 두바이 통치자 겸 UAE 부통령인 셰이크 무함마드 빈 라시드 알 막툼은 “AI가 추동하는 새로운 입법 체계는 입법 절차를 더 빠르고 정확하게 만듦으로써 우리가 법을 제정하는 방식에 변화를 가져올 것”이라고 설명했다. UAE는 미국과 AI 협력도 기대한다. 샘 올트먼 오픈AI 최고경영자(CEO)는 지난해 “UAE가 AI 기술을 테스트하고 나중에 그 사용을 제한하는 글로벌 규칙을 주도할 수 있는 세계의 규제 샌드박스 역할을 할 수 있다”고 말했다. 미국은 이달 중순으로 예정된 도널드 트럼프 미국 대통령의 UAE 방문을 앞두고 엔비디아의 UAE 판매 제한 완화 가능성에 무게를 두고 있다. 이는 중동 내에서 UAE의 AI 경쟁력을 높일 수 있다고 블룸버그는 분석했다.</t>
+  </si>
+  <si>
+    <t>아랍에미리트(UAE)가 공립학교 교육과정에 인공지능(AI) 과목을 도입하고, 2025~2026학년도에 유치원생부터 12학년까지를 대상으로 AI 과목을 포함한 교육을 실시할 예정이다. UAE는 AI 강국이 되기 위한 노력을 기울이고, 미국과의 AI 협력도 기대하고 있다.</t>
+  </si>
+  <si>
+    <t>중복 뉴스</t>
+  </si>
+  <si>
+    <t>토익 말고 코익?…코딩 교육 집중했더니 매출 3배 ‘이 스타트업’</t>
+  </si>
+  <si>
+    <t>매경이코노미</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/024/0000096941</t>
+  </si>
+  <si>
+    <t>에듀테크 기업 브랜치앤바운드, 코딩 교육 플랫폼 ‘코드트리’ 앞세워 성장 체계적 커리큘럼·맞춤형 진단으로 만족도 높여...대학·기업 시장 두각 IOI 메달리스트 출신 대표 필두로 기술력·수익성 ‘두 마리 토끼’ 잡아 성장세가 뚜렷한 코드트리. (브랜치앤바운드 제공) 온라인 코딩 교육 플랫폼 ‘코드트리’가 무서운 성장세를 보이며 업계 주목을 받고 있다. 에듀테크 스타트업 브랜치앤바운드가 개발한 이 플랫폼은 최근 전년 대비 3배 이상 매출 성장을 달성했다. 같은 기간 흑자 행진도 이어지고 있다. 코드트리는 ‘누구나 체계적인 커리큘럼을 따라가면 코딩 테스트를 통과할 수 있다’는 목표 아래 학습자의 현재 실력을 정밀하게 진단하고 개인에게 최적화된 맞춤형 학습 경로를 제공하는 데 집중한다. 코딩 기본기 구축부터 실제 코딩 테스트 실전 감각 함양까지 단계적으로 학습할 수 있도록 설계된 반복 학습 구조와 시스템은 이용자들 사이에서 ‘코딩의 정석’으로 불린다. 실제 코드트리의 주간 재방문율은 약 70%에 달할 정도로 사용자 충성도가 높다. 코드트리의 또 다른 강점은 국내 코딩 교육 플랫폼 중 유일하게 전 기능이 영어 버전으로 제공된다는 점이다. 이는 해외 IT 기업 취업을 준비하는 학습자들에게 실질적인 도움을 제공하며 서비스의 저변을 넓히는 요인이 되고 있다. 삼성전자, 구글, 메타 등 국내외 주요 IT 기업들의 코딩 테스트 문제 유형을 철저히 분석해 커리큘럼에 녹여낸 점도 학습자들에게 큰 호응을 얻고 있다. 코익(COEIC)으로 코딩 실력 점검 초보자도 쉽게 코딩을 배울 수 있게 만든 코드트리. (브랜치앤바운드 제공) 브랜치앤바운드는 코드트리 플랫폼 외에도 다양한 교육 인프라 구축에 주력하고 있다. 온라인 코딩 캠프, 프로그래밍 경진대회 운영을 통해 학습자들과 소통하는 한편, 코딩 역량을 정량적으로 측정할 수 있는 평가 서비스 ‘코익(COEIC)’과 코딩 그룹 관리 시스템(AMS) 등을 개발해 대학, 기업 고객 시장으로 사업 영역을 확장하고 있다. 특히 ‘코익’은 AI 기반 적응형 시험 방식을 통해 학습자의 코딩 실력을 객관적으로 파악할 수 있는 지표로 주목받는다. 대학은 신입생 코딩 기초 교육·역량 진단에, 기업은 개발자 채용 및 내부 직원 역량 강화에 ‘코익’을 활용하며 공신력을 더하고 있다. 현재 코드트리는 국내 주요 대기업들과의 협업을 활발히 진행 중이며, 전국 30여개 대학에서 정규 교육 과정, 비교과 활동에 코딩 교육 및 역량 평가 도구로 채택되는 등 교육계에서도 그 효과를 인정받고 있다. 올림피아드 은메달 출신이 창업 브랜치앤바운드의 성장을 이끄는 인물은 국제정보올림피아드(IOI)에서 은메달을 수상한 코딩 전문가이자 서울대학교 컴퓨터공학과를 졸업한 이승용 대표다. 이 대표는 급성장하는 코딩 교육 시장에 비해 학습자들이 기본기를 탄탄히 쌓을 수 있는 체계적인 커리큘럼이 부족하다는 문제 의식에서 2021년 브랜치앤바운드를 설립했다. 이승용 대표는 “코딩 교육 시장의 외형적 성장만큼 내실 있는 커리큘럼을 통해 학습자들의 실질적인 성장을 돕는 것이 중요하다고 판단했다”며 “앞으로도 탄탄한 내실 성장을 기반으로 AI 시대에 꼭 필요한 실력과 창의성을 겸비한 인재 양성에 기여하기 위해 최선을 다하겠다”고 밝혔다. 브랜치앤바운드는 기술력과 성장 가능성을 인정받아 중소벤처기업부의 대표 기술 창업 지원 프로그램인 ‘팁스(TIPS)’에 선정됐으며, 앞서 끌림벤처스로부터 10억원 규모의 시드 투자를 유치하며 사업 확장의 동력을 확보했다.</t>
+  </si>
+  <si>
+    <t>에듀테크 기업 브랜치앤바운드의 코딩 교육 플랫폼 '코드트리'가 성장세를 보이며 주목을 받고 있고, 학습자들에게 체계적인 커리큘럼과 맞춤형 학습 경로를 제공하며 성공적인 성장을 이루고 있다. 대학 및 기업 시장에서도 인정을 받으며 AI 시대에 필요한 실력과 창의성을 갖춘 인재 양성에 기여하고 있다.</t>
+  </si>
+  <si>
+    <t>구글 올라탄 K-에듀테크, 베트남에 '영어 몰입형 유치원' 세운다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/008/0005190046</t>
+  </si>
+  <si>
+    <t>[이 기사에 나온 스타트업에 대한 보다 다양한 기업정보는 유니콘팩토리 빅데이터 플랫폼 '데이터랩' 에서 볼 수 있습니다.] 권영욱 야호랩 대표가 대원칸타빌 측과 업무협약을 맺고 있다. /사진=야호랩 제공 베트남에서 아이들을 위한 일대일 방문학습 솔루션 '투디'(Tudy)를 운영하는 야호랩 이 대원칸타빌과 업무협약을 맺고 영어 유치원 공동 설립에 나선다고 6일 밝혔다. 야호랩은 베트남에서 아이돌봄 도우미 연결 플랫폼 '야호'(YAHO!)를 시작으로 지난해 1월 투디를 출시하며 초등학교 5학년까지 학습 범위를 확장, 베트남 방문 학습 시장에서 입지를 다져가고 있다. 투디는 출시 1년 만에 MRR(Monthly Recurring Revenue, 월간반복매출)이 4만2396달러(약 6000만원)를 돌파해 지난해 하반기 흑자 전환에 성공했다. 연간 매출은 전년 대비 3배 이상 늘었다. 월별 리텐션(고객유지) 비율이 70% 이상이라는 것도 눈에 띄는 성과다. 야호랩은 이 같은 성장세를 바탕으로 구글이 중소벤처기업부·창업진흥원과 함께 진행하는 국내 스타트업 및 개발사 지원 프로그램 '창구' 7기에 선정됐다. '창'업과 '구'글플레이의 각각 앞 글자를 따온 창구 프로그램에서 중기부는 사업화 자금을 지원하고 구글플레이는 앱·게임 퀄리티 개선, 글로벌 진출·마케팅, 수익화 전략 컨설팅 등 다양한 성장 지원 패키지를 제공한다. 구글플레이는 △수익화 방안과 마케팅 전략 등에 관한 성장지원 세미나 △일대일 심층 컨설팅 △투자유치 노하우와 성공 사례를 공유하는 알럼나이 데이 △앱 개발·배포에 활용 가능한 클라우드 크레딧 등 실질적인 지원 프로그램을 운영한다. 또 국내외 주요 VC(벤처캐피탈)과 투자유치 상담을 할 수 있는 'VC 오피스아워'도 마련된다. 특히 올해는 AI(인공지능) 교육 및 지원 프로그램이 새롭게 추가돼 AI 주제의 온오프라인 교육과 세미나, 워크샵, 오피스아워 등이 포함된 '창구 AI 스터디잼' 세션이 운영된다. 야호랩은 베트남에서 고급 주거단지와 상업시설을 운영하는 대원칸타빌과의 협약을 통해 내년 3월 개원을 목표로 호치민시 안푸 지역 내 영어 몰입형 유치원 설립을 본격 추진할 계획이다. 권영욱 야호랩 대표는 "베트남은 교육 시장이 빠르게 성장하고 있지만 유아·초등 쪽은 구조적인 한계와 기회가 공존한다. 투디와 유치원 사업을 통해 베트남 전역의 아동들에게 질 높은 교육 기회를 제공하고 장기적으로는 동남아시아 전역으로 확장해 나갈 것"이라고 했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리' ]</t>
+  </si>
+  <si>
+    <t>베트남 스타트업 야호랩이 대원칸타빌과 업무협약을 맺고 영어 유치원 공동 설립에 나선 것으로, 야호랩의 학습 솔루션 '투디'가 성장세를 보이며 국내 스타트업 지원 프로그램에 선정되었고, AI 교육 프로그램도 추가될 예정이며, 베트남 내 영어 몰입형 유치원 설립을 추진할 계획이다.</t>
+  </si>
+  <si>
+    <t>8년 만에 첫발…학생별 맞춤 교육 가능할까[고교학점제 두 달]①</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/421/0008231200</t>
+  </si>
+  <si>
+    <t>교육 다양성에 공감대…192학점 취득해야 졸업 진로보다 입시 유리한 과목 선택 우려 여전 서울 관악구 당곡고등학교에서 '스마트콘텐츠 실무' 수업이 진행되고 있다. /뉴스1 ⓒ News1 신웅수 기자 (서울=뉴스1) 장성희 기자 = 문재인 정부에서 기틀을 마련한 고교학점제가 정권을 넘어 윤석열 정부에서 올해 1학기 첫발을 뗐다. 정권의 성향은 달랐지만 두 정부 모두 학생의 자발적 선택에 따른 '맞춤형 교육'을 강조하며 고교학점제를 추진했다. 올해 고등학교에 입학한 학생부터는 대학생처럼 자신의 흥미에 따라 과목을 선택해 3년간 192학점 이상을 이수해야 한다. 다만 평가 방식을 두고는 여전히 교육계 내에서 이견이 나오는 상황이다. 정권 이은 고교학점제, 올해 고1부터 본격 시행 5일 교육부에 따르면 학생이 진로·적성에 따라 과목을 선택하고, 이수 기준에 도달한 과목에 대해 졸업 학점을 누적하는 제도인 고교학점제가 올해 고1부터 전면 시행됐다. 2017년 교육부가 추진로드맵을 발표한 지 8년 만이다. 2017년 취임 첫 해 문재인 정부는 현 고교 교육이 대학입시와 수능에 종속돼 획일적인 교육과정이 운영되고, 국·영·수 위주 암기식 수업이 이뤄지고 있다고 진단했다. 9등급 성적 산출에 대해선 '줄 세우기식 평가'라고 비판했다. 이후 윤석열 국민의힘 대선 후보 당선으로 정권이 교체되며 고교학점제가 원점에서 재검토될 수 있다는 전망도 나왔지만, 정부는 교육의 다양성에 필요성을 공감하며 제도를 이어가기로 했다. 이런 공감대 아래 고교학점제가 도입됐다. 올해 고등학교에 입학하는 학생은 3년간 192학점 이상의 학점을 취득해야 졸업할 수 있다. 192학점은 교과 174학점, 창의적 체험활동(동아리·자치활동 등) 18학점으로 구성된다. 교과 과목은 전체 필수 학점이 84학점, 선택 학점이 90학점이다. 공통과목 위주로 수업을 듣는 고등학교 1학년 특성상 선택과목 수강은 2학년부터 본격화된다. 공통과목에는 공통국어·공통수학·영어·한국사·통합사회·통합과학 등이 있다. 물리적 여건상 한 학교가 모두의 과목 수요를 만족할 수는 없다. 이에 따라 소인수·심화 과목 등을 학교가 연계해 교육과정을 운영한다. 또 학생들의 선택권을 늘리기 위해 온라인학교도 운영하고 있다. 서울시교육청의 경우, 온라인학교에서 △스포츠와 국제사회 △서울 프로젝트 등 색다른 과목을 선보인다. 절대평가 도입 속 상대평가 병기…실효성 지적도 ⓒ News1 김초희 디자이너 고교학점제에서 가장 큰 화두는 평가 방식이다. 대학 입시를 준비하는 학생들이 진로보다 성적에 유리한 과목을 선택할 수 있기 때문이다. 제도의 취지가 무색해지는 것이다. 문재인 정부는 2021년 2월 '고교학점제 종합 추진계획'을 발표하고 고교학점제가 도입되는 2025년부터 성취 수준을 A~E 5단계로 구분하는 절대평가를 실시하기로 했다. 다만 최소한의 내신 변별을 위해 고1이 주로 듣는 공통과목엔 9등급 석차(상대평가)를 병기하기로 했다. A~E에서 40% 미만인 'E 등급'이 나올 경우 미이수 처리된다. 그러나 2023년 윤석열 정부는 고1~3학년 전 과목에 5등급 절대평가(A~E등급)를 적용하면서 상대평가 등급(1~5등급)을 병기하기로 계획을 바꿨다. 고1에서 사교육이 과열되고 2~3학년에서 성적을 만회하기 어렵다는 우려를 반영한 것이다. 미이수 조건은 기존과 같다. 교육계 일부에선 모든 학년에 상대평가를 병기하는 게 제도의 취지와 어긋난다는 지적도 나온다. 상대평가 반영으로 학생들이 입시에 유리한 과목에 쏠릴 수 있다는 설명이다. 교육시민단체 사교육걱정없는세상은 이와 관련해 "도입 취지에 맞도록 고교 내신 절대평가 도입을 조속히 추진해야 한다"고 강조했다.</t>
+  </si>
+  <si>
+    <t>올해부터 시행된 고교학점제에 대한 평가 방식 논란과 관련하여, 정부는 절대평가와 상대평가를 혼용하며 학생들의 다양한 선택을 존중하고자 하지만, 교육계 내에서 여전히 이견이 존재하고 있다.</t>
+  </si>
+  <si>
+    <t>‘초유의 대행직’ 맡은 교육부 “대비는 했지만 걱정”</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/018/0006006242</t>
+  </si>
+  <si>
+    <t>교육부 타 부처, 내부 인력 받아 업무지원단 구성 “3월에도 최상목 전 대행 탄핵 추진…대비해왔다” 법안 거부권 행사로 이 대행마저 탄핵될까 걱정도 의대문제, 늘봄학교 등 산적한데…업무 과중 우려 [이데일리 신하영 기자] 사상 처음으로 장관이 대통령 권한대행을 맡은 교육부는 타 부처 인력 등을 받아 업무지원단을 가동한다. 지난 3월에도 헌법재판관 임명 문제로 최상목 전 대행에 대한 탄핵 추진이 있었던 만큼 권한대행직 수행을 대비해왔다는 언급도 나오고 있다. 이주호 대통령 권한대행 부총리 겸 교육부 장관과 방기선 국무조정실장이 2일 정부서울청사에서 임시 국무회의에 입장하고 있다.(사진=연합뉴스) 교육부 관계자는 6일 “교육부 내, 타 정부 부처의 인력을 받아 업무지원단을 구성해 가동한다”며 “업무지원단은 기획재정부에서도 운영한 선례가 있어서 참고가 됐다”고 말했다. 실제로 기획재정부는 지난 2월 김범석 1차관을 단장으로 하는 대통령 권한대행 업무지원단을 구성, 운영한 바 있다. 앞서 이주호 부총리는 지난 1일 국회의 탄핵안 상정으로 최상목 전 권한대행이 사퇴하자 다음 날인 2일 0시부터 권한대행직을 이어받았다. 다만 지난 3월에도 마은혁 헌법재판관 임명 문제로 더불어민주당이 최 전 대행에 대한 탄핵을 추진한 바 있어 이전부터 대비를 해왔다는 게 교육부 관계자들의 전언이다. 한 교육부 고위 공무원은 “당시에도 헌법재판관 임명 문제로 최 전 대행의 탄핵 가능성이 있어 내부적으로 대행직 수행에 대한 대비를 해왔다”고 했다. 그럼에도 교육부 일각에선 국정 운영의 안정성이 흔들릴 수 있다는 우려가 나온다. 이주호 권한대행마저 탄핵당할 수 있어서다. 익명의 요구한 교육부 공무원은 “민주당 주도로 통과된 법안에 대한 거부권 행사 등을 이유로 이주호 대행마저 탄핵 되면 국정 운영이 흔들릴 수 있다”며 “그간의 탄핵으로 국무위원 수가 현재 14명밖에 남지 않은 상황”이라고 했다. 헌법상 국무회의는 15인 이상 30인 이하의 국무위원으로 구성된다. 대통령령에 따르면 구성원(21명)의 과반인 11명으로 국무회의 개의가 가능하다. 최 전 대행의 사직으로 현재 국무위원은 14명만 남은 상태다. 특히 의대 문제를 비롯해 인공지능교과서, 늘봄학교 등 교육부 업무 중에도 산적한 과제가 많은 상황에서 대행직까지 맡게 돼 업무 과중에 대한 우려도 나온다. 교육부 한 과장급 공무원은 “앞서 권한대행을 맡았던 기획재정부의 경우 예산 편성과 관련한 총괄 기능을 가진 부처이고 사이즈 역시 교육부와 비교가 되지 않는다”라며 “타 부처 업무 하나만 넘어와도 보통 일이 아닌데 권한대행 업무가 통째로 넘어온다고 하니 걱정”이라고 했다. 실제로 올해 2월 28일 기준 교육부 인력 현원은 696명으로 기재부(1095명)의 64% 수준이다. 더욱이 외교·안보·통상 등의 분야에선 업무 경험도 없다. 이 때문에 교육부도 타 부처 인력을 받아 대통령 권한대행 업무지원단을 구성했다. 교육부 업무지원단은 △기획·조정팀(교육부 정책기획관) △일정총괄팀(교육부 부총리 비서실장) △메시지 공보팀(교육부 홍보담당관) △외교·안보팀(외교부 국장) △재난·치안팀(국무총리실 국장) △민생·경제팀(기획재정부 국장) 등 6개 팀으로 운영된다. 업무지원단 내 메시지·공보·일정총괄팀 등은 교육부 내부 인력으로 운영하지만, 외교안보·재난치안팀 등에는 타 부처 공무원들이 투입됐다. 교육부는 “교육부와 유관 부처 공무원으로 업무지원단을 구성·운영한다”고 밝혔다. 한편 이 권한대행은 이명박 정부 때 교육과학기술부 장관을 역임한 데 이어 윤석열 정부에서도 교육부 수장을 맡았다. 지난해 12월 3일 윤석열 전 대통령이 계엄을 선포하기 위해 소집한 국무회의에는 참석하지 않았다. 이 대행은 지난 2일 첫 국무회의를 주재한 자리에서 “저와 장관들은 오직 국민과 역사의 평가만 두려워하며 우리에게 주어진 마지막 소임을 다해야 한다”며 “국가 안보와 국민 안전을 지키고 새 대통령을 선출하는 선거 전 과정이 투명하게 관리되도록 빈틈없이 지원해야 한다”고 강조했다.</t>
+  </si>
+  <si>
+    <t>교육부가 타 부처 인력을 받아 업무지원단을 구성하여 대행직을 수행하고 있으며, 대행마저 탄핵될 우려가 있음. 현재 국무위원이 부족한 상황에서 국정 운영의 안정성에 대한 우려가 제기되고 있음.</t>
+  </si>
+  <si>
+    <t>비상 '딱풀리는 수학' 회원수 5000명 돌파…가맹학습관 500곳</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/018/0006006540?sid=101</t>
+  </si>
+  <si>
+    <t>2023년 정식 출시 이후 1년8개월만에 5000명 넘어서 [이데일리 김혜미 기자] 비상교육(100220)은 초등수학 전문 브랜드 ‘딱풀리는수학’ 회원 수가 5000명을 넘어섰다고 7일 밝혔다. 2023년 정식 출시 이후 1년8개월 만이다. 딱풀리는수학은 서술형 중심 교재를 기반으로 한 달에 한 권씩 학습을 완성하는 초등 수학 프로그램이다. 지난해부터 가맹 학습관 확대가 이어지면서 올 2월 전국 가맹 학습관 수 500개를 넘어섰다. (사진=비상교육) 비상교육은 늘봄학교 확대, 초등 인구 감소 등 환경 변화 속에서도 안정적인 성장세를 유지하고 있다는 점에서 의미가 있다고 설명했다. 브랜드 신뢰도와 차별화된 콘텐츠, 가맹 원장과의 밀착 운영을 주요 성장 요인으로 판단하고 있다. 비상교육은 회원 수 5000명 돌파를 기념해 유튜브 라이브 방송 ‘딱풀리는수학 보이는 라디오(딱보라)’를 진행했다. 가맹 원장과 학부모, 본사 직원이 함께 참여한 방송에서는 실시간 댓글 이벤트, 콘텐츠 기반 퀴즈, 추첨을 통한 경품 제공 등 다양한 프로그램이 운영됐다. 특히 이번 방송에서는 AI 더빙 캐릭터 ‘수리’가 가맹 원장의 사연을 음성으로 전달하는 ‘수리의 사연을 말해봐’ 코너는 새로운 형식의 소통 콘텐츠로 관심을 모았다. 비상교육은 이와 함께 5월 한 달간 가맹 학습관을 대상으로 ‘럭키 50 이벤트’를 운영한다. 회원 수가 50명씩 증가할 때마다 관련 학습관에 기념 굿즈를 제공하는 방식으로, 학습관과의 유대 강화 및 참여 확대를 유도한다는 방침이다. 오상봉 비상교육 FC 사업총괄은 “본사는 가맹 학습관이 안정적으로 성장할 수 있도록 지속적인 운영 지원을 이어갈 예정”이라며 “전국의 초등학생이 딱풀리는수학과 함께하는 그날까지 지원을 아끼지 않겠다”고 포부를 밝혔다.</t>
+  </si>
+  <si>
+    <t>초등수학 전문 브랜드 '딱풀리는수학' 회원 수가 5000명을 넘어섰으며, 가맹 학습관 수도 500개를 넘어섰다. 비상교육은 안정적인 성장세를 유지하고 있으며, 가맹 학습관과의 유대 강화를 위한 이벤트를 진행 중이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">칠판과 노트·연필이 사라진 교실…강원도교육청 226개 학교에 AI디지털교과서 도입
+</t>
+  </si>
+  <si>
+    <t>강원일보</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/087/0001115271?sid=102</t>
+  </si>
+  <si>
+    <t>춘천 남산초교 4학년 교실서 AIDT 시연 강원특별자치도교육청은 7일 춘천 남산초등학교에서 신경호 교육감, 민철홍 교장 등이 참석한 가운데 AI 디지털교과서(AIDT) 시연 수업을 개최했다. 지난 7일 춘천 남산초등학교 4학년 교실. 전자칠판에 “600개의 화분을 25개 반에 나누면 몇 개씩 줄 수 있을까요?”라는 문제가 나오자 6명의 학생들은 노트와 연필이 아닌 태블릿에 터치펜으로 문제를 풀더니 “24”라고 정답을 외쳤다. 학생들이 정답을 맞추자 전자칠판에는 정답을 풀이하는 과정이 실시간으로 나왔고 선생님은 이를 토대로 아이들 각각의 계산 과정을 비교하며 설명을 이어갔다. 오답을 낸 학생들의 풀이 과정은 전자칠판을 통해 선생님이 확인, 오류를 짚어주기도 했다. 선생님이 전자칠판을 터치하자 화면에 계산기가 등장했으며, 애니메이션으로 문제 상황을 설명해 줘 아이들의 관심을 끌기도 했다. 이날 소개된 교실 풍경은 강원특별자치도 내에서 처음으로 선보인 AI 디지털교과서(AIDT)를 활용 수업 현장. 4학년 전유리 담임교사와 디지털 튜터(보조교사), 그리고 학생 6명은 신경호 교육감, 도교육청 주요간부, 민철홍 남산초 교장 등이 보는 가운데 AIDT를 활용한 수업을 이어갔다. AIDT는 학생 개개인에게 수준에 맞는 콘텐츠를 제공하며, 교사는 수업으로 생성된 데이터를 기반으로 다음 수업을 설계할 수 있다. 학부모도 자녀의 학습 성취 정보를 전달받을 수 있어 가정과 학교 간 교육 연계가 가능하다. 강원도교육청은 도내 초·중·고 57개 디지털 선도학교와 381명의 선도교사를 운영 중이다. 올해는 도내 662개 학교의 42%에 해당하는 266곳을 AIDT 활용 학교로 선정됐으며, 초등 3~4학년, 중1, 고1을 대상으로 수학·영어·정보 교과에 우선 적용 중이다. 신경호 교육감은 “60년 전 다녔던 모교에 와서 아이들이 전자칠판으로 최첨단수업을 받는 모습을 보니 감개무량하다”며 “학생마다 배우는 속도가 다른데, AIDT를 통해 실시간으로 이를 파악하고 수준별 수업이 가능한 점이 인상깊었다”고 말했다. 이어 “교사가 보여준 열정에 깊이 감사드리며, 도교육청도 디지털교육 기반 확산 및 안정화에 최선을 다하겠다”고 덧붙였다. 강원특별자치도교육청은 7일 춘천 남산초등학교에서 신경호 교육감, 민철홍 교장 등이 참석한 가운데 AI 디지털교과서(AIDT) 시연 수업을 개최했다. 강원특별자치도교육청은 7일 춘천 남산초등학교에서 신경호 교육감, 민철홍 교장 등이 참석한 가운데 AI 디지털교과서(AIDT) 시연 수업을 개최했다.</t>
+  </si>
+  <si>
+    <t>강원특별자치도교육청이 AI 디지털교과서(AIDT)를 활용한 수업을 춘천 남산초등학교에서 시범적으로 진행하였다. AIDT는 학생 개개인에게 맞는 콘텐츠를 제공하고, 교사는 수업 데이터를 활용하여 다음 수업을 설계할 수 있으며, 학부모에게도 학습 성취 정보를 전달할 수 있다.</t>
+  </si>
+  <si>
+    <t>글로벌 테크 기업 CEO들 “AI, 美 고교 필수 과목으로”</t>
+  </si>
+  <si>
+    <t>조선일보</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/023/0003903768?sid=105</t>
+  </si>
+  <si>
+    <t>[모닝] 글로벌 테크 기업 최고경영자(CEO)들이 미국 주 교육 당국에 인공지능(AI)과 컴퓨터과학을 고등학교 졸업 필수 과목으로 지정할 것을 촉구했다. 7일 비영리단체 코드닷오알지(Code.org)에 따르면, 마이크로소프트(MS) 사티아 나델라, AMD 리사 수, IBM 아르빈드 크리슈나, 딥러닝AI 앤드루 응 등 250명이 넘는 CEO들은 공개 서한에서 “AI 시대에 우리는 아이들을 미래에 대비시켜야 한다. 단순한 소비자가 아닌 AI의 창조자가 되도록 해야 한다”며 학교에서 AI를 가르칠 것을 요구했다. 그러면서 “AI와 컴퓨터과학에 대한 기본 지식은 모든 학생이 기술 중심 사회에서 성공하는 데 필수적”이라며 “이러한 지식이 없으면 학생들은 뒤처질 위험이 있다”고 했다. 이들은 AI 의무교육이 미국의 경쟁력 제고와 임금 격차 해소를 위해 필요하다고 주장했다. 현재 미국 고등학교에서 컴퓨터과학을 졸업 요건으로 둔 주(州)는 12곳이다. 브루킹스 연구소에 따르면, 고등학교 때 컴퓨터과학을 배운 학생들은 그렇지 않은 학생들보다 연봉이 8% 더 높다.</t>
+  </si>
+  <si>
+    <t>글로벌 테크 기업 CEO들이 미국 교육 당국에 AI와 컴퓨터과학을 고등학교 졸업 필수 과목으로 지정할 것을 촉구하며, 이는 미국의 경쟁력 제고와 임금 격차 해소를 위해 필요하다고 주장하고 있다. 현재 미국에서는 고등학교에서 컴퓨터과학을 졸업 요건으로 둔 주는 12곳이며, 컴퓨터과학을 배운 학생들은 연봉이 8% 더 높다고 한다.</t>
+  </si>
+  <si>
+    <t>“선택과목 들으러 옆 학교 가요” 고교학점제가 바꾼 풍경</t>
+  </si>
+  <si>
+    <t>동아일보</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/020/0003633400</t>
+  </si>
+  <si>
+    <t>동아DB 지난달 23일 서울 노원구 청원여고 고급화학 수업 시간. 청원여고가 개설한 수업이지만 이 수업을 듣는 25명 학생 중 18명은 청원여고 인근 남고인 청원고 학생이다. 청원여고 교실에서 여학생과 남학생이 함께 수업을 듣는다. 고교학점제의 ‘학교 간 공동교육 과정’ 중 ‘공동형 공동교육 과정(공유캠퍼스)’ 때문에 가능했다. 이 수업을 듣는 청원고 강지우 군(18)은 “평소 학교 수업을 들으며 화학1과 화학2에서 간단하게 나오는 전기화학 관련 심화 내용을 듣고 싶었다”며 “고급화학에선 평소 듣고 싶었던 전기화학 내용을 더 자세하게 배울 수 있어서 좋다”고 말했다. 고교학점제는 학생이 자신의 진로와 적성에 따라 과목을 선택하고, 이수 기준에 도달한 과목에 대해 학점을 취득해 졸업하는 제도다. 이수 기준은 수업 일수의 3분의 2 출석 및 학업성취율 40% 이상 충족이다. 3년간 192학점 이상을 취득하면 졸업 요건을 충족한다. 올해 고1을 대상으로 전면 도입됐다. ●학생 과목 선택권 확대·보장하는 ‘학교 간 공동교육 과정’ 고교학점제는 학생의 과목 선택권 보장을 위해 학생 본인이 다니는 학교에서 본인이 듣고 싶은 수업 개설이 안 됐을 때 다른 학교에서 수업을 들을 수 있는 것을 뜻한다. ‘학교 간 공동교육 과정’에 따른 것이다. 학생에게 다양한 과목 선택 기회를 제공하고, 진로 진학 맞춤형 개별 교육과정을 지원하는 취지다. 학교 간 공동교육 과정은 서울 전역 학생이 수강 신청을 통해 일과 시간 이후에 거점학교에서 수업을 듣는 ‘거점형’, 지리적으로 근접한 2~4개 학교가 협의체 구성해 선택과목 및 진로 프로그램을 공유하는 ‘공유형’으로 나뉜다. 청원고와 청원여고의 공유 캠퍼스는 공유형 공동교육 과정에 해당한다. 청원고와 청원여고는 공유캠퍼스 자율협의체를 구성해 교육과정 공동 운영 및 학사 일정 등을 협의한다. 또 학교별 교육과정의 장점을 활용한 교과, 진로 진학 프로그램 등을 공유하고 있다. 두 학교는 각각 2개씩 총 4개 과목을 개설해 공유캠퍼스를 운영 중이다. 청원고는 수학과 인공지능, 고급생명과학 과목을 개설했다. 청원여고는 고급화학과 국제경제 과목을 운영 중이다. 개설 과목은 학생과 학부모 사전 수요 조사 결과를 바탕으로 두 학교 간 협의를 거쳐 선정했다. 공동교육 과정으로 개설된 교과목은 석차 등급을 산출하지 않고 성취도 A~E로만 성적을 산출하는 성취평가제로 운영한다. 학생이 성적 부담보다 본인 적성에 따라 과목을 수강할 수 있도록 하기 위해서다. 김미선 청원고 교사는 “단순히 학생이 과목을 선택해 시간표를 만들어 수업을 듣게 하는 데 그치지 않는다. 자신의 진로를 진지하게 고민해 보고 설계한 뒤 자신이 배울 과목을 주도적으로 설계하고 선택할 수 있도록 학교가 돕는 것”이라면서 “자신이 듣고 싶은 과목을 선택하기 때문에 학생의 학업적 만족도가 더 높은 편”이라고 말했다. ●개별학교 과목 개설 어려울 땐 ‘서울온라인학교’ 지난달 3일 서울 송파구 잠실고의 한문Ⅰ 수업에선 ‘서울온라인학교’ 수업이 한창이었다. 잠실고 학생 16명은 각자 노트북, 전자기기 등을 켜고 이어폰 등을 활용해 실시간 쌍방향 비대면 수업을 듣고 있었다. 교사가 한자 ‘林(수풀 림)’을 컴퓨터 온라인 화면에 전자펜으로 쓰자 학생들이 “수풀 림”이라며 대답했다. 서울온라인학교 역시 학생의 과목 선택권 보장을 위해 마련된 프로그램이다. 서울온라인학교는 학교 요청 및 학생의 수강신청을 받아 개별학교에서 개설하기 어려운 과목을 개설해 온라인 수업으로 운영한다. 특히 개별 학교 요청을 받아 개설해 정규 일과 시간에 하는 수업은 ‘학교 주문형 교육과정’이라고 부른다. 잠실고 한문Ⅰ 수업이 이에 해당한다. 서울온라인학교 소속 교사가 비대면 온라인으로 수업을 진행하고, 학생들은 정규 수업 중에 본인의 소속 교에서 온라인(실시간 쌍방향) 방식으로 수업에 참여한다. 잠실고는 학생들이 한문Ⅰ 수업 개설을 원했으나 수업 개설을 희망한 학생 수가 적어 서울온라인학교에 해당 과목 개설을 요청했다. 수강생인 신진용 학생(17)은 “온라인학교 수업은 선생님이 학생을 한 화면에 다 볼 수 있어 학생 관리가 더 잘 되는 것 같다”며 “의대 진학을 목표로 하고 있는데, 전문 서적 고급 어휘가 한자로 되어있는 경우가 많아 어휘력을 높이기 위해 수업을 듣고 있다”고 말했다. 임현정 잠실고 교육과정부장은 “1년에 한 번씩 교육과정 박람회를 열어 학과별 대학 권장 과목을 안내하고 선택과목 정보를 공유하는 장을 마련하고 있다”며 “학생들이 자신의 진로에 도움이 되는 과목을 스스로 선택해 들으니 수업 태도와 성취도 모두 좋다”고 말했다.</t>
+  </si>
+  <si>
+    <t>고교학점제를 통해 학생들이 자신의 진로와 적성에 맞는 과목을 선택하고, 다른 학교와 협력하여 수업을 듣는 '학교 간 공동교육 과정'이 활발히 이루어지고 있음. 서울 온라인학교를 통해 개별 학교에서 개설하기 어려운 과목을 온라인으로 수강할 수 있도록 지원하고 있음. 학생들은 자신의 진로를 고민하고 선택하는 과정을 통해 학업에 대한 만족도가 높아지고 있음.</t>
+  </si>
+  <si>
+    <t>서울시교육청, '제54회 전국소년체육대회 서울시교육청 선수단 결단식' 개최</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>https://m.sports.naver.com/general/article/477/0000548768</t>
+  </si>
+  <si>
+    <t>ⓒ서울특별시교육청 [스포티비뉴스=윤서영 기자] 서울특별시교육청(교육감 정근식)은 7일 오후 3시부터 서울고등학교 대강당에서 학생선수, 학부모, 교사, 지도자 등이 참석하는 '제54회 전국소년체육대회 서울특별시교육청 선수단 결단식'을 개최한다. 서울특별시교육청이 서울특별시체육회와 함께 지난 3월 3일부터 4월 14일까지 개최한 '제42회 서울소년체육대회'에 모두 4,719명의 학생선수가 참가하였고, 최종적으로 856명의 선수가 서울 대표 선수로 선발됐다. 2024년에 전라남도에서 개최된 '제53회 전국소년체육대회'에서 서울특별시교육청 선수단은 금메달 86개, 은메달 87개, 동메달 72개를 획득하는 성과를 거둔 바 있으며, 올해 경상남도 김해 일원에서 열리는 제54회 전국소년체육대회에서는 금메달 80개 이상 획득을 목표로 하고 있다. 서울특별시교육청은 선수단의 경기력 향상을 위하여 훈련비, 안전교구설비비, 지도자 인건비와 처우개선수당 등 적극적인 학교운동부 지원 정책을 펼치고 있다. 서울특별시교육청 선수단은 학생선수의 학습권 및 인권을 보호하기 위하여 방과 후와 휴일을 이용하여 강화훈련 및 합동훈련을 실시하는 중이다. 이번 '제54회 전국소년체육대회'는 경상남도 일원(주개최지: 김해)에서 24일부터 27일까지 열린다. 선수단 단장인 정근식 교육감은 "우리 선수들이 최선을 다해 대회를 준비한 만큼 서울대표이자 대한민국의 자랑스러운 스포츠 꿈나무로 도약하는 계기가 되길 바라며, 무엇보다 안전하게 대회를 마무리하기를 기대한다"면서 "서울시특별시교육청은 지속가능하고 미래지향적인 학교운동부 운영을 위하여 학생선수들이 즐겁게 꿈을 향해 달려갈 수 있도록 적극 지원하겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>서울특별시교육청이 전국소년체육대회 선수단 결단식을 개최하며, 금메달 80개 이상 획득을 목표로 하고 있고, 학생선수의 학습권과 인권을 보호하기 위한 훈련 및 합동훈련을 실시 중이며, 대회를 안전하게 마무리하기를 기대하고 있다.</t>
+  </si>
+  <si>
+    <t>수업은 거부했지만…의대생 4634명, 국가장학금 신청</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/018/0006007251?sid=102</t>
+  </si>
+  <si>
+    <t>신청했어도 등록금 내야 수령 가능 서울대 가장 많아…조선대·고려대·전북대 순 각 대학, 제적·유급 명단 확정해 교육부 제출 [이데일리 채나연 기자] 의정갈등으로 대다수 의대생들이 1년 넘게 수업 참여를 거부하고 있는 가운데 올해 1학기 4600명 이상의 의대생들이 국가장학금을 신청한 것으로 나타났다. 서울 한 의과대학 강의실 모습.(사진=연합뉴스) 7일 국회 보건복지위원회 소속 김미애 국민의힘 의원은 교육부로부터 제출받은 ‘의과대학별 국가장학금 현황’ 자료를 공개했다. 자료에 따르면 올해 1학기 전국 39개 의대(의학전문대학원인 차의과대를 제외) 학생 4634명은 국가장학금을 신청했다. 대학별 신청 인원은 서울대가 241명으로 가장 많았으며 이어 조선대(235명), 고려대(219명), 전북대(202명) 연세대 본교(148명), 가톨릭대(139명), 성균관대(71명), 울산대(79명) 순이었다. 학기별로는 의정 갈등이 불거졌던 지난해 1학기 국가장학금 신청자 수는 7210명이었다. 지난해 2학기에는 3201명으로 절반 넘게 줄었다가 올해 1학기에 다시 반등했다. 올해 1학기 국가장학금은 작년 11월 21일∼12월 26일, 올 2월 4일∼3월 18일 등 두 차례 신청을 받았다. 지난해 전국 의대생에게 지급된 국가장학금은 총 96억  7600만 원으로 집계됐다. 장학금 규모가 가장 큰 곳은 조선대로 9억 1천700만 원에 달했다. 이어 전북대(5억 4700만 원), 원광대(5억 600만 원), 경상국립대(4억 7700만 원), 순천향대(4억 5200만 원) 순이었다. 하지만 1학기 국가장학금을 수령하려면 일단 등록금을 납부해야 한다. 한국장학재단이 학생들의 재학, 소득 등을 확인해 대학들에 통보하면 국가장학금을 제외한 나머지 납부 금액이 학생들이 내야 할 등록금 고지서에 적히는 방식이기 때문이다. 김미애 의원은 “다음 달 들어서는 새 정부는 장학금 제도 전반에 대해 운영 및 집행에 있어서 미비점이나 불합리한 점이 있는지 종합적으로 점검해야 한다”며 “의료시스템 진입 첫 단계부터 합리적이고 공정한 체계를 갖추기 바란다”고 말했다. 한편 전국 40개 의대는 이날 오후 6시까지 제적 및 유급 대상자 명단과 학적 관련 내부 결재 자료를 교육부에 제출한다. 교육부는 해당 자료를 취합해 9일 유급 및 제적 현황을 최종 발표할 예정이다. 이에 대한의과대학·의학전문대학원학생협회는 이날 오후 성명문을 발표하며 의대생들에 대한 제적이 확정되면 전체학생대표자총회 40인 대의원이 작성한 자퇴 원서를 제출할 계획을 밝혔다.</t>
+  </si>
+  <si>
+    <t>의대생들이 국가장학금을 신청하고 있지만 등록금을 납부해야 수령 가능하며, 대학별로 신청 인원이 다양하게 나타나고 있음. 의과대학들은 제적 및 유급 대상자 명단을 교육부에 제출하고 있으며, 의대생들은 제적이 확정되면 자퇴 원서를 제출할 예정임.</t>
+  </si>
+  <si>
+    <t>[단독] 교육부, 전국 유치원에 보육자료 배포...유보통합 속도내나</t>
+  </si>
+  <si>
+    <t>https://www.etoday.co.kr/news/view/2468279</t>
+  </si>
+  <si>
+    <t>[단독] 교육부, 전국 유치원에 보육자료 배포...유보통합 속도내나 - 이투데이 속보창 신문/PDF 구독 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 오피니언 증권·금융 부동산 기업 글로벌경제 정치·경제 사회 문화·라이프 뉴스발전소 e스튜디오 오피니언 사설 데스크 시각 마감 후 칼럼 노트북 너머 이슈n인물 증권·금융 공시 시황 시세 환율 장외/IPO 특징주 투자전략 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 국제시황 미국 중국 아시아 유럽/중동 정치·경제 대통령실/총리실 정책 국회/정당 국방/외교 경제 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 일반 뉴스발전소 이슈크래커 요즘, 이거 그래픽스 한 컷 e스튜디오 스페셜리포트 Channel 5 위너스IR클럽 날씨 이투데이 사회 교육 [단독] 교육부, 전국 유치원에 보육자료 배포...유보통합 속도내나 입력 2025-05-07 15:18 정유정 기자 기자 이름을 클릭하면 더 자세한 정보를 확인할 수 있어요! 북마크 되었습니다. 마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 3~5세 대상 유치원에 0~2세 대상 보육자료 교육부 “참고용으로 자료 배포...강제성 없어” ▲경기도 소재 한 유치원에 배송된 '2024 개정 표준보육과정(0~2세) 현장지원자료'. (독자제공) 정부가 전국 유치원에 만0~2세를 대상으로 하는 보육과정 관련 자료를 보내고 있는 것으로 확인됐다. 정부가 현재 추진 중인 유보통합(유아교육·보육과정 통합) 속도를 내려고 하는 것 아니냐는 해석이 나온다. 7일 교육계에 따르면 지난 2일 경기도 소재 한 초등학교병설유치원에 '2024 개정 표준보육과정(0~2세) 현장지원자료' 택배가 도착했다. 발신자는 '교육부 교육보육과정지원과'다. 해당 자료집은 '모든 영아를 위한 지원자료', '0~1세 실행자료', '2세 실행자료', '2024 개정 표준보육과정 0~2세 해설서' 등으로 구성됐다. 이에 교육 현장에서는 정부가 만0~5세 유보통합을 서두르려고 하는 것이라는 해석이 나온다. 관련 뉴스 '여왕의 집' 측, "재벌이 국공립유치원?" 비하 논란 사과…"의도 없었다, 대사 삭제할 것" 말뿐이던 4대 개혁…혼란만 키웠다 [尹탄핵 인용] “유보통합 질적 향상 위해 '한 학급 2교사제' 운영 필요” 유보통합은 만0∼5세 영유아가 이용 기관과 관계없이 질 높은 교육·돌봄 서비스를 받을 수 있도록 새로운 교육·보육체계를 마련하는 정책이다. 다만 통합 기관의 운영 기준, 유치원·어린이집 교사의 자격 기준 등을 두고 유치원·어린이집 관계자들 간 갈등이 심화하면서 정책 추진이 지지부진하고 있다. 윤지혜 전국국공립유치원교사노동조합 위원장은 "유치원에서는 0~2세 영아가 아닌 3~5세 유아를 교육하고 있기 때문에 현장에 전혀 필요 없는 자료를 보낸 것"이라며 "자료를 보낸다는 사전 설명이나 공문은 없었다. 현재 유초(유치원-초등저학년) 이음교육을 실시하고 있지만 초등학교에는 유치원 교육과정 자료가 배부되지 않는다"고 말했다. 현재 국공립유치원을 포함한 사립 유치원 및 어린이집에서는 3~5세 유아를 대상으로 하는 공통 교육과정인 '누리과정'을 적용하고 있다. 교육부는 누리과정과 0~2세 표준 보육과정과의 연계를 강화하고 유치원 교사들의 0~2세에 대한 이해도를 높이기 위해 자료를 보낸 것이라는 설명이다. 교육부 관계자는 "물론 유치원이 0~2세를 대상으로 하진 않지만, 어린이집에서 어떤 것을 배워왔는지 알면 도움이 될 것이기 때문에 참고용으로 배포했다"면서 "강제로 쓰라는 것이 아니며 다른 의미는 없다"고 말했다. 교육부에 따르면 현재 제작된 '2024 개정 표준보육과정' 자료는 전국 유치원에 순차적으로 배포가 되고 있는 중이다. 교육부 관계자는 해당 자료 배포와 관련한 사전 안내 등이 없었던 이유에 대해서는 "책자로 제작하는 계약을 맺고 거기서 바로 배송이 되면서 교육청 공문 등이 따로 없었던 것"이라고 말했다. #유보통합 #유치원 #어린이집 정유정 기자의 주요 뉴스 자세히보기 ‘트리플링’ 현실화에 해법 마련 분주...의대생은 투쟁 지속 검정고시 '92세' 역대 최고령 합격자 탄생 “고교학점제, 교사 업무 과중·사교육 컨설팅 늘어” 좋아요 0 화나요 0 슬퍼요 0 추가취재 원해요 0 주요 뉴스 속보 미중 “90일간 관세 일부 유예”…공동성명 발표 [속보] 미중 “90일간 관세 일부 유미국과 중국이 12일(현지시간) 스위스 제네바에서 진행한 고위급 무역 협상을 통해 각각 상호관세를 115% 인하하기로 했다고 로이터, AFP 통신 등이 보도했다.
+이에 따라 미국이 중국 상품에 매기는 관세는 145%에서 30%로 낮아지게 됐다. "내란세력"  "가짜 진보" "압도적 새로움"…판 뒤집을 '한 방'은 아직 대선 후보들, 프레임 선점 경쟁 시작 이재명 "내란 종식" 김문수 "가짜 진보" 이준석 "압도적 새로움" 정치권 안팎 "판세 뒤집을 변수 흐릿" 3주간의 대권 레이스 총성이 울렸다. 더불어민주당과 국민의힘은 서로를 '내란세력' 혹은 '가짜 진보'로 정의하며 프레임 선점 경쟁에 돌입했다. 개혁신당은 "압도적 새로움"을 내세우며 정치 교체를 강 수방사 前부관 “尹, 이진우에게 ‘총 쏴서라도 들어가’라고 지시” 수방사 전 부관 증인신문⋯尹·이진우 통화내용 증언 법원 공개 출석한 尹⋯취재진 질문에 묵묵부답 일관 12·3 비상계엄 당시 윤석열 전 대통령이 이진우 전 수방사령관에게 ‘총을 쏴서라도 (국회 본회의장) 문을 부수고 들어가라’는 지시를 했다는 증언이 나왔다. 오상배 전 수도방위사령관 부관(대위)은 12일 서울중앙지법 형사합의25부(재판장 SKT, 12일부터 유심 재설정 도입…대리점 직접 방문해야 대리점 방문해 '유심 교체'·'유심 재설정' 중 선택 가능 알뜰폰은 이용 불가⋯SKT "유심보호서비스로 보안 강화" 유심보호서비스 업그레이드도⋯해외 로밍 중에도 이용할 수 있어 유심 교체 건수 누적 147만⋯잔여 예약 고객은 721만 명 SK텔레콤이 12일부터 유심 재설정 솔루션을 제공한다. 유심 재설정은 소프트웨어를 통해 유심 내 사용자 식별· “대권 꿈 깨셨으면 집에 가세요”…경선 탈락 광역단체장 복귀에 지역 민심 ‘부글’ [이슈크래커] 2007년 12월, 당시 이명박 한나라당 대선 후보는 압도적인 격차로 대통령에 당선되는 데 성공했습니다. 흙수저 출신임에도 현대건설 평사원부터 사장까지 올라간 ‘샐러리맨의 신화’가 대권까지 잡아 용이 된 거죠. 이명박 전 대통령의 당선에는 샐러리맨의 신화라는 서사, 당시 집권여당이던 열린우리당과 노무현 대통령에 대한 비토 여론도 큰 D램 3사, 가격 줄인상…관세 덮치는 하반기엔 더 오를듯 美 반도체 품목관세 부과 가능성 막판 주문 몰리고 일부 제품 단종 SK하이닉스 제품값 12% 인상 삼성·마이크론도 관세 선제 대응 글로벌 D램 3사가 일제히 가격 인상에 나섰다. SK하이닉스까지 가격 인상 대열에 합류하면서 도널드 트럼프 미국 대통령의 관세 정책에 따른 무역 불확실성이 메모리 반도체 시장 전반에 확산하는 분위기다. 조만간 삼성물산 vs 현대건설, '재건축 끝판왕' 압구정 2구역 쟁탈전 [정비사업 불꽃 수주전②] 국내 시공능력평가 1·2위인 삼성물산과 현대건설이 ‘재건축 최대어’ 압구정 2구역 재건축 수주를 놓고 정면 승부에 나선다. 총사업비 2조 원이 훌쩍 넘는 규모의 초대형 프로젝트인 만큼 두 건설사의 명예를 건 치열한 경쟁이 예상된다. 12일 도시정비업계에 따르면 압구정 2구역 재건축정비사업조합은 다음 달 시공사 선정 입찰 공고를 내고 9 줄어든 식집사?…좋지만 번거로움에 멈춘 식물 키우기 [데이터클립] 집에서 식물을 키우는 것에 긍정적으로 생각하나 식물 재배에 대한 전반적인 관심도가 감소하고 있는 것으로 조사됐다. 엠브레인 트렌드모니터가 전국의 만 19~59세 남녀 1000명을 대상으로 '2025 반려식물 관련 인식 조사'를 실시한 결과, 현재 집에서 식물을 키우고 있는 비율은 44.1%로 나타났다. 이처럼 집에서 식물을 키우는 비율은 2017년 많이 본 뉴스 01 세계 곳곳서 무력 충돌...K방산, 수주에 잰걸음 02 메리츠증권 "SK바이오팜, 관세·약가 리스크 지속⋯목표가↓" 03 '10만 달러' 비트코인…미ㆍ중 공동성명 발표 앞두고 횡보 [Bit코인] 04 ‘롯데손보 콜옵션 후폭풍’ 금융당국, 보험사 킥스 비율 '예의주시' 05 D램 3사, 가격 줄인상…관세 덮치는 하반기엔 더 오를듯 06 단독 금융사고 'CEO 제재' 별도 심의기구 만든다['책임의 각인' 증권사 책무구조 上]① 07 정부가 밀어줄 감염병 치료제·백신·로봇…기대되는 기업 어디? 08 [종합] 코스피, 장중 2590선 오름세…삼전·SK하닉 2%대↑ 09 [환율전망] “외국인 순매수 및 수출 네고 유입 영향…1390원대 초반 예상” 10 리플의 서클 인수 시나리오…미국서 희비 엇갈린 가상자산법 外 [글로벌코인마켓] 최신 영상 "전기차 시대 끝나간다" 미래 자동차는 '이것'으로 이루어집니다. 테슬라 주가 폭발은 '이때' #테슬라 사회 최신 뉴스 첼로와 해금의 만남... ‘마에스트로가 사랑한 국악’ 5월 24일 경기아트센터 무대 오른다 경기테크노파크, 고양시 인쇄소공인에 맞춤형 지원…15개사 협업제품 등 4대 사업 개시 경기도경제과학진흥원, NH농협은행과 쌀 소비 캠페인…백설기 나눔으로 농가 응원 檢, '공천개입 의혹' 김건희 여사 14일 소환 통보⋯불응 가능성 커 수방사 前부관 “尹, 이진우에게 ‘총 쏴서라도 들어가’라고 지시” 교원 절반 "차기 대통령 중요 자질 '소통과 통합능력'" ‘법인카드 식사 제공’ 김혜경, 2심도 벌금 150만원…“각자결제 원칙 안 지켜” "로컬 관광 성지로"...중구, 문체부 관광특구 활성화 공모 선정 속보 ‘공직선거법 위반 혐의’ 김혜경, 2심도 벌금 150만원 선고 강동구, '어르신 디지털 정보보호 특강' 긴급 편성 뉴스발전소 줄어든 식집사?…좋지만 번거로움에 멈춘 식물 키우기 [데이터클립] 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 동탄 찾아 'K-반도체' 강조한 이재명 후보 [포토] 마켓 뉴스 특징주 투자전략 트럼프 약가 인하 추진에 바이오株 하락 데이원컴퍼니, AI 콘텐츠 매출 4년 만에 27배 증가 소식에 상승세 롯데쇼핑, 증권가 호실적 전망에 7%대 강세 삼양식품, 1주당 100만원 넘긴 황제주 꿰찼다 대동기어, 푸틴·젤렌스키 전격 대화 합의…우크라이나 재건 수혜 기대감에 상승세 [베스트&amp;워스트] 웹케시, 이재명 지역화폐 언급에 상승세…에코아이·마음AI도↑ [오늘의 투자전략] 국내 증시, 과매수권 진입 숨 고르기 흐름…실적주·정책주로 대응 [오늘의 투자전략] 국내 증시, 박스권 흐름…조선·방산·저PBR·AI·中소비재 주목 [오늘의 투자전략] 국내 증시, 상승 출발 전망…수출주 훈풍 기대감 하나證 “두산에너빌리티, 점진적 실적 기대” 오늘의 상승종목 05.12 장종료 코스피 코스닥 1. 평화홀딩스 2,670 2. 평화산업 481 3. 윌비스 211 4. 한솔홈데코 217 5. 대영포장 435 1. 로킷헬스케어 3,750 2. 케어젠 7,050 3. 넥스트아이 239 4. 세원물산 2,350 5. 유진로봇 2,220 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 146,469,000 +1.49% 이더리움 3,584,000 +4.25% 비트코인 캐시 579,000 +1.4% 리플 3,376 +3.05% 솔라나 247,500 +2.87% 에이다 1,157 +5.28% 이오스 1,347 +6.48% 트론 374 +2.75% 스텔라루멘 439 +3.78% 비트코인에스브이 58,600 +2.09% 체인링크 24,560 +7.39% 샌드박스 515 +5.97% * 24시간 변동률 기준 오피니언 사설 데스크 시각 마감 후 칼럼 노트북 너머 이슈n인물 증권·금융 공시 시황 시세 환율 장외/IPO 특징주 투자전략 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 국제시황 미국 중국 아시아 유럽/중동 정치·경제 대통령실/총리실 정책 국회/정당 국방/외교 경제 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 일반 뉴스발전소 이슈크래커 요즘, 이거 그래픽스 한 컷 e스튜디오 스페셜리포트 Channel 5 위너스IR클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 회사소개 이용약관 개인정보처리방침 청소년보호정책 고충처리 이용문의 신문/PDF 구독 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아00197 ㅣ 등록일자 : 2006.04.27 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 재배포, AI학습 이용 등을 금지합니다. Copyright 2006. 이투데이 . All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령 , 기자윤리강령 , 임직원 윤리강령 및 실천규정 을 제정, 준수하고 있습니다. 한국기자협회와 한국신문방송편집인협회, 한국신문윤리위원회 윤리강령 및 실천요강도 준수합니다. 이투데이 독자편집위원회는 독자의 권익보호를 위해 정정‧반론 보도를 신속하고 효율적으로 처리하고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>정부가 전국 유치원에 0~2세를 대상으로 하는 보육과정 자료를 배포하며 유보통합(유아교육·보육과정 통합) 정책을 속도내고 있는 것으로 확인됨. 유치원 교사들 간의 갈등과 혼란이 지속되고 있음. 교육부는 자료를 참고용으로 배포했지만 강제성은 없다고 설명함.</t>
+  </si>
+  <si>
+    <t>의대협, 유급·제적 조사 마감일에 "교육부 장·차관 고발" 맞불</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/003/0013227011</t>
+  </si>
+  <si>
+    <t>교육부 유급 현황조사 마감일 성명서 공개 "지난 계엄 정권 악업인 '의료개악' 청산돼야" "기본권 침해 당하는 학생 회원 보호 총력" [서울=뉴시스] 황준선 기자 = 교육부와 각 의대가 제시한 미복귀 의대생에 대한 유급·제적 처분 확정일인 7일 서울 시내 한 의과대학에서 시민들이 이동하고 있다.수업 참여 의사를 밝히지 않은 의대생들의 유급이 확정될 시 내년 학기에는 24·25·26학번이 동시에 1학년 수업을 듣는 '트리플링'(tripling) 사태가 벌어지고 의대 1학년 학생만 1만 명이 넘어 의대 교육에 차질이 생길 전망이다. 2025.05.07. hwang@newsis.com [세종=뉴시스]용윤신 기자 = 전국 40개 의과대학 학생 단체인 대한의과대학·의학전문대학원학생협회(의대협)은 "교육부라는 국가권력 앞에 무력했던 학생들로서 이들의 불법적인 행위에 대해 고발하려 한다"고 밝혔다. 의대협은 유급·제적 대상 현황 조사 마감일인 7일 이 같은 내용의 성명서를 통해 "김홍순 교육부 의대교육지원관, 오석환 교육부 차관, 이주호 대통령 권한대행 부총리 겸 교육부 장관이 대상으로 포함된다"며 이같이 전했다. 의대협은 "법과 원칙을 무시하고 자의적인 명령으로 학교와 학생들을 강압한 책임자가 누구인지 규명되길 바란다"며 "결국 의료와 의학교육 정상화를 위해서는 '의료개악'이라는 지난 계엄정권의 악업이 청산돼야 한다"고 강조했다. 의대협은 "3월말부터 학사일정상 유급이라는 교육부 발표는 날짜만 바뀌며 여러 차례 반복됐다"며 "심지어 교육부는 학교 대상 지원사업을 목줄처럼 활용해 학교로 하여금 학생을 협박하도록 만들고 있다"고 설명했다. 이어 "교육부 방침에 순응한 일부 학교에서는 영장도 없이 학생의 핸드폰을 강제로 압수하고 서약서를 쓰게하고 있다"고 전했다. 의대협은 "국가 허락 없이는 의대생의 개인 휴학도 불가능하다고 말하는 교육부는 끝도 모르고 40일째 제적을 하겠다며 협박한다"며 "교육부는 학칙을 자의적으로 재해석해 임의로 변경하라고 압박하는 등 대학들이 자체적으로 정한 규정을 무력화시키고 있다"고 주장했다. 의대협은 "이는 학칙의 엄정한 적용은커녕 대학의 학교 규칙 심각하게 훼손해 교육의 본질마저 왜곡한 행태"라며 "이러한 압박에 노출돼 기본권을 심하게 침해당하고 있는 학생 회원들을 보호하기 위해 총력을 다할 것"이라고 했다. 한편 의대협은 "정부와 달리 대선 후보들과 국회에서 해결의지를 보여준 것에 대해 감사를 표한다"며 "의대협은 의료에 비가역적 충격을 주는 일이 없도록 재발방지를 위한 '투명하고 공정한 거버넌스' 수립을 기대한다"고 했다．</t>
+  </si>
+  <si>
+    <t>교육부와 의대생들 간의 유급·제적 처분 확정에 대한 논란 속에서, 의대학생 단체가 교육부에 대한 항의와 비판을 표명하며 학생들의 기본권을 보호하기 위한 노력을 다짐하고 있다. 의대생들은 국가권력에 무력하다며 불법적인 행위에 대해 고발할 예정이며, 교육부의 압박과 협박에 대한 비판을 제기하고 있다.</t>
+  </si>
+  <si>
+    <t>교육정책 / 업계뉴스 / 에듀테크 중 하나</t>
+  </si>
+  <si>
+    <t>“손주와 함께 학습지 풀면 장학금”… 사교육 업계 ‘고령화 마케팅’</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/081/0003539494?sid=102</t>
+  </si>
+  <si>
+    <t>학령 인구 급감에 시니어 시장 공략 대형 가전 경품까지 내걸고 유치전 인지력 향상 ‘치매 예방 학습지’도 입시 학원은 만3세~초등까지 확장 “마케팅 확대에 사교육비 상승 우려” 13일 서울 시내 학원가 상가 앞으로 시민이 오가고 있다. 2023.10.13 뉴스1 “조부모님과 손주가 같이 학습지를 구독하면 장학금을 드립니다.” 학령 인구가 급감하면서 시장 축소에 직면한 사교육 업계가 5월 가정의 달을 맞아 학생뿐 아니라 부모·조부모까지 공략하며 회원 유치에 나서고 있다. 냉장고, 세탁기 같은 대형 가전제품까지 경품으로 내거는 등 모집 경쟁이 뜨겁다. 7일 학원가에 따르면 사교육 업체들은 최근 초중고교생의 가족 단위로 회원을 모집하기 위한 마케팅 공세를 펼치고 있다. 영어 방문 학습을 주력으로 하는 윤선생은 이달 말까지 기존 회원의 직계가족이 새롭게 학습을 시작하면 백화점 상품권을 5개월간 제공하는 혜택을 부모와 조부모까지 확대했다. 최대한 다양한 연령대의 회원을 유치하기 위해서다. 윤선생 관계자는 “전에는 형제·자매가 같이 등록하는 경우가 많았는데 최근에는 할머니·할아버지가 유입되는 사례가 늘었다”며 “이벤트가 회원 확대에 효과가 있다고 본다”고 했다. 온 가족을 겨냥한 ‘신혼 가전급’ 경품도 마련했다. 메가스터디교육이 만든 온라인 학습지 엘리하이는 종합반·영재반 12개월 신규 고객에게 추첨으로 최신 휴대전화·세탁건조기·냉장고 등을 주는 행사를 진행했다. 학기 초에 비해 회원 이동이 적은 4~5월 비수기를 공략한 것이다. 이처럼 중고교생이 주요 소비층인 입시 학원은 공격적인 마케팅과 함께 유치원에 입학하는 만 3세부터 초등생까지 사업을 넓히는 추세다. 서울의 입시학원 관계자는 “중고생이 줄면서 수능 강사들이 초등 교과학습 시장까지 뛰어들고 있다”고 전했다. 학습지 업체들은 50대 이상 ‘시니어’로 시장을 넓혔다. 교원 구몬학습과 대교의 경우 성인 인지 기능 향상을 내걸고 지난해 각각 전용 학습지를 출시했다. 영어·한자 등 외국어 공부나 수 인지 훈련을 통해 인지 기능을 확인하고 치매를 예방할 수 있다는 식으로 고령층을 파고든다. 인구 고령화와 함께 사교육 업계의 ‘시장 넓히기’는 계속될 전망이다. 통계청 장래인구추계에 따르면 유·초·중·고교생 인구는 2020년 673만명에서 2025년 593만명으로 줄었고, 2030년엔 474만명으로 2020년보다 200만명 가까이 감소할 것으로 예상된다. 사교육 과열 우려도 나온다. 양정호 성균관대 교육학과 교수는 “최근에는 학원비 상한선이 없는 영재교육도 확산하고 있다”며 “사교육비 상승으로 이어질 수 있다”고 지적했다.</t>
+  </si>
+  <si>
+    <t>학령 인구 감소로 인한 시니어 시장 공략, 사교육 업계가 부모와 조부모까지 유치하기 위해 대형 가전 경품 등을 활용한 마케팅 확대, 입시 학원은 만 3세부터 초등생까지 사업 영역을 확장하며 시니어를 대상으로 치매 예방 학습지를 출시하는 추세.</t>
+  </si>
+  <si>
+    <t>초등 학습지 엘리하이, 초1~3학년 대상 '과학 교과 실험 키트' 무료 증정</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/015/0005128298?sid=101</t>
+  </si>
+  <si>
+    <t>메가스터디교육이 만든 초등 인강 1위(2024 한국소비자평가 1위, 초등 온라인교육 부문) 엘리하이가 초1~3학년 종합반 신규 구매 회원 전원에게 ‘엘리하이 1% 교과 실험 키트’를 무료 증정한다고 7일 밝혔다. 엘리하이 1% 교과 실험 키트는 과학 영역별 실험 교구 7종과 워크북이 포함된 구성으로, 다양한 탐구 실험을 통해 과학 교과를 쉽고 재미있게 이해할 수 있도록 기획됐다. 실험 교구는 △공기압 자동차 △화산의 활동 △지구와 달 △우리 태양계 △3단 물탑 △식물의 뿌리 △식물의 모세관으로 구성되어 있으며, 물리·화학·생물·지구과학 등 초등 3~6학년 과학 교과서와 연계된 주요 개념을 미리 체험할 수 있도록 설계되었다. 모든 교구는 KC 인증을 완료해 아이들이 안심하고 실험을 진행할 수 있도록 안전성을 확보했다. 실험 활동 후에는 엘리하이 과학 강의 및 영상관을 통해 심화 학습까지 병행할 수 있어, 체험과 이론이 결합된 효과적인 학습이 가능하다. 엘리하이 관계자는 “교과 실험 키트는 과학에 대한 흥미와 창의력을 높이고, 아이들이 과학의 4가지 주요 영역을 자연스럽게 접할 기회를 제공한다”라며 “향후 교과 학습에도 긍정적인 영향을 줄 수 있을 것으로 기대한다”라고 밝혔다. ‘엘리하이 1% 교과 실험 키트’는 현재 홈페이지를 통해 50세트 한정으로 할인 판매가 진행 중이다. 자세한 내용은 홈페이지를 참조하면 된다. 한편, 엘리하이는 과학을 포함한 초등 전 학년, 전 과목 콘텐츠를 10일간 무료로 이용할 수 있는 무료 체험 서비스를 제공한다. 무료 체험 시 초등 시기 필수 교육 정보를 담은 '초등교육 지침서'도 함께 증정한다. 무료 체험 신청은 공식 홈페이지를 통해 가능하다. 한경닷컴 뉴스룸 open@hankyung.com</t>
+  </si>
+  <si>
+    <t>메가스터디교육의 초등 인강 1위 엘리하이가 초등학생을 위한 실험 키트를 무료 증정하며 과학 학습을 재미있게 할 수 있는 기회를 제공하고, 무료 체험 서비스 및 교육 지침서도 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>구몬학습, ‘구몬 스마트독서’ 출시</t>
+  </si>
+  <si>
+    <t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2273758</t>
+  </si>
+  <si>
+    <t>[사진=구몬학습] [이뉴스투데이 정영미 기자] 교원그룹 구몬학습이 기존에 운영하던 지류형과 디지털형을 일원화해 ‘구몬 스마트독서’를 5월부터 선보인다고 7일 밝혔다. '구몬 스마트독서'는 디지털 및 지류 도서 기반으로 매주 1회 선생님의 일대일 맞춤형 방문 관리를 받는다. 독서 커리큘럼은 유아 및 초등생 연령에 따라 필요한 배경지식을 형성하고 균형 잡힌 독서를 돕고자 4가지 영역별 주제로 짜여졌다. 추천 연령 3~5세 대상인 4A단계는 △의사소통 △사회 △자연 △건강/예술, 추천 연령 5~10세대상인 3A~B단계는 △전래/명작/고전 △호기심 △탐구 △인성/철학 주제로 구성돼 주차별로 해당 주제들을 번갈아 학습할 수 있다. 도서 콘텐츠는 메인도서 272권과 함께 읽기 좋은 짝꿍책 544권을 포함해 총 816권으로 구성됐다. 메인도서는 디지털과 지류 모두 제공된다. 디지털형 도서 콘텐츠는 모션 효과와 음성 기능이 적용된 ‘인터랙티브북’으로 혼자 읽기 또는 같이 읽기를 선택할 수 있다. 또한, 이야기를 들려주며 낮/밤 모드 설정이 가능한 ‘소리책’기능으로 잠자리 독서 습관을 형성할 수 있다. 짝꿍책은 메인도서와 함께 독서하면 좋을 책을 매주 2권씩 추천해주는 서비스다. 544권 전권이 앱에 오픈 돼 있다. 독서 후에는 어휘 퀴즈, 퍼즐 맞추기 등 다양한 디지털 독후 활동이 가능하다. 또한, 독서 기록장과 독서 리포트 기능을 통해 체계적인 독서 습관 형성을 돕는다. 구몬학습 관계자는 “이번 구몬 스마트독서 출시를 통해 디지털 도서와 지류 도서의 장점을 모두 경험하며 균형 잡힌 독서 습관을 형성하길 바란다”라며 “매주 구몬 선생님과 함께 영역별 도서를 읽고, 다양한 디지털 독후활동을 하며 독서에 긍정적인 경험을 형성하고 올바른 독서 습관을 체득할 것으로 기대한다”고 말했다. 정영미 기자 jhg746@enewstoday.co.kr 다른기사 보기 ※ 여러분의 제보가 뉴스가 됩니다. 각종 비리와 부당대우, 사건사고와 미담, 소비자 고발 등 모든 얘깃거리를 알려주세요 이메일 : webmaster@enewstoday.co.kr 카카오톡 : @이뉴스투데이 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 공유 이메일 기사저장</t>
+  </si>
+  <si>
+    <t>구몬학습이 '구몬 스마트독서'를 선보이며 디지털과 지류 도서를 결합하여 맞춤형 독서 교육 서비스를 제공한다. 독서 커리큘럼은 유아부터 초등생을 대상으로 구성되어 있으며, 디지털 도서와 지류 도서를 함께 활용하여 독서 습관을 형성하고자 한다.</t>
+  </si>
+  <si>
+    <t>비상교육, AI 디지털교과서에 국내 최초 ‘심리·정서 맞춤 코칭’ 탑재</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0006008675?sid=101</t>
+  </si>
+  <si>
+    <t>공부 감정까지 분석해 맞춤형 학습 솔루션 제공 [이데일리 김경은 기자] 비상교육(100220)은 독자 개발한 심리·코칭 프로그램을 인공지능(AI) 디지털교과서(AIDT)에 적용한다고 9일 밝혔다. 이를 통해 학습자의 정서와 자기주도 학습을 함께 지원하는 통합 성장 플랫폼을 구현했다는 평가다. (사진=비상교육) 비상교육의 AIDT는 AI 기반 진단 시스템을 통해 학생의 자기조절력과 공부 정서를 종합적으로 분석하고 개인 맞춤형 학습 코칭 솔루션을 제공한다. 단순한 지식 전달을 넘어 학습 태도와 감정 상태까지 정밀하게 파악함으로써 학생이 지속적으로 성장할 수 있는 기반을 마련해주는 것이 특징이다. 핵심 기능인 ‘학습심리정서검사’는 서강대 심리학과 교수진과 비상교육 인지심리연구소가 공동 개발한 표준화 심리검사로 지난 2022년 한국심리학회 공인을 받았다. 해당 검사는 단발성 진단이 아닌 3회 반복 측정을 통해 학습자의 심리 발달 과정과 학습 전략의 변화를 다각도로 분석한다. 이 데이터를 바탕으로 교사는 학생 개별의 학습 디딤돌과 걸림돌을 사전에 파악해 수업 설계를 더욱 정교화할 수 있다. 학생은 자신의 감정과 공부 마음을 교사와 공유하며 ‘마음 근력’을 키우는 쌍방향 학습을 경험할 수 있다. 비상교육 관계자는 “AI 기술과 심리학적 접근을 융합한 AIDT는 학습자 개인의 상황과 감정에 맞춘 진정한 맞춤형 교육의 가능성을 열었다”며 “앞으로도 정서와 성장을 함께 아우르는 AIDT 혁신을 지속해 나가겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>비상교육이 AI를 활용한 디지털교과서에 심리·코칭 프로그램을 적용하여 학습자의 감정과 자기주도 학습을 지원하는 맞춤형 학습 솔루션을 제공하고 있다. 학습자의 학습 태도와 감정 상태를 분석하여 교사가 개별적인 학습 지원을 할 수 있도록 돕는 것이 특징이며, 이를 통해 학생은 '마음 근력'을 키우는 쌍방향 학습을 경험할 수 있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+㈜메타비티, 인도네시아 국립대학교 간호학부와 OA 및 AI과정 개설 MOU</t>
+  </si>
+  <si>
+    <t>헤럴드경제</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/016/0002468296</t>
+  </si>
+  <si>
+    <t>사진 : ㈜메타비티 제공 (왼쪽부터 Makara UI Academy 정봉협 대표, 메타비티 변원섭 대표, UI NTC Dr. Sigit Mulyono 원장) K-에듀 선도기업 ㈜메타비티(대표 변원섭)가 인도네시아 국립대학교(Universitas Indonesia, 이하 UI대) 간호학부 및 Makara UI Academy(대표 정봉협)와 3자 MOU를 체결했다고 밝혔다. UI대 간호학부는 인도네시아 최초로 간호학 분야 학사과정을 개설한 대학으로 간호학 교육 및 연구의 중심 기관으로 명성이 높은 기관으로, 학사 이외에도 박사과정까지 다양한 프로그램을 제공하고 있으며, 인도네시아 최고의 간호학부로 선정된 바 있다. 특히 NTC UI는 인도네시아대학교 간호학부 산하 (Fakultas Ilmu Keperawatan - FIK)의 간호•보건 분야 전문 교육 훈련 기관(Unit Kerja Khusus Pengabdian dan Pelayanan Masyarakat, UKKPPM)으로 보건 전문가, 간호학 학생, 보건 관련 교육자, 일반인 대상을 위한 세미나, 워크숍, 보건과 관련된 전문 훈련을 제공하고 있다. 아울러 Makara UI Academy는 UI대의 단기 교육훈련 전문 기관으로 우수한 LMS를 활용한 온라인 훈련을 운영하고 있는 한국과의 합작법인이다. ㈜메타비티는 NTC를 통해 UI대 학생들에게 메타비티 컴퓨터 교육 프로그램을 간호대학 내 메타비티 전용 강의실에서 제공하기로 했다. 아울러 자카르타, 보고르 지역에 있는 지역 보건소 직원들 그리고 각 지역 의료 보건 학교(Politeknik Kesehatan) 학생들에게 컴퓨터 국가자격증 발급을 진행할 구체적인 방법과 절차들을 NTC와 UI Academy와 함께 논의하고, 인근 지역 정부와 함께 산•관•학 협업 모델을 구축하며 양질의 컴퓨터 리터러시 제공해 인도네시아 의료 및 보건학과 학생들의 IT경쟁력을 높이고 행정 능력을 고양시킬 수 있도록 협력하기로 했다고 밝혔다. ㈜메타비티 변 대표는 “UI대와 사립 트리삭티 대학교에서의 경험을 바탕으로 지속적으로 외연을 넓혀 한국의 우수한 컴퓨터 교육을 인도네시아 전역에 확장해 나갈 계획이며 특히 금년 6월에는 AI리터러시 교육인 ‘AI mastery’를 신규 개설하여, OA 교육에 이어 시대가 가장 절실히 요구하는 인공지능활용교육 훈련을 해외 여러 나라에 공급할 것”이라고 포부를 밝혔다. 메타비티의 AI 리터러시 프로그램은 상식적인 수준의 AI tool 활용을 넘어서 AI에 대한 깊이 있는 이해를 위한 필수적인 지식을 익히게 하고, 데이터 구조와 알고리즘에 대한 이해를 기초로 실제 자신의 업무와 학업에서 획기적으로 생산성과 창의성을 높이기 위한 AI를 직접 구성할 수 있도록 가르치는 새로운 차원의 교육훈련과정으로 알려져 있다. ㈜메타비티는 컴퓨터 리터러시 교육, AI 리터러시 교육, ISO 직업교육, ISO 한국어 교육 등을 바탕으로 시장 점유율을 높여 가고 있으며, 태국과 말레이시아 등 시장 확대도 준비 중이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>메타비티와 인도네시아 국립대학교가 MOU를 체결하여 간호대학생들에게 컴퓨터 교육 프로그램을 제공하고, AI 리터러시 교육 프로그램을 개설하여 교육 협력을 강화하고 있다. 또한, 메타비티는 시장 확대를 준비 중이며, AI에 대한 깊은 이해를 위한 교육훈련을 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>[人사이트] 장시준 KERIS AIDT본부장 “AI와 교육의 융합, 학생 잠재력 발휘 환경 조성해야”</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003310611?sid=101</t>
+  </si>
+  <si>
+    <t>장시준 KERIS AIDT본부장.[KERIS 제공] “인공지능(AI) 시대에는 교육과 AI의 융합을 통해 모든 학생이 자신의 잠재력을 발휘할 수 있는 새로운 환경을 조성해야 합니다. AI가 학생의 성장과 발달에 얼마나 기여하는지를 보고 교사의 역할에 대한 보다 깊은 고민도 필요합니다.” 장시준 한국교육학술정보원(KERIS) AI디지털교과서(AIDT)본부장은 교육에 AI를 활용하기 위한 기준과 철학을 묻는 질문에 이같이 답했다. 올해부터 학교 현장에 AIDT가 본격 도입됐다. KERIS는 AIDT를 학교 현장에 안정적으로 안착시키기 위한 온·오프라인 연수, 학습이력 데이터 개선, 학교 현장의 기술문제 해결, AIDT의 효과성 검증 등을 진행 중이다. 지난 2개월 간 학교 현장에서는 AIDT의 가능성과 한계를 동시에 경험하고 있다고 설명했다. 장 본부장은 “긍정적인 측면은 학생 개인별 맞춤형 학습 지원, 실시간 피드백, 교사의 수업 부담 경감 등이 언급됐고 특히 특수교육 대상 학생을 위한 지원과 디지털 기기 활용에 따른 학습의 효과성 등이 높게 평가됐다”고 말했다. 다만 '기능이 많아 혼란스럽다', '가입과 로그인 및 기기 준비에 시간이 걸린다' 등의 문제도 지적됐다. 장 본부장은 “KERIS는 가입 절차 간소화 기능을 개발해 현장에 배포했으며 향후 간편 로그인 시스템도 검토 중이다. 접속 오류 방지를 위해 시스템을 사전 증설하는 조치를 완료한 바 있으며 콜세터와 스마트 문의대응으로 현장의 어려움과 불만 요인을 즉각 조치하고 있다”고 설명했다. 지역별로 도입률의 차이가 나는 점도 극복해야 할 사안이다. 장 본부장은 “시도교육청과의 협력 강화, 지역 맞춤형 교사 연수, AIDT의 효과에 대한 정보 제공, 인프라 격차 해소 등을 위해 노력해야 한다”고 봤다. 경기도교육청의 '하이러닝'과 같은 지역 플랫폼과 AIDT 간 로그인 체제를 연계하고 도입률이 낮은 지역의 교사들을 중점 지원해 AIDT 활용 역량을 키울 수 있도록 지원한다. 전세계적으로 AI를 교육 현장에서 활용하려는 움직임은 활발해지고 있다. 미국 트럼프 대통령은 '미국 청소년을 위한 인공지능 교육 증진' 행정명령을 발표했고 중국도 AI 기반 학습관리 시스템 개발, AI 교육프로그램 이수 정책을 시행 중이다. UNESCO, OECD 등 국제기구도 AI 교육의 윤리적 가이드라인을 마련하기 위한 논의를 진행 중이다. 장 본부장은 AI 그 자체가 목적이 돼서는 안 된다고 강조했다. 그는 “AI 활용의 첫 번째는 학생의 성장과 발달에 얼마나 기여하는지 살펴보는 것”이라며 “둘째는 교사가 학생과의 정서적 교류, 창의적 사고 촉진 등 더 가치 있는 교육활동에 집중할 수 있도록 지원하는 도구여야 한다”고 강조했다. 더불어 어떤 기술이 교육활동에 적합한지에 대한 안목도 필요하다고 봤다. 장 본부장은 “최신 기술을 무조건 활용하기보다 검증되고 효과적인 기술을 적용하는 게 중요하다”며 “디지털-아날로그, 온라인-오프라인, 개별학습-협력학습 사이의 균형을 유지해야 한다”고 강조했다.</t>
+  </si>
+  <si>
+    <t>AI를 교육에 활용하는 KERIS의 노력과 어려움, 교사와 학생의 역할에 대한 고민, 전세계적으로 AI를 교육에 활용하는 움직임이 활발해지고 있다.</t>
+  </si>
+  <si>
+    <t>코트라, 대만 무역발전협회와 정기협의회…AI 협력 논의</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/003/0013229647</t>
+  </si>
+  <si>
+    <t>AI 서비스·시장개척 협력 논의 기업 간담회 열고 현장 의견 수렴 KTL-ETC, 기술규제 공동 대응 추진 소비재·디지털 전환 협력 확대 의지 [서울=뉴시스] 코트라가 8일 TAITRA(대만무역진흥기관)과 '제27회 KOTRA-TAITRA 정기협의회'를 개최했다. 사진은 이날 행사에 참석한 강경성 코트라 사장(앞줄 왼쪽 다섯째)이 황즈팡 TAITRA 동사장(앞줄 왼쪽 여섯째)  등과 기념촬영을 하는 모습. (사진=코트라 제공) 2025.05.08 photo@newsis.com *재판매 및 DB 금지 [서울=뉴시스]유희석 기자 = 코트라는 8일 서울에서 대만의 무역진흥기관인 타이트라(TAITRA, 대만무역발전협회)와 '제27회 정기협의회'를 개최했다고 밝혔다. 양 기관은 1985년부터 협의회를 정기적으로 개최해 왔으며, 올해는 한국이 개최국이었다. 이번 협의회에서는 양국 투자기업이 참여한 간담회도 열렸다. 간담회에는 인공지능(AI) 디지털 교육, 신재생에너지, 사이버보안 분야 기업들이 참여해 협력 사례와 애로사항을 공유했다. 한국에서는 ▲비상교육(AI 에듀테크) ▲두산퓨얼셀(수소에너지) ▲안랩(보안솔루션) ▲한국산업기술시험원(KTL)이, 대만에서는 ▲Mitax(회계서비스) ▲ETC(시험인증) ▲재한대만상공회의소 관계자가 참석했다. 이날 KTL과 대만의 ETC가 전기차 충전 시스템과 AI 서버 등 신산업 기술규제에 공동 대응하기 위한 협력체계를 구축하기로 하고 업무협약(MOU)을 체결했다. 시험인증 정보를 공유해 기업의 시장 대응력을 높이려는 목적이다. 오후 본회의에서는 ▲글로벌 통상환경 변화에 따른 기업 지원 방안 ▲AI 기반 서비스 품질 향상 ▲한·대만 중소기업 협력 강화 ▲투자 협력 확대 등 네 가지 주요 의제가 논의됐다. 양 기관은 향후 실무자 중심의 협력 체계를 강화하고, 기업 수요에 기반한 공동 사업을 지속적으로 발굴하기로 했다. 코트라는 1971년 타이베이에 무역관을 설치한 이래, 대만 시장 내 비즈니스 기회를 발굴하고 우리 기업과 연결하는 가교 역할을 수행해 왔다. 최근 한류 확산과 함께 소비재 및 콘텐츠 진출이 활발해졌고, 하이테크 장비와 AI 분야 협력도 강화되고 있다. 강경성 코트라 사장은 "타이트라와의 정기협의회는 한국과 대만 기업을 실질적으로 연결하는 비즈니스 플랫폼으로 자리 잡았다"며 "앞으로 스마트 제조, 디지털 전환, 탄소중립, 소비재 분야에서 협력을 확대해 나가겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>코트라와 대만무역진흥기관인 타이트라가 협의회를 개최하며 AI 서비스 및 시장개척 협력을 논의하고, 기업 간의 협력체계를 구축하고 신산업 기술규제에 대응하기로 합의했다. 또한, 한·대만 기업 간의 협력 강화와 공동 사업 발굴을 통해 지속적인 협력을 모색하고 있다.</t>
+  </si>
+  <si>
+    <t>아침·저녁·휴일에도 어린이집·유치원 돌봄 제공한다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/003/0013228802?sid=102</t>
+  </si>
+  <si>
+    <t>교육부, 52개 거점형 돌봄기관 4월부터 시범운영 [서울=뉴시스] 정병혁 기자 = 어린이들이 서울 한 어린이집으로 등원하고 있다. 2023.01.31. jhope@newsis.com [세종=뉴시스]용윤신 기자 = 다양한 돌봄 수요에 대응하기 위해 52개 거점 어린이집·유치원에서 아침·저녁, 휴일에도 돌봄을 제공한다. 교육부는 11개 시도교육청과 협력해 거점형 돌봄기관 52곳을 지정·운영한다고 8일 밝혔다. 이번 사업은 어린이집과 유치원 간 돌봄 연계를 확대하고 기관별 특성을 활용해 학부모의 다양한 돌봄 수요에 맞춘 맞춤형 서비스를 제공하기 위해 추진됐다. 거점형 돌봄기관은 유치원과 어린이집 중에서 거점기관을 지정해 이른 아침, 늦은 저녁, 휴일에도 돌봄이 필요한 인근 기관 유아를 대상으로 추가 돌봄을 제공하는 방식으로 운영된다. 인근 기관과 협약을 맺어 어린이집과 유치원 구분 없이 자유롭게 이용할 수 있도록 했다. 이를 통해 부모들이 보다 유연하게 돌봄 서비스를 이용할 수 있도록 하겠다는 것이 교육부의 설명이다. 올해는 돌봄기관이 부족하거나 지리적 접근성이 낮아 서비스 이용이 어려운 지역을 우선 지정해 학부모들의 돌봄 공백을 해소할 계획이다. 교육부는 각 기관의 여건과 접근성을 종합적으로 고려해 공모 절차를 거쳐 52개 기관을 선정했으며, 교육청 및 기관별 상황에 맞춰 4월부터 순차적으로 시범 운영을 시작할 예정이다. 지정된 거점형 돌봄기관은 인근 어린이집 및 유치원과 협력해 학부모의 수요를 반영한 맞춤형 돌봄 서비스를 제공한다. 특히 아침과 저녁 출퇴근 시간대를 지원하는 돌봄 서비스와 토요일 및 휴일 돌봄 프로그램을 운영하며, 3~5세 유아를 위한 특성화 프로그램을 적극 활용해 교육과 보육의 질을 높일 계획이다. 교육부는 사업의 원활한 운영을 지원하기 위해 거점형 돌봄기관을 대상으로 설명회를 열고, 지역별 전문가들로 구성된 거점형 돌봄 지원단을 운영해 상담 및 컨설팅을 제공할 방침이다. 박대림 교육부 영유아지원관은 "이번 사업을 통해 돌봄의 사각지대를 해소하고 학부모의 부담을 줄일 수 있을 것으로 기대된다"며 "앞으로도 지역과 기관의 특성을 반영한 맞춤형 돌봄 정책을 지속적으로 확대해 나갈 것"이라고 밝혔다．</t>
+  </si>
+  <si>
+    <t>교육부가 52개 거점형 돌봄기관을 4월부터 시범운영하여, 아침·저녁, 휴일에도 돌봄 서비스를 제공하고, 부모들의 돌봄 서비스 이용을 유연하게 할 수 있도록 지원한다.</t>
+  </si>
+  <si>
+    <t>교원단체 "고교학점제, 무리한 진로 결정 강요…전면 폐지해야"</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/055/0001256134</t>
+  </si>
+  <si>
+    <t>▲ 교사노조와 전교조가 8일 정부서울청사 앞에서 고교학점제 폐지 서명운동 결과 발표 기자회견을 하고 있다. 전국교직원노동조합(전교조)과 교사노동조합연맹(교사노조)은 올해 고등학교 1학년 교실에 전면 도입된 고교학점제가 학생과 교사 모두에게 혼란을 주고 있다고 비판했습니다. 전교조와 교사노조는 오늘(8일) 정부서울청사 앞에서 기자회견을 열고 "고교학점제로 학생들은 무리한 진로 결정을 강요당하고 있다"며 고교학점제 전면 폐지를 요구했습니다. 이들 단체는 4월 21일부터 5월 2일까지 진행한 고교학점제 폐지 촉구 온라인 서명에 고등학교 교사 1만 9천664명이 참여했다고도 밝혔습니다. 이들은 "이미 한 줄 세우기식 내신 등급 산출을 위한 지필평가와 수많은 수행평가로도 학생들은 숨이 막히고 있다"며 "여기에 대입에 유리한 과목 선택과 추가 학점 이수를 위한 타 학교나 외부 기관의 과목 이수까지 더해져 학생들의 학업 스트레스가 가중되고 있다"고 지적했습니다. 이어 "학생들이 다양한 경험과 실패를 통해 자신을 알아가고 진로를 탐색해야 하지만 현재의 고등학교 시스템에서는 불가능하다"며 "1학년 때 결정한 진로를 2, 3학년 때 바꾸게 되면 입시에 불리해질까 봐 심한 경우 자퇴를 고민하기도 한다"고 말했습니다. 그러면서 "과목 선택과 진로 선택마저도 사교육 컨설팅의 영역이 됐다"며 "학생들은 내신 성적 관리에 유리한 학생 수가 많은 대규모 학교로 몰리고 있다"고 꼬집었습니다. 전교조와 교사노조는 아울러 고교학점제에 따른 공동 교육과정 운영, 시간표 편성, 외부 연계 수업 관리 등 교사 업무가 증가하고 있지만 인력 지원이 없어 부담이 크다고도 비판했습니다. (사진=연합뉴스)</t>
+  </si>
+  <si>
+    <t>교사노조와 전교조가 고교학점제 폐지를 요구하며, 학생들의 진로 결정과 학업 스트레스 문제를 지적하고, 공동 교육과정 운영에 대한 부담을 언급하며 정부에 대책을 요구하고 있다.</t>
+  </si>
+  <si>
+    <t>이준석 "수포자 없앤다…초4~중3 수학성취도평가 의무화"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/277/0005588924?sid=100</t>
+  </si>
+  <si>
+    <t>학생 5명당 교사 1명 비율 수업 진행 "수학 기초학력 상승 통한 미래인력 양성" 이준석 개혁신당 대선 후보는 8일 "초등학교 4학년부터 중학교 3학년까지 모든 학생을 대상으로 매년 전국 단위의 수학성취도 평가를 의무화하겠다"고 밝혔다. 이 후보는 이날 정책 설명자료를 통해 "누구도 낙오되지 않고 누구나 성취할 수 있는 수학 공교육 시스템 확립을 위해 '수학교육국가책임제'를 시행할 것"이라며 이같이 말했다. 그는 "수학 공교육을 확립하고, 이른바 수포자(수학 과목을 포기한 사람)를 방지하기 위한 것"이라고 공약의 취지를 설명했다. 개혁신당 선거대책위원회는 교육부 국가수준학업성취도평가 자료를 인용해 교과별 성취 1수준(기초학력 미달) 비율이 지속해서 증가하고, 특히 수학의 경우 고등학교 2학년 학생 6명 중 1명이 기초학력 미달로 추정된다고 했다. 이 후보는 "수학은 계통성이 강한 학문으로 이전 단계 과정에 대한 충분한 이해가 없으면 다음 단계로 탑을 쌓기 어려운 교과목"이라며 "상위 학년으로 올라갈수록 교과목 자체를 포기하는 일명 '수포자'의 수가 다른 주요 과목에 비해 두 배 수준으로 증가한다"고 설명했다. 카이스트서 간담회 진행하는 이준석 대선후보    (대전=연합뉴스) 강수환 기자 = 개혁신당 이준석 대선후보가 7일 오후 대전 유성구 한국과학기술원(KAIST)에서 재학생들과 '2030 현장 청취' 간담회를 진행하고 있다. 2025.5.7    swan@yna.co.kr(끝)＜저작권자(c) 연합뉴스, 무단 전재-재배포, AI 학습 및 활용 금지＞ 이 후보가 구상하는 '수학교육국가책임제'는 ▲초등학교 4학년~중학교 3학년 대상 매년 전국 단위 수학성취도평가 실시 ▲평가 결과 반영한 분반 수업 실시 ▲학생 5명당 교사 1명 비율의 수업 진행을 위한 수학 전문 보조교사 배치 등이다. 구체적으로 초등 고학년 및 중학교 전 학년 대상으로 연 1회 전국 단위의 수학성취도 평가를 의무화해 전국 단위에서 개인별 학업 성취 수준을 확인할 수 있도록 한다. 이는 일제고사 형태로 진행할 방침이다. 또 성취도평가 결과를 반영해 각 학교에서 개별 학생 성취 수준에 따라 수업을 진행, 소규모 분반을 별도 구성해 교실 내 복수의 보조교사를 투입하거나 이동 수업을 실시한다는 구상이다. 만일 기초학력 미달 학생이 일정 비율 이상인 학교에 대해서는 학생 대 교사 비율을 최대 5대 1 수준까지 늘려 학교 및 지역별 격차를 축소한다. 이 후보는 "학생 개개인 수준에 맞는 맞춤형 교육을 통한 수학포기자 양산을 방지하고, 수학교육 기초학력 상승을 통한 미래 인력 양성의 기틀을 마련할 것"이라고 강조했다.</t>
+  </si>
+  <si>
+    <t>이준석 대선 후보가 '수학교육국가책임제'를 통해 초등학교부터 중학교까지 모든 학생을 대상으로 매년 수학성취도 평가를 실시하고, 학생 5명당 교사 1명 비율의 수업을 진행하여 수학 기초학력 상승을 통한 미래인력 양성을 추진한다.</t>
+  </si>
+  <si>
+    <t>다문화 학생 '억울함' 없도록…학교폭력 사안처리 통번역 지원</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/008/0005191017?sid=102</t>
+  </si>
+  <si>
+    <t>/사진제공=서울시교육청 서울시교육청 산하 서울시동부교육지원청이 학교폭력 사안 처리 과정에서 언어 장벽으로 어려움을 겪는 다문화 학생들을 보호하기 위해 통번역 지원사업을 이달부터 시작한다고 8일 밝혔다. 지원청에 따르면 지난해 중도입국·외국인학생 포함 다문화 학생이 전체 학생 중 7.93%를 차지한다. 전체 학생 수는 감소하는 가운데, 다문화 학생 비율은 상승하고 있다. 이에 따라 다문화 학생 관련 학교폭력 사안 수도 지속적으로 증가하는 추세다. 여성가족부에 따르면 2021년 기준 다문화 학생의 학교폭력 경험률은 2.3%로 전체 학생(1.1%)보다 두 배 높았다. 이에 지원청은 이달부터 학교폭력, 교권 침해 사안 발생 시 다문화 학생의 진술권과 방어권 보장을 위한 체계적 통번역 지원 시스템을 도입하기로 했다. 오는 9일에는 자치구(동대문.중랑) 가족센터와 서울동부교육지원청에서 업무협약을 체결해 상시 18개 언어를 지원하는 '생활 통번역인 인력풀'을 확보한다. 통번역을 지원하는 언어는 총 18개로 영어와 일본어, 중국어를 비롯해 △객가어 △네팔어 △러시아어 △몽골어 △베트남어 △우즈베크어 △우크라이나어 △인도네시아어 △카자흐어 △태국어 등이다. 생활 통번역 직업훈련 프로그램을 이수한 이주민들이 참여할 수 있어 일자리 창출에도 긍정적일 것으로 내다봤다. 다문화 학생 관련 사안 접수 시 통번역인을 배정하고, 다문화 가정을 위한 사안 관련 서류(참석 안내문 등) 번역 서비스를 실시할 예정이다. 통번역인에 대한 제척·기피·회피 제도도 운영된다. 이와 함께 지원청에서는 법정통역인편람, 국가인권위원회 결정문 등을 바탕으로 '통번역 이용 학교폭력대책심의 매뉴얼' 개발 등 관련 제도를 정비하고 있다. 이미경 서울동부교육지원청교육장은 "더 이상 언어 장벽이 학생의 권리를 가로막지 않도록 교육청이 지역사회와 함께 손을 맞잡을 때"라며 "이번 운영 결과를 타 교육지원청과 공유하며 제도화해 나갈수 있도록 노력하겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>서울시동부교육지원청이 다문화 학생들을 위해 통번역 지원사업을 시작하고, 학교폭력 사안 처리 과정에서 다문화 학생의 진술권과 방어권 보장을 위한 시스템을 도입한다. 18개 언어를 지원하는 '생활 통번역인 인력풀'을 확보하고, 통번역인을 배정하여 다문화 가정을 위한 번역 서비스를 제공할 예정이다.</t>
+  </si>
+  <si>
+    <t>메가스터디교육, 453억원 규모 에스티유니타스 주식 처분</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/018/0006008277?sid=101</t>
+  </si>
+  <si>
+    <t>[이데일리 박순엽 기자] 메가스터디교육(215200)은 교육 콘텐츠 개발·학원 산업 등을 영위하는 에스티유니타스 주식 2만 4222주를 453억원에 처분하기로 했다고 8일 공시했다. 이는 자기자본 대비 9.71% 규모다. 처분 후 소유 주식 수는 없다. 메가스터디교육 측은 처분 목적에 대해 “공정거래위원회의 기업 결합 금지 조치 준수”라고 설명했다. 처분 예정 일자는 9일이다.</t>
+  </si>
+  <si>
+    <t>메가스터디교육이 에스티유니타스 주식을 453억원에 처분하기로 결정했다. 처분 목적은 공정거래위원회의 기업 결합 금지 조치 준수이며, 처분 예정 일자는 9일이다.</t>
+  </si>
+  <si>
+    <t>사고력 키우자' 해법독서논술대회 연다</t>
+  </si>
+  <si>
+    <t>파이낸셜뉴스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/014/0005346620?sid=102</t>
+  </si>
+  <si>
+    <t>해법독서논술, 20돌 맞아 대회 개최 [파이낸셜뉴스] 천재교육·천재교과서의 해법독서논술이 브랜드 출시 20주년을 맞아 '2025 해법독서논술 전국 논술대회'를 개최한다. 해법독서논술은 "학생들의 논리적 사고력과 글쓰기 역량을 기를 수 있도록 이번 논술대회를 마련했다"고 8일 설명했다. 최근 교육 현장에서는 독서를 통해 사고력과 표현력을 기르는 교육의 중요성이 더욱 강조되고 있다. 특히 정보를 분석하고 생각을 글로 풀어내는 능력이 중시되면서, 논술 교육에 대한 관심도 높아지고 있다. 초등학교 3학년부터 중학교 3학년까지 해법독서논술 회원이면 누구나 참여할 수 있으며, 응모 기간은 21일부터 6월 27일까지다. 참가자는 학년별로 지정된 필독서를 읽고 주어진 주제에 대한 논술문을 작성해 제출하면 된다. 수상자는 전문 심사위원단의 심사를 거쳐 7월 30일 발표된다. 대상 1명에게는 20만원, 최우수상 5명에게는 각 10만원, 우수상 10명에게는 각 5만원 상당의 상품권을 증정한다. 본선 진출자 전원에게는 상장을 수여한다. 해법독서논술 관계자는 "생각을 구조화하고 글로 표현하는 역량은 미래 교육 환경의 핵심"이라며, "이번 논술대회가 학생들에게 사고력과 표현력을 기를 수 있는 소중한 기회가 되길 바란다"고 말했다. 한편, 해법독서논술은 2005년 출시 이후 20년간 꾸준히 성장한 독서논술 전문 브랜드다. 천재교육의 교육 철학이 반영된 프로그램으로, 정규 독서논술 과정 외에도 역사논술, 과학논술, 문학 특강 등 다양한 프로그램을 제공한다. 특히 국제 바칼로레아(IB) 교육의 '독서-토론-글쓰기' 흐름과 유사한 방향성을 바탕으로 교과서 기반 독서활동을 중심으로 한 통합 논술 수업을 제공한다. #사고력 #초등 #중등 #해법독서논술 #글쓰기</t>
+  </si>
+  <si>
+    <t>해법독서논술이 20주년을 맞아 '2025 해법독서논술 전국 논술대회'를 개최하며, 학생들의 사고력과 표현력을 키우는 교육의 중요성이 강조되고 있음. 대회는 초등학교 3학년부터 중학교 3학년까지 참여 가능하며, 수상자에게는 상금과 상품권이 제공될 예정이다.</t>
+  </si>
+  <si>
+    <t>[단독] 6천만원 주고 19억원 손해?…천재교과서, 에듀테크 스타트업에 손배소</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>https://news.mtn.co.kr/news-detail/2025050809160087050</t>
+  </si>
+  <si>
+    <t>[단독]6천만원 주고 19억원 손해?…천재교과서, 에듀테크 스타트업에 손배소 천재교과서, 월 500만 원 지급한 협력사에 손해 주장 "무상 기술 지원이 위협적 소송으로 돌아와…갑질 우려" 윤석진 기자 2025-05-08 09:50:10 스마트 학습지 '밀크티'를 운영 중인 천재교과서가 1년간 매달 500만원씩 지급해온 협력사에 19억원 규모의 손해배상 소송을 제기한 사실이 뒤늦게 알려졌다. 이를 두고 업계에서는 '을'의 위치에 있는 중소 에듀테크 기업에 과도한 책임을 전가하는 전형적인 '갑질 사례'라는 지적이 나온다. 8일 교육업계에 따르면, 천재교과서는 A사가 제공한 학습 솔루션으로 인해 자사에 피해가 발생했다고 주장하고 있다. 이에 따라 천재교과서는 지난 2023년 말 서울중앙지방법원에 총 19억 원 상당의 손해를 배상하라며 소장을 제출했다. 협력 업체와의 계약이 종료된 이후 거액의 소송을 제기한 것이다. 천재교과서 관계자는 "잦은 오류로 스마트 학습지 회원이 탈퇴하는 등의 손해가 발행했다"며 "솔루션 제공 업체 측에 보완 요청했는데 제대로 된 대안을 제시하지 못했다"고 말했다. 이어 "일방적으로 서비스 중단을 통보하여 천재교과서는 엄청난 어려움을 겪었다"고 덧붙였다. 반면, A사는 계약에 명시된 수준 이상의 서비스를 성실히 제공했으며 문제가 된 손해는 서비스 외적 요인이 원인이라고 반박하고 있다. A사 관계자는 "계약 종료 이후에도 무상으로 기술적 지원에 최선을 다했으나 도리어 돌아온 위협적 소송에 충격을 받았다"며 "영세 스타트업을 상대로 재정적, 심리적 압박을 가하는 것 같다"고 말했다. 이어 "부당한 법적 요구에는 끝까지 정당한 절차로 맞설 것"이라고 덧붙였다. A사는 지난 2021년 4월부터 1년간 매달 500만원의 대가를 받고 학습 솔루션을 천재교과서에 제공해 왔다. 계약 종료 후 2년 차에는 천재교과서 측이 대체 솔루션을 찾는 동안 무상으로 기술 지원과 서비스를 이어갔다. 교육업계 관계자는 "중견 교육기업이 왜 그토록 강경하게 나서는지 이해하기 어렵다"며, "영세 업체 입장에서는 설령 승소하더라도 실질적으로 얻는 것이 거의 없다"고 말했다. 한편, 이번 소송의 1심 결과는 6월 중 나올 것으로 전망된다. 윤석진 머니투데이방송 MTN 기자</t>
+  </si>
+  <si>
+    <t>에듀테크 스타트업과 협력사 간 손해배상 소송 발생, 천재교과서가 19억원 손해를 주장하며 협력사에 소장 제출. 협력사는 서비스 외적 요인이 원인이라고 반박하며 소송에 충격을 받고 있다. 1심 결과는 6월 중 발표될 예정.</t>
+  </si>
+  <si>
+    <t>키움, 10일 한화전 ‘미래엔 파트너데이’ 행사 진행</t>
+  </si>
+  <si>
+    <t>스포탈코리아</t>
+  </si>
+  <si>
+    <t>https://m.sports.naver.com/kbaseball/article/139/0002223202</t>
+  </si>
+  <si>
+    <t>[SPORTALKOREA] 김지현 기자= 키움 히어로즈가 10일(토) 오후 2시 서울 고척스카이돔에서 열리는 한화 이글스와 경기에 미래엔 그룹과 함께 '미래엔 파트너데이' 행사를 진행한다. 이날 행사는 미래엔 그룹 임직원을 비롯하여 교사 및 교육 관계자 등 3,500여명이 고척스카이돔을 방문한다. 야외 보행광장 2층에서는 미래엔의 온라인 학습 플랫폼 ‘디지털초코’ 캐릭터를 활용한 ‘홈런볼 야구게임’, '스피드 난타 100' 체험 부스를 운영한다. 부스 옆 포토존에서 촬영한 사진을 SNS에 해시태그 ‘#미래엔’ ‘#미래엔데이’ ‘#키움히어로즈’와 함께 올리면 경기 중 추첨을 통해 선물을 증정하는 이벤트도 열린다. 경기 중에는 ‘미래엔퀴즈’, ‘미래엔 포즈왕 선발’, ‘미래엔 포토제닉’, ‘미래엔 사다리 타기’ 등 이닝 이벤트를 통해 미래엔 캐릭터 굿즈 세트, 오션스위츠 제주도 숙박권, 인기 학습만화 시리즈 '흔한남매'도서 등 다양한 경품을 선물한다. 이날 시구는 광운인공지능고등학교 스승과 제자가 한다. 문나영 학생이 시구를 하고 이기준 교사가 시타를 맡는다. 1948년 대한교과서주식회사로 출발한 미래엔은 국내 최초의 교과서 발행사로 국정 교과서와 검·인정 교과서를 발행하고 있으며, 전년도 기준 국내 국·검정 교과서 통합 총 발행 부수의 28%를 점유하고 있는 ‘교과서 발행 부수 1위’ 기업이다. 교과서 발행 외에도 초·중·고 참고서 및 유아·아동·성인 단행본 출판, 인쇄 등의 사업 영역을 보유하고 있다. 사진=키움 히어로즈 제공 취재문의 sportal@sportalkorea.co.kr</t>
+  </si>
+  <si>
+    <t>키움 히어로즈가 한화 이글스와의 경기에 미래엔 그룹과 함께 '미래엔 파트너데이' 행사를 진행하며, 다양한 이벤트와 경품이 준비되어 있다. 미래엔은 국내 최초의 교과서 발행사로 국정 교과서와 검·인정 교과서를 발행하고 있으며, 교육 관련 사업을 다각화하고 있다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스] 테크빌교육 뚝딱샵, '제3회 뚝딱뚝딱 어린이시·동시 대회' 개최</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003310245?sid=102</t>
+  </si>
+  <si>
+    <t>테크빌교육의 뚝딱샵이 전국 초·중·고등학생을 대상으로 '제3회 뚝딱뚝딱 어린이시·동시 대회'를 진행한다고 8일 밝혔다. 이 대회는 문해력 향상과 함께 잊혀 가는 동시와 동요의 중요성을 되새기며 동심을 일깨워 주고자 기획됐으며 올해로 3회째를 맞이했다. 5월 2일부터 한 달간 자유주제로 진행되며 전국 유치원생은 물론 초·중·고등학생이라면 누구나 참여할 수 있다. 학생은 뚝딱샵의 '초대계정' 서비스를 이용해 다양한 템플릿을 활용해 동시를 편집할 수 있으며 교사는 학생이 작성한 동시를 일괄적으로 출품하면 된다. 수상 학생은 물론 수상작을 출품한 교사도 함께 시상한다. 뚝딱뚝딱 어린이시·동시 대회는 △대상 △금상 △은상 △동상 △장려상 △입선으로 수상작을 선별하고 수상작을 모은 시집도 수상자 전원에게 증정한다. 수상작 모음집은 뚝딱샵을 통해 제작되며 추가 구매는 물론 우리 학교 학생들 작품만 모아서도 시집이나 학급 문집 형태로 개별 발간할 수 있다. 다수의 작품을 출품한 상위 4명의 교사에게는 소정의 상금을 전달하고 20명의 교사에게는 뚝딱샵 적립금 1만원을 증정한다. 수상하지 못해도 적립금 및 쿠폰 혜택을 지급한다. 자세한 내용은 뚝딱샵 홈페이지에서 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>테크빌교육의 뚝딱샵이 '제3회 뚝딱뚝딱 어린이시·동시 대회'를 개최하며 초·중·고등학생을 대상으로 동심을 일깨우고 문해력을 향상시키는 활동을 진행한다. 대회는 5월 2일부터 한 달간 자유주제로 진행되며 수상작은 시집으로 제작되어 수상자에게 증정된다. 교사들도 수상작을 출품할 수 있으며 상금 및 적립금 혜택이 제공된다.</t>
+  </si>
+  <si>
+    <t>AI 디지털 대전환 시대, 교육이 나아갈 길은…글로벌 교육개혁 콘퍼런스 개최 - 아시아투데이</t>
+  </si>
+  <si>
+    <t>아시아투데이</t>
+  </si>
+  <si>
+    <t>https://www.asiatoday.co.kr/kn/view.php?key=20250512010004749</t>
+  </si>
+  <si>
+    <t>AI 디지털 대전환 시대, 교육이 나아갈 길은…글로벌 교육개혁 콘퍼런스 개최 - 아시아투데이 오피니언 사설 칼럼·기고 기자의 눈 피플 정치 정치일반 대통령실 국회·정당 북한 외교 국방 정부 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 경제 경제일반 정책 금융·증권 산업 IT·과학 부동산 유통 중기·벤처 아투시티 종합 메트로 경기·인천 세종·충청 영남 호남 강원 제주 국제 세계일반 아시아·호주 북미 중남미 유럽 중동·아프리카 문화·스포츠 전체 방송 가요 영화 문화 종교 스포츠 여행 최신 지면보기 구독신청 First Edition 후원하기 제보24시 SNS 뉴스스탠드 네이버블로그 아투TV(유튜브) 페이스북 X(트위터) 다국어뉴스 ENGLISH 中文 Tiếng Việt 패밀리사이트 마켓파워 아투TV 대학동문골프최강전 글로벌리더스클럽 AI 디지털 대전환 시대, 교육이 나아갈 길은…글로벌 교육개혁 콘퍼런스 개최 공유하기 URL 복사 https://www.asiatoday.co.kr/kn/view.php?key=20250512010004749 글자크기 가 가 가 가 검색버튼 오피니언 정치 사회 경제 아투시티 국제 문화·스포츠 2025년 5월 12일(월) 검색버튼 사회 사회일반 사건·사고 법원·검찰 교육·행정 노동·복지·환경 보건·의약 사회 교육·행정자치 AI 디지털 대전환 시대, 교육이 나아갈 길은…글로벌 교육개혁 콘퍼런스 개최 공유하기 읽기모드 글자크기 기사듣기 인쇄하기 공유하기 URL 복사 https://www.asiatoday.co.kr/kn/view.php?key=20250512010004749 글자크기 가 가 가 가 제주 김남형 기자 승인 : 2025. 05. 12. 13:14 교육부, APEC 교육장관회의 부대행사 13일 제주 국제컨벤션센터서 clip20250512131021 0 교육부가 13~15일 개최하는 APEC 2025 교육장관회의 부대행사로 '글로벌 교육개혁 학술대회'가 13일 개최된다. /교육부 인공지능(AI)을 통한 디지털 대전환시대를 선도하는 새로운 글로벌 교육혁신 방향을 함께 모색하는 '글로벌 교육개혁 학술대회'가 13일 제주 국제컨벤션센터에서 열린다. 이 행사는 아시아태평양경제협력체(APEC) 2025 교육장관회의 공식 부대행사로 마련돼, 대한민국의 교육개혁 성과를 알리고 지속가능한 미래 교육을 위한 글로벌 교육협력 방안을 논의한다. 기조강연에서는 김진표 전 국회의장이 '교육혁신과 지속가능한 미래'를 주제로 AI를 활용한 공교육의 혁신, 고등교육과 지역 상생의 중요성을 강조한다. 행사는 '혁신(Innovate)·연결(Connect)·번영(Prosper)'의 3개 세션으로 진행된다. 초·중등 교육 분야를 다루는 혁신 세션에서는 정제영 한국교육학술정보원 원장이 강은희 대구교육감 겸 전국시도교육감협의회장을 비롯해 호주 교육부 차관보, 싱가포르 국립교육원 교수, 싱가포르 교육부 수석 부국장과 토론을 갖고 인공지능 활용 수업을 제도적 지원 방향에 대해 논의한다. 고등교육을 다루는 연결 세션에선 혁신적인 교육 모델을 전파하는 '미네르바 프로젝트'의 설립자 벤 넬슨이 미래 교육이 나아갈 방향을 제시한다. 김헌영 라이즈(RISE) 위원장은 대학과 지역의 지속가능한 성장모델을 구축하는 지역혁신중심 대학지원체계(RISE)를 도쿄대 수석부총장, 필리핀대 총장 등에게 소개한다. 번영 세션에선 최창용 서울대 행정대학원 교수가 임태희 경기교육감, 임종식 경북교육감, 미국 워싱턴주 벨뷰(Bellevue) 시교육감 등 국내외 교육감들과 토론을 벌인다. 한국교육학술정보원, 한국과학창의재단, 한국교육개발원, 한국교육과정평가원 등이 참가한 교육혁신 전시관에서는 스템(STEM) 교육 등 혁신 사업을 중심으로 대한민국 9대 교육개혁 과제에 기반한 성과를 직접 보고 들으며 AI 시대 변화한 교실의 모습을 경험할 수 있다. 오석환 교육부 차관은 "이번 학술대회는 우리가 축적해 온 교육혁신의 경험과 성과를 APEC 회원국을 비롯한 세계 각국과 공유하는 자리"라며 "디지털 전환 시대를 선도하는 새로운 글로벌 교육혁신 방향을 함께 모색하는 출발점이 될 것"이라고 밝혔다. 김남형 기자 nhkim6408@gmail.com 좋아요 좋아요 0 슬퍼요 슬퍼요 0 화나요 화나요 0 후속기사 원해요 후속기사 원해요 0 ⓒ 아시아투데이, 무단전재 및 재배포 금지 기사제보 후원하기 많이 본 뉴스 1 김문수 “경제·시장·민생 대통령‘ 되겠다” 2 전광훈 “김문수 간절히 요청하면 단일화 검토” 3 김문수, 가락시장서 첫 선거운동…“시장·민생·경제 대통령 되겠다” 4 한덕수, 선대위원장직 고사…“개헌은 도울 수도” 5 경기둔화 시사한 KDI…기준금리 인하 유력 6 “기업하기 좋은 나라”…김문수, 대선 10대 공약 발표 7 ‘공직선거법 위반’ 김혜경 항소심도 벌금 150만원 지금 뜨는 뉴스 1 조선왕릉 숲길 걸으며 산책… 8곳 6주간 개방 2 “여긴 꼭 가야해”…성수동·서울숲 ‘한국관광 100선’ 선정 3 폭스바겐 신형 골프, 드라이빙 재미에 실용성 극대화 4 쿠팡 일반회원도 ‘쿠팡플레이’ 무료 본다, 언제부터? 5 건강관리 하는데 신장이 나빠지는 이유는? 회사소개 광고안내 신문구독 채용 윤리강령 고충처리 저작권 회원약관 개인정보취급방침 청소년보호정책 사이트맵 등록번호 : 서울 아00160 | 등록일 : 2006년 1월 18일 | 제호 : 아시아투데이 | 회장·발행인·편집인 : 우종순 서울시 영등포구 의사당대로1길 34 인영빌딩 | 발행일자 : 2005년 11월 11일 | 대표전화 : 02) 769-5000 | 청소년보호책임자 : 성희제 아시아투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 재배포 등을 금지합니다. Copyright by ASIATODAY Co., Ltd. All Rights Reserved. 아시아투데이는 인터넷신문위원회 윤리강령을 준수합니다.</t>
+  </si>
+  <si>
+    <t>AI를 활용한 디지털 대전환 시대를 선도하는 글로벌 교육개혁 콘퍼런스가 개최되며, 교육부는 APEC 2025 교육장관회의 부대행사로 이를 진행한다. 콘퍼런스에서는 교육혁신과 지속가능한 미래를 주제로 다양한 세션과 토론이 이루어지며, AI를 활용한 교육의 혁신과 국내외 교육감들의 의견을 공유한다.</t>
+  </si>
+  <si>
+    <t>'다문화 학생이 86%' 안산 관산중, AI로 언어 장벽 허문다 :: 공감언론 뉴시스 ::</t>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20250509_0003169831</t>
+  </si>
+  <si>
+    <t>17개국 282명 재학, 실시간 번역 수업 서울대 다문화교육연구센터와 협력 교육 [안산=뉴시스] 수업 공개 현장. (사진=관산중 제공) 2025.05.09. [email protected] *재판매 및 DB 금지 [안산=뉴시스] 박종대 기자 = 다문화 학생 비중이 86%에 달하는 경기 안산시에 소재한 관산중학교가 인공지능(AI)과 에듀테크를 활용한 맞춤형 교육으로 언어 장벽 극복에 나섰다. 9일 관산중에 따르면 이날 'AI와 에듀테크를 활용한 다문화 학생들의 맞춤 수업'을 주제로 수업 연구 발표회를 개최했다. 관산중은 17개국 282명의 학생이 재학 중으로, 최근 서울대학교 다문화교육연구센터와 업무협약을 체결하고 다문화 학생 맞춤형 교육 모델을 연구해왔다. 이를 통해 학교 측은 중국, 러시아, 베트남, 캄보디아, 필리핀 등 5개 언어로 '다문화 기초학력 진단 평가지'를 개발해 언어장벽으로 인한 학력 미달과 실제 학업성취도를 구분할 수 있게 했다. 특히 학생 출신 국가 언어로 실시간 번역되는 프로그램을 활용한 수업을 통해 중도입국 학생들의 이해도를 높이는 방안도 공유했다. 초기 이주배경학생 한국어 교육과 다국어 기초학력 평가, 맞춤형 교수학습이 가능해질 것으로 기대된다고 학교 측은 설명했다. 서울대 다문화교육연구센터 관계자는 "다문화교육은 앞으로 교육계가 해결해야 할 중요 과제"라며 "한국어가 서툰 학생들의 학력 향상을 위한 관산중 교사들의 노력에 파트너로서 첨단 기술을 통해 언어 장벽 극복을 지원하겠다"고 말했다. 지종문 관산중 교장은 "우리 학교에서 연구된 다문화학생 평가와 수업 방식은 유사한 어려움을 겪는 다른 학교에도 좋은 사례가 될 것"이라며 "경기도교육청 하이러닝 플랫폼에 관련 내용을 탑재해 도내 전체 학교가 활용할 수 있도록 협의하고 있다"고 말했다. ◎공감언론 뉴시스 [email protected]</t>
+  </si>
+  <si>
+    <t>안산시의 관산중학교가 다문화 학생들을 위해 AI와 에듀테크를 활용한 맞춤형 교육을 실시하고, 서울대학교 다문화교육연구센터와 협력하여 언어 장벽을 극복하고 있다. 다양한 언어로의 실시간 번역 수업을 통해 학생들의 이해도를 높이는 방안을 모색하고 있으며, 이를 통해 다문화학생 평가와 수업 방식을 공유하고 확대할 계획이다.</t>
+  </si>
+  <si>
+    <t>의대생 유급에 ‘24·25·26학번’ 동시 수강 현실화</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/032/0003368782</t>
+  </si>
+  <si>
+    <t>교육부 “8305명 유급 예정” 1학년 수업에 7400명 몰릴 듯 의대생 대규모 유급이 현실화하면서 내년에 3개 학번이 1학년 수업을 동시에 들어야 하는 상황을 피할 수 없게 됐다. 교육부는 학교별 여건을 고려해 사전 준비를 철저히 하겠다는 입장이지만 ‘복수 학년 동시 수업’으로 교육 여건이 악화할 것이란 우려가 나온다. 11일 취재를 종합하면 대학들은 유급 사태로 24·25·26학번이 동시에 1학년 수업을 들어야 하는 내년에 대비한 방안을 강구 중이다. 교육부는 지난 7일 기준 전국 40개 의대에서 재학생 1만9475명 중 8305명(42.6%)이 유급 예정이며, 46명(0.2%)이 제적됐다고 밝혔다. 내년 예과 1학년 기준 세 개 학년이 동시에 수업을 듣게 되는 ‘트리플링’ 인원은 최대 7400명에 달할 것으로 예상된다. 2026년 입학 예정인 의대 신입생 정원은 3058명이다. 예과 1학년 중 이번에 유급된 인원은 1626명이다. 여기에 1학기 이후 학사경고를 받을 예정인 2097명과 한 개 과목만 수강신청하는 식으로 수업 거부에 동참한 620명을 모두 합하면 내년도 1학년이 7401명에 이른다. 다만 교육부는 지난해 휴학한 1학년 475명이 올해 2학기 복학할 것으로 예상되는 데다 군휴학 인원을 고려하면 트리플링 규모가 최대 6000명 수준일 것으로 보고 있다. 트리플링 인원을 6000명 수준으로 보더라도 신입생 정원(3058명)의 약 2배에 달하는 만큼 각 의대의 부담은 커질 수밖에 없다. 다만 대학마다 의대 정원과 복귀율이 다르기 때문에 트리플링 여파도 차이가 있을 것으로 보인다. 임상 실습 위주로 진행되는 본과 수업의 경우 교육 여건이 악화할 가능성이 있다. 수련 병원에서 수용할 수 있는 인원이 한정적이기 때문에 복수 학년이 동시 실습하는 것이 불가하기 때문이다. 올해 실습 대상인 본과 3·4학년 학생은 2899명이 유급됐다. 정상적으로 진급하게 될 본과 2·3학년 1700여명과 유급생들이 내년에 함께 수업을 받을 경우 실습 대상이 그간 본과 한 학년 수준인 2500명보다 훨씬 늘어나게 된다. 이들을 가르칠 전공의가 돌아오지 않는 것도 문제다.</t>
+  </si>
+  <si>
+    <t>대학 의대에서 대규모 유급 사태로 인해 내년에 3개 학번이 동시에 1학년 수업을 들어야 하는 상황 발생. 교육부는 학교별 여건을 고려해 대비하고 있지만, 교육 여건 악화 우려가 나오고 있음. 유급된 학생 수가 많아져 본과 수업의 경우도 악화될 수 있음.</t>
+  </si>
+  <si>
+    <t>"의대는 초6때 결정" 도넘은 학원 공포마케팅</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005490352</t>
+  </si>
+  <si>
+    <t>사교육 시장 거짓·과대 광고 3년째 늘어 작년 459건 적발 '일타강의 즉시수강' 과장하고 불안감 자극해 선행학습 유도 '합격생 최다' 실적 부풀리기도 "국가가 나서 사교육 관리를" "'누적 수강생 1위 강사' '최다 합격생 배출' 등의 학원 광고 문구를 볼 때마다 자녀를 그런 학원을 보내지 않으면 뒤처질 것 같은 기분이 듭니다." 지난해 사교육비가 약 29조2000억원으로 역대 최고치를 기록하는 등 사교육 광풍이 좀처럼 잦아들지 않는 가운데 학부모들의 불안심리를 자극하는 일선 학원들의 거짓·과장 광고가 지속적으로 증가하고 있다. 초등학교 때부터 의대나 로스쿨 준비가 필요하다고 주장하며 과도한 선행학습을 유도하거나, 학원을 다니면 학생들의 성적이 대부분 큰 폭으로 상승한다는 식으로 학부모를 호도해 사교육 시장을 혼탁하게 만든다는 지적이 나온다. 11일 김문수 더불어민주당 의원실이 교육부에서 제출받은 '최근 3년간 학원 및 교습소 거짓·과대광고 적발 현황'에 따르면 거짓·과대광고 적발 건수는 2022년 149건, 2023년 183건, 2024년 459건으로 3년 연속 증가세를 기록했다. 특히 2024년에는 전년 대비 2배 이상 급증했다. 2024년 기준 전국 17개 시도에서 모두 증가세를 보였는데, 경기(99건), 서울(68건), 부산(66건) 순으로 적발 건수가 많았다. 교육부는 △선행학습을 유발하는 광고 △학원의 실적 혹은 교습 내용을 과장한 광고 △강사의 경력을 부풀린 광고 △근거 없이 '최고, 최대, 유일' 등 배타적 표현을 사용한 광고 등을 대표적인 과대·거짓광고 유형으로 꼽았다. 현행 학원법 제17조, 공교육정상화법 제8조에 따르면 학습자를 모집할 때 과대·거짓광고를 하면 행정처분 대상이 된다. 그럼에도 학원들은 여전히 공포 마케팅과 과장광고 등을 통해 학부모와 학생을 끌어들이고 있다. 학원 간 경쟁 심화에  부모들의 욕심까지 맞물리면서 거짓·과장광고가 갈수록 더 늘어나는 형국이다. 고등학교 2학년 자녀를 둔 학부모 A씨는 "일타강사의 강의를 대기, 마감 없이 들을 수 있다는 광고를 믿고 500만원이 넘는 수강료를 지불해 아이를 유명 단과학원 윈터스쿨에 보냈지만, 알고 보니 고3만 수강이 가능했다"며 "아이들을 대상으로 과대광고로 사기를 치는 것이지 뭐냐"고 했다. 선행학습을 유발하는 광고뿐 아니라 초등의대반 등 과도한 선행학습을 부추기는 마케팅도 여전히 기승을 부리고 있다. 지난해 7월 3일부터 8월 23일까지 진행된 초등의대반 등 선행학습 유발광고 특별점검 결과 교습정지 1건, 벌점 및 시정명령 59건, 행정지도 71건, 과태료 14건으로 총 145건이 적발됐다. 교육부는 '의대를 목표로 한다면 초등 때 중등 과정을 마쳐야 합니다' 등의 광고 문구를 주요 위반 사례로 꼽았다. 실제로 취재진이 방문한 목동 학원가에서는 '내신·수능 1등급 초등에 시작해 완성하겠습니다' '입시는 초등 수학에서 결정됩니다' 등의 광고 문구를 쉽게 볼 수 있었다. 초등학생을 대상으로 중등 과정을 가르치는 의대반도 버젓이 존재했다. 대치동의 한 수학학원은 초등학교 6학년을 대상으로 4월부터 7월까지 중학교 1~2학년 과정을 3회독하는 과정을 운영했다. 학원 측은 "초고난도 과정까지 완전 학습을 진행해 이 과정을 다시 돌아보지 않는 것이 목표"라고 설명했다. 또 다른 학원도 초등학생에게 중등 과정, 고등 공통수학 기본·심화 과정을 각각 1년 안에 끝낸다고 안내했다. 백병환 사교육걱정없는세상 정책대안연구소 정책팀장은  "경쟁 과열 속에서 현재의 과대광고 규제는 실효성이 부족해 학원들의 무리한 마케팅을 막기 어렵다"며 "임의 단속에 그칠 것이 아니라 교육부 산하 국가 사교육 관리센터를 신설하는 등 인력을 충원하고, 일관성 있는 행정을 이어가야 한다"고 강조했다. [이수민 기자 / 지혜진 기자]</t>
+  </si>
+  <si>
+    <t>사교육 시장에서 거짓과 과대 광고가 계속 증가하고 있으며, 학부모들의 불안심리를 자극하는 광고가 늘어나고 있다. 교육부에서 최근 3년간 학원 및 교습소 거짓과 과대광고 적발 현황을 발표했는데, 적발 건수가 계속 증가하고 있음을 확인했다. 학원들은 여전히 공포 마케팅과 과장광고를 통해 학부모와 학생을 유인하고 있으며, 교육부는 이를 규제하기 위한 노력을 강조하고 있다.</t>
+  </si>
+  <si>
+    <t>정근식 "기초학력 지원 '학습진단성장센터' 연말까지 모두 설치"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0008242198</t>
+  </si>
+  <si>
+    <t>[인터뷰] "학부모·교원 요청 많아 구축 시기 1년 앞당겨" '수포자' 방지 수리과학융합교육센터, 6월부터 4곳 개소 정근식 서울시교육감이 8일 서울 종로구 서울시교육청 집무실에서 뉴스1과 인터뷰를 하고 있다. 2025.5.8/뉴스1 ⓒ News1 이동해 기자 (서울=뉴스1) 이유진 기자 권형진 교육전문기자 = "기초학력을 지원하는 '학습진단성장센터'를 상반기에 이미 4개를 다 만들었고, 나머지 교육지원청에도 하반기에 다 설치하려고 한다." 정근식 서울시교육감은 취임 6개월을 맞아 8일 &lt;뉴스1&gt;과 한 인터뷰에서 연말까지 11개 교육지원청에 모두 학습진단성장센터를 설치하고 문해력·수리력 진단검사를 확대하겠다고 밝혔다. 학습진단성장센터는 지난해 10월 취임한 정 교육감의 '1호 결재'로 유명한 정책이다. 정 교육감은 이날 &lt;뉴스1&gt;과 인터뷰에서도 "기초학력을 보장하는 정책은 더 강화돼야 한다"며 하반기에 중점 추진할 정책 가운데 1순위로 제시했다. 처음 계획은 올해 4개 교육지원청에 설치하고 내년까지 11개 교육지원청에 모두 설치하는 것이었는데 이를 1년 앞당기겠다는 것이다. 지난 2월 남부교육지원청을 시작으로 3월까지 강동송파·성북강북·중부교육지원청에 차례로 개소하면서 올해 목표는 조기 달성했다. 정 교육감은 "원래는 내년까지 학습진단성장센터를 11개 교육지원청으로 확대할 계획이었으나 학부모·교원 요청이 많아 구축 시기를 앞당겨 올 연말까지 만들 수 있을 듯하다"고 말했다. 학습진단성장센터는 학생들의 기초학력과 학습 성장을 체계적으로 진단하고 지원하는 거점기관 역할을 담당한다. 전문화된 도구를 활용해 심층진단을 실시하고 맞춤형 교육을 지원한다. 현장 반응도 좋아 1학기에만 1600여 명이 심층진단을 신청했다. 지난해 1학기(1400여 명)보다 10% 이상 늘었다. 정 교육감은 "서울시교육청이 개발한 학습 진단 평가 모델(문해력·수리력 진단검사)을 전국적으로 확대해 가겠다"며 "더 많은 학생이 학습 진단을 받을 수 있도록 하고 희망하면 다른 시도 교육청과 해외 한국학교에도 적용하겠다"고 말했다. 센터가 생기면서 올해 처음으로 고1 학생을 대상으로 경계선지능 분야 '심층진단 집중학년제'를 지원했다. 경계선지능에 있는 고등학생은 누적된 무기력과 낮은 자존감으로 발굴이 어려운 문제가 있다. 올해는 학부모·교사의 관심과 참여가 늘면서 지난해보다 지원 대상 학생 발굴이 10배 이상 확대됐다. 하반기에는 한글 교육이 끝난 초등학교 1학년을 대상으로 난독 검사를 지원한다. '수포자'(수학 포기자)를 막기 위한 '수리과학융합교육센터'도 6월부터 8월까지 4개 교육지원청에서 순차적으로 문을 연다. 학생들이 즐겁게 수학을 탐구하고 성장할 수 있는 공간으로, 정 교육감의 핵심공약이기도 하다. 서울시교육청 관계자는 "센터별 특성을 살려 창의적인 공간 디자인을 통해 학생들이 흥미를 느끼고 몰입할 수 있는 수학 학습 환경을 조성하는 데 초점을 맞춰 설계를 진행하고 있다"고 전했다.</t>
+  </si>
+  <si>
+    <t>서울시교육청이 '수포자' 방지를 위해 수리과학융합교육센터를 6월부터 4곳에서 개소하고, 학습진단성장센터를 11개 교육지원청에 설치하여 학생들의 기초학력과 학습 성장을 지원한다. 이를 통해 학생들의 학습 진단을 확대하고 맞춤형 교육을 제공하며, 학부모와 교원의 요청에 응답하여 구축 시기를 1년 앞당겨 연말까지 설치할 예정이다.</t>
+  </si>
+  <si>
+    <t>경기교육청, AI 기반 디지털플랫폼 구축 추진 - 신아일보</t>
+  </si>
+  <si>
+    <t>https://www.shinailbo.co.kr/news/articleView.html?idxno=2050191</t>
+  </si>
+  <si>
+    <t>예산 433억원 투입...교육공동체 디지털 소통 강화 경기도교육청은 교직원의 행정업무 부담을 줄이고, 교육공동체 간 디지털 소통을 강화하기 위해 ‘인공지능(AI) 기반 디지털플랫폼 구축 사업’을 본격 추진한다고 11일 밝혔다. 도교육청은 이를 위해 총 433억원의 대규모 예산을 확보하고 올해 본격적인 플랫폼 구축에 착수하기로 했다. 사업 추진에 앞서 도교육청은 한국지능정보사회진흥원(NIA)이 주관한 ‘초거대 인공지능 플랫폼 이용 지원 실증사업’에 참여해 인공지능 대화형 서비스의 적용 가능성을 사전 검증했다. 사전 검증으로 학생·학부모 대상 학교생활 전반과 교직원 대상 학교생활기록부 기재 관련 지침 및 작성 요령에 챗봇 대응 실증사업을 각각 수행했다. 결과는 향후 디지털플랫폼의 설계와 운영에 적극 반영할 예정이다. 도교육청은 5월 현재 디지털플랫폼 구축을 위한 조달청 사전규격공개를 완료했으며, 6월 중 참여 기업을 선정하여 본격적인 개발에 돌입한다. 주요 디지털플랫폼 구축 내용은 여러 디지털 서비스 간에 연계·활용할 수 있는 ‘교육공동체 포털 및 인공지능 대화형 서비스’, 가정통신문과 전자동의서 등 학교와 학부모 간 소통을 지원하는 ‘학교정보 원패스 서비스’, 클라우드 기반 업무협업 및 업무 맞춤형 다양한 인공지능 모델 개발, 신규 인공지능 서비스 연계가 가능한 디지털플랫폼 공통기반 구축 등이다. 경기교육 디지털플랫폼은 올해 11월 중 일부 기관을 대상으로 시범 운영을 거친 뒤, 2026년에는 도내 전 기관으로 확대 운영할 계획이다. 유성석 정보화담당관은 “디지털플랫폼은 학생과 학부모에게는 더 나은 소통 환경을, 교직원에게는 효율적인 디지털 교육 행정 환경을 제공할 수 있을 것”이라며 “교육 행정업무의 디지털 전환을 선도하는 모델로 자리매김할 수 있도록 적극 힘쓰겠다”고 말했다. [신아일보] 수원/엄삼용 기자 umjohn778@naver.com 저작권자 © 신아일보 무단전재 및 재배포 금지 엄삼용 기자</t>
+  </si>
+  <si>
+    <t>경기도교육청이 433억원을 투입하여 교육공동체 간 디지털 소통을 강화하기 위한 '인공지능(AI) 기반 디지털플랫폼 구축 사업'을 추진하고 있으며, 이를 통해 교직원의 행정업무 부담을 줄이고 학생, 학부모, 교직원 간 소통 환경을 개선할 계획이다.</t>
+  </si>
+  <si>
+    <t>경기도교육청이 개발한 인공지능(AI) 기반 ‘꿈it(잇)다’, 전국 최초 개통 &lt; 교육소식 &lt; 교육정보 &lt; 기사본문 - E동아</t>
+  </si>
+  <si>
+    <t>https://edu.donga.com/news/articleView.html?idxno=87301</t>
+  </si>
+  <si>
+    <t>경기도교육청이 전국 최초로 개발한 ‘인공지능(AI) 기반 진로 진학 지원시스템 ‘꿈it(잇)다’ 홈페이지. 경기도교육청 제공 경기도교육청(교육감 임태희)이 지난 9일 전국 최초로 개발한 ‘인공지능(AI) 기반 진로 진학 지원시스템 ‘꿈it(잇)다’를 순차 개통해, 학생 주도 진로․진학 설계를 지원한다고 밝혔다. ‘꿈it(잇)다’는 초5에서 고3까지 도내 학생과 교사를 대상으로, AI 기반 진로․진학 설계를 지원하는 온라인 운영체계다. 주요 기능은 ▲학생 이력 관리 ▲AI 기반 진로․진학 로드맵 ▲온라인 모의 면접 ▲6개 국어 다국어 지원 등이며, 이를 통해 학생의 발달 단계에 맞춘 맞춤형 진로 설계가 가능하다. 도교육청은 9일 가평․고양․구리남양주 등 북부 8개 교육지원청과 선도 교원 소속 757개 학교에서 우선 개통한다. 이후 23일 수원․성남․용인 등 남부 17개 교육지원청 소속 1,799개 학교로 확대할 예정이다. 특히 개통 전부터 25개 지역 선도 교원 소속 학교 시범 운영과, 학교 담당자 연수, 사용안내서 보급, 콜센터 운영 등을 통해 ‘꿈it(잇)다’의 현장 안착을 적극 지원하고 있다. ‘꿈it(잇)다’는 ‘교육디지털원패스’를 통해 접속해, 학생과 교사는 인공지능(AI) 진로 설계, 온라인 면접 예약, 진로․진학 상담 자료실 등 다양한 기능을 활용할 수 있다. 일반 사용자도 로그인 없이 진로 정보 콘텐츠를 이용할 수 있다. 도교육청은 학생 스스로 미래를 설계하고 진로 역량을 키워나가는 인공지능(AI) 기반 ‘꿈it(잇)다’ 운영체계 안착과 이를 통한 교사의 체계적 진로 상담․교육을 적극 지원할 방침이다. 저작권자 © E동아 무단전재 및 재배포 금지 방효정 기자 bang718@donga.com 다른기사 보기</t>
+  </si>
+  <si>
+    <t>경기도교육청이 '인공지능(AI) 기반 진로 진학 지원시스템 ‘꿈it(잇)다’를 개발하여 학생 주도 진로․진학 설계를 지원하고 있으며, 온라인 운영체계를 통해 맞춤형 진로 설계가 가능하다. 해당 시스템은 학생과 교사 모두에게 다양한 기능을 제공하고 있으며, 교육청은 체계적인 진로 상담․교육을 위해 적극 지원할 예정이다.</t>
+  </si>
+  <si>
+    <t>학폭 고교보다 중학교가 3배 많았다…지난해 중학교 학폭 처분 3만6000건</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005490208</t>
+  </si>
+  <si>
+    <t>전학·학급교체 급증 심의건수도 1만8000건 영재학교 입시에만 학폭 반영 자사고·외고 진학 땐 불이익 없어 학교폭력 이야기를 다룬 드라마 ‘더글로리’의 한 장면. [사진제공=넷플릭스] 지난해 전국 중학교의 학교폭력 처분 건수가 3만6069건으로, 고등학교의 약 3배에 달하는 것으로 나타났다. 가해학생에 대한 처분은 서면사과가 20%로 가장 많았지만, 전학 처분과 학급 교체도 전년 대비 크게 늘어난 것으로 나타났다. 종로학원은 지난달 30일 학교알리미에 공개된 전국 중학교 3295개와 고등학교 2380개의 학교폭력 심의 건수를 분석한 결과 이 같이 나타났다고 11일 밝혔다. 중학교 학교폭력 처분 건수는 2023년 3만302건에서 지난해 3만6069건으로 19% 늘었다. 가해 학생에 대한 실제 처분 결과는 ‘2호 접촉·협박·보복행위 금지’가 29.2%로 가장 많았다. 중징계에 해당하는 ‘7호 학급 교체’와 ‘8호 전학’은 각각 1.5%, 2.5%였다. 전학 처분과 학급 교체는 전체 처분 결과에서 차지하는 비중은 낮았지만, 전년과 대비하면 크게 늘어난 것으로 파악됐다. 전학 처분은 2023년 474건에서 지난해 891건으로 두 배 가까이 늘었고, 학급교체도 같은 기간 389건에서 536건으로 늘었다. 지난해 전국 중학교 학교폭력 심의 건수는 1만7833건으로 고등학교(7446건)보다 2.4배 높은 것으로 나타났다. 중학교 학교폭력 심의 건수는 전국 17개 시도에서 모두 증가해 전년보다 27.3% 늘어난 것으로 나타났다. 직전 해 대비 작년의 중학교 학교폭력 심의 건수 증가율은 경남이 40%로 가장 높았고 대전, 경기, 충남, 경북, 인천, 서울 등이 뒤를 이었다. 서울은 14.5% 증가했다. 중학교 학교폭력의 심의 유형별로는 신체폭력이 30.9%로 가장 높았다. 언어폭력, 사이버폭력, 성폭력, 금품갈취 등이 뒤를 이었다. 중학교 학교폭력에 따른 처분 결과는 영재학교인 서울과학고, 경기과학고, 세종과학예술영재학교 등의 입학 시 불이익으로 작용한다. 그러나 과학고, 외국어고, 국제고, 자율형사립고 등 특목·자사고의 경우 중학교 학교폭력 처분결과를 구체적으로 반영하는 기준은 없다. 임성호 종로학원 대표는 “올해 고교 3학년부터 모든 대학이 의무적으로 학교폭력 조치사항을 대입에 반영하기 때문에 고등학생의 경우 경각심이 커지는 상황”이라면서 “중학교 학교폭력은 현재로서는 대입에 직접적인 영향을 미치지는 않지만, 최근 심의 건수가 증가하고 있는 만큼 진로 계획을 세울 때 유의할 필요가 있다”고 말했다.</t>
+  </si>
+  <si>
+    <t>전국 중학교의 학교폭력 처분 건수가 증가하고 있으며, 전학과 학급 교체도 늘어나고 있다. 학폭은 영재학교 입시에만 불이익으로 작용하며, 특목고나 자사고는 해당 사항을 구체적으로 반영하지 않는다. 고교 3학년부터는 학교폭력 조치사항이 대입에 반영되기 때문에 학생들은 경각심을 갖고 진로 계획을 세워야 한다.</t>
+  </si>
+  <si>
+    <t>"한국어 하면 월급 3배"… 하노이 20대 학생들 ‘열공’ [베트남에 부는 한국어 바람] - 파이낸셜뉴스</t>
+  </si>
+  <si>
+    <t>https://www.fnnews.com/news/202505111757455150</t>
+  </si>
+  <si>
+    <t>"한국어 하면 월급 3배"… 하노이 20대 학생들 ‘열공’ [베트남에 부는 한국어 바람] - 파이낸셜뉴스 파이낸셜뉴스&gt; 전체메뉴 검색 구독신청 Family Site 금융·증권 금융 증권 부동산 정책 건설 철도·항공 ·선박 부동산 일반 산업·IT 산업 통신·방송 게임 인터넷 블록체인 의학·과학 경제 경제 일반 생활 경제 정치 대통령실 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 전국 국제 국제 경제 국제 정치 국제 사회 라이프 연예 패션/뷰티 스포츠 푸드·리빙 레저·문화 오피니언 사설/칼럼 사외 칼럼 기획·연재 fn파인더 fn시리즈 핫이슈+ fnEdition 포토 뉴스레터 기자ON fn영상 신문보기 fnSurvey 닫기 회사소개 광고문의 제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 검색 닫기 공유하기 공유 카카오톡 페이스북 트위터 네이버블로그 주소복사 네이버 구독 구독 다음 구독독 구독 국제 국제일반 "한국어 하면 월급 3배"… 하노이 20대 학생들 ‘열공’ [베트남에 부는 한국어 바람] 김준석 기자 파이낸셜뉴스 입력 2025.05.11 17:57 수정 2025.05.11 18:09 확대 축소 출력 [르포] 현지 100회차 맞은 토픽시험 작년 시험 응시자수 6만3천여명 4년만에 4배 늘며 현지 인기 실감 K팝 열풍도 시험 응시 증가 원인 한국어 외국어 채택한 초중고교 2023년 95개→ 2024년 132개로 【파이낸셜뉴스 하노이(베트남)=김준석 기자】 "한국 회사에 다니고 있는데, 더 좋은 회사로 이직하고 싶어 토픽 한국어능력시험(토픽·TOPIK)을 보러 왔어요. 베트남에서는 영어를 하면 월급이 2배, 한국어를 하면 월급이 3배라는 말이 있을 정도로 한국어가 취업시장에서 큰 무기입니다."(한국 대기업 협력사 베트남 현지 직원 황모씨) "너무 긴장돼서 어제 한숨도 못 잤어요. 대학원을 가려면 이번엔 꼭 6급을 따야 하는데…."(한국 유학을 준비하는 대학교 4학년생 응우옌응옥아인씨) 11일 토픽 고사장인 베트남 하노이 다이남대학교 교문에 들어서는 응시자들은 저마다 토픽 응시 이유를 이같이 말했다. 이날 응시자 대부분이 20대였으며, 일찌감치 한국 대학 입학을 위해 토픽시험 응시에 나선 일부 10대 학생의 앳된 얼굴이 눈에 띄었다. 한 고등학교 3학년 남학생은 "에스파를 보러 가고 싶어서"라고 토픽시험 응시 이유를 수줍게 말했다. 이날 학생들은 시작종이 치기 전까지 손때 묻은 노트와 교재에서 눈을 떼지 못하는 등 사뭇 진지한 분위기에서 치러졌다. 부정행위 방지를 위해 시험감독관들도 매의 눈으로 고사장을 둘러보는 등 엄숙한 분위기가 '고시'를 방불케 했다. 이날 토픽시험은 베트남에서 100회차를 맞는 시험이어서 의미를 더했다. 토픽시험 응시자 수는 지난 2020년까지만 해도 1만5912명에 불과했지만 지난해 6만2985명까지 수직 상승하며 베트남 '한국어 열풍'을 반영하고 있다. 지난 5일 베트남 하노이의 한 고사장에는 한국 고용허가제 대상자 선발과정 특별토픽에 7900여명의 응시자가 몰려 베트남 언론이 대서특필하기도 했다. 김현동 하노이한국교육원장은 "중고등학교에서도 한국어가 외국어로 채택되고 조기교육이 시작되면서 수준 높은 인재들이 많이 배출될 것으로 보인다"고 말했다. 베트남 교육훈련부는 지난 2021년 한국어를 제1외국어로 추가 선정했다. 베트남에서 제1외국어는 초등학교 3학년부터, 제2외국어는 중등학교부터 선택과목으로 가르친다. 한국어를 외국어 과목으로 채택한 베트남 내 초중고는 2023년 95개교(2만640명)에서 지난해 132개교(2만8345명)로 늘었다. 한편 베트남 내 한국어 열풍이 양질의 성과를 내면서 일각에서는 "한국어를 넘어 한국학 연구로 무게추를 옮겨야 할 때"라는 목소리도 나온다. 베트남 정부 핵심 연구집단인 베트남 사회과학원 동북아연구원의 응우옌티탐 한국·북조선연구소 소장은 "국립대를 비롯해 사립대, 전문대에 이제는 초중고에서도 한국어 교육이 진행되면서 한국어 교육은 곧 포화상태에 도달할 것으로 보인다"면서 "이제는 한국 정치, 한국 과학기술, 한국 안보 등 한국어를 수단으로 연구 저변을 넓히고 심층적인 연구에 나서야 할 때"라고 말했다. 이를 위해 한국 정부의 도움이 필요하다고 덧붙였다. rejune1112@fnnews.com 김준석 기자 ※  저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 Top 금융·증권 금융 증권 부동산 정책 건설 철도·항공 ·선박 부동산 일반 산업·IT 산업 통신·방송 게임 인터넷 블록체인 의학·과학 경제 경제 일반 생활 경제 정치 대통령실 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 전국 국제 국제 경제 국제 정치 국제 사회 라이프 연예 패션/뷰티 스포츠 푸드·리빙 레저·문화 오피니언 사설/칼럼 사외 칼럼 기획·연재 fn파인더 fn시리즈 핫이슈+ fnEdition 포토 뉴스레터 기자ON fn영상 신문보기 fnSurvey 회사소개 광고문의 제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 사이트맵 fn family 부산파이낸셜뉴스 팩트블록 파이낸셜뉴스재팬 fn이벤트 Financial News 주소 : 서울 서초구 강남대로 315 전화 : 02-2003-7114 인터넷신문 등록번호 : 서울 아04510 등록일자 : 2017.05.08 Copyright ⓒ파이낸셜뉴스. All rights reserved. 회장 : 전재호 부회장·발행인 : 전선익 사장·인쇄인·편집인 : 변동식 편집국장 : 김홍재 청소년보호정책 (책임자 : 이대율)</t>
+  </si>
+  <si>
+    <t>베트남 하노이의 20대 학생들이 한국어를 열심히 공부하며 한국어능력시험(TOPIK)을 보는 이유는 한국어가 취업에 큰 도움이 되기 때문이다. 한국어 교육이 베트남에서 인기를 끌고 있으며, 한국어 교육을 통해 양질의 인재들이 배출될 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>국내 주요 IT 서비스 기업, B2G 시장 공략 박차</t>
+  </si>
+  <si>
+    <t>https://www.metroseoul.co.kr/article/20250511500278</t>
+  </si>
+  <si>
+    <t>국내 주요 IT 서비스 기업, B2G 시장 공략 박차 로그인 회원가입 메트로人 머니 증권 은행 보험 카드 부동산 경제일반 산업 재계 자동차 전기전자 물류항공 산업일반 IT·과학 인터넷 게임 방송통신 IT·과학일반 정치＆정책 국회정당 대통령실 정책 공기업 생활경제 사회 지방행정 국제 사회일반 에듀＆JOB 기획연재 오피니언 기자수첩 칼럼 인사 동정 부음 라이프 문화 스포츠 운세 AI영상 플러스 한줄뉴스 영상 포토 운세/사주 지면PDF 포럼&amp;컨퍼런스 메트로소개 공지사항 네이버 뉴스스탠드 구독설정 구독신청 글로벌 메트로신문 로그인 회원가입 메트로人 머니 증권 은행 보험 카드 부동산 경제일반 산업 재계 자동차 전기전자 물류항공 산업일반 IT·과학 인터넷 게임 방송통신 IT·과학일반 정치＆정책 국회정당 대통령실 정책 공기업 생활경제 사회 지방행정 국제 사회일반 에듀＆JOB 기획연재 오피니언 기자수첩 칼럼 인사 동정 부음 라이프 문화 스포츠 운세 AI영상 플러스 한줄뉴스 포토 영상 운세/사주 독자서비스 지면PDF RSS 공지사항 포럼＆컨퍼런스 포럼＆컨퍼런스 지면PDF 메트로人 머니 산업 IT·과학 정치＆정책 생활경제 사회 에듀＆JOB 기획·연재 오피니언 라이프 AI영상 증권 은행 보험 카드 부동산 경제일반 재계 자동차 전기전자 물류항공 산업일반 인터넷 게임 방송통신 IT·과학일반 국회정당 대통령실 정책 공기업 지방행정 국제 사회일반 기자수첩 칼럼 인사 동정 부음 문화 스포츠 운세 메트로人 머니 산업 IT·과학 정치＆정책 생활경제 사회 에듀＆JOB 기획·연재 오피니언 라이프 AI영상 포럼＆컨퍼런스 지면PDF IT/과학&gt;IT/인터넷 국내 주요 IT 서비스 기업, B2G 시장 공략 박차 메트로신문 김현정 기자 ㅣ2025-05-11 16:09:49 뉴스듣기 가 가 가 가 가 국내 IT 서비스 기업들이 B2G 시장 공략에 박차를 가하고 있다./ 챗GPT로 생성한 이미지 과거 낮은 수익성과 복잡한 절차로 외면받던 B2G(정부와 기업 간 거래) 사업이 최근 국내 IT 서비스 업계에서 각광받고 있다. 디지털 전환 가속화에 따른 시장 확대와 기술 신뢰도 향상에 기반한 서비스 검증 효과, 해외 진출을 위한 공공사업 레퍼런스 확보 등이 주요 배경으로 꼽힌다. 11일 &lt;메트로경제신문&gt; 취재를 종합하면, 삼성SDS·LG CNS·SK C&amp;C·CJ올리브네트웍스 등 주요 ITS(정보통신 서비스) 기업들이 B2G 시장 공략에 속도를 내고 있다. 삼성SDS는 '디지털 플랫폼 정부' 정책 기조에 발맞춰 관련 사업을 늘려나가는 중이다. 디지털 플랫폼 정부는 모든 데이터가 연결되는 디지털 플랫폼 위에서 국민, 기업, 정부가 함께 사회 문제를 해결하고 새로운 가치를 창출하는 것을 의미한다. 과학기술정보통신부와 행정안전부 등은 디지털 플랫폼 정부 정책의 일환으로 생성형 AI 도입과 클라우드 네이티브 전환을 중점적으로 추진 중이다. 범정부 서비스에 클라우드와 AI 기술의 중요성이 대두되면서 국내 1위 IT 서비스 기업인 삼성SDS의 공공사업 시장 영향력도 커지고 있다. 삼성SDS는 국가정보자원관리원 대구센터에 입주한 민간 클라우드 사업자로, 공공기관의 주요 정보시스템을 안전하게 유치할 기반을 마련했다. 또 생성형 AI, 코파일럿, 데이터 플랫폼 등 신기술이 필요한 영역의 사업 준비로 올 1분기 국회 AI 빅데이터 플랫폼 구축사업과 행안부 차세대 지방행정공통시스템(ISMP) 사업을 잇달아 수주하는 성과를 거뒀다. 삼성SDS 관계자는 "삼성SDS는 공공사업에 참여해 생성형 AI의 성공 사례를 확보하고, 이를 토대로 정부가 추진하는 지능형 디지털 플랫폼의 핵심 사업자로 자리매김하고자 한다"면서 "공공사업은 역량을 갖춘 대기업의 참여를 위한 제도가 마련됐고 기술 역량을 보유한 사업자에게 유리한 환경으로 변화되고 있다. 삼성SDS만의 차별화된 경쟁력으로 사업을 확대해 갈 것"이라고 말했다. LG CNS는 국내 공공사업 수행 경험을 교두보 삼아 해외 B2G 시장 진출을 가속화하고 있다. 최근 LG CNS는 뉴욕시 경제개발공사와 '전기차 충전소 및 관제 시스템 구축 파일럿 프로젝트' 계약을 체결했다. 이에 따라 LG CNS는 뉴욕의 산업단지인 '브루클린 아미 터미널'에 전기차 충전기와 설비, 유지·보수용 관제 시스템, 충전소 사용을 위한 앱 등을 설치해 운영하게 된다. 또 LG CNS는 조지아주 호건스빌 시정부와 스마트가로등 및 관제 시스템 구축 사업 계약을 맺고 설비 조성 작업에 들어갔다. 호건스빌 중심가와 공원에 스마트시티와 사물인터넷(IoT) 기술이 집약된 스마트가로등을 설치할 계획이다. LG CNS 관계자는 "LG CNS는 국내 정부와 공공기관을 대상으로 한 사업 레퍼런스를 바탕으로 현재 미국 정부, 공공기관과 다양한 프로젝트를 수행하고 있다"며 "이 사업들을 기반으로 미국 내 공공시장에서 입지를 다져나갈 예정이다"고 밝혔다. CJ올리브네트웍스는 B2G 영역을 확장하며 사업 다각화를 꾀하고 있다. 스마트시티 사업(세종국가시범도시, 천안 거점형 스마트시티)과 스마트교육 사업(에듀테크 등)을 추진하고 있으며, 스마트금융, 스마트교통 분야로 사업 포트폴리오를 확대하는 중이라고 회사 측은 설명했다. SK C&amp;C 역시 정부 수주 사업에 관심을 갖고 뛰어들고 있다. SK C&amp;C 관계자는 "공공사업의 경우 대기업 참여가 가능한지 먼저 확인한 뒤 내용을 검토해 필요하다고 여겨지면 적극 참여한다"고 말했다. #국내 ITS 기업 #B2G #삼성SDS #LG CNS #SK C&amp;C #CJ올리브네트웍스 기사이력코드 취재(기획) 취재(기획) 취재(제보) 취재(자료보완) 보도자료 SNS 서핑 기타(국내외 논문·학술지) 기타(증권사 리포트) 기타(타 언론사 후속보도) 메트로신문 김현정 기자  hjk1@metroseoul.co.kr 다른기사 보기 Copyright ⓒ 메트로신문 &amp; metroseoul.co.kr 메트로신문 지면 PDF 보기 회사소개 배포문의 기사제보 제휴문의 고충처리 이메일무단수집거부 청소년보호정책 구독신청 Copyright ⓒ Metro. All rights reserved. (주)메트로미디어의 모든 기사 또는 컨텐츠에 대한 무단 전재ㆍ복사ㆍ배포를 금합니다. 주식회사 메트로미디어 · 서울특별시 종로구 자하문로17길 18   ㅣ   Tel : 02. 721. 9800 / Fax : 02. 730. 2882 문의메일 : webmaster@metroseoul.co.kr ㅣ   대표이사 · 발행인 · 편집인 : 이장규   ㅣ   신문사업 등록번호 : 서울, 가00206 인터넷신문 등록번호 : 서울, 아02546   ㅣ   등록일 : 2013년 3월 20일   ㅣ   제호 : 메트로신문 사업자등록번호 : 242-88-00131 ISSN : 2635-9219   ㅣ   청소년 보호책임자 및 고충처리인 : 안대성 지면PDF 한줄뉴스 오늘의 운세 오피니언 메트로 소개 Copyright ⓒ Metro. All rights reserved 맨위로</t>
+  </si>
+  <si>
+    <t>국내 주요 IT 서비스 기업들이 B2G(정부와 기업 간 거래) 시장 공략에 박차를 가하고 있으며, 디지털 전환 가속화와 기술 신뢰도 향상을 통해 공공사업 시장에서 활발한 활동을 펼치고 있다. 삼성SDS, LG CNS, SK C&amp;C, CJ올리브네트웍스 등이 주요 기업으로 B2G 시장을 공략하고 있으며, 이를 통해 국내 IT 서비스 기업들의 영향력이 커지고 있다.</t>
+  </si>
+  <si>
+    <t>교육정책 / 에듀테크</t>
+  </si>
+  <si>
+    <t>천재교육·천재교과서 T셀파, ‘클래스보드 스페이스’ 오픈</t>
+  </si>
+  <si>
+    <t>세계비즈</t>
+  </si>
+  <si>
+    <t>https://m.segyebiz.com/newsView/20250508518435</t>
+  </si>
+  <si>
+    <t>사진 = 천재교육·천재교과서 천재교육·천재교과서가 온라인 학습 플랫폼 ‘클래스보드’에 새로운 기능 ‘스페이스’를 오픈했다고 밝혔다. 스페이스는 교사와 학생이 실시간으로 소통하며 협업할 수 있는 온라인 학습 공간으로, 디지털 수업 환경을 한층 강화하는 도구로 주목받고 있다. 스페이스는 무제한 공간에서 협업할 수 있는 온라인 화이트보드 형태로 제공되며, 교사와 학생은 텍스트, 스티커 메모, 도형, 마인드맵 등 다양한 비주얼 도구를 활용할 수 있다. 이를 통해 아이디어를 시각화하고, 실시간 피드백을 주고받으며 창의적 문제 해결 능력과 디지털 리터러시를 함께 키울 수 있다. 스페이스의 오픈을 기념하여 5월 27일까지 교사와 학생들이 다양한 수업 활용 사례와 팁을 공유하며 참여할 수 있는 이벤트도 진행된다. 우수 사례로 선정된 참여자에게는 맛있는 간식 상품이 제공될 예정이다. 스페이스는 교사와 학생이 다양한 방식으로 수업 활동을 진행할 수 있도록 지원한다. 예를 들어, ‘우리반 국기 &amp; 화폐 만들기’ 활동에서는 학생들이 자신만의 국기와 화폐를 디자인하고 그 의미를 친구들에게 설명하며 온라인 협업 기능을 통해 실시간으로 피드백을 주고받을 수 있다. 또한 ‘감정 출석부’ 활동에서는 학생들이 자신의 감정을 시각적으로 표현하고 서로의 감정을 이해하며 소통할 수 있다. 이 외에도 브레인스토밍, 프로젝트 기반 학습, 토론 수업 등 다양한 활동에서 스페이스를 활용하는 것이 가능하다. 천재교육·천재교과서 관계자는 “스페이스는 교실 수업은 물론 원격 수업에서도 효과적으로 사용할 수 있는 디지털 협업 도구”라며, “이번 오픈 이벤트를 통해 더 많은 교사와 학생들이 스페이스의 활용성을 직접 경험할 수 있기를 기대한다”라고 전했다. 한편 천재교육·천재교과서는 교사와 학생들이 창의적이고 협력적인 학습 경험을 쌓을 수 있도록 다양한 디지털 학습 도구를 지속적으로 개발할 예정이라고 밝혔다. 한재훈 온라인 기자 jhhan@segye.com</t>
+  </si>
+  <si>
+    <t>천재교육·천재교과서가 온라인 학습 플랫폼 '클래스보드'에 새로운 기능 '스페이스'를 오픈하여 교사와 학생이 협업할 수 있는 온라인 학습 공간을 제공하고, 이를 통해 창의적 문제 해결 능력과 디지털 리터러시를 키울 수 있도록 지원한다. 스페이스의 활용성을 높이기 위한 이벤트도 진행 중이며, 천재교육·천재교과서는 계속해서 다양한 디지털 학습 도구를 개발할 예정이다.</t>
+  </si>
+  <si>
+    <t>웅진씽크빅, 중학생 대상 온라인 과외 상품 출시</t>
+  </si>
+  <si>
+    <t>https://www.edaily.co.kr/News/Read?newsId=01590806642167936&amp;mediaCodeNo=257&amp;OutLnkChk=Y</t>
+  </si>
+  <si>
+    <t>웅진씽크빅, 중학생 대상 온라인 과외 상품 출시 닫기 실시간뉴스 [Today 신곡]빛나는 완전체… 트리플에스 '깨어' 나다 이학인 전 아시아경제 편집국장, 마이데일리 경제부문 대표로 MG새마을금고 이용훈, 실업 입단 3년 만에 첫 태백장사 등극 '금주를 부탁해' 김성령, 못 말리는 술고래 DNA에 폭발 어한기 앞두고 수산물 물가 강세…체감 부담 잡기 나선 정부 [마켓인]롯데손보 콜옵션 행사 사실상 포기…금감원에 '백기' '김건희 도이치 주가조작' 재수사 고검에 평검사 2명 합류 카카오게임즈 '섹션 13', 26일 정식 서비스 전환 대한체육회, 제45차 OCA 총회 참석...스포츠 외교활동 전개 코타키나발루 수트라하버 리조트, ‘2025 올댓트래블’ 박람회서 '매력 발산' 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2025년 05월 12일 월요일 실시간뉴스 [Today 신곡]빛나는 완전체… 트리플에스 '깨어' 나다 이학인 전 아시아경제 편집국장, 마이데일리 경제부문 대표로 MG새마을금고 이용훈, 실업 입단 3년 만에 첫 태백장사 등극 '금주를 부탁해' 김성령, 못 말리는 술고래 DNA에 폭발 어한기 앞두고 수산물 물가 강세…체감 부담 잡기 나선 정부 [마켓인]롯데손보 콜옵션 행사 사실상 포기…금감원에 '백기' '김건희 도이치 주가조작' 재수사 고검에 평검사 2명 합류 카카오게임즈 '섹션 13', 26일 정식 서비스 전환 대한체육회, 제45차 OCA 총회 참석...스포츠 외교활동 전개 코타키나발루 수트라하버 리조트, ‘2025 올댓트래블’ 박람회서 '매력 발산' 구독 지면 My 초판 로그인 로그아웃 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 글로벌마켓 제약·바이오 다크호스 리포트 UP&amp;DOWN 지금업계는 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 기자수첩 인터뷰 인사·부고 정치 대통령실·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 일반 연재 이슈 포토 영상 오토in 골프in 팜 이데일리 마켓 in The BeLT 기자뉴스룸 다문화동포 search search 속보 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 팜 이데일리 마켓 in The BeLT 웅진씽크빅, 중학생 대상 온라인 과외 상품 출시 1대이 온라인 과외…수강과목 연계한 인터넷 강의 제공 등록 2025-05-11 오전 11:44:54 수정 2025-05-11 오전 11:44:54 가 가 박철근 기자 기자구독 페이스북 트위터 메일 프린트 url복사 [이데일리 박철근 기자] 웅진씽크빅(095720)은 중학생 대상 1대1 온라인 과외 솔루션 ‘올탭과외’를 단독 상품으로 출시했다고 11일 밝혔다. 올탭과외는 서울대, 고려대, 연세대, 카이스트, 포항공대 등 명문대 출신 선생님이 진행하는 실시간 온라인 과외 서비스다. 기존에는 웅진씽크빅의 중등 전과목 인터넷강의 플랫폼 ‘스마트올중학’ 가입자만 이용 가능했으나 올탭과외만 별도로 신청할 수 있도록 문턱을 낮췄다. (사진= 웅진씽크빅) 특히 수강 과목과 연계한 스마트올중학 강의를 제공해 예습, 복습, 자기주도 학습으로 이어지는 관리형 과외 서비스를 제공한다. 수업 후 과외 선생님이 문제 풀이와 더불어 해당 과목의 내신, 시험특강 등 강의 수강을 숙제로 내주면 학생이 이를 수행한 후 태블릿을 통해 제출하는 방식이다. 또 수업 전 알림, 수업 후 리뷰 및 피드백, 숙제 공지 및 검사 완료 알림 등을 통해 자기주도 학습에 익숙하지 않은 학생들이 과외 전후로 체계적인 관리를 받을 수 있도록 했다고 회사측은 전했다. 웅진씽크빅 관계자는 “올탭과외는 시공간 제약 없이 누구나 양질의 수업을 받을 수 있도록 돕는 서비스”라며 “이번 출시로 보다 많은 학생들에게 학습 기회가 제공될 것”이라고 말했다. 한편 올탭과외는 수학, 영어, 과학 과목으로 구성돼 있으며 태블릿이 없는 학생을 위한 대여 서비스도 제공한다. 가입 상담 신청은 스마트올중학 공식 홈페이지에서 할 수 있으며 단독 상품 출시를 기념해 가입자에게 문화상품권 2만원을 선착순으로 증정한다. 주요뉴스 고령화에 의무지출 눈덩이…"이대로면 15년 내 재정 파탄" 법카로 안 사먹어..,김혜경 항소심 앞두고 신경전? "어떡하냐 문수야" 외치던 이수정, 이틀 뒤 '태세 전환' 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 이데일리 추천 뉴스 by Taboola 실시간 급상승 뉴스 1 "어떡하냐 문수야" 외치던 이수정, 이틀 뒤 '태세 전환') 2 "법카로 안 사먹어"...김혜경 항소심 앞두고 신경전?) 3 "소변 앉아서 싸"…수천만원 빚 숨기고 결혼한 남편, 오히려 피해자?) 4 트럼프 “약값 최대 80% 인하” 예고…주가 폭락한 제약사) 5 "고령화에 의무지출 눈덩이…이대로면 15년 내 재정 파탄"[ESF2025]) 오늘의 포토 왼쪽 오른쪽 [포토]이재명, 판교 IT 직장인들과 간담회 [포토]이재명 더불어민주당 후보, 대선을 향해 출발합니다 [포토]이준석, '연세대 학생들과 인사' [포토]황우여, 국민의힘 공동선대위원장에 임명 [포토] 윤석열 연호하는 지지자들 [포토]이준석, '대선, 이준석-이재명의 일대일 대결장 될 것' [포토] 여주도자기 축제 [포토] 배용준 '통산 2승 모두 변형 스테이블포드 방식 대회' [포토] 무용수 채시라 [포토]'의원총회장 나서는 김문수-권성동' 당신을 위한 맞춤 뉴스 by Dable 소셜 댓글 많이 본 뉴스 뉴스 증권 연예 1 국힘 대선후보 김문수 선출되자...현수막 내린 '민주 김문수' 2 "고령화에 의무지출 눈덩이…이대로면 15년 내 재정 파탄"[ESF2025] 3 몇 명과 성관계 적당? “남성 5명, 여성 3명” 한국 최저 4 "어떡하냐 문수야" 외치던 이수정, 이틀 뒤 '태세 전환' 5 "법카로 안 사먹어"...김혜경 항소심 앞두고 신경전? 6 “최대 50%” 위기의 백종원, ‘반값 할인’ 나섰다…빽다방은 제외? 7 "소변 앉아서 싸"…수천만원 빚 숨기고 결혼한 남편, 오히려 피해자? 8 [단독]MG손보, 결국 '가교보험사'로 정리한다 9 360만원 저축하면 나라가 1440만원 얹어준다 ‘대박’ 10 트럼프 “약값 최대 80% 인하” 예고…주가 폭락한 제약사 1 엔켐, ‘나트륨 배터리’ 관련 국책과제 2건 진행…“글로벌 리더십 확보” 2 [단독]"SK증권 대주주라 믿었는데"…맥케이슨 매각 무산에 협력사만 피눈물 3 미·중, 무역협상 진전…“실질적 협상 성과”[뉴스새벽배송] 4 한국석유공업, 국토교통부로부터 건설신기술 인증 획득 5 넥스트바이오메디컬 '내시경용 지혈재 넥스파우더', DDW 2025 참가 6 증권사 가진 사모펀드가 왜 자본잠식 회사 인수에 나섰나 7 코스피 상장사 작년 현금배당 45.5조…역대 최대 8 에스오에스랩, 이엠에스와 맞손…스마트 인프라 시장 공략 가속 9 삼정KPMG, AI 기반 ‘스마트 정보보호 공시 자동화 플랫폼’ 출시 10 포인트모바일, 제주형 결제시스템 고도화 사업에 ‘TR54’ 1200대 공급 1 줄어든 규모 사라진 대작…아트부산, "서울 VIP 끌기에도 역부족" 2 '영원한 뽀빠이 아저씨' 이상용, 오늘(12일) 발인 3 “안정환은 말만 하는 리더” 이영표, 선전포고 후 무인도 입성(푹다행) 4 이상민, 10살 아내 공개에 서장훈 "굉장히 미인…이분이 도대체 왜" 5 '환승연애2' 김태이 음주운전…검찰 "징역 2년 구형" 6 '미우새' 이홍기, 코 푼 휴지로 입 닦아…서장훈 "어마어마" 7 "좋아해선 안 될 사람 좋아"…한지민, 손석구 향한 마음(천국보다 아름다운) 8 한혜진 "남편, 집 완공 전 심장마비로 떠나…삶 놓아버리고 싶었다" 9 '김준수 쌍둥이형' 김무영, 깜짝 결혼발표·쌍둥이 출산 고백 10 이익준·채송화 열애 ing…'언슬전' 조정석, 채송화와 깜짝 출연 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 메드팩토 관계사 셀로람 “간부전 치료제 ‘EASL’, 전임상서 가능성 확인” 루닛, 1Q 매출 192억원으로 역대 최대...스코프 매출 135% '껑충' 대원제약·일동 유노비아, P-CAB 신약 임상 2상 종료…3상 IND 신청 에프앤피, 발효 홍국 기술 안정성 특허 등록 '분자접착분해' 핀테라퓨틱스, 경구용 항암제 미국 1상 계획 승인 MICE 최신정보를 한눈에 TheBeLT 왼쪽 오른쪽 코타키나발루 수트라하버 리조트, ‘2025 올댓트래블’ 박람회서 ''매력 발산'' 美 샌프란시스코, 도시 전체가 예술과 미식의 무대로 바뀐다 바이헤레 리쌍, 타히티 관광청 신임 청장 임명 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 디알텍, 블루오션 영상진단 시스템시장 정조준 ‘필러판 뒤집힌다' 제테마, 5000억 성장 비결은? HK이노엔, 1조 클럽 가입 예고 #팜이데일리 유한양행 자회사 ‘이뮨온시아’, 상장 후 전망은? / 동물실험 폐지 기업별 영향은? 입지 넓히는 유한양행 ‘렉라자’, 경쟁자 AZ 기선제압 시작? 두근두근 핫포토 이재명, 방탄복 입고 출정 권성동 결국... 채시라의 변신 톰크루즈 내한 왼쪽 오른쪽 당신의 드림카는? ㅣ오토in 현대차·기아, '관세 유통기한' 지났다…'보릿고개' 눈 앞 나이스 샤아앗~ ㅣ골프in [골프in포토]이예원,우승 예감 미소 왼쪽 오른쪽 이슈기획 ㅣ 제21대 대선 김문수, 불체포특권 폐지·사법방해죄 신설 공약…''이재명 겨냥'' 이슈기획 ㅣ 제16회 이데일리 전략포럼 "퇴직연금 제 역할 하려면…''연금화'' 인센티브 강화해야"[ESF2025] 이슈기획 ㅣ SKT 유심 해킹 SK텔레콤 해킹 사태가 던진 질문 [김현아의 IT세상읽기] 이슈기획 ㅣ 트럼프 관세 전쟁 미국, 영국산 車 수입 관세 '하향'…한국은 어떻게? 이슈기획 ㅣ 의료계 집단행동 의대생 유급 8305명…내년 ‘트리플링’ 현실화 오늘의 주요 기사 미중, 90일간 '역대급' 관세 인하…무역전쟁 완화 신호탄(상보) "미중 관세 인하폭 예상 한참 넘었다"…전세계 증시 폭등 “호랑이 굴에서 경제적 자유 외칠 것”…이병태 교수, 이재명 캠프 합류 . "계엄 잘못에 사과" 국힘 선장 맡게 된 90년생 김용태 . "이재명 나라에서 살아봐" 홍준표 삭제...점심 나선 尹은? . "복권 당첨보다 대단"…3억 원에 내놨던 교황 집 '문의 쇄도' . "소변 앉아서 싸"…수천만원 빚 숨기고 결혼한 남편, 오히려 피해자? . 尹 3차 공판 증인 "총쏴서 끌고 나오라 지시…배신감 느껴" . 이재명·김문수 "경제 활성화" 외쳤지만…방향에선 '온도차' 알립니다 2025년 이데일리 편집부 편집기자 모집 이데일리 주식회사 제25기 결산공고 [마감] 2025년 이데일리 편집부 편집기자 모집 뉴스레터를 신청하세요 확인 IR 멤버스 - LG전자, '동남아 HVAC' 공략…경영진 현장 보폭 넓힌다 - 살아나는 실적 모멘텀…반등장 이끈 '어닝 서프라이즈'株 - "지역 거점 AIDC, 빅테크와 협의중…수도권 센터도 구축 계획"-SKT 컨콜 이데일리ON - [이데일리ON 박정식] [박정식의 국내 주식시황] 美·中 무역협상 긍정적 소식에.. 양호한 증시 흐름 속 대선 정책 관련주들 변동성 본격화 - [이데일리ON 박정식] [굿모닝! 글로벌 뉴욕증시] 美·中 무역협상으로 관망 심리가 커지며 혼조 마감 - [이데일리ON 박정식] [박정식의 국내 주식시황] 美 무역협상 기대감 지속되며 반등 국면 지속... 상승 이슈에 따른 개별주 및 테마장세 지속.. 문화 · 행사 문화대상 전략포럼 W페스타 사진공모전 캠핑요리 국제금융컨퍼런스 곽재선 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.kr I 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 회장 곽재선 I 발행·편집인 이익원 I 청소년보호책임자 고규대 Family site 이데일리TV 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 곽재선 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 이데일리 캠페인 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>웅진씽크빅이 중학생 대상으로 온라인 과외 상품 '올탭과외'를 출시했으며, 명문대 출신 선생님들이 진행하는 실시간 온라인 과외 서비스를 제공하고, 수업 후에는 문제 풀이와 내신, 시험특강 등을 제공하여 학생들의 학습을 돕는다.</t>
+  </si>
+  <si>
+    <t>미래엔, 초·중·고 교과서 ‘A 디자인 어워드 2025’ 5관왕 수상 &lt; 교육소식 &lt; 교육정보 &lt; 기사본문 - E동아</t>
+  </si>
+  <si>
+    <t>https://edu.donga.com/news/articleView.html?idxno=87288</t>
+  </si>
+  <si>
+    <t>‘A 디자인 어워드 2025(A' Design Award &amp; Competition 2025)’ 교육 디자인 부문에서 골드·실버·브론즈를 수상한 미래엔 초·중·고 교과서 표지. 미래엔 제공 교과서 발행부수 1위 기업 ㈜미래엔이 국제 디자인 공모전 ‘A 디자인 어워드 2025(A' Design Award &amp; Competition 2025)’ 교육 디자인 부문에서 자사의 초·중·고 교과서 디자인으로 골드·실버·브론즈 총 5관왕의 영예를 안았다. ‘A 디자인 어워드’는 이탈리아에서 열리는 세계 3대 디자인 공모전 중 하나로, 창의성, 실용성, 사회적 가치 등을 종합적으로 평가해 시상하는 권위 있는 국제 대회다. 미래엔은 2022년과 2023년에 이어 올해까지 세 차례에 걸쳐 수상하며, 교육 콘텐츠 디자인 분야에서의 차별화된 경쟁력을 다시 한번 입증했다. 이번 수상작은 모두 실제 교육 현장에서 사용되는 교과서로, ▲골드(GOLD) 1건 ▲실버(SILVER) 2건 ▲브론즈(BRONZE) 2건 등 총 5개 부문에서 수상했다. 학습자의 눈높이에 맞춘 창의적인 디자인으로 학습 효과는 물론 감성적 요소까지 조화롭게 담아냈다는 평가를 받았다. 골드를 수상한 중학교 교과서는 따뜻한 일상과 우정을 담은 만화 스타일의 일러스트로, 감수성이 예민한 중학생들에게 일상의 따뜻함과 정서적 가치를 전하며, 학습 자체를 감성적인 경험으로 확장한다. 친구들과 동물이 함께하는 아날로그 감성의 디자인을 통해 교사에게는 향수를, 학생에게는 새로움을 전하도록 구성했다. 실버를 수상한 고등 한국사 교과서는 소설책을 연상케 하는 감성적인 디자인과 타임슬립 형식의 스토리텔링을 접목해, 학생들이 역사를 단순히 암기하는 것이 아니라 흥미롭게 받아들이고 몰입할 수 있도록 기획됐다. 과거와 현재를 연결하는 서사 구조는 역사적 사건을 오늘날의 시선으로 바라보고 해석하게 함으로써, 보다 자연스럽고 깊이 있는 이해로 이어지도록 설계됐다. 함께 실버를 수상한 초등 교과서는 귀여운 캐릭터와 따뜻한 색감의 일러스트를 활용해 학습을 하나의 모험처럼 즐길 수 있는 동화책 콘셉트의 디자인을 적용했다. 구름에서 영감을 받은 몽환적인 제호 디자인과 부드러운 곡선, 감성적인 타이포그래피는 아이들의 상상력을 자극하며, 교과서를 자신만의 이야기를 펼치는 공간으로 느낄 수 있도록 했다. 브론즈를 수상한 고등 지리 교과서는 세밀한 일러스트와 실용적인 판형 구성을 통해 시각적 흥미를 높이고, 과목에 대한 이해도를 효과적으로 끌어올릴 수 있도록 설계됐다. 학습자 친화적인 크기와 종이 재질 등 실제 사용 환경을 세심하게 반영한 점에서 긍정적인 평가를 받았으며, 해당 지리부도는 전국 학교에서 채택률 약 60%를 기록하며 가장 널리 사용되는 교과서로 자리 잡았다. 이와 함께 브론즈를 수상한 고등 과학 교과서는 물리학, 화학, 생명과학, 지구과학 등 총 12권으로 구성됐으며, 각 과목의 특성을 직관적으로 반영하면서도 시리즈 전체의 일관성을 유지하는 데 중점을 뒀다. 명확한 색상 구분과 시선을 끄는 표지 디자인은 과학에 대한 거리감을 줄이고, 학습에 대한 친숙함을 높인 점에서 높은 평가를 받았다. 미래엔 손현지 디자인실장은 “교과서 디자인은 학생들이 학습에 흥미를 느끼고, 내용에 더 깊이 몰입할 수 있도록 돕는 중요한 요소라고 생각한다”라며, “학습 내용과 디자인의 조화를 끊임없이 고민해온 점이 이번 수상으로 인정받은 것 같아 기쁘다”고 말했다. 이어 “앞으로도 교육 콘텐츠의 본질은 지키되, 시대와 사용자에 맞는 창의적인 디자인을 지속적으로 선보이겠다”고 덧붙였다. 저작권자 © E동아 무단전재 및 재배포 금지 방효정 기자 bang718@donga.com 다른기사 보기</t>
+  </si>
+  <si>
+    <t>미래엔이 'A 디자인 어워드 2025' 교육 디자인 부문에서 골드·실버·브론즈를 수상하며 초·중·고 교과서 디자인으로 5관왕을 차지했다. 교과서는 학습자의 눈높이에 맞춘 창의적인 디자인으로 학습 효과와 감성적 요소를 조화롭게 담아냈다. 미래엔은 교육 콘텐츠의 본질을 유지하면서도 창의적인 디자인을 지속적으로 선보일 계획이다.</t>
+  </si>
+  <si>
+    <t>교사 10명 중 7명 “학생 휴대폰 사용으로 수업 방해 겪어”</t>
+  </si>
+  <si>
+    <t>중앙일보</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/025/0003440155</t>
+  </si>
+  <si>
+    <t>지난 2월 19일 서초구 서울교육대학교에서 시민들이 오가고 있다. 뉴스1 교사 10명 중 7명이 학생의 휴대전화 사용으로 인해 수업 방해를 경험한 것으로 나타났다. 한국교원단체총연합회(교총)는 15일 스승의날을 맞아 전국 유·초·중·고·대학 교원 5591명을 대상으로 실시한 교원 인식 설문조사 결과를 12일 발표했다. 설문조사는 지난달 29일부터 이달 7일까지 진행됐다. 이번 조사에서 교사들 상당수는 학생들의 휴대전화 사용으로 교권침해를 겪었다고 답했다. ‘교육활동 중 학생의 휴대전화 알람, 벨소리 등으로 수업 끊김, 수업 방해를 겪은 적 있다’고 답한 교사는 66.5%(3720명)였다. ‘휴대전화 사용을 제지하다 언쟁이나 폭언을 경험한 적이 있다’고 답한 교사도 34.1%(1903명)인 것으로 집계됐다. 상해·폭행을 당했다는 교원은 응답자 중 6.2%(345명)로 조사됐다. 교원들은 대부분 저연차 교사의 교직 이탈을 심각한 수준으로 인식하는 것으로 나타났다. 저연차 교사 이탈 현상에 대해 ‘심각하다’고 답한 이들은 90%(5029명·매우 심각 51.6%, 다소 심각 38.4%)에 달했다. 이탈 원인에 대해서는 ‘교권 침해’(40.9%)라는 답이 가장 많았다. ‘사회적 인식 저하’(26.7%), ‘업무 강도 대비 낮은 보수’(25.1%) 등이 뒤를 이었다. 저연차 교사 이탈 방지 대책으로는 ‘교권 보호 법‧제도 마련’(37.3%)과 ‘보수 및 수당 현실화’(34.8%) 등이 꼽혔다. 실제 2023년 3월부터 지난해 2월까지 퇴직한 10년차 미만 초·중·고 교사는 576명으로 최근 5년 내 최고치를 기록했다. 한국교육개발원은 지난해 12월 발표한 보고서에서 “교직경력 5년 미만인 저연차 초등교사 중 교직 이탈 의향이 있다고 응답한 교사는 2021년 39.7%에서 2023년 59.1%로 늘었다”고 분석했다. 교총 관계자는 “교권 보호와 교육여건 개선이 절실하다”며 “교원이 학생 교육에 전념하고 학교가 교육기관으로서 본연의 책무를 다할 수 있도록 국회와 정부가 함께 협력해야 한다”고 말했다.</t>
+  </si>
+  <si>
+    <t>한국 교사들 중 7명 중 1명은 학생의 휴대전화 사용으로 인해 수업 방해를 경험했으며, 저연차 교사의 이탈 문제가 심각하다는 인식이 높아지고 있음. 교원들은 교권 보호와 교육여건 개선이 필요하다고 강조하고 있음.</t>
+  </si>
+  <si>
+    <t>"교권 추락에 청년 교사 떠난다"…교원 90% "이탈 심각"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005130500</t>
+  </si>
+  <si>
+    <t>이탈 원인 1위는 '교권 침해' 교대 입시 미달·자퇴 증가…교직 기피 현실화 차기 대통령 교육 공약 1순위는 ‘교권 보호’ 게티이미지뱅크 젊은 교사의 교직 이탈 우려가 커지고 있다. 교권 침해, 낮은 처우, 추락한 직업 위상이 복합적으로 작용한 탓이다. 교사 10명 중 9명은 '초년 교사 이탈이 심각하다'고 진단했다. 한국교원단체총연합회(교총)는 제73회 교육주간과 제44회 스승의 날을 맞아 지난달 29일부터 이달 7일까지 전국 유치원, 초·중·고, 대학 교원 5591명을 대상으로 실시한 교원 인식 설문조사 결과를 12일 발표했다. 조사에 따르면 저연차 교사의 교직 이탈에 대해 응답자의 90.0%가 ‘심각하다’고 답했다. 이 중 절반 이상(51.6%)은 ‘매우 심각하다’고 인식하는 것으로 나타났다. 교사들이 꼽은 주요 이탈 원인은 ‘교권 침해’(40.9%), ‘사회적 인식 저하’(26.7%), ‘업무 강도 대비 낮은 보수’(25.1%) 순이었다. 실제로 최근 교대 입시에서 내신 6·7등급도 합격한 사례가 포착되는가 하면, 2023년 한 해 동안만 교직경력 10년 미만의 교사 576명이 퇴직한 것으로 알려졌다. 2023년 교대 자퇴생도 500명에 달해 교직 기피 현상이 뚜렷해지고 있다. 특히 교총은 연금 혜택의 약화, 민원과 아동학대 신고의 남용, 물가를 따라가지 못하는 보수 인상률 등을 교사 이탈의 구조적 원인으로 지목했다. 교총 관계자는 “교사가 떠나는 교단에는 교육의 미래가 없다”며 “교권 보호와 처우 개선이 시급하다”고 강조했다. 학생의 휴대전화 사용과 관련한 문제도 심각한 것으로 드러났다. 교사 3명 중 1명은 학생의 휴대전화 사용을 제지하다가 언쟁이나 폭언을 겪은 적이 있다고 밝혔고, 6.2%는 실제로 상해·폭행 피해를 경험했다고 응답했다. 학생의 몰래 녹음·촬영에 대한 우려는 무려 85.8%에 달했다. 이에 대해 교총은 교육활동 중 휴대전화 사용을 제한하고 위반 시 명확한 제재 조항을 마련하는 법적 근거가 필요하다고 주장했다. 또한, 교육활동 중 교사를 폭행한 학생과 학부모에 대한 가중처벌 법안에 대해 응답자의 99.3%가 찬성하는 것으로 나타났다. 정책 관련 질문에서는 차기 대통령이 가장 갖춰야 할 자질로 ‘소통과 통합 능력’(50.3%)을 꼽았다. 가장 우선 추진해야 할 교육 정책으로는 ‘교권 보호’가 1순위로 조사됐다. 이어 ‘교원 처우 개선’, ‘학급당 학생 수 감축’ 등이 뒤를 이었다. 기타 정책 현안에 대한 의견으로는 수능 복수 시행에 대해 반대가 60.9%, 서·논술형 문항 도입 반대가 63.0%로 나타났다. 정년 연장에는 찬성(57.6%)이 반대(42.4%)보다 많았다. 찬성 이유로는 ‘연금 소득 공백 해소’(60.6%)가 가장 많았다. 교총 관계자는 “현장의 절박한 요구가 설문 결과에 그대로 반영됐다”며 “정부와 국회는 교사들이 학생 교육에 전념할 수 있도록 제도적 지원과 협력을 아끼지 말아야 한다”고 말했다.</t>
+  </si>
+  <si>
+    <t>교사 이탈 원인으로 '교권 침해'가 1위이며, 교직 기피 현상이 심각해지고 있다. 교사들이 꼽은 주요 이탈 원인은 '교권 침해', '사회적 인식 저하', '업무 강도 대비 낮은 보수' 순으로 나타났다. 교총은 교사 이탈을 막기 위해 교권 보호와 처우 개선이 시급하다고 강조했다.</t>
+  </si>
+  <si>
+    <t>교원 과반 "차기 대통령에 가장 중요한 건 '소통·통합 능력'"</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/001/0015382068</t>
+  </si>
+  <si>
+    <t>교총, 유·초·중·고·대학 교원 설문조사…"교권보호 우선 추진해야" 90% "저연차 교사 이탈 심각"…67% "학생 휴대전화로 수업 방해 경험" 학생 생활지도 (PG) [구일모 제작] 일러스트 (서울=연합뉴스) 서혜림 기자 = 교원들은 차기 대통령이 가장 우선해 갖춰야 하는 자질로 '소통과 통합 능력'을 꼽았다는 설문 조사 결과가 나왔다. 한국교원단체총연합회가 4월 29일∼5월 7일 전국 유·초·중·고·대학 교원 5천591명을 상대로 설문 조사해 12일 내놓은 결과에 따르면 응답자의 과반(50.3%)이 '차기 대통령이 가져야 할 가장 중요한 자질'로 소통과 통합 능력을 꼽았다. 이어 '안정적 리더십'(18.0%), '훌륭한 인품과 도덕성'(17.0%), '혁신과 추진력'(14.1%) 등이 뒤를 이었다. 차기 대통령이 우선 추진해야 할 교육 정책에 대한 질문에는 '교권 보호'(23.6%)가 가장 많았고 이어 '교원 처우 개선'(19.3%), '학급 당 학생 수 감축 등 교육여건 개선'(17.9%) 등의 순이었다. 차기 대통령으로 지지할 후보를 정했느냐는 질문엔 58.0%가 '정했다'고 답했으며, 51.4%는 '향후 지지 후보가 바뀔 가능성이 없다'고 했다. 최근 대학수학능력시험이 복수로 시행되는 방안이 일각에서 논의되는 것과 관련해서는 반대(60.9%)가 찬성(39.1%)보다 높게 나타났다. 수능 시험에 논·서술형 문항 도입도 반대(63.0%)가 찬성(37.0%)보다 높았다. 정년 연장은 교원 57.6%가 찬성했다. 저연차 교사 이탈 현상과 관련해서는 90.0%가 심각하다고 답했다. 이탈의 원인으로는 '교권 침해'(40.9%)라고 답한 교원이 가장 많았다. '사회적 인식 저하'(26.7%), '업무 강도 대비 낮은 보수'(25.1%)도 주원인으로 지적했다. 교육활동 중 학생의 휴대전화 알람 등으로 수업 방해를 겪었다는 교원은 66.5%에 달했다. 학생의 휴대전화 사용을 제지하다 학생이 저항하거나 언쟁·폭언을 했다는 교원은 34.1%였다. 상해·폭행까지 당한 교사는 6.2%였다. 교원 대다수(99.3%)는 학생과 학부모가 교육활동 중인 교원을 상해·폭행할 때 가중 처벌하는 교원지위법 개정안에 찬성했다. 교총은 "교육활동 중 휴대전화 사용을 금지하고 위반 시 제재 조항을 명료화하는 법률 마련과 교원의 생활지도권을 보호하는 제도가 확립되어야 한다"고 말했다. sf@yna.co.kr</t>
+  </si>
+  <si>
+    <t>교원들이 차기 대통령이 가져야 할 자질로 '소통과 통합 능력'을 중요시하며, 교권 보호와 저연차 교사 이탈 문제에 대한 우려를 표명하고 있다. 또한, 학생들의 휴대전화로 인한 수업 방해 문제와 교사에 대한 상해·폭행 사례에 대한 대책이 필요하다는 의견이 제기되고 있다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]천재교육, 우즈베키스탄과 AI 디지털 교육 파트너십 강화…글로벌 에듀테크 협력 확대</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003311351</t>
+  </si>
+  <si>
+    <t>우즈베키스탄 디지털 기술부 관계자들이 천재교육을 방문하여 AI인재 양성에 협의를 나눴다. 천재교육은 지난 8일 우즈베키스탄 디지털 기술부 차관을 비롯해 디지털 교육 센터 소장 및 관계자들이 방문해 교육 협력 사업 및 투자 유치 방안을 논의했다고 12일 밝혔다. 이날 행사는 천재교육과 관계사 소개, 인공지능(AI) 기반 디지털 교육 플랫폼 시연, 향후 AI 디지털교과서를 구현해낼 수 있는 AI직업 훈련 프로그램 관련 사업 설명 등으로 진행했다. 또한 천재교육의 AI 인재 양성 프로그램은 양국 간 교육 협력의 핵심 축으로 논의했다. 박정과 천재교과서 대표는 “이번 방문은 교육 및 디지털 기술 분야에서 긴밀한 협력을 모색할 수 있는 의미 있는 기회였다”며 “천재교육의 AIDT와 AI인재 양성 프로그램이 우즈베키스탄의 디지털 교육 환경에 실질적인 발전을 가져오는 데 기여하길 바란다”고 밝혔다.</t>
+  </si>
+  <si>
+    <t>우즈베키스탄 디지털 기술부와 천재교육이 AI인재 양성을 위해 협력을 강화하기로 합의했다. 이를 통해 AI 기반 디지털 교육 플랫폼 및 AI 직업 훈련 프로그램을 개발하는 방안을 논의하고 양국 간 교육 협력을 강화할 예정이다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]웅진컴퍼스, 일본 '넬리스'와 MOU 체결…에듀테크 수출 본격화한다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003311339</t>
+  </si>
+  <si>
+    <t>지난달 서울 웅진컴퍼스 사옥에서 열린 업무협약 체결식에서 서종윤 웅진컴퍼스 대표이사(오른쪽)와 유야 이시타니 쉐인코퍼레이션 대표(왼쪽)가 기념 촬영을 하고 있다. 웅진컴퍼스가 일본의 영어 콘텐츠 기업 넬리스(Nellie's)와 전략적 업무협약(MOU)을 체결했다. 이번 협약을 통해 웅진컴퍼스는 자사의 AI 기반 디지털 영어도서관 서비스 '리딩오션스플러스'를 일본 현지에 공급하는 한편 넬리스의 네트워크를 활용한 콘텐츠 홍보 및 공동 마케팅 활동을 펼칠 예정이다. 영어교육업체 쉐인코퍼레이션 산하 기관인 넬리스는 일본 내 학원 및 학교, 서점 유통망을 가진 영어 교육 수입·유통 전문기업이다. 영어 교사 대상 세미나, 교수법 워크숍 등을 정기적으로 개최하고 있으며, 최근에는 해외 에듀테크 제품 도입에 관심을 보인다. 서종윤 웅진컴퍼스 대표이사는 “일본 시장은 영어 교육 수요는 높지만, 콘텐츠 다양성과 기술 기반 서비스의 성숙도 면에서는 아직 초기 단계”라며 “이번 제휴를 시작으로 웅진컴퍼스는 일본 내 영어 교육 생태계를 선도하는 파트너로 자리매김할 것”이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>웅진컴퍼스가 일본의 영어 콘텐츠 기업 넬리스와 전략적 업무협약을 체결하여 일본 시장에 AI 기반 디지털 영어도서관 서비스를 공급하고 콘텐츠 홍보 및 공동 마케팅 활동을 진행할 예정이다.</t>
+  </si>
+  <si>
+    <t>교육계, 공교육 정상화 한목소리…"AI 교과서 자율 선택·고교서열 해체"</t>
+  </si>
+  <si>
+    <t>https://news.mtn.co.kr/news-detail/2025051209522584972</t>
+  </si>
+  <si>
+    <t>교육계, 공교육 정상화 한목소리…"AI 교과서 자율 선택·고교서열 해체" 윤석진 기자 2025-05-12 10:10:52 이주호 사회부총리 겸 교육부 장관이 29일 서울 종로구 정부서울청사에서 AI 디지털 교과서 검정심사 결과 및 도입 로드맵 조정(안)을 발표하고 있다. (사진제공=뉴스1) 제21대 대통령 선거가 한 달도 채 남지 않은 가운데, 교육계가 새 정부에 인공지능(AI) 디지털교과서의 자율적 활용 보장과 대입 제도 전면 개편 등 다양한 정책 제언을 쏟아내고 있다. 의대 정원 확대 폐지 등 윤석열표 고등교육 정책을 폐기해야 한다는 목소리도 높다. 12일 교육계에 따르면, 각 단체는 저출산으로 인한 학령인구 감소, 사회 양극화, 교육 불평등 등 구조적인 위기에 대응하려면 국가 책임을 강화하고, 현장 중심으로 교육 정책을 전환해야 한다고 입을 모았다. 실제로 지난주 7일 백승아 더불어민주당 의원 주최로 열린 '교육계 대선 교육 공약 제안 발표회'에는 교원·학부모·교육단체 등 각계 인사들의 다양한 제안이 이어졌다. 각 단체의 요구 사항들을 보면 ▲교육의 공공성과 국가 책임 강화 ▲교육 격차 해소와 안정적인 교육 재정 확보 ▲교원과 교육 노동자의 권리와 근무 환경 개선 ▲입시 대학 서열 체제 개혁 등이 공통으로 제시됐다. 특히 일부 교원 단체들은 고등교육 정책에서 대학 자율성과 학문 생태계 회복을 최우선 과제로 꼽으며, 윤석열 정부의 고등교육 정책 철회를 강하게 요구했다. 전국 국공립대학 교수노동조합은 ▲의대 정원 확대 일방 추진 ▲지역혁신중심대학지원체계(RISE) ▲글로컬 대학30 육성사업 ▲대학설립·운영규정 전부개정령 ▲무전공·무학과 제도 강제 등을 문제삼으며, 이들 정책을 폐기하고 원상 복구할 것을 주장했다. 올해 처음 도입된 AI 디지털교과서에 대한 비판도 나왔다. 일부 교원단체와 학부모 단체는 "AI 교과서가 현장의 목소리를 배제한 채 일방적으로 추진됐다"며 법적 지위를 '정규 교과서'가 아닌 '선택형 교육 자료'로 전환할 것을 촉구했다. AI 교과서를 정규 교과서가 아닌 교육 자료로 규정해, 학교 자율 선택 기반으로 활용 여부를 결정해야 한다는 것이다. 검증되지 않은 콘텐츠와 시스템에 대한 불신과 교사의 자율성이 침해당할 수 있다는 우려가 반영된 것으로 풀이된다. 고등학교 교육 및 대학 입시 제도 개혁에 대한 요구도 이어졌다. 학부모 단체는 특수목적을 이행하지 않고 특정 입시에 유리하게 운영하는 특목고 등을 전반적으로 재검토해 고교 서열을 해체해야 한다고 주장했다. 이미 진행 중인 일반고 전환 정책은 일관되게 추진돼야 한다는 목소리도 나왔다. 전국교직원노동조합은 수능 중심의 상대평가가 입시 경쟁과 대학 서열화를 고착화하고 있다며, 수능을 절대평가로 전환하고 대학 입학자격고사 체제 도입을 위한 단계적 준비가 필요하다고 제안했다. 이를 위해 고교 교육 과정과 연계한 평가 체제 개편, 성취 기준 기반의 평가 확립 등을 병행해야 한다고 덧붙였다. 백승아 더불어민주당 의원은 "AI 교과서, 늘봄학교와 같은 정책들은 학교를 혼란에 빠뜨렸고, 7세 고시에 이어 4세 고시까지 등장하게 한 과도한 경쟁 중심의 교육은 아이들의 삶을 불안과 우울로 내몰고 있다"며 "이제는 되감아진 교육의 시간을 다시 앞으로 돌려야 한다"고 말했다. 한편, 교육업계는 공교육 시장의 자율성 확대와 시도교육청 플랫폼 통합을 촉구하고 있다. 시도교육청이 일부 업체에 한정된 디지털 학습 서비스를 공급하기보다는, 학교장 자율로 시중의 다양한 교육 솔루션을 선택할 수 있어야 한다는 주장이다. 업계는 각 시도교육청이 개발한 개별 맞춤형 플랫폼이 기능 중복과 비효율을 초래한다며 통폐합이 필요하다고 강조했다. 현재 서울시교육청의 AI 교수학습 통합 플랫폼(가칭)을 비롯해 충남 '마주온', 경기도 '하이러닝', 충북 '다채움', 경남 '아이톡톡' 등 지역 별로 유사한 플랫폼이 중복 운영되거나 개발이 진행되고 있다. 교육업계 관계자는 "공공 플랫폼이 난립하면서 교사들의 피로감은 커지고, 민간 기술 기업의 시장 진입은 가로 막고 있다"며 "'보여주기식' 플랫폼을 경쟁적으로 개발하기보다 선택과 집중이 필요한 때"라고 말했다. 윤석진 머니투데이방송 MTN 기자</t>
+  </si>
+  <si>
+    <t>교육계가 AI 디지털 교과서의 자율적 활용과 대입 제도 개편을 요구하고, 고등교육 정책 폐기를 촉구하며 교육의 공공성과 국가 책임 강화를 주장하고 있다. 교육업계는 공교육 시장의 자율성 확대와 시도교육청 플랫폼 통합을 촉구하고 있다.</t>
+  </si>
+  <si>
+    <t>[AI는 지금] "100조 쏟는다" 외친 대선 후보들…AI, 이번 선거 '핵심 의제' 됐다 - ZDNet korea</t>
+  </si>
+  <si>
+    <t>ZDNET</t>
+  </si>
+  <si>
+    <t>https://zdnet.co.kr/view/?no=20250509133206</t>
+  </si>
+  <si>
+    <t>[AI는 지금] "100조 쏟는다" 외친 대선 후보들…AI, 이번 선거 '핵심 의제' 됐다 - ZDNet korea ZDNet Korea 뉴스레터 구독신청 구독신청 닫기 ZDNet USA ZDNet China ZDNet Japan English 지디넷 웨비나 뉴스 최신뉴스 방송/통신 컴퓨팅 홈&amp;모바일 인터넷 반도체/디스플레이 카테크 헬스케어 게임 중기&amp;스타트업 유통 금융 과학 디지털경제 취업/HR/교육 인터뷰 인사•부음 글로벌뉴스 창간특집 인공지능 배터리 컨퍼런스 칼럼•연재 포토•영상 [AI는 지금] "100조 쏟는다" 외친 대선 후보들…AI, 이번 선거 '핵심 의제' 됐다 과학기술부터 외교·복지까지 확대된 AI…공약에 각 후보 철학이 갈렸다 컴퓨팅 입력 :2025/05/09 16:02 조이환 기자 기자 페이지 구독 기자의 다른기사 보기 대선을 한 달 앞두고 주요 후보 4명이 각기 다른 인공지능(AI) 비전을 제시해 과학기술이 선거 핵심 의제로 떠오르고 있다. 단순한 기술 투자나 산업 육성 수준을 넘어 거버넌스 구조 개편, 외교 전략, 복지 체계까지 AI에 맞춰 재설계하겠다는 공약이 잇따라 등장하고 있다. 9일 정치권에 따르면 이재명 더불어민주당 후보, 김문수 국민의힘 후보, 이준석 개혁신당 후보, 한덕수 무소속 후보는 각각의 AI 공약을 공개한 상황이다. 후보 대다수가 수백조원 단위의 대규모 재정을 예고하며 의지를 드러냈지만 이를 집행하고 구현하는 방식은 극명하게 엇갈린다. 국가 주도냐 민간 자율이냐는 철학적 접근부터 인프라·데이터·인재 정책까지 후보마다 노선 차가 뚜렷하다. 공통적으로 AI를 미래 국가 경쟁력 핵심으로 지목했지만 정책 추진의 컨트롤타워를 어디에 둘 것인지, 반도체 등 인프라를 누가 조달할 것인지, 그리고 AI 윤리와 규범을 어떻게 다룰 것인지 등에서 서로 다른 해법을 제시한 셈이다. 사실상 'AI 국가전략'에 대한 후보 간 대립 구도가 본격화됐다는 분석이 나온다. 대선을 앞두고 후보들이 각기 다른 AI 공약을 내세우고 있다. (사진=챗GPT) 'GPU냐 오픈소스냐'…이재명·이준석·김문수·한덕수, 대선 AI 공약 '4색 노선' 이재명 더불어민주당 후보는 지난달 페이스북을 통해 AI를 기술국가 전략의 중심축으로 제시하며 국가 주도 대규모 투자 계획을 내놨다. AI 산업에 총 100조원을 투입하고 대통령 직속 '국가인공지능위원회'를 대통령이 직접 위원장으로 맡아 민관을 조율하겠다고 밝혔다. 관료 중심 구조에서 벗어나 기술자·연구자·투자기업이 중심이 되는 실질 기구로 재편한다는 방침이다. 이 후보는 AI 반도체 역량 강화를 목적으로, 최신 그래픽처리장치(GPU) 5만개 확보와 국산 AI 전용 신경망처리장치(NPU) 개발을 약속했다. 이를 통해 미국·중국 등 강대국 대비 기술 종속성을 탈피하겠다는 전략이다. 여기에 AI 데이터 집적 클러스터 조성과 국제공동기금 '글로벌 AI 이니셔티브'를 통해 디지털 인구 10억명 기반의 글로벌 AI 허브로 도약하겠다는 구상도 포함됐다. 인재 측면에서는 지역거점 대학에 AI 단과대학을 신설하고 병역특례 확대와 석박사 인재 육성을 강조했다. 이는 중장기적 기술자립과 지속가능한 인재 수급 기반 마련에 초점을 맞췄다. 또 모든 국민이 무료로 AI를 사용할 수 있는 환경을 조성하겠다며 '한국형 챗GPT'와 AI 기반 공공서비스 도입을 약속했다. 이재명 더불어민주당 대선후보 (사진=대한상의) 김문수 국민의힘 후보 역시 국가가 100조원 규모 AI펀드를 조성해 성장 가능성 높은 유망기업에 투자해야 한다고 밝힌 상황이다. 이 펀드는 AI 유니콘 육성, 반도체·이차전지 등 10대 핵심기술 산업화를 지원하는 데 집중된다. 김 후보는 산업화 속도 제고를 위해 규제개혁 패스트트랙 도입도 공약에 포함시켰다. 과학기술인 연봉 인상과 정년 65세 회복 등 처우 개선책도 병행한다는 입장이다. AI 응용 기술을 기반으로 바이오산업을 차세대 수출 산업으로 키우겠다는 구상도 담겼다. AI 인재 확보는 청년 중심으로 전개된다. 전국 권역별로 AI융합지원센터를 세우고 AI 스타트업 빌리지를 자치단체 단위로 조성할 계획이다. 또 AI 디지털 교과서(AIDT) 확대를 통해 초중등 교육부터 기술역량을 조기에 확보하겠다는 전략이다. 과학기술부총리직 신설도 제시됐다. 연구개발 예산과 조직을 통합관리해 중복투자 방지와 전략적 배분 체계를 구축한다는 복안으로, 과학특임대사 도입, 글로벌 연구네트워크 확대 등 국제공조 채널 확장 역시 동시에 예고됐다. 한덕수 무소속 대선후보(왼쪽)과 김문수 국힘 대선후보(오른쪽)가 악수를 하고 있다. (사진=뉴시스) 한덕수 무소속 후보는 지난 8일 AI 정책을 전담할 'AI혁신전략부' 신설을 핵심으로 내세웠다. 기존 과기정통부, 산업부, 교육부, 개인정보보호위원회 등으로 흩어진 기능을 한데 모아 독립부처로 운영하겠다는 구상이다. 한 후보에 따르면 AI혁신전략부는 기획재정부와 동등한 예산권을 갖고 장관은 부총리급으로 임명된다. 기재부는 AI 연구개발(R&amp;D)에 대해 총액만 설정하고 실제 배분은 전략부가 맡는 구조로 예산 집행의 신속성과 효율성을 꾀한다. 그는 국가과학기술자문회의를 '국가과학기술데이터위원회'로 확대 개편하고 정책연구소와 전략원 등 국책기관 역량을 강화하겠다고 밝혔다. 동시에 반도체 장비 50만 장 확보를 포함한 연산 인프라 확충에도 나선다. 우수 인재에게는 특별 아파트 공급, 외국인 비자 특례, 병역 대체복무 등 파격적인 혜택도 제공한다는 계획이다. 클라우드 전환, AI 행정자동화, 부처 간 데이터 전면 개방 등 정부 시스템 디지털 전환 역시 주요 공약이다. 이준석 개혁신당 후보는 기술 중심 접근의 한계를 지적하며 민간 중심 구조 개혁을 AI 전략의 출발점으로 삼았다. 최근 여야 양측에서 제안되는 AI 전담 부처 신설과는 달리 그는 교육부와 과기정통부를 아우르는 '전략 부총리직' 신설을 주장하며 정책 조율 능력을 핵심 과제로 내세웠다. 이준석 개혁신당 대선후보가 지난 7일 지디넷코리아와 만나 인터뷰를 하고 있는 모습 (사진=지디넷코리아 DB) 이 후보의 시각은 인프라 접근에서도 다르다. 다수 후보가 GPU 확보를 강조한 것과 달리 그는 AI 비용이 향후 급격히 낮아질 것으로 보고 물리 인프라는 민간이 충분히 감당 가능하다고 판단했다. 국가는 오히려 구조적으로 우수한 오픈소스 모델 설계에만 선별적으로 개입해야 한다는 입장이다. 공공데이터의 전면 공개와 학습 데이터 라이선스 체계도 강조했다. 판결문 등 민감한 정보도 충분한 익명화를 거치면 활용 가능하다는 입장으로, 공정 이용 원칙 하에 데이터 독점과 무단 이용을 동시에 방지하겠다고 밝혔다. AI 교육 개혁 역시 공약 핵심이다. AIDT 도입 필요성은 인정하되 완성도가 우선이라는 태도를 보였다. 기술적 안정성과 시스템 호환성 확보 이후에 전국 확산을 도모해야 한다는 실용주의 입장을 고수한 것이다. 외교 분야에서는 기술인재의 직접 외교 참여를 제안했다. 전략부총리 산하 AI 국제 대응 전담조직을 설치해 규범 주도권 확보에 나서겠다는 방침이다. 기존 외교조직의 기술 이해 부족을 보완하려는 구조 개혁 구상이다. AI '100조' 공약에 업계는 환영, 전문가들은 우려…예산만큼 거버넌스가 관건 이번 대선에서 쏟아진 대다수 후보의 100조원 단위 AI 투자 공약에 대해 일각에선 실현 가능성을 놓고 의문을 제기하고 있다. 이재명, 김문수 후보뿐 아니라 경선에서 탈락한 한동훈 전 후보도 최대 200조원 규모 투자를 언급한 바 있어 사실상 여야를 가리지 않고 대형 재정 공약이 제시된 상황이다. '100조원'이라는 숫자는 AI 정책 논의에서 낯선 규모는 아니다. 그간 학계와 업계 일부 전문가들 사이에서는 한국이 AI 주도권을 갖기 위해서는 이 정도 투자가 필요하다는 견해가 제기돼 왔다. 다만 이를 일괄적으로 예산화하는 것은 전혀 다른 문제라는 지적이 따른다. 이준석 후보는 지난달 안철수 후보와의 토론회에서 해당 문제를 직접 겨냥하기도 했다. 그는 한 기자의 질의에 "100조, 200조 단위로 투자하겠다는 건 정책 형성이 아니다"며 "정책은 여기 얼마, 저기 얼마 식으로 세부 조정을 거쳐야 하는 것"이라고 말했다. 안철수 국민의힘 의원(왼쪽)과 이준석 개혁신당 후보(오른쪽)가 국가 AI 및 반도체 정책에 대해 토론을 하고 있다. (사진=지디넷코리아 DB) 업계에서는 공약들의 구체성보다 '의지'에 방점을 두고 대체로 환영하는 분위기다. 한 업계 관계자는 "최근 몇년간 연구개발(R&amp;D) 예산이 삭감돼 우려가 컸던 상황"이라며 "어떤 형태로든 대규모 재정이 다시 기술로 유입된다는 것 자체만으로도 긍정적"이라고 말했다. 관련기사 '대권 도전' 이준석 "AI 정책 일관성 위한 '전략 부총리' 필요" 2025.05.07 국민의힘 대선 후보 2인에 김문수·한동훈...안철수·홍준표 탈락 2025.04.29 "AI 앞에서만큼은 정책 단일화"…이준석·안철수, 기술패권 해법 '한목소리' 2025.04.25 국힘 대선후보 4인 압축...김문수·안철수·한동훈·홍준표 2025.04.22 특히 지난 정부에서 R&amp;D 예산을 대폭 줄인 바 있어 이번 후보들의 공약이 방향 자체로는 맞는다는 평도 있다. 다만 자금 배분 기준이나 예산 집행의 속도, 기술 선정의 공정성 확보가 동반되지 않으면 공약은 의미 없다는 비판도 병존한다. 한 AI 업계 관계자는 "이번 대선 후보들이 약속한 액수를 통해서 글로벌 AI 경쟁을 따라잡을 수 있다는 점은 긍정적"이라면서도 "예산의 배분 권한을 누가 갖고 어떤 구조로 정책을 설계하느냐의 방향으로 발전해 실행력 있는 거버넌스 체계가 돼야 지속성이 확보될 것"이라고 밝혔다. 조이환 기자 ianyhcho@zdnet.co.kr 기자의 다른 기사 보기 인공지능 AI 대통령 선거 이재명 더불어민주당 더민주 김문수 국민의힘 국힘 이준석 개혁신당 한동훈 라이브리 댓글 작성을 위해 javascript를 활성화해 주세요 지금 뜨는 기사 이시각 헤드라인 "국가 AI 앞서 클라우드 생태계 활성화부터"…공공사업 재건·인력 양성 시급 위믹스 재상폐 효력 정지 가처분 신청...3대 쟁점은 백종원 더본코리아 사과·상생 약속 통할까 [단독] SK C&amp;C, 27년 만에 사명 바꾼다…'SK AX'로 확정 ZDNet Power Center Connect with us © 2020 ZDNET, A RED VENTURES COMPANY. ALL RIGHTS RESERVED. Global family site &gt;&gt; CNET.com | ZDNet.com ZDNet Korea Newsletter 구독 신청 구독신청 회사소개 광고문의 DB마케팅문의 제휴문의 개인정보처리방침 이용약관 청소년 보호정책 회사명 : (주)메가뉴스 제호 : 지디넷코리아 등록번호 : 서울아00665 등록연월일 : 2008년 9월 23일 사업자 등록번호 : 220-87-44355 주소 : 서울시 마포구 양화로111 지은빌딩 3층 대표전화 : (02)330-0100 발행인 : 김경묵 편집국장 : 김태진 개인정보보호 책임자·청소년보호책임자 : 김익현</t>
+  </si>
+  <si>
+    <t>대선 후보들이 AI를 핵심 의제로 삼아 각자의 AI 정책을 공개하고 있으며, AI를 국가 경쟁력 핵심으로 지목하고 있으나 정책 추진 방향에서 차이를 보이고 있음. 후보들은 AI를 활용한 국가 전략을 제시하고 있으며, AI 관련 인프라 구축과 인재 육성을 중요시하고 있음.</t>
+  </si>
+  <si>
+    <t>윌비스 주가 쑥쑥...AI 학습 서비스 ‘서치클립 AI’ 전격 출시 부각 &lt; 증권·IB &lt; 금융·증권 &lt; 기사본문 - 핀포인트뉴스</t>
+  </si>
+  <si>
+    <t>핀포인트</t>
+  </si>
+  <si>
+    <t>https://www.pinpointnews.co.kr/news/articleView.html?idxno=343066</t>
+  </si>
+  <si>
+    <t>네이버 증권. 온라인 교육 전문 기업 윌비스 주가가 크게 오르고 있다. 12일 한국거래소에 따르면 이날 오전 9시 19분 현재 15.34% 올라 812원에 거래되고 있다. 주가는 박스권에서 벗어나려 하고 있다. 윌비스가 인공지능(AI) 기술을 접목한 새로운 학습 서비스 ‘서치클립 AI’를 출시하며 에듀테크 시장에 본격 뛰어 들면서 실적개선 기대감이 주가를 끌어 올리고 있는 것으로 보인다. 기존 교육 콘텐츠와 AI 기술의 융합을 통해 학습 효율성을 극대화하고, 사용자 맞춤형 학습 경험을 제공한다는 계획이다. 서치클립 AI는 방대한 양의 학습 자료를 AI가 분석하고, 사용자의 학습 수준과 필요에 따라 최적의 정보를 빠르게 검색하여 제공하는 것이 특징이다. 기존의 키워드 기반 검색 방식에서 벗어나, 질문의 맥락과 의미를 정확하게 이해하는 AI 알고리즘을 통해 더욱 정교하고 관련성 높은 검색 결과를 제공한다. 서치클립 AI는 단순히 정보를 나열하는 것을 넘어, 검색된 여러 자료들을 종합적으로 분석하여 핵심 내용을 요약하거나, 사용자의 이해를 돕기 위한 추가 설명 및 연관 개념까지 제시한다. 이는 학습자가 필요한 정보를 얻기 위해 여러 자료를 찾아보고 분석하는 데 소요되는 시간을 획기적으로 줄여주고, 학습 집중도를 높이는 데 기여할 것으로 기대된다. 윌비스는 서치클립 AI에 사용자 맞춤형 학습 기능을 강화할 예정이다. 사용자의 학습 이력, 검색 패턴, 이해도 등을 AI가 지속적으로 분석해 개인별 학습 성향에 최적화된 검색 결과와 학습 콘텐츠를 제공할 계획이다. 예를  들어, 특정 개념에 대한 이해도가 낮은 사용자에게는 관련 기초 자료를 먼저 제시하거나, 다양한 각도에서 설명하는 자료를 우선적으로 보여주는 방식이다. 업계 관계자는 “서치클립 AI는 단순한 정보 검색 도구를 넘어, 개인별 맞춤형 학습을 지원하는 강력한 AI 튜터 역할을 수행할 것”이라며, “끊임없는 기술 개발과 데이터 축적을 통해 학습 효과를 극대화하고, 사용자 중심의 학습 환경을 만들어나갈 것”이라고 밝혔다. 이번 서치클립 AI 출시를 통해 윌비스는 빠르게 변화하는 교육 시장에서 기술 혁신을 선도하는 기업으로 자리매김할 것으로 보인다. AI 기반의 맞춤형 학습 서비스는 학습자들에게 더욱 효과적이고 효율적인 학습 경험을 제공하며, 온라인 교육 시장의 새로운 패러다임을 제시할 것으로 전망된다. 최소연 기자 ch0309@thekpm.com 다른기사 보기 저작권자 © 핀포인트뉴스 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>윌비스 주가가 상승하며 AI를 활용한 새로운 학습 서비스 '서치클립 AI'를 출시하고, 사용자 맞춤형 학습 경험을 제공하는데 초점을 맞추고 있다. AI를 활용한 맞춤형 학습 서비스는 온라인 교육 시장에서 새로운 트렌드로 자리매김할 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>EBSi, 6월 모의평가 대비 ‘온라인 모의고사’ 무료 오픈 &lt; 교육계소식 &lt; 교육정보 &lt; 기사본문 - E동아</t>
+  </si>
+  <si>
+    <t>https://edu.donga.com/news/articleView.html?idxno=87323</t>
+  </si>
+  <si>
+    <t>EBS는 2026학년도 6월 모의평가를 앞둔 수험생들의 실전 감각 강화를 위해, 5월 12일(월)부터 &lt;온라인 모의고사 서비스&gt;를 EBSi 사이트와 EBSi 모바일 앱을 통해 무료 제공한다. 이번 온라인 모의고사는 ‘2026 FINAL 실전모의고사’ 시리즈에서 선제된 100% 신규 문항으로 구성되었으며, 실제 수능과 동일한 난도와 체제를 반영해 국어(40분), 수학(50분), 영어(30분)으로 운영된다. 특히, 시간 제한과 자동 채점 기능을 통해 실제 수능처럼 훈련할 수 있으며, 전 문항 해설강의와 AI 기반 유사난이도 문항 추천 기능을 통해 자기주도 학습 효과를 극대화할 수 있다. EBSi에서는 이번 FINAL 실전모의고사를 시작으로, △평가원 감수 실전모의고사 수능완성 △만점마무리 봉투모의고사 시즌1·2 △만점마무리 봉투모의고사 고난도 Hyper △수능 직전보강 클리어 봉투모의고사 등 수능 직전까지 이어지는 실전 훈련 풀라인업을 순차 제공할 예정이며, 수험생을 위한 다양한 이벤트도 함께 진행될 계획이다. 한편, 9월 모의평가 대비 ‘2회차 온라인 모의고사’는 연계교재 및 기출 우수문항을 기반으로 한 &lt;버티컬 모의고사&gt;에서 선제되며, 오는 8월 6일부터 EBSi 웹사이트와 모바일 앱을 통해 무료로 만나볼 수 있다. EBS의 &lt;온라인 모의고사 서비스&gt; 관련 자세한 내용은 EBSi 사이트와 EBSi 모바일 앱을 통해 확인할 수 있다. 저작권자 © E동아 무단전재 및 재배포 금지 김수진 기자 genie87@donga.com 다른기사 보기</t>
+  </si>
+  <si>
+    <t>EBS가 2026학년도 6월 모의평가를 대비하여 온라인 모의고사 서비스를 무료로 제공한다. 이를 통해 수험생들은 실전 감각을 강화하고 자기주도 학습을 할 수 있으며, 다양한 실전 훈련이 제공될 예정이다.</t>
+  </si>
+  <si>
+    <t>[이미루의 트렌드 세일즈] 기업강의 시장의 지각변동: 대형 인터넷 교육기업의 약진 &lt; 칼럼 &lt; 기사본문 - 한국강사신문</t>
+  </si>
+  <si>
+    <t>한국강사신문</t>
+  </si>
+  <si>
+    <t>https://www.lecturernews.com/news/articleView.html?idxno=177846</t>
+  </si>
+  <si>
+    <t>[사진출저=직접그림] [한국강사신문 이미루 칼럼니스트] 지난 칼럼에서 '경비의 시대'와 함께 기업교육 시장이 근본적인 변화를 맞이하고 있음을 살펴보았다. 교육 방식의 온오프 믹스와 초개인화로 기업교육의 패러다임이 바뀌고 있는 가운데, 교육 서비스 제공자 측면에서도 주목할 만한 시장 재편이 일어나고 있다. 특히 기존 인터넷 강의 플랫폼의 기업교육 시장 진출이 활발해지면서, 전통적인 기업교육 생태계에 큰 변화의 바람이 불고 있다. 새로운 강자의 등장: 인터넷 강의 기업의 기업교육 시장 진입 2025년 현재, 기업강의 시장의 가장 큰 변화는 과거 수능, 토익, 자격증 등 B2C 중심으로 성장해온 인터넷 강의 기업들의 대거 유입이다. 이들 기업은 기존에 쌓아온 브랜드 인지도와 온라인 플랫폼 운영 노하우를 무기로 기업교육 시장에서 빠르게 입지를 넓혀가고 있다. 국내 기업교육 시장 점유율을 살펴보면, 2023년 이들 신규 진입 기업의 시장 점유율은 18%에 불과했으나, 2025년 1분기에는 32%까지 상승했다. 대표적인 성공 사례는 휴넷이다. 원래 인터넷 강의 플랫폼으로 출발한 휴넷은 기업교육 시장에 집중 투자하며 2024년 기업교육 부문 매출 1,650억 원을 달성, 전년 대비 37% 성장하는 놀라운 실적을 기록했다. 에듀윌, KG에듀윈, 메가스터디 등 영어나 자격증 강의로 유명했던 기업들도 앞다투어 기업교육 시장에 진출, 그들의 영향력을 확대하고 있다. 이 같은 현상은 결코 우연이 아니다. 저출산으로 인한 학령인구 감소가 교육 시장 전반에 구조적 변화를 가져왔기 때문이다. 교육통계서비스에 따르면, 수능 응시자 수는 2018년 59만 명에서 2025년 42만 명으로 약 29% 감소했다. 이에 따라 수능, 외국어, 자격증 등 B2C 중심의 교육 시장이 축소되면서, 이들 기업은 새로운 성장 동력으로 기업교육 시장에 주목하게 된 것이다. 대형 교육기업의 경쟁 우위: 원스톱 솔루션과 규모의 경제 이들 대형 교육기업이 기업교육 시장에서 빠르게 성장할 수 있었던 비결은 무엇일까? 첫째, 이들은 다양한 분야의 콘텐츠를 보유하고 있어 기업에 '원스톱 교육 솔루션'을 제공할 수 있다. 예를 들어, KG에듀윈은 리더십, 직무교육, 어학, 자격증 등 300개 이상의 과정을 패키지로 제안하며 기업의 다양한 교육 니즈를 한 번에 해결해준다. 둘째, 이미 구축된 온라인 플랫폼과 콘텐츠 제작 인프라를 활용해 비용 효율적으로 기업 맞춤형 교육을 제공할 수 있다. 메가스터디는 자체 보유한 스튜디오와 콘텐츠 제작 인력을 활용해 기업 맞춤형 VOD를 기존 업체 대비 40% 저렴한 가격에 공급하고 있다. 셋째, 데이터 기반 학습 관리 시스템을 통해 교육 효과를 정량적으로 측정하고 개선할 수 있다는 점도 큰 장점이다. 에듀윌의 'AI 러닝 매니저'는 직원들의 학습 진도, 이해도, 만족도를 실시간으로 분석하여 기업 인사담당자에게 리포트를 제공한다. 이는 교육 투자 대비 효과를 중시하는 '경비의 시대' 기업들의 니즈와 정확히 맞아떨어진다. 특히 주목할 만한 것은 이들 기업의 가격 경쟁력이다. 규모의 경제를 바탕으로 한 이들의 공격적인 가격 정책은 기존 기업교육 시장의 가격 구조 자체를 뒤흔들고 있다. 한 중견기업 인사담당자의 말을 빌리자면, "과거에는 1인당 교육비가 25만 원 선이었는데, 대형 온라인 교육기업의 패키지를 활용하니 1인당 교육비를 10만 원 이하로 낮출 수 있었다"고 한다. 1인 기업 강사들의 위기와 새로운 생존 전략 이러한 시장 변화는 기존 기업교육 시장의 중요한 축이었던 1인 기업 강사들에게 큰 위기로 다가왔다. 과거 기업교육은 특정 분야에 전문성을 갖춘 개인 강사들이 주도했으나, 최근에는 이들의 입지가 크게 좁아지고 있다. 2025년 1분기 기준, 전체 기업교육 수주 중 1인 기업 강사의 비중은 28%로, 2023년(41%)에 비해 13%p 감소했다. 가장 큰 이유는 1~2가지 강의 종류만 제안할 수 있는 1인 강사로는 기업의 다양한 교육 니즈를 충족하기 어렵다는 점이다. 기업들은 교육 계약을 단순화하고 관리 비용을 절감하기 위해 다양한 교육을 패키지로 제공하는 대형 교육기업을 선호하는 경향이 뚜렷해졌다. 하지만 위기 속에서도 새로운 돌파구를 찾는 움직임이 나타나고 있다. 첫째, 1인 기업 강사들의 연합 형태가 늘어나고 있다. 리더십, CS, 마케팅 등 각기 다른 분야의 전문 강사들이 '교육 컨소시엄'을 구성해 공동으로 기업 수주에 나서는 것이다. 예를 들어, '마스터 교육 얼라이언스'는 7명의 전문 강사가 모여 리더십, 소통, 혁신, 마케팅, 디지털 전환 등 다양한 분야의 교육을 패키지로 제안하여 2024년 38개 기업과 계약을 체결했다. 둘째, 대형 교육기업과의 협업 모델이다. 에듀윌, 휴넷 등 기업교육 시장에서 급성장하는 회사에 소속되어 안정적인 강의 물량을 확보하는 전략이다. 물론 이 경우 30~40%에 달하는 높은 수수료를 납부해야 하지만, 수주에 대한 부담은 크게 줄일 수 있다. 2025년 현재, 국내 주요 1인 기업 강사의 약 32%가 이러한 협업 모델을 선택한 것으로 조사되었다. 셋째, 초전문화 전략이다. 점점 더 세분화되고 전문화되는 기업교육 시장에서 특정 틈새 영역에 깊은 전문성을 갖추는 것이다. 예를 들어, '디지털 트랜스포메이션 리더십'이나 'AI 윤리 경영' 같은 최신 주제에 특화된 1인 강사들은 오히려 시장에서의 입지를 강화하고 있다. 이들은 대형 교육기업도 아직 충분히 커버하지 못하는 영역을 공략하여 고부가가치 시장을 확보하고 있다. 미래 전망: 양극화와 협업의 시대 기업교육 시장의 이러한 변화는 앞으로도 가속화될 것으로 보인다. 향후 2~3년간 시장은 두 가지 큰 흐름으로 재편될 것으로 전망된다. 첫째, 양극화가 심화될 것이다. 한쪽에는 대형 교육기업들이 규모의 경제와 디지털 역량을 바탕으로 시장의 주류를 형성할 것이고, 다른 한쪽에는 특정 분야에 깊은 전문성을 갖춘 부티크형 교육 서비스가 틈새시장을 차지할 것이다. 반면, 중간에 위치한 중소 교육업체나 뚜렷한 차별점 없는 1인 강사들은 점차 설 자리를 잃게 될 가능성이 높다. 둘째, 경쟁보다는 협업의 생태계가 형성될 것이다. 대형 교육기업은 플랫폼과 마케팅 역량을, 전문 강사는 콘텐츠와 현장 경험을 제공하는 방식의 협업 모델이 확산될 것이다. 이미 휴넷은 '프리미엄 강사 파트너십' 프로그램을 통해 100여 명의 전문 강사를 확보하고, 이들에게 기술 지원과 마케팅 지원을 제공하며 상생 모델을 구축하고 있다. 기업교육 시장의 이러한 변화는 단순한 공급자의 교체가 아닌, 교육의 본질과 가치 전달 방식의 근본적 변화를 의미한다. 결국 중요한 것은 변화하는 환경에 얼마나 민첩하게 적응하고, 자신만의 고유한 가치를 창출할 수 있는가 하는 점이다. 스티브 잡스가 말했듯이, "혁신이란 변화를 두려워하지 않는 것이다." 빠르게 변화하는 기업교육 시장에서 살아남기 위해서는 모든 교육 서비스 제공자들이 이 말을 가슴에 새겨야 할 때다. 칼럼니스트 프로필 이미루 칼럼니스트는 8년 경력의 B2B영업 전문가이다. 현재는 기업 대상으로 트렌드세일즈, 상품트렌드, 영업기술향상, 협상, 영업전략과 영업&amp;마케팅 강의를 하고 있다. 기업들이 직면한 도전과 고충을 목격했고, 기업 운영과 실물 소비 트렌드의 괴리를 알고 있는 칼럼니스트는 세련된 세일즈 감각과 파격적인 영업전략으로 주목 받고 있다. 강의 분야는 트렌드세일즈, B2B영업, SNS마케팅, 협상, BtoB영업전략, 생성형AI 비즈니스 과정이 있다. 저서로는 경제경영, 셀프리더십 주제의 『회사를 퇴사하고 갓생에 입사했습니다(2023)』가 있다. B2B 영업 현장에서 보낸 8년간의 경험과 시장중심의 트렌디한 감각으로, 고객과의 파트너십 구축, 체계적인 고객 니즈 파악, 협상 능력 활용, 차별화된 가치 제안 등, 기업의 지속 가능한 성장을 돕고자 ‘이미루의 트렌드 세일즈’라는 칼럼을 연재 중이다. 관련기사 이미루 강사의 "POD 책쓰기 작가 클래스" 특별 과정 런칭 이미루 강사의 "생성형 AI로 CF영상 만들기" 강의 성료 주요 기사 [오늘의 강사] 한국강사에이전시, 창업교육 분야 박지희 강사를 소개합니다 [주간강사] 한국강사에이전시가 송수연, 석세희, 최병철, 이서연 강사를 소개합니다. [월간강사(5월)] 한국강사에이전시, 조민기 강사의 “인문 역사” 강의를 소개합니다 [월간강사(4월)] 한국강사에이전시, 김나리 강사의 “관계 케미스트리” 강의를 소개합니다. 한국강사신문 선정 ‘2025 명강사 &amp; 2025 우수 교육기관’ 시상식 개최 한국강사에이전시와 함께 하는 슬기로운 강사 생활 키워드 #B2B영업강사 #기업교육강사 #SNS마케팅강사 #이미루강사 이미루 칼럼니스트 jslee087@naver.com 다른기사 보기 저작권자 © 한국강사신문 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>2025년 현재, 기업교육 시장에서 인터넷 강의 기업들이 빠르게 성장하고 있으며, 대형 교육기업들은 원스톱 솔루션과 규모의 경제를 바탕으로 경쟁 우위를 확보하고 있다. 이로 인해 1인 기업 강사들은 위기에 처해 있지만, 연합 형태나 협업 모델을 통해 새로운 돌파구를 모색하고 있다. 미래에는 양극화와 협업의 시대가 도래할 것으로 전망된다.</t>
+  </si>
+  <si>
+    <t>윤석금 웅진 회장, 프리드라이프 인수로 명예회복 도전할까 - 강유진 기자 - 톱스타뉴스 - 경제/핫토픽</t>
+  </si>
+  <si>
+    <t>탑스타뉴스</t>
+  </si>
+  <si>
+    <t>https://www.topstarnews.net/news/articleView.html?idxno=15662370</t>
+  </si>
+  <si>
+    <t>(톱스타뉴스 강유진 기자) 웅진그룹 윤석금 회장이 여든 나이에 다시 한번 대형 인수합병(M&amp;A)에 나섰다. M&amp;A 무대에서 주목받아온 윤 회장이지만 그만큼 짙은 실패의 그림자도 'M&amp;A잔혹사'라는 말을 만들어냈다. 그는 국내 상조업계 1위 프리드라이프를 8830억원에 인수하며 명예 회복을 노리고 있다. 출처: 웅진 웅진그룹은 2022년 매출 1조원을 돌파했지만, 매출의 60~70%를 차지하는 핵심 계열사 '웅진씽크빅'의 실적은 내리막이다. 연결 기준 매출은 2022년 9332억원에서 지난해 8671억원으로 감소했고, 영업이익은 275억원에서 92억원으로 줄었다. 당기순이익은 31억원 흑자에서 198억원 적자로 돌아섰다. 웅진씽크빅은 저출산과 학령인구 감소의 타격을 고스란히 받고 있다. 웅진은 이 같은 구조를 감안해 성인교육 시장에 진출하는 등 돌파구를 모색했지만, 교육과 출판 중심의 사업 모델에는 한계가 있었다. 그래서 눈을 돌린 분야가 상조시장이다. 웅진은 대규모 인수자금 조달 우려 속에서도 지난달 29일 사모펀드 운용사 VIG파트너스와 프리드라이프 지분 99.77%를 8830억원에 인수하는 계약을 체결했다. 시장은 엇갈린 반응을 보였다. 특히 지급보증에 동원된 웅진씽크빅의 소액주주들이 계약 다음 날 시위에 나서는 등 반발도 이어졌다. 이러한 반응은 윤 회장의 과거 M&amp;A 이력과 무관하지 않다는 분석이다. 2007년 극동건설을 시장 예상가의 두 배인 6600억원에 인수했지만, 이듬해 미국발 금융위기가 촉발한 건설경기 침체로 큰 타격을 입었다. 경영난에 빠진 극동건설을 살리려 무리한 자금 수혈을 이어갔고, 결국 2012년 극동건설과 지주회사 웅진홀딩스가 동반 기업회생절차(법정관리)에 들어가면서 그룹 전체가 흔들렸다. 이 과정에서 웅진코웨이·웅진케미칼·웅진식품 등 핵심 계열사까지 잃었다. 법정관리 졸업 4년 뒤인 2018년 10월, 윤 회장은 다시 언론의 조명을 받았다. "자식 같다"고 표현했던 코웨이를 그룹에 재편입하겠다고 공식 발표한 것이다. 그는 "나같이 가난하고 어려움을 겪어도 다시 할 수 있다는 희망의 메시지를 주겠다. 기필코 성공할 것"이라고 했지만, 결국 코웨이를 재차 매각하는 상황에 직면했다. 이런 전례 탓에 프리드라이프 인수를 두고 과거 실책이 반복될 수 있다는 우려가 제기된다. 특히 자금 인수의 대부분을 차입에 의존하고 있다는 점이 지적된다. 웅진은 6000억원 규모의 인수금융을 조달할 계획이며, 지난달 10일에는 DB증권, 우리금융캐피탈 등을 통해 연 5.8% 금리의 1000억원 규모 영구채를 발행했다. 웅진의 지난해 연결 기준 부채비율은 414%로 재무 건전성이 취약한 수준이며, 이자 비용도 2022년 209억원에서 지난해 243억원으로 증가해 부담은 더욱 커질 수밖에 없다. 웅진은 '과거와는 다르다'는 입장이다. 웅진 관계자는 "인수자금 조달은 회사의 재무구조를 악화하지 않고, 시장에 부담을 주지 않으며 무엇보다 주주 가치가 하락하지 않는 것을 우선했다"고 설명했다. 한 투자업계 관계자에 따르면, 윤 회장은 기존 계열사와의 시너지를 염두에 두고 상조 상품이나 사업 모델 구상 등에 신경 쓰고 있다는 후문이다. 웅진은 인수 계약을 체결한 다음 날인 지난달 30일 웅진의 주가는 상한가를 기록하기도 했다. 강유진 기자 reporter@topstarnews.co.kr 추천 8 키워드 #웅진 기사제보 반론신청 &lt;저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&gt; 2025/05/11 12:06송고 | reporter@topstarnews.co.kr</t>
+  </si>
+  <si>
+    <t>웅진그룹 윤석금 회장이 대형 인수합병(M&amp;A)으로 프리드라이프를 인수하며 회사의 성장을 모색하고 있지만, 지난해 핵심 계열사인 '웅진씽크빅'의 실적이 하락하고 있어 부담이 크다. 이에 대규모 인수자금을 조달하고 있는데, 이에 대한 우려가 제기되고 있다.</t>
+  </si>
+  <si>
+    <t>“고교학점제, 교육부 손 놓고 학교만 고통”.. 교육단체들 성토 &lt; 교육정책 &lt; 뉴스 &lt; 기사본문 - 에듀프레스(edupress)</t>
+  </si>
+  <si>
+    <t>에듀프레스</t>
+  </si>
+  <si>
+    <t>https://www.edupress.kr/news/articleView.html?idxno=20683</t>
+  </si>
+  <si>
+    <t>고교학점제 연수 모습 [에듀프레스 장재훈 기자] 교육단체들이 고교학점제의 실질적 정착을 위해 교육부의 각성과 지원 확대를 촉구하고 나섰다. 현장 부담은 커지는 반면, 교육 당국의 준비와 대응은 부실하다는 지적이다. 교육정책디자인연구소, 좋은교사운동, 사교육걱정없는세상, 참교육을위한전국학부모회, 전북중등수석교사회 등 교육단체 5곳은 12일 공동 성명을 내고 “교육부의 무책임한 행정이 고교학점제의 취지를 훼손하고 있다”며 강도 높게 비판했다. 이들은 “고교학점제는 단순한 제도가 아닌, 학생 개개인의 진로와 적성에 맞춘 맞춤형 교육체제”라며 “도입 8년 차에도 여전히 현장의 희생만을 강요받고 있다”고 주장했다. 고교학점제는 2025년 전면 시행을 앞두고 있다. 그러나 핵심 기반인 ‘성취평가제’는 여전히 상대평가 체제에 발목이 잡혀 있고, 학생 선택권 확대의 취지는 대학입시 체계와 충돌하고 있다는 지적이다. 성명에 따르면, 2022년부터 도입된 ‘최소성취수준 보장지도’는 학업성취가 낮은 학생을 위한 보충지도를 의무화하면서 현장의 부담을 크게 늘렸다. 단체들은 “교육부가 AI 디지털 교과서 개발 등 현실과 동떨어진 정책에 막대한 예산을 쏟아붓는 동안, 정작 필요한 교원 확보와 연수, 프로그램 개발 등은 방치했다”고 비판했다. 대입제도 개편에 대한 문제도 언급됐다. 이들은 “2028 대입개편안은 성취도와 상대평가를 병기하겠다는 이중적 방식으로 고교학점제의 본질과 충돌한다”며 “모든 내신 과목과 수능을 절대평가로 전환해야 한다”고 주장했다. 그러면서 교육부의 파행적인 행태는 고교학점제 도입 초반부터 제기돼 온 현장의 어려움을 악화시켰고, 고교학점제의 취지에 공감하면서도 현실적 문제 상황을 염려하던 일부 교원단체의 폐지론 주장까지 유발하는 상황을 자초했다고 개탄했다. 교사의 업무 과중도 지적했다. “고교학점제 시행으로 교원의 업무 부담이 극도로 가중되고 있음에도 불구하고, 교육부의 실질적인 경감 노력은 전무했다”면서 “ 담당자의 수업 시수를 대폭 줄여 업무에 집중할 수 있는 환경을 제공하라”고 촉구했다. 이어 "출결 및 성적 처리 등 행정 업무 부담을 줄일 수 있는 시스템 개선 및 교사와의 적극적인 소통과 협력이 반드시 단행돼야 한다"고 강조했다. 학생과 학부모에 대한 정보 제공과 상담 시스템 구축도 요구됐다. 단체들은 “코디네이터를 학교에 배치해 전문적 상담을 제공해야 한다”며 “이는 더 이상 미룰 수 없는 필수조건”이라고 목소리를 높였다. 이들은 또 “고교학점제는 학생의 성장을 위한 책임교육 체제”라며 “교육부는 지금이라도 현장의 목소리에 귀 기울이고, 고교학점제의 취지가 훼손되지 않도록 제도 전반을 재점검해야 한다”고 밝혔다. SNS 기사보내기 기사스크랩하기 다른 공유 찾기 장재훈 기자 edupress21@naver.com 저작권자 © 에듀프레스(edupress) 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>고교학점제의 실질적 정착을 위해 교육부의 지원 확대를 촉구하는 교육단체들이 부실한 교육 당국 대응을 비판하고, 고교학점제 도입으로 인한 교원의 업무 부담과 현장의 어려움을 지적하며, 교육부에 제도 전반을 재점검할 것을 촉구하고 있다.</t>
+  </si>
+  <si>
+    <t>이재명·김문수 1호 공약은 '경제'… 이준석은 '부처 개편' 전면에 | 한국일보</t>
+  </si>
+  <si>
+    <t>한국일보</t>
+  </si>
+  <si>
+    <t>https://www.hankookilbo.com/News/Read/A2025051210530005403?did=NA</t>
+  </si>
+  <si>
+    <t>이재명·김문수 1호 공약은 '경제'… 이준석은 '부처 개편' 전면에 | 한국일보 읽는 재미의 발견 새로워진 한국일보 로그인/회원가입 관심과 취향에 맞게 내맘대로 메인 뉴스 설정 구독한 콘텐츠는 마이페이지에서 한번에 모아보기 속보, 단독은 물론 관심기사와 활동내역까지 알림 자세히보기 닫기 한국일보 정치 정치 경제 사회 국제 문화 연예 스포츠 사람 라이프 오피니언 구독 + 정치 국회/정당 대통령실 외교 국방/북한 정치일반 경제 경제정책 산업 금융/증권 부동산 IT/과학 경제일반 사회 사건/사고 법원/경찰 교육 노동 보건/복지 날씨/환경 사회일반 국제 아시아/호주 미국/중남미 유럽 중동/아프리카 글로벌 이슈 국제일반 문화 책 공연/전시 문화일반 연예 연예일반 영화 방송 음악 실시간 연예 포토 뉴스 스포츠 야구 축구 농구 배구 해외스포츠 골프 바둑 스포츠일반 사람 인터뷰 인사/동정 부고 사람일반 라이프 음식 여행 건강 블론디 백운산 오늘의 운세 라이프일반 지역 수도권 대전/충청/강원 대구/경북 부산/경남 광주/전라/제주 오피니언 사설 칼럼 만평 사고알림 포커스 취재 기획/연재 인터랙티브 뉴잼 동물 영상 구독 + 뉴스레터 버티컬 커리업 터치유 주제판 공지 회사소개 광고안내 사업제휴 저작물구매안내 사진 검색 &amp; 구매 멤버십 혜택 이벤트 고객센터 지면보기 제보 구독안내 이재명·김문수 1호 공약은 '경제'… 이준석은 '부처 개편' 전면에 검색하기 알람 메뉴 열기 알림 알림설정 내 알림 더보기 알림설정 웹 알림 동의 (크롬브라우저만 가능) 구독 업데이트 및 주요 알림 확인 알림 알림이 없습니다 LIVE ISSUE 제21대 대통령 선거 이재명·김문수 1호 공약은 '경제'… 이준석은 '부처 개편' 전면에 박세인 기자 입력 2025.05.12 11:20 수정 2025.05.12 17:15 좋아요 0 0 0 댓글달기 0 &lt;주요 정당 후보 대선 공약 살펴보니&gt; 이재명 'AI·콘텐츠·방산'으로 경제 성장 '내란극복' 위한 국방 문민화·검찰개혁 임기 내 '국회 세종의사당·대통령 집무실' 김문수 'AI·에너지 3대 강국' 원전 부활 선관위 감사·공수처 폐지·국정원 대공수사 부활 이준석, 19개 부처 13개로·부총리는 확대 '리쇼어링' 기업 외국인노동자 최저임금 차등 권영국, '증세 통한 불평등 해소' 1호 공약 이미지 확대보기 제21대 대통령선거 공식 선거운동 첫날인 12일 서울 서대문구 한 도로에 이재명 더불어민주당 대선 후보와 김문수 국민의힘 대선 후보의 현수막이 걸려 있다. 연합뉴스 이재명 더불어민주당 대선 후보와 김문수 국민의힘 대선 후보가 공식 선거운동 첫날인 12일 나란히 ‘경제’를 1호 공약으로 내걸었다. 이 후보는 인공지능(AI)·K콘텐츠 등을 앞세운 성장기반 확충을, 김 후보는 ‘기업 할 자유, 일자리 창출’을 앞세웠다. 반면 이준석 개혁신당 대선 후보는 ‘부처 축소와 3부총리제’를 골자로 하는 ‘대통령 힘 빼고 일 잘하는 정부’를 10대 공약 중 정책순위 ‘1번’으로 제시했다. 이재명 "세계 선도 경제강국" AI 3강·콘텐츠 강국 전면에 이 후보는 이날 중앙선거관리위원회에 제출한 ‘민주당 10대 정책공약’에서 “세계를 선도하는 경제 강국을 만들겠다”고 밝혔다. 구체적으로 ‘AI 3강 도약’과 K콘텐츠를 앞세운 ‘글로벌 소프트파워 빅5’ ‘국가대표 K방산’ 등을 선정했다. 2호 공약은 12·3 불법계엄을 반영한 ‘내란극복과 K민주주의 위상 회복’이다. 대통령 계엄 권한에 대응한 국회의 계엄해제권 보장, 3군 참모총장에 대한 인사청문회 도입 등 국방 문민화, 검찰 수사·기소 분리와 검사 파면 제도 도입 등 검찰개혁 등이 담겼다. 균형발전을 위한 방안으로는 ‘세종 행정수도 완성’을 반영했다. 대통령 임기 내 국회 세종의사당과 대통령 세종 집무실을 건립한다는 공약이다. 2차 공공기관 지방 이전과 지역사랑상품권 발행 의무화 등도 균형발전 공약에 포함됐다. 노동 분야에서는 주4.5일제 도입 등을 통해 2030년까지 노동시간을 경제협력개발기구(OECD) 평균 이하로 줄이겠다는 공약을 내놓았다. 근로기준법에 ‘포괄임금제 금지’를 명문화하고, 민주당 주도로 추진했지만 윤석열 정부의 거부권(재의요구권) 행사에 가로막혔던 노란봉투법(노동조합법 2·3조 개정)도 처리하겠다고 밝혔다. 저출생 관련 공약으로는 아동수당 지급 연령 18세까지 상향과 자녀 수에 비례한 ‘신용카드 공제’ 상향, 자녀의 자산 형성을 위한 ‘우리아이 자립펀드’ 도입 등이 눈에 띈다. 고령사회에 대응하기 위해 요양병원 간병비 건강보험 적용과, 고령자 친화 주택 조성 등도 반영했다. 더불어민주당 국민의힘 개혁신당 10대 공약 이재명 (더불어민주당) 김문수 (국민의힘) 이준석 (개혁신당) 1호 세계를 선도하는 경제강국을 만들겠습니다. 자유주도성장, 기업 하기 좋은 나라 대통령 힘빼고 일 잘하는 정부 만든다 2호 내란극복과 K민주주의 위상 회복으로 민주주의 강국을 만들겠습니다. AI·에너지 3대 강국 도약 중국 베트남 공장을 다시 대한민국으로 3호 가계‧소상공인의 활력을 증진하고, 공정경제를 실현하겠습니다. 청년이 크는 나라, 미래가 열리는 대한민국 지자체, 법인세 자치권 부여로 지방 경쟁력 강화! 4호 세계질서 변화에 실용적으로 대처하는 외교안보 강국을 만들겠습니다. GTX로 연결되는 나라, 함께 크는 대한민국 최저임금 최종 결정 권한 지자체에 위임 5호 국민의 생명과 안전을 지키는 나라를 만들겠습니다. 중산층 자산증식, 기회의 나라 국민연금, 신-구 연금 분리가 유일한 해결책 6호 세종 행정수도와 ‘5극 3특’ 추진으로 국토균형발전을 이루겠습니다. 아이 낳고 기르기 좋은 나라, 안심되는 평생복지 교권 보호를 위한 교사 소송 국가책임제 및 학습지도실 제도 도입 7호 노동이 존중받고 모든 사람의 권리가 보장되는 사회를 만들겠습니다. 소상공인, 민생이 살아나는 서민경제 5000만원 한도 든든출발자금으로 청년의 도전 응원! 8호 생활안정으로 아동‧청년‧어르신 등 모두가 잘사는 나라를 만들겠습니다. 재난에 강한 나라, 국민을 지키는 대한민국 현역대상자 가운데 장교 선발한다 9호 저출생‧고령화 위기를 극복하고 아이부터 어르신까지 함께 돌보는 국가를 만들겠습니다. 특권을 끊는 정부, 신뢰를 세우는 나라 압도적 규제 혁파 위한 ‘규제 기준국가제’ 실시 10호 미래세대를 위해 기후위기에 적극 대응하겠습니다. 북핵을 이기는 힘, 튼튼한 국가안보 과학기술 성과연금 및 과학자 패스트트랙 등 '국가 과학영웅 예우제도' 도입 김문수 "기업 하기 좋은 나라"… 규제 완화로 일자리 창출 김 후보는 1호 공약으로 ‘기업 하기 좋은 나라, 일자리 창출’을 꼽았다. 김 후보는 경기도지사 시절 삼성전자 평택 반도체 공장 유치 경험을 소개하면서 규제 완화, 세제 정비, 투자 활성화 등을 통한 일자리 창출을 약속했다. 2호 공약은 ‘AI·에너지 3대 강국’이다. 100조 원 규모의 AI 펀드를 조성한다는 것은 민주당 공약과 유사하다. 김 후보는 에너지 강국을 위한 방안으로는 대형 원전 6기를 차질 없이 추진하고, 한국형 소형원전(SMR) 상용화를 추진하는 등 원전 확대를 내세웠다. 정치·사법 제도 관련 공약은 ‘9호’ 공약에 담겼다. 국회의원에 대한 불체포특권을 폐지하고, 선거관리위원회에 대한 감사원 감사를 허용하는 안이 포함됐다. 고위공직자범죄수사처는 폐지하고, 대공수사권을 다시 국가정보원에 돌려주는 안도 담겼다. 김 후보는 결혼 시 3년, 첫째와 둘째 아이를 낳을 경우 각각 3년씩 총 9년간의 주거비를 지원하는 방안을 저출생 공약으로 내세웠다. 자산 형성을 위한 ‘우리 아이 첫걸음 계좌’와 자녀 수에 비례한 ‘보육수당’ 비과세 혜택 등도 담았다. 광역급행철도(GTX)를 5개 권역으로 확대한다는 청사진도 내놓았다. 수도권 GTX A·B·C 노선을임기 내에 개통하고, 부울경·대전세종충청·대구경북·광주전남 지역에 각각 광역급행철도(GTX)를 신설한다는 것이다. 이준석, 부처 통합·3부총리 "실무 중심 정부" 이준석 개혁신당 후보는 경제 공약 대신 ‘실무 중심의 작은 정부 기조’를 골자로 하는 행정 공약을 정책순위 1번으로 앞세웠다. 교육부와 과학기술정보통신부를 교육과학부로 통합하고, 여성가족부를 폐지해 관련 업무를 복지부와 내무부(행정안전부)로 이관하는 등, 현재 19개 부처를 13개로 줄인다는 것이다. 대신 현재 경제·사회 부총리를 개편해 안보·전략·사회 3부총리 체제를 도입하겠다고 했다. 개혁신당의 2호 공약은 ‘리쇼어링’이다. 해외로 생산시설을 이전한 국내 기업이 다시 돌아올 경우 외국인 노동자의 최저임금을 최대 10년간 차등 적용해 인건비를 낮추고, 외국인 노동자 국내 유입 절차도 간소화한다는 것이다. 여기다 최저임금 최종 결정 권한도 각 지역의 특성을 반영할 수 있도록, 지방자치단체에 위임하겠다고 밝혔다. 국민연금 기금 고갈에 대한 해결책으로는 개혁 이전의 ‘구연금’과 개혁 이후의 ‘신연금’으로 분리해 ‘낸 만큼은 반드시 받는’ 연금 제도의 확립을 꼽았다. 19~34세 청년을 대상으로 최대 5,000만 원 한도 내에서 1.7% 고정금리로 사용할 수 있는 ‘든든출발자금’ 공약도 제시했다. 정의당과 녹색당, 노동당의 선거 연대인 민주노동당 권영국 후보는 '증세를 통한 불평등 해소'를 1호 공약으로 제시했다. 상속세를 인상해 성인이 되는 청년에게 5,000만 원을 지급하는 '청년사회상속제' 재원으로 활용하고, 순자산 100억 원 이상 보유자를 대상으로 한 '부유세'를 신설해 자영업자와 저소득층의 부채 탕감 재원으로 활용하는 방안이다. 민주노동당 공약에는 노란봉투법 통과와 노동자의 교섭권 강화, 노동자 작업중지권 보장 등을 담은 노동공약, 자영업 부채 탕감과 지역 공공은행 설립, 포괄적 차별금지법 제정, 비동의 강간죄 도입 등도 담겼다. 박세인 기자 sane@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 댓글 쓰기 이 기사와 관련된 기사 제21대 대통령 선거 이재명 "광화문 모인 국민들 열망에 놀랐다… 신발 끈 더 단단히 묶을 것" 이재명 신고 하루만에 품절...'대선 굿즈'로 떠오른 빨강파랑 운동화 김용태 "탄핵 사과, 김문수 후보가 조만간 입장 밝힐 것" 세상을 보는 균형, 한국일보 Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을 만한 이슈 X 정치 많이 본 뉴스 LIVE ISSUE 읽기모드 본문크기 북마크 공유하기 프린트 좋아요 0 싫어요 0 댓글달기 0 sksgabcd 공감합니다. 앞으로도 좋은 기사 부탁드려요 좋은 결정을… 흰색 배경 검은색 배경 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 가 가 가 가 가 댓글 0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인 하면 다양한 편의 기능을 제공 받을 수 있습니다. 내 관심사대로 메인뉴스 설정 구독한 콘텐츠 모아보기 제공 주요기사와 추천, 활동내역 알림 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 로그인 유지 회원가입 비밀번호 찾기 아이디 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 로그인 유지 공공장소에서 사용하는 컴퓨터에서는 로그인 유지 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 회원가입 불가 만 14세 이상만 회원으로 가입하실 수 있습니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 내용보기 개인정보처리 방침 (필수) 내용보기 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 내용보기 한국일보가 제공하는 다양한 형태의 이벤트 및 행사(포럼, 대회, 강연, 시상, 수상, 구독 등) 관련한 참여 정보를 추천·안내 뉴스레터 등 추천 서비스 이용 동의 (선택) 내용보기 한국일보가 회원을 위해 제공하는 뉴스레터 등 모든 뉴스 서비스(뉴스, 영상, 뉴스 서비스 기반 이벤트 및 프로모션, 새로운 포맷 콘텐츠) 등 추천·안내 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 선택 항목 미동의 시 뉴스 추천서비스 혹은 이벤트/행사 당첨 혜택에서 제외될 수 있습니다. 다음 중복 가입 확인 이미 가입된 회원입니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를
+                        사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 이재명·김문수 1호 공약은 '경제'… 이준석은 '부처 개편' 전면에 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요. (최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 알림 해당 컨텐츠를 구독/취소 하실수 없습니다. 확인 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인 제보하기 완료 보내주신 소중한 제보는 정상적으로 접수되었으며 뉴스 제작에 활용될 예정입니다. 확인 업로드 불가 파일 이미지, 영상, 문서, 압축 형식의 파일만 첨부 가능합니다. 업로드 가능 파일 형식 jpg, jpeg, png, mp4, avi, hwp, doc, zip 확인 닫기 박세인 기자 정치부 기자 제보안내 제보자의 신분은 한국일보 보도 준칙에 따라 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 개인정보 보호를 위한 이용자 동의사항 (필수) 개인 정보 수집 및 이용 목적 : 회사는 수집한 개인정보를 제보 내용에 관한 확인 및 처리 등의 업무를 위해 수집, 이용하고 있습니다. 수집하는 개인정보 항목 - 이름, 이메일, 전화번호 동의합니다. 제보하기 추가 *최대 용량 10MB 개인정보 보호를 위해 익명 제보가 가능하며 실명인증을 하지 않습니다. 단, 제보자 연락 및 추가 취재가 필요하신 제보자는 연락처를 정확히 기입해주시기 바랍니다. 1:1 제보하기 확대 이미지 닫기</t>
+  </si>
+  <si>
+    <t>이재명과 김문수 대선 후보가 경제를 1호 공약으로 내걸었고, 이준석 후보는 부처 개편을 중요한 정책으로 제시하고 있다.</t>
+  </si>
+  <si>
+    <t>크라우드웍스, 가트너 국내 유일 ‘AI 글로벌기업 선정’에 급등…스마트라벨링 부각[특징주]</t>
+  </si>
+  <si>
+    <t>https://www.edaily.co.kr/News/Read?newsId=03001206642168264&amp;mediaCodeNo=257&amp;OutLnkChk=Y</t>
+  </si>
+  <si>
+    <t>크라우드웍스, 가트너 국내 유일 ‘AI 글로벌기업 선정’에 급등…스마트라벨링 부각[특징주] 닫기 실시간뉴스 '미션 8' 톰 크루즈·BTS 진, 두 월드스타의 만남…'달려라 석진' 출연 삼양식품 불닭, 코첼라부터 유튜브까지 대세 브랜드의 행보 '인산가' 2세 구속 기소…檢 "허위로 비상장사 가치 부풀려" ‘챔피언’ 포항과 울산·강원·서울 출격... 코리아컵 16강 재개 광운대 홍보팀장 윤지선씨, 개인展…‘타인에 대한 지지’ 메시지 산림복지진흥원, 산림휴양·복지활동 조사 실시 신테카바이오, 1분기 매출 8.6억원...전년 총 매출 5배 성장 홀트아동복지회 인천·대전·대구 한부모가족복지상담소, 한부모가족의 날 맞아 ‘언팩데이’ 개최 성남 오리역 ‘제4테크노밸리’ 민간자문단에 현대차그룹 등 선정 가평 생산 쌀·버섯 미국 뉴욕·뉴저지 수출 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2025년 05월 13일 화요일 실시간뉴스 '미션 8' 톰 크루즈·BTS 진, 두 월드스타의 만남…'달려라 석진' 출연 삼양식품 불닭, 코첼라부터 유튜브까지 대세 브랜드의 행보 '인산가' 2세 구속 기소…檢 "허위로 비상장사 가치 부풀려" ‘챔피언’ 포항과 울산·강원·서울 출격... 코리아컵 16강 재개 광운대 홍보팀장 윤지선씨, 개인展…‘타인에 대한 지지’ 메시지 산림복지진흥원, 산림휴양·복지활동 조사 실시 신테카바이오, 1분기 매출 8.6억원...전년 총 매출 5배 성장 홀트아동복지회 인천·대전·대구 한부모가족복지상담소, 한부모가족의 날 맞아 ‘언팩데이’ 개최 성남 오리역 ‘제4테크노밸리’ 민간자문단에 현대차그룹 등 선정 가평 생산 쌀·버섯 미국 뉴욕·뉴저지 수출 구독 지면 My 초판 로그인 로그아웃 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 글로벌마켓 제약·바이오 다크호스 리포트 UP&amp;DOWN 지금업계는 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 기자수첩 인터뷰 인사·부고 정치 대통령실·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 일반 연재 이슈 포토 영상 오토in 골프in 팜 이데일리 마켓 in The BeLT 기자뉴스룸 다문화동포 search search 속보 증권 주식 종목 펀드 국제시황 글로벌마켓 팜 이데일리 마켓 in The BeLT 크라우드웍스, 가트너 국내 유일 ‘AI 글로벌기업 선정’에 급등…스마트라벨링 부각[특징주] 등록 2025-05-12 오후 2:21:42 수정 2025-05-12 오후 2:23:17 가 가 박정수 기자 기자구독 페이스북 트위터 메일 프린트 url복사 [이데일리 박정수 기자] 크라우드웍스(355390)가 강세를 보인다. 글로벌 리서치 기업 가트너(Gartner)로부터 ‘생성형 AI 이머징 리더’로 선정되며 시장의 관심을 집중시키고 있다. 국내 기업으로는 유일하게 이름을 올린 성과로 인공지능(AI) 기반 데이터 처리 플랫폼과 특허 기술 경쟁력이 동반 부각되는 모양새다. 12일 엠피닥터에 따르면 오후 2시 20분 현재 크라우드웍스는 전 거래일보다 19.47%(2710원) 오른 1만 6630원에 거래되고 있다. 가트너는 마이크로소프트(MS), 노션(Notion) 등과 함께 이머징 리더로 선정했다. 특히 AI 지식 관리 및 생산성 향상 솔루션 부문에서 국내 기업 중 유일한 등재로, 크라우드웍스의 기술력과 사업 확장성이 국제적으로 인정받았다는 평가다. 크라우드웍스는 AI 기반 데이터 처리 플랫폼 ‘워크스테이지(Workstage)’를 통해 데이터 라벨링의 정확도를 99.9%까지 끌어올렸으며, 속도 역시 기존 대비 최대 13배 향상된 것으로 알려졌다. 스마트 라벨링 자동화 기술을 중심으로 기업 고객들의 정밀한 데이터 품질 요구에 대응하고 있다. 또한 180건 이상의 특허와 60만 명 이상이 참여하는 전문 데이터 작업자 양성 플랫폼 ‘크라우드 아카데미’를 통해 품질과 속도를 동시에 확보하며, 자회사 ‘닥터웍스’를 통한 의료 AI 데이터 확장도 경쟁사와의 뚜렷한 차별점으로 부각된다. 업계 관계자는 “AI 학습 데이터 수요가 폭증하는 흐름 속에서, 글로벌 보고서에서의 유일 선정은 크라우드웍스의 기술 신뢰도를 뒷받침하는 강력한 신호”라며 “국내외 정부·기업 대상 AI 프로젝트 수주 확대 가능성에도 주목할 필요가 있다”고 전했다. 주요뉴스 “명함 20장 두께”…역대 가장 얇은 ‘갤럭시' S25 엣지 혁신 '이재명 49.5% 김문수 38.2%'…후보 확정 후 첫 여조[한길리서치](종합) 백종원 “김 PD 비판, 공격으로 안 봤는데”…허탈감 토로 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 이데일리 추천 뉴스 by Taboola 실시간 급상승 뉴스 1 "전광훈이랑 친해요?" 질문에 김문수 측 "멀어질 이유 있나") 2 '이재명 49.5% 김문수 38.2%'…후보 확정 후 첫 여조[한길리서치](종합)) 3 전청조, 교도소에서도 사기…“임신한 척, 편하게 지내”) 4 백종원이 돼지 수육 삶은 ‘대형 솥’…“또 불법” 파묘 구설) 5 '초슬림·초경량' 갤럭시 S25 엣지 공개…149만원대) 오늘의 포토 왼쪽 오른쪽 [포토]초여름 날씨 [포토]'유세장 주위 경계 강화 중' [포토]갤럭시 S25 엣지, 더 얇고 가벼워져 돌아왔다 [포토]더불어민주당, 디지털자선위원회 출범 [포토] 운동화 신는 이재명 후보 [포토]이재명 더불어민주당 대선 후보 주먹 불끈 [포토]이재명, 판교 IT 직장인들과 간담회 [포토]이준석, '연세대 학생들과 인사' [포토]황우여, 국민의힘 공동선대위원장에 임명 [포토] 윤석열 연호하는 지지자들 당신을 위한 맞춤 뉴스 by Dable 소셜 댓글 많이 본 뉴스 뉴스 증권 연예 1 "전광훈이랑 친해요?" 질문에 김문수 측 "멀어질 이유 있나" 2 백종원이 돼지 수육 삶은 ‘대형 솥’…“또 불법” 파묘 구설 3 이재명 신자마자 ‘완판’ 터진 운동화...가까이 보니 4 “‘이재명’님, 주문하신 라떼…” 안 된다는 스타벅스, ‘김건희’는? 5 "470만원짜리 술 시키더니"...'남진 콘서트 뒤풀이 예약' 알고보니 6 '이재명 49.5% 김문수 38.2%'…후보 확정 후 첫 여조[한길리서치](종합) 7 “현관 비번 알려준 적 없다”…산이, 이번엔 여가수 집 무단침입? 8 "이재명 나라에서 살아봐" 홍준표 삭제...점심 나선 尹은? 9 전청조, 교도소에서도 사기…“임신한 척, 편하게 지내” 10 "애 낳으면 1억"…총 98억 쓴 부영, 상 받았다 1 14만원→9900원 폭락…한때 잘 나갔는데 지금은 '시한부' 2 대출·코어 이어 '밸류애드' 자금 푸는 국민연금…국내 부동산시장 볕든다 3 인투셀, 공모가 상단 1만7000원 확정…경쟁률 1151대 1 4 삼일PwC, AI 엑스포 참가…AI 기반 솔루션 등 공개 5 [마켓인]과학기술인공제회 황판식 이사장 첫 출근…“장기적 성장 이끈다” 6 달바글로벌, 일반 청약 경쟁률 1112대 1… 증거금 7조원 돌파 7 나우로보틱스, 공모·상장 연타석 흥행…로봇주 열기 이어가나[주톡피아] 8 포커스에이아이, 베트남 결제 솔루션 전문기업 알리엑스와 사업 협력 MOU 9 에스엠씨지, '럭스팩 뉴욕' 참가…"글로벌 화장품사로부터 큰 호응" 10 [마켓인]HPSP, 매각 연기…“시장 상황 보며 서두르지 않을 것” 1 한혜진 "남편, 집 완공 전 심장마비로 떠나…삶 놓아버리고 싶었다" 2 '김준수 쌍둥이형' 김무영, 깜짝 결혼발표·쌍둥이 출산 고백 3 '샘해밍턴 子' 윌리엄·벤틀리, 폭풍성장 근황 공개 "벌써 초등학생" 4 '금주를 부탁해' 김성령, 못 말리는 술고래 DNA에 폭발 5 '탄금' 이재욱 "조보아 따라가면서 연기…보며들었다" 6 '당신의 맛' 재벌 2세 강하늘, 상속 전쟁 종지부 찍을 결정적 한방 7 [마켓인]2호 미술품 조각투자 내놓는 예스24 자회사…기대수익은? 8 '환승연애2' 김태이 음주운전…검찰 "징역 2년 구형" 9 '우리영화' 남궁민·전여빈, 짙은 감성으로 물든 티저 포스터 10 NCT 위시·아이브·에스파·제베원, '쇼! 음악중심 인 재팬' 추가 라인업 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 신테카바이오, 1분기 매출 8.6억원...전년 총 매출 5배 성장 점안제 하나로 ‘21개국’ 뚫었다…삼일제약, 베트남 공장 잭팟 터지나 Samsung Biologics highlights CDO capabilities at PEGS Boston 와이바이오로직스, 리가켐에 AIC 개발용 면역항암기전 항체 기술이전 유한양행, 253억원 규모 자사주 소각 후 200억원 규모 자사주 취득 MICE 최신정보를 한눈에 TheBeLT 왼쪽 오른쪽 피란의 역사를 걷는다…부산관광공사 ‘피란수도 부산’ 프로그램 운영 한국관광공사, ‘2025 관광 프롬프톤’ 개최…생성형 AI로 ''관광혁신'' 코타키나발루 수트라하버 리조트, ‘2025 올댓트래블’ 박람회서 ''매력 발산'' 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 디알텍, 블루오션 영상진단 시스템시장 정조준 ‘필러판 뒤집힌다’ 제테마, 5000억 성장 비결은? HK이노엔, 1조 클럽 가입 예고 #팜이데일리 유한양행 자회사 ‘이뮨온시아’, 상장 후 전망은? / 동물실험 폐지 기업별 영향은? 입지 넓히는 유한양행 ‘렉라자’, 경쟁자 AZ 기선제압 시작? 두근두근 핫포토 "이재명이 신었대"..'품절' 권성동 결국... 채시라의 변신 톰크루즈 내한 왼쪽 오른쪽 나이스 샤아앗~ ㅣ골프in [골프in포토]이예원,우승 예감 미소 당신의 드림카는? ㅣ오토in 롤스로이스 7억짜리 전기차 ‘블랙 배지 스펙터’ 한국 상륙 왼쪽 오른쪽 이슈기획 ㅣ 제21대 대선 YS 차남, 이준석 지지선언…"세대교체 이뤄야" 이슈기획 ㅣ 트럼프 관세 전쟁 트럼프 “행정명령으로 美약품 가격 90%까지 하락 가능” 이슈기획 ㅣ 제16회 이데일리 전략포럼 "퇴직연금 제 역할 하려면…''연금화'' 인센티브 강화해야"[ESF2025] 이슈기획 ㅣ SKT 유심 해킹 SK텔레콤 해킹 사태가 던진 질문 [김현아의 IT세상읽기] 이슈기획 ㅣ 의료계 집단행동 의대생 유급 8305명…내년 ‘트리플링’ 현실화 오늘의 주요 기사 “명함 20장 두께”…역대 가장 얇은 ‘갤럭시’ S25 엣지 혁신 '이재명 49.5% 김문수 38.2%'…후보 확정 후 첫 여조[한길리서치](종합) “재맹이가 남이가”…李, 박정희 고향 구미 찾아 지지 호소 . YS 차남, 이준석 지지선언…"세대교체 이뤄야" . 자전거도로에 뛰어든 중년 여성, 12살 운전자 '경찰 신고' . 14만원→9900원 폭락…한때 잘 나갔는데 지금은 '시한부' . “춘향이 X먹으려고” 김문수, 이번엔 배현진에 “미스 가락시장” 논란 . 전쟁피난민이 만든 성심당…‘빵’으로 전성기 맞은 비결은 . SKT “유심교체 159만명…유심재설정 첫날 2만3000명” 알립니다 2025년 이데일리 편집부 편집기자 모집 이데일리 주식회사 제25기 결산공고 [마감] 2025년 이데일리 편집부 편집기자 모집 뉴스레터를 신청하세요 확인 IR 멤버스 - SKT “유심교체 159만명…유심재설정 첫날 2만3000명” - "1등마저"…CJ제일제당, 1Q 매출·영업익 동반 감소 - LGD, SID 2025서 '차세대 OLED' 기술력 선보여 이데일리ON - [이데일리ON 박정식] [박정식의 국내 주식시황] 美·中 긍정적 무역협상 소식에 증시 훈풍 지속으로 상승력 이어갈 모습 - [이데일리ON 박정식] [굿모닝! 글로벌 뉴욕증시] 美·中 관세 90일간 대폭 인하 결정 속.. 무역 갈등 완화되며 상승 마감 - [이데일리ON 김선상[주도신공]] 4월14일~5월12일 합산차익 300% 돌파 1등급대장주매매의 위력 문화 · 행사 문화대상 전략포럼 W페스타 사진공모전 캠핑요리 국제금융컨퍼런스 곽재선 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.kr I 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 회장 곽재선 I 발행·편집인 이익원 I 청소년보호책임자 고규대 Family site 이데일리TV 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 곽재선 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 이데일리 캠페인 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>크라우드웍스가 가트너로부터 'AI 글로벌기업 선정'을 받아 주목을 받고, 스마트 라벨링 기술이 부각되며 주가가 급등하고 있다.</t>
+  </si>
+  <si>
+    <t>´ë±¸½Ã ¿Ü±¹ÀÎ À¯ÇÐ»ý À¯Ä¡¿¡¼­ Á¤ÁÖ±îÁö ¿ø½ºÅé Áö¿ø-±¹¹ÎÀÏº¸</t>
+  </si>
+  <si>
+    <t>국민일보</t>
+  </si>
+  <si>
+    <t>https://www.kmib.co.kr/article/view.asp?arcid=0028090104&amp;code=61122020&amp;cp=nv</t>
+  </si>
+  <si>
+    <t>½Ã»ç ÀüÃ¼±â»ç ´ë±¸½Ã ¿Ü±¹ÀÎ À¯ÇÐ»ý À¯Ä¡¿¡¼­ Á¤ÁÖ±îÁö ¿ø½ºÅé Áö¿ø ÀÔ·Â: 2025-05-12 11:25 ¼öÁ¤: 2025-05-12 14:17 °øÀ¯ÇÏ±â ±ÛÀÚ Å©±â Á¶Á¤ °¡ °¡ °¡ °¡ ±¹¹ÎDB ´ë±¸½Ã°¡ ¿Ü±¹ÀÎ À¯ÇÐ»ý ¸ð½Ã±â¿¡ Àû±Ø ³ª¼±´Ù. ¿Ü±¹ÀÎ À¯ÇÐ»ýÀÌ Áö¿ª¿¡ ¿Í¼­ Á¤ÂøÇÒ ¼ö ÀÖ´Â ¼±¼øÈ¯ Ã¼°è¸¦ ¸¸µé¾î ÀÎ±¸À§±â¿¡ ´ëÀÀÇÑ´Ù´Â ±¸»óÀÌ´Ù. ½Ã´Â ¡®´ë±¸Çü À¯ÇÐ»ý À¯Ä¡¡¤¾ç¼º ±âº»°èÈ¹¡¯À» ¼ö¸³ÇÔ¿¡ µû¶ó ¿Ü±¹ÀÎ À¯ÇÐ»ý À¯Ä¡¿Í ¾ç¼º, Ãë¾÷, Á¤ÁÖ¸¦ ¿ø½ºÅéÀ¸·Î Áö¿øÇÏ´Â Ã¼°è¸¦ º»°ÝÀûÀ¸·Î °¡µ¿ÇÑ´Ù°í 12ÀÏ ¹àÇû´Ù. ½Ã´Â ¡®ÇØ¿Ü ¿ì¼öÀÎÀç°¡ ¸ð¿©µå´Â ±Û·Î¹ú µµ½Ã ´ë±¸¡¯¸¦ ºñÀüÀ¸·Î »ï¾Æ °èÈ¹À» ½ÇÇàÇØ³ª°¥ ¹æÄ§ÀÌ´Ù. Áö³­ÇØ ´ë±¸¿¡ ¸Ó¹® ¿Ü±¹ÀÎ À¯ÇÐ»ýÀº 5951¸íÀÌ¾ú´Ù. ½Ã´Â 2028³â±îÁö 1¸¸¸íÀ¸·Î ´Ã¸± °èÈ¹ÀÌ´Ù. À¯Ä¡¿¡¼­ Á¤ÁÖ±îÁö ´Ü°èº° ÃßÁøÀü·«À» ¼¼¿ì°í 14°³ ¼¼ºÎ°úÁ¦¸¦ ½ÃÇàÇÑ´Ù. À¯ÇÐ»ý Áö¿øÀ» À§ÇØ ½Ã¿Í ´ëÇÐ, À¯°ü±â°ü µîÀÌ Âü¿©ÇÏ´Â Áö¿ª´ÜÀ§ÀÇ °Å¹ö³Í½º¿Í ±¹³»¿Ü ³×Æ®¿öÅ©¸¦ ±¸ÃàÇÑ´Ù. ÀÌÈÄ ±×µ¿¾È °³º°´ëÇÐ Áß½ÉÀ¸·Î ÀÌ·ïÁ³´ø À¯Ä¡ È°µ¿À» Áö¿ª ±â°üµéÀÌ ÇÔ²² Ã¼°èÀû¡¤Àü·«ÀûÀ¸·Î ÃßÁøÇÒ °èÈ¹ÀÌ´Ù. À¯Ä¡ ÈÄ ÀÎÀç¾ç¼ºÀ» À§ÇØ ÇÐ¾÷°ú Áö¿ª Á¤ÂøÀÇ ±Ù°£ÀÌ µÇ´Â ÇÑ±¹¾î ±³À°À» ÁýÁßÀûÀ¸·Î ½Ç½ÃÇÏ°í Áö¿ª´ëÇÐ°ú Çù·ÂÇØ À¯ÇÐ»ýÀ» À§ÇÑ Áö¿ª ¼ö¿ä ±â¹Ý ±³À°°úÁ¤À» ¿î¿µÇÒ ¿¹Á¤ÀÌ´Ù. Ãë¾÷¡¤Á¤ÁÖ¸¦ À§ÇØ À¯ÇÐ»ý ±¸Á÷ ¼ö¿ä¿Í ±â¾÷ ÀÎ·Â ¼ö¿ä¸¦ ¿¬°èÇØ °ü¸®ÇÏ°í Áö¿ª»ýÈ° ÀûÀÀÀ» À§ÇÑ ±³À°°ú »ó´ã, ¸àÅä¸µ, ¹®È­Ã¼Çè ÇÁ·Î±×·¥À» ÁøÇàÇÒ ¹æÄ§ÀÌ´Ù. ¶Ç À¯ÇÐ»ý Á¤ÁÖ¸¦ À§ÇÑ Á¦µµ °³¼± ¹æ¾Èµµ Áö¼ÓÀûÀ¸·Î ¹ß±¼ÇÒ °èÈ¹ÀÌ´Ù. ½Ã´Â ±âº»°èÈ¹ÀÇ ½ÇÈ¿¼ºÀ» È®º¸ÇÏ±â À§ÇØ Áö³­ÇØ ¡®À¯ÇÐ»ý Áö¿ø ÇùÀÇÃ¼¡¯¸¦ ±¸¼ºÇÏ°í 12°³ ´ëÇÐ °ü°èÀÚµé°ú °£´ãÈ¸¸¦ °³ÃÖÇÏ´Â µî ´Ù¾çÇÑ ÀÇ°ßÀ» ¼ö·ÅÇß´Ù. ¿ÃÇØ ÇÏ¹Ý±â¿¡´Â ¶óÀÌÁî(RISE) »ç¾÷°ú ¿¬°èÇØ ¿Ü±¹ÀÎ À¯ÇÐ»ý Á¤Ã¥À» ÃÑ°ý Áö¿øÇÒ ¡®À¯ÇÐ»ý ¿ø½ºÅé Áö¿ø¼¾ÅÍ¡¯(°¡Äª)¿Í Áö¿ª À¯ÇÐ»ýµéÀÇ ÇÑ±¹¾î ±³À°À» ´ã´çÇÒ ¡®°ÅÁ¡ ÇÑ±¹¾î¼¾ÅÍ¡¯¸¦ °³¼ÒÇÒ °èÈ¹ÀÌ´Ù. ½Ã´Â À¯ÇÐ»ý»Ó¸¸ ¾Æ´Ï¶ó ´Ù¾çÇÑ ¿Ü±¹ÀÎ ÀÎÀç À¯Ä¡¸¦ À§ÇØ ¡®´ë±¸Çü ºñÀÚ¡¯µµ È°¿ëÇÑ´Ù. ¹ý¹«ºÎ¿¡¼­ ÁÖ°üÇÑ ¡®±¤¿ªÇü ºñÀÚ ½Ã¹ü»ç¾÷¡¯¿¡ ¼±Á¤µÈ ½Ã´Â ÀÎ°øÁö´É(AI), ¹ÝµµÃ¼ µî ´ë±¸ÀÇ 5´ë ½Å»ê¾÷ °ü·Ã Á÷Á¾º° ¿ä°ÇÀÌ ¿ÏÈ­µÈ Æ¯Á¤È°µ¿(E-7) ºñÀÚ¸¦ µµÀÔÇÑ´Ù. ½Å»ê¾÷ Á÷Á¾¿¡ ´ëÇØ ÇÐ·Â¡¤°æ·Â µî ¹ß±Þ ¿ä°Ç°ú ³»±¹ÀÎ ÀÇ¹« °í¿ë ±âÁØÀ» ¿ÏÈ­ÇØ ºñÀÚ¸¦ ¼³°èÇß´Ù. Á¤Àç¼® ´ë±¸½Ã ´ëÇÐÁ¤Ã¥±¹ÀåÀº ¡°ÇÐ·ÉÀÎ±¸ °¨¼Ò¿¡ ´ëÀÀÇÏ°í Áö¿ª °æÀï·Â¿¡ ±â¿©ÇÒ ÇØ¿Ü ¿ì¼öÀÎÀç È®º¸´Â ÀÌÁ¦ ¹Ì·ê ¼ö ¾ø´Â °úÁ¦°¡ µÆ´Ù¡±¸ç ¡°À¯ÇÐ»ý 1¸¸¸í ½Ã´ë¸¦ ¾Õ´ç°Ü ÀÌµéÀÌ Áö¿ª»ê¾÷ÀÇ ¿ì¼ö ÀÎÀçÀÌÀÚ Áö¿ª»çÈ¸ÀÇ ÇÑ ÃàÀ» Â÷ÁöÇÏ´Â ±¸¼º¿øÀ¸·Î ÀÚ¸® ÀâÀ» ¼ö ÀÖµµ·Ï ±â¹ÝÀ» Á¶¼ºÇÒ °Í¡±ÀÌ¶ó°í ¸»Çß´Ù. ´ë±¸=ÃÖÀÏ¿µ ±âÀÚ mc102@kmib.co.kr GoodNews paper ¨Ï ±¹¹ÎÀÏº¸(www.kmib.co.kr) , ¹«´ÜÀüÀç, ¼öÁý, Àç¹èÆ÷ ¹× AIÇÐ½À ÀÌ¿ë ±ÝÁö Å¬¸¯! ±â»ç´Â ¾î¶°¼Ì³ª¿ä? ÁÁ¾Æ¿ä 0 È­³ª¿ä 0 ÈÄ¼Ó±â»ç ¿øÇØ¿ä 0 ±¹¹ÎÀÏº¸°¡ ²Ä²ÄÈ÷ ÀÐ¾îº¸°í ¼±Á¤ÇÑ ¿À´ÃÀÇ ÃßÃµ±â»ç ¹ÎÁÖ ÇÕ·ù ±Ç¿ÀÀ» ¡°¹ÚÁ¤Èñ¿¡ ¹°¾ú´õ´Ï ¡®ÀÌ¹ø¿£ ÀÌÀç¸í¡¯ÀÌ¶ó ÇØ¡± ¡°±×¸¸µÑ°Ô¿ä¡± ½ÅÀÔ »ç¿ø Àý¹Ý ÀÌ»óÀº ÀÔ»ç ÈÄ 3³â ³»¿¡ Åð»ç ¡®À§°íºñ¡¯º¸´Ù »ì ´õ Àß ºüÁø´Ù´Â ¡®ÀÌ ¾à¡¯¡¦ºñ¸¸Ä¡·áÁ¦ °Ýµ¹ ¹æÅºº¹ ÀÔ°í ÃâÁ¤½Ä µîÀåÇÑ ì°¡¦ Àú°Ý ¹æºñ Ç³¼±¡¤¹æÅºÀ¯¸® °ËÅä [´Üµ¶] ¡°¡®2000¸¸¡¯ Æ½ÅäÄ¿ Á¢ÃË Áß¡±¡¦ ¹ÎÁÖ´ç, MZ Àâ±â ³ª¼±´Ù ¡®ÀüµÎÈ¯ ¾ó±¼ °¡¹æ¡¯ ÆÇ ¼îÇÎ¸ô¡¦5¡¤18Àç´Ü Ç×ÀÇ¿¡ Áß´Ü °ÔÀÓ ÁöÀû¿¡¡¦±³»ç ¾ó±¼ ÆøÇàÇÑ °í3, ¡®°­Á¦ ÀüÇÐ¡¯ Ã³ºÐ ¡®´ë¹ý¿ø ÁøÀÔ ½Ãµµ¡¯ ´ëÁø¿¬ È¸¿ø 4¸í ±¸¼Ó¿µÀå ±â°¢ ¸¹ÀÌ º» ±â»ç Á¤Ä¡ °æÁ¦ »çÈ¸ ±¹Á¦ ¿£ÅÍ ¶óÀÌÇÁ TOP50 ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 ±èÇý°æ¡¤¼³³­¿µ ¿©»ç Ã¹ ¸¸³²¡¦¼ÕÀâ°í È¯´ã ³ª´² [Æ÷Âø] 2 ¹æÅºº¹ ÀÔ°í ÃâÁ¤½Ä µîÀåÇÑ ì°¡¦ Àú°Ý ¹æºñ Ç³¼±¡¤¹æÅºÀ¯¸® °ËÅä 3 [´Üµ¶] ¡°¡®2000¸¸¡¯ Æ½ÅäÄ¿ Á¢ÃË Áß¡±¡¦ ¹ÎÁÖ´ç, MZ Àâ±â ³ª¼±´Ù 4 ±è¹®¼ö ¡°³¯ ´ë¼±ÈÄº¸ ¸¸µç °Ç ¹ÎÁÖ´ç ¼­¿µ±³¡±¡¦Ãø±Ù Àü¾ð 5 ±è¹®¼ö ¡°ÅºÇÙÀÇ ÆÄµµ ³Ñ¾î¾ß¡¦ ëÅ¿¡°Ô ¡®Å»´çÇÏ¶ó¡¯´Â ¿ÇÁö ¾Ê´Ù¡± ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 [´Üµ¶] ¡°SKT ºñ¹æ ¸»¶ó¡±¡¦LGÀ¯ÇÃ·¯½º »çÀå ¡®¸¶ÄÉÆÃ ±ÝÁö·É¡¯ 2 SKT ¡°¡®À¯½É Àç¼³Á¤¡¯ ÇÏ¼¼¿ä¡¦ ±³Ã¼¶û ¶È°°½À´Ï´Ù¡± 3 Ä«Æä¼± Æò¾ç³Ã¸é°ª, È£ÅÚ¼± 15¸¸¿ø¡¦ ºù¼ö°¡ ¹¹±â¿¡ 4 º»¾÷ Å°¿î Á¤¿ëÁø¡¦ ÀÌ¸¶Æ® 8³â ¸¸¿¡ ÃÖ´ë ½ÇÀû 5 Èçµé¸®´Â K¿øÀü ¼öÃâ¡¦ ÇÊ¸®ÇÉ ¹ÙÅº»ç¾÷µµ ºÒÅõ¸í ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 °ÔÀÓ ÁöÀû¿¡¡¦±³»ç ¾ó±¼ ÆøÇàÇÑ °í3, ¡®°­Á¦ ÀüÇÐ¡¯ Ã³ºÐ 2 ¡®ÀüµÎÈ¯ ¾ó±¼ °¡¹æ¡¯ ÆÇ ¼îÇÎ¸ô¡¦5¡¤18Àç´Ü Ç×ÀÇ¿¡ Áß´Ü 3 ÀÌÃµ ¹°·ù Ã¢°í¼­ Å« ºÒ¡¦ ¼Ò¹æ ´ëÀÀ 2´Ü°è ¹ß·É 4 ¡®´ë¹ý¿ø ÁøÀÔ ½Ãµµ¡¯ ´ëÁø¿¬ È¸¿ø 4¸í ±¸¼Ó¿µÀå ±â°¢ 5 ±¤°í ¹®±¸ºÎÅÍ ´ß»ÀÆ¢±è ±â±¸±îÁö¡¦¹éÁ¾¿ø ¼ö»ç ¡®14°Ç¡¯ ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 ¡°°æÁ¦ ºØ±« ÇÇÇß´Ù¡±¡¦°ü¼¼ ÀüÀï ¡®Àü°Ý ÈÞÀü¡¯¿¡ Áõ½Ã ¡è °æ±â Ä§Ã¼ È®·ü ¡é 2 çÈ, ¾ÆÇÁ°£ µî¼­ ¾ÆÀÌµµ ¡®Ã³Çü¡¯¡¦¡°¼ö°©Ã¤¿ö »ç»ì¡± 3 ¹Ì±¹¡¤Áß±¹, »óÈ£ °ü¼¼ ¡®115% Æ÷ÀÎÆ®¡¯ ÀÎÇÏÇÏ±â·Î ÇÕÀÇ 4 ±æ °È´ø ÇÑ±¹ ¿©¼º¿¡ ¡°´õ·´´Ù ²¨Á®¡±¡¦ÇÁ¶û½º °ËÂû ¼ö»ç 5 ¡°Æ®·³ÇÁ, ¾Ö´ý ½º¹Ì½º¿ÍÀÇ ¹«¿ª ÀüÀï¿¡¼­ Á³´Ù¡±¡¦È¤Æò¹Þ´Â ¸®´õ½Ê ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 »çº°ÈÄ 12§¸ ºüÁø ±¸ÁØ¿± ±ÙÈ²¡¦Àå¸ð ¡°»çÀ§ Á¡Á¡ ¾ßÀ§¾î¡± 2 ¡®ÇÏÆ®Æä¾î¸µ¡¯ PD ¡°³ªÀÌ¡¤Á÷¾÷ ¾È µÚ ¾ç»ó ´Þ¶óÁ®¡¦30´ë ÃÊ ¿¬¾Ö°ü º¯È­ ÁÖ¸ñ¡± 3 °¨Á¤º¸´Ü Çö½Ç¡¦ ´Þ¶óÁö´Â °áÈ¥ Àû·É±âÀÇ ¿¬¾Ö 4 ¡®ÇÎÅ© ¹èÆ®¡¯ ÈÖµÎ¸¥ ÀÌÁ¤ÈÄ, 4G ¸¸¿¡ ¹«¾ÈÅ¸ Ä§¹¬ ²£´Ù 5 ¡°½ÅÀº°æÀº ¸ð¼º¾Ö ¾ø´Â »ç¶÷¡¦ Çã¾ðÁõ °¡Áõ½º·´´Ù¡± Ãæ°Ý Æø·Î ÇØ´çºÐ¾ßº° ±â»ç ´õº¸±â 1 ¡°±×¸¸µÑ°Ô¿ä¡± ½ÅÀÔ »ç¿ø Àý¹Ý ÀÌ»óÀº ÀÔ»ç ÈÄ 3³â ³»¿¡ Åð»ç 2 Ä¡¸Å, ±â¾ï·Â ÀúÇÏ ÇÇÇÏ°í ½Í´Ù¸é? ³ú °Ç°­¿¡ ²À ÇÊ¿äÇÑ ¡®ÀÌ°Í¡¯ 3 ¡®À§°íºñ¡¯º¸´Ù »ì ´õ Àß ºüÁø´Ù´Â ¡®ÀÌ ¾à¡¯¡¦ºñ¸¸Ä¡·áÁ¦ °Ýµ¹ 4 ¡°¡®´ëÀå¾Ï ¾¾¾Ñ¡¯ ¿ëÁ¾ Áø´Ü¿¡ AI È°¿ë¡¦ ¼±Á¾ °ËÃâ µî Á¤È®µµ »ó½Â¡± 5 40¼¼ ¹Ì¸¸ ¿©¼º ¡®¹Ì¸¸Çü À§¾Ï¡¯ Á¶±âÁø´Ü ±æ ¿­·Á ¶óÀÌºê¸® ´ñ±Û ÀÛ¼ºÀ» À§ÇØ JavaScript¸¦ È°¼ºÈ­ÇØÁÖ¼¼¿ä</t>
+  </si>
+  <si>
+    <t>2028년까지 교육정책을 통해 AI 및 에듀테크 기술을 활용한 교육 환경을 조성하고, 교육산업 발전을 위해 다양한 정책 및 프로그램을 추진할 예정이다.</t>
+  </si>
+  <si>
+    <t>데이원컴퍼니, AI 교육 콘텐츠 매출 85억 기록…”중장년층 수요 중심으로 2700% 성장” &lt; 보도자료 &lt; AI 기업 &lt; 산업 &lt; 기사본문 - AI타임스</t>
+  </si>
+  <si>
+    <t>AI타임즈</t>
+  </si>
+  <si>
+    <t>https://www.aitimes.com/news/articleView.html?idxno=170344</t>
+  </si>
+  <si>
+    <t>(사진=데이원컴퍼니) 성인 교육 전문 데이원컴퍼니(대표 이강민)는 실무 교육 브랜드 패스트캠퍼스가 인공지능(AI) 교육 콘텐츠로 2020년 매출 3억여원에서 2024년 85억여원으로 2733% 급증했다고 12일 밝혔다. 데이원컴퍼니 패스트캠퍼스는 2020년부터 AI 교육 콘텐츠를 선보인 바 있다. 당시 5개에 불과했던 AI 강의 수는 2024년에 152개를 기록하며 30배 이상 증가했다. 특히, 2024년 한 해에만 95개의 신규 AI 강의를 론칭했다. AI 교육 수요의 중심이 디지털 네이티브 세대가 아닌 중장년층이라고 설명했다. 2024년 패스트캠퍼스의 AI 강의 상세 페이지 방문 데이터를 분석한 결과, 45~54세 방문자가 25%로 가장 높은 비중을 차지했다. 40대 이상 연령층은 전체 방문자의 45%에 달했다. 65세 이상 시니어층 역시 5%를 차지했다. 지난해 패스트캠퍼스에서 가장 높은 매출을 기록한 AI 강의는 ‘테디노트의 랭체인을 활용한 GPT부터 로컬 모델까지의 RAG 가이드’로, 누적 매출 60억원을 돌파하며 AI 강의 중 가장 큰 성과를 거뒀다. 이어 ‘프로에게 배우는 ComfyUI 이미지/영상/게임/광고 제작’이나 ‘AI 시대 일잘러를 위한 비현실적인 400가지 챗GPT 활용 바이블’이 각각 54억원, 40억원의 매출을 기록했다. 이강민 데이원컴퍼니 대표는 “AI는 이제 선택이 아닌 모든 산업 분야의 필수 역량으로 자리잡고 있으며, 특히 중장년층의 높은 학습 의지는 이러한 변화를 분명하게 보여준다"라며 "앞으로도 기술 변화의 최전선에서 산업별 맞춤형 AI 교육 콘텐츠를 개발, 누구나 쉽게 따라올 수 있는 실전형 교육을 선보이겠다"라고 말했다. 장세민 기자 semim99@aitimes.com 키워드 관련기사 패스트캠퍼스 "의료 인력 AI 실무 교육 수요 급증…강의 출시 50일 만에 매출 1억 돌파" '최대 실적' 데이원컴퍼니 “AI 교육 B2B·B2G 확대로 수익 확대” 데이원컴퍼니, 델라웨어에 현지 법인 설립…100억 매출 목표 Copyright © '인공지능 전문미디어' AI타임스 (http://www.aitimes.com) 무단전재 및 재배포 금지 기사제보 및 보도자료 news@aitimes.com 키워드 Tags #ai #AI #인공지능 #데이원컴퍼니 #패스트캠퍼스 #교육 #강의 #콘텐츠 장세민 기자 semim99@aitimes.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 AI타임스 블로그 AI타임스 유튜브</t>
+  </si>
+  <si>
+    <t>데이원컴퍼니의 패스트캠퍼스가 AI 교육 콘텐츠로 매출을 급증시켰으며, 중장년층의 AI 교육 수요가 높아지고 있음을 보여줌. 이에 데이원컴퍼니는 앞으로도 산업별 맞춤형 AI 교육 콘텐츠를 개발할 계획이라고 함.</t>
+  </si>
+  <si>
+    <t>'영리기업 전환 포기' 오픈AI, 마이크로소프트와 헤어질 결심? | 한국일보</t>
+  </si>
+  <si>
+    <t>https://www.hankookilbo.com/News/Read/A2025051209460004788?did=NA</t>
+  </si>
+  <si>
+    <t>'영리기업 전환 포기' 오픈AI, 마이크로소프트와 헤어질 결심? | 한국일보 읽는 재미의 발견 새로워진 한국일보 로그인/회원가입 관심과 취향에 맞게 내맘대로 메인 뉴스 설정 구독한 콘텐츠는 마이페이지에서 한번에 모아보기 속보, 단독은 물론 관심기사와 활동내역까지 알림 자세히보기 닫기 한국일보 경제 정치 경제 사회 국제 문화 연예 스포츠 사람 라이프 오피니언 구독 + 정치 국회/정당 대통령실 외교 국방/북한 정치일반 경제 경제정책 산업 금융/증권 부동산 IT/과학 경제일반 사회 사건/사고 법원/경찰 교육 노동 보건/복지 날씨/환경 사회일반 국제 아시아/호주 미국/중남미 유럽 중동/아프리카 글로벌 이슈 국제일반 문화 책 공연/전시 문화일반 연예 연예일반 영화 방송 음악 실시간 연예 포토 뉴스 스포츠 야구 축구 농구 배구 해외스포츠 골프 바둑 스포츠일반 사람 인터뷰 인사/동정 부고 사람일반 라이프 음식 여행 건강 블론디 백운산 오늘의 운세 라이프일반 지역 수도권 대전/충청/강원 대구/경북 부산/경남 광주/전라/제주 오피니언 사설 칼럼 만평 사고알림 포커스 취재 기획/연재 인터랙티브 뉴잼 동물 영상 구독 + 뉴스레터 버티컬 커리업 터치유 주제판 공지 회사소개 광고안내 사업제휴 저작물구매안내 사진 검색 &amp; 구매 멤버십 혜택 이벤트 고객센터 지면보기 제보 구독안내 '영리기업 전환 포기' 오픈AI, 마이크로소프트와 헤어질 결심? 검색하기 알람 메뉴 열기 알림 알림설정 내 알림 더보기 알림설정 웹 알림 동의 (크롬브라우저만 가능) 구독 업데이트 및 주요 알림 확인 알림 알림이 없습니다 '영리기업 전환 포기' 오픈AI, 마이크로소프트와 헤어질 결심? 이서희 기자 입력 2025.05.12 14:23 수정 2025.05.12 14:30 좋아요 0 0 0 댓글달기 0 "오픈AI '공익법인' 전환 결정 따라 양사, 파트너십 조건 변경 논의 중" 이미지 확대보기 2023년 11월 미국 샌프란시스코에서 열린 오픈AI의 첫 개발자 콘퍼런스에서 샘 올트먼(왼쪽) 오픈AI 최고경영자(CEO)가 무대에 깜짝 등장한 사티아 나델라 마이크로소프트 CEO와 악수하고 있다. 샌프란시스코=이서희 특파원 챗GPT 개발사 오픈AI가 마이크로소프트(MS)와 파트너십 조건을 재조정하고 있는 것으로 알려졌다. MS는 지금까지 오픈AI에 약 130억 달러(약 18조2,500억 원)를 투자한 최대 투자자로, 오픈AI 지분 49%를 보유하고 있다. 영국 파이낸셜타임스(FT)는 11일(현지시간) 두 회사가 파트너십 내용을 변경하기 위한 협상을 벌이고 있다고 전했다. 양사는 2019년 MS가 오픈AI에 첫 투자할 때 2030년까지 유효한 파트너십 계약을 맺었고, 여기에는 오픈AI의 AI 모델과 서비스 등에 대한 MS의 접근권을 보장한다는 내용과 일정 수익을 배분받는다는 내용 등이 포함된 것으로 알려진다. MS는 향후 오픈AI가 공익법인으로 전환하면 지분 일부를 포기하는 대신 2030년 이후에도 오픈AI가 개발하는 신규 기술에 대한 접근권을 갖는 방식을 제안했다고 한다. 오픈AI가 지난 5일 영리와 공익을 동시에 추구하는 공익법인으로 회사 구조를 개편하겠다고 밝혔다. 오픈AI는 전반적인 의사결정권을 가진 비영리 모기업이 영리사업을 하는 회사를 지배하는 구조로, 완전 영리법인으로 전환하는 방안을 추진 중이었으나 업계 반대 등에 계획을 결국 포기했다. MS는 공익법인인 오픈AI의 지분보다는 장기적인 기술 접근권을 확보하는 게 자사에 더 유리하다고 판단한 것으로 읽힌다. 오픈AI와 MS는 AI 업계에서 드문 공생 관계였다. MS는 2023년부터 자사 제품에 오픈AI의 AI 모델을 통합하기 시작했고, 클라우드(가상서버)를 통해 대규모 컴퓨팅 자원을 오픈AI에 제공해 왔다. 그러나 오픈AI가 기업 고객들을 상대로 자사 제품을 직접 판매하기 시작하면서 MS와는 협력과 경쟁을 병행하는 관계가 됐다. 올해 초 일본 소프트뱅크, 오라클 등과 함께 미국에 초대형 컴퓨팅 인프라를 구축하는 스타게이트 프로젝트를 발표하면서 관계는 더 미묘해졌다. 스타게이트가 성공하면 오픈AI는 더 이상 MS의 클라우드 인프라에 의존하지 않아도 되기 때문이다. 이번 협상이 마무리되면 양사의 관계는 재정립된다. 어떤 식으로 정리되든 과거보다 협력의 끈은 더 느슨해질 수밖에 없다. 오픈AI의 지배 구조뿐 아니라 AI 업계 경쟁 구도에도 영향을 미칠 전망이다. 실리콘밸리= 이서희 특파원 shlee@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 댓글 쓰기 이 기사와 관련된 기사 세상을 보는 균형, 한국일보 Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을 만한 이슈 X 경제 많이 본 뉴스 LIVE ISSUE 읽기모드 본문크기 북마크 공유하기 프린트 좋아요 0 싫어요 0 댓글달기 0 sksgabcd 공감합니다. 앞으로도 좋은 기사 부탁드려요 좋은 결정을… 흰색 배경 검은색 배경 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 가 가 가 가 가 댓글 0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인 하면 다양한 편의 기능을 제공 받을 수 있습니다. 내 관심사대로 메인뉴스 설정 구독한 콘텐츠 모아보기 제공 주요기사와 추천, 활동내역 알림 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 로그인 유지 회원가입 비밀번호 찾기 아이디 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 로그인 유지 공공장소에서 사용하는 컴퓨터에서는 로그인 유지 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 회원가입 불가 만 14세 이상만 회원으로 가입하실 수 있습니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 내용보기 개인정보처리 방침 (필수) 내용보기 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 내용보기 한국일보가 제공하는 다양한 형태의 이벤트 및 행사(포럼, 대회, 강연, 시상, 수상, 구독 등) 관련한 참여 정보를 추천·안내 뉴스레터 등 추천 서비스 이용 동의 (선택) 내용보기 한국일보가 회원을 위해 제공하는 뉴스레터 등 모든 뉴스 서비스(뉴스, 영상, 뉴스 서비스 기반 이벤트 및 프로모션, 새로운 포맷 콘텐츠) 등 추천·안내 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 선택 항목 미동의 시 뉴스 추천서비스 혹은 이벤트/행사 당첨 혜택에서 제외될 수 있습니다. 다음 중복 가입 확인 이미 가입된 회원입니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를
+                        사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 '영리기업 전환 포기' 오픈AI, 마이크로소프트와 헤어질 결심? 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요. (최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 알림 해당 컨텐츠를 구독/취소 하실수 없습니다. 확인 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인 제보하기 완료 보내주신 소중한 제보는 정상적으로 접수되었으며 뉴스 제작에 활용될 예정입니다. 확인 업로드 불가 파일 이미지, 영상, 문서, 압축 형식의 파일만 첨부 가능합니다. 업로드 가능 파일 형식 jpg, jpeg, png, mp4, avi, hwp, doc, zip 확인 닫기 이서희 기자 국제부 특파원 제보안내 제보자의 신분은 한국일보 보도 준칙에 따라 철저히 보호되며, 제공하신 개인정보는 취재를 위해서만 사용됩니다. 개인정보 보호를 위한 이용자 동의사항 (필수) 개인 정보 수집 및 이용 목적 : 회사는 수집한 개인정보를 제보 내용에 관한 확인 및 처리 등의 업무를 위해 수집, 이용하고 있습니다. 수집하는 개인정보 항목 - 이름, 이메일, 전화번호 동의합니다. 제보하기 추가 *최대 용량 10MB 개인정보 보호를 위해 익명 제보가 가능하며 실명인증을 하지 않습니다. 단, 제보자 연락 및 추가 취재가 필요하신 제보자는 연락처를 정확히 기입해주시기 바랍니다. 1:1 제보하기 확대 이미지 닫기</t>
+  </si>
+  <si>
+    <t>오픈AI가 영리기업 전환을 포기하고 공익법인으로 전환하기로 결정하며, 마이크로소프트와의 파트너십 조건을 재조정 중인 것으로 전해졌다. 마이크로소프트는 오픈AI에 대한 투자를 통해 지분을 보유하고 있으며, 양사의 관계가 재정립될 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>교육부 “유급 확정된 의대생들 원칙대로…미루는 대학은 행정 처분”</t>
+  </si>
+  <si>
+    <t>한겨레</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/028/0002745449</t>
+  </si>
+  <si>
+    <t>서울의 한 의과대학. 연합뉴스 교육부가 40개 의과대학 재학생 가운데 8천 여명을 유급 대상자로 확정한 가운데, 추후 개별 학교에서 유급·제적 학생 구제 등에 나설 경우 학사 점검 등을 통해 제재에 나설 것이라고 밝혔다. 김홍순 교육부 의대교육지원관(의대국장)은 12일 정부세종청사에서 열린 정례브리핑에서 ‘유급·제적 대상자가 확정이 됐어도 아직 조치가 이뤄지지 않다보니 학생들이나 대한의사협회에서 유급 철회 등 여지를 두는 것 같다’는 취지의 질문에 “사실상 유급이 발생해도 대부분 학교가 학기 말, 어떤 학교는 학년 말에 (조치를 하기 때문에) 행정적인 처리만 남았고, 대학이 원칙대로 하리라 믿는다”고 말했다. 아울러 “(지난 7일) 공문을 받을 때 내부 결재를 받아 공식적인 문서를 보낸 것"이므로 "새로운 규정을 만든 게 아니라 기존 학칙을 적용하도록 해서 바꾸기는 쉽지 않아 보인다”고 설명했다. 그러면서 김 국장은 ‘유급·제적을 학칙에 따라 안 하면 교육부가 모집인원 감축도 할 수 있냐’는 질문에 대해 “미리 어떤 제재를 할지 말하긴 어렵지만, (학사 지도·감독 권한이 있는) 교육부에서 학사 점검시 실질적인 위반이 있을 때 행정처분위원회가 열리는 등 처리하는 규정이 있다”고 말했다. 내년 24·25·26학번 등 세 개 학번이 한꺼번에 수업 받는 규모에 대해서는 기존에 알려진 1만 명 이상이 아닌 6천명 내외가 될 것이라고 내다봤다. 김 국장은 “내년도 예과 1학년은 5500명에서 6100명 사이가 될 것 같다”며 “3개 학년 1만명이 교육 받지는 않을 것”이라고 말했다. 의대 교육 과정 개선 및 교육 정책 수립 등을 위해 구성하기로 한 의학교육위원회에 대해서는 “이번 주 기본계획을 결재 받아 진할할 계획”이며 “위원 추천 등에 시간이 조금 걸릴 것 같다”고 설명했다.</t>
+  </si>
+  <si>
+    <t>교육부가 의과대학 재학생 8천 여명을 유급 대상자로 확정하고, 개별 학교에서 유급·제적 학생 구제 시 학사 점검을 통해 제재할 예정이라고 밝혔다. 또한 내년 의대 학생 수는 6천명 내외로 줄어들 것으로 예상되며, 의학교육위원회 구성 계획이 결재를 받아 진행될 예정이다.</t>
+  </si>
+  <si>
+    <t>ê²½ê¸°ëêµì¡ì²­, ì¸ê³µì§ë¥ íì ë§ì¶¤í âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµâ ì´ì | ìì¸ì ë¬¸</t>
+  </si>
+  <si>
+    <t>서울신문</t>
+  </si>
+  <si>
+    <t>https://www.seoul.co.kr/news/society/education-news/2025/05/13/20250513500014?wlog_tag3=naver</t>
+  </si>
+  <si>
+    <t>ì¬í êµì¡ ê²½ê¸°ëêµì¡ì²­, ì¸ê³µì§ë¥ íì ë§ì¶¤í âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµâ ì´ì ìì¹ì ê¸°ì ì+ë ¥ 2025-05-13 08:41 ìì  2025-05-13 08:41 ê¸°ì¬ ì½ì´ì£¼ê¸° ë¤ìë£ê¸° ê¸ì¨ í¬ê¸° ì¡°ì  ê¸ìí¬ê¸° ì¤ì  ë«ê¸° ê¸ìí¬ê¸° ì¤ì  ì ë¤ë¥¸ ê¸°ì¬ì ë³¸ë¬¸ë_x000D_
+                      ëì¼íê² ì ì© ë©ëë¤. ê° ê° ê° ê° ê° íë¦°í¸ ê³µì íê¸° ê³µì ë«ê¸° íì´ì¤ë¶ ë¤ì´ë²ë¸ë¡ê·¸ ìì¤ ì¹´ì¹´ì¤í¡ ë°´ë https://www.seoul.co.kr/news/society/education-news/2025/05/13/20250513500014 URL ë³µì¬ ëê¸ 0 ì¬êµì¡ ìì´ ì¸ê³ë¡, ë¯¸ëí ì¸ì¬ ìì± ì´ë¯¸ì§ íë 12ì¼ ì±ë¨ ë°ë¦¬í í¼ì í¸í+ìì âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµ-LAONâ  ì´ì ì§ìì ìí ìí¬ìì´ ì´ë ¸ë¤. (ê²½ê¸°ëêµì¡ì²­ ì ê³µ) ë«ê¸° ì´ë¯¸ì§ íë ë³´ê¸° 12ì¼ ì±ë¨ ë°ë¦¬í í¼ì í¸í+ìì âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµ-LAONâ  ì´ì ì§ìì ìí ìí¬ìì´ ì´ë ¸ë¤. (ê²½ê¸°ëêµì¡ì²­ ì ê³µ) ê²½ê¸°ëêµì¡ì²­ì´ âìëí+í¬â ê¸°ë° ìì´ ìì+ íì ê³¼ ì¸êµ­ì´êµì¡ ë¤ìíë¡ âê¸ë¡ì»¬ ìµí© ì¸ì¬âë¥¼ ê¸°ë¥´ë âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµ-LAONâ ì¬ì+ì ë³¸ê²© ì¶ì§íë¤ê³  13ì¼ ë°íë¤. âê²½ê¸°ì¸êµ­ì´ë¯¸ëêµì¡ ì ëíêµ-LAONâì ë¯¸ë ì§ë¡ íì ì­ëì ê°ì¶ ì¸ì¬ë¥¼ ìì±íê¸° ìí´ âìëí+í¬âë¥¼ íì©í´ íì ë§ì¶¤í ì¸êµ­ì´êµì¡ì ì¤ì²íë íêµë¤. ì ëíêµë ì§ëë¬ ê³µëª¨ë¥¼ íµí´ ëë´ 31ê° ìêµ°ë³ë¡ ì ì íì¼ë©° ì´ë¬ ì¤ ì´ìì ììíë¤. âì ëíêµ-LAONâì ê³µíµê³¼ì ë âì¸ê³µì§ë¥(AI) ê¸°ë° ìëí+í¬â íì© íì ë§ì¶¤í ìì´ ìì+ íì±íë¥¼ ìí´ â²(ì´ë±) âAI í­í¡âê³¼ íì´ë¬ë â²(ì¤ë±) íì´ë¬ë íì© ìì´ ìì+ì´ë¤. ì íê³¼ì ë â²2022 ê°ì  êµì¡ê³¼ì  ë°ì íêµë³ í¹ììë ì¸êµ­ì´ êµì¡ê³¼ì  â²ì¬êµì¡ë¹ ê²½ê°ì ìí íì ë§ì¶¤í ì¸êµ­ì´ ìì+ â²ì£¼ì  ì¤ì¬Â·êµê³¼ ìµí© ì¸êµ­ì´ íë¡ì í¸ ìì+ â²ê¸ë¡ì»¬ ìµí© ì¸ì¬ë¥¼ ìí í¹ìì¸êµ­ì´ íë¡ê·¸ë¨ â²ì§ì­ê³¼ í¨ê»íë ì¸êµ­ì´êµì¡ íë¡ê·¸ë¨ ë±ì´ë¤. ëêµì¡ì²­ì 31ê° ìêµ°ì ëííë ì ëíêµë¥¼ íµí´ ì§ì­ê³¼ íêµì ì¬ê±´ì ì í©í ë¤ìí ì¸êµ­ì´êµì¡ ëª¨ë¸ì ê°ë°íê³  ì´ë¥¼ ëë´ ëª¨ë  íêµì ê³µì í  ìì ì´ë¤. ê²½ê¸°ëêµì¡ì²­ íê³ëª+ ìµí©êµì¡ê³¼ì¥ì âì´ë² ì ëíêµë ê²½ê¸° ì¸êµ­ì´êµì¡ì ìë¡ì´ ì§íì ì¬ë ê³ê¸°ê° ë  ê²ì´ë¤âë©´ì âê³µêµì¡ ì¤ì¬ ì¸êµ­ì´êµì¡ íì ì¼ë¡ ì¬êµì¡ ë¶ë´ì ì¤ì´ê³ , ë¤ìí ì¸ì´ ì­ëì ê¸ë¡ì»¬ ì¸ì¬ ìì±ì ê°ííê² ë¤âë¼ê³  ë°íë¤. ìì¹ì ê¸°ì Copyright â ìì¸ì ë¬¸ All rights reserved. ë¬´ë¨ ì ì¬-ì¬ë°°í¬, AI íìµ ë° íì© ê¸ì§</t>
+  </si>
+  <si>
+    <t>교육정책에 관한 뉴스로, 교육 분야에서의 변화와 혁신을 다루고 있음. LAON이라는 교육기관이 새로운 교육 방식을 도입하여 학생들에게 혁신적인 교육 경험을 제공하고 있음.</t>
+  </si>
+  <si>
+    <t>'찾아가는 도서전' 개최⋯동유럽 시작으로 중동까지 K북 개척한다 - 이투데이</t>
+  </si>
+  <si>
+    <t>이투데이</t>
+  </si>
+  <si>
+    <t>https://www.etoday.co.kr/news/view/2469700</t>
+  </si>
+  <si>
+    <t>'찾아가는 도서전' 개최⋯동유럽 시작으로 중동까지 K북 개척한다 - 이투데이 속보창 신문/PDF 구독 RSS 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 일반 오피니언 증권·금융 부동산 기업 글로벌경제 정치·경제 사회 문화·라이프 뉴스발전소 e스튜디오 오피니언 사설 데스크 시각 마감 후 칼럼 노트북 너머 이슈n인물 증권·금융 공시 시황 시세 환율 장외/IPO 특징주 투자전략 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 국제시황 미국 중국 아시아 유럽/중동 정치·경제 대통령실/총리실 정책 국회/정당 국방/외교 경제 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 일반 뉴스발전소 이슈크래커 요즘, 이거 그래픽스 한 컷 e스튜디오 스페셜리포트 Channel 5 위너스IR클럽 날씨 이투데이 문화·라이프 공연/출판 '찾아가는 도서전' 개최⋯동유럽 시작으로 중동까지 K북 개척한다 입력 2025-05-12 16:34 송석주 기자 기자 이름을 클릭하면 더 자세한 정보를 확인할 수 있어요! 북마크 되었습니다. 마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 문화체육관광부는 한국출판문화산업진흥원과 함께 K북의 동유럽 시장 진출을 위해 12일부터 16일까지 체코와 폴란드에서 '찾아가는 도서전'을 개최한다. 12일 문체부에 따르면, '찾아가는 도서전'은 국내 출판콘텐츠의 해외시장 진출을 위해 2015년부터 연간 총 3~4회를 개최해 온 기업 간 사업 상담회다. 올해는 처음으로 체코와 폴란드에서 연다. 문학동네, 미래엔, 북극곰, 자음과모음 등 국내 15개사가 참가하는 이번 상담회에서는 그린북에이전시가 현지에 직접 참여하지 못하는 국내 출판사의 위탁도서 100종에 대한 수출 상담을 맡는다. 상담회 기간 중 체코와 폴란드의 출판시장 동향을 우리 출판사에 소개하는 세미나도 열린다. 상담 종료 후에는 한국 출판콘텐츠가 지속적으로 확산하도록 주체코대한민국대사관과 주폴란드한국문화원에 전시 도서를 기증할 예정이다. 관련 뉴스 "로컬 관광 성지로"...중구, 문체부 관광특구 활성화 공모 선정 [인사] 문화체육관광부 한류 팬들의 축제…문체부, '2025 마이케이 페스타' 개최 7월에는 대만, 9월에는 미국, 11월에는 아랍에미리트(UAE) 두바이에서 수출 상담을 진행한다. #문체부 #문화체육관광부 송석주 기자의 주요 뉴스 자세히보기 '세종대왕 나신 날'이 '스승의 날'?...국민 76.3% "모른다" 어른들이 왜 그림책을 읽냐고?⋯"독립된 시각예술 콘텐츠" 메가박스-롯데시네마 손 잡는다⋯한국영화ㆍ극장 산업 지각변동 좋아요 0 화나요 0 슬퍼요 0 추가취재 원해요 0 주요 뉴스 새 아이폰에 국산 부품 대거 탑재⋯中 추격 제동 [ET의 칩스토리] 삼성디스플레이, OLED 제어 기판 폴더블 주름개선 패널 공급 맡은 듯 中 업체보다 앞선 기술력 인정받아 고용량 삼성전자 메모리 탑재 관측 애플의 아이폰 신제품 공개 시점이 다가오면서 곧 출시될 제품에 채택될 부품으로 중국보다 국내 기업의 소식이 먼저 전해지고 있다. 인공지능(AI) 기능으로 인한 발열을 잡아줄 저온다결정실리콘산화물( '불꽃야구' 시끄러웠던 2025 트라이아웃 드디어 공개…김성근 픽은 누구? '불꽃야구' 트라이아웃에 프로출신 선수들이 대거 모습을 드러냈다. 12일 유튜브 채널 '스튜디오시원 StudioC1' 실시간 스트리밍으로 공개된 2화에서는 '불꽃야구' 불꽃 파이터즈의 새 일원을 뽑는 '2025 트라이아웃'이 공개됐다. 이날 불꽃 파이터즈는 트라이아웃 입단테스트를 통해 투수, 포수, 유격수, 3루수, 외야수 선발에 나섰다. 기존 출 동학개미 표심 잡기 ‘사활’…대선후보 '배당소득세 완화·가상자산' 쏟아지는 자본시장 공약 12일 선관위에 10대 공약 제출 경제 살리기 최우선 속 ‘투자자 표심’ 쟁탈전 제21대 대선을 앞두고 여야 후보가 ‘경제 살리기’를 전면에 내건 가운데 개인투자자 표심을 겨냥한 자본시장 공약을 쏟아내고 있다. 배당소득세 완화, 코스피 5000시대 실현을 핵심으로 가상자산 시장을 겨냥한 공약까지 더하며 정책 경쟁이 과열되는 모양새다. 12일 "내란세력"  "가짜 진보" "압도적 새로움"…판 뒤집을 '한 방'은 아직 대선 후보들, 프레임 선점 경쟁 시작 이재명 "내란 종식" 김문수 "가짜 진보" 이준석 "압도적 새로움" 정치권 안팎 "판세 뒤집을 변수 흐릿" 3주간의 대권 레이스 총성이 울렸다. 더불어민주당과 국민의힘은 서로를 '내란세력' 혹은 '가짜 진보'로 정의하며 프레임 선점 경쟁에 돌입했다. 개혁신당은 "압도적 새로움"을 내세우며 정치 교체를 강 “첨단 AI 솔루션 대거 선봬”…삼성·SK, 美 ‘DTW 2025’ 나란히 참가 19~22일 'DTW 2025' 개최해 삼성·SK, 부스 및 발표 세션 진행 국내 반도체 양대산맥인 삼성전자, SK하이닉스가 미국 전자기업 델 테크놀로지스가 주최하는 글로벌 전시회에 참가해 자사의 최신 솔루션과 기술을 선보인다. 미국 빅테크 기업 중심으로 인공지능(AI) 시장이 지속 확장하고 있는 만큼 양사는 이번 행사에서 글로벌 고객사와 적극적 ‘공적자금 연명’ MG손보, 구조조정 남았다⋯계약 유지 여전히 '안갯속' 고용 불안에 노조 기자회견·피켓 시위 예고 가교보험사에 공적자금 투입 장기화 염려도 금융당국이 MG손해보험 정리를 위해 가교보험사 설립 카드를 꺼내면서 구조조정 그림자가 짙어지고 있다. 기존 영업 조직과 본사 인력 정리가 불가피한 가운데 가교보험사는 계약 이전을 위한 ‘징검다리’에 그치는 만큼 가입자들의 불안감이 커지고 있다. 1 국산쌀은 일본행, 쌀가공식품은 미국행…찬밥 신세 벗어난 K-쌀[우리쌀, 해외서 재발견] 2톤 규모 쌀, 35년 만에 첫 일본행 작년 가공품 수출 전년대비 38% 증가 국내서 '남는 쌀' 제품화 가속도 “먹어도 먹어도 남아돈다.” 창고에 수많은 쌀 포대가 쌓여, 골칫덩이로 여겨지던 우리쌀이 최근 해외에서 귀하신 몸이 되고 있다. 우리쌀과 쌀가공식품 형태로 수출이 증가하고 있기 때문이다. 12일 한국농수산식품유통공사(aT)에 따르면 배터리업계, 구조조정 도미노…“강한 기업만 살아남는다” 전기차 캐즘 직격탄에 글로벌 배터리 기업들 ‘줄줄이 파산’ LG엔솔 등 투자계획 철회 잇따라 국내 배터리 3사 점유율 하락세 “직접환급제 등 정책 지원 절실” 전기차 캐즘(Chasm·일시적 수요 정체) 여파로 배터리 업계에 구조조정과 파산 도미노가 현실화하고 있다. 시장 성장 속도보다 빠르게 달려온 투자 계획이 재검토되면서 공장 설립이 중 많이 본 뉴스 01 '불꽃야구' 시끄러웠던 2025 트라이아웃 드디어 공개…김성근 픽은 누구? 02 '푸바오 근황' 이번에는 구토증상까지? 판다센터 공식답변은 "회충" 03 넷플릭스 '데블스 플랜2', 오늘(13일) 5~9회 공개…공개 시간은? 04 새 아이폰에 국산 부품 대거 탑재⋯中 추격 제동 [ET의 칩스토리] 05 코스피, 무역전쟁 휴전에도 '보합권'⋯한진칼 '상한가' 06 배터리업계, 구조조정 도미노…“강한 기업만 살아남는다” 07 국산쌀은 일본행, 쌀가공식품은 미국행…찬밥 신세 벗어난 K-쌀[우리쌀, 해외서 재발견] 08 ‘공적자금 연명’ MG손보, 구조조정 남았다⋯계약 유지 여전히 '안갯속' 09 에스바이오메딕스, 중증하지허혈 치료제 규제 샌드박스 선정 위한 신청서 제출 10 동학개미 표심 잡기 ‘사활’…대선후보 '배당소득세 완화·가상자산' 쏟아지는 자본시장 공약 최신 영상 2차전지 빠른 반등 '여기'서 나온다. 실적 급성장은 '이때' ㅣ 이창환 iM증권 영업이사 [찐코노미] 문화·라이프 최신 뉴스 "연패 끊는다"…삼성 vs kt, 포항서 혈전 예고 [프로야구 13일 경기 일정] '세종대왕 나신 날'이 '스승의 날'?...국민 76.3% "모른다" 안다즈 강남, 세븐틴 10주년 기념 케이크·코스요리 선봬 불교 전통의례 '생전예수재', 국가무형유산 신규 지정 예고 조선통신사 행렬부터 한복 패션쇼까지⋯오사카 물들이는 한류 브라질 축구대표팀, 새 사령탑에 ‘첫 외국인 감독’ 안첼로티 선임 '유미의 세포들 시즌3' 제작 확정, 김고은 남편 역 신순록은 누구? 진, 신곡 뮤비서 신세경과 연인 호흡…“애틋했던 우리의 이야기” 한국 여성 스트리머, 프랑스서 인종차별 논란…서경덕 "우월의식 문제" 롯데 타자 두 번이나 머리 맞았는데…‘헤드샷’에도 퇴장 없는 이유는? 뉴스발전소 [케팝참참]'임영웅을 잇는 목소리' 박지후의 성장 스토리 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 삼성전자, 역대 가장 얇은 스마트폰 '갤럭시 S25 엣지' 공개 [포토] 마켓 뉴스 특징주 투자전략 스톤브릿지벤처스, 리브스메드 1조 원대 상장 전망에 상승세 메이슨캐피탈, 리드코프 피인수 계약 체결…제4인터넷전문은행 영역 확대 기대감에 상승세 트럼프 약가 인하 추진에 바이오株 하락 데이원컴퍼니, AI 콘텐츠 매출 4년 만에 27배 증가 소식에 상승세 롯데쇼핑, 증권가 호실적 전망에 7%대 강세 [베스트&amp;워스트] 웹케시, 이재명 지역화폐 언급에 상승세…에코아이·마음AI도↑ [오늘의 투자전략] 국내 증시, 과매수권 진입 숨 고르기 흐름…실적주·정책주로 대응 [오늘의 투자전략] 국내 증시, 박스권 흐름…조선·방산·저PBR·AI·中소비재 주목 [오늘의 투자전략] 국내 증시, 상승 출발 전망…수출주 훈풍 기대감 하나證 “두산에너빌리티, 점진적 실적 기대” 오늘의 상승종목 05.13 13:42 실시간 코스피 코스닥 1. 한진칼우 6,850 2. 한진칼 22,300 3. 선진 820 4. 코웨이 11,300 5. 우신시스템 600 1. 플라즈맵 2,340 2. 파루 169 3. 유진로봇 2,880 4. 한솔인티큐브 537 5. 나우로보틱스 4,710 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 144,795,000 -0.44% 이더리움 3,461,000 -1.59% 비트코인 캐시 561,000 -2.09% 리플 3,487 +3.87% 솔라나 239,300 -2.6% 에이다 1,112 -2.97% 이오스 1,219 -5.58% 트론 373 +0.27% 스텔라루멘 428 -2.06% 비트코인에스브이 54,800 -5.92% 체인링크 23,090 -3.79% 샌드박스 486 -3.76% * 24시간 변동률 기준 오피니언 사설 데스크 시각 마감 후 칼럼 노트북 너머 이슈n인물 증권·금융 공시 시황 시세 환율 장외/IPO 특징주 투자전략 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 국제시황 미국 중국 아시아 유럽/중동 정치·경제 대통령실/총리실 정책 국회/정당 국방/외교 경제 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 일반 뉴스발전소 이슈크래커 요즘, 이거 그래픽스 한 컷 e스튜디오 스페셜리포트 Channel 5 위너스IR클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 회사소개 이용약관 개인정보처리방침 청소년보호정책 고충처리 이용문의 신문/PDF 구독 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아00197 ㅣ 등록일자 : 2006.04.27 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 재배포, AI학습 이용 등을 금지합니다. Copyright 2006. 이투데이 . All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령 , 기자윤리강령 , 임직원 윤리강령 및 실천규정 을 제정, 준수하고 있습니다. 한국기자협회와 한국신문방송편집인협회, 한국신문윤리위원회 윤리강령 및 실천요강도 준수합니다. 이투데이 독자편집위원회는 독자의 권익보호를 위해 정정‧반론 보도를 신속하고 효율적으로 처리하고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>문화체육관광부와 한국출판문화산업진흥원이 함께 '찾아가는 도서전'을 개최하여 K북의 동유럽 시장 진출을 위한 사업 상담회를 진행하고, 체코와 폴란드에서 연다. 국내 출판사들이 현지 출판시장 동향을 파악하고 수출 상담을 진행하며, 한국 출판콘텐츠의 확산을 위해 지속적인 노력을 기울일 예정이다.</t>
+  </si>
+  <si>
+    <t>슈퍼엔진, 스마트스터디벤처스로부터 시리즈 A 투자 유치 &lt; 보도자료 &lt; AI 기업 &lt; 산업 &lt; 기사본문 - AI타임스</t>
+  </si>
+  <si>
+    <t>https://www.aitimes.com/news/articleView.html?idxno=170364</t>
+  </si>
+  <si>
+    <t>퓨어모델AI로 제작한 김동화 작가의 '겨울암자'일부 (사진=슈퍼엔진) 인공지능(AI) 그림체 생성 전문 슈퍼엔진(대표 김동준)이 스마트스터디벤처스로부터 시리즈 A 투자를 유치했다고 12일 밝혔다. 투자 금액은 비공개다. 슈퍼엔진은 웹툰, 출판만화, 게임 그래픽 제작 등에 사용하는 이미지 생성 솔루션 ‘퓨어모델 AI’를 개발했다. ‘작가의 스타일을 지키는 AI’를 핵심 가치로, 창작자의 그림체를 보존하고 데이터 유출을 방지하는 것이 특징이다. 이번 투자유치를 통해 AI가 창작자의 도구로 기능하는 환경을 만드는 것을 목표로, 웹툰·게임·영상 등 콘텐츠 제작 전반에 적용 가능한 솔루션을 제공해 나갈 예정이다. 박수빈 기자 sbin08@aitimes.com 키워드 관련기사 슈퍼엔진, 일본 국회서 저작권 침해 우려 없는 AI 활용 방안 공개 슈퍼엔진, '신춘회'서 일본 파트너사와 웹툰 생성 AI 시연 리디 자회사 프로디파이, 웹툰 번역 AI로 B2B 나서..."웹툰 현지화 지원" Copyright © '인공지능 전문미디어' AI타임스 (http://www.aitimes.com) 무단전재 및 재배포 금지 기사제보 및 보도자료 news@aitimes.com 키워드 Tags #인공지능 #AI #웹툰 #이미지생성 #게임 #퓨어모델AI 박수빈 기자 sbin08@aitimes.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 AI타임스 블로그 AI타임스 유튜브</t>
+  </si>
+  <si>
+    <t>슈퍼엔진이 스마트스터디벤처스로부터 시리즈 A 투자를 유치하여 '퓨어모델 AI'를 개발하고, 창작자의 그림체를 보존하고 데이터 유출을 방지하는 솔루션을 제공할 예정이다.</t>
+  </si>
+  <si>
+    <t>78만 '아이들의 셀럽'에서 교육 사업가로…'다니언니'의 새 도전기 - 머니투데이</t>
+  </si>
+  <si>
+    <t>https://news.mt.co.kr/mtview.php?no=2025050719583138095</t>
+  </si>
+  <si>
+    <t>78만 '아이들의 셀럽'에서 교육 사업가로…'다니언니'의 새 도전기 - 머니투데이 본문영역 바로가기 로그인 머니투데이 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 헬스·바이오 최신기사 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 뉴스 속 오늘 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 헬스·바이오 최신기사 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판 / e-신문보기 서비스 신청 정치 벤처·스타트업 기술·트렌드·혁신 법률 패션·연예 국제시사·문예 매거진 전체보기 닫기 속보 이천 물류창고서 큰 불..."대응 2단계, 178명 대피" 화장지·리튬배터리 쌓인 이천 물류창고서 불…'110명 대피' 비상 검찰, '홈플러스 사태' 준법경영본부장 참고인 조사 문닫지 말고 영구화 vs 이스라엘처럼 민간화…모태펀드 운명은 부산·경남·울산 광역철도 조기 구축 한목소리 김문수, TK서 박정희 마케팅 "위대한 지도자…반대한 것 참회한다" 얼어붙은 정국에 지갑 닫았다…5개 시도, 소매판매 감소세 지속 경동대 호텔조리학과, '월드푸드올림픽' 라이브요리 부문 대상 박현주 가천대 교수, 언어치료 실용서 '언어치료 Q&amp;A' 출간 국토부-LG엔솔 맞손...1.1조 드론시장 키운다 이천 물류창고서 큰 불..."대응 2단계, 178명 대피" 화장지·리튬배터리 쌓인 이천 물류창고서 불…'110명 대피' 비상 검찰, '홈플러스 사태' 준법경영본부장 참고인 조사 문닫지 말고 영구화 vs 이스라엘처럼 민간화…모태펀드 운명은 부산·경남·울산 광역철도 조기 구축 한목소리 김문수, TK서 박정희 마케팅 "위대한 지도자…반대한 것 참회한다" 얼어붙은 정국에 지갑 닫았다…5개 시도, 소매판매 감소세 지속 경동대 호텔조리학과, '월드푸드올림픽' 라이브요리 부문 대상 박현주 가천대 교수, 언어치료 실용서 '언어치료 Q&amp;A' 출간 국토부-LG엔솔 맞손...1.1조 드론시장 키운다 검색창 열기 통합검색 검색 닫기 머니투데이 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 헬스·바이오 최신기사 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판 / e-신문보기 서비스 신청 정치 벤처·스타트업 기술·트렌드·혁신 법률 패션·연예 국제시사·문예 매거진 전체보기 닫기 78만 '아이들의 셀럽'에서 교육 사업가로…'다니언니'의 새 도전기 sns공유 더보기 2025 제21대 대통령 선거 D - 2 1 78만 '아이들의 셀럽'에서 교육 사업가로…'다니언니'의 새 도전기 머니투데이 최태범 기자 기자 더보기 sns공유 더보기 2025.05.13 09:00 문서 프린트 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 [스타트UP스토리]최다은 놀잇 대표 [이 기사에 나온 스타트업에 대한 보다 다양한 기업정보는 유니콘팩토리 빅데이터 플랫폼 '데이터랩' 에서 볼 수 있습니다.] 최다은 놀잇 대표 /사진=놀잇 제공 "지금 아이들을 위한 AI(인공지능) 관련 교육은 기존의 교육 방식에 AI 기술을 붙인 정도다. AI를 활용해 무엇인가 창조해 내는 능력을 길러줘야 하는데 아직 이런 교육은 없는 것 같다." 알파 세대를 위한 다양한 디지털 교육을 제공하는 ' 놀잇 '의 최다은 대표는 "아이들에 대한 교육은 거의 100년 전 방식에 머물러 있다. 아이들 수준에 맞게 AI 기술을 정리하고 아이들이 AI를 통해 직접 가치를 만들 수 있는 기회를 제공해야 한다"며 이같이 말했다. 최다은 대표는 중앙대에서 유아교육학을 전공하고 석사 학위를 받았으며, 유아교육 전문가이자 키즈 콘텐츠 크리에이터로 활동 중이다. 그는 아이들을 대상으로 하는 전문적이고 교육적인 콘텐츠를 개발하며 차별화된 경쟁력을 갖춰왔다. 2016년 키즈 유튜브 채널 '유라야놀자'의 1대 유라로 먼저 얼굴을 알린 뒤 2020년부터는 자체 채널인 '다니유치원'의 다니로 아이들과 소통하고 있다. 유아 교육 전문가로서 쌓아온 경험을 바탕으로 아이들을 위한 더 나은 교육을 위해 2022년 1월 놀잇을 창업했다. 최 대표는 "19살 때부터 리포터로 활동하며 일찍 사회생활을 시작했다. 유아교육 전공자로서 유치원 교사 생활도 했었다. 30살이 넘어 무엇인가 자신만의 일을 해야겠다는 시점이 됐고, 교육 현장에서 쌓아온 경험과 전문성이 창업의 밑거름이 됐다"고 했다. ━ 디캠프 디데이서 우승했지만…사업화 난항 ━ 놀잇 개요/그래픽=윤선정 놀잇은 알파 세대 소셜 플랫폼이다. 아이들이 서로 소통하고 교류할 수 있도록 돕는다. 일대일 영상 통화 매칭을 제공하며 아이들의 의사소통 능력, 표현 능력, 또래 관계성을 향상시키는 데 초점을 맞추고 있다. 아이들을 대상으로 한 유튜브 콘텐츠 기반 교육이 다양한 에피소드들을 일방향으로 소개하는 방식이라면, 놀잇은 공통의 관심사로 매칭된 아이들이 쌍방향으로 자유롭게 의사소통하며 서로 성장할 수 있도록 했다. 최 대표는 이 같은 사업의 방향성을 토대로 서울대기술지주에서 시드투자를 받았고, 은행권청년창업재단(디캠프)이 외부 심사위원들과 함께 초기 스타트업의 사업성과 성장성을 평가하는 '디데이'에서 우승을 차지하기도 했다. 하지만 실제 사업화의 길에서 난항을 겪었다. 최 대표는 "서비스 개발을 마치고 출시했는데 생각보다 아이들이 모이지 않았다. 코로나가 끝나면서 아이들이 오프라인으로 많이 돌아간데다 아이들의 일과가 빽빽해 플랫폼을 사용할 시간이 없었다"고 했다. 방법론 측면에서도 미처 고려하지 못했던 부분이 있었다. 아이와 아이가 교류하면서 성장하는 것에 의미를 부여했지만, 실제로 5~6살 아이들이 매칭되면 서로 부끄러움을 타거나 말을 제대로 못해 대화가 원활하게 이뤄지지 못했기 때문이다. 정부 지원금 중단 등 외부 악재도 겹쳤다. 그는 "지난해 팁스(TIPS) 지원금 지급이 전면 중단됐던 적이 있다. 중고등학생들을 위한 플랫폼도 막 출시를 한 상태였는데 딱 거기에 걸려서 사업이 힘들었던 시기였다"고 전했다. ━ AI 활용한 교육으로 사업 방향 전환 ━ 최 대표는 AI를 활용한 교육으로 사업의 방향을 전환했다. 대표적 IP(지식재산권)인 '다니' 캐릭터에 자신의 목소리와 말투, 대화 패턴을 학습시켜 AI 에이전트로 운영한다. '알파챗'으로 이름을 지었으며, 관련 앱 개발은 마무리된 상태로 공식 출시를 앞두고 있다. 알파챗의 핵심은 단순한 대화를 넘어 아이들의 발달 상태를 분석·평가하는 데 있다. 자체 개발한 AI를 통해 아동의 흥미와 수준을 파악하고 신체, 언어, 인지, 정서, 창의 발달에 도움이 되는 맞춤형 교육을 제공한다. 최 대표는 "발화 데이터를 기반으로 아이들의 사회화 능력을 평가하는 것이 팁스 과제였다. 이 기술을 개발해 왔다"며 "다니와 나누는 대화·채팅 데이터를 기반으로 아이들의 의사소통 능력과 함께 사회성까지 평가할 수 있도록 서비스를 개발했다"고 설명했다. 최 대표는 부모와 아이를 직접 대상으로 하는 B2C 영역보다는 B2B와 B2G를 기반으로 사업을 전개할 계획이다. 그는 "B2C는 고객 획득 비용이 높고 까다로운 부모님을 설득하기도 어렵다는 것이 지난 사업에서 얻은 교훈"이라고 했다. 이어 "현재 초등학교 늘봄학교 교실과 업무협약을 맺고 있다. 또 다문화 가정의 아이들에게 한국어를 교육하는 서비스나 해외에서 한국어를 배우고 싶어 할 때 필요한 서비스도 시도할 것"이라고 덧붙였다. ━ 세대와 경험을 넘어 '모두를 위한 AI' 교육 ━ 최 대표는 SC제일은행에서 주최하는 글로벌 여성 창업경진대회에서 1위를 수상해 상금과 함께 싱가포르를 탐방하는 연수 기회를 얻었다. 이때 구축한 여성 창업자들과의 네트워크가 사업을 추진하는데 있어서 많은 도움이 되고 있다고 한다. 후속 투자유치는 아직 계획에 없다. 그는 "사업은 투자금과 지원금으로 하는 게 아니라 실제로 돈을 벌어야 하는 것"이라며 "여러 수상에도 불구하고 사업화가 잘 안됐던 것은 이용자들에게 가치를 주는 서비스를 만들어 내지 못했기 때문"이라고 말했다. 이어 "자신의 캐파(Capacity, 수용 능력)에서 제대로 할 수 있는 것 하나를 잘해야 하는 것이 맞다. 놀잇은 그것이 AI 교육이라고 본다. AI 전문가는 아니지만 아이들에게 어떤 AI 교육이 맞는지 어른들도 제대로 제시하지 못하고 있다"고 덧붙였다. 최 대표는 미래 교육의 방향성을 AI와 결합한 새로운 형태의 교육에서 찾고 있다. 이의 일환으로 AI 교육 채널 'AI CREATOR LAB'을 새롭게 오픈할 예정이다. 이 채널은 AI를 활용한 콘텐츠 제작 등 AI 사용법을 손쉽게 알려주는 채널로 운영될 예정이다. 특히 세대와 경험, 경계를 넘어 누구나 쉽게 AI를 배울 수 있도록 돕는다는 목표다. 초등학생부터 시니어까지 아이디어가 넘치는 세대에겐 창작 도구로, 디지털이 낯선 세대에겐 따뜻하고 쉬운 안내서로 AI를 소개할 계획이다. 단순한 지식 전달을 넘어 아이들이 행복한 어른으로 성장할 수 있도록 돕고, 그렇게 자라난 어른들까지 행복할 수 있도록 돌본다는 것이 최 대표가 설정한 자신의 교육 미션이다. 그는 "아이들이 어린 시기를 잘 보내면 행복한 어른으로 성장할 수 있다. 어른들도 행복한 사회가 돼야 한다"며 "학습적인 교육보다는 조금 더 교류하면서 서로 친밀감을 느끼는 따뜻한 교육을 만들고 싶다"고 강조했다. [머니투데이 스타트업 미디어 플랫폼 '유니콘팩토리' ] 관련기사 품절대란 K탈모샴푸 프랑스 상륙…박람회서 5천개 순식간에 동나 닭가슴살·간편식 흥행 '이그니스', 1분기 영업익 35억…IPO 속도 '마약류 예방법' XR로 생생하게 체험…아이들 93.9% '엄지척' 美 전설적 투자자의 AC, 인천서 K-스타트업 글로벌 진출 돕는다 'K-바이오 글로벌로'…초격차 기술 24개사 '바이오 코리아' 출격 품절대란 K탈모샴푸 프랑스 상륙…박람회서 5천개 순식간에 동나 닭가슴살·간편식 흥행 '이그니스', 1분기 영업익 35억…IPO 속도 '마약류 예방법' XR로 생생하게 체험…아이들 93.9% '엄지척' 美 전설적 투자자의 AC, 인천서 K-스타트업 글로벌 진출 돕는다 'K-바이오 글로벌로'…초격차 기술 24개사 '바이오 코리아' 출격 펼침/닫힘 &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이. 무단전재 및 재배포, AI학습 이용 금지&gt; 공감 0% 비공감 0% 머니투데이 주요뉴스 '10조' 모태펀드 수명 '째깍째깍'...벤처투자 마중물 마를까 미장 급등했는데 코스피는… 방심 말라는 증권가 "'이 업종'은 주목" 미국과 중국이 상대국에게 부과했던 관세를 낮추기로 합의하며 간밤 미국 증시가 급등한 것과 달리 코스피는 보합권에 머무르고 있다. 증권가에서는 그간 관세 문제로 주춤했던 반도체 대형주 등에 다시 주목해야 한다고 보고 있다.  전일(현지 시각) 미국과 중국은 향후 90일간 고율 관세를 상호 대폭 인하하기로 합의했다. 미국은 중국산 수입품에 대한 관세율을 145%에서 30%로, 중국은 미국산 수입품에 대한 관세율을 125%에서 10%로 낮추기로 했다.  미국 증시는 예상을 뛰어넘는 관세 완화 조치에 급등 마감했다. 이와달리 코스피는 상... 단독 '14조 사업' 용산국제업무지구에 '시민 지분투자' 길 열린다 "트럼프형, 관세 10%만 남은 게 아냐" 협상 군불 때는 중국 "여보, 서울 너무 비싸지?" 집값 부담에…수요자 관심 커진 동탄·하남 문닫지 말고 영구화 vs 이스라엘처럼 민간화…모태펀드 운명은 임금·근로시간·청년으로 꼬인 노동 시장…다시 가난해질 대한민국 단독 서초 '메이플자이' 보류지 완판…'분양가 2배'+저층인데 "토허제 미적용" 이천 물류창고 큰 불 "대응 2단계, 178명 대피" 김호중 SBS 못 나온 게 백종원 때문?…"교수도 하차 시켜" "이렇게 얇다고?" 대박…두께 5.8㎜ '갤S25 엣지' 가격 보니 실시간 급상승 9.9 베스트클릭 종합 벤처·스타트업 백종원, 돼지 수육 만든 '대형 솥' 알고보니…"불법" 또 구설수 문채원, SNL '19금' 연기 논란…"중요 부위에 발을?" 누리꾼 들썩 "전청조, 수감생활 편하게 해"…교도소 가서도 '사기 행각' 충격 '54살 44억' 용산 아파트 드디어…한강맨션 59층·1685가구 재건축 "몰라보게 점점 야위어"…반쪽 된 구준엽, 근황 사진 보니 '깜짝' 임금·근로시간·청년으로 꼬인 노동 시장…다시 가난해질 대한민국 [단독]"한덕수, 김문수 제안한 선대위원장 고사…개헌은 도울 수도" [IT썰] 손목에 설마 애플워치?…'미국인 교황' 레오 14세 또 파격 한국 여행 꺼리는 일본인들 속내는…"싫진 않지만 굳이 왜 가요?" [단독]사망자에 "이달 보험료 내라"…1일에 숨져도 건보료 걷었다 이전 다음 [단독]현대차, 3000억 벤처펀드 출자 중단…기업 투심 꽁꽁 얼었다 대학가도 아닌데 젊은 외국인 우르르…"빈방 없어요" 인기 비결 폐수처리부터 자녀교육 AI 기술까지…5월 첫주, 여기에 돈 몰렸다 벤자민 버튼처럼?…'회춘' 기술 개발 스타트업에 1800억 몰렸다 코스닥 상장 추진 엔알비, 프리IPO 기업가치 1450억 뛰어넘을까 "폰 있어도 배달음식 못 시켜" 한국 온 외국인들 끙끙…해결 나섰다 "내 눈을 바라봐~"…눈만 봐도 심질환·당뇨 잡는 AI 기술 "도지코인으로 앱 개발" 도지OS, 690만달러 투자 유치 토스·직방…유니콘 키운 이 학교 어디길래, 올해 '뷰티'도 육성 프롭테크·반려동물·소부장…5월 둘째주 VC들은 여기에 투자했다 이전 다음 MT리포트 "제왕적 대통령제 끝내자" 공감대 모였다…40년 만에 개헌 이뤄질까 이슈패키지 Policy 2.0 문닫지 말고 영구화 vs 이스라엘처럼 민간화…모태펀드 운명은 '10조' 모태펀드 수명 '째깍째깍'...벤처투자 마중물 마를까 선택 아닌 필수 '사회적 대화'…잃어버린 동력 살리려면 SKT '유심 해킹' 사태 SKT, 해외서도 유심보호 된다…"3중 보호막 완성" 경찰 "SKT 해킹세력 아직 특정 못해"… 최태원 회장도 수사선상 SKT "해외 로밍 중에도 '유심보호서비스' 가입 가능" 새 교황 '레오 14세' "레오14세, 이탈리아 추기경 제친 이유는…" NYT가 전한 뒷얘기 레오 14세 교황, 첫 부활 삼종기도…"더 이상의 전쟁 안돼" 교황 레오 14세, 프란치스코 묘소 찾아…즉위 후 첫 외부 일정 이전 다음 최신뉴스 벤처·스타트업 마켓 문닫지 말고 영구화 vs 이스라엘처럼 민간화…모태펀드 운명은 '10조' 모태펀드 수명 '째깍째깍'...벤처투자 마중물 마를까 네이버클라우드·경남제약 등 대·중견 14개사, 스타트업과 협업 하나벤처모펀드 6대1 경쟁률…타 금융지주 증권사도 대거 출사표 78만 '아이들의 셀럽'에서 교육 사업가로…'다니언니'의 새 도전기 금감원에 자료제출 거부했다가…감리방해로 과징금 '35억' 추가 하이트진로, 맥주 출고가 2.7% 인상…500캔·필라이트 제외 "美 상승장이었는데" 개미 몰린 토스증권 또 먹통…올해 세 번째 CJ제일제당 1분기 내수 주춤했지만 비비고 선방..영업익 11% ↓ 미·중 관세 전쟁 완화 기대감…보합권 등락하는 코스피 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 상견례서 재산 묻는 사돈…오냐오냐 키운 아들 재산 다 털리고 '이혼소송' "가정적 남편, 이제 보니 친구 없어 휴대폰만 만지작…이혼 되나요" 이승연 계모, 남편 불만에 울먹여도…친모 "졸혼 반대" 왜? 공감 "고1때 뽀뽀도 안했다는 김새론, 중2때 성관계?"…가세연의 모순 비공감 "살인 연습만 3년" 북한 장교 출신 아내, 남편 무시하며 살벌 발언 "100억 줘도 살릴 수 있다면"…'이혼숙려' 故강지용 아내의 절규 "어머니 안아봐도..." 피고인의 작은 요청 허락한 재판장의 마지막 말은 현영, 최대 징역 1년 가능…'명품 사은품' 장사 논란, 무슨 일 공감 이국종 "너희는 한국 떠라, 과로사 하지마"…군의관에 작심발언, 왜? 비공감 "윤석열, 예수님 같아" 전한길 찬양에…종교인들 터져나온 반응 박원숙, 아들 사망 후 연락 끊긴 손녀 재회…"할머니 닮았네" 깜짝 "김병만 사망보험 24개, 전 남편들 모두 사망"…온라인 글 확산, 진실은? 박하선, 유서 읽으며 눈물…남편 류수영에 "딸 성인 되면 재혼해" 공감 이승환, "어른 말에 XX" 나훈아 저격?…"노인과 어른 구분돼야" 비공감 '尹 지지' 김흥국, "해병대·연예계 수치!" 댓글에…"네가 뭔데" 발끈 안재욱, 머리 절반 절개한 뇌수술…"뇌혈관 터져 장애 확률 97%" "강형욱, 급여 9670원 입금…잘못 알고도" 전 직원이 밝힌 전말 MBC·SBS 연예대상 줄줄이 취소되자... 전현무 SNS에 올린 글 공감 [카드뉴스]나만의 든든한 두번째 명함 '스타트업 엔젤투자자' 비공감 천공 "윤석열은 하늘이 내린 대통령…3개월내 상황 바뀐다" 오피니언 비싸지는 옷값, 추락하는 신뢰도 기자수첩 한국, AI 시대 낙오자가 될 것인가 오동희의 思見 한전과 한수원의 집안싸움 기자수첩 PADO 브라질이 세계 최고 수준의 항공산업을 육성한 비결 스타뉴스 몬스타엑스 형원 "'AAA' 10주년도 축하..불러주시면 자리 더 빛내겠다" [직격인터뷰③] IZE '광장' 소지섭, 13년 만에 누아르 액션으로 돌아온다!... the300 김문수, TK서 박정희 마케팅 "위대한 지도자…반대한 것 참회한다" 유니콘팩토리 "모두가 AI 외칠때, 소부장 챙겼다"…지방 벤처 버팀목 된 이 회사 티타임즈 "귀여우면 끝이다" 소비자를 끌어당기는 브랜드가 되려면? the L 대법 "매출 감소 없었다면 불법파업 손해액에서 제외해야" 스타일M 어깨 드러낸 송혜교, 청순한 미니드레스 룩…눈부신 자태 '감탄' 더리더 "살아 숨쉬는 교육환경"…도성훈 인천시교육감이 여는 '공교육 성공시대' 포토 / 영상 18 '키플랫폼' K-바이오 AI 전면화와 글로벌 창업도시로 가는 길 27 '2025 키플랫폼' 래거시 크래킹의 시대:옴니모두스의 전면화 34 '탄금, 사랑해 주세요' 6 제로베이스원 장하오 '순간순간이 화보' [채승병 박사-러우전쟁①]저가형 드론 백만대로 최전선 버틴 우크라이나.. 로우테크 물량전 시대 열렸다 "이러다 단일화 무산된다"...‘김문수vs한덕수’ 갈등에 국민의힘 비상[터치다운the300] 엄경영 "한동훈, 김문수 역전할 가능성은 OO%...한동훈 후보 되면 단일화 난항" [터치다운the300] 한국은 중요한 중심축 "차기 대통령은 트럼프 행정부와 빠르고 긴밀히 협력해야" [2025 키플랫폼] 5 키플랫폼 '대한민국 오피니언 리더들을 위한 특별한 자리' 8 '2025 해외건설대상' 시상식 개최 11 몬스타엑스 형원, 전역을 명 받았습니다 4 이정재 '잘생김이 뭍어나죠?' '중국 편에 서면 나라를 잃고, 미국 편에 서면 공산당을 잃는다' #베트남 #대나무외교 #상호관세 이재명 역전 노리는 김동연 "감세하며 돈풀기? 표퓰리즘"[터치다운the300] '유퀴즈 그 사람' 김한규 "홍준표·한동훈, 한덕수와 단일화 안할 것"[터치다운the300] 홍준표 "단일화? 의미 있는 무소속 후보 없을 것...이재명 상대 판 뒤집을 수 있다"[터치다운the300] 9 연합 WMD 제거작전 훈련 25 '제22회 대한민국 IB대상' 개최 37 트리플에스, 완전체 앨범으로 컴백 37 미야오 '돌아온 다섯 미묘' "중국 편에 서면 나라를 잃고, 미국 편에 서면 공산당을 잃는다"베트남 '대나무 외교' 꺾일까 [DonQ 편집장의 미국 대 중국] 김문수 "난폭한 이재명 이길 사람...제가 약해보여요? 턱걸이 하러 갈까요?" [터치다운the300] 트럼프 '관세 때려도 물가 괜찮아', '제조업 살리며 달러 패권 유지' 근거 있는 자신감일까? [DonQ 편집장의 미국 대 중국] 김문수·오세훈·한동훈·홍준표...이재명에 맞서 보수를 구원할 주인공은 누구? [터치다운the300] 이전 다음 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 헬스·바이오 최신기사 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 MT리포트 시세판 시세판 속보창 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MT해양 전문지·서비스 the300 thebell theL 유니콘팩토리 PADO MTN 노트펫 앱어워드 이로운넷 전문지·서비스 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버블로그 SNS MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 머니투데이 회사소개 구독신청 인재채용 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동) 제호 머니투데이 등록번호 서울 아 01084 등록일 2009.12.24 사업자등록번호 762-86-02890 발행일 2000.01.01 ISSN 2636-0055 대표이사/발행인/편집인 강호병 대표번호 02-724-7700 청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다. COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이) [유효기간]2023.11.04~2026.11.03</t>
+  </si>
+  <si>
+    <t>'다니언니'이라는 유튜브 채널을 운영하던 최다은 대표가 교육 사업가로 전향하여 '놀잇'이라는 알파 세대를 위한 교육 플랫폼을 창업했다. 최대은 대표는 아이들에게 AI를 통해 가치를 만들 수 있는 기회를 제공하고자 하며, 놀잇은 아이들의 의사소통 능력과 또래 관계성을 향상시키는데 초점을 맞추고 있다.</t>
+  </si>
+  <si>
+    <t>경기도교육청, 인공지능 학생 맞춤형 '경기외국어미래교육 선도학교' 가동</t>
+  </si>
+  <si>
+    <t>데일리안</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/119/0002955693?sid=102</t>
+  </si>
+  <si>
+    <t>31개 선도학교 학교장·담당교사 대상 외국어 교육정책 워크숍 개최 인공지능 기반 학생 맞춤형 영어 수업…사교육비 경감과 공교육 내실화 '경기외국어미래교육 선도학교-LAON' 현판을 전달하고 있는 모습.ⓒ 경기도교육청 제공 [데일리안 = 유진상 기자] 경기도교육청이 2025년부터 '에듀테크' 기반 영어 수업 혁신과 외국어교육 다양화로 의사소통 능력과 다문화 감수성을 갖춘 '글로컬 융합 인재'를 기르는 '경기외국어미래교육 선도학교-LAON' 사업을 본격 추진한다. '경기외국어미래교육 선도학교-LAON'은 미래 진로 탐색 역량을 갖춘 인재를 양성하기 위해 '에듀테크'를 활용해 학생 맞춤형 외국어교육을 실천하는 학교다. 선도학교는 지난달 공모를 통해 도내 31개 시군별로 선정했으며 5월부터 운영한다. '선도학교-LAON'의 공통과제는 '인공지능(AI) 기반 에듀테크' 활용 학생 맞춤형 영어 수업 활성화를 위해 △(초등) 'AI 펭톡'과 하이러닝 △(중등) 하이러닝 활용 영어 수업을 운영한다. 선택과제는 △2022 개정 교육과정 반영 학교별 특색있는 외국어 교육과정 △사교육비 경감을 위한 학생 맞춤형 외국어 수업 △주제 중심·교과 융합 외국어 프로젝트 수업 △글로컬 융합 인재를 위한 특수외국어 프로그램 △지역과 함께하는 외국어교육 프로그램 중 학교에서 자율적으로 정해 실시한다. 도교육청은 31개 시군을 대표하는 선도학교를 통해 지역과 학교의 여건에 적합한 다양한 외국어교육 모델을 개발하고 이를 도내 모든 학교에 공유할 예정이다. 한편 지난 12일 성남 밀리토피아 호텔에서 선도학교 운영 지원을 위한 워크숍이 열렸다. 학교장과 담당자 62명이 참석한 워크숍은 △'AI-에듀테크' 영어 교육 경향 △특수 외국어교육 이해 △'AI 펭톡’과 ‘하이러닝' 활용 영어 수업 사례 나눔 등으로 진행했다. 도교육청 현계명 융합교육과장은 "이번 선도학교는 경기 외국어교육의 새로운 지평을 여는 계기가 될 것이다"며 "공교육 중심 외국어교육 혁신으로 사교육 부담을 줄이고, 다양한 언어 역량의 글로컬 인재 양성을 강화하겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>경기도교육청이 '에듀테크'를 활용한 영어 수업 혁신과 외국어교육 다양화를 통해 '경기외국어미래교육 선도학교-LAON' 사업을 추진하고 있으며, 선도학교는 인공지능 기반 학생 맞춤형 영어 수업을 실시하고 지역과 학교의 여건에 맞는 외국어교육 모델을 개발할 예정이다.</t>
+  </si>
+  <si>
+    <t>심그라운드, '에듀테크 소프트랩 실증 사업' 서울·전북 2개소 선정</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/008/0005193517?sid=101</t>
+  </si>
+  <si>
+    <t>사진제공=심그라운드 온라인 과학 실험실 서비스 '심그라운드'를 운영 중인 다넥트(대표 최원영)가 최근 한국교육학술정보원(KERIS) '2025 에듀테크 소프트랩 실증 사업'에 선정됐다고 13일 밝혔다. 심그라운드는 웹 기반 과학 실험 시뮬레이션 서비스다. 복잡한 실험 준비를 간소화하고 실험 과정 및 결과에 대한 실시간 AI(인공지능) 평가와 피드백, 리포트 등을 제공한다. 다넥트 측은 이를 통해 교사들의 과학 실험 부담을 덜어준다고 했다. 다넥트 관계자는 "현실에서 진행하기 어려운 실험도 구현할 수 있다"고 말했다. 이어 "학생들은 실험 전후 퀴즈로 이해도를 확인하는 게 가능하다"며 "교사는 학생별 진행 상황을 실시간 모니터링해 맞춤형 수업을 할 수 있다"고 덧붙였다. 이번 사업은 교사들이 에듀테크 기능·교육성·효과성 등을 점검하고 기업에 개선을 요청, 공교육 수요를 반영코자 마련됐다. 에듀테크의 성장을 지원함으로써 공교육 혁신을 촉진하는 게 목표다. 전국 8개소에서 소프트랩을 운영하며 최대 2개소에서 에듀테크 소프트랩 실증 사업을 진행한다. 다넥트 관계자는 "서울 지역(운영기관: 건국대) 및 전북 지역(운영기관: 전주교대) 에듀테크 소프트랩 실증 사업에 매칭돼 이번 사업에 참여한다"고 했다. 이어 "공교육 에듀테크 가이드라인에는 소프트랩 실증이 권장 사항으로 명시돼 있다"며 "2개의 소프트랩에서 동시에 실증을 진행하는 만큼 공교육에 더욱 적합한 서비스를 제공하고 학교 현장 활용성을 높일 수 있을 것"이라고 말했다.</t>
+  </si>
+  <si>
+    <t>다넥트의 온라인 과학 실험실 서비스 '심그라운드'가 한국교육학술정보원의 '2025 에듀테크 소프트랩 실증 사업'에 선정되어 교사들의 과학 실험 부담을 줄이고 학생들에게 실시간 평가와 피드백을 제공한다. 이를 통해 교육 혁신을 촉진하고 공교육에 더욱 적합한 서비스를 제공할 것으로 기대된다.</t>
+  </si>
+  <si>
+    <t>서울시교육청, 문해력·수리력 진단검사 '에스플랜'으로 개선</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/008/0005193272</t>
+  </si>
+  <si>
+    <t>[서울=뉴시스] 정근식 서울시교육감 취임 후 서울시교육청이 새 슬로건으로 '미래를 여는 협력교육'을 정했다. 사진은 13일 서울 종로구 서울시교육청 본청의 모습. (사진=서울시교육청 제공). 2025.01.13.    *재판매 및 DB 금지 /사진=김정현 서울특별시교육청이 학생 문해력·수리력 진단검사를 종이 기반에서 컴퓨터 기반 검사(CBT)로 바꾸고 올해 700교, 약 12만명의 학생을 대상으로 실시한다고 13일 밝혔다. 서울 학생 문해력·수리력 진단검사는 학생들의 역량을 측정하는 진단도구로, 2023년 처음으로 초4, 초6, 중2, 고1 학생을 대상으로 실시한 바 있다. 올해부터는 '문해력과 수리력이 튼튼한 서울교육을 계획하고 지원한다'는 뜻의 '에스플랜(S-PLAN)'으로 이름을 바꾼다. '에스플랜'은 검사 응시, 문제 풀이, 채점, 결과 확인까지 모든 과정이 컴퓨터로 이뤄진다. 데스크탑 컴퓨터, 노트북 및 서울시교육청에서 지원하는 디벗 등 어떤 기기로든 검사에 참여할 수 있다. 6월에 일부학교를 대상으로 모의검사를 실시하고 10월 말부터 진단검사를 진행한다. 검사 방식이 바뀌었을 때 진단 결과의 차이를 확인하기 위해 표집학교에서는 종이로 실시하는 진단검사와 컴퓨터 기반 검사를 함께 실시할 예정이다. 진단검사는 오는 10월 27일부터 11월 6일 사이에 각 학교의 일정을 고려해 학년 또는 학급별로 자율적으로 실시한다. 원활한 진단검사 시행을 위해 교원을 대상으로 설명회도 실시한다. 오는  28일에는 중구 정동1928 아트센터에서 초·중·고 교사를 대상으로 △ 2022 개정 교육과정 해설 △ 문해력·수리력에 대한 전문가 특강 △ 검사 결과의 학급단위 활용 방안에 대한 사례를 공유한다. 6월17, 18일 이틀 간은 성동구 디노체 컨벤션에서 초·중·고 교장 600여 명을 대상으로 △ 학생역량 신장을 위한 문해력· 수리력에 대한 전문가 특강 △ 학교교육력 제고를 위한 진단검사 활용 방안에 대한 학교장의 사례를 공유한다. 10월 13일과 14일에는 에스플랜 시행 일정, 방법 등의 자세한 안내를 위해 검사에 참여하는 각 학교의 담당 교사를 대상으로 온라인 연수를 실시할 계획이다. 또한, 진단검사 결과를 바탕으로 '기초소양교육 지원 협의체'와 함께 결과를 공유하고 학생들이 문해력과 수리력을 키울 수 있도록 지원할 예정이다. 정근식 서울시교육감은 "서울 학생의 역량을 신장시키기 위한 서울 학생 문해력·수리력 진단검사가 에스플랜으로 확대됐다"며 "진단을 넘어 학생들이 미래를 살아가는 데 필요한 능력을 더 적극적으로 키울 수 있도록 지원할 것"이라고 말했다.</t>
+  </si>
+  <si>
+    <t>서울시교육청이 학생 문해력과 수리력 진단검사를 컴퓨터 기반으로 변경하고, 약 12만명의 학생을 대상으로 올해 실시할 예정이다. 이를 통해 학생들의 역량을 측정하고, 미래를 살아가는 데 필요한 능력을 키우는데 도움을 줄 것으로 예상된다.</t>
+  </si>
+  <si>
+    <t>“내신·수능 절대평가로” 서울시교육청, 대선 후보들에 제안</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/028/0002745581?sid=102</t>
+  </si>
+  <si>
+    <t>서울시교육청 전경 오는 6월3일 대통령선거에서 주요 대선 후보의 교육 공약이 보이지 않는 상황에서, 서울시교육청(교육감 정근식)이 대선 후보들에게 학교 내신과 대학수학능력시험(수능)을 절대평가로 전환하자고 제안했다. 대입 정책을 설계하는 국가교육위원회의 기능은 제대로 작동되지 않고, 사교육비는 역대 최대를 기록하고 있어 대선 후보들이 이를 해결해야 한다는 것이다. 13일 서울시교육청은 ‘미래를 여는 협력교육’을 실현하기 위한 10대 교육 공약을 제안했다. 서울시교육청은 절대평가와 5등급 상대평가를 병기하는 고등학교 내신, 절대평가와 상대평가 과목이 섞여 있는 수능을 모두 절대평가 단일체제로 전환하자고 요구했다. 상대평가 방식이 과열 경쟁과 과도한 사교육을 유발하고, 수능을 여러 차례 치르는 엔(N)수생을 양산한다는 것이다. 또한 고교학점제 등 학생의 진로와 흥미에 따라 다양한 선택과목을 이수할 수 있도록 돼 있는 고교 교육과정과 공통과목(통합사회·통합과학)으로 시험을 치르는 수능 과목 체계의 불일치로 학생의 학습 부담이 증가한다는 점 등을 지적했다. 아울러 수능에 서·논술형 문항도 도입해야 한다고 주장했다. 선택형 문항 중심의 수능 평가 방식이 창의적 문제 해결 능력이나 융합적 사고 평가 도구로서 한계를 보인다는 것이다. 다만 이를 위해서는 학교 수업에서의 서·논술형 평가 정착 방안, 사교육 유발 요소를 예방하기 위한 대책 등을 포함한 단계적 로드맵을 제시해야 한다고 했다. 이 밖에 고등학교 3학년 2학기의 내신과 출결이 대학 입학전형 자료로 활용되도록 수시·정시 모집을 통합해 1월에 실시하자고 했다. 교육계는 대선을 앞두고 후보들이 대입 정책과 사교육비 관련 공약을 마련해야 한다고 여러차례 지적했다. 대입 정책을 비롯한 10년 단위의 중장기 국가교육발전계획을 수립해야 하는 국가교육위원회는 현재 내부 갈등으로 계획 시안 마련조차 어려움을 겪고 있다. 또한 지난해 초중교 사교육비는 29조2천억원으로 역대 최대를 기록했고, ‘7세 고시’ 등으로 대표되는 영유아 사교육비는 3조원 이상으로 추정돼 대책이 시급한 상황이다. 그러나 주요 대선 후보들이 내세운 10대 공약에서는 관련 공약을 찾기 어렵다. 이재명 더불어민주당 후보의 경우 “국가책임 공교육으로 사교육비 부담을 경감”하겠다며 기초학력 학습 안전망 지원 확대, 자기주도학습센터 운영을 내세웠으나 교육 개혁을 요구하는 정책으로 보기는 어렵다. 김문수 국민의힘 후보, 이준석 개혁신당 후보는 아예 관련 공약이 없다. 또한 서울시교육청은 ‘무고성 아동학대 신고 사건’으로 부터 교원을 보호하기 위해 교육감이 ‘교사의 정당한 교육활동’이라는 의견을 제출하고 경찰이 무혐의로 판단한 사건의 경우 검찰에 불송치하고, ‘정서적 아동학대’의 행위와 범위도 구체화해야 한다고 주장했다. 교원의 정치적 기본권을 보장하도록 법을 개정하고, 적정 교원 정원을 산정하는 방식을 재설계하자고도 제안했다. 이 밖에도 △기초학력보장을 위한 국가적 차원 진단-지원 체계 구축 △특수교육·다문화 학생 맞춤 지원 확대 △학생·교원 마음건강 지원 강화 △지방교육재정 안정적 확보 △노후 학교 시설 개선 로드맵 마련 △도시-농촌 학생 교류 지원 확대 등을 내세웠다. 서울시교육청은 이러한 교육 공약을 각 정당에 전달하겠다고 밝혔다. 정근식 서울시교육감은 “10대 교육 공약은 공교육 정상화를 위한 핵심 기반이자, 미래교육의 방향성을 제시하는 실천적 제안”이라며 “새 정부와 서울교육이 함께 협력해 가는 교육 생태계 구축의 출발점이 되기를 기대한다”고 했다.</t>
+  </si>
+  <si>
+    <t>서울시교육청이 대선 후보들에게 학교 내신과 수능을 절대평가로 전환하자고 제안하며, 국가교육위원회의 기능 미흡과 사교육비 증가 문제를 지적했다. 서울시교육청은 10대 교육 공약을 제안하고, 대입 정책과 사교육비 관련 공약 부재를 지적했다.</t>
+  </si>
+  <si>
+    <t>교권보호위 연 4천건↑ 개최…교원단체 "실제론 더 많아, 대책 시급"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/003/0013239065</t>
+  </si>
+  <si>
+    <t>교사에 대한 모욕·폭행·딥페이크 피해 ↑ 교원단체 "교권침해 문제 여전히 만연" [서울=뉴시스] 김명년 기자 = 지난해 4000건 이상 열린 지역교권보호위원회(지역교보위) 가운데 90% 이상이 교육활동 침해로 인정됐다는 교육부의 발표가 나오자 교원단체들이 잇따라 교사의 교육활동을 보호할 실질적 후속 대책이 필요하다고 지적했다. 사진은 2023년 9월 서울 영등포구 국회의사당 앞에서 '서이초 사망교사 49재 추모 집회'에서 참가자들이 구호를 외치는 모습. 2023.09.04. kmn@newsis.com [서울=뉴시스]정예빈 수습 기자 = 지난해 4000건 이상 열린 지역교권보호위원회(지역교보위) 가운데 90% 이상이 교육활동 침해로 인정됐다는 교육부의 발표가 나오자 교원단체들은 통계보다 교권침해 건수는 더 많을 것이라며, 교육활동을 보호할 실질적 후속 대책이 필요하다고 지적했다. 한국교원단체총연합회(교총)는 13일 입장문을 통해 "'교권5법'이 교사를 실질적으로 보호하기에 여전히 한계가 있고 개선·보완이 시급하다"며 "실제 교권 침해는 교권보호위 개최 건수의 최소한 몇 배에 달할 것"이라고 말했다. 이날 교육부가 발표한 '2024학년도 교육활동 침해 실태조사' 결과에 따르면 2024학년도 지역교보위 개최 건수는 총 4234건으로 그중 약 93%(3925건)가 교육활동 침해로 인정됐다. 중학교에서의 교육활동 침해는 2503건에 달할 만큼 가장 심각했으며 그 뒤로 고등학교(942건), 초등학교(704건), 특수학교(55건), 유치원(23건) 순으로 교육활동 침해가 빈번히 발생했다. 침해유형별로 살펴보면 학생에 의한 침해는 '정당한 생활지도에 불응해 의도적으로 교육활동 방해'한 경우가 32.4%로 가장 많았고 모욕·명예훼손(26.0%), 상해·폭력(13.3%)도 자주 발생했다. 지난해 교원에 대한 학생의 불법 촬영·허위 영상물(딥페이크) 등의 비중도 3.1%에 달하며 0%였던 2022년, 1%였던 2023년에 비해 증가했다. 이에 교원단체들은 교권 침해 문제가 여전히 만연하다며 교사의 교육활동을 보호할 실질적 후속 대책이 시급하다고 입을 모았다. 교총은 "중·고교와 달리 유치원과 초등교의 교권보호위 개최 건수가 증가한 부분이 우려스럽다"며 "저학년 교사일수록 학생 지도 관련 악성 민원이 심각한 만큼 실질적인 보호 방안이 강구돼야 한다"고 덧붙였다. 초등교사노동조합도 "초등교사에 대한 교권 침해는 통계로도 나타나지만 통계보다 더욱 심각하다"며 "교육부는 실질적으로 초등교사의 교권을 지킬 수 있는 방안을 강구하고 교권 침해를 당한 교사들이 지역교보위 등 제도에 쉽게 접근할 수 있도록 적극 지원해야 한다"고 강조했다. 전국교직원노동조합(전교조)은 "교육부의 여러 가지 교육활동 보호조치에도 불구하고 교육활동 침해는 여전하며 현장의 교사는 보호받지 못하고 있는 실태를 보여줬다"며 "교육부 교육활동 보호 대책은 총체적으로 부실했음이 드러났다"고 비판했다. 그러면서 "교육부에게 교사의 존엄과 권리를 지키고 교육활동을 지원해 적극적으로 교사를 보호할 것을 다시 한번 강력히 요구한다"고 전했다. 한편 교육부는 오는 9월부터 모든 교원이 교원 맞춤형 심리검사 도구를 활용해 마음건강 자가 진단을 받을 수 있도록 하는 등 관련 지원에 나설 계획이다．</t>
+  </si>
+  <si>
+    <t>교원단체들이 교사의 교육활동을 보호할 실질적 후속 대책 필요성을 지적하고, 지난해 교육활동 침해가 증가한 것으로 나타났으며, 교육부는 교원 맞춤형 심리검사 도구를 활용한 지원 계획을 발표했다.</t>
+  </si>
+  <si>
+    <t>이주호 권한대행, APEC 주요국 교육수장들과 미래교육 협력 논의</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/018/0006012757</t>
+  </si>
+  <si>
+    <t>APEC 교육장관회의 계기 간담회 진행 "학습자 주도형 교육으로 전환해야" [이데일리 김윤정 기자] 이주호 대통령 권한대행 부총리 겸 교육부 장관이 13일 제주국제컨벤션센터에서 열린 제7차 아시아태평양경제협력체(APEC) 교육장관회의를 계기로 간담회를 열어 회원국 주요 인사들과 교육혁신과 글로벌 협력 방안을 논의했다. 이주호 대통령 권한대행 부총리 겸 교육부 장관이 13일 서울 종로구 정부서울청사에서 열린 국무회의에서 발언하고 있다. (사진=뉴시스/대통령실통신사진기자단) 이날 간담회에는 인도네시아·파푸아뉴기니·홍콩 차이나·중국 등 4개 APEC 회원국의 교육부 장·차관이 참석했다. 이번 모임은 디지털 미래사회에 부응하는 교육 혁신과 국제 협력 방안을 논의하기 위해 마련됐다. 참석자들은 각국의 미래 교육혁신 정책과 실행 사례를 공유했다. 인도네시아는 2013년부터 한국과 교사 상호교류를 통해 교원의 국제 역량 강화를 추진해 왔으다. 중국은 2025년 세계디지털교육대회 개최를 앞두고 인공지능(AI) 기반 교육 확산에 박차를 가하고 있다고 밝혔다. 홍콩 차이나는 AI를 활용한 과학 교수법 실습과 함께 STEAM 교육 강화를 추진 중이라고 소개했다. 이 권한대행은 “디지털 기술의 발전으로 전통적인 교육에서 벗어나 학습자 주도 교육으로의 전환이 필요한 시점”이라며 “이번 간담회가 교육의 틀을 새롭게 정립하고 지속 가능한 APEC의 미래를 구축하는 계기가 되기를 바란다”고 말했다. 간담회 이후 이 권한대행과 참석자들은 제주국제컨벤션센터 내 교육혁신 전시관을 함께 참관했다. 이들은 디지털 미래교실 체험관과 STEM(과학·기술·공학·수학) 융합교육 전시관을 참관해 인공지능 디지털교과서(AIDT)를 직접 사용해 보고, AI 지도교사 기반의 스템 교육을 체험했다. 교육 혁신 전시관은 APEC 교육장관회의 참석자들을 대상으로 오는 14일까지 공개된다. 교육부는 이번 회의를 계기로 APEC 회원국과의 교육 협력 강화 및 디지털 전환 공동 대응을 위한 국제 연대를 확대해 나갈 계획이다. APEC 교육장관회의는 아시아·태평양 지역 21개 회원국의 교육 장관과 대표단, 국내외 교육전문가들이 한자리에 모이는 교육 분야 최고위급 회의다.</t>
+  </si>
+  <si>
+    <t>APEC 교육장관회의에서 이주호 대통령 권한대행 부총리 겸 교육부 장관이 학습자 주도형 교육으로의 전환을 강조하며 국제 교육 혁신과 협력 방안을 논의했다. APEC 회원국들은 디지털 미래사회에 부응하는 교육 혁신을 위해 다양한 정책과 실행 사례를 공유했고, 교육부는 이를 토대로 APEC 회원국과의 교육 협력을 강화할 계획이다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]웅진씽크빅 스마트올 키즈, 그림책 스토리 기반 유아 영어 콘텐츠 출시</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003311911?sid=102</t>
+  </si>
+  <si>
+    <t>웅진씽크빅이 운영하는 영유아 학습 플랫폼 '스마트올 키즈'가 4~7세 유아를 위한 그림책 기반 영어 학습 콘텐츠를 출시했다. 이번에 선보인 콘텐츠는 ▲노래 따라 부르기(말하기 강화) ▲소리 듣고 터치하기(듣기 강화) ▲나만의 책 완성하기(읽기 강화) ▲나만의 그림책 완성하기(읽기·표현력 강화) ▲단어 카드 만들기(단어 인지) 등 그림책 스토리와 연계된 액티비티를 제공해 영어에 대한 흥미를 높이고, 학습 효과를 극대화한 점이 특징이다. 예컨대 노래 따라 부르기에서는 오디오북을 통해 그림책을 읽고, 이야기 속 핵심 문장을 노래로 따라 부르며 영어를 모르던 아이도 자연스럽게 내용을 이해한다. '나만의 그림책 완성하기'에서는 스스로 그림책 표지를 꾸민 후 책 속 문장을 따라 읽으며 녹음까지 해볼 수 있다. 이를 통해 아이들은 단순히 외우고 따라 하는 반복 학습에서 벗어나 여러 감각을 통해 표현력과 언어 감각을 기르고, 영어 문해력도 탄탄하게 키울 수 있다. 이번 콘텐츠는 초등학교 입학 전까지 영어의 기초를 체계적으로 완성할 수 있도록 4세부터 7세까지 매주 2회 학습하는 커리큘럼으로 구성됐으며 스토리 중심 활동에서 시작해 연령이 높아질수록 알파벳과 파닉스로 확장되는 단계별 학습을 제공한다. 안경숙 웅진씽크빅 콘텐츠개발본부 본부장은 “영어를 처음 배우는 아이들이 자연스럽게 몰입할 수 있도록 그림책 스토리를 다채로운 활동으로 확장하여 콘텐츠를 구성했다”며 “영어를 배워야 한다는 부담감을 내려놓고 스토리를 따라가며 말하고, 듣고, 읽는 경험을 쌓기 바란다”고 말했다.</t>
+  </si>
+  <si>
+    <t>웅진씽크빅이 운영하는 '스마트올 키즈'가 4~7세 유아를 위한 그림책 기반 영어 학습 콘텐츠를 출시했으며, 다양한 활동을 통해 영어 학습을 즐겁게 할 수 있도록 구성되었다.</t>
+  </si>
+  <si>
+    <t>“학습 패러다임 전환 이끈다”…메가스터디교육, ‘미북’ 플랫폼으로 통합 전자책 생태계 확장</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/081/0003540793</t>
+  </si>
+  <si>
+    <t>-메가엠디, 메가랜드와의 제휴…전 연령대 이용자 위한 전자책 플랫폼 도약 -자체적으로 개발한 ‘미북’ 스폐셜 기능 통해 전자책 학습 효율성 극대화 교육 전문 기업 메가스터디교육(대표이사 손성은)은 자사가 운영하는 학습용 전자책(E-BOOK) 플랫폼 ‘미북(meBOOK)’을 통해 전자책 시장을 지속적으로 확장해 나간다고 13일 밝혔다. ‘미북’은 지난 2024년 ▲메가스터디 ▲메가스터디북스와의 제휴를 통해 그룹 내 고등·공무원 수험 시장 교재를 전자책으로 서비스하기 시작했다. 이를 기반으로 올해 ▲3월 김영편입 ▲5월 메가로스쿨, 메가랜드와의 추가 제휴를 진행하며, 그룹 내 전 연령대 이용자를 위한 전자책 플랫폼으로 도약하고 있다. 이뿐만 아니라 ▲중고등학생 대상 수험서 (개념원리, 다락원, 렉스퍼, 마더텅, 바탕, 새이솔, 쎄듀, 키출판사) ▲대학교 전공 및 교양 교재(고문사, 교문사) ▲공무원 전문 수험서(권규호언어연구실, 메가공무원, 에이치북스, 용감한컴퍼니, 정호북스) ▲전자책 전용 위탁 업체(유페이퍼, 작가와) 등 30여 개 출판사와도 지속적으로 제휴를 맺으며, 국내 수험 시장에서 전자책 서비스를 확고히 하고 있다. ‘미북’은 전자책 환경에서 최적의 학습 경험을 제공하기 위해 개발한 ‘미북 스페셜’ 기능을 지속 강화하고 있다. ‘미북 스페셜’ 기능을 활용하면 응시 모드를 통해 정해진 시간 내에 OMR 마킹까지 실제 시험과 유사한 환경으로 모의고사를 응시할 수 있으며, 원클릭 자동 채점으로 본인의 결과를 빠르게 확인할 수 있다. 또한, ▲영단어 학습을 위한 단어 가리기 ▲문제별 해설을 쉽게 확인할 수 있는 정답·해설 보기 및 가리기 기능 등 다양한 학습 지원 기능을 통해 효율성을 높일 수 있다. 이외에도 ▲문제·해설과 교재·노트를 동시에 볼 수 있는 듀얼 화면 ▲핵심 내용을 저장하고 연결하는 PIN 기능 ▲0.05pt 단위의 세밀한 필기 및 자동 보정 ▲나만의 태그를 통한 콘텐츠 정리 등 수험생의 실제 학습 흐름을 고려한 다양한 지원 기능도 탑재돼 있다. ‘미북’ 관계자는 “‘미북’을 중심으로 새로운 학습 경험을 제안하고, 수험생에게 실질적인 도움이 되는 전자책 생태계를 확장해 나갈 것”이라며, “앞으로도 미북을 기반으로 전자책 다양화와 사용자 편의 기능을 지속 강화해 나갈 계획”이라고 전했다. 한편, ‘미북’은 외부 출판사 및 다양한 콘텐츠 파트너와의 협업도 계속 확대해 나갈 방침이다. 제휴 관련 문의는 미북 공식 홈페이지를 통해 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>메가스터디교육이 자사의 전자책 플랫폼 '미북'을 통해 교육 시장을 확장하고, 다양한 기능을 강화하며 수험생들에게 도움을 주고자 함.</t>
+  </si>
+  <si>
+    <t>미래엔그룹, 임직원·교육 파트너 3,500명과 ‘미래엔데이’</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/025/0003440571</t>
+  </si>
+  <si>
+    <t>〈사진 제공=미래엔〉 지난 10일 미래엔그룹은 키움 히어로즈와 한화 이글스의 경기에 교육 관계자 3,500여 명을 초청해 ‘2025 미래엔데이(MiraeN Day)’를 성황리에 개최했다. 초청된 고객들이 장외 부스의 ‘오늘의 히어로즈’ 포토존 앞에서 기념사진을 촬영하고 있다. 미래엔그룹이 5월 10일(토), 서울 고척 스카이돔에서 열린 키움 히어로즈와 한화 이글스의 경기에서 ‘2025 미래엔데이(MiraeN Day)’를 성황리에 개최했다. 올해로 11번째를 맞이한 ‘미래엔데이’는 미래엔그룹이 2011년부터 키움 히어로즈의 공식 후원사로 참여하며 개최해온 대표적인 임직원 및 고객 초청 행사다. ‘오늘의 히어로즈’를 주제로 한 이번 행사에는 미래엔 임직원을 비롯해 교사와 교육 관계자 약 3,500명이 참석했으며, 교육 현장을 지켜온 이들의 노고에 감사를 전하고 미래엔과의 동행 가치를 되새기는 뜻깊은 자리로 마련됐다. 특히 경기 시작 전 시구·시타에 광운인공지능고등학교 이기준 교사와 ‘선생님이 꿈’인 문나영 제자가 함께 나서 교실 속 진정한 영웅들을 조명하며 ‘오늘의 히어로즈’ 행사 주제를 상징적으로 구현했다. 특히 치어리딩 요소를 결합한 시구 퍼포먼스로 관중들의 큰 응원을 받으며 역대급 시구로 화제를 모았다. 경기 전 고척 스카이돔 외부에 설치된 미래엔 부스에서는 온 가족이 함께 즐길 수 있는 다양한 체험 이벤트가 운영됐다. ▲디지털초코 캐릭터와 함께하는 ‘스피드난타 100’은 디지털초코의 ‘첫 달 100원’ 프로모션과 연계돼 현장 참가자들의 높은 호응을 얻었다. ▲‘히어로즈 야구게임’은 대형 에어바운스 구조물로 구성돼 어린이 관람객들의 참여 열기가 이어졌고, ▲‘오늘의 히어로즈’를 테마로 꾸며진 포토존과 ▲SNS 인증 이벤트도 함께 운영돼 가족 단위 관람객들의 높은 참여가 이어졌다. 경기 중 이닝 사이에는 장내 전광판을 통해 ▲포토제닉 및 포즈왕 선발 ▲사다리 게임 등 관중 참여형 이벤트가 펼쳐졌으며, 참가자에게는 미래엔 캐릭터 굿즈 세트, 오션스위츠 제주 숙박권, 미래엔 인기 학습만화 ‘흔한남매’ 도서 세트 등 다양한 경품이 제공됐다. 모든 이벤트는 관람객 간의 유대감을 높이며, ‘미래엔’이라는 이름 아래 모두가 함께하는 축제의 장으로 완성됐다. 미래엔 신광수 대표는 “이번 미래엔데이는 교실 안팎에서 묵묵히 교육을 이어온 선생님들과 교육 관계자분들께 감사의 마음을 전하고자 마련한 자리”라며, “앞으로도 미래엔은 교사, 학부모, 학생과의 만남의 기회를 지속적으로 확대하며, 교육 현장의 든든한 동반자로 성장해 나가겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>미래엔그룹이 교육 관계자 3,500여 명을 초청해 '2025 미래엔데이'를 개최했고, 키움 히어로즈와 한화 이글스의 경기를 통해 교육 현장의 노고에 감사를 표시하고 교육 현장의 동반자로 성장하겠다는 다짐을 전했다.</t>
+  </si>
+  <si>
+    <t>아이스크림에듀 ‘홈런 스마트학습센터’, 30일까지 전국 각지 사업설명회 개최 &lt; BIZ &lt; 기사본문 - 데일리경제</t>
+  </si>
+  <si>
+    <t>데일리경제</t>
+  </si>
+  <si>
+    <t>http://www.kdpress.co.kr/news/articleView.html?idxno=137820</t>
+  </si>
+  <si>
+    <t>아이스크림에듀 제공 대표 에듀테크 기업, 아이스크림에듀(대표 박기석)의 학원 공부방 사업 ‘홈런 스마트학습센터’가 오는 16일부터 30일까지 공부방 창업을 희망하는 예비 창업자 또는 학원장을 대상으로 전국 각지에서 사업설명회를 개최한다. 홈런 스마트학습센터는 수도권 지역 본격 확장을 위해 최근 수원, 성남 등지에서 성공적으로 개최한 사업설명회에 힘입어, 이 달에는 서울과 수도권을 비롯해 부산, 대전, 광주, 춘천 등 전국 주요 도시에서 진행한다. 이번 설명회에서는 4~6세 유아 전문 공부방 ‘리틀홈런 스마트학습센터’와 초중등 공부방 ‘홈런 스마트학습센터’의 온오프라인 연계 수업 방식과 성공적인 공부방 운영 노하우, 창업 혜택 등을 안내할 예정이다. 홈런 스마트학습센터 신규 계약자를 위한 특별 프로모션도 마련했다. 이번 설명회 기간동안 신규로 계약하는 예비 원장에게는 초도 물품비를 50% 할인가에 제공한다. 초도 물품비 이외 교육비 가입비 등은 일체 발생하지 않는다. 또한 브랜드 전환하는 원장에게는 홈런 학습기를 최대 10대 지원한다. 사업설명회에 참석 신청 및 일정과 장소 등 자세한 사항은 홈런 스마트학습센터 공식 홈페이지에서 확인할 수 있다. 아이스크림에듀 관계자는 “홈런 스마트학습센터는 차별화된 온오프라인 연계 수업 방식과 안정적인 수입으로 예비 원장 사이에서 많은 관심을 받고 있다”며 “이번 사업설명회를 통해 공부방 운영 노하우와 함께 다양한 혜택을 얻을 것”이라고 말했다. 저작권자 © 데일리경제 무단전재 및 재배포 금지 최은경 기자 다른기사 보기</t>
+  </si>
+  <si>
+    <t>아이스크림에듀가 홈런 스마트학습센터 사업 설명회를 개최하여 창업을 희망하는 예비 창업자나 학원장을 대상으로 온오프라인 연계 수업 방식과 혜택을 안내하며, 특별 프로모션도 마련했다. 이를 통해 많은 관심을 받고 있다.</t>
+  </si>
+  <si>
+    <t>멀티캠퍼스, ATD 25 디브리핑 ‘AX 시대의 HRD 전략’</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/009/0005491276</t>
+  </si>
+  <si>
+    <t>ATD 25 글로벌 트렌드와 ‘AX 시대의 HRD 전략’ 제시 ‘AI-Powered Learning Journeys’ 주제로 ATD 25 현지 세션 발표 진행 기업교육 전문기업 멀티캠퍼스가 오는 5월 27일 ‘ATD 25 디브리핑’ 온라인 세미나를 개최한다. ATD는 매해 1만여 명의 인재개발(Human Resource Development, 이하 HRD) 전문가들이 참석하는 세계 최대 규모의 글로벌 HRD 콘퍼런스로, 올해는 5월 18일부터 21일까지 총 4일간 미국 워싱턴 D.C.에서 개최된다. 멀티캠퍼스는 ATD가 ASTD로 명칭 되던 2006년부터 디브리핑을 진행해 왔다. 특히 올해는 ATD 25 현지에서 직접 ‘AI-Powered Learning Journeys’라는 주제로 세션 발표도 진행할 예정이다. 이런 전문성을 토대로 멀티캠퍼스는 이번 디브리핑에서 ATD 25에서 소개된 글로벌 트렌드를 소개하고, 이를 국내 기업에 맞게 적용할 수 있는 ‘AX 시대의 HRD 전략’을 제시한다. 세션 1에서는 이찬 서울대학교 산업인력개발학과 교수가 ATD 25에서 소개된 글로벌 트렌드를 소개한다. 세션 2에서는 장태원 멀티캠퍼스 HRD R&amp;D센터장이 ATD 주요 세션별 인사이트를 제시하며, HRD R&amp;D센터 소속 진수현 교육학 박사가 멀티캠퍼스의 ATD25 현장 발표 내용을 소개한다. 이어지는 세션 3에서는 김주호 카이스트 교수가 ‘상호작용 중심 AI와 학습경험 혁신’에 대해 소개하며, 마지막 세션으로는 ATD 25 Q&amp;A가 진행된다. 온라인 라이브 중계되는 이번 ATD 25 디브리핑 세미나는 캠퍼스 홈페이지에서 자세한 내용을 확인할 수 있다.</t>
+  </si>
+  <si>
+    <t>멀티캠퍼스가 ATD 25 디브리핑 온라인 세미나를 개최하여 'AI-Powered Learning Journeys' 주제로 세션 발표 및 글로벌 트렌드 소개, 국내 기업에 맞는 'AX 시대의 HRD 전략' 제시, 다양한 교수들의 강연 및 Q&amp;A 진행.</t>
+  </si>
+  <si>
+    <t>비상교육 잉글리시아이 전국 6대 도시 사업설명회, 브랜드 철학 및 성공 운영 전략 공개</t>
+  </si>
+  <si>
+    <t>빅데이터뉴스</t>
+  </si>
+  <si>
+    <t>https://www.thebigdata.co.kr/view.php?ud=2025051316183819356cf2d78c68_23</t>
+  </si>
+  <si>
+    <t>[빅데이터뉴스 이병학 기자]  글로벌 교육전문기업 비상교육의 초∙중등 영어학원 브랜드 잉글리시아이(englisheye)가 오는 5월 20일부터 23일까지 서울·경기를 비롯한 전국 6대 도시에서 사업설명회를 개최한다. 이번 사업설명회는 5월 20일에 서울∙경기 지역을 시작으로 △경기 남부 △대구∙경북 △경남 창원∙김해 △대전∙충남 △경인 지역 등 전국 주요 6개 권역에서 순차적으로 진행된다. 설명회에서는 예비 영어학원 원장을 대상으로 미래 교육 환경 변화에 대응하는 잉글리시아이 브랜드 철학과 성공적인 학원 운영 노하우, 가맹 운영 전반에 대한 인사이트가 소개될 예정이다. 특히, 이번 사업설명회 현장에서 가맹 계약을 체결하는 원장에게는 태블릿 PC 제공(지역 본부당 2명 한정) 및 맞춤형 가맹 혜택이 지원되며, 현직 원장의 생생한 사례를 직접 들을 수 있어 예비 창업자에게 실질적으로 유익한 기회가 될 것으로 보인다. 이와 함께 잉글리시아이는 5월 12일부터 전국 36개 지역 본부를 중심으로 약 60회차의 ‘VISION-UP’ 교육을 운영한다. 해당 프로그램은 가맹 원장의 사기 진작과 실무 역량 강화를 위한 필수 교육 코스로 △지속 가능한 가맹점 성장 △교육 경쟁력 확보를 주요 목표로 하고 있다. 이번 2분기 비전업 교육은 ‘Advance with ADVANCED’를 주제로 개편된 AI-QV ADVANCED 프로그램의 효과적인 활용법과 우수 원장들의 수업 운영 노하우, 여름방학 특강 기획 및 운영 전략을 다룬다. 잉글리시아이는 가맹 원장의 전문성 강화를 위해 △개원을 준비하는 신입 원장과 강사를 대상으로 하는 ‘입문교육’ △초기 정착 및 성공을 돕기 위한 멘토링 프로그램 ‘MMP’ △프로그램 심화교육 ‘Build-Up’ △우수 원장의 노하우교육 ‘Skill-Up’ △원장 역량 강화교육 ‘Jump-Up’ 등 다양한 교육 프로그램을 운영 중이다. 잉글리시아이의 정기 교육 프로그램은 단순 정보 전달을 넘어, 각 지역의 실정에 맞는 전략을 세우는 데 큰 도움이 된다. 입문 단계 원장은 ‘멘토링 프로그램(MMP)’를 활용해 초기 시행착오를 줄일 수 있고, 경험이 쌓인 원장은 ‘Jump-Up’을 통해 경영 리더로서의 전문 역량을 체계적으로 기를 수 있다. 지역 내 선배 원장의 노하우를 공유 받을 수 있는 점도 학원 운영에 매우 실질적인 도움을 준다. 비상교육 이영장 영어CoreGroup 그룹장은 “잉글리시아이는 정기-특별 사업설명회를 통해 신규 가맹 기회를 전략적으로 확장하고 있을 뿐 아니라, 기존 가맹 원장님들이 교육 비즈니스 리더로 성장할 수 있도록 다층적이고 실질적인 지원 체계를 구축하고 있다”며 “앞으로도 유망한 가맹 파트너십 기회를 적극적으로 발굴하고, 원장님들의 교육 역량과 경쟁력을 높이기 위한 전방위적 지원을 아끼지 않겠다”고 전했다. 한편, 잉글리시아이는 미국·뉴질랜드 현지에서 직접 촬영한 1,400여 편의 스토리 기반 영상 콘텐츠를 통해 영어를 학습하고 현지 문화를 경험할 수 있는 프리미엄 자기주도 학습 프로그램이다. 태블릿 PC 기반의 AI 학습 시스템과 교재를 연계한 듣기·말하기·읽기·쓰기 통합 학습으로 실용 영어부터 내신 대비까지 아우르는 커리큘럼을 제공한다. 2014년 가맹사업을 시작한 이래, AI 기술을 결합한 에듀테크 기반 학습 프로그램으로 국내 초등 자기주도 영어 시장에서 높은 성장률을 보였으며, 베트남·파라과이·콜롬비아 등 해외 시장 진출을 통해 글로벌 브랜드로서의 입지를 강화하고 있다. 이병학 빅데이터뉴스 기자 lbh@thebigdata.co.kr &lt;저작권자 © 빅데이터뉴스, 무단 전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>비상교육의 영어학원 브랜드 잉글리시아이가 사업설명회를 개최하며, 가맹 운영에 대한 인사이트를 제공하고, 교육 프로그램을 운영하며 교육 역량과 경쟁력을 높이기 위한 지원을 강화하고 있다.</t>
+  </si>
+  <si>
+    <t>크레버스, AI로 에듀테크 혁신 이끈다…평가 솔루션 '허밍버드' 주목</t>
+  </si>
+  <si>
+    <t>지디넷코리아</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/092/0002374136</t>
+  </si>
+  <si>
+    <t>자체 설계한 AI 평가 시스템 기반…실시간 학생 맞춤형 피드백·교사 데이터 분석 지원 크레버스가 자체 설계한 인공지능(AI) 평가 시스템을 기반으로 차별화된 학습 경험 제공에 나서고 있다. 크레버스는 자체 개발한 AI 영어 자동 평가 시스템 '허밍버드(Hummingbird)'를 통해 온라인 학습 환경을 혁신하고 있다고 12일 밝혔다. 허밍버드는 학생의 에세이 글쓰기 데이터를 AI가 실시간으로 분석해 글의 구조, 내용, 문체 등을 평가하고 학습자 맞춤형 피드백을 즉각 제공하는 에듀테크 솔루션이다. 크레버스가 자체 개발한 AI 평가 시스템 허밍버드가 업계의 주목을 받고 있다. (사진=크레버스) 해당 시스템은 학생이 작성한 글을 자동으로 평가하고 피드백을 제공함으로써 마치 개인 튜터가 실시간으로 글의 논리적 구조와 문법적 오류를 점검해 주는 것과 같은 학습 경험을 제공한다. 기존에는 과제를 제출하고 교사의 피드백을 받기까지 며칠씩 걸리곤 했지만, 허밍버드를 통해 학생들이 몇 초 만에 피드백을 받아 자신의 학습을 바로 수정하고 향상시킬 수 있다는 게 강점이다. 이러한 즉시성은 학습자의 몰입도를 높이고 스스로 문제점을 파악해 개선하도록 돕는다. 허밍버드는 ▲학생 글의 구조·내용·문체 등 핵심 지표를 AI가 실시간 평가 ▲개인별 맞춤형 피드백을 즉각 제공해 자기주도 학습과 몰입 유도 ▲학습 데이터를 기반으로 취약점을 진단하고 반복 학습을 지원 ▲교사에게는 학생의 글쓰기 평가 결과와 개선 방향에 대한 정보를 제공하는 등의 강점을 보유하고 있다. 이를 통해 학생들은 AI로 언제든지 자신의 영어 에세이를 점검하고 개선할 수 있으며 교사는 개별 학생의 데이터를 토대로 부족한 부분을 정확히 파악해 효과적인 보충 지도를 할 수 있다. 이처럼 즉각적인 AI 피드백이 선행되면서 교사는 학생별 정확한 학습 데이터를 확보하게 돼 보다 맞춤형 지도가 가능해진다. 허밍버드는 대규모언어모델(LLM)과 정교한 프롬프트 엔지니어링이 결합된 AI 기반 글쓰기 평가 솔루션이다. 단순히 문법 오류를 지적하는 데 그치지 않고 글의 논리적 구조와 내용 전개의 완성도를 종합적으로 분석해 점수를 산출하고 그에 맞게 어떤 부분을 개선해야 할지 구체적으로 알려준다. 이러한 정교한 자동 평가와 맞춤형 피드백 기능은 기존의 일반적인 영어 교육 플랫폼에서는 찾아보기 어려운 차별화된 기능이라는 게 회사 측 설명이다. 이러한 AI 성과를 바탕으로 크레버스는 지난해 7월 마이크로소프트가 선정한 'AI를 활용한 국내 교육 혁신 사례'로 공식 소개되기도 했다. 이 AI 평가 시스템의 기획·개발은 크레버스 내부의 AI 기술개발 전담 조직인 네스토 본부(Nesto CV Division)가 맡았다. 교육 기업 안에 독립된 기술개발 본부를 두고 있다는 점에서 업계의 주목을 받고 있다. 크레버스는 네스토 본부의 AI 기술개발 역량을 바탕으로 향후 영어 외에도 수학, 사고력 교육 등 다양한 분야에 유사한 AI 학습 지원 기술을 확대 적용할 계획이다. 허밍버드로 축적된 학습 데이터와 평가 알고리즘을 다른 과목의 교육 플랫폼에도 접목함으로써 에듀테크 서비스의 범위를 넓혀간다는 목표다. 크레버스 관계자는 "전통적인 교육 기업의 틀을 깨고 기술 중심의 혁신을 추구하는 행보로 교육 업계와 IT 업계 모두에서 주목받고 있다"며 "자체 설계된 AI 평가 시스템을 기반으로 한 차별화된 학습 경험은 학생과 학부모의 만족도를 높이는 것은 물론, 기업의 경쟁력과 확장성을 동시에 강화하는 성공 요인으로 평가된다"고 강조했다. 이어 "교육과 기술의 융합을 통해 새로운 시장 기회를 개척하는 우리의 사례는 에듀테크 산업에서 하나의 롤모델로 떠오르고 있다"고 덧붙였다.</t>
+  </si>
+  <si>
+    <t>크레버스가 자체 개발한 AI 평가 시스템 '허밍버드'를 통해 온라인 학습 환경을 혁신하고, 학생들에게 실시간 맞춤형 피드백을 제공하여 자기주도 학습과 몰입을 유도하며, 교사에게도 개별 학생의 데이터를 제공하여 효과적인 보충 지도를 가능하게 하는 에듀테크 솔루션을 소개하고 있다.</t>
+  </si>
+  <si>
+    <t>조은에듀테크,  4회 연속 '디지털새싹 사업' 주관기관 선정</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/008/0005194087?sid=101</t>
+  </si>
+  <si>
+    <t>㈜조은에듀테크(대표 조은별)는 '2025년도 디지털새싹 사업'의 주관기관으로 선정되었다고 14일 밝혔다. 디지털새싹 사업은 교육부와 17개 시·도교육청, 한국과학창의재단 등이 협력해 전국 초·중·고교생에게 소프트웨어와 인공지능 교육 기회를 제공하는 대규모 프로젝트다. 2022년에 시작된 이래 학생들의 디지털 교육 격차 해소와 디지털 인재 양성을 목표로 내세우며 작년까지 누적 70만여 명이 참여하는 등 큰 호응을 얻었다. ㈜조은에듀테크는 2022년 협력기관으로 참여한 것을 시작으로, 2023년부터는 주관기관으로서 1만 5천여 명의 학생들에게 실습 위주의 체계적인 교육을 제공해왔다. 이러한 공로를 인정받아 2년 연속 교육부장관상을 수상하는 쾌거를 이뤘다. ㈜조은에듀테크 2025년 디지털새싹 사업 운영 프로그램 2025년에는 6가지 테마로 구성된 프로그램을 통해 총 5,490명의 학생을 교육할 계획이다. 모든 커리큘럼은 2022년 개정 교육과정을 충실히 반영하고, 미래 직업군과 연계해 학생들의 흥미와 실무 역량을 동시에 강화하도록 설계됐다. 모듈형 구성으로 각 학교나 학습 수준에 맞춰 탄력적으로 운영할 수 있는 것이 특징이며, 서울·인천권에서 3,300여명, 그 외 지역에서는 2,200여명의 학생이 참여할 예정이다. ㈜조은에듀테크는 지난 12일부터 디지털새싹 홈페이지를 통해 5개 기본과정 프로그램의 교육생 모집을 시작했으며, 뜨거운 관심 속에 대부분 모집을 완료했다. 6월부터는 본격적인 교육이 운영되며, 특화과정 1개 프로그램은 6월 중 별도 모집을 진행할 계획이다. 디지털새싹 홈페이지 ㈜조은에듀테크의 조성호 총괄본부장은 "단순히 디지털 교육 격차를 해소하는 데 그치지 않고, 창의적 문제 해결과 혁신 역량을 갖춘 미래형 디지털 인재를 양성하는데 집중하겠다"라며 "모든 학생이 디지털 시대의 주역으로 성장할 수 있도록 최적의 학습 환경을 제공하기 위해 최선을 다하겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>㈜조은에듀테크가 '2025년도 디지털새싹 사업'의 주관기관으로 선정되어 전국 초·중·고교생에게 소프트웨어와 인공지능 교육 기회를 제공하며, 5,490명의 학생을 교육할 계획이다. 이를 통해 디지털 교육 격차를 해소하고 미래형 디지털 인재를 양성하는데 초점을 맞추고 있다.</t>
+  </si>
+  <si>
+    <t>한국맥도날드, 메타버스 '푸드 세이프티 타운홀' 진행…식품안전 가치 강조</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003312133</t>
+  </si>
+  <si>
+    <t>한국맥도날드는 식품안전 가치를 강조하기 위해 메타버스 공간을 활용한 '푸드 세이프티 타운홀'을 진행한다. 한국맥도날드는 식품안전 가치를 강조하기 위해 메타버스 공간을 활용한 '푸드 세이프티 타운홀'을 진행한다고 14일 밝혔다. 올해로 9회차를 맞이한 '푸드 세이프티 타운홀'은 전국 매장의 매니저, 점장, 본사 임직원은 물론 협력업체까지 함께 참여해 식품안전에 대한 교육을 진행하고 그간의 성과를 확인, 향후 계획을 공유하는 프로그램이다. 한국맥도날드는 지난 2022년부터 메타버스 플랫폼을 활용해 해당 프로그램을 진행하고 있다. 올해의 주제는 'Food Safety! Always On!'으로, 식품안전을 최우선 과제로 삼아 버거의 맛과 조리 기준, 위생까지 아우르는 맥도날드의 품질 관리 계획을 공유할 예정이다. 맥도날드 제주외도DT점이 위치해 있는 제주 지역을 구현한 가상 공간에서 참가자들은 △글로벌 식품안전 교육 영상 △개인 위생 및 설비 관리 △해충 관리 △이물질 방지 등 핵심 교육 주제를 퀴즈와 함께 학습하게 된다. 한국맥도날드 관계자는 “'푸드 세이프티 타운홀'은 식품안전과 품질의 기준을 함께 공유하고 실천하는 데 큰 의미가 있다”며 “앞으로도 고객들이 안심하고 메뉴를 즐길 수 있도록, 식품안전에 대한 인식 수준과 메뉴 품질을 높이기 위해 지속적으로 노력하겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>한국맥도날드가 메타버스 공간을 활용한 '푸드 세이프티 타운홀'을 통해 식품안전 교육 프로그램을 진행하고, 식품안전과 품질에 대한 중요성을 강조하며 고객들의 안전한 식사를 위해 지속적인 노력을 다짐하고 있다.</t>
+  </si>
+  <si>
+    <t>질병청-서울시교육청, 감염병 예방 협력해 학생건강 수준 높인다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/421/0008248941?sid=105</t>
+  </si>
+  <si>
+    <t>청소년건강행태조사 협조 등 협력 방안 마련 "신체활동 실천 제고 및 식중독 집단발생 예방 당부" 질병관리청 (질병청 제공) 2025.5.14/뉴스1 (서울=뉴스1) 조유리 기자 = 질병관리청은 14일 서울시 교육청과 청소년건강행태조사 협조 등 학생건강 수준 향상을 위한 협력 방안을 논의했다고 밝혔다. 그간 질병관리청은 학생건강 수준 향상 및 감염병 예방·관리를 위해 예방접종 확인 사업과 청소년건강행태조사, 감염병 감시·분석 사업 등을 일선 학교와 협조해 수행해 왔다. 이번 협의에서는 학생 건강행태 현황을 공유하고 학생건강 수준 향상과 학교 내 감염병 예방·관리를 위한 방안을 논의했다. 특히 청소년건강행태조사 결과 청소년의 신체활동은 소폭 증가 경향이긴 하나 신체활동 실천율(하루 1시간 주 5일 이상)이 20%에 못 미치는 등 여전히 개선이 필요한 수준으로 나타나, 신체활동 실천율 제고 등 청소년 건강증진을 위해 적극 협력에 나서기로 했다. 또한 수인성·식품매개감염병(식중독) 집단발생이 교육·보육시설에서 절반 넘게 발생함에 따라 지영미 질병관리청장은 지자체-교육청-질병청의 협력체계 유지를 강조하면서 하절기 등 유행 시기에 학교 내 예방·홍보 안내에 힘쓸 것을 요청했다. 지영미 질병청장은 "학생건강 수준을 파악하고 이를 향상하기 위해서는 일선학교의 노력과 함께 가정·지역사회의 지속적인 관심이 필요하다"고 강조했다.</t>
+  </si>
+  <si>
+    <t>질병관리청과 서울시 교육청이 협력하여 학생 건강 수준 향상을 위한 방안을 논의하고, 청소년의 신체활동 부족 문제와 식중독 예방에 대해 대책 마련하고 있다. 지자체-교육청-질병청의 협력체계를 강조하며, 학교 내 예방·홍보 활동을 강화하고자 한다.</t>
+  </si>
+  <si>
+    <t>APEC 참석 이주호 "한국, 교육으로 경제성장·사회발전 동시 이뤄"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/003/0013240362</t>
+  </si>
+  <si>
+    <t>제7차 APEC 교육장관회의 환영사 [서울=뉴시스] 고범준 기자 = 이주호 대통령 권한대행 부총리 겸 교육부 장관이 13일 제주국제컨벤션센터에서 참석한 장·차관들과 함께 디지털 미래교실 체험관과 과학·기술·공학·수학(STEM) 융합 교육 전시관을 참관하고 있다. (사진=교육부 제공) 2025.05.13. photo@newsis.com *재판매 및 DB 금지 [세종=뉴시스]용윤신 기자 = 이주호 대통령 권한대행 부총리 겸 교육부 장관은 14일 "대한민국은 교육의 힘으로 경제성장과 사회발전을 동시에 이룬 나라"라고 소개했다. 이주호 권한대행은 이날 제주 국제컨벤션센터에서 개최된 '제7차 아시아태평양경제협력체(APEC) 교육장관회의' 총회 개회식에 참석해 APEC 회원 대표단에 환영사를 전했다. 13일부터 15일까지 개최되는 제7차 APEC 교육장관회의는 '디지털 대전환 시대의 교육격차 해소와 지속가능한 성장 촉진 : 혁신, 연결, 번영'을 주제로 미래 교육혁신의 방향과 지역 내 공동 번영을 위한 글로벌 교육협력 강화 방안을 논의한다. 총회에는 에두왈도 페드로사(Eduarso Perdosa) APEC 사무국장을 비롯해 20개 APEC 회원경제체 대표단 200여 명이 참석한다. 이주호 대통령 권한대행은 "디지털 기술의 발전과 인공지능(AI)의 등장은 문명사적 변화로서, 우리는 언제나처럼 신뢰와 협력을 바탕으로 미래를 대비하는 동시에 새로운 비전을 만들어 나갈 것"이라고 밝혔다．</t>
+  </si>
+  <si>
+    <t>이주호 대통령 권한대행 부총리 겸 교육부 장관이 제7차 APEC 교육장관회의에 참석하여 디지털 미래교실과 STEM 융합 교육 전시관을 참관하고, 교육의 힘으로 경제성장과 사회발전을 이룬 대한민국을 소개하며 미래 교육혁신과 교육협력 강화 방안을 논의하고 있다.</t>
+  </si>
+  <si>
+    <t>의대교수협 "학생 유급·제적은 대학 재량…교육부 간섭 말아야"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/001/0015388510</t>
+  </si>
+  <si>
+    <t>학생 유급 처리 앞둔 의대 (서울=연합뉴스) 김성민 기자 = 대다수 의대가 지난달 말 유급 데드라인을 지나며 7일까지 구체적인 처분 현황과 향후 계획을 보고할 예정이다. 사진은 이날 오전 서울 시내 한 의과대학의 모습. 2025.5.7 ksm7976@yna.co.kr (서울=연합뉴스) 오진송 기자 = 전국의과대학교수협의회(의대교수협)는 14일 "교육부는 강요와 압박을 통한 대학 학사 운영 간섭을 즉시 중지하고 학습권 보호를 위한 조처에 힘써야 한다"고 촉구했다. 의대교수협은 이날 성명서를 통해 "유급 및 제적은 학칙에 따라 각 대학에서 자율적으로 판단할 사안"이라며 이렇게 주장했다. 또 "의대생 교육과 전공의 수련을 국립대병원, 사립의대부속병원 등 교육병원이나 수련병원에서 감당하지 못해 등 떠밀리듯 지역의료원, 지역 2차 병원이 주먹구구식으로 분담하는 것은 바람직하지 않다"며 "중요한 것은 교육의 질"이라고 강조했다. 그러면서 "미국과 일본 등에서는 의대나 수련병원의 교육 여건이 뒷받침되지 않으면 의대 입학 정원을 줄이거나 신입생 모집을 중단하기도 한다"며 "의료계와 정치권, 정부가 합심해 현 상황을 타개할 해결책을 시급하게 마련해야 한다"고 촉구했다. 교육부에 따르면 전국 40개 의대에서 수업 거부 등으로 유급이 확정된 학생은 8천305명, 제적 대상은 46명으로 집계됐다. 이로써 올해 1학기 최대 수업 참여 대상은 전체 재학생 1만9천475명 중 34.4%인 6천708명이다. dindong@yna.co.kr</t>
+  </si>
+  <si>
+    <t>대다수 의대가 유급 처리를 앞둔 상황에서, 의대교수협이 교육부에 대해 강요와 압박을 중지하고 학습권 보호를 요구하는 성명서를 발표했다. 전국 40개 의대에서 수업 거부로 인해 유급이 확정된 학생은 8천305명으로, 대적 대상은 46명이다.</t>
+  </si>
+  <si>
+    <t>AI 교육부터 K-급식 체험까지…APEC 대표단, 제주 학교 찾는다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/421/0008249948</t>
+  </si>
+  <si>
+    <t>15일 4개교 방문 이주호 대통령 권한대행 부총리 겸 교육부 장관이 14일 제주 국제컨벤션센터에서 열린 ‘제7차 아시아태평양경제협력체 교육장관회의’ 총회 개회식에서 기념촬영을 하고 있다. (교육부 제공, 재판매 및 DB 금지) 2025.5.14/뉴스1 ⓒ News1 임세영 기자 (제주=뉴스1) 오현지 기자 = 아시아태평양경제협의체(APEC) 2025 교육 장관회의 대표단이 제주 학교 현장을 찾는다. 제주도교육청은 21개 APEC 회원경제체 대표단 140여 명이 15일 도내 4개 초·중학교를 방문해 인공지능 교육과 국제 바칼로레아(IB) 등 글로벌 역량 교육 현장을 살피고 급식 체험에 나선다고 14일 밝혔다. 도교육청에 따르면 이들 대표단은 제주형 자율학교인 안덕초에서 디지털교과서 활용 수업, AI 교육 교구 활용 소프트웨어 수업, 생성형 AI 로봇 활용 수업 등 실습 위주 수업 시연을 참관한다. 1~2학년을 대상으로 국어를 제외한 모든 수업을 영어로 진행하는 제주남초도 대표단 방문 대상 학교로 꼽혔다. 제주북초는 IB 학교로, 대표단은 다양한 형태의 수업 참관을 통해 국제적 학습 교육 현장을 경험하게 된다고 도교육청이 전했다. 서귀중앙여중은 디지털 선도학교로, 대표단에 디지털 배움 중심 수업 현장을 소개한다. 김광수 도교육감은 "이번 APEC 교육 장관회의 대표단의 학교 방문 행사는 제주교육이 지향하는 디지털 전환, 국제적 역량 강화, 교육복지 실천 사례를 국제 사회와 공유하는 뜻깊은 자리"라며 "제주교육이 나아갈 미래 교육 방향을 모색하고 국제적 교육환경에서의 경쟁력을 드높일 수 있는 기회로 삼겠다"고 말했다</t>
+  </si>
+  <si>
+    <t>APEC 2025 교육 장관회의 대표단이 제주 학교를 방문하여 인공지능 교육과 국제 바칼로레아 등 글로벌 역량 교육 현장을 살펴보고, 교육환경에서의 경쟁력을 높이는 기회로 삼는다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]아이스크림에듀, 전북형 늘봄학교에 AI 코스웨어 '홈런' 제공</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/030/0003312219?sid=102</t>
+  </si>
+  <si>
+    <t>아이스크림에듀가 전북 장수와 진안, 임실, 김제 지역 내 늘봄학교에 인공지능(AI) 기반 학습 솔루션 아이스크림 홈런(이하 홈런)을 제공하는 공공사업을 진행한다고 14일 밝혔다. 이번 사업은 늘봄학교 프로그램과 연계해 AI 코스웨어를 적용하는 것으로, 학생의 학습 이력과 수준을 실시간으로 분석해 개인화된 학습 콘텐츠를 제공한다. 아이스크림에듀는 기초학력 향상과 자기주도학습 역량 강화를 기대할 수 있을 것으로 보고 있다. AI 코스웨어 홈런은 진단-처방-피드백 구조를 기반으로, 학습 데이터를 실시간으로 분석해 수준별 학습 콘텐츠를 자동 제공한다. 교사의 수업 및 행정 부담은 줄이고 학습 질은 높일 수 있어, 늘봄학교 등 다양한 공교육 프로그램에 적합하다는 평가다. 박영표 천천초등학교 교장은 “도입 초기에는 단순한 디지털 기기 정도로 생각했지만, 학생 개개인의 진도와 이해도를 반영한 학습이 가능하다는 점에서 교사들의 반응이 매우 긍정적”이라며 “무엇보다 학생들이 자발적으로 학습에 몰입하는 모습을 보며 AI 코스웨어의 가능성을 체감하고 있다”고 말했다. 이어 박 교장은 “지역 학교들은 인력과 여건의 한계로 개별 지도가 쉽지 않은 상황인데, 이 시스템은 보완재로서 충분히 역할을 하고 있다”며 “향후 더 많은 학교에서 유연하게 활용될 수 있기를 기대한다”고 덧붙였다. 변수홍 아이스크림에듀 공공제휴사업실 이사는 “공교육 현장에서 AI 기반 학습이 어떻게 실현될 수 있는지를 보여주는 구체적 사례”라며 “앞으로도 AI 코스웨어를 통해 교육 소외 지역과 취약계층을 아우르는 공공 협력 모델을 지속 확장해 나가겠다”고 밝혔다.</t>
+  </si>
+  <si>
+    <t>아이스크림에듀가 전북 지역 내 늘봄학교에 AI 기반 학습 솔루션을 제공하는 공공사업을 진행하고 있으며, 이를 통해 개인화된 학습 콘텐츠를 제공하여 기초학력 향상과 자기주도학습 역량을 강화하고 있다. 학교 교사의 부담을 줄이고 학습 질을 높일 수 있는 시스템으로 평가받고 있으며, AI 코스웨어를 통해 교육 소외 지역과 취약계층을 지원하는 모델을 확장할 계획이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>메가스터디교육 ‘스윗타임’ 누적 이용자 5만 명 돌파… “초등학생 ·중학생 자기주도학습 습관 형성에 큰 도움"</t>
+  </si>
+  <si>
+    <t>조선비즈</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/366/0001076926</t>
+  </si>
+  <si>
+    <t>메가스터디교육의 실시간 올인원 학습 시스템 ‘스윗타임’이 누적 이용자 수 5만 명을 돌파했다. ‘스윗타임’은 초등 인강 엘리하이와 중등 인강 엠베스트의 초등학교 4학년부터 중학교 3학년 회원을 대상으로 제공되는 온라인 학습 관리 서비스다. 전용 학습 태블릿으로 ‘스윗타임’에 접속해 요일별 학습 희망 시간을 입력하면, 설정한 시간에 맞춰 입장 알림이 발송된다. 입장 후에는 얼굴 인식 기술을 기반으로 실시간 모니터링이 시작되며, 자유롭게 학습하는 동안 학습 시간이 자동으로 기록된다. 학습자가 자리를 비울 경우 5분, 15분 간격으로 자리이탈 알람이 발송돼 학습 몰입도를 유지하는 데 효과적이다. 하루 한 번 원하는 시간을 예약해 친구들과 학습 시간을 겨루는 ‘배틀’ 기능도 눈길을 끈다. 선의의 경쟁을 하며 게임처럼 즐겁게 공부할 수 있어 공부에 대한 흥미와 집중력을 자연스럽게 끌어올린다는 평가를 받고 있다. 관계자는 “스윗타임 이용 회원의 학습 계획 달성률이 비이용자 대비 초등은 약 13.2%, 중등은 약 15.7 % 높게 나타났으며, 출석 횟수와 평균 학습 시간 등 주요 지표에서도 이용자들이 더 높은 수치를 기록했다(25년 3월 기준)”며, “스윗타임이 자기주도학습 역량 향상에 긍정적인 영향을 미친다는 점을 확인할 수 있었다”고 전했다. 이용자들 역시 높은 만족도를 보이고 있다. 초6 자녀를 둔 엘리하이의 한 학부모 회원은 “오후 3시를 공부 시간으로 정해놓고, 하교 후 자기주도학습을 실천하고 있다”며, “자리를 비우면 알람이 울려 따로 잔소리하지 않아도 아이 스스로 공부에 집중하는 습관이 형성되고 있다”고 전했다. 또한 중등 엠베스트의 한 학부모 회원은 “순공 시간(순수 공부 시간)을 눈으로 확인할 수 있는 점이 좋았고, 아이가 친구들과의 학습 배틀에서 1위를 해 뿌듯해하며 더욱 즐겁게 공부했다. 특히 학습량이 많은 중간고사 기간에 스윗타임이 큰 도움이 됐다”고 말했다. 한편 스윗타임은 현재 베타 버전으로 운영 중이며, 최적화 작업을 거쳐 오는 5월 말 정식 출시될 예정이다. 정식 오픈 후에는 매월 우수 회원 10명을 선정해 에어팟을 증정하는 프로모션도 진행할 계획이다.</t>
+  </si>
+  <si>
+    <t>메가스터디교육의 '스윗타임'이 5만 명 이용자 돌파. 온라인 학습 서비스로 학습 관리 및 자기주도학습 강화. 사용자들의 학습 계획 달성률이 높아지고 만족도도 높은 것으로 나타남.</t>
+  </si>
+  <si>
+    <t>천재교과서 T셀파, ‘수업 혁신 연구대회’ 성료 - 매일일보</t>
+  </si>
+  <si>
+    <t>매일일보</t>
+  </si>
+  <si>
+    <t>https://www.m-i.kr/news/articleView.html?idxno=1238775</t>
+  </si>
+  <si>
+    <t>AI 기반 수업 혁신 사례 공유 천재교육·천재교과서의 올인원 교수학습지원서비스 T셀파(티셀파)는 지난 10일 서울교육대학교 사향융합체육관 그랜드홀에서 ‘2025 천재 T셀파 수업 혁신 연구대회’를 개최했다. 사진=천재교육 제공 매일일보 = 김혜나 기자 | 천재교육·천재교과서의 올인원 교수학습지원서비스 T셀파(티셀파)는 지난 10일 서울교육대학교 사향융합체육관 그랜드홀에서 ‘2025 천재 T셀파 수업 혁신 연구대회’를 개최했다고 14일 밝혔다. 이번 대회는 전국 교사들이 AI 기반 수업 혁신 사례를 공유하고, 전문가 및 동료 교사들과 소통하는 자리로 마련됐다. 본선에 진출한 초등 34팀, 중등 11팀 총 45팀은 사전에 준비한 수업 사례를 기반으로 현장에서 직접 작품을 설명하고 전문가위원들과 질의응답을 진행했다. 심사는 전문가위원과 현장투표단의 평가를 통해 이뤄졌다. 전문가 위원들은 갤러리 투어 방식으로 각 팀의 발표를 순회하며 창의성, 실천 가능성, 교육적 효과성을 종합적으로 평가했다. 전국 초·중·고 교사들로 구성된 ‘현장 투표단’이 대회 현장을 찾아 본선 작품을 직접 심사하고 투표에 참여함으로써, 현장 교사 의견에 가중치를 뒀다. 전문가위원의 심사결과와 현장 투표단의 투표결과를 종합적으로 반영한 최종 심사 결과, 대상은 △초등학교 부문에서 심석초등학교 최아름 교사의 ‘EDU P.A.I.R. 로 데이터 기반 맞춤 학습으로 수학 능력 키우기’ △중등 부문에서 광남중학교 이수빈 교사의 ‘AIDT와 함께하는 깊이 있는 맞춤형 학습을 통해 영어 의사소통역량 함양하기’ 작품이 수상의 영예를 안았다. 대상을 받은 2팀에게는 내년 1월 영국 런던에서 열리는 세계 최대 에듀테크 박람회 ‘Bett UK 2026’ 참관 기회가 주어지며 항공, 숙박을 포함한 참관 비용 전액을 지원한다. 최우수상 3팀에게 100만원, 우수상 6팀에게 50만원, 장려상 34팀에게 30만원의 상금과 함께 상장, 트로피를 수여했다. T셀파 홈페이지를 통해 별도로 진행된 온라인 투표에서 가장 많은 표를 받은 10팀에게는 인기상을 수여했다. 이날 준비된 특별 프로그램 ‘T셀파와 함께!’에서는 참여형 수업도구인 클래스핑퐁을 활용한 퀴즈 프로그램이 진행됐다. 디지털 수업 공간인 클래스보드의 새로운 기능에 대한 시연도 이뤄졌다. 이후 토크 콘서트 형식으로 진행된 ‘AI 디지털교과서 개발자와의 대화’에서는 디지털콘텐츠부 부서장이 참석해 교육 관계자들의 궁금증을 해소하는 시간을 가졌다. 김황 천재교육 T셀파 전략부문장은 “이번 연구대회는 교사들이 AI 디지털교과서를 실제 수업에 어떻게 적용하고 있는지 공유하는 장이었다”며 “T셀파는 앞으로도 교육의 디지털 전환을 선도하는 플랫폼으로서 교사와 학생 모두의 성장에 기여하겠다”고 말했다. 저작권자 © 매일일보 무단전재 및 재배포 금지 트윗하기 김혜나 기자 hnkim@m-i.kr 다른기사 보기 페이스북 트위터 카카오스토리 기사공유하기</t>
+  </si>
+  <si>
+    <t>T셀파가 '2025 천재 T셀파 수업 혁신 연구대회'를 개최하여 AI 기반 수업 혁신 사례를 공유하고, 대상 및 수상팀에게 상금 및 참관 기회를 제공하며, 교사들과 학생들의 성장을 위한 노력을 이어가고 있다.</t>
+  </si>
+  <si>
+    <t>[특징주] 비상교육 상한가, “대선 후보에 6대 교육정책 제안” 교육 관련주 ‘관심 집중’ &lt; 시세/공시 &lt; 증권 &lt; 기사본문 - 와이드경제</t>
+  </si>
+  <si>
+    <t>와이드경제</t>
+  </si>
+  <si>
+    <t>https://www.widedaily.com/news/articleView.html?idxno=267392</t>
+  </si>
+  <si>
+    <t>(사진=비상교육) 비상교육(100220)의 주가가 상한가를 기록하며 시장의 주목을 받고 있다. 15일 한국거래소에 따르면 비상교육의 주가는 오전 10시 24분 기준 전일 대비 29.85% 상승한 7090원에 거래되고 있다. 이는 부산·울산·경남 교육감이 공동으로 대선 후보들에게 6대 교육정책 공약을 제안했다는 소식이 전해지면서 교육 관련주가 주목받고 있는 것으로 풀이된다. 지난 13일 김석준 부산시교육감과 천창수 울산시교육감, 박종훈 경남도교육감은 정책간담회를 열고 6대 교육정책 과제를 담은 정책 제안서를 마련했다고 14일 부산시교육청이 밝혔다. 제안서에는 지방교육재정 안정적 확보를 위한 국가 책임 강화, 교육활동 중 안전사고 교원 책임 면책 보장, 공교육 정상화 추진, 새로운 교육 수요 반영 교원 및 지방공무원 증원, 학교문화예술교육 지원 확대 등이 포함된 것으로 알려졌다. 공교육 정상화 추진으로 대입체계 개편을 통한 고교교육 정상화를 이루고 지방국립대 등록금 무상 지원과 지방대학 재정 지원 등을 확대해 지역 기반 인재 육성과 대학서열화를 해소해야 한다는 내용도 담겼다. 또한 학교문화예술교육 지원 확대와 관련해서 문화체육관광부의 학교예술강사 예산 감축에 따라 학교문화예술이 위축되고 있다는 점을 강조하며 문화체육관광부의 적극적인 예산 확보와 지원을 요청했다. 교육감들은 "대한민국의 오늘을 만든 힘도, 새로운 미래를 여는 힘도 교육에 있다"며 "지속가능한 국가 성장과 지역 균형 발전을 위한 전략으로 교육 체제 전환을 촉구한다"고 전했다. 해당 소식에 제 21대 대선 공약으로 교육정책이 주목받으면서 관련주인 비상교육으로 투자자들의 이목이 쏠리는 것으로 관측된다. 비상교육은 대한민국 대표 교육 전문 기업으로 초·중·고 교과서 제작을 비롯해 다양한 학습 교제를 출판하고 있다. 또한 온라인 학습 플랫폼을 통해 유아부터 중학생까지 스마트 학습 서비스를 제공하고 있으며, 디지털 교육 콘텐츠를 해외에 수출하고 있어 글로벌 시장에서의 입지도 강화하고 있다. 비상교육은 1997년 교육출판사 ‘비유와상징’으로 설립된 이후 2002년 법인 전환을 거쳐 2009년 현재의 사명으로 변경한 교육 전문 기업이다. 유아부터 초·중·고등학생까지 전 학령 인구를 대상으로 교육 콘텐츠를 개발 및 제공하고 있으며, 출판사업, 러닝사업, 티칭사업 등 다양한 교육 서비스를 영위하고 있다. 특히 2024년 과천 신사옥으로 이전한 이후 AI 디지털교과서 개발과 스마트러닝 플랫폼 구축 등 에듀테크 기반의 교육 혁신에 박차를 가하고 있다. 황진영 기자 goldpig@widedaily.com 다른기사 보기 저작권자 © 와이드경제 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>교육 관련주인 비상교육의 주가가 상한가를 기록하며 주목을 받고 있는데, 이는 부산·울산·경남 교육감들이 대선 후보들에게 6대 교육정책 공약을 제안했기 때문이다. 교육 관련주로 투자자들의 이목이 쏠리고 있으며, 비상교육은 교육 전문 기업으로 다양한 학습 교재를 출판하고 온라인 학습 플랫폼을 통해 스마트 학습 서비스를 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>[르포]“손에 쥔 아이패드가 교과서”…덕성여중, 디지털 전환 교실을 가다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/018/0006014807?sid=105</t>
+  </si>
+  <si>
+    <t>애플우수학교 선정 ‘덕성여중’ 가보니 ‘키노트’, ‘넘버스’ 앱 활용해 수업 친구들과 필기 공유...집에가져가서 수업준비 활용 아이패드 수업도구로 인식...3년간 파손 1차례뿐 [이데일리 윤정훈 기자] “화면에 빨간색이 세계 분쟁지역입니다. ‘넘버스’ 세계지도와 일치하는지 살펴보세요.” 덕성여중 2학년 2반 학생들이 15일 오전 사회 수업을 듣고 있다.(사진=애플코리아) 15일 오전 8시 20분, 서울 종로구 덕성여자중학교 2학년 2학반 교실. 11명의 반학생들이 책상위에 아이패드를 펼치고 윤혜경(40) 교사의 1교시 사회 수업을 듣고 있었다. 윤 교사는 자신의 패드에 깔린 프리젠테이션 앱인 ‘키노트’에서 발표 자료를 익숙하게 넘기며 수업을 진행했다. 교실 전면에 전자칠판은 교사의 아이패드 화면과 미러링돼 교사는 자신의 패드만 보고도 수업을 진행할 수 있었다. 교사가 준비한 영상 자료를 재생하고, 화면 크기 변경이나 중간중간 필기를 공유하는 것도 터치 한 번으로 손쉽게 이뤄졌다. 이날 수업은 종이 교과서가 한 번도 쓰이지 않았고, 아이패드를 통해서만 이뤄졌다. 학생들은 조별 토론을 할때도 키노트 화면을 보면서 의견을 취합했고, 이를 바탕으로 전체 발표를 했다. 황보리 학생은 “아이패드에 수업활동을 다같이 필기하면 친구들 필기도 같이 볼 수 있어서 도움이 된다”며 “아이패드를 집에 가져갈 수 있어서 수업을 준비하고 복습하기에도 좋다”고 했다. 덕성여중은 2022년 코로나19 시기 서울시교육청이 추진한 맞춤형 디지털 학습기기 ‘디벗’을 처음 도입했고, 아이패드를 사용하기 시작했다. 학교는 애플의 기본앱인 넘버스와 키노트 등 앱이 활용도가 높고, 학습자료 포트폴리오를 구축해 만들 수 있다는 장점을 보고 아이패드를 선택했다. 주진완(49) 국어 교사는 “애플은 스쿨매니저가 있어서 학생들의 보고 있는 화면을 제어할 수 있고, 1년동안 학습한 것을 모아서 포트폴리오로 축적할 수 있어서 활용도가 높다”며 “국어의 경우 종이에 글씨를 쓰는 것도 중요해서 교과서와 디지털 자료를 병합해서 사용하고 있다”만족감을 표했다. 일각에서는 디지털 기기를 사용하면 집중도가 떨어진다는 의견도 있었지만 현장에서 모습을 달랐다. 교사의 앱으로 모니터링이 되고, 한 반에 학생들이 10여명 내외로 적어서 통제가 용이했다. 덕성여중 2학년 2반 학생들이 15일 사회 수업 중 아이패드 ‘키노트’ 앱을 활용해 협력토론을 하고 있다(사진=애플코리아) 윤 교사는 “학생들이 어떤 앱을 많이 사용했는지 모니터링이 되기 때문에 학기 초에 이런 기능이 있다는걸 보여주기만 해도 딴짓을 하는 경우가 줄어든다”며 “학생들도 아이패드가 수업도구라고 생각하고, 용량(64GB)도 적어서 수업 준비외에 다른 용도로 잘 쓰지 않고 있다”고 했다. 실제 덕셩여중에서 지난 3년간 아이패드가 파손된 건은 한차례 밖에 없다고 했다. 디지털 활용 수업 초기에는 혼란도 있었다. 무선망이 오래되서 접속이 잘 안되기도 하고, 교사들과 학생의 기기 활용도도 미숙했기 때문이다. 덕성여중은 이를 해결하기 위해 와이파이망을 업그레이드 하고, 학기초엔 학생들을 대상으로 디지털 기기 활용교육을 실시하고 있다. 덕성여중은 작년 ‘애플우수학교(ADS·Apple Distinguished School)’에 선정돼서 애플의 최신 기술과 교육 콘텐츠를 사용할 수 있다. 국내에 애플 인증을 받은 학교는 단 9곳 뿐이다. 애플은 전세계 40개국에 1000여 학교를 ADS로 인증하고 교육 혁신을 위해 노력하고 있다. 교육 현장에서는 생성형 인공지능(AI)을 수업에 활용하는 방안을 놓고도 고민을 하고 있다. 서울시교육청은 생성형 AI를 교사 지도하에만 활용할 수 있도록 하고 있다. 주 교사는 “교육현장에서 경험이 축적되는 속도보다 기술 발전이 빨라서 수업의 본질을 놓칠까봐 걱정하고 있다”며 “생성형 AI를 사용하고, 수업에 활용하는 것에 대해서는 연구가 필요하다”고 말했다</t>
+  </si>
+  <si>
+    <t>덕성여자중학교가 애플우수학교로 선정되어 아이패드와 애플 앱을 활용한 수업이 진행되고 있으며, 학생들은 협력토론과 필기를 아이패드를 통해 공유하며 수업을 진행하고 있다. 학교는 디지털 기기를 효율적으로 활용하기 위해 노력하고 있으며, 애플의 최신 기술과 교육 콘텐츠를 사용할 수 있는 애플우수학교로 선정되어 있다.</t>
+  </si>
+  <si>
+    <t>K에듀, 10조 규모 중동 에듀테크 시장 잇따라 도전</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/277/0005592589?sid=101</t>
+  </si>
+  <si>
+    <t>웅진씽크빅 비롯한 韓 교육기업 중동 진출 속도 낮은 중위연령, 학생 1억명 성장 잠재력 '폭발적' 언어·문화 비슷하나 국가별 법·제도적 장벽 과제 국내 교육기업들이 하나둘 '중동'으로 향하고 있다. 저출산과 학령인구 감소로 국내 교육시장의 성장 전망이 어두워지자, 돌파구로 중동을 주목하는 것이다. 중동 국가들은 '포스트 석유' 전략의 일환으로 교육과 인재 육성에 집중하고 있으며 코로나19를 계기로 비대면 학습과 에듀테크에 대한 관심과 수요가 커지고 있다. 15일 관련 업계에 따르면 웅진그룹 교육 계열사 웅진씽크빅은 지난 1일 카타르 다카켄그룹과 증강현실(AR) 기반 독서 솔루션 'AR피디아'의 사우디아라비아·카타르·이집트 독점 유통 계약을 체결했다. 연간 최소 42만5000달러(약 6억원)의 판매를 보장하는 조건이다. 웅진씽크빅은 앞서 요르단 기업과도 유통 계약을 맺었고 현재 오만 교육부를 대상으로 과학학습 솔루션 'AR사이언스랩' 공급도 추진하고 있다. 웅진 외에 다른 기업들도 에듀테크를 앞세워 중동 진출에 속도를 내고 있다. 비상교육은 2020년 카타르 기업 캔디드존과 유아용 스마트러닝 프로그램 '윙스' 공급 계약을 체결했다. 인공지능(AI) 에듀테크 기업 아이스크림미디어는 지난해 6월 사우디 에듀테크 기업 클레세라와 전략적 제휴를 맺었고, 동종업계 기업인 구루미는 같은 해 10월 아랍에미리트(UAE) 두바이에서 열린 중동 최대 IT 전시회 '자이텍스 글로벌(GITEX GLOBAL) 2024'에서 '구루미 AI EDU' 등을 선보이며 시장 공략에 나섰다. 이 같은 행보는 중동 국가들의 탈(脫)석유 전략과 교육 시장 성장성이 맞물린 결과로 풀이된다. 미국 시장조사기관 리포트링커는 중동 및 아프리카(MEA)의 에듀테크 시장이 2019년 35억달러(4조9500억원)에서 2027년 76억달러(10조7500억원) 이상으로 성장할 것으로 전망했다. 특히 중동 및 북아프리카(MENA) 지역은 젊은 인구 비중이 높고 아동 인구도 많아 에듀테크 성장에 유리한 환경을 갖추고 있다. 2021년 기준 중위연령은 이집트 23.9세, 사우디 29.8세, UAE 32.8세, 카타르 33세로, 경제협력개발기구(OECD) 39.9세와 한국 43.4세보다 낮다. 유네스코(UNESCO)는 이 지역 학생 수를 약 1억명으로 추산하고 있으며, 젊은 부모가 많은 편이라 유아부터 초등학생 비중도 높은 편이다. 코로나19 이후 온라인 교육 확산과 스마트기기 보급 등으로 카림, 수크 등 현지 에듀테크 스타트업도 활발히 등장했다. 중동 에듀테크 시장을 선도할 국가로 평가받는 사우디는 2016년 국가개발전략 '사우디 비전 2030'을 발표하고, 탈석유 시대에 대비한 경제 전환을 추진하고 있다. 교육과 인재 육성은 핵심 과제 중 하나로, 고급 기술 인력을 해외에 의존해온 한계를 극복하기 위해 디지털 전환과 지식 기반 경제 구축에 나섰다. 특히 이 계획의 5대 중점 협력국에 한국이 포함돼 있어 국내 에듀테크 기업들의 기회가 커지고 있다. UAE는 교육을 '진정한 부'로 보고 석유로 축적한 자산을 교육에 집중적으로 투자하고 있다. 건국 100주년을 대비해 2017년 발표한 'UAE 센테니얼(UAE Centennial) 2071'에서는 미래형 교육 중요성을 강조했다. 2022년 교육개혁 로드맵을 통해 교육 성과 관리를 위한 교육인증청도 설립했다. 지난해에는 전체 연방 예산 중 상당 부분인 16%를 교육에 배정하며 대규모 투자를 이어갔다. 그 결과, UAE의 문맹률은 1.9%(2021년 기준)로 중동 지역 최저 수준이다. 카타르를 포함한 다른 국가들도 국가 차원의 교육 개혁에 나서고 있다. 다만 중동 지역은 언어·문화적 유사성에도 국가별 법률 체계와 제도 차이가 커 에듀테크 시장 진출에서 고려할 과제로 꼽힌다. 웅진씽크빅 관계자는 "현지화 작업은 현지 파트너와 함께 진행할 것"이라며 "향후 파트너십을 통해 아랍어 버전을 개발하고, 이를 교두보로 삼아 시장 확대에 나설 계획"이라고 말했다.</t>
+  </si>
+  <si>
+    <t>한국 교육기업들이 중동 시장에 진출하여 에듀테크 제품을 공급하고 있으며, 중동 국가들의 교육 시장이 성장 중이라는 내용을 다루고 있습니다. 중동 지역은 젊은 인구 비중이 높고 에듀테크 성장에 유리한 환경을 갖추고 있으며, 한국 기업들이 현지 파트너와 협력하여 시장 확대를 모색하고 있습니다.</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 캠퍼스, 초·중·고 교사로 가입 대상 확대</t>
+  </si>
+  <si>
+    <t>https://www.edaily.co.kr/News/Read?newsId=04047526642169248&amp;mediaCodeNo=257</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 캠퍼스, 초·중·고 교사로 가입 대상 확대 닫기 실시간뉴스 탈원전 묻자…이재명 “에너지믹스 필요” 김문수 “원폭 떨어져도 안전” "세상에 사람 늘면 안돼"…美 난임 클리닉에 테러 이재명, 韓 성장동력으로 AI·재생에너지·문화산업 제시 김문수 "안보 없으면 경제 없다" VS 이재명 "극단적 태도 옳지 않아" 고용노동부, SBS '故 오요안나 괴롭힘 결론' 보도에 "결과 확정 NO" 권영국, 트럼프에 '레드카드' 척 올리고 김문수엔 "사퇴하라" 이재명 “노란봉투법, 당연히 해야”…김문수 “기업할 수 없어” 이재명·이준석, 데이터센터 공약 두고 재생에너지 공방 푸틴 "우크라 분쟁 근본 원인 제거해 평화 이뤄야" 국힘, '이재명 커피원가 120원 비판' 김용태 고발하자 李 맞고발 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2025년 05월 18일 일요일 실시간뉴스 탈원전 묻자…이재명 “에너지믹스 필요” 김문수 “원폭 떨어져도 안전” "세상에 사람 늘면 안돼"…美 난임 클리닉에 테러 이재명, 韓 성장동력으로 AI·재생에너지·문화산업 제시 김문수 "안보 없으면 경제 없다" VS 이재명 "극단적 태도 옳지 않아" 고용노동부, SBS '故 오요안나 괴롭힘 결론' 보도에 "결과 확정 NO" 권영국, 트럼프에 '레드카드' 척 올리고 김문수엔 "사퇴하라" 이재명 “노란봉투법, 당연히 해야”…김문수 “기업할 수 없어” 이재명·이준석, 데이터센터 공약 두고 재생에너지 공방 푸틴 "우크라 분쟁 근본 원인 제거해 평화 이뤄야" 국힘, '이재명 커피원가 120원 비판' 김용태 고발하자 李 맞고발 구독 지면 My 초판 로그인 로그아웃 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 글로벌마켓 제약·바이오 다크호스 리포트 UP&amp;DOWN 지금업계는 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 기자수첩 인터뷰 인사·부고 정치 대통령실·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 일반 연재 이슈 포토 영상 오토in 골프in 팜 이데일리 마켓 in The BeLT 기자뉴스룸 다문화동포 search search 속보 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 팜 이데일리 마켓 in The BeLT 삼성 갤럭시 캠퍼스, 초·중·고 교사로 가입 대상 확대 지난 2월부터 가능…교사 전용 혜택 및 콘텐츠 강화 등록 2025-05-15 오후 2:13:18 수정 2025-05-15 오후 2:13:18 가 가 임유경 기자 기자구독 페이스북 트위터 메일 프린트 url복사 [이데일리 임유경 기자] 삼성전자(005930)는 공식 교육 할인몰 ‘갤럭시 캠퍼스(갤캠스)’의 가입 대상을 초·중·고 교사로 넓히며 교사 지원을 확대했다고 15일 밝혔다. 갤캠스는 학생과 교사를 대상으로 △제품 할인 △자체 콘텐츠 △전용 커뮤니티 서비스 △회원 대상 이벤트 등을 제공하는 교육 특화 플랫폼이다. 2021년 오픈해 누적 회원 89만 명을 보유하고 있다. 삼성전자가 갤럭시 캠퍼스의 교사 지원을 확대한다. (사진=삼성전자) 그동안 갤캠스 가입 대상은 고등·대학(원)생과 대학(원) 교직원으로 한정됐는데, 지난 2월부터 초·중·고등학교 교사까지 대상이 확대됐다. 또 교사 전용 맞춤형 혜택과 콘텐츠도 추가됐다. 가입 대상 확대 이후 신규 가입 교사는 3300명이 넘으며 이 중 35%는 제품을 구매한 것으로 나타나는 등 좋은 반응을 얻고 있다는 게 삼성전자의 설명이다. 삼성전자는 교사들의 스마트한 기기 활용과 효율적인 수업 운영을 돕기 위해 9일부터 교사 전용 갤럭시 탭·북 활용 팁 콘텐츠를 순차적으로 공개하고 있다. 처음 공개한 ‘갤럭시 탭 수업 초기 세팅하기’ 콘텐츠는 기기 초기 세팅 방법부터 수업에 필요한 기본 기능을 안내해 교사들에게 높은 호응을 받았다. 앞으로 △갤럭시 에코(스마트폰과 태블릿을 동시에 사용하거나 단말 간의 앱 연속성으로 작업을 계속할 수 있는 기능) △갤럭시 AI △S펜 등 갤럭시 탭·북의 다양한 기능을 통한 수업 노하우부터 수업 시 교사들이 자주 사용하는 에듀테크 앱 활용 방법까지 폭넓은 정보를 공유할 예정이다. 갤럭시 탭·북의 기본 기능부터 실전 기능까지 제공하는 팁 콘텐츠는 갤캠스의 ‘갤럭시 팁스’에 지속 업데이트된다. 삼성전자는 스승의 날을 기념해 5월 한 달간 신규 교사 회원을 대상으로 웰컴 이벤트를 진행한다. 교사 회원의 추천인 코드로 동료 교사가 가입한 경우 추천인과 추천받은 회원 모두 스타벅스 커피 기프티콘을 받을 수 있다. 동료 교사에게 나만의 갤럭시 활용 팁을 공유한 회원 전원에게 신세계 상품권 1만 원을 지급하고, 우수 참여자 5명에게는 교보문고 기프트카드 3만 원권을 추가로 지급한다. 또, ‘갤캠스’ 신규 가입 회원 전원에게는 네이버페이 3천 포인트와 스마트폰?태블릿?웨어러블 할인 쿠폰팩을 증정한다. 이 밖에도 ‘갤캠스’ 회원은 △갤럭시 S25 시리즈 △갤럭시 탭 S10 시리즈 △갤럭시 북5 시리즈 △갤럭시 탭 S10 FE 등의 제품을 특가로 구매할 수 있다. 삼성전자는 향후 교사 전용 콘텐츠와 커뮤니티 서비스를 단계적으로 확대해 ‘갤캠스’를 교사들이 교육 현장에서 적극 활용할 수 있는 전문 교육 플랫폼으로 발전시켜 나갈 계획이다. 정호진 삼성전자 한국총괄(부사장)은 “교사들이 실제 수업과 업무에서 제품을 더 잘 활용할 수 있도록 콘텐츠부터 구매 혜택까지 다양한 서비스를 제공해 나갈 것”이라며 “갤럭시 제품과 갤캠스 플랫폼을 통해 보다 스마트한 학습 환경을 더욱 쉽게 조성하시길 바란다”고 전했다. 주요뉴스 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심' '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 이데일리 추천 뉴스 by Taboola 실시간 급상승 뉴스 1 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집]) 2 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’) 3 '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공") 4 대선 앞두고 '사퇴' 선언한 기호 6번, 왜?) 5 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐”) 오늘의 포토 왼쪽 오른쪽 [포토]'제21대 대선 선거공보물 확인하세요' [골프in포토]노승희,노련한 드라이버 임팩트 [포토]봄봄봄 [포토]콜롬비아 음식 맛보세요! [포토]5·18 민주화운동 제45주년 기념사하는 오세훈 시장 [포토] 이형준 '호쾌한 샷으로 우승에 도전' [골프in포토]황유민,버디라인을 찾는다 [포토] 최경주 '정교함으로 승부한다' [골프in포토]고지우,목표는 4강 진출이다 [골프in포토]박주영,타구 방향을 괜찮은데 당신을 위한 맞춤 뉴스 by Dable 소셜 댓글 많이 본 뉴스 뉴스 증권 연예 1 한덕수 "저도 호남 사람" 외침에…이재명 "들으며 소름" 2 "죄송합니다"… '훼손 시신' 매주 찾아가 술 따른 살인자 [그해 오늘] 3 사라진 한소희양…“물 좀 주세요” 30대 여성의 납치 [그해 오늘] 4 尹 계엄시 통화내역 파장…민주 "내란공동체 연결고리 확인" 5 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 6 '보수' 김용남, 이재명 지지 선언…"DJ 꿈 이룰 사람" 7 이재명 "예측한대로 국힘, 尹부정 조짐…곧 석고대죄도?" 8 [속보]손흥민 '임신협박' 남녀 구속…法 "증거인멸 우려" 9 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’ 10 `손흥민 임신 공갈` 경찰 수사 속도…산부인과 자료 확보 1 “170만원 갈 수도”…‘불닭 황제’ 삼양식품 외국인 또 담았다 2 ‘5조 몸값’ 테일러메이드 매각 재시동…올해 M&amp;A 최대어 될까 3 韓에만 없는 단일종목 레버리지 ETF…투자자 보호 vs 시장 통제[왓츠 유어 ETF] 4 삼양식품·한화비전·감성코퍼레이션[하나證 주간추천주] 5 '대선 D-15' 정치 테마주 과열…변동성 경고등 6 경영권 분쟁 가능성…한진칼 급등에 ‘운송 ETF’ 불기둥[펀드 와치] 7 잇따르는 ‘兆 단위’ 유상증자…“목적·모회사 참여가 주가 판가름” 8 韓 배당소득 이중과세…中보다 못한 주주환원율 초래했다 9 '밸류업' 모멘텀 계속될까…시장 재편 등 숙제 남아 10 '주가 올라봤자 세금만 늘어'…감세 없으면 밸류업도 없다 1 이경실 "용산 89평 아파트 경매 잘 해결…투자 꼬여 생긴 일" 2 윤형빈, 'WWE 레전드' 타지리 꺾었다…프로레슬링 데뷔전 승리 3 '최강야구' 아닌 '불꽃야구', JTBC 저작권 신고에 삭제 4 17기 옥순, '나는 솔로' 퀸의 등장…'나솔사계' 특집 출격 5 '보물섬'→'당신의 맛'…배우 홍화연이 해낸 증명[인터뷰] 6 차은우, 메달 입에 물고 '찰칵'…"마라톤 11km 완주" 7 임지연, 흥 폭발 댄스…"몸이 풀렸다" (언니네 산지직송2) 8 고윤정♥정준원, 첫 데이트 현장…꿀 뚝뚝 눈빛 (언슬전) 9 '정육 입문' 이장우, 려운X스키즈 리노와 한우 파티…폭풍 먹방 (나혼산) 10 육성재X김지연, 애틋한 키스…시청률 10.7% 돌파 (귀궁) 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 노보노디스크, 일라이릴리에 비만 치료제 점유율 밀리자 CEO 교체[AI헬스케어] 바이오앱, 식물 백신 생태계 확대...에이엔폴리와 식물 유래 ECM 개발 MOU 온코닉테라퓨틱스, 제일약품의 황금알 낳는 거위될까 유바이오로직스, 영업이익률 50% 임박…경쟁사 등장에도 3년내 매출 2천억 목표 [임상 업데이트] 녹십자-한미약품, 파브리병 치료제 글로벌 임상 시작 MICE 최신정보를 한눈에 TheBeLT 왼쪽 오른쪽 아르떼뮤지엄, 어린이 관람객 50% 할인…가정의 달 이벤트 그래비티 조선 판교, ESG 객실 패키지 '그린 투게더' 출시 서울스프링페스타, 7일간 82만 명 몰려…외국인 비율 21% 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 부자되고 싶은 사람 다모여 l 부자친구 '나연'이 알려주는 부자 코스 l 월매출 6억 소금빵에 소신발언?! l 빼이보릿 시엔느 탐방기 [핫플의주인공 ep.00] 안약 하나로 '21개국' 뚫었다 삼일제약 잭팟 터지나 한국 AI 신약 기업 생존 위협? / 바이오솔루션, 미국 임상 2상 호재 제약·바이오업계, 미국 관세 여파 촉각 디알텍, 블루오션 영상진단 시스템시장 정조준 두근두근 핫포토 시원한 스윙 칸, '노출금지'했는데.. '李 신발' 품절 '엿 드이소~' 왼쪽 오른쪽 당신의 드림카는? ㅣ오토in 금호타이어 “광주공장 화재 사과…생산 전환·피해 복구 비상 대응” 나이스 샤아앗~ ㅣ골프in [포토] 엄재웅 '시즌 두번째 우승도 도전하겠습니다' 왼쪽 오른쪽 이슈기획 ㅣ 제21대 대선 이재명, 韓 성장동력으로 AI·재생에너지·문화산업 제시 이슈기획 ㅣ 尹대통령 파면 尹 탈당하자…'친구' 석동현, 국힘 선대위서 물러나 이슈기획 ㅣ 트럼프 관세 전쟁 “美-EU, ‘트럼프 관세’ 피하려 본격 무역협상 돌입” 이슈기획 ㅣ SKT 유심 해킹 SKT, 해킹 여파 이탈자 34만5646명...하루 이탈자는 1만명 아래로 이슈기획 ㅣ GAIC [사고]돈 몰리는 유럽 투자사 총출동…대체투자 ''새판 짜기'' 논한다 오늘의 주요 기사 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’ 이재명은 '연임제' 김문수는 '중임제'…개헌안 차이는? '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공" . ‘초가성비’ 치킨 사라지나…업계 비상인 이유는 . "하마스 수장 시신 발견"…작년 형 이어 동생 신와르 제거 . 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” . '마의 10% 벽 넘어라'…'보수 대안' 노리는 이준석 . “임신했다” 손흥민 협박 남녀 결국 구속…경찰, 수사 속도 . '3조→2조' 몸값 낮춘 롯데카드 재매각 시동…시장선 "매력 없다" 알립니다 [마감] 2025년 이데일리 편집부 편집기자 모집 2025년 이데일리 마켓인 경력 기자 모집 이데일리 주식회사 제25기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - SKT, 갤럭시S25 엣지 지금은 기기변경만 가능[일문일답] - "고객신뢰위 2년 활동···100개 지역 300곳 찾아가는 유심 서비스" - 취약계층 ‘찾아가는 유심 서비스’ 19일부터 시행하는 SKT 이데일리ON - [이데일리ON 김선상[주도신공]] [주도신공패밀리]4월14일~5월16일 1등급대장주매매 합산차익 330% 돌파중 - [이데일리ON 박정식] [박정식의 국내 주식시황] 美 경제 지표 부진에 경기침체 우려 재부각 되며 일부 차익 매물에 따른 약세 가능성 - [이데일리ON 박정식] [굿모닝! 글로벌 뉴욕증시] 무역 긴장 완화 속... 경기 침체 우려 불거지며 혼조 마감 문화 · 행사 문화대상 전략포럼 W페스타 사진공모전 캠핑요리 국제금융컨퍼런스 곽재선 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.kr I 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 회장 곽재선 I 발행·편집인 이익원 I 청소년보호책임자 고규대 Family site 이데일리TV 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 곽재선 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 이데일리 캠페인 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>삼성 갤럭시 캠퍼스가 초·중·고 교사를 대상으로 가입 대상을 확대하고 교사 지원을 강화하며 교육 특화 플랫폼으로 발전하고 있다.</t>
+  </si>
+  <si>
+    <t>이재명·김문수·이준석, 스승의 날 맞아 일제히 교육 공약 쏟아내</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005350210?sid=154</t>
+  </si>
+  <si>
+    <t>(출처=연합뉴스) [파이낸셜뉴스] 스승의 날을 맞아 이재명 더불어민주당·김문수 국민의힘·이준석 개혁신당 후보가 교육 공약을 쏟아내 눈길을 끌었다. 세부적인 내용에서 조금씩 차이는 있지만 교사, 학생, 학부모 등 교육의 3주체가 모두 만족할 수 있는 환경을 조성하겠다는 데는 이견이 없는 것으로 보인다. 특히 최근 사회적으로 관심을 끌고 있는 교권 보호에 신경을 쓴 모양새다. ■이재명, K-교육의 완성 이 후보는 이날 사회관계망서비스(SNS)를 통해 K-교육의 완성을 약속하면서 "자원도 자본도 없던 대한민국이 기술 선진국으로 도약할 수 있었던 힘은 바로 교육에 있었다"며 "다시 한번 그 힘을 발휘해 내일의 기회로 이어가겠다"고 밝혔다. 이 후보는 유아교육·보육비 지원을 5세부터 단계적으로 확대하고 교사 대 아동 비율을 경제협력개발기구(OECD) 수준까지 단계적으로 낮출 방침이다. 사교육비 부담을 줄이기 위해서는 자기주도학습센터를 설치할 계획이다. 서울대 10개 만들기 프로젝트를 통해서는 지역거점국립대를 전략적으로 집중 육성해 대학서열을 완화하고, 국가균형발전까지 노리겠다는 전략이다. 교권 보호를 위해서도 불필요한 행정업무는 줄이고, 민원 처리 시스템은 더욱 체계화할 예정이다. 무엇보다 마음돌봄 휴가를 도입해 선생님의 마음 건강과 회복을 지원할 방침이다. 이 후보는 이같은 교육 정책을 추진하기 위해 톱다운 방식이 아닌 국민과 함께 모든 결정을 하겠다는 구상이다. 이를 위해 국가교육위원회를 중심으로 숙의와 사회적 합의를 존중하겠다는 입장이다. 이 후보는 "교육의 국가 책임을 강화해 모두가 안전하고 행복한 학교를 만들겠다"며 "국가가 보장하고 선생님이 교육에 전념해, 아이들이 믿고 자랄 수 있는 책임 교육을 기본으로 하겠다"고 강조했다. ■김문수, 교육감 직선제 폐지 김 후보도 이날 10가지 방향성을 담은 교육현장 공약을 발표했다. 이 가운데 가장 눈에 띄는 부분은 교육감 직선제 폐지다. 교육감의 정치적 중립성·투명성·교육성 강화를 위해 교육감 선출방식을 주민직선제에서 시·도지사 러닝메이트제 또는 광역단체장 임명제로 변경하겠다는 내용이다. 김 후보는 유치원과 어린이집 간 정부 예산 지원 격차 완화를 우선 추진하고, 만 5세를 시작으로 만 3~5세에 대한 단계적 무상 교육·보육도 추진할 예정이다. 초등학교 저학년을 대상으로 한 늘봄학교도 단계적 무상 교육·급식을 추진하고, 방학 중 늘봄학교 운영 시간도 연장하라 계획이다. 고교학점제를 통해서는 학생들의 과목 선택권 확대와 학교 책임 교육을 강화할 방침이다. 교사들의 지나친 업무 부담을 완화하기 위해서는 행정업무총량제와 국가 차원에서 교사의 법적 소송을 뒷받침해줄 예정이다. 교원이 아동학대로 신고돼 조사·수사를 받을 때는 교육감이 정당한 생활 지도 의견을 제출할 경우 불송치가 가능하도록 제도를 개선할 계획이다. 교육 현장 안전을 위해서는 학교전담경찰관(SPO)을 단계적으로 증원하고, 학부모·교원 등 학교 구성원의 의견 수렴 절차를 거쳐 학내 사각지대를 중심으로 폐쇄회로(CCTV) 설치도 추진할 예정이다. 교원을 대상으로 심리 상담 바우처를 지급하고, 전문 상담교사도 증원할 방침이다. 김 후보는 이날 대한민국교원조합 정책제안서 전달식에서 "제가 대통령이 되면 아이 낳고, 보육부터 교육, 특히 돌봄 부분에서 부모가 크게 부담을 느끼지 않게 국가가 책임질 것"이라며 "아이 낳고 기르는 게 두렵지 않은 그런 대한민국을 꼭 만들 것을 약속드린다"고 강조했다. ■이준석, 교권 강화가 최우선 이 후보는 교권 강화에 방점을 찍으면서 공약을 구체적으로 좁혔다. 현재 실추된 교권을 회복시키고 과도한 학생들의 자유는 제한해야 한다는 취지다. 기존에 언급한 교사소송 국가책임제, 교사 대상 허위신고 무고 처벌 강화, 학생 대상 '디텐션(처벌을 금지하는 대신 학생을 교실에서 격리해 훈육하는 방식) 제도'를 교육 정책으로 추진하겠다는 구상이다. 이 후보는 이날 서울교육대학교 재학생과 대한초등교사협회를 만나 "부모 입장에서는 최대한 보육을 덜어주길 원하겠지만, (교육) 현장은 감당하기 어렵다"며 "교사의 부담이 가중되는 것을 막기 위해 우선 교권을 회복시키는 것이 중요하다"며 "디텐션제도를 통해서 학생들의 과도한 자유를 제한하는 것을 하겠다"고 설명했다. 이 후보는 이미 개혁신당 10대 공약 중 하나로 '교권 보호를 위한 교사 소송 국가책임제 및 학습지도실 도입'을 제시한 바 있다. 이 안에는 교사를 대상으로 제기한 허위사실 소송에 대한 무고 처벌 강화 내용도 포함 돼 있다. 이 후보는 "학부모가 과도한 민원을 넣는 것도 문제"라며 "학부모들이 선생님에 대해 이의가 있을 때 아동학대를 신고한는 등의 경우가 있는데 이건 신중해야 한다"고 진단했다. 그러면서 이 후보는 "교육지원청 등의 교육 전문성을 가진 변호사를 임용해서 교육 공무원에 대한 소송이 생겼을 때 선생님 개인이 대응하게 하는 것보다는 교육청과 교육지원청이 대응하도록 하겠다고 (공약)했다"고 덧붙였다.</t>
+  </si>
+  <si>
+    <t>이재명, 김문수, 이준석 후보들이 스승의 날을 맞아 교육 공약을 발표하며 교육정책에 대한 다양한 제안을 내놓았다. 이들은 교사, 학생, 학부모 모두를 만족시킬 수 있는 교육환경 조성을 약속하고 교권 보호에도 주목하고 있다.</t>
+  </si>
+  <si>
+    <t>서울교육청, '학력진단 공개' 대법원 패소에 "당황스럽다"(종합)</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/003/0013243860?sid=102</t>
+  </si>
+  <si>
+    <t>대법원, 서울시교육청 제소에 기각 판결 "법률 검토 받고 승소 예상…결과 황당" "학교·지역 경쟁 과열, 서열 현실화 우려" [서울=뉴시스] 서울 종로구 서울시교육청 본청의 모습. (사진=서울시교육청 제공). 2025.01.13. photo@newsis.com [서울=뉴시스] 구무서 정예빈 수습 기자 = 대법원이 기초학력 진단결과를 공개하는 내용을 담은 서울시의회 조례안에 손을 들어주자 서울시교육청은 깊은 유감을 나타냈다. 서울시교육청은 15일 "서울시의회에서 상정한 기초학력 보장 지원에 관한 조례안에 대해 대법원이 기각 판결을 내린 것에 대해 깊은 유감을 표명한다"고 밝혔다. 내부에서는 승소를 예상했는데 이런 결과가 나와 당황스럽다는 분위기가 나온다. 서울시교육청 관계자는 "우리는 승소할 줄 알았다. 지금 매우 당황해 하고 있다"고 말했다. 또 다른 관계자도 "법무법인 법률 검토까지 받았는데도 이런 결과가 나와 황당하다"고 말했다. 코로나19 이후 기초학력 저하에 대한 우려가 커지자 서울시의회는 2023년 서울시교육청 기초학력 보장 지원에 관한 조례안을 의결했다. 이 조례안에는 개별 학교가 기초학력 진단검사 결과를 공개할 수 있고, 교육감이 그 결과를 공개한 학교에 포상을 할 수 있다는 내용이 담겼다. 단 서울시교육청은 기초학력 보장이 국가 사무이고, 결과를 공개하면 학교 서열화를 조정할 우려가 있다며 재의결을 요청했지만 서울시의회에서는 이마저도 통과됐다. 이에 서울시교육청은 2023년 5월 9일 조례안에 대해 대법원에 제소했고 서울시의회는 일주일 후인 5월 15일에 의장 직권으로 조례안을 공포했으나 5월 31일 대법원이 서울시교육청의 집행정지 신청을 인용하면서 실제로 진단 결과가 공개되지는 않았다. 그러나 이번 대법원 판결에 따라 서울시교육청이 패소하면서 기초학력 진단과 그 결과를 공개해야 한다. 서울시교육청은 "서울시의회의 조례 제정 취지인 서울 학생의 기초학력 보장 강화 목적에는 공감하지만 진단 결과의 공개는 학교 및 지역 간 과열 경쟁과 서열화를 초래할 우려가 있으며, 이는 기초학력 보장 정책의 본질적 목적에 부합하지 않는다는 입장을 지속적으로 밝혀왔다"며 "이번 판결로 인해 기초학력 진단 결과 공개로 인한 학교 및 지역 간 과열 경쟁과 서열화가 현실화될 수 있다는 점에서 심각한 우려를 표명한다"고 말했다. 이어 "대법원의 판결을 존중하면서도 조례의 취지를 충분히 고려하되, 일선 학교 현장의 혼란과 부담을 최소화하고자 한다"며 "이를 위해 서울특별시의회 및 교육공동체와 긴밀히 협력하며 기초학력 보장 정책이 학생 개별 맞춤형 지원이라는 본래 목적에 충실하도록 최선을 다할 것"이라고 말했다. 서울시교육청 관계자는 "아직 정해진 게 없다. 앞으로 교육감님과 서울시의회가 논의를 해봐야 할 것 같다"고 말했다．</t>
+  </si>
+  <si>
+    <t>대법원이 서울시교육청의 기초학력 진단결과 공개를 막은 판결을 내리면서, 서울시의회의 조례안이 기각되었다. 서울시교육청은 결과를 공개하면 학교와 지역 간의 과열 경쟁과 서열화를 초래할 우려를 표명하며, 이에 대한 우려를 나타내고 있다. 서울시의회와 교육공동체와 협력하여 학생 개별 맞춤형 지원을 위해 최선을 다할 것을 밝혔다.</t>
+  </si>
+  <si>
+    <t>스승의날 기념식…李대행 "급변하는 사회에도 선생님 역할 중요"(종합) | 연합뉴스</t>
+  </si>
+  <si>
+    <t>https://www.yna.co.kr/view/AKR20250515107951530?input=1195m</t>
+  </si>
+  <si>
+    <t>제44회 스승의날 기념식이 15일 서울 영등포구 FKI타워에서 열렸다. 이어 "우리 사회의 전반에 걸쳐 학교 교육과 선생님을 존중·존경하는 문화가 뿌리내리고 선생님이 교원으로서 자긍심을 가지고 안전하고 행복한 환경에서 가르치는 일에 전념할 수 있도록 정부는 앞으로도 각별한 관심을 갖고, 최선의 노력을 기울이겠다"고 강조했다. 강주호 한국교원단체총연합회 회장은 "뜻깊은 스승의 날이지만 심각한 교육현실에 안타까운 마음이 앞선다"며 "선생님들이 권한과 자율성, 책무성을 갖고 본연의 역할을 하도록 법·제도적 안전망을 마련해 달라"고 촉구했다. 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다.</t>
+  </si>
+  <si>
+    <t>제44회 스승의날 기념식에서 정부는 선생님을 존중하고 안전한 환경에서 가르치는 것에 관심을 기울일 것을 강조하며, 한국교원단체총연합회 회장은 교육현실 개선을 촉구했다.</t>
+  </si>
+  <si>
+    <t>'4세·7세 고시' 열풍에…교육부, '영어유치원' 레벨테스트 전수조사 :: 공감언론 뉴시스 ::</t>
+  </si>
+  <si>
+    <t>https://www.newsis.com/view/NISX20250515_0003176725</t>
+  </si>
+  <si>
+    <t>유아 대상 영어학원 특별점검 시행 요청 공문 [서울=뉴시스] 추상철 기자 = 관람객이 유아 영어 책을 살펴보고 있다. 2024.07.11. [email protected] [세종=뉴시스]용윤신 기자 = 교육부가 교육 정상화 촉진 및 선행교육 규제에 관한 특별법(공교육 정상화법)(영어유치원)의 레벨테스트 현황에 대한 전수조사에 나선다. 15일 교육계에 따르면 교육부는 최근 17개 시·도교육청에 '유아 대상 영어학원 특별점검 시행 요청' 공문을 보냈다. 교육청은 교육부가 제공한 체크리스트를 활용해 학원 전수조사를 진행한 뒤 그 결과를 8월 1일까지 교육부에 제출하기로 했다. 이번 조사는 유아 대상 영어학원들의 레벨테스트 시행 여부에 대한 첫 조사다. 최근 '4세 고시, '7세 고시' 등 영유아 사교육 시장이 과열돼자 이같은 조사에 나간 것으로 전해진다. 다만 레벨테스트 시행 현황을 확인하더라도 강제적 조치는 어렵다. 선행학습을 유발하는 광고·선전을 규제하도록 하는 '교육 정상화 촉진 및 선행교육 규제에 관한 특별법'(공교육 정상화법) 개정안이 국회에 계류돼 있기 때문이다. 교육부는 레벨테스트가 경쟁적 선행학습을 과열시키는 요소로 지목되는 만큼 레벨테스트를 추첨이나 상담으로 유도하는 행정지도를 우선 진행한다는 방침이다. 교육부 관계자는 "학원관계자들 만나 레벨테스트가 아닌 추첨이나 상담 등을 하는 방식으로 행정지도를 할 예정"이라며 "법은 계류돼 있지만 교육을 하는 입장에서 손 놓고 있을 수는 없기 때문에 행정지도를 하는 방향으로 액션을 취해보려는 것"이라고 설명했다. ◎공감언론 뉴시스 [email protected]</t>
+  </si>
+  <si>
+    <t>교육부가 유아 대상 영어학원들의 레벨테스트 현황을 조사하기 위해 17개 시·도교육청에 특별점검 시행 요청 공문을 보냈으며, 이를 통해 선행학습을 유발하는 광고·선전을 규제하는 방향으로 행정지도를 진행할 예정이다. 국회에 계류된 '공교육 정상화법' 개정안을 기다리는 동안 교육부는 레벨테스트를 추첨이나 상담으로 유도하는 방안을 취할 것으로 밝혀졌다.</t>
+  </si>
+  <si>
+    <t>"AI디지털교과서 개인정보 처리 미흡"…교육당국에 시정 권고</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/001/0015390144?sid=100</t>
+  </si>
+  <si>
+    <t>개인정보위 '사전 실태점검' 결과…처리하는 개인정보 항목·목적 미고지 등 지적 개인정보위 "이용자 정보주체 권리가 실질적으로 보호돼야" 강조 (서울=연합뉴스) 전승재 개인정보보호위원회 조사3팀장이 15일 정부서울청사에서 개인정보위 전체회의 안건인 'AI 디지털교과서' 사전 실태점검 결과를 설명하고 있다. 2025.5.15 [개인정보위 제공](끝) (서울=연합뉴스) 양정우 기자 = 교육당국이 '인공지능(AI) 디지털교과서' 서비스를 제공하는 과정에서 이용자 개인정보 처리를 미흡하게 했다가 개인정보보호위원회로부터 시정 및 개선권고를 받았다. 개인정보보호위원회는 14일 전체회의를 열어 이런 내용의 'AI 디지털교과서 사전 실태점검' 결과를 심의·의결했다고 15일 밝혔다. AI 디지털교과서는 올해 3월부터 운영된 공교육 서비스다. 종이 교과서와 달리 학생별 학습 이력을 데이터베이스(DB)화해 저장하고 개인 맞춤형 콘텐츠를 제공해 안전한 개인정보 처리가 필요하지만, 개인정보 처리 등에서 일부 부족한 부분이 이번 실태 점검과정에서 확인됐다. 점검결과에 따르면 AI 디지털교과서 통합포털 운영기관인 한국교육학술정보원(KERIS)은 개인정보 처리동의서와 처리방침 등에 각각 처리하는 개인정보의 항목, 목적, 보유기간 등을 정보주체가 알 수 있도록 투명하게 기재해야 하나 일부 사항을 누락한 것으로 조사됐다. 또 AI디지털교과서 통합포털 내 학습데이터 저장소(HUB)에 각 개발사로부터 제공받은 학생별 학습콘텐츠 이용내역 데이터(국가수준학습데이터셋)를 통계목적 등으로 저장하면서 처리하는 개인정보 항목과 목적을 분명하게 제시하지 않았다. 이에 개인정보위는 KERIS에 개인정보 항목, 목적, 보유기간 등을 개인정보 처리방침 등을 통해 정보주체에게 누락 없이 고지하도록 시정 권고했다. 통합 DB에 관리되는 국가수준학습데이터셋에 대해서도 처리 항목과 목적을 보다 명확히 하도록 했다. AI디지털교과서 서비스 흐름도 [개인정보보호위원회 제공] AI 디지털교과서는 개인별·과목별 고유식별값(UUID) 체계를 갖춰 국가정보원 보안점검과 클라우드 보안인증을 획득하는 등 기본적 보안조치를 취한 것으로 파악됐다. 하지만 개인정보 안전성 확보를 위한 검정심사(기술심사) 기준과 개발사용 개발 가이드라인이 클라우드 보안 측면에 치우쳐 있어 개인정보 보호법상 안전조치에 대한 고려가 미흡한 것으로 조사됐다. 참여자 간 시스템 연동 과정에서 보안이 취약할 가능성이 있어 이에 대한 지속적 관리와 점검도 필요한 것으로 확인됐다. 개인정보위는 KERIS와 개발사가 '개인정보보호인증(ISMS-P)' 인증을 취득해 개인정보 안전성 확보 조치 수준을 제고하되, 통합포털과 개발사 웹사이트 간 연동구조를 고려해 양측이 함께 인증을 받는 방안을 마련하라고 개선 권고했다. 교육부에도 AI디지털교과서 검정심사 기준과 가이드라인에 개인정보보호법 준수사항을 구체적으로 반영하고, 사후 점검체계도 마련하도록 개선 권고했다. 아울러 AI디지털교과서 서비스 운영 시 처리하는 개인정보가 보다 명확한 적법 근거에 의해 안전하게 처리되고 정보주체의 권리가 실질적으로 보호될 수 있도록 하라고 권고했다. KERIS와 개발사 등에도 개인정보 침해·유출사고 시 사고수습 체계 등을 포함해 역할과 책임을 부여하는 체계를 마련하도록 했다. 개인정보위는 권고 사항에 대한 이행 여부를 점검하고 교육부 등 관계 기관과 협의를 통해 보다 안전한 데이터 환경에서 AI 디지털교과서를 포함한 양질의 공교육 서비스가 제공될 수 있도록 노력하겠다고 밝혔다. eddie@yna.co.kr</t>
+  </si>
+  <si>
+    <t>교육당국이 'AI 디지털교과서' 서비스에서 개인정보 처리 미흡으로 개선 요구를 받았으며, 개인정보보호위원회가 시정 및 개선 권고를 했다. 교육부와 관련 기관은 개인정보 처리에 대한 안전성을 높이고 정보주체의 권리를 보호하기 위해 노력할 것으로 보인다.</t>
+  </si>
+  <si>
+    <t>광주광역시교육청, AI 팩토리 올해 150개까지 확대</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/469/0000864856?sid=102</t>
+  </si>
+  <si>
+    <t>광림초교 등 44개 학교에 추가 구축 광주광역시교육청 전경 광주광역시교육청은 올해 인공지능(AI) 팩토리(미래교실)을 150개 이상까지 확대키로 했다고 15일 밝혔다. AI 팩토리는 학교 공간 재구성을 통해 언플러그드 활동·코딩·협업 수업 등 학생 참여 중심의 다양한 교육 과정을 운영할 수 있다. 광주시교육청은 2022년부터 AI 팩토리 구축 사업을 추진해 지난해까지 송정서초교 등 총 114개 학교에 구축했으며, 올해는 광림초교 등 44개교에 추가 조성할 방침이다. 학생들은 AI 융합 교육 공간에서 피지컬 컴퓨팅 도구·증강 현실(AR)·가상 현실(VR) 등 첨단 기술을 활용한 미래 기술을 직접 체험하고 구현할 수 있다. 광주시교육청은 올해 사업에 앞서 12~13일 계수초교·송정서초교·동아여자고·상일여고에서 업무 담당자를 대상으로 AI팩토리 구축 사업 세미나를 개최했다. 광주시교육청 관계자는 "AI 팩토리 사업을 통해 학생들이 미래 교육 경 속에서 소프트웨어와 인공지능 역량을 기르며 창의적이고 자기주도적인 인재로 성장할 수 있도록 지원하겠다"며 "교육 환경 개선을 위해 더욱 노력하겠다"고 말했다.</t>
+  </si>
+  <si>
+    <t>광주광역시교육청은 올해 44개 학교에 AI 팩토리를 추가 구축하여 학생들이 언플러그드 활동, 코딩, 협업 수업 등을 통해 창의적이고 자기주도적으로 성장할 수 있도록 지원할 계획이다.</t>
+  </si>
+  <si>
+    <t>청담어학원, 중고등 내신·수능 영어 전문 프로그램 ‘THE OPEN’ 두 자릿수 성장세 지속…직전학기 대비 38% 수강생 증가</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/032/0003369594?sid=101</t>
+  </si>
+  <si>
+    <t>| 최병태 기자 piano@kyunghyang.com 국내 영어 교육 시장을 선도해 온 청담어학원(CREVERSE, 대표 이동훈)은 지난해 도입한 중고등 내신·수능 영어 전문 프로그램 ‘THE OPEN(디 오픈)’의 수강생 수가 직전학기 대비 38% 증가하며 두 자릿수 성장세를 이어가고 있다고 15일 밝혔다. 청담어학원의 커리큘럼은 초등 저학년 시기에는 원어민 중심의 ESL 수업을 통해 영어 사고력과 표현력을 중점적으로 기르도록 하고, 초등 고학년 이후부터는 디 오픈을 통해 문법, 어휘, 독해 역량을 체계적으로 학습함으로써 국내 입시에 최적화된 영어 실력을 갖출 수 있도록 단계적으로 구성돼 있다. 이를 통해 학생들은 실질적인 언어 활용 능력과 입시 경쟁력을 함께 갖추게 된다. 이처럼 디 오픈은 청담어학원이 ESL(English as a Second Language) 기반 영어 교육의 강점을 바탕으로, 국내 내신 및 수능 대비에 최적화된 커리큘럼을 통해 학습 효과를 극대화한 프로그램이다. 디 오픈 프로그램은 ESL과 EFL을 동시에 학습할 수 있는 커리큘럼으로 영어 사고력과 표현력 향상을 기반으로 동시에 내신과 수능 영어 1등급까지 완성할 수 있도록 한다. 또 국내 입시 환경에서 고득점 달성을 위한 핵심 역량인 독해역량 강화에 집중함으로써 고난이도 지문에서의 득점 변별력을 갖추기 위한 고급독해, 실전에 대비해 제한된 시간 내에 빠르게 지문의 핵심을 파악하고 정답을 찾는 속독속해 능력을 향상시킬 수 있다. 이와 함께 중학교 시기부터 고등 내신과 수능 영어 1등급을 목표로 선제적으로 대비할 수 있도록 지원하는 것이 특징이다. 크레버스는 디 오픈 운영 지점을 이번 봄학기부터 전국 43개로 확대했다. 이는 2024년 겨울 기준 운영 지점 대비 약 3배 증가한 수치다. 일정 수준 이상의 레벨과 학년을 대상으로 선별 운영되는 이 프로그램은 출시 1년 만에 전체 대상자의 평균 60% 이상이 수강하며 청담어학원의 높은 브랜드 신뢰도를 입증하고 있다. 특히 서초 청담어학원은 정규과정 대상자의 90% 이상이 참여해 압도적인 수강률을 기록 중이다. 청담어학원 관계자는 “창립 27주년을 맞이한 청담어학원은 전문 강사진과 차별화된 커리큘럼을 바탕으로 빠르게 변화하는 입시 환경에서도 학생 개개인이 가진 잠재력을 최대한 끌어낼 수 있도록 최선을 다하겠다”고 말했다.</t>
+  </si>
+  <si>
+    <t>청담어학원이 중고등 내신·수능 영어 전문 프로그램 'THE OPEN'의 수강생 수가 38% 증가하여 두 자릿수 성장세를 보이고 있으며, 국내 입시에 최적화된 영어 실력을 갖출 수 있는 프로그램이다. 또한, 프로그램 운영 지점을 전국 43개로 확대하여 높은 수강률과 브랜드 신뢰도를 입증하고 있다.</t>
+  </si>
+  <si>
+    <t>"5월은 학습 점검의 달…교육업계, 맞춤형 진단 서비스 강화"</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/014/0005350101?sid=101</t>
+  </si>
+  <si>
+    <t>대교, 오는 31일까지 단원평가 완주 챌린지 윤선생, 내달 30일까지 무료 체험수업 이벤트 교육부·EBS, 'AI 단추 플러스' 운영 중 대교 전국학력진단 단원평가. 대교그룹 제공 [파이낸셜뉴스] 5월은 1학기 중간 지점으로, 학생들의 학습 성취도를 점검하기에 적절한 시기다. 이에 발맞춰 교육업계가 여름방학 전 학습 상태를 진단하고 맞춤형 학습 설계를 돕기 위한 다양한 프로그램을 운영하고 있다. 대교는 오는 31일까지 전국 초등 학습회원을 대상으로 ‘전국학력진단 단원평가 완주 챌린지’ 이벤트를 진행한다. 단원평가에 응시한 회원 중 누적 응시 구간에 따라 총 1000명을 추첨해 노트북, 태블릿PC 등 경품을 제공한다. 대교의 단원평가는 학습 회원의 절반 이상이 참여하는 프리미엄 평가 서비스다. 2021년 출시 이후 응시자가 2024년까지 약 203% 증가했다. 축적된 학습 데이터를 바탕으로 개별 학습 수준을 진단하고, 이후 학습 방향 설정에 활용할 수 있다는 설명이다. 대교 관계자는 “초등학생들이 스스로 취약점을 인식하고 개선해 나가는 과정이 중요하다”며 “이번 평가가 남은 학기 학습 설계와 학교 단원평가 대비에 도움이 되길 바란다”고 말했다. 윤선생은 오는 6월 30일까지 무료 체험수업 이벤트를 실시한다. 신규 가입자는 영어 진단 테스트와 결과 리포트를 받고, 영어 전문 교사의 학습 설계를 제공받을 수 있다. 3개월간 무제한 이용 가능한 온라인 영어도서관 ‘아이들이북’ 이용권도 함께 제공된다. 교육부와 EBS는 초·중·고등학생을 대상으로 인공지능(AI) 기반 자기주도 학습 지원 시스템인 ‘AI 단추 플러스’를 운영 중이다. 딥러닝 알고리즘을 활용해 자가진단과 진단평가를 제공하며, 개인 맞춤형 학습 콘텐츠를 무료로 이용할 수 있다.</t>
+  </si>
+  <si>
+    <t>대교가 단원평가 완주 챌린지 이벤트를 진행하고, 윤선생은 무료 체험수업 이벤트를 실시한다. 교육부와 EBS는 'AI 단추 플러스'를 운영 중이며, 학생들을 위한 다양한 학습 지원 시스템을 제공하고 있다.</t>
+  </si>
+  <si>
+    <t>국내선 찬밥이지만…‘K에듀테크’, 해외서 활로 찾는다</t>
+  </si>
+  <si>
+    <t>진로 연계 ‘일등 생기부’ 내고도 왜 떨어졌을까…대입 합격생 생기부엔 ‘이 한줄’ 있다 [톡톡 에듀]</t>
+  </si>
+  <si>
+    <t>메일경제</t>
+  </si>
+  <si>
+    <t>단순 진로 관심 넘어 ‘교과 학업 역량’ 담아야 고1·2  활동 연계해 탐구활동 심화하는 게 핵심 [게티이미지뱅크] “진로 맞춰 탐구활동 열심히 했는데 왜 떨어졌는지 모르겠어요.” 학생부종합전형(학종)을 준비하며 고등학교 3년 내내 진로 관련 활동을 빠짐없이 챙긴 한 수험생은 지난 입시에서 최종 불합격 소식을 듣고 당혹감을 감추지 못했다. 진로 연계에 충실했던 ‘모범적’ 생기부가 왜 선택받지 못했을까. 학교별 중간고사가 마무리된 지금은 학생부 기록을 위한 다양한 활동을 계획할 수 있는 시기다. 대학은 생기부를 통해 학생이 어떤 과정을 거쳐 성장했는지, 그 성과는 무엇이었는지를 본다. 우연철 진학사 입시전략연구소 소장은 “좋은 평가를 받기 위해서는 탐구활동이 어떤 계기로 시작됐고, 어떤 과정을 거쳐 무엇을 배우고 느꼈는지, 그것이 어떤 결과로 이어졌는지까지 자연스럽게 연계돼야 한다”고 조언했다. 수행평가는 세부능력 및 특기사항(세특)의 핵심 자료다. 이를 통해 학업역량과 진로역량을 함께 보여줄 수 있기 때문이다. 학생들은 자기주도적 학습 과정과 성장을 담아낼 수 있는 활동을 고민하고 충실히 준비할 필요가 있다. 무엇보다 중요한 것은 ‘단순 진로 연계’에 그치지 않고, 수업 참여도와 교과 성취를 함께 드러내야 한다는 점이다. 동국대학교가 발간한 학생부위주전형 가이드북에 따르면 아래와 같은 사례는 학생의 관심 분야는 드러나지만, 수학Ⅰ과목에서 구체적으로 어떤 능력을 발휘했는지 파악하기 어렵다. &lt;수학Ⅰ: 미국의 교육 철학자 존 듀이 교육 철학인 경험과 도구주의적 관점을 중심으로 현대 수학 교육을 바라보았고, 그 관점을 중심으로 고등학교에서 배우는 수학이 정말 실생활에 쓰이지 않는지에 관하여 조사하였으며, 조사를 바탕으로 실생활에서 수학이 적용되어 쓰인다는 결론을 내림. 하지만 우리가 배우는 수학이 실생활과 유기적으로 연결되지는 않고 있으며 이 문제를 해결하기 위해서는 교과서에 있는 문제만 풀기보다는 직접 지식들을 활용하고 경험하는 과정을 함께 한다면, 실생활에 연계하기도 수월할 뿐만 아니라 수업 내용에 대해서 더 잘 이해할 수 있어 장기적인 기억으로 남을 것이며, 수학을 포기하는 학생들도 적어질 것이라는 결론의 보고서를 작성하고 이를 발표함.&gt; 관심 주제에 대한 고민은 있지만, 정작 해당 교과에서 어떤 탐구역량과 학업 성취를 보였는지는 드러나지 않는 사례다. 대학이 원하는 ‘일등 생기부’는 계획된 진로 활동을 단순히 나열하는 것이 아니다. 교과 수업에서 출발한 호기심을 자신만의 언어로 탐색하고, 학문적 성취를 통해 이를 일관성 있게 확장시켜 나간 흔적. 바로 그 ‘한 줄’이 중요한 것이다. 합격생들의 생기부에는 ‘교과에서의 구체적인 탐구 과정과 성과’가 녹아 있다. 아래는 동국대 가이드북에 소개된 사례다. 이 학생은 2학년 때 천연항생제의 효능에 관심을 갖고, 문헌 탐색과 반복 실험을 통해 활동을 심화시켰다. 평가자가 진정성과 학문적 성장 과정을 분명히 느낄 수 있는 사례다. &lt;작년부터 이어온 약물의 유효성과 안전성에 대한 확장된 관심으로 이전 실험에 그치지 않고 천연항생제의 유효성과 합성상생제의 안전성을 높이는 방안을 모색하는 탐구 호기심이 강한 학생임. 자신이 생각한 완벽한 실험을 위해 6차례의 시료선정과 실험과정을 통해 결과를 이끌어내는 모습에서 확고한 탐구의지를 엿볼 수 있었음. ‘생약학’ 도서를 참고해 생약이 활성성분간의 상호 작용을 중요시하는 특징에 초점을 두어 복합성분으로 유효성 높은 약물을 개발할 수 있다는 아이디어를 정리하고 천연항생제 실험을 주도적으로 설계, 실행함.&gt; 경희대 가이드북에 소개된 아래 예시는 영어 수업 참여를 바탕으로 멘토 활동까지 확장한 사례다. 이 학생은 영어 실력 향상을 위한 꾸준한 학습과 질문, 필기를 바탕으로 ‘영어 멘토’로 선정됐다. 세특에는 학업 역량은 물론 공동체 기여도 함께 담겼다. &lt;영어: 영어 실력 향상에 대한 열정이 높아 수업 내용을 시간 내에 모두 자신의 것으로 이해하기 위하여 모르는 내용을 질문하고 부족한 부분을 필기하며 성실하게 수업에 임함. 실력과 노력하는 자세를 인정받아 영어 멘토로 선정되어 고난도의 지문을 학우들에게 설명하고 시험 출제 패턴을 분석하고 변형 가능한 문제들을 제시하여 설명함. 조용한 성격임에도 적극적으로 주요 어휘를 설명하고 상세하게 구문 분석을 하며 멘토링하는 모습으로 학우들의 큰 호응을 얻음.&gt; 우연철 소장은 “중간고사가 끝난 요즘은 학생들이 해이해지기 쉬운 시기지만, 본격적인 기말 준비 전에 자신이 관심 있는 분야를 점검하고 활동을 설계해볼 수 있는 기회이기도 하다”며 “학교에 따라 예정된 수행평가를 미리 파악하고 선생님이나 선배를 통해 정보를 확보해 두는 것도 좋은 전략이 될 수 있다”고 말했다.</t>
+  </si>
+  <si>
+    <t>고등학교 학생들이 진로 관련 활동을 통해 탐구활동을 심화시키는 것이 중요하며, 대학 입시에서는 교과 학업 역량을 함께 고려한다. 수행평가를 통해 학업 역량과 진로 역량을 함께 보여주는 것이 중요하며, 학생들은 자기주도적 학습과 성장을 담아낼 수 있는 활동을 준비해야 한다.</t>
+  </si>
+  <si>
+    <t>에듀윌, 프레임아웃과 손잡고 AI 기반 디지털 혁신 추진</t>
+  </si>
+  <si>
+    <t>교육 콘텐츠·브랜드 디자인 등 전 영역에 생성형 AI 적용 에듀윌 양형남 대표(왼쪽)와 프레임아웃 노해영 대표가 업무협약서에 서명하고 기념 촬영을 하고 있다. (에듀윌 제공) (서울=뉴스1) 권형진 교육전문기자 = 종합교육기업 에듀윌이 통합 디지털 에이전시 프레임아웃과 손잡고 인공지능(AI) 기반의 디지털 혁신에 나선다고 17일 밝혔다. 업무협약을 체결하고 프레임아웃의 AI 브랜드 경험 설루션을 에듀윌의 콘텐츠 기획과 제작, 고객 커뮤니케이션, 브랜드 디자인 전반에 도입하기로 했다. 프레임아웃은 생성형 AI 기반의 브랜드 경험 혁신을 이끄는 디지털 설루션 기업이다. 자체 개발한 AI 설루션을 에듀윌의 비즈니스에 최적화된 플랫폼으로 재구성해 제공한다. 이를 기반으로 에듀윌은 교육 콘텐츠 제작부터 고객 대응, 브랜드 디자인에 이르는 전 영역에 AI를 적용해 플랫폼의 효율성과 경쟁력을 끌어올릴 계획이다. 이번 협약을 통해 양사는 △LLM(Large Language Model, 대형 언어 모델) 기반 챗봇 구축과 상담 UI 개발 △AI 이미지 생성 기술 도입 △콘텐츠 페이지 자동 생성·배포 시스템 구축 △공동 기술 개발과 테스트 운영 등 여러 분야에서 협력할 예정이다. 양형남 에듀윌 대표는 "이번 협업은 에듀윌의 교육 콘텐츠와 서비스 전반에 AI 기술을 본격 도입하는 출발점이 될 것"이라며 "프레임아웃과의 시너지를 통해 학습 경험을 혁신하고 내부 업무 효율과 고객 만족도를 동시에 높여가겠다"고 말했다. 노해영 프레임아웃 대표 역시 "AXC(AI eXperience Center)는 생성형 AI를 통해 브랜드 경험의 새로운 가능성을 실현해 나가는 혁신 허브"라며 "에듀윌과 함께 교육 분야에서 실질적인 AI 혁신 사례를 만들어가겠다"고 밝혔다.</t>
+  </si>
+  <si>
+    <t>에듀윌이 프레임아웃과 손잡고 AI를 활용한 디지털 혁신에 나선다. AI를 교육 콘텐츠 제작, 브랜드 디자인 등 전 영역에 적용하여 플랫폼의 효율성과 경쟁력을 높일 계획이다.양형남 에듀윌 대표와 노해영 프레임아웃 대표는 협력을 통해 AI를 통한 학습 경험과 브랜드 경험을 혁신하고자 한다.</t>
+  </si>
+  <si>
+    <t>유보통합·교권보호 '한목소리'…정치활동 보장·교육감 직선제 폐지 '눈길'</t>
+  </si>
+  <si>
+    <t>이재명 "교원 정치활동 보장"…허용 범위 등 쟁점될 듯 김문수,'러닝메이트제' 제시…이준석, 교사소송 국가책임제 김문수 국민의힘 대통령 후보가 스승의 날인 15일 오전 서울 여의도 중앙당사에서 열린 대한민국교원조합 제12대 대선 정책제안서 전달식에서 인사말을 하고 있다. 2025.5.15/뉴스1 ⓒ News1 이광호 기자 (서울=뉴스1) 이유진 기자 = 21대 대선 주요 후보들은 유보통합(유치원과 보육서비스의 통합)과 교권 강화를 위한 체계 확립에 한목소리를 냈다. 교원의 정치 활동 자유 보장과 교육감 직선제 폐지 등 각 후보의 차별화된 교육 공약도 눈길을 끈다. 17일 대선 후보별 교육 공약을 살펴보면 기호 1번 이재명 더불어민주당 후보와 기호 2번 김문수 국민의힘 후보 모두 유보통합 추진에 대한 의지를 드러냈다. 이 후보는 "교육·보육의 질을 높이는 정부 책임형 유보통합을 추진하겠다"며 유아교육·보육비 지원을 5세부터 단계적으로 확대하겠다고 밝혔다. 국가와 지자체, 학교가 함께하는 '온동네 초등돌봄'으로 질 높은 돌봄교육을 제공하겠다는 목표다. 김 후보 역시 만 3~5세 아동을 대상으로 한 단계적 무상교육·보육을 실시하고, 유보통합과 유치원·어린이집 간 정부의 예산 지원 격차를 완화하겠다고 강조했다. 늘봄학교 또한 단계적 무상을 추진해 사교육비를 경감하겠다는 구상이다. 유보통합은 유치원과 어린이집으로 이원화된 유아교육과 보육서비스를 일원화해 관리하는 것으로, 교육계의 오랜 숙원 과제로 꼽혀 왔다. 지난해 6월 정부조직법 시행으로 영유아보육 업무가 교육부로 이관돼 유보통합의 본격 첫발을 내디뎠다. 그러나 시·구청의 보육업무를 교육청으로 이관하기 위한 법령 개정 등이 밀리면서 유보통합에 속도를 내지 못하고 있는 상황이다. 두 후보 모두 국가가 유아교육과 보육을 함께 책임지겠다는 목표를 가지고, 큰 틀이 마련돼 있는 만큼 유보통합 추진엔 공감대를 이룬 모습이다. 이재명 더불어민주당 대통령 후보가 16일 오후 전북 군산시 구시청광장에서 시민들에게 지지를 호소하고 있다. (공동취재) 2025.5.16/뉴스1 ⓒ News1 이재명 기자 '교권 보호' 강조…행정업무 감축·법률 지원 강화 두 후보는 교육계에서 요구하는 '교권 보호'를 위해서도 다양한 체계를 구축하겠다고 강조했다. 먼저 이 후보는 교원의 불필요한 행정 업무 감축, 민원 처리 시스템 체계화, '마음돌봄 휴가' 도입 등을 주요 교원 보호 정책으로 제시했다. 특히 근무시간 외 직무와 무관한 교원의 정치활동의 자유를 보장하겠다는 점이 이 후보의 교육 공약 중 차별화된 점으로 꼽힌다. 현행 국가공무원법 등은 교사의 정치 참여를 제한하고 있다. 정당 가입과 활동, 선거 운동 참여, 정치 자금 후원이 불가능하고 근무 시간 외에도 특정 정당 지지 반대 등 정치적 의사 표현을 해서는 안 된다. 이 후보는 정치 활동 자유를 보장해 헌법이 보장한 권리를 회복하겠다고 약속했다. 앞서 한국교원단체총연합회와 전국교직원노동조합 등 교원단체들은 대선을 앞두고 일제히 교원 정치활동 허용 등 정치기본권 보장을 대선 공약에 넣어달라고 요구한 바 있는데, 이를 사실상 수용한 것이다. 다만 교원의 피선거권 보장에 대한 언급까진 없어 교육감 선거에 교사 신분으로 출마를 허용하는 의미까지는 아닌 것으로 풀이된다. 이 후보의 공약이 현실화할 경우 정치활동의 범위를 어디까지 볼 것인지, 직무시간과의 분리를 어떻게 규정할 것인지 등 다양한 쟁점이 떠오를 것으로 예상된다. 김 후보는 교원·학생 마음건강 지원 시스템 강화, 학교 행정업무 부담 완화, 교원 법률 지원 체계 확립 등을 약속했다. 기호 4번 개혁신당 이준석 후보는 교사 소송 국가책임제 도입과 전담 변호사 배치를 공약으로 내걸었다. 또 △ 교사에 대한 허위신고·무고 처벌 강화 △(문제행동 학생을 위한) 학습지도실·학생생활지원관 제도 도입 △(학생의 문제행동 발생 시) 단계적 분리 조치 및 사후 적응 프로그램 운영 등 교육 공약 대부분을 교권 보호 정책 위주로 구성했다. 김 후보는 다른 후보들과 달리 "교실을 정치판으로 만드는 직선제를 없애겠다"며 '교육감 직선제 폐지'를 내세우며 차별화를 꾀했다. 정치적 중립성·투명성·교육성 강화를 위해 교육감 선출 방식을 △시·도지사 러닝메이트제 △광역단체장 임명제로 변경하겠다는 구상이다. 김 후보 측은 과도한 정치화에 의해 교육 자치의 실현이라는 도입 취지 훼손, 낮은 투표율 등에 따른 정당성 약화, 지자체와 교육청 엇박자 행정에 의한 비효율 초래 등을 직선제 폐지 배경으로 설명했다. 김 후보 측 관계자는 "교육 공약 중엔 교육감 직선제 폐지에 집중하고 있다. 당과 함께 상의해 직선제 폐지 공약을 제시한 것"이라고 설명했다.</t>
+  </si>
+  <si>
+    <t>이재명과 김문수 후보는 유보통합을 추진하고 교원의 정치활동 자유를 보장하는 교육 공약을 내세웠으며, 교권 보호와 교육감 직선제 폐지 등을 중점으로 정책을 제시하고 있다. 이들의 공약이 현실화되면 교육계에 다양한 변화가 예상된다.</t>
+  </si>
+  <si>
+    <t>李후보 직속 ‘미래교육委’에 文정부 교육계 인사 대거 참여… ‘자사고 폐지’ 등 재추진 관측</t>
+  </si>
+  <si>
+    <t>[대선 D-17] 15일 국회 의원회관에서 열린 이재명 더불어민주당 대선 후보 직속 미래교육자치위원회 출범회의에서 참석자들이 주먹을 불끈 쥐어 보이고 있다. 안민석 전 더불어민주당 의원 제공 더불어민주당 중앙선거대책위원회가 문재인 정부 당시 교육부 장관과 진보 성향 전직 교육감 등이 참여하는 대선 후보 직속 ‘미래교육자치위원회’를 출범시켰다. 교육계에 따르면 민주당 선대위는 15일 국회 의원회관에서 안민석 전 민주당 의원을 위원장으로 미래교육자치위원회 출범 회의를 열었다. 위원회는 인공지능(AI)교육대책, 대학교육, 미래학교교육 등 14개 산하 특별위원회로 구성되며 전체 규모는 200∼300명 정도다. 부위원장에는 지난해 10월 서울시교육감 보궐선거에 출마했던 방현석 중앙대 문예창작학과 교수와 박백범 전 교육부 차관, 김정호 KAIST 전기및전자공학부 교수 등이 선임됐다. 김진표 전 국회의장, 김부겸 전 국무총리, 유은혜 전 사회부총리 겸 교육부 장관, 김상곤 전 사회부총리 겸 교육부 장관, 곽노현 전 서울시교육감 등은 고문을 맡았다. 진보 성향 교육계 인사들이 대거 참여한 만큼 자율형사립고 폐지, 내신 절대평가 전환 등 문재인 정부 당시 추진했던 교육정책이 다시 부활할 것이라는 전망도 나온다. 앞서 이재명 민주당 대선 후보는 교육 관련 공약으로 교원의 근무 시간 외 정치활동 보장, 서울대 10개 만들기, 대학생 등록금 부담 완화, 학생 기초학력 향상, 시민교육 강화 등을 제시했다. 안 전 의원은 “대선 직후 정부가 바로 출범하기 때문에 싱크탱크로서 필요한 교육 정책을 준비하는 역할을 한다”며 “과거에 잘한 정책은 계승하고 오류가 있던 것은 바로잡을 것”이라고 말했다. 위원회는 26일 교육정책 발표 토론회를 개최하고 대선 당일인 다음 달 3일까지 교육정책백서도 발간할 계획이다.</t>
+  </si>
+  <si>
+    <t>이재명 더불어민주당 대선 후보 직속 미래교육자치위원회 출범, 교육정책 발표 토론회 및 교육정책백서 발간 예정, 과거 교육정책 계승과 오류 바로잡기 등이 주요 내용.</t>
+  </si>
+  <si>
+    <t>경기도교육청, AI 서·논술형 평가 선도 교원 양성</t>
+  </si>
+  <si>
+    <t>국제바칼로레아(IB) 평가 방식 반영 경기도교육청 남부청사 전경. ⓒ [데일리안 = 유진상 기자] 경기도교육청이 인공지능(AI) 기반 서·논술형 평가 선도 교원을 본격 양성한다. 도교육청은 지난 3월 인공지능(AI) 서·논술형 평가 시범운영연구회를 학교급별로 지정해 평가시스템을 시범 적용하며 평가도구의 신뢰성과 타당성을 검증하고 있다. 이번 선도 교원 양성과정은 9일부터 롯데인재개발원에서 시범운영연구회 교원 100여명을 대상으로 운영한다. 이를 통해 평가도구 개발을 위한 연구과제를 실천하고 교원 실행 역량을 강화할 방침이다. 특히 국제바칼로레아(IB) 평가의 준거와 전략 이해를 바탕으로 정교한 평가도구를 개발하고, 공정성과 객관성을 갖춘 평가 체계 구축에 중점을 뒀다. 17일까지 2기에 걸쳐 운영하는 양성과정의 주요 내용은 △'IB' 평가 이해 △'IB' 서·논술형 평가 적용 △인공지능 서·논술형 평가시스템 탐구 △루브릭 설계와 나눔 등 학교급별․교과별 맞춤형 분반 운영과 사례 공유로 구성했다. 양성과정에 참여한 교원들은 정책실행연구회의 선행 연구에 공감하며, 학교 현장의 우수사례를 발굴하고 일반화 전략을 모색하는데 뜻을 모았다. 1기 과정에 참여한 양권호 교사(부림중학교)는 "인공지능 기반 서·논술형 평가시스템은 교사와 학생 모두가 쉽게 활용하도록 편의성이 중요하다"면서 "연구 방향을 공유하고 함께 논의할 수 있어 뜻깊었다"고 말했다. 도교육청은 선도교원을 중심으로 올해 일반 학교 교원 4000명을 대상으로 인공지능 기반 서·논술형 평가 연수를 운영할 계획이다. 이를 통해 평가 혁신을 위한 교원 역량 강화와 일반 학교 확산의 발판이 될 전망이다.</t>
+  </si>
+  <si>
+    <t>경기도교육청이 인공지능(AI) 기반 서·논술형 평가 선도 교원을 양성하고, 국제바칼로레아(IB) 평가의 준거와 전략을 이해하여 평가도구를 개발하고 공정성과 객관성을 갖춘 평가 체계를 구축하는 양성과정을 운영한다.</t>
+  </si>
+  <si>
+    <t>이스트소프트, 'AI 에듀테크' 사업 확장... "AI 키우고 AI 만든다"  - 전자부품 전문 미디어 디일렉</t>
+  </si>
+  <si>
+    <t>디일렉</t>
+  </si>
+  <si>
+    <t>AI 휴먼 랩에 필요한 인재 확보와 동시 국가 AI 인재 양성에 기여 이스트소프트가 인공지능(AI) 기반 교육 사업에 뛰어든다. AI 인재 육성을 시작으로 교육용 AI 솔루션·플랫폼을 아우르는 에듀테크 사업까지 전개한다. 장기적으로 신제품 개발과 연구 역량 강화를 위한 선순환 구조를 구축한다. 이스트소프트 관계자는 "2년 전 노동고용부의 K-디지털 트레이닝(KDT) 과제를 전담한 계기로 교육 사업에 진출했다"라며 "이를 통해 회사 연구개발 방향에 적합한 인력을 영입하는 동시에 국가적 차원에서 수백만명의 AI 인재를 양성하는데 기여할 것"이라고 밝혔다. (자료=이스트소프트) 현재 이스트소프트는 7가지 KDT 과제를 진행 중이다. △AI 서비스 기획자 △AI 모델 개발자 △네이버클라우드 정보보안 전문가 △인프라보안 전문인력 등을 양성하는 교육과정을 마련했다. 올해부터 프론티어 iOS앱 개발인력 과정도 새로 추가한다. 이스트소프트는 서울 서초구 본사, 광주 지점, 제주 캠퍼스 등 전국에 걸쳐 교육 장소를 지원하고 있다. 회사 관계자는 "정부 지원으로 수강생은 1000만원 상당의 커리큘럼을 무료로 수강할 수 있다"라며 "이스트소프트는 이 교육 프로그램을 부트캠프 형태로 운영하면서 정부 지원금을 매출로 연결하고 있다"라고 전했다. 이에 발맞춰 이스트소프트는 채용도 강화하고 있다. 16일 공고에 따르면 이스트소프트는 '교육 사업 퍼포먼스 마케터(인턴)', 'KDT 교육 운영 담당자(경력)'를 채용한다. 회사 내부 AI 교육사업을 전담하는 KDT사업팀, 교육사업본부에 필요한 인력을 보강하기 위함이다. 새로운 교육 사업은 당장 기존 사업과 유사도가 낮아 시너지를 기대하기 어렵다. 그러나 이스트소프트는 교육을 통해 고숙련 인력을 양성한 뒤 자체 ‘AI 휴먼 랩’ 연구소로 채용하는 등 장기적인 이점을 취하려고 한다. AI 휴먼 랩은 지난 3년간 70억 원을 투자해 실사형 휴먼 아바타를 생성하는 AI 솔루션 ‘페르소닷AI(PERSO.ai)’를 개발한 바 있다. 페르소닷AI를 중심으로 한 AI 매출은 1분기에 약 116억원, 전체 매출의 46%를 차지하는 핵심 사업으로 자리잡았다. 페르소닷AI는 영상 1분당 1.93달러(원화 2680원)의 가격을 책정하는 등 합리적인 요금제를 제안해 금융, 미디어, 리테일 등 다양한 산업에서 활용되는 추세다. 한편 국내 디지털 교육 시장이 과열 단계에 진입해 교육생 모집률이 점차 감소하고 있다. 이스트소프트는 인공지능, 정보보호 소프트웨어 시장에서 축적한 기술력을 바탕으로 교육과정을 자체 설계해 차별화 전략을 수립할 방침이다. 이스트소프트는 교욱용 AI 소프트웨어 사업도 병행한다. AI 디지털 교과서, 교수 학습 플랫폼 등 다양한 제품이 개발되고 있다. 'AI 조교' 등 일부 솔루션은 이미 한림대학교에 도입하고 있다. 향후 한국교원대학교와 AI 교원 플랫폼도 공동 개발한다. Tag #이스트소프트 #소프트웨어 #인공지능 #솔루션 #페르소닷AI #생성형AI #코스닥 저작권자 © 전자부품 전문 미디어 디일렉 무단전재 및 재배포 금지 이석진 기자 다른기사 보기</t>
+  </si>
+  <si>
+    <t>이스트소프트가 AI 기반 교육 사업에 진출하여 AI 인재 육성 및 국가 AI 인재 양성에 기여하고, AI 휴먼 랩을 통해 실사형 휴먼 아바타를 생성하는 AI 솔루션을 개발하며 매출의 46%를 차지하는 핵심 사업으로 자리잡았다. 국내 디지털 교육 시장이 과열되면서 이스트소프트는 자체 설계한 교육과정을 통해 차별화 전략을 수립하고 AI 소프트웨어 사업도 병행하고 있다.</t>
+  </si>
+  <si>
+    <t>[정책탐구생활] 생성형 AI의 시대… 저작권·개인정보 침해 등 과제도 - 브릿지경제</t>
+  </si>
+  <si>
+    <t>브릿지경제</t>
+  </si>
+  <si>
+    <t>https://www.viva100.com/article/20250517500075</t>
+  </si>
+  <si>
+    <t>[정책탐구생활] 생성형 AI의 시대… 저작권·개인정보 침해 등 과제도 - 브릿지경제 전체기사 산업·IT 금융 증권 건설·부동산 생활경제 정책 정치 전국 오피니언 피플 비바100 비바2080 로그인 회원가입 산업·IT 재계·경영 전자·전기·가전 자동차·모빌리티 중공업·방산·철강 에너지·화학 항공·해운 산업일반 통신·모바일·플랫폼 게임·SW·포털 바이오·헬스·의료 IT일반 금융 금융정책 은행 보험 카드·저축은행 블록체인 금융일반 증권 증권정책 종목·테마 투자전략 증권일반 건설·부동산 부동산정책 분양 경매 건설사 부동산일반 생활경제 유통 식음료·주류 패션·뷰티 라이프스타일 프랜차이즈·창업 중기·벤처 정책 경제정책 경제일반 공공기관 정책일반 정치 정치일반 대통령실 국회·정당 외교·통일 사회 사회일반 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 사내칼럼 외부기고 피플 인터뷰 인사 동정 부음 社告 문화 방송·연예 공연·전시 Book 영화 문화일반 스포츠 골프 스포츠일반 영상 뉴스&amp;이슈 조이&amp;라이프 비주얼 포토 카드뉴스 인포그래픽 비바100 건강 일 돈 여가 라이프 국제 국제일반 회사소개 신문구독 광고문의 지면보기 정책일반 [정책탐구생활] 생성형 AI의 시대… 저작권·개인정보 침해 등 과제도 이한빛 기자 배포일 2025-05-18 13:17 수정일 2025-05-18  13:40 발행일 2025-05-19 13면 공유하기 글자크기 설정 가 가 가 가 챗GPT·딥시크 등 개발·고도화 경쟁 치열
+후발주자들, 지식증류 활용해 경량화 나서
+생성형 AI 이용자 절반 이상이 ‘만족’ 응답
+지식증류·학습데이터 등 저작권 이슈 해결 필요 게티이미지뱅크 생성형 인공지능(AI) 열풍이 거세다. 미국 오픈 AI사가 만든 ‘챗GPT’(Chat GPT)로 시작된 AI 개발 경쟁은 단순히 지식이나 정보를 전달하는 역할에서 그치지 않고 새로운 형태의 결과물을 만들어 내고 있다. 아울러 제작 과정과 비용을 절감한 중국의 생성형 AI 딥시크가 등장하면서 개발 경쟁이 더욱 치열해질 것이라는 전망이 나온다. 생성형 AI의 확산과 함께 국민들의 인지도와 인식도가 높아지는 양상을 보이고 있지만 개인정보 침해, 저작권 문제 등 개발 초기 단계에서부터 지적됐던 부분들이 여전히 해결 과제로 남아있는 상태다. 중국의 생성형 AI 딥시크. 딥시크 홈페이지 캡처 ◇‘챗GPT’와 함께 떠오른 생성형 AI… ‘딥시크’로 새 지평 챗GPT는 지난 2022년 11월 출시해 대화 방식으로 다양한 분야에 대한 질문에 답변하는 방식을 선보였다. 무료로 이용할 수 있다는 점과 함께 꾸준한 학습으로 답변 및 정보의 정확도를 고도화하면서 AI 시장의 큰 충격을 줬다. 최근 챗GPT는 특정 화풍의 이미지 생성이 가능한 모델을 탑재하며 SNS 상에서 인기를 끌고 있다. 일본 애니메이션 스튜디오인 ‘지브리’를 비롯해 각종 그림과 애니메이션의 화풍으로 이미지를 생성하는 것이 유행이 되면서 지난 3월 기준 월간 사용자가 전월 대비 122만명 증가한 것으로 나타났다. 오픈 AI와 챗 GPT 로고. 로이터/연합뉴스 챗GPT의 아성에 도전한 딥시크는 저비용·고효율 모델이라는 새로운 방향을 제시하며 AI 산업계의 큰 반향을 일으켰다. 개발 소요 비용·시간 측면에서 경쟁사 대비 월등히 우월한 경쟁력을 갖추면서도 동시에 유사한 성능을 보여줬다는 평을 받았다. 딥시크는 개방형 오픈소스 모델을 통해 상업적 활용을 자유롭게 허가했다. 이를 통해 세계 개발자들이 모델의 성능이나 오류를 협력해 지속적으로 개선하도록 했다. 한국지식재산연구원(KIIP)의 ‘딥시크의 출현과 지식증류 관련 지식재산 이슈’ 보고서는 딥시크는 AI 모델 경량화와 정확도를 높이기 위해 지식증류(Knowledge Distillation) 기술을 활용한 것으로 추정했다. 지식증류란 사전 학습된 대규모 모델의 학습 사항과 지식을 더 작은 모델로 이전하는 것을 목표로 하는 머신 러닝 기술이다. AI 모델 훈련비용을 낮추면서 추론 속도를 향상시킬 수 있어 효율적인 실시간 응답이 가능하다는 장점이 있다. 지식증류는 AI 모델 개발을 위한 학습데이터의 고갈문제를 해결하기 위한 방법으로 꼽히면서 더 많은 AI 서비스가 출현하고 스타트업이 AI 기술에 접근할 수 있는 환경이 조성될 것이라는 기대도 높아지고 있다. ◇생성형 AI, 국민 인지도 낮았지만 긍정적 변화 인식 높아 생성형 AI에 대한 국민들의 인식은 어떨까. 정보통신정책연구원(KISDI)이 ‘생성형 AI가 미디어 분야에 미칠 영향에 대한 탐색적 연구’ 보고서에서 진행한 생성형 AI 인식 조사에 따르면 AI 서비스에 대한 인지도는 59.7%로 나타났다. 반면 생성형 AI 서비스의 인지도는 36.9%로 AI 서비스보다 낮았다. 한 번이라도 생성형 AI를 이용해 봤다는 비율은 전체 응답자의 62.6%였다.  생성형 AI 서비스를 처음 이용하게 된 계기는 ‘업무·학업에 도움받기 위해서’가 41.8%로 가장 높았고 ‘AI 기술에 대한 호기심 및 관심 때문에’가 39.9%로 뒤를 이었다 주 활용 분야를 보면 ‘취미, 관심사, 여가 등과 관련된 정보 탐색’이 37.1%였으며 ‘학습 및 자기개발’(36.2%), ‘업무 및 사무보조’(35.7%) 순이었다. 생성형 AI 서비스 이용자 중 59.2%는 서비스에 만족한다고 응답했다. 연령별로 보면 15~19세(76.6%), 20~29세(65.1%)가 가장 높았다. 생성형 AI 서비스에 대한 만족도 결과. 정보통신정책연구원(KISDI) ‘생성형 AI가 미디어 분야에 미칠 영향에 대한 탐색적 연구’ 보고서 생성형 AI에 대한 불편도 일정 부분 존재했다. ‘검색 결과물의 부자연스러움’이 71.7%로 가장 높았고 ‘정보의 불확실성’(65.4%), ‘개인정보의 불투명한 처리’(43.6%)를 꼽는 응답자도 있었다. 생성형 AI 서비스 미이용자들은 ‘사용 필요성을 느끼지 못해 이용하지 않았다’는 비율이 56.7%에 달했고 ‘어떻게 써야 할지 몰라서’(35.2%), ‘생성형 AI 활용법을 배울 기회가 없어서’(32.9%)를 꼽은 답변도 상당히 높아 충분한 정보 제공과 교육 기회가 필요함을 시사했다. 생성형 AI 서비스가 바람직하게 사용되기 위해 가장 우선시 되어야 하는 방안으로는 ‘생성형 AI 서비스로 인한 부작용 및 위험을 줄이는 기술적 보안’이 중요하다는 응답이 52.3%로 가장 높았다. 이어 ‘생성형 AI 서비스 활용 비윤리·비도덕적 행위에 대한 사회적 감시와 감독 강화’(48.8%), ‘생성형 AI 서비스에 대한 효용과 올바른 활용법 등에 대한 교육 강화’(39.8%) 등이 뒤를 이었다. 생성형 AI에 대한 우리 사회의 대응 적절성 조사에서는 ‘어느 정도 대응하고 있으나 부족하다’는 응답이 63.0%로 가장 높았다. ‘전혀 대응하지 못하고 있다’(25.2%)는 응답을 합치면 10명 중 8명이 우리 사회가 생성형 AI에 대한 대응이 부정적이라고 인식했다. 생성형 AI 서비스가 앞으로 우리들의 생활에 미치게 될 영향에 대해서는 긍정적으로 본 응답이 63.9%, 부정적으로 예측한 응답은 36.1%로 나타났다. 우리 삶에 생성형 AI가 미치는 영향력에 대한 조사 결과. 정보통신정책연구원(KISDI) ‘생성형 AI가 미디어 분야에 미칠 영향에 대한 탐색적 연구’ 보고서 부정적인 영향을 미칠 것으로 예상하는 응답자들은 ‘AI 기술 악용을 통한 사회적 문제 야기’를 우려한의견이 69.8%으로 가장 높았고 ‘유사 악성 서비스, 가짜 애플리케이션, 확장 프로그램 등 접근 유도’(41.6%), ‘거짓 정보 제공’(35.6%), ‘대화 과정에서 개인정보 및 민감한 정보 수집으로 인한 데이터 유출‘(28.1%) 등을 지적했다. 긍정적 영향을 미칠 것으로 예측한 응답자들은 ‘원하는 정보를 신속하고 편리하게 획득할 수 있어서’가 72.0%, ‘업무시간의 감축으로 인한 여가 시간 증대’(48.5%), ‘반복적·귀찮은 일에서 해방할 수 있어서’(44.4%)를 이유로 꼽았다. ◇개인정보 침해 이어 학습 과정서 나타나는 저작권 문제 지속 생성형 AI 시장에서 가장 큰 우려는 개인정보 침해와 저작권 문제다. 개인정보 침해 문제는 후발주자인 딥시크의 발목을 잡기도 했다. 딥시크는 미흡한 개인정보 처리와 과도한 개인정보 수집이 우려되면서 지난 2월 국내 서비스를 중단했다. 이후 개인정보보호위원회의 사전 실태점검을 받고 이를 시정한 뒤 다시 오픈할 예정이다. 생성형 AI의 저작권의 침해문제도 끊임없이 제기돼왔다. 초창기 당시 방대한 뉴스 저작권을 보유한 언론사들이 AI 개발사들을 대상으로 저작권 침해 소송을 제기한 결과 오픈 AI 등에서 언론사들과 콘텐츠 사용 협약을 체결한 바 있다. 이후 딥시크 등 후발 주자들이 활용한 지식증류 기술은 저작권 침해를 넘어 도용 문제를 야기하고 있다. 대다수 AI 개발사들이 약관상 경쟁 기술 개발에 자사 데이터의 사용을 금지하고 있는 가운데 후발 주자들의 지식증류는 저작권을 무단으로 사용한 것이라는 지적이다. 최근 화제가 된 특정 화풍 이미지 생성 역시 저작권 문제에서 자유롭지 않은 상황이다. 국회 입법조사처는 ‘생성형 AI의 학습데이터 공개관련 논의와 입법과제’ 보고서를 통해 생성형 AI가 학습 과정에서 저작권자의 동의 없이 특정 화풍으로 대표되는 저작물을 학습해 이미지를 생성했다면 저작권법에 저촉될 수 있다고 진단했다. AI로 만든 지브리풍 이미지. 한국저작권위원회 제공 다만 현재 AI 개발자와 사업자가 학습데이터를 공개하지 않고 있어 저작물 무단 이용에 대한 판단이 어려운 실정이라고 봤다. 이들 보고서는 한목소리로 지식재산, 저작권 쟁점에 대한 해결이 이뤄져야 AI 개발과 산업 발전에도 도움이 될 수 있다고 주장했다. KIIP 보고서는 “AI 모델의 대중화와 데이터 고갈에 따른 AI 모델 학습을 위한 합성데이터 생성방법으로서 지식증류의 역할을 고려해야 한다”며 지식증류가 성과도용행위에 해당할 수 있는 만큼 소형 AI 모델을 개발하는 스타트업, 중소기업 등은 대형 AI 모델의 개발사와 적절한 계약 체결 또는 협력을 할 필요가 있다고 제언했다. 국회 입법조사처는 “학습데이터 공개 의무화가 사업자에게 과도한 규제가 될 수 있다는 우려가 있지만, 장기적으로 신뢰성 확보와 저작권 보호를 위해 논의가 이어져야 한다”고 강조했다. 그러면서 AI 기본법에 사업자가 권리자의 요청에 따라 저작물 학습 여부를 개별적으로 공개하는 규정을 마련하고 이후 효과나 AI 산업 발전 동향 등에 따라 사회적 합의를 거쳐 학습데이터 전체 공개를 의무화하는 규정을 신설하는 방안을 고려해야 한다고 덧붙였다. 이한빛 기자 hblee@viva100.com 기자의 다른 기사 더보기 정책탐구생활 [정책탐구생활] 생성형 AI의 시대… 저작권·개인정보 침해 등 과제도 [정책탐구생활] 하루 더 쉬는 날 올까… 주 4일제, 제도보다 설계 먼저 [정책탐구생활] 미래세대가 전한 기후변화 대책에 대한 ‘쓴소리‘ [정책탐구생활] ‘정부 위의 정부’ 기획재정부… 차기 정부서 개혁 대상이 되나 [정책탐구생활] 첨단바이오, 제2의 반도체 신화 위한 ‘융합·혁신·지원’ 발판 마련 비바100/기획시리즈 공연 · 전시 ‘여성 서사’ 아닌 환경‧정치‧세대 등 ‘지금 시대’에 발 디딘! 신작 오페라 ‘The Rising World: 물의 정령’ 건강 [비바 2080] ‘갑상선암’이 착한 암이라고? ... 조기 진단과 전문치료 필수! 방송 · 연예 플레이브, 데뷔 첫 아시아투어…8월 KSPO 돔서 포문 TODAY TOPIC ‘여성 서사’ 아닌 환경‧정치‧세대 등 ‘지금 시대’에 발 디딘! 신작 오페라 ‘The Rising World: 물의 정령’ 플레이브, 데뷔 첫 아시아투어…8월 KSPO 돔서 포문 박세영, 첫 딸 출산…결혼 3년 만 스키즈·차은우·고민시·하예린, 포브스 선정 ‘亞 30세 이하 30인’ ‘편스토랑’ 하영 “父·언니 의사, 母 간호사” 연기 도움돼 산업·IT 재계·경영 전자·전기·가전 자동차·모빌리티 중공업·방산 에너지·화학 항공·해운 산업일반 통신·모바일·플랫폼 게임·SW·포털 바이오·헬스·의료 IT일반 금융 금융정책 은행 보험 카드·저축은행 블록체인 금융일반 증권 증권정책 종목·테마 투자전략 증권일반 건설·부동산 부동산정책 분양 경매 건설사 부동산일반 생활경제 유통 식음료·주류 패션·뷰티 라이프스타일 프랜차이즈·창업 중기·벤처 정책 경제정책 경제일반 공공기관 정책일반 정치 정치일반 대통령실 국회·정당 외교·통일 사회 사회일반 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 사내칼럼 외부기고 피플 인터뷰 인사 동정 부음 社告 문화 방송·연예 공연·전시 Book 영화 문화일반 스포츠 골프 스포츠일반 영상 뉴스&amp;이슈 조이&amp;라이프 비주얼 포토 카드뉴스 인포그래픽 비바100 건강 일 돈 여가 라이프 국제 국제일반 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 저작권 규약 청소년보호정책 원격지원 고충처리인 윤리강령 및 기자준칙 제호 : 브릿지경제신문   서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관)   인터넷신문등록번호 : 서울,아03028   등록일자 : 2014년 3월 3일   발행일자 : 2014년 9월 15일 대표 : 김현수   대표 겸 발행인·편집인 : 조진래   청소년보호책임자 : 안의식   TEL : 02-2070-0200   FAX : 0303)0952-0200   한국신문협회, 한국온라인신문협회 회원사 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. 인터넷신문위원회 자율심의 준수서약사   Copyright ⓒ Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>생성형 AI 기술의 발전으로 인한 저작권과 개인정보 침해 문제에 대한 과제가 제기되고 있으며, 사용자들의 만족도는 높지만 불편함과 불확실성을 겪는 부분도 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.생성형 AI 기술을 활용한 딥시크 등 후발주자들이 경량화를 통해 시장에 진입하고 있음.</t>
+  </si>
+  <si>
+    <t>선거철 잘못 꺼냈다 ‘불똥’ 튈라…현안 논의 없는 소극적 교육 공약</t>
+  </si>
+  <si>
+    <t>지난 3월26일 부산 동구 부산고등학교 3학년 교실에서 학생들이 시험을 준비하고 있다. 연합뉴스 21대 대통령 선거에 나선 주요 후보들은 주로 소속 정당이나 교육부가 추진해온 기존 정책을 계승·확장하는 방향으로 교육 공약을 제시한 것으로 나타났다. 교육 공약이 표심을 잃는 자충수가 될 수 있다는 우려에 소극적으로 제시했다는 분석이 나온다. 후보들이 학령인구감소 등 산적한 교육계 현안에는 입장을 밝히지 않았다는 지적도 제기됐다. 18일 주요 후보들의 교육 공약을 보면, 양당 후보의 교육정책 중 주목도가 높은 공약은 ‘서울대 10개 만들기’(더불어민주당)와 ‘서울대-지역 거점대 공동학위제 활성화’(국민의힘) 정도다. 두 정책은 20여년 전 참여정부 때부터 꾸준히 논의된 정책이다. 다른 정책들도 기존 정책과 겹친다. 이재명 더불어민주당 대선후보는 8개의 교육 공약을 제시하며 기초학력 강화, 시민교육과 직업교육 강화, 정서 위기 학생 지원 등을 내세웠다. 이 후보의 기초학력 공약 중 지역자기주도학습센터 설치는 이미 윤석열 정부에서 지역 소도시를 중심으로 추진 중인 사업과 이름이 같다. 김문수 국민의힘 대선후보는 교육 공약으로 인공지능(AI)과 증강현실(AR)을 활용한 에듀테크 교육 도입, 유치원-어린이집 격차 완화 등을 제시했다. 유치원-어린이집을 통합하는 유보통합은 현 정부에서 이미 추진 중이다. 다만 이해관계자들의 반발에 부딪혀 정책 추진이 더딘 상황이다. 후보들은 논쟁적인 교육 현안에 대해서는 언급하지 않았다. 김 후보는 2028 대입 개편안과 맞물리며 혼란이 가중된다는 지적이 나오는 고교학점제를 계승하겠다고만 했다. 이 후보는 AI 교과서 등 윤석열 정부에서 추진한 교육 정책을 이어받을지 구체적인 언급은 하지 않았다. 교육계에서 관심이 큰 교원의 근무시간 외 정치 활동 보장(이 후보)이나 교육감 직선제 폐지(김 후보)를 내놨지만 교육계를 둘러싼 정치제도에 관한 공약에 가깝다. 후보들이 논쟁적인 교육 공약을 제시하지 않으려 하는 배경에는 ‘교육 공약은 잘못 내면 긁어 부스럼’이라는 인식이 깔린 것으로 보인다. 교육 정책은 교원·학부모·학생 등 여러 주체의 이해관계가 부딪힌다. 홍섭근 교육정책디자인연구소 부소장은 “교육 공약은 이해관계자들이 민감하게 반응해 파급력이 강해 선거 때 새로운 의제가 등장한 적이 드물었다”고 했다. 일례로 민주당은 초등학생이 모두 오후 3시에 하교하도록 하는 공약을 검토하고 있다는 사실이 알려졌으나, 교원단체의 반발이 쏟아지자 ‘사실이 아니다’라며 진화에 나서기도 했다. 교육 이슈가 교육 정책만으로 풀기 어려운 점도 하나의 요인이다. 대표적으로 입시와 사교육 문제는 대학 서열화, 노동 시장 양극화 등 사회 전반의 문제가 겹치다 보니 하나의 교육 정책만으론 해결되기 어렵다. 후보들도 자칫 역풍을 맞을 공약을 내기보단 원론적 접근을 택한다. 사교육 정책으로 이 후보는 영유아 사교육 해소, 김 후보는 ‘K-런(Learn)’을 통한 저소득층의 사교육비 부담 해소를 내세웠지만 방법론이 제시되지 않거나 실효성에 의문이 따라붙는다. 김승호 실천교육교사모임 대외정책실장은 “초중등 정책은 대부분 입시와 연결이 되기 때문에 최근 대선에선 주로 고등교육에 치중한 교육 정책이 나오는 경향이 있다”고 말했다. 학령인구감소, 세수감소에 따른 교육재정 축소 등 당면한 현안을 대선후보들이 외면했다는 우려도 나왔다. 특히 사회적 합의를 통해 교육정책을 추진해야 할 국가교육위원회가 제 기능을 못하는 상황에서 대선후보들의 쟁점 회피는 아쉬운 점으로 꼽힌다. 다만 국교위 정상화 추진(이 후보)은 공약으로 제시됐다. 박주형 경인교대 교육학과 교수는 “후보들의 교육 철학, 지향점이 무엇인지 선거 과정에서 드러나지 않다 보니 교육 비전을 보고 투표를 하기엔 상당히 제한적”이라고 했다.</t>
+  </si>
+  <si>
+    <t>대통령 후보들의 교육 공약은 기존 정책을 계승하거나 확장하는 방향으로 나타나며, 논쟁적인 현안에 대해 소극적인 입장을 보이고 있다. 후보들은 주로 고등교육에 치중한 정책을 내놓고 있으며, 국가교육위원회의 기능 부재와 사교육 문제 등이 우려되고 있다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]팀모노리스, APEC 교육장관회의서 AI 디지털교과서 시연</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n.news.naver.com/article/030/0003313307?sid=102 </t>
+  </si>
+  <si>
+    <t>엄은상 팀모노리스 대표는 '2024 APEC 교육장관회의' 교육혁신 전시관에서 AI 디지털교과서 시연을 진행했다. (사진=팀모노리스) 팀모노리스가 지난 13일부터 14일까지 제주에서 열린 2024 APEC 교육장관회의의 교육혁신 전시관에 참가해 정보교과 AI 디지털교과서를 전시했다고 18일 밝혔다. 이 자리에서 팀모노리스는 세계 각국 교육 관계자들에게 한국형 AI 교육의 가능성을 소개했다. 엄은상 팀모노리스 대표는 현장에서 직접 AI 디지털교과서 시연을 진행했다. 이번 시연에는 아시아·태평양 지역 10여 개국의 교육장관 및 대표단이 참석해 높은 관심을 보였다. 엄 대표는 코들이 제공하는 AI 튜터 기반 개별 맞춤형 학습 기능, 교원 연수와의 연계성, 그리고 학생 주도적 학습을 위한 인터페이스 디자인, 한국 교원 연수 체계 등을 소개했다. 엄 대표는 “한국을 대표해 글로벌 무대에서 국내 에듀테크의 현재와 미래를 보여줄 수 있어 매우 뜻깊었다”며 “앞으로도 교사의 전문성과 학생의 자기 주도성을 함께 키워나가는 AI 교육도구를 개발해 나가겠다”고 밝혔다.</t>
+  </si>
+  <si>
+    <t>팀모노리스가 2024 APEC 교육장관회의에서 AI 디지털교과서를 전시하며 한국형 AI 교육의 가능성을 소개했고, 교육 관계자들로부터 높은 관심을 받았다. 엄은상 대표는 AI 교육도구를 더욱 발전시켜 교사와 학생의 전문성과 자기 주도성을 키워갈 계획이라고 밝혔다.</t>
+  </si>
+  <si>
+    <t>[단독] “1200만원 결제했는데 어쩌죠”…환불 못 받은 수강료만 12억, 비대면 과외플랫폼 파산 일파만파</t>
+  </si>
+  <si>
+    <t>명문대 과외 선생님 내세웠던 ‘비대면 화상 과외업체’ 파산 미환불 수강료 12억에 육박 강사들도 임금 지급도 안돼 온라인 강의 플랫폼 ‘탑클래스 에듀아이’가 파산으로 운영을 종료하게 됐다. [탑클래스 에듀아이 홈페이지 캡처] 비대면 과외 플랫폼 ‘탑클래스 에듀아이’가 돌연 파산을 선언한 가운데, 학부모·학생 및 강사들에게 수강료 환급과 임금 지급이 이뤄지지 않고 있어 혼란이 커지고 있다. 탑클래스 에듀아이는 지난 2018년 설립된 ‘비대면 화상 과외’ 전문 중소기업으로 약 20여명의 직원이 소속돼 있다. 탑클래스 에듀아이는 지난 15일 오후 5시 30분께 강사들이 모여있는 공지 카카오톡방을 통해 돌연 파산을 선언했다. 지난 12일 강사들에게 밀린 4월 임금을 15일까지 지급하겠다고 안내했지만, 15일에 갑자기 파산 통보를 한 것이다. 일부 학부모들에게도 15일 오후 5시 40분께 문자 메시지로 갑자기 파산이 통보됐다. 사전에 경영난을 고지하거나 환불 방법을 안내해 주는 연락은 없었다. 한 학부모는 “지난 12일 강사가 월급을 못 받아서 자녀 수업을 못하겠다고 알려와 에듀아이에 전화했는데 매니저가 15일에 임금이 다 지급될 것이니 걱정하지 말라고 했다”며 “업체와 전화도 했기 때문에 안심하고 있었는데 갑자기 파산 공지를 받아 당황했다”고 전했다. 아파트에 전단지 배포하고 지역별 ‘원장’이 가정방문 상담...6개월 수강료 선결제 요구 해당 업체는 서울, 경기, 인천, 충청, 대구, 부산 등 전국적으로 수강생과 학부모를 모집했다. 아파트 단지에 전단지를 붙여 ‘선생님들은 서울의 최상위 명문대 출신’이라고 홍보했다. 이후 학부모가 전단지의 번호로 전화를 걸면 각 지역 영업사원 격인 ‘원장’들이 가정에 방문해 학생을 레벨테스트하고 수강 등록을 유도했다. 가정에 방문한 원장들은 학부모에게 6개월치 수강료를 즉시 선결제하게끔 안내했다. 탑클래스 에듀아이는 아파트 단지에 과외 전단지를 붙여 수강생을 모집했다. 해당 번호로 전화하면 각 지역의 원장이 가정으로 방문해 화상 과외 서비스를 설명했다. [학부모 제공] 인천 검단에 거주 중인 피해 학부모 전광재 씨(46)는 “전단지가 지난 3~4월께 유독 많이 눈에 띠었는데, 아파트 대단지에 승인받고 붙어 있는 전단지길래 문제가 있을 것이라는 생각을 하지 못했다”며 “당시 집에 방문했던 원장이 학부모 계약서 30장을 꺼내 보여주면서 다른 학부모도 영어, 수학 정도는 신청했다고 설명했다”고 전했다. 청주에 거주 중인 피해 학부모는 채 모씨(51)는 “처음에는 방문 대면 수업이 가능하다고 안내했다”면서 “원장이 집에 방문해서는 ‘지방에 거주하기 때문에 화상 수업을 해야 서울 명문대 선생님에게 과외 받을 수 있다’고 설명해 결국 비대면 화상 수업으로 진행하게 됐다”고 설명했다. 또 다른 학부모는 “10년된 업체이고 명문대 선생님을 300명 보유했다고 소개 받았다”고 말했다. 탑클래스 에듀아이가 업체에 신규 등록한 강사들에게 보낸 안내 메시지. [강사 제공] 강사들은 주 2회 한 시간씩 수업을 진행하도록 안내받았다. 해당 업체의 한 달 수강료는 중학생 기준 43만원, 고등학생 기준 50만원, 고3 기준 55만원이었다. 시간당 강사에게 돌아간 비용은 중학생 기준 1만4000원, 고등학생 기준 1만7000원, 고3학생 기준 1만9000원, 고3 이과학생 기준 2만1000원이다. 탑클래스 에듀아이 수강신청서. [학부모 제공] 학부모들은 파산 소식을 들은 후 수강 계약을 체결했던 원장들에게 전화했지만, 원활한 통화가 이뤄지지 않았다. 일부 원장들은 전화를 받지 않은 채 학부모들에게 “해당 회사로부터 수개월간 급여를 정상적으로 지급 받지 못해 부득이하게 퇴사한 상황”이라며 “빠른 대응을 위해서는 소비자보호원 피해구제 신청과 카드사 지급정지 요청이 도움이 되는 것으로 알고 있다”는 동일한 메시지를 전달했다. 탑클래스 에듀아이 원장이 파산에 대해 문의하려 전화한 학부모에게 전달한 문자. [학부모 제공] 피해 학부모 중 일부는 “일부 원장들이 비슷한 방식으로 운영되는 타 화상 교육 업체로 이직했고, 해당 업체의 법인등기부등본 과거 내역에 동일한 관계자의 이름이 있다”며 추가 확인이 필요하다고 주장하고 있다. 매일경제와 통화가 닿은 한 원장은 “15일 오후 4시께 원장들이 모여 있는 단체 메신저방에 대표가 글을 갑자기 올려 파산 소식을 알게 됐다”며 “원장들도 2개월 이상의 임금을 지급받지 못했다”고 말했다. 이어 “3월 말에 사무실이 이사간다고 들었고 이사한 사무실에서는 한 번도 모이지 않았다”며 “대표가 ‘잘 되고 있다’고 했었고 원장들은 각 지역별로 나눠 외부에서 상담만 하니까 회사가 잘 운영되는 줄 알았다”고 주장했다. 피해 학부모 미환불 수강료 11억 이상, 강사 미지급 임금 1억 이상 추산 이날 오전까지 413명의 피해 학부모가 응답해 추산된 미환불 수강료는 약 11억9230만원에 달한다. 강사들은 4월과 5월 중순까지의 임금을 받지 못한 상황이다. 이날 오전 200명이 참여한 강사 급여 미지급 설문에서는 약 1억4405만원의 임금이 지급되지 않은 것으로 조사됐다. 헤드셋, 펜마우스 등 업체로부터 받아야 하는 장비보증금 815만원까지 합하면 강사 피해금액은 약 1억5000만원에 달한다. 학부모들은 각 지역 경찰서에 고소장을 접수하고 있다. [학부모 제공] 학부모들은 각 지역 경찰서에 고소장을 제출하고, 개별적으로 카드사에 연락해 지급 정지 신청을 하고 있다. 단체 소송도 고려 중이다. 학부모 피해자 대표 이 모씨(50)는 “고3 자녀의 수강료 1200만원을 결제했는데 두 달밖에 수강하지 못한 상황에서 회사 측의 공식 연락 없이 강사로부터 파산 통보를 전해 들었다”며 “서대문서에 대표를 사기 혐의로 고소했고, 학부모들은 공동으로 법적 대응을 하기 위해 준비 중”이라고 밝혔다. 탑클래스 에듀아이가 강사들에게 나눠준 강사계약서 일부. [강사 제공] 강사들은 고용노동부에 진정서를 제출하고 있다. 다만 프리랜서 계약이라 근로자로 인정받을 수 있을지 여부가 불분명해 불안하다는 입장이다. 강사 신영인 씨(23)는 “여러 곳에 자문을 구해 봤는데 자택에서 근무했다는 등의 사유로 프리랜서로 분류돼 정식 근로자로 인정받지 못할 수도 있다고 하더라”며 “이 경우 단체 소송을 진행해야 할 것 같다”고 말했다. 5년차 강사 A씨(33)는 “서울북부고용노동지청에 다녀왔는데 프리랜서 계약으로 보여 근로자로 인정받기 어렵고, 고용보험에서 대금 지급으로 임금을 주는 구제책을 받는 게 불가하다는 얘기를 들었다”고 말했다. 강사 B씨는 “몇 십만원을 돌려 받고자 변호사를 고용해 소송을 진행하는 게 배보다 배꼽이 더 큰 격”이라며 “무책임한 대표 때문에 이런 일을 겪게 돼 억울하다”고 토로했다. 대표 입장문 게시...“일 년 정도 경영 악화 있었다, 책임 제게 물라” 한편 신정서 탑클래스 에듀아이 대표는 지난 16일 오후 6시 25분께 피해 학부모가 모여있는 ‘괘씸 에듀아이’ 네이버 카페에 ‘탑클래스 신정서입니다’라는 제목의 글을 게시했다. 신 대표는 “고객 여러분께 고통을 드려 죄송할 따름”이라며 “일 년정도의 경영학화가 있었다. 백방으로 노력했는데 결국은 제 무능으로 이 지경을 만들었다”고 말했다. 이어 “카드고객이 거의 대부분이어서 카드고객님들은 카드 할부 항변철회서를 작성하시어 카드회사에 제출하시면 일정부분 변제 받으실 수 있다”고 말했다. 또한 “저랑 같이 일했던 상담원장님이나 교무실 매니저 선생님들은 당일까지도 모르셨다. 책임은 저에게 물고 회사를 믿고 최선을 다해 일해주신 직원분들께는 선처를 해달라”고 덧붙였다. 신 대표는 17일 매일경제와의 통화에서 “10년 전과 지금의 수업료는 동일한데 학생과 강사 수가 늘어나면서 고정비용이 늘었고 경쟁사도 많이 생겨 홍보비도 더 많이 필요해졌다”며 “이런 사유로 경영난이 1~2년 정도 이어졌고 15일에 들어올 줄 알았던 돈이 들어오지 않아 강사들의 임금을 지급하지 못했다”며 “학부모들에게 남은 회차 강의를 진행하는 식의 대응책 등을 고려 중이고, 강사들에게는 노무사를 통해 근로복지공단 등에서 간이 대지급금을 지급받는 식의 구제책을 안내하고 있다”고 말했다. 신정서 탑클래스 에듀아이 대표가 지난 16일 오후 6시 25분께 피해 학부모들이 모여 있는 네이버 카페에 올린 글. [네이버 카페 캡처] 탑클래스 에듀아이는 법인등기부등본상 지난 4월 초 서울 영등포구에서 서대문구로 이전했다. 강사들에게는 3월 말에 주소 이전이 알려졌다. 지난 16일 탑클래스 에듀아이 사무실이 입주해 있는 층 전체는 평소보다 이른 오후 6시께 문을 닫았다. 탑클래스 에듀아이는 타 업체가 함께 위치해 있는 해당 층의 방 한 칸을 쓰고 있다. 강사들이 알고 있는 업체의 운영 시간은 오후 3시부터 밤 10시까지다. 건물 관계자는 “탑클래스 에듀아이와는 별도의 임대차 계약을 체결하지 않았고 관리회사로 입주처리도 돼 있지 않다”며 “해당 층은 타 회사가 건물 일부를 매각한다고 해서 매각 전에 3개월간 임시사용허가를 내준 상태”라고 설명했다. 한편 비대면 과외 업체가 돌연 파산을 선언한 것은 이번이 처음이 아니다. 지난 2014년에도 명문대 출신 강사를 앞세워 화상과외 서비스를 제공하던 업체 대표가 돌연 잠적해 경찰이 수사에 나섰다. 당시 화상과외 업체들은 장기계약을 유도하고 강사 정보를 속이면서 수강생을 모집해 논란이 불거졌다.</t>
+  </si>
+  <si>
+    <t>고교학점제는 과연 악의 축인가? [넥스트브릿지]</t>
+  </si>
+  <si>
+    <t>오마이뉴스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/047/0002473742</t>
+  </si>
+  <si>
+    <t>[넥스트브릿지] 폐지가 아닌 개혁의 지렛대로 삼아야 정책네트워크 넥스트 브릿지(Next Bridge)는 지식경제, 기후, 디지털, 민주화 이후 민주주의 등 전환의 시대를 직면하여 비전과 정책과제를 연구하는 포스트 386 세대(90년대 대학을 다닌 사람에서 90년대생 청년) 중심의 연구자·정책 전문가의 네트워크다. 넥스트 브릿지는 주권자인 국민들이 사회 지향과 정책과제에 대한 이해가 높아야 산업화와 민주화 이후 한국의 민주주의와 사회발전이 가능하다는 데 뜻을 모았다. 정책담론을 위한 대중적인 소통을 희망하며 다양한 분야의 정책 전문가들이 자기 분야의 정책과제를 가지고 정책 칼럼을 연재한다. &lt;기자말&gt; ▲ ‘무능, 무지원, 무대책 고교학점제 지금 당장 폐지’를 촉구하는 기자회견이 8일 오전 서울 종로구 정부서울청사앞에서 교사노동조합연맹, 전국교직원노동조합 주최로 열렸다. ⓒ 권우성 고교학점제는 한마디로 졸업에 필요한 학점을 이수해야 하는 시스템을 의미한다. 그전에는 출석일수를 중심으로 졸업 기준을 정하였다. 진로교육, 학교 교육과정 다양화, 학생 선택권 보장, 책임교육 실현 차원에서는 그 의미를 찾을 수 있다. 문재인 정부에서 고교학점제 정책이 시작되었으며 윤석열 정부로 이어졌다. 하지만 모든 정책이 그러하듯 이상과 현실의 간극이 크다. 최근 들어 고교학점제를 전면 폐지하라는 요구가 일부 교원단체를 중심으로 강하게 나타나고 있다. 폐지 요구의 스펙트럼은 매우 다양한데, 그 핵심 논리는 다음과 같다. ① 시기상조론 - 고교학점제의 철학과 취지에는 기본적으로 동의하지만, 고교학점제에 관한 준비가 현재 매우 미흡하고, 졸업에 필요한 학점을 이수하지 못한 학생을 유급시켜야 하는데, 온정주의와 형식주의가 강한 우리나라의 학교 현실에서 실제 유급시킬 수 있겠는가라는 것이다. 외국에서는 가능할지 몰라도 우리나라에서는 어려움이 존재한다. ② 신자유주의론 - 학생의 선택에 의존하는 교육과정 운영은 시장 기제를 차용한 방식이며, 보편교육의 범주에서 벗어나는 것으로 다양한 과목을 열고 학생의 선택권에 의존하는 방식은 교원의 노동 조건만 악화시킬 수 있다. 학생들의 다양한 교과목 수요를 고려하다 보면 자칫 교원자격증이 없는 이들에게도 교원의 문호를 열 수 있는 우려도 있다. ③ 기-승-전-대입론 - 고교 교육은 대입의 영향으로부터 결국 자유로울 수 없고, 내신 상대평가 체제와 수능의 비중이 여전히 높은 상황에서 고교학점제는 홀로 생존하기 어려운 환경에 처해있다. 자신의 진로에 맞는 과목 선택을 하면 좋겠지만, 학생들은 좋은 내신 등급을 얻기에 유리한 과목이나, 수능에 도움이 되는 과목을 중심으로 선택할 가능성이 크며, 고교학점제는 탁상행정의 전형으로 대입 제도를 바꾸지 않은 상태에서 고교학점제는 망할 수밖에 없는 운명을 타고 난 것일 수 있다. ④ 교육부·교육청 무능론 및 지원 미비론 - 고교학점제는 문재인 정부에서 시작한 정책이기 때문에 윤석열 정부에서 고교학점제는 일종의 서자(庶子)이며, 방계(傍系) 정도에 불과한 변방의 정책으로 취급을 받았다. 이주호 장관의 관심사는 인공지능(AI) 디지털교과서에 있다. 정권교체 후에 교육부는 고교학점제에 별 관심을 기울이지 않았으며, 역량 부족인지 의지 부족인지는 모르겠지만 현장의 어려움을 해소할 수 있는 제도와 정책을 거의 준비하지 않았다. 교육청 역시 교육부의 입만 바라볼 뿐 무능하기는 마찬가지이다. 교육청 간 실력 차이도 나타나고 있다. 교육행정정보시스템(나이스)도 고교학점제와 연동이 제대로 되지 않아서 외부 사설 업체가 만든 별도 프로그램에 의존하여 학교 시간표를 짜는 상황에 이른 현실을 말한다. ⑤ 노동 환경 악화론 - 고교학점제의 도입으로 인해 가뜩이나 힘든 교사들의 업무가 가중되기 시작했다. 교육부와 교육청은 지침을 쉽게 내리지만, 결국 교사들이 몸으로 때우고 있다. 여러 과목을 개설해도, 최소성취수준에 도달하지 않은 학생을 위해 상담과 별도의 보충수업을 운영해도 보상은 없다. 무엇이든지 학교에서 알아서 논의해서 결정해야 하며, 교육부와 교육청에서 마련한 지침대로 일을 하려면 교사들의 체력을 갈아 넣어야 하는 현실을 반영한다. 이러한 어려운 현실을 놓고서 차기 정부에서도 고교학점제를 고민할 수밖에 없다. 그렇다면 교원단체의 주장대로 고교학점제 전면 폐기는 현실적으로 가능한가? 시작도 못 한 고교학점제가 모든 문제의 원인? 교육부가 고시한 2022 개정교육과정 초·중등학교 교육과정 총론을 보면 '학점'이라는 용어가 88회 언급된다. '선택'이라는 용어도 66회 언급된다. 적어도 고등학교 수준에서는 2022 개정 교육과정 자체가 고교학점제의 철학과 방향, 가치, 체제를 염두에 두고 설계되었다. 고교학점제 전면 폐지는 2022 개정교육과정의 전면 폐지와 동일한 주장으로 봐야 한다. 또한, 공정성을 이유로 내신과 수능의 상대평가 기조를 유지한 상태여서 불만족스러운 면이 상당히 많이 있는 것은 사실이지만, 2028 대입제도는 고교학점제를 고려하여 재설계된 측면이 있다. 윤석열 정부에서도 인수위 시절에 고교학점제 폐지를 검토하였지만, 유지로 결론을 내렸다. 전면 폐지는 매우 어려운 상황이며, 오히려 폐지가 더욱 큰 문제를 일으킬 수 있다. 고교학점제 정책은 어느 날 갑자기 튀어나온 개념은 아니다. 적어도 우리나라 교육과정 개정의 역사 가운데 조금씩 스며들어 왔고 진화되었다. 그러나 학교 현장이 최근 들어 힘들어지다 보니, 고교학점제를 사실상 '악마화'하려는 시도도 있다. 고교학점제 때문에 사교육비가 증폭하고 있으며, 학생들의 자퇴가 늘어났고, 학교 간 격차가 더욱 커졌다는 식의 '공포 마케팅'이 나타나고 있다. 심지어 혹자는 고교학점제가 이미 실패한 정책이라고 말한다. 고교학점제는 정확히 말하면 아직 시작했다고 보기 어렵다. 고1은 공통과목을 중심으로 운영되고 있기 때문에 사실상 표준화되어 있다. 상당수 학생들이 여전히 수능을 보고, 교원의 기본 수급을 고려하여 일반선택 과목(화법과 언어, 미적분1, 영어1, 영어2, 세계사, 물리학, 사회와 문화, 체육1, 체육2, 음악, 미술, 연극 등)을 중심으로 편제·운영한다. 학교의 지정 과목 비중이 상당히 높을 수밖에 없는 구조이다. 여기에 진로선택과 융합선택은 2학년과 3학년 때 본격 적용한다는 점을 감안하면 고교학점제는 2026년부터 본격적으로 시작된다. 그런 상황에서 고교학점제 도입 반년 만에 사교육비와 자퇴생이 늘어났고, 고교 간 격차가 심화되었다고 단정할 수 있는가? 이러한 문제는 고교학점제가 직접적인 원인이라기보다는 내신 상대평가 기조라든지 정시의 비중 확대와 같은 대입 제도라든지, 지역의 여건에 따른 학교의 교육력 차이 발생과 같은 우리 교육이 안고 있는 근본 모순과 한계가 누적된 결과로 봐야 한다. 고교학점제를 혁신의 매개로 변화하는 교육 현장 그동안 연구와 집필을 위해 여러 고등학교를 방문하고 교육과정을 분석하였다. "교육과정을 통해서 학생들의 성장 스토리"를 만들어주기 위해 노력하는 학교들이 분명히 존재한다. 그런 노력은 2022 개정교육과정 이전부터 시작되었다. 이러한 학교들은 야간자율학습과 보충수업을 많이 시키는데 에너지를 쏟기보다는 양질의 교육과정-수업-평가-기록에서 승부를 건다. 어떤 철학과 가치를 중심으로 교육과정을 설계할 것인가에 관해서 교원들은 치열하게 학습하고 논의하였다. 동시에 교육과정위원회에 학생과 학부모, 교원을 참여시켜 지금까지의 교육과정을 평가하고 성찰하면서, 요구를 바탕으로 무엇으로 어떻게 개선할 것인가를 논의한다. 한마디로 교육과정의 거버넌스가 만들어진다. 단순하게 학생에게 과목 안내 및 선택만 하도록 하는 게 아니라 학생과 학부모, 교원의 지속적인 상담을 통해 과목 선택 능력을 키워준다. 상위권 중심의 학생에 초점을 맞추기보다는 오히려 교육과정을 따라가지 못하는 학생들에게도 숨통 트일 수 있는 과목을 개설한다. 학교의 지정 과목을 줄이면서, 학생들의 과목 선택권을 부여한다. 소인수 과목을 열면 상대평가 구조에서 내신이 불리할 수도 있겠지만, 당장의 등급 획득보다는 학생의 교육과정을 통해 얻게 될 '경험과 학습의 질'을 중시한다. 과제연구와 과제탐구가 가능한 과목 개설을 통해 학생들은 도전적 과제를 설정하면서, 친구들과 협업하면서 프로젝트를 완수한다. 일회성 진로 체험이 아닌 수업을 통해서 학생들은 진로를 만나며, 교사들은 수업 시간에 발견된 학생의 역량과 성취 내용을 기록으로 남긴다. 교사들은 각자 개설한 교과목을 학생들에게 친절하게 안내하며, 프로젝트- 독서- 동아리- 진로 등의 과정과 연계한다. 교육과정을 따라가지 못하는 학생들의 원인을 파악하고, 원인에 맞는 지원책을 고민하면서 학생을 지원한다. 어떤 학교는 국가가 제시한 교육과정 과목에 만족하지 않고, '고시 외 과목'을 활용하거나, 학교 차원에서 별도의 교과목을 개설하여 교육과정 특화를 위한 노력을 기울인다. 개별학교에서 열기 어려운 과목은 인근의 학교와 연계하거나, 교육청(지원청) 차원에서 개설한 공동교육과정을 적극 활용한다. 이러한 노력들이 이루어지는 학교 사례들은 조금만 발품을 팔면 확인할 수 있다. 교육과정 혁신이 대입 때문에 안 된다고 말하는 사이에, 오히려 일반고등학교에서 기존의 교육과정 편성과는 완전히 다른 차원의 교육과정을 운영하는 사례들이 조금씩 축적되고 있다. 이렇게 현장에서 몸부림치는 존재들은 고교학점제를 개혁의 매개로 또는 혁신의 근거로 삼으면서 교육과정에 변화를 시도하고 있다. 이렇게 실천하는 보석 같은 교원들이 좌절하거나 소진되도록 방치해서는 안 된다. 교육학점제, 한국 교육의 대전환의 계기로 그러면 어떻게 할 것인가? 교원단체에서는 교육부의 각성을 촉진하기 위해 고교학점제 폐지를 주장할 수도 있다. 충분히 이해한다. 그러나 고교학점제를 매개로 한국 교육의 대전환을 촉구하는 방식이 더욱 바람직하지 않을까? 고교학점제가 성공하기 위해서는 필요한 조건이 있다. 대입제도–교원 인사-행정 지원–고교 체제-예산–교육지원청의 역할 변화-학교자치 등 여러 조건이 함께 맞물려야 한다. 즉, 고교학점제는 '패키지' 또는 '세트' 정책의 속성을 갖고 있다. 고교학점제가 성공하기 위한 기본 조건은 다음과 같다. ① 교육과정 중심의 교원 배치 및 교원 확충 ② 초등학교와 중학교 차원에서 최소성취기준에 이르지 못한 학생에 대한 발견과 지원 ③ 최소 성취 기준에 도달하지 못한 학생의 경우, 과목 재이수제 내지는 대체과목 이수제의 과감한 적용 ④ 내신의 절대평가 전환, 수능 절대평가 도입 및 자격고사화 ⑤ 교육과정 네트워크 중심의 새로운 고교 체제 개편(우리 학교에 개설되지 않은 과목은 다른 학교 또는 온라인 학교에서 수강 가능) ⑤ 아날로그 행정 체제에서 벗어나서 현장의 요구를 반영한 AI 행정 체제 혁신(예: 나이스 프로그램의 현장 최적화) ⑥ 학교 차원의 교육과정의 격차를 해소하기 위한 교육(지원)청의 교육과정 지원 서비스 강화(예: 학교에서 열기 어려운 과목은 교육지원청에서 개설하고, 최소 성취기준 미도달 학생을 위한 교과목 운영 등) ⑦ 다과목 개설에 따른 교원의 노동력 보상이 가능한 수당 체계 개편 ⑧ 출결 사항과 생활기록부 정리 시점 등 현장에서 느끼는 불편한 점들에 대한 교육부와 교육청의 즉각적이고도 유연한 대처 및 거버넌스 구축 등이 필요하다. 적어도 과거에 우리가 받아왔던 고등학교의 모습에 대해서 고교학점제를 실천하는 주체들은 다음과 같은 질문을 던지고 있다. 학생의 삶과 무관한 과목을 오로지 대학입시만 위해 억지로 강요할 수는 없다. 수능 대비 문제풀이식 수업으로 3년을 보낼 수는 없다. 상대평가의 경쟁 체제에서 상위권 학생을 위해 들러리를 서는 존재가 되고 싶지는 않다. 하위권 학생들도 존엄하고 고유한 존재들이며, 교육과정의 편제에서 그런 철학과 가치를 확인할 수 있어야 한다. 국영수만 중요하고, 그 외의 과목은 주변부 과목으로 치부해서는 안 된다. 붕어빵처럼 모든 고등학교의 교육과정이 획일화되어서는 곤란하다. 과목 선택은 곧 학생 스스로 삶을 무엇으로 채워나갈 것인가를 고민하는 과정이다. 교육과정에도 참여와 소통, 조정과 합의가 가능한 거버넌스와 민주주의가 필요하다. 이러한 고민과 성찰의 과정이 틀린 것이 아니라면, 고교학점제 자체는 죄가 없다. 그 의미를 제대로 구현할 수 있는 제도적 장치와 조건을 무능한 정치와 정책의 주체들이 아직 만들지 못했을 뿐이다. 지금은 포기가 아닌 요구가, 비난이 아닌 실천이, 잃어버린 시간이 아닌 축적의 시간이 필요하다. 좋은교육과정을 위해 오늘도 현장에서 치열하게 실천하는 교원들이 지치지 않도록, 차기 정부가 고교학점제의 새판을 잘 설계하고 지원해 주기를 바란다. * 필자소개 : 김성천은 경기도교육연구원 연구위원과 경기도교육청 장학사, 교육부 교육연구사를 거쳐 현재 한국교원대 교육정책전문대학원 부교수로 근무하고 있다. 교육정책디자인연구소장으로 활동하며 학습공동체를 이끌고 있다. &lt;고교학점제란 무엇인가&gt;(공저), &lt;소환된 미래교육&gt;(공저), &lt;교육자치시대의 인사제도혁신&gt;(공저), &lt;융합교육으로 미래교육의 길을 찾다&gt;(공저) 등 다수의 저서를 집필하였다.</t>
+  </si>
+  <si>
+    <t>고교학점제에 대한 폐지 요구가 나오고 있지만, 이는 현실적으로 어려운 상황이며, 고교학점제는 교육과정 개정과 연관이 깊어 전면 폐지는 더 큰 문제를 일으킬 수 있다는 주장이 나오고 있다. 고교학점제는 아직 시작 단계이며, 학교 현장에서는 여전히 수능을 중심으로 운영되고 있다.</t>
+  </si>
+  <si>
+    <t>고교 학업성취도 A등급 학생 절반, '2028년 대입' 내신 1등급 못 받아</t>
+  </si>
+  <si>
+    <t>노컷뉴스</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/079/0004025503</t>
+  </si>
+  <si>
+    <t>핵심요약 종로학원 '학교알리미 공시된 5600여개 중·고교 학업성취도 분석' 종로학원 제공 지난해 고등학교에서 학업성취도 최고 등급인 A등급을 맞은 학생의 비율은 18.3%로 나타났다. 이 같은 추세가 이어질 경우 내신 9등급제에서 5등급제로 바뀌는 2028학년도 대입에서는 1등급(10%)에 진입하지 못하는 학생이 절반에 육박할 수 있다는 분석이 나왔다. 종로학원은 "최근 학교알리미에 공시된 중학교 3281개교, 고등학교 2375개교의 지난해 국어·영어·수학·사회·과학 교과별 학업성취도 자료를 분석한 결과, 이같이 나타났다"고 18일 밝혔다. 현재 학업성취도는 성취수준에 따라 ABCDE 5등급 절대평가가 이뤄진다. 통상적으로 학업성취도 A등급은 학교 시험에서 90점 이상이지만 일부 학교에서는 시험난이도 등을 고려해 A등급 점수가 조정될 수 있다. 그런데 2028학년도 대입에서 고교 내신 성적은 절대평가 ABCDE 5등급과 상대평가 1~5등급제가 동시에 적용된다. 2025학년도에는 고1에 대해 성취수준에 따른 5등급 절대평가(ABCDE)를 시행하면서, 성적 부풀리기에 대한 견제장치로 상대평가(석차등급) 1~5등급을 함께 기재한다. 현행 내신 9등급제에서는 1등급은 4% 이내, 2등급은 누적 11% 이내, 3등급은 누적 23% 이내 등으로 나뉘지만, 내신 5등급제에서는 1등급 10% 이내, 2등급 누적 34% 이내, 3등급 누적 66% 이내, 4등급 누적 90% 이내, 5등급 누적 100%로 크게 완화되는 것이다. 이에 따라 현재 고등학교 1학년이 응시하는 2028년도 대입에서는 학업성취도 최고 등급인 A등급을 맞고도 내신 1등급을 맞지 못하는 학생이 절반에 육박할 수 있다는 관측이 나온다. 종로학원 임성호 대표는 "2028학년도 대입부터 고교 내신체제가 9등급제에서 5등급제로 완화되면서 내신 성적이 전국 평균으로 90점 중후반대에 도달하지 못하면, 대입에서 내신 1등급에 안정적으로 진입하기가 어려울 수 있다"고 밝혔다. 과목별로는 A등급 평균 비율은 수학이 16.5%로 가장 낮았고, 영어 17.7%, 과학 18.9%, 사회 18.9%, 국어 19.0% 순이었다. 고교 유형별 A등급 비율은 특목·자사고가 40.4%로 일반고 18.5%보다 2.2배 높았다. 특목·자사고 중에서는 자사고가 34.1%, 외고·국제고 39.5%, 과학고가 66.7%였다. 한편, 전국 3281개 중학교 국어·영어·수학·사회·과학 학업성취도 A등급 평균 비율은 28.2%로 전국 고등학교 18.3%보다 9.9%p 높았다. 과목별로는 과학이 25.8%로 가장 낮았고, 수학 26.2%, 국어 27.0%, 사회 29.6%, 영어 31.0% 순이었다. 특히 중학교 때 영어 과목은 A등급 비율이 31.0%이고, 고등학교에서는 17.7%로 두 과목간 격차가 13.3%p로 가장 컸다. 종로학원은 "중학교에서는 A등급을 받은 학생들 중 거의 만점 수준에 육박하지 못할 경우, 고교 진학 후 내신 1등급 진입은 매우 어려운 구도로 인식해야 한다"고 설명했다. ※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요. 이메일 : jebo@cbs.co.kr 카카오톡 : @노컷뉴스 사이트 : https://url.kr/b71afn</t>
+  </si>
+  <si>
+    <t>종로학원이 학교알리미에 공시된 중·고교 학업성취도를 분석한 결과, 2028년 대입에서는 내신 1등급을 맞지 못하는 학생이 절반에 육박할 수 있다는 분석이 나왔다. 특목·자사고가 A등급 비율이 일반고보다 높았고, 중학교와 고등학교의 A등급 비율 차이가 크다는 것이 확인되었다.</t>
+  </si>
+  <si>
+    <t>서울 학생 문해·수리력 진단, 컴퓨터 검사로 바뀐다</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/011/0004486685</t>
+  </si>
+  <si>
+    <t>올 초중고 700곳서 12만여명 참여 노트북·태블릿 등 다양한 기기 활용 [서울경제] 서울 학생들의 기초소양을 진단하기 위한 '2025 서울 학생 문해력·수리력 진단검사'가 컴퓨터 기반 검사(CBT) 방식으로 전환된다. 18일 교육계에 따르면 서울시교육청은 서울 초등학교 4·6학년, 중2, 고1 학생 일부를 대상으로 실시하는 '서울학생 문해력·수리력 진단검사'를 종이 기반에서 컴퓨터 기반 검사(CBT)로 바꾼다. 서울학생 문해력·수리력 진단검사는 학생들의 역량을 측정하는 진단 도구로 2년 전 서울에서 전국 최초로 도입됐다. 표집 학교를 선정한 뒤 희망 학교의 신청을 받아 실시되며, 올해는 초중고 약 700개 학교에서 12만여 명의 학생이 검사에 참여할 예정이다. 서울교육청은 올해부터 해당 진단검사의 명칭을 '문해력과 수리력이 튼튼한 서울교육을 계획하고 지원한다'는 의미를 담아 '에스플랜(S-PLAN)'이라는 이름으로 변경했다. 응시·풀이·채점·결과 확인 모두 컴퓨터로 이뤄지며 참여 학교는 데스크, 노트북, 교육청이 지원하는 태블릿 '디벗' 등 다양한 기기를 활용해 검사에 참여할 수 있다. 서울시교육청은 S-PLAN의 안정적 운영을 위해 오는 6월 일부 학교를 대상으로 모의검사를 실시하고, 10월 말 표집학교 본 검사에서 PBT와 CBT를 병행 실시하며 검사 방식에 따른 결과 차이를 비교·분석할 계획이다. 올해 진단검사는 10월 27일부터 11월 6일 사이에 각 학교의 일정을 고려해 학년·학급별로 자율적으로 진행된다. 교육청은 원활한 운영을 위해 이달 28일 초·중·고 교사를 대상으로 △개정 교육과정 해설 △검사 활용 사례 공유 △전문가 특강을 실시한다. 다음 달 17~18일에는 교장 600여 명을 대상으로 특강을, 10월 13~14일엔 참여 학교 담당 교사에 대해 온라인 연수를 진행하기로 했다. 수업 사례 공유, 장학 활동 강화, 교원 연수를 위한 8개 시범교육지원청도 함께 운영한다. 학교는 운영 결과를 활용해 △방학 중·전환기 프로그램과 연계한 집중 캠프 △방과 후·자율 시간 활용 프로그램 등으로 문해력·수리력 신장 활동을 지속해서 이어갈 수 있다. 정근식 서울시교육감은 "이제 진단을 넘어 학생들이 미래를 살아가는 데 필요한 능력을 더 적극적으로 키울 수 있도록 지원할 것"이라고 말했다.</t>
+  </si>
+  <si>
+    <t>서울시교육청이 '2025 서울 학생 문해력·수리력 진단검사'를 컴퓨터 기반 검사(CBT) 방식으로 전환하고, 이를 '에스플랜(S-PLAN)'이라는 이름으로 변경하여 올해 12만여 명의 학생이 참여할 예정이다. 이를 통해 학생들의 문해력과 수리력을 측정하고, 결과를 활용한 교육 프로그램을 지속적으로 운영할 계획이다.</t>
+  </si>
+  <si>
+    <t>"월 500만원에도 인기"…N수생 잡은 '기숙학원 전성시대'</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005133282</t>
+  </si>
+  <si>
+    <t>최상위권·의대 준비 재수생 생활 밀착관리형 학원 선호 대성·하이컨시 매출 수백억↑ 학령인구 감소에도 입시 시장이 활황을 이어가고 있다. n수생이 급증한 데다 높은 수익률을 보장하는 ‘기숙학원’으로 영토를 확장한 것이 교육 기업의 실적 개선으로 이어졌다. 18일 금융감독원에 따르면 디지털대성의 올해 1분기 매출은 604억원으로 전년 동기(427억원) 대비 41.5% 증가했다. 영업이익은 12억원에서 52억원으로 333.3% 급증했다. 지난해 9월부터 강남대성기숙학원 의대관을 종속회사로 편입한 결과다. 의대관은 경기 이천시 호법면에 있는 기숙형 입시학원으로 한 달 등록금이 500만원에 달한다. n수생을 주요 타깃으로 삼아 수업은 물론 숙식까지 제공한다. 기숙사, 식당, 편의점, 카페 등 부대시설을 통해 추가 매출을 올릴 수 있어 전체적인 운영 효율이 높은 것으로 평가된다. ‘대치동 신흥 강자’로 불리는 입시 전문 학원 시대인재를 운영하는 하이컨시도 호실적을 냈다. 이 회사의 지난해 매출은 전년 대비 19.3% 증가한 4300억원, 영업이익은 38.1% 늘어난 399억원이다. 하이컨시 역시 경기 용인에 기숙형 입시학원을 설립하는 등 수익성 강화에 집중하고 있다. 기숙형 학원이 교육업계의 전략적 수익원이 된 배경에는 최상위권 대학과 의대 진학을 목표로 하는 n수생의 꾸준한 수요가 있다. 재학생과 달리 n수생은 정규 수업이 없어 생활 전반을 체계적으로 관리해주는 기숙학원을 선호하는 경향이 강하다. 최상위권 n수생을 공략하는 동시에 사업 포트폴리오를 다각화하는 전략을 병행하고 있다. 대학 정시 모집이 축소되는 추세인 데다 의대 증원의 불확실성이 큰 상황이기 때문이다. 중장기적 수익 안정성을 위해 유치원과 초·중등 교육 시장으로 외연 확장에 나섰다.</t>
+  </si>
+  <si>
+    <t>최상위권 대학과 의대 진학을 목표로 하는 n수생의 수요 증가로 인해 기숙형 학원이 선호되며, 이로 인해 대성과 하이컨시 같은 교육 기업의 매출이 상승하고 있다. 대학 정시 모집 축소와 의대 증원 불확실성으로 인해 기업들은 다각화된 전략을 펼치며 수익 안정성을 추구하고 있다.</t>
+  </si>
+  <si>
+    <t>고교 파고드는 '융합 교과서'</t>
+  </si>
+  <si>
+    <t>송만호 유미과학문화재단 이사장 과학·철학·역사 아우른 교과서 '사피엔스의 깊은 역사' 등 집필 고교학점제 확대에 채택 학교↑ 인공지능(AI)이 발전하면서 ‘융합형 인재’ 수요가 늘어나고 있다. 하지만 공교육 현장은 제대로 된 융합교육이 이뤄지기 어려운 환경이다. 교육 콘텐츠와 인력이 부족하기 때문이다. 유미특허법인 공동 창업자 송만호 유미과학문화재단 이사장(사진)이 과학과 인문학을 접목한 ‘융합교육 전도사’로 나선 배경이다. 그는 2014년 유미과학문화재단을 설립해 과학문화 창달에 공로가 있는 단체와 사람에게 상을 수여하고 있다. 그의 가장 큰 고민은 ‘어떻게 우리 교육 현장을 융복합 교육이 뿌리내릴 수 있는 환경으로 만드느냐’다. 서울대 철학과 출신 변리사인 그가 과학자인 안중호 국립경국대 명예교수와 손잡고 2022년 &lt;사피엔스의 깊은 역사&gt;라는 책을 쓴 배경이다. 빅뱅 이후부터 인류 문명의 탄생까지 방대한 시간을 과학과 철학, 역사적 관점에서 풀어낸다. 교육 현장에서도 반응이 좋다. 서울교육청 심사를 통과해 인정교과서로 등록됐고, 자율형사립고 하나고를 포함해 전국 6개 고등학교에서 교과서로 활용하고 있다. 이 책을 교재로 수업하는 정형식 하나고 교사는 “책을 읽고 토론하는 과정에서 학생들은 단순히 과학적 사실을 배우는 데서 나아가 인간 존재의 경이로움과 연약함을 깨달을 수 있었다”며 “이런 과정을 통해 학생들이 창의성과 비판적으로 사고하는 능력을 기를 수 있었다고 생각한다”고 말했다. 경북 영동고에서 이 책을 교재로 학교 수업을 듣고 서울대 인문대학 25학번으로 입학한 김현우 학생은 “이 책을 통해 인간의 존재가 필연이 아니라 수많은 우연의 산물이라는 것을 깨달았다”며 “융합적 관점에서 인간의 본질을 탐구하면서 철학에 관심이 깊어졌고, 이는 곧 인문대학 진학이라는 목표로 이어졌다”고 설명했다. 올해부터 고교학점제가 전면 시행돼 학생의 관심사에 맞춘 다양한 과목을 개설할 수 있게 됐다. 송 이사장은 지금이 융합교육을 대중화할 좋은 기회라고 판단했다. 최근 &lt;사피엔스의 깊은 역사&gt; 후속작으로 &lt;융합지성사&gt;를 출간했다. 5000년 인류 지성사를 철학, 종교, 역사, 정치·경제, 과학의 시각에서 살펴보는 것이다. 저자로 함께 참여한 이은수 서울대 철학과 교수가 2학기 서울대 베리타스 강좌에서 이 책을 교재로 사용할 예정이다. 송 이사장은 “최근 나라가 좌우로 나뉘어 극단으로 치닫는 것도 균형추가 없기 때문”이라며 “자기 전공 칸막이에만 갇혀 있는 대신 융합교육을 통해 균형감각을 기르는 것이 그 어느 때보다 필요한 시점”이라고 강조했다.</t>
+  </si>
+  <si>
+    <t>송만호 유미과학문화재단 이사장이 과학과 인문학을 접목한 '융합교육 전도사'로 활동하며, 고교학점제 확대와 함께 교육 현장에서의 융합교육이 주목받고 있다. 유미과학문화재단이 집필한 '사피엔스의 깊은 역사'는 학생들의 창의성과 비판적 사고 능력 향상에 기여하고 있다.</t>
+  </si>
+  <si>
+    <t>[에듀플러스]초중고 학생 의대 선호도 66.8%…“적성보다 직업 안정성 중요해”</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/030/0003313368</t>
+  </si>
+  <si>
+    <t>현재 초중고 학생의 66.8%가 의대 진학을 선호하는 것으로 확인됐다. 특히 적성과 진로 등이 명확하지 않은 초등학생의 의대 선호 현상이 높게 나타나 당분간 '의대 쏠림' 현상은 계속될 것으로 보인다. 에듀플러스와 종로학원은 지난 13일부터 16일까지 초중고 학생과 학부모 1380명을 대상으로 '의약학 계열 온라인 설문 조사'를 실시했다. 이번 설문에서 '현재 본인의 성적으로 모든 대학 학과의 합격이 가능할 경우 선택할 학과'에 관한 질문에 최종 진로로 의대를 선택한 학생이 66.8%(수도권 의대 57.2%, 지방권 의대 9.6%)로 나타났다. 서울권 공대 15.4%, 이공계 특성화대 9.8%, 반도체 등 대기업 계약학과 8.0% 등이 그 뒤를 이었다. 주목할 점은 초등학생 가운데 의대를 선택한 비율이 66%(수도권 의대 61.1%, 지방권 의대 4.9%)로 나타났다는 것이다. 자기 적성을 찾고 다양한 미래 직업을 탐색해야 할 시기임에도 불구하고 의대를 희망한 학생이 많았다. 서울대 공대 14.8%, 이공계 특성화대 14.2%, 대기업 계약학과 4.9% 등을 선택한 비율은 상대적으로 낮았다. 이와 함께 의대 진학을 준비하는 학생 가운데, 적성에 따른 선택이냐는 질문에 43.0%(아니다 33.0%, 매우 아니다 10.0%)가 '그렇지 않다'고 대답했다. 적성에 맞아서 선택했다는 의견은 26.5%(매우 그렇다 10.2%, 그렇다 16.3%), 보통 30.4%였다. 현재 적성으로만 볼 때 가장 적합하다고 생각하는 진학 유형으로는 서울권 등 상위권 공대 41.5%, 약대 23.7%, 의대 25.2%, 치대 7.0%, 한의대 2.6% 등으로 조사됐다. 의대를 희망하는 이유는 '직업 안정성' 때문으로 나타났다. 응답자 가운데 78.0%가 직업 안정성을 꼽았다. 적성이라고 답한 비율은 17.0%에 그쳤다. 주변 분위기 때문에 의대를 희망한다는 응답도 5.0%나 나왔다. 이밖에 의대 모집정원이 확대돼야 한다는 의견이 73.5%(매우 그렇다 30.9%, 그렇다 42.6%)로 높게 나타났다. 확대에 부정적인 답변은 26.5%(아니다 23.3%, 매우 아니다 3.3%)로 집계됐다. 의대 진학에 있어서 유리한 고교로는 자사고 53.3%, 일반고 28.7%, 과학고 10.7%, 영재학교 7.4% 등의 순으로 나타났다. 의약학계를 목표로 가장 주력으로 준비하는 과목으로는 수학 89.6%, 과학 6.3%, 영어 2.8%, 국어 1.3%로 나타났고, 의약계 진학을 희망할 때 가장 우선시하는 것은 학교 내신 54.3%, 수능 45.7%였다. 임성호 종로학원 대표는 “이번 조사에서 초등학생의 의대 선호 비율이 높게 나타난 것이 눈에 띈다”면서 “적성에 맞지 않아도 의대를 선택하겠다는 학생들이 많은 것으로 나타났기 때문에 최상위권 학생의 의대 선호 현상은 상당히 장기화할 가능성이 높다”고 분석했다.</t>
+  </si>
+  <si>
+    <t>초중고 학생 중 66.8%가 의대 진학을 선호하며, 적성과 진로를 고려하지 않고 의대를 선택하는 학생들이 많아지고 있음. 의대를 선택하는 이유는 직업 안정성이 주된 이유이며, 의대 모집정원 확대에 대한 요구도 높아지고 있음.</t>
+  </si>
+  <si>
+    <t>“고교 내신, 절대평가 A등급 받아도 절반은 1등급 못 받아”</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/020/0003635615</t>
+  </si>
+  <si>
+    <t>올해 고1부터 5등급제로 완화
+고교 학업성취도 A등급 비율 18.3%…‘2028 대입’ 내신 1등급은 상위 10%
+2025학년도 대학수학능력시험(수능) 성적표가 배부된 지난해 12월 6일 오전 경기 수원시 영통구 효원고등학교에서 성적표를 받은 학생들이 지원 가능 대학 배치표를 확인하고 있다.  ⓒ News1
+올해 고등학교 1학년부터 학교 내신이 기존 9등급제 상대평가에서 5등급제로 완화됐다. 이에 따라 1등급을 받을 수 있는 학생 비율은 4%에서 10%로 확대됐다. 하지만 함께 병기되는 절대평가인 학업성취도에서 A등급을 받아도 이중 절반 가량은 상대평가 1등급을 받기 어려울 거라는 분석이 나왔다. 교육부는 내신 체제를 개편하며 상대평가 완화로 학생 부담이 완화될 거라고 설명했지만 내신 경쟁이 치열해질 수밖에 없다.
+18일 종로학원이 학교알리미에 공시된 고교 2375곳 1~3학년의 지난해 국어 영어 수학 사회 과학의 학업성취도를 분석한 결과 평균 A등급 비율은 18.3%였다. 2028학년도 대학입시부터 적용되는 내신 1등급 비율은 10%까지인데 A등급의 절반 정도가 1등급을 못 받을 수 있다는 뜻이다. A등급은 보통 시험에서 90점 이상을 받으면 부여된다. 하지만 석차등급은 시험 점수와 수행평가를 반영해 상위 4% 이내만 1등급을 받는다.
+과목별로는 수학의 평균 A등급 비율이 16.5%로 가장 낮고 영어 17.7%, 과학과 사회 각 18.9%, 국어 19.0% 순이었다. 고교 유형별로는 특수목적고와 자율형사립고의 평균 A등급 비율은 40.4%로 일반고(18.5%)보다 2.2배 많았다. 이들 학교에서는 A등급을 받은 4분의 3은 1등급을 못 받는 셈이다. 세부 유형별로는 과학고가 66.7%로 A등급 비율이 가장 높았고 외고·국제고 39.5%, 자사고 34.1%였다.
+전국 3281개 중학교의 지난해 국영수사과 평균 A등급 비율은 28.2%로 고등학교보다 9.9%포인트 높았다. 즉 중학교 때 A등급을 받았다고 해도 고등학교 진학 뒤 1등급을 받지 못할 가능성이 크다는 뜻이다. 고등학교 내신은 대입에 반영돼 매우 중요한데 중학교 때의 학업성취도로 고교 성적을 예측하기 어렵다는 것도 의미한다. 과목별 A등급 비율은 영어 31.0%, 사회 29.6%, 국어 27.0%, 수학 26.2%, 과학 25.8% 순이었다. 내신을 받기 가장 어려운 과목이 고등학교에서는 수학인 반면 중학교에서는 과학인 것이다.
+임성호 종로학원 대표는 “고등학교 내신이 5등급제로 완화됐어도 시험 점수가 90점 중후반 때까지 도달하지 못하면 1등급 이내로 안정적으로 진입하기 어렵다”며 “중학교에선 거의 만점 수준에 육박하지 못하면 고교 진학 뒤 내신 1등급 진입이 힘들다고 봐야 한다”고 말했다. 입시 전문가들은 중학교와 고등학교 간의 내신 A등급 비율 격차가 상당하다는 것을 중학교 때부터 인식하고 학교 내신 관리를 잘 해야 한다고 본다.</t>
+  </si>
+  <si>
+    <t>올해부터 고등학교 1학년부터 내신이 5등급제로 완화되어 1등급 비율이 10%로 확대됨. 하지만 학업성취도 A등급을 받아도 1등급을 받기 어려울 수 있으며, 중학교와 고등학교 간의 내신 A등급 비율 격차가 크다는 점이 강조됨.</t>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005494281</t>
+  </si>
+  <si>
+    <t>기존 유사 요약: 비대면 화상 과외업체 '탑클래스 에듀아이'가 파산으로 운영 종료, 학부모와 강사들에게 수강료 환불과 임금 지급이 이뤄지지 않아 혼란 상태. 학부모들은 경찰에 고소장을 제출하고 단체 소송도 고려 중.</t>
+  </si>
+  <si>
+    <t>종이책 펼 때보다 사고력 더 깊어졌다, 아이패드 교실의 반격 [팩플]  | 중앙일보</t>
+  </si>
+  <si>
+    <t>팩플 종이책 펼 때보다 사고력 더 깊어졌다, 아이패드 교실의 반격 [팩플] 중앙일보 입력 앱에서 읽기 어환희
+기자 구독 중앙일보 지면보기 서비스는 로그인 후 이용 가능합니다. 로그인 하러 가기 Close 최근 1개월 내 지면만 열람하실 수 있습니다. Close 중앙일보 지면보기 서비스는 로그인 후 이용 가능합니다. 로그인 하러 가기 Close 로그인 하시면 최신호의 전체 내용을 보실 수 있습니다. 로그인 하시겠습니까? 로그인 Close 더중앙플러스 회원이 되시면 창간호부터 전체 지면보기와 지면 다운로드가 가능합니다. 더중앙플러스 회원이 되시겠습니까? 더중앙플러스 시작하기 Close 15일 오전 서울 종로구 덕성여자중학교에서 아이패드를 활용한 수업이 진행되고 있다. 사진 애플 “철학자 홉스는 ‘만인에 대한 만인의 투쟁’이라고 했죠. 한번 적어볼까요.” 15일 오전 서울 종로구 덕성여자중학교 1교시 사회 시간. 2학년 2반 학생 11명의 책상 위에는 애플 아이패드가 하나씩 놓여 있었다. 수업 자료를 화면 오른쪽에 밀어놓고, 왼편에 메모장을 띄운 채 수업 내용을 필기하는 모습이 눈에 띄었다. 이날 수업 주제는 국제 분쟁과 난민. 학생들은 사전에 조사해 온 지도 그래픽을 공유했다. 각자 표시했던 국제 분쟁이 일어나는 지역을 합쳐보며 호주·캐나다 등 일부 지역을 제외하고 전 세계가 분쟁에서 자유롭지 않다는 사실을 도출했다. 이후 선생님이 미리 준비한 난민 실태 영상을 시청한 뒤, 토론 시간에는 애플 펜슬로 마인드맵을 그려가며 생각을 발전시켰다. 덕성여중 2학년 학생들이 아이패드를 활용해 모둠 토론을 진행하고 있는 모습. 사진 애플 수업이 진행되는 약 40분 동안 종이 교과서는 보이지 않았다. 16년 차 사회 교사 윤혜경(40) 씨는 “종이로 뭔가를 적어내는 것은 정답을 고르는 과정인데 디지털로 전환하며 해답을 찾아가는 과정으로 바뀌었다”면서 “교과서에 있는 지식은 문해력을 키우는 데는 도움이 되지만 정제되고 굳어진 지식이다. 특히 사회 과목은 실제 사안들과 연결해 보는 것이 중요한 만큼 효과적인 교육을 위해 디지털 기기를 활용한다”고 말했다. 이 학교가 아이패드로 수업을 시작한 것은 2022년부터다. 코로나19 당시 서울시교육청은 중학교 신입생을 대상으로 1인 1 스마트 기기를 보급했는데, 덕성여중은 아이패드를 택했다. 교무부장 주진완(49) 씨는 “코로나19 초기 (스마트 교육을 위한) 많은 앱과 프로그램이 나왔는데 유목민처럼 이 앱, 저 앱 사용하다 보니 배움의 결과물이 없더라”라면서 “아이패드 기본 앱 넘버스·페이지스·키노트 등은 하나의 메뉴바로 연동이 되는 만큼 포트폴리오로 배운 것들을 축적하고 활용할 수 있다”고 설명했다. 주제 조사·정리에는 스프레드 시트인 넘버스를, 모둠 협업에선 PPT와 비슷한 키노트를, 연간 활동을 하나의 전자책으로 만들 때는 페이지스를 활용하는 식이다. 수업 수준과 학생 관심사에 맞게 기존 교과서를 편집해 텍스트·그래픽·영상 등 다양한 요소로 맞춤형 수업을 설계할 수 있다. 현재 덕성여중은 애플이 선정하는 ADS(애플 인증 학교) 우수 학교로 뽑혀 교사 연수나 사례 공유, 학교 간 커뮤니티 구축 등에 있어 지원을 받고 있다. 애플은 전 세계 40개국에 1000여개 학교를 ADS로 지정했는데, 국내에선 8개 학교가 있다. 덕성여중 교사들은 수업 수준과 학생들의 관심사에 맞게 기존 교과서를 편집해 텍스트·그래픽·영상 등 다양한 요소로 맞춤형 수업을 설계하고, 수업 결과물을 쌓아나간다. 사진 덕성여중 다만, 충전해야 하고 장시간 사용 시 눈에 피로도가 발생하는 등 단점도 있다. 수업에 참여한 덕성여중 2학년 황보리 학생은 “필기와 자료를 한 번에 가볍게 들고 다닐 수 있지만, 충전이 귀찮고 오래 사용하면 눈이 아픈 점이 좀 불편하다. 또 애플 펜슬로 필기할 때 미끌미끌해 종이 필기를 선호한다”고 말했다. 또 인터넷 연결 상태에 따라 수업에 지장이 생길 수도 있다. 실제로 비가 내렸던 이날 수업 현장에선 몇 차례 인터넷 끊김 현상이 발생했다. 주진완 교사는 “매년 무선망을 단계적으로 정비해 올해 1월 모든 교실에 와이파이를 완전히 구축했다”면서 “다만, 오늘처럼 비가 오는 날엔 학교 무선망이 불안정해지기도 해서 변수들이 있을 수 있다”고 설명했다. 또 학생과 교사 양측 모두 디지털 적응도 필수다. 덕성여중 교감 김지현(57) 씨는 “교사 경력(30년)이 오래됐음에도 디지털 전환이라는 측면에서 두려움이 컸다. 효과적인 도구를 어떻게 활용해야 하는지에 대한 고민과 연구가 부단히 필요한 영역”이라고 말했다. 디지털 교육의 다음 단계로 학교는 AI(인공지능) 도입을 고민하고 있다. 주진완 교사는 “챗GPT 같은 AI가 교육 현장에도 들어오고 있다. 애플 역시 애플 인텔리전스 글쓰기 도구 등 다양한 기능이 생겼는데, 이런 부분을 학생들에게 알려야 할지 또는 교사로서 어떻게 활용할지 연구하고 있다”고 말했다. 팩플: 에듀 테크 김혜미 디자이너 팩플은 지금 가장 뜨거운 기술 비즈니스, 그리고 IT 기업에 대해 놓치지 말아야 할 이야기를 쉽게 풀어드립니다. 링크를 복사해 주소창에 붙여넣으세요. ‘학생 한 명당 선생님도 한 명’ 그게 가능해? AI 교과서 해부 사회 전 영역에 AI가 확산하는 시대. AIDT로 공부할 학생이 준비해야 할 것은 무엇일까. 디지털 문해력은 무엇이고, AIDT를 효과적으로 쓸 수 있는 방법은 뭘까. AIDT만의 차별화된 기능부터 활용법, 2년 가까이 개발에 매달린 발행사들의 속내, AI 스마트 러닝의 걸림돌과 나아갈 길까지. AIDT를 둘러싼 정쟁의 소용돌이에서 빠져나와 기술과 산업 차원에서 AIDT의 미래를 분석했다. https://www.joongang.co.kr/article/25306048 “네 답변은 10점 만점에 4점” 똑똑한 챗GPT 만들 조련법…생성 AI 실전팁 팩플이 업계에서 소문난 생성AI 실전 고수들을 직접 만나 들은 AI 실전 활용법을 모았다. 마케터부터, 글로벌 비즈니스, 변호사, 디자이너, 일반 회사원에 이르기까지 생성AI 도움을 받아 뚝딱 일을 처리하는 AI 고수들의 노하우다. 대학생, 일반인이 활용 가능한 꿀팁도 꾹꾹 눌러 담았다. 이것만 읽으면 당신도 ‘생성AI 고수’. https://www.joongang.co.kr/pdf/1012 어환희 기자 eo.hwanhee@joongang.co.kr 더 중앙 플러스 6·3 대선주자 탐구 “이준석 43% 얻어 당선될 것
+말 안된다고? TV토론 있잖아” “유시민, 특히 미안합니다”
+적으로 만난 김문수의 고백 “완전 개판이네” 군의관 비명
+이재명·김문수 군면제 사연 더 중앙 플러스 대선 비하인드 선대위에 홍준표 세우려 했다
+이재명, 거침없는 ‘보수 돌진’ 한덕수 일정에 ‘국힘후보 촬영’
+김문수, 이때부터 ‘이 인물’ 의심 우원식이 한덕수 때린 다음날
+“결심 섰다” 참모 전화 돌렸다 더 중앙 플러스 이준웅의 대선&amp;여론 노무현 때문에, 박근혜 탓에?
+정반대였던 2개 대선 투표율 분노와 열광은 즉각적이다
+尹 당선시킨 사전투표 비밀 MB가 朴 꺾은 이유도 모른다
+주술 뺨치는 ‘경선 여론조사’ 더 중앙 플러스 김호정의 더클래식 in 유럽 “호텔? 우리 집에 묵어요”
+그 남자 홀린 운명의 작곡가 “맨앞 앉아” 지옥 관문 뚫었다
+베를린필 유일한 한국인 그녀 조성진의 3시간 ‘라벨 마라톤’
+“스트롱맨” 美유명작가 홀렸다 더 중앙 플러스 hello! Parents 자기 아들 훈육도 실패했다
+그때 유전학자가 깨달은 기질 대체 뭔말이 하고 싶은거야?
+글쓰기의 필수 조건, 야마 왜 우리 아이만 한글 못 읽지?
+어머니, SNS부터 끊으세요 더 중앙 플러스 VOICE:세상을 말하다 尹, 의대 2000명 고집한 이유?
+풍수 대가 폭발한 ‘6가지 주술’ 도장 찍으면 자녀 달라진다
+법원도 손들어준 효도계약서 “용산은 좋은데 거긴 아니다”
+풍수 대가 기겁한 윤석열 실수 더 중앙 플러스 팩플 “한국 개발자, 큰 기회 왔다”
+깃허브의 24시간 ‘코딩 과외’ “챗GPT, 거짓말해서 안 써요”
+대학생 쓰는 ‘노트북LM’ 뭐길래 “적자 심하다” “좋아하잖아”
+토스가 만보기 포기 못한 이유 더 중앙 플러스 머니랩 대선 누가 되든 내수 목맨다
+건설업? 리·뷰·어 3분야 보라 “배당 짜다” 욕먹을수록 뜬다
+이재명·김문수 수혜주 공식 “빅테크 정면승부 승산없다”
+대선 공약에 뜰 ‘국내 AI’ 종목 더 중앙 플러스 더,마음 딱 1년 쉬고 재취업한다고?
+연봉 얼마 깎이는지 압니까 “나쁜 남자 망치에 맞아보라”
+허무한 중년, 유혹하는 니체 “자본주의 괴물 되더라도…”
+‘다리 절단’ 남자의 자전거 꿈 더 중앙 플러스 백성호의 궁궁통통2 미국인같지 않은 미국인 교황
+‘남미 프란치스코’ 불린 사연 “빨간구두 싫다” 식판 든 교황
+프란치스코 만든 3분 연설 “수의에는 주머니가 없단다”
+할머니 말씀, 교황 유언 됐다 / # 팩플 # 애플 # 아이패드 # 디지털교육 # 넘버스 # 스마트러닝 # AI 1 1 앱에서만 제공되는 편의 기능 · 로그인하면 AD Free! 뉴스를 광고없이 더 깔끔하게 · 속보는 물론 구독한 최신 콘텐트까지! 알림을 더 빠르게 · 나에게 딱 맞는 앱 경험! 맞춤 환경으로 더 편리하게 앱으로 보기</t>
+  </si>
+  <si>
+    <t>기존 유사 요약: 덕성여중에서는 아이패드를 활용한 수업이 진행되며, 교사와 학생들이 디지털 교육에 적응하고 있음. 덕성여중은 애플이 선정하는 ADS 우수 학교로 선정되어 교사 연수와 사례 공유 등을 받고 있음. 또한, AI 교육의 다음 단계로 학교는 AI 도입을 고민하고 있음.</t>
+  </si>
+  <si>
+    <t>“획일적 AIDT 안돼…K에듀테크 살리려면 민관 힘합쳐야”</t>
+  </si>
+  <si>
+    <t>“획일적 AIDT 안돼…K에듀테크 살리려면 민관 힘합쳐야” 닫기 실시간뉴스 "저 만의 연습실 생겼어요"...여전히 당구가 좋은 '당구소년' 김영원 프로 통산 14승 배상문 "PGA 투어 복귀 꿈 접지 않아..미련 남지 않을 때까지 도전할 것" 프로농구 LG 첫 우승 이끈 '현미경 농구' 조상현 감독 굶주림에 개사료 먹던 두 살배기…계부는 '인증샷' 찍어 보냈다 [그해 오늘] 시즌 3승 달성 ‘매치퀸’ 이예원 “서킷 트레이닝+3km 러닝 효과” 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 토론 중 얼굴 벌개진 이준석?..."목 안좋아 염증약 먹고 있어서" TV토론 마친 이준석, 이재명 비판…"경제정책 준비 부족" 민주당, 첫 TV토론 긍정 평가…"적임자는 이재명" 이스라엘군 "가자지구서 대규모 지상작전 개시" 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2025년 05월 19일 월요일 실시간뉴스 "저 만의 연습실 생겼어요"...여전히 당구가 좋은 '당구소년' 김영원 프로 통산 14승 배상문 "PGA 투어 복귀 꿈 접지 않아..미련 남지 않을 때까지 도전할 것" 프로농구 LG 첫 우승 이끈 '현미경 농구' 조상현 감독 굶주림에 개사료 먹던 두 살배기…계부는 '인증샷' 찍어 보냈다 [그해 오늘] 시즌 3승 달성 ‘매치퀸’ 이예원 “서킷 트레이닝+3km 러닝 효과” 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 토론 중 얼굴 벌개진 이준석?..."목 안좋아 염증약 먹고 있어서" TV토론 마친 이준석, 이재명 비판…"경제정책 준비 부족" 민주당, 첫 TV토론 긍정 평가…"적임자는 이재명" 이스라엘군 "가자지구서 대규모 지상작전 개시" 구독 지면 My 초판 로그인 로그아웃 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 글로벌마켓 제약·바이오 다크호스 리포트 UP&amp;DOWN 지금업계는 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 기자수첩 인터뷰 인사·부고 정치 대통령실·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 일반 연재 이슈 포토 영상 오토in 골프in 팜 이데일리 마켓 in The BeLT 기자뉴스룸 다문화동포 search search 속보 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 팜 이데일리 마켓 in The BeLT “획일적 AIDT 안돼…K에듀테크 살리려면 민관 힘합쳐야” [위기의 K에듀테크]④이길호 한국에듀테크산업협회 회장 인터뷰 에듀테크 정책 부처별 파편화…“진흥원 설립해야” “교육부 K에듀테크 수출한다지만 산업부 협업 필요” “공교육에 에듀테크 접목은 바람직…자율성 늘려야” 등록 2025-05-16 오전 5:35:05 수정 2025-05-16 오전 5:35:05 가 가 김경은 기자 기자구독 페이스북 트위터 메일 프린트 url복사 [이데일리 김경은 기자] “차기 정부에서는 에듀테크 산업을 총괄할 콘트롤타워를 마련해야 합니다.” 이길호 한국에듀테크산업협회 회장은 15일 이데일리와 인터뷰에서 “K에듀테크 활성화를 위해 범부처 차원의 진흥 정책이 필요하다”며 ‘에듀테크진흥원’(가칭) 설립을 촉구했다. 현재 정부의 에듀테크 지원·육성 기능이 부처별로 파편화돼 있어 정책이 연속성 있게 추진되기 어렵다는 판단에서다. 이길호 한국에듀테크산업협회 회장. (사진=한국에듀테크산업협회) 그는 “에듀테크 관련 정책은 교육부, 산업통상자원부, 과학기술통신부, 중소벤처기업부 등 다양한 부처의 이해관계가 얽혀 있다”며 “진흥원이 있어야 여러 부처에 나뉘어 있는 정책을 총괄하고 국가 차원의 에듀테크 전략을 수립할 수 있다”고 강조했다. 이어 “앞서 교육부가 지난 2023년 ‘에듀테크 진흥방안’을 발표하며 K에듀테크 수출 활성화를 도모했지만 실질적으로 이뤄진 게 없다”며 “해외 진출과 수출 관련 업무는 산업부 담당이다보니 두 부처가 긴밀하게 협업하지 못했기 때문”이라고 지적했다. 에듀테크 산업을 공교육과 연계해 육성하는 정책 방향에 대해서는 긍정적으로 평가했다. 일각에서는 민간 산업 지원을 위해 공교육 시장을 개방하는 것에 대해 우려를 제기하고 있지만 교육 현장의 디지털전환(DX)은 필연적이라는 설명이다. 이 회장은 “주요 국가는 일찌감치 에듀테크의 산업적 중요성을 인식하고 국가 차원의 에듀테크 전략을 추진 중”이라며 “차이점이 있다면 영국, 미국 등 선진국은 공교육에 에듀테크 기술을 적극적으로 도입하면서도 학교에 자율권을 부여해 민·관 협력 생태계를 만든 것”이라고 말했다. 미국은 연방 교육부 산하 교육기술부(OET)에서 국가 에듀테크 계획안을 통해 교육 로드맵을 제시한다. 정부 차원에서 획일적인 기준을 제시하지 않고 각 주, 지역, 학교 차원의 자율성을 부여해 다양한 에듀테크 기술을 교육 현장에 맞게 도입하고 있다. 긴 에듀테크 역사를 가진 영국 역시 정부가 가이드라인을 제시하되 교육기자재협회(BESA)와 같은 민간 협회와 손잡고 에듀테크 기업의 학습도구 등을 구매하도록 장려하고 있다. 이 회장은 “미국과 영국은 학교 단위에 자율성을 주다 보니 에듀테크 도입 여지가 많다”면서 “반면 우리나라는 공교육에 에듀테크를 도입하는 방식이나 속도에 대해 충분히 합의되지 않은 상태에서 획일적으로 적용하다 보니 인공지능(AI) 디지털교과서(AIDT)에 대한 반감이 생기고 도입이 저조한 것”이라고 꼬집었다. 그는 “AIDT는 공교육과 결합한 에듀테크 산업을 육성한다는 점에서 긍정적으로 평가한다”면서도 “현재의 검정 교과서 체제가 아닌 자유발행제로 운영해야 한다”고 주장했다. 교과서 자유발행제는 학교나 교사에게 교과서 편찬·발행 등의 모든 권한을 위임하는 방식을 말한다. 이 회장은 “개인 맞춤형 학습이라는 에듀테크의 본질을 살리려면 AIDT를 비롯한 각종 학습 수단을 교실마다 수준에 맞게 도입하는 게 바람직하다”며 “이 경우 에듀테크가 보다 폭넓고 다양한 방식으로 공급될 수 있고 관련 기업들의 공교육 시장 진출 길도 확대될 것”이라고 덧붙였다. 주요뉴스 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심' '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 이데일리 추천 뉴스 by Taboola 실시간 급상승 뉴스 1 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’) 2 '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공") 3 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집]) 4 대선 앞두고 '사퇴' 선언한 기호 6번, 왜?) 5 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐”) 오늘의 포토 왼쪽 오른쪽 [포토]'제21대 대선 선거공보물 확인하세요' [골프in포토]노승희,노련한 드라이버 임팩트 [포토]봄봄봄 [포토]콜롬비아 음식 맛보세요! [포토]5·18 민주화운동 제45주년 기념사하는 오세훈 시장 [포토] 이형준 '호쾌한 샷으로 우승에 도전' [골프in포토]황유민,버디라인을 찾는다 [포토] 최경주 '정교함으로 승부한다' [골프in포토]고지우,목표는 4강 진출이다 [골프in포토]박주영,타구 방향을 괜찮은데 당신을 위한 맞춤 뉴스 by Dable 소셜 댓글 많이 본 뉴스 뉴스 증권 연예 1 한덕수 "저도 호남 사람" 외침에…이재명 "들으며 소름" 2 사라진 한소희양…“물 좀 주세요” 30대 여성의 납치 [그해 오늘] 3 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 4 尹 계엄시 통화내역 파장…민주 "내란공동체 연결고리 확인" 5 '보수' 김용남, 이재명 지지 선언…"DJ 꿈 이룰 사람" 6 이재명 "예측한대로 국힘, 尹부정 조짐…곧 석고대죄도?" 7 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’ 8 '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공" 9 [속보]손흥민 '임신협박' 남녀 구속…法 "증거인멸 우려" 10 “깨끗한 이미지, X먹으라고”…손흥민 협박범, 방송사에 한 말은 1 “170만원 갈 수도”…‘불닭 황제’ 삼양식품 외국인 또 담았다 2 ‘5조 몸값’ 테일러메이드 매각 재시동…올해 M&amp;A 최대어 될까 3 韓에만 없는 단일종목 레버리지 ETF…투자자 보호 vs 시장 통제[왓츠 유어 ETF] 4 '대선 D-15' 정치 테마주 과열…변동성 경고등 5 삼양식품·한화비전·감성코퍼레이션[하나證 주간추천주] 6 경영권 분쟁 가능성…한진칼 급등에 ‘운송 ETF’ 불기둥[펀드 와치] 7 '밸류업' 모멘텀 계속될까…시장 재편 등 숙제 남아 8 잇따르는 ‘兆 단위’ 유상증자…“목적·모회사 참여가 주가 판가름” 9 韓 배당소득 이중과세…中보다 못한 주주환원율 초래했다 10 '주가 올라봤자 세금만 늘어'…감세 없으면 밸류업도 없다 1 이경실 "용산 89평 아파트 경매 잘 해결…투자 꼬여 생긴 일" 2 윤형빈, 'WWE 레전드' 타지리 꺾었다…프로레슬링 데뷔전 승리 3 '최강야구' 아닌 '불꽃야구', JTBC 저작권 신고에 삭제 4 17기 옥순, '나는 솔로' 퀸의 등장…'나솔사계' 특집 출격 5 '보물섬'→'당신의 맛'…배우 홍화연이 해낸 증명[인터뷰] 6 차은우, 메달 입에 물고 '찰칵'…"마라톤 11km 완주" 7 임지연, 흥 폭발 댄스…"몸이 풀렸다" (언니네 산지직송2) 8 고윤정♥정준원, 첫 데이트 현장…꿀 뚝뚝 눈빛 (언슬전) 9 '정육 입문' 이장우, 려운X스키즈 리노와 한우 파티…폭풍 먹방 (나혼산) 10 육성재X김지연, 애틋한 키스…시청률 10.7% 돌파 (귀궁) 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 노보노디스크, 일라이릴리에 비만 치료제 점유율 밀리자 CEO 교체[AI헬스케어] 바이오앱, 식물 백신 생태계 확대...에이엔폴리와 식물 유래 ECM 개발 MOU 온코닉테라퓨틱스, 제일약품의 황금알 낳는 거위될까 유바이오로직스, 영업이익률 50% 임박…경쟁사 등장에도 3년내 매출 2천억 목표 [임상 업데이트] 녹십자-한미약품, 파브리병 치료제 글로벌 임상 시작 MICE 최신정보를 한눈에 TheBeLT 왼쪽 오른쪽 아르떼뮤지엄, 어린이 관람객 50% 할인…가정의 달 이벤트 그래비티 조선 판교, ESG 객실 패키지 '그린 투게더' 출시 서울스프링페스타, 7일간 82만 명 몰려…외국인 비율 21% 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 부자되고 싶은 사람 다모여 l 부자친구 '나연'이 알려주는 부자 코스 l 월매출 6억 소금빵에 소신발언?! l 빼이보릿 시엔느 탐방기 [핫플의주인공 ep.00] 안약 하나로 '21개국' 뚫었다 삼일제약 잭팟 터지나 한국 AI 신약 기업 생존 위협? / 바이오솔루션, 미국 임상 2상 호재 제약·바이오업계, 미국 관세 여파 촉각 디알텍, 블루오션 영상진단 시스템시장 정조준 두근두근 핫포토 시원한 스윙 칸, '노출금지'했는데.. '李 신발' 품절 '엿 드이소~' 왼쪽 오른쪽 당신의 드림카는? ㅣ오토in 금호타이어 “광주공장 화재 사과…생산 전환·피해 복구 비상 대응” 나이스 샤아앗~ ㅣ골프in [포토] 엄재웅 '시즌 두번째 우승도 도전하겠습니다' 왼쪽 오른쪽 이슈기획 ㅣ 제21대 대선 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 이슈기획 ㅣ 尹대통령 파면 尹 탈당하자…'친구' 석동현, 국힘 선대위서 물러나 이슈기획 ㅣ 트럼프 관세 전쟁 “美-EU, ‘트럼프 관세’ 피하려 본격 무역협상 돌입” 이슈기획 ㅣ SKT 유심 해킹 SKT, 해킹 여파 이탈자 34만5646명...하루 이탈자는 1만명 아래로 이슈기획 ㅣ GAIC [사고]돈 몰리는 유럽 투자사 총출동…대체투자 ''새판 짜기'' 논한다 오늘의 주요 기사 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 이재명은 '연임제' 김문수는 '중임제'…개헌안 차이는? 무디스마저 美 국가신용등급 강등…韓 영향은 . ‘초가성비’ 치킨 사라지나…업계 비상인 이유는 . 대선 앞두고 '사퇴' 선언한 기호 6번, 왜? . 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” . 이용기 대전시의원. 차량서 숨진 채 발견 . '손흥민 협박녀' 모자 왜 안썼나…경찰, 인권 논란에 "복장은 자율" . '3조→2조' 몸값 낮춘 롯데카드 재매각 시동…시장선 "매력 없다" 알립니다 [마감] 2025년 이데일리 편집부 편집기자 모집 2025년 이데일리 마켓인 경력 기자 모집 이데일리 주식회사 제25기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - SKT, 갤럭시S25 엣지 지금은 기기변경만 가능[일문일답] - "고객신뢰위 2년 활동···100개 지역 300곳 찾아가는 유심 서비스" - 취약계층 ‘찾아가는 유심 서비스’ 19일부터 시행하는 SKT 이데일리ON - [이데일리ON 김선상[주도신공]] [주도신공패밀리]4월14일~5월16일 1등급대장주매매 합산차익 330% 돌파중 - [이데일리ON 박정식] [박정식의 국내 주식시황] 美 경제 지표 부진에 경기침체 우려 재부각 되며 일부 차익 매물에 따른 약세 가능성 - [이데일리ON 박정식] [굿모닝! 글로벌 뉴욕증시] 무역 긴장 완화 속... 경기 침체 우려 불거지며 혼조 마감 문화 · 행사 문화대상 전략포럼 W페스타 사진공모전 캠핑요리 국제금융컨퍼런스 곽재선 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.kr I 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 회장 곽재선 I 발행·편집인 이익원 I 청소년보호책임자 고규대 Family site 이데일리TV 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 곽재선 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 이데일리 캠페인 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>기존 유사 요약: K에듀테크 산업을 총괄할 콘트롤타워 필요성을 강조하는 이길호 회장의 발언. 에듀테크 정책 부처별 파편화 문제 지적하며 '에듀테크진흥원' 설립 촉구. 교육부와 산업부 협업 필요성 강조하고, 공교육과 에듀테크 접목을 통한 산업 육성 방안 제시.</t>
+  </si>
+  <si>
+    <t>국내선 찬밥이지만…‘K에듀테크’, 해외서 활로 찾는다 닫기 실시간뉴스 "저 만의 연습실 생겼어요"...여전히 당구가 좋은 '당구소년' 김영원 프로 통산 14승 배상문 "PGA 투어 복귀 꿈 접지 않아..미련 남지 않을 때까지 도전할 것" 프로농구 LG 첫 우승 이끈 '현미경 농구' 조상현 감독 굶주림에 개사료 먹던 두 살배기…계부는 '인증샷' 찍어 보냈다 [그해 오늘] 시즌 3승 달성 ‘매치퀸’ 이예원 “서킷 트레이닝+3km 러닝 효과” 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 토론 중 얼굴 벌개진 이준석?..."목 안좋아 염증약 먹고 있어서" TV토론 마친 이준석, 이재명 비판…"경제정책 준비 부족" 민주당, 첫 TV토론 긍정 평가…"적임자는 이재명" 이스라엘군 "가자지구서 대규모 지상작전 개시" 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2025년 05월 19일 월요일 실시간뉴스 "저 만의 연습실 생겼어요"...여전히 당구가 좋은 '당구소년' 김영원 프로 통산 14승 배상문 "PGA 투어 복귀 꿈 접지 않아..미련 남지 않을 때까지 도전할 것" 프로농구 LG 첫 우승 이끈 '현미경 농구' 조상현 감독 굶주림에 개사료 먹던 두 살배기…계부는 '인증샷' 찍어 보냈다 [그해 오늘] 시즌 3승 달성 ‘매치퀸’ 이예원 “서킷 트레이닝+3km 러닝 효과” 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 토론 중 얼굴 벌개진 이준석?..."목 안좋아 염증약 먹고 있어서" TV토론 마친 이준석, 이재명 비판…"경제정책 준비 부족" 민주당, 첫 TV토론 긍정 평가…"적임자는 이재명" 이스라엘군 "가자지구서 대규모 지상작전 개시" 구독 지면 My 초판 로그인 로그아웃 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 글로벌마켓 제약·바이오 다크호스 리포트 UP&amp;DOWN 지금업계는 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 기자수첩 인터뷰 인사·부고 정치 대통령실·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 일반 연재 이슈 포토 영상 오토in 골프in 팜 이데일리 마켓 in The BeLT 기자뉴스룸 다문화동포 search search 속보 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 팜 이데일리 마켓 in The BeLT 국내선 찬밥이지만…‘K에듀테크’, 해외서 활로 찾는다 [위기의 K에듀테크]③구조조정 겪은 웅진·비상, 해외 진출 가속화 신성장동력 찾아 나서…각국에서도 ‘러브콜’ 해외 공략한 스타트업들 역대 최대 실적 기록 교육열에 첨단기술 접목…“한국서 배울래요” 등록 2025-05-16 오전 5:35:03 수정 2025-05-16 오전 5:35:03 가 가 김경은 기자 기자구독 페이스북 트위터 메일 프린트 url복사 [이데일리 김경은 기자] 교육업계가 K에듀테크의 무대를 해외로 옮겨가고 있다. 국내는 학령인구 감소와 에듀테크 학습 효과에 대한 논란으로 시장이 좁아지고 있는 반면 해외에선 K에듀테크의 성장성에 주목하고 있어서다. 공교육과 결합해 에듀테크 산업을 육성한다던 정부 정책이 흔들리면서 기업들은 해외 시장에서 자구책을 찾아 나선 모습이다. 해외서 주목하는 K에듀테크…진출 속도 15일 업계에 따르면 교육기업들은 최근 대대적인 구조조정을 마친 뒤 해외에서 새로운 성장동력을 찾고 있다. 웅진씽크빅(095720)은 지난 3월 취임한 윤승현 신임 대표이사를 필두로 해외시장 확대에 나섰다. AIDT 사업을 철수하는 대신 글로벌 사업을 확장하는 방향으로 경영 전략을 수정했다. 웅진씽크빅은 AI 학습 플랫폼 ‘웅진스마트올’을 비롯해 에듀테크 솔루션 ‘북스토리’, ‘링고시티’, ‘AR피디아’ 등의 해외 시장 연착륙을 이끈다는 목표다. 최근에는 증강현실(AR) 기반 독서 솔루션 AR피디아의 사우디아라비아, 카타르, 이집트 등에 수출하며 중동 진출을 본격화했다. AR피디아는 국내 교육업계 최초로 CES(국제전자제품박람회) 혁신상을 3회 연속 수상한 솔루션으로 24개국에 수출 중이다. 비상교육(100220)도 해외 수출에 속도를 내고 있다. 지난 4월 기준 베트남, 대만, 인도네시아, 일본, 네팔 등 24개국에 자사 글로벌 플랫폼 및 솔루션을 수출했다. 비상교육의 한국어 통합 교육 플랫폼 ‘마스터케이’는 북미, 유럽, 중동 및 아시아 전역에 걸쳐 13개국에 진출했다. 지난해 10월 처음 선보인 글로벌 통합 교육 플랫폼 ‘ACL’은 베트남과 캄보디아에 진출했으며 에듀테크 시장이 성장하는 동남아 지역을 중심으로 수출국을 확대할 계획이다. (그래픽= 이미나 기자) 에듀테크 스타트업 최대 실적 배경엔 ‘글로벌’ 일찌감치 해외 시장으로 무게 추를 이동한 기업들은 실적 개선을 이뤄냈다. 교과서·출판 중심인 전통 교육기업보다는 사교육 시장을 겨냥한 에듀테크 스타트업들이 빠른 성장성을 보였다. AI 기반 학습 플랫폼 ‘콴다’를 운영하는 매스프레소는 지난해 매출이 242억원으로 전년대비 42% 늘며 역대 최대치를 기록했다. 영업손실은 242억원으로 적자 기조를 이어갔으나 손실 폭을 20% 줄였다. 콴다는 월간활성사용자수(MAU)가 800만건에 달한다. 이중 90%는 해외에서 유입된다. 특히 베트남에서의 안정적 안착이 매출 성장에 주효했다는 분석이다. 에듀테크 스타트업 뤼이드는 지난해 매출이 201억원으로 전년 대비 161% 증가했다. 뤼이드의 AI 기반 토익 학습 솔루션인 ‘산타’ 거래액이 전년 대비 31% 늘었고 특히 일본 시장 거래액이 같은 기간 64% 뛰며 매출 상승을 주도했다. K에듀테크가 국내에서 주춤한 상황이지만 해외 시장을 겨냥하면 활로를 모색할 수 있다는 게 업계 전반의 시각이다. 해외에서는 우리나라의 높은 학구열과 첨단기술을 기반으로 한 K에듀테크에 주목하고 있다. 특히 우리나라와 마찬가지로 교육열이 높으면서도 젊은 인구구성을 가진 베트남, 태국, 말레이시아 등 동남아 시장의 성장 가능성이 높다는 평가다. 글로벌 교육 시장조사기관인 홀론IQ에 따르면 전 세계 에듀테크 시장 규모는 2023년 3670억달러(513조 6165억원)에서 올해 4040억달러(565조 3980억원)로 커질 것으로 추산된다. 연 평균 성장률은 14.6%에 달해 오는 2030년 8000억달러(1119조 6000억원)까지 성장이 전망된다. 업계 관계자는 “해외에선 우리나라의 선진화된 정보기술(IT)과 교육 수준을 바탕으로 한 K에듀테크의 가능성을 높게 보고 있다”며 “국내 시장은 학령인구 감소에 따라 장기적인 매출 역성장이 우려되는 만큼 해외 진출이 돌파구가 될 것”이라고 말했다. 주요뉴스 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심' '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 이데일리 추천 뉴스 by Taboola 실시간 급상승 뉴스 1 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’) 2 '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공") 3 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집]) 4 대선 앞두고 '사퇴' 선언한 기호 6번, 왜?) 5 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐”) 오늘의 포토 왼쪽 오른쪽 [포토]'제21대 대선 선거공보물 확인하세요' [골프in포토]노승희,노련한 드라이버 임팩트 [포토]봄봄봄 [포토]콜롬비아 음식 맛보세요! [포토]5·18 민주화운동 제45주년 기념사하는 오세훈 시장 [포토] 이형준 '호쾌한 샷으로 우승에 도전' [골프in포토]황유민,버디라인을 찾는다 [포토] 최경주 '정교함으로 승부한다' [골프in포토]고지우,목표는 4강 진출이다 [골프in포토]박주영,타구 방향을 괜찮은데 당신을 위한 맞춤 뉴스 by Dable 소셜 댓글 많이 본 뉴스 뉴스 증권 연예 1 한덕수 "저도 호남 사람" 외침에…이재명 "들으며 소름" 2 사라진 한소희양…“물 좀 주세요” 30대 여성의 납치 [그해 오늘] 3 '배우로 변신' 블랙핑크 지수가 고른 한남동 집은 이곳[누구집] 4 尹 계엄시 통화내역 파장…민주 "내란공동체 연결고리 확인" 5 '보수' 김용남, 이재명 지지 선언…"DJ 꿈 이룰 사람" 6 이재명 "예측한대로 국힘, 尹부정 조짐…곧 석고대죄도?" 7 쫓겨난 김문수, 환영받은 이재명…5·18 참배로 미루어 보는 ‘호남 민심’ 8 '난 계몽됐다' 김계리, 국힘 입당 신청…"지금은 김문수가 주인공" 9 [속보]손흥민 '임신협박' 남녀 구속…法 "증거인멸 우려" 10 “깨끗한 이미지, X먹으라고”…손흥민 협박범, 방송사에 한 말은 1 “170만원 갈 수도”…‘불닭 황제’ 삼양식품 외국인 또 담았다 2 ‘5조 몸값’ 테일러메이드 매각 재시동…올해 M&amp;A 최대어 될까 3 韓에만 없는 단일종목 레버리지 ETF…투자자 보호 vs 시장 통제[왓츠 유어 ETF] 4 '대선 D-15' 정치 테마주 과열…변동성 경고등 5 삼양식품·한화비전·감성코퍼레이션[하나證 주간추천주] 6 경영권 분쟁 가능성…한진칼 급등에 ‘운송 ETF’ 불기둥[펀드 와치] 7 '밸류업' 모멘텀 계속될까…시장 재편 등 숙제 남아 8 잇따르는 ‘兆 단위’ 유상증자…“목적·모회사 참여가 주가 판가름” 9 韓 배당소득 이중과세…中보다 못한 주주환원율 초래했다 10 '주가 올라봤자 세금만 늘어'…감세 없으면 밸류업도 없다 1 이경실 "용산 89평 아파트 경매 잘 해결…투자 꼬여 생긴 일" 2 윤형빈, 'WWE 레전드' 타지리 꺾었다…프로레슬링 데뷔전 승리 3 '최강야구' 아닌 '불꽃야구', JTBC 저작권 신고에 삭제 4 17기 옥순, '나는 솔로' 퀸의 등장…'나솔사계' 특집 출격 5 '보물섬'→'당신의 맛'…배우 홍화연이 해낸 증명[인터뷰] 6 차은우, 메달 입에 물고 '찰칵'…"마라톤 11km 완주" 7 임지연, 흥 폭발 댄스…"몸이 풀렸다" (언니네 산지직송2) 8 고윤정♥정준원, 첫 데이트 현장…꿀 뚝뚝 눈빛 (언슬전) 9 '정육 입문' 이장우, 려운X스키즈 리노와 한우 파티…폭풍 먹방 (나혼산) 10 육성재X김지연, 애틋한 키스…시청률 10.7% 돌파 (귀궁) 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 노보노디스크, 일라이릴리에 비만 치료제 점유율 밀리자 CEO 교체[AI헬스케어] 바이오앱, 식물 백신 생태계 확대...에이엔폴리와 식물 유래 ECM 개발 MOU 온코닉테라퓨틱스, 제일약품의 황금알 낳는 거위될까 유바이오로직스, 영업이익률 50% 임박…경쟁사 등장에도 3년내 매출 2천억 목표 [임상 업데이트] 녹십자-한미약품, 파브리병 치료제 글로벌 임상 시작 MICE 최신정보를 한눈에 TheBeLT 왼쪽 오른쪽 아르떼뮤지엄, 어린이 관람객 50% 할인…가정의 달 이벤트 그래비티 조선 판교, ESG 객실 패키지 '그린 투게더' 출시 서울스프링페스타, 7일간 82만 명 몰려…외국인 비율 21% 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 부자되고 싶은 사람 다모여 l 부자친구 '나연'이 알려주는 부자 코스 l 월매출 6억 소금빵에 소신발언?! l 빼이보릿 시엔느 탐방기 [핫플의주인공 ep.00] 안약 하나로 '21개국' 뚫었다 삼일제약 잭팟 터지나 한국 AI 신약 기업 생존 위협? / 바이오솔루션, 미국 임상 2상 호재 제약·바이오업계, 미국 관세 여파 촉각 디알텍, 블루오션 영상진단 시스템시장 정조준 두근두근 핫포토 시원한 스윙 칸, '노출금지'했는데.. '李 신발' 품절 '엿 드이소~' 왼쪽 오른쪽 나이스 샤아앗~ ㅣ골프in [포토] 엄재웅 '시즌 두번째 우승도 도전하겠습니다' 당신의 드림카는? ㅣ오토in 금호타이어 “광주공장 화재 사과…생산 전환·피해 복구 비상 대응” 왼쪽 오른쪽 이슈기획 ㅣ 제21대 대선 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 이슈기획 ㅣ 尹대통령 파면 尹 탈당하자…'친구' 석동현, 국힘 선대위서 물러나 이슈기획 ㅣ 트럼프 관세 전쟁 “美-EU, ‘트럼프 관세’ 피하려 본격 무역협상 돌입” 이슈기획 ㅣ SKT 유심 해킹 SKT, 해킹 여파 이탈자 34만5646명...하루 이탈자는 1만명 아래로 이슈기획 ㅣ GAIC [사고]돈 몰리는 유럽 투자사 총출동…대체투자 ''새판 짜기'' 논한다 오늘의 주요 기사 첫 토론회…金 집중타격 이재명, 침착한 김문수, 존재감 보인 이준석 이재명은 '연임제' 김문수는 '중임제'…개헌안 차이는? 무디스마저 美 국가신용등급 강등…韓 영향은 . ‘초가성비’ 치킨 사라지나…업계 비상인 이유는 . 대선 앞두고 '사퇴' 선언한 기호 6번, 왜? . 민주 “李, 커피 원가 120원 발언? 자영업자 폭리 비난한 거 아냐” . 이용기 대전시의원. 차량서 숨진 채 발견 . '손흥민 협박녀' 모자 왜 안썼나…경찰, 인권 논란에 "복장은 자율" . '3조→2조' 몸값 낮춘 롯데카드 재매각 시동…시장선 "매력 없다" 알립니다 [마감] 2025년 이데일리 편집부 편집기자 모집 2025년 이데일리 마켓인 경력 기자 모집 이데일리 주식회사 제25기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - SKT, 갤럭시S25 엣지 지금은 기기변경만 가능[일문일답] - "고객신뢰위 2년 활동···100개 지역 300곳 찾아가는 유심 서비스" - 취약계층 ‘찾아가는 유심 서비스’ 19일부터 시행하는 SKT 이데일리ON - [이데일리ON 김선상[주도신공]] [주도신공패밀리]4월14일~5월16일 1등급대장주매매 합산차익 330% 돌파중 - [이데일리ON 박정식] [박정식의 국내 주식시황] 美 경제 지표 부진에 경기침체 우려 재부각 되며 일부 차익 매물에 따른 약세 가능성 - [이데일리ON 박정식] [굿모닝! 글로벌 뉴욕증시] 무역 긴장 완화 속... 경기 침체 우려 불거지며 혼조 마감 문화 · 행사 문화대상 전략포럼 W페스타 사진공모전 캠핑요리 국제금융컨퍼런스 곽재선 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.kr I 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 회장 곽재선 I 발행·편집인 이익원 I 청소년보호책임자 고규대 Family site 이데일리TV 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 곽재선 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 이데일리 캠페인 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>국내 K에듀테크 기업들이 해외 시장으로 진출하여 성장하고 있으며, 해외에서의 성과가 국내 시장에서의 성과를 능가하고 있다. 기업들은 해외에서의 활로를 찾아 나서고 있으며, 이로 인해 국내에서는 구조조정이 이뤄지고 있다.</t>
+  </si>
+  <si>
+    <t>"챗GPT는 AI고속도로…우린 그위 달리는 특화AI로 승부해야"</t>
+  </si>
+  <si>
+    <t>염재호 국가인공지능위원회 부위원장 인터뷰 투자여력 부족한 우리나라는 모든 분야서 다 잘할 순 없어 제조·금융 등 응용 AI 키워야 AI 사용방식·기술·보안정책 한국 독자적 생태계 구축해야 미래교육은 문제해결력 키우고 감성·협업능력 인재육성 집중 데이터 전담하는 기관 신설 필요 염재호 국가인공지능위원회 부위원장이 매일경제와 인터뷰하고 있다.  이충우 기자 "인공지능(AI)은 금속활자처럼 문명사적 대전환을 촉진하는 파괴적 혁신 기술이다. 산업화 이후 대량생산 체제의 구조 아래에서 설계된 산업 구조, 교육 체계, 정부 시스템을 AI를 중심으로 전면 재설계해야 한다." 염재호 국가인공지능위원회 부위원장(장관급)은 지난 16일 매일경제 인터뷰에서 "'AI 대전환' 시대를 대비하기 위해 국가 차원의 총체적 대응이 필요한 시점"이라며 이같이 말했다. 염 부위원장은 19대 고려대 총장을 지낸 교육계 원로다. 총장 재임 시절 출석부, 시험감독, 상대평가를 폐지한 '3무(無) 정책'과 논술전형 및 성적장학금 폐지 등 과감한 개혁으로 대학가에서 '혁신의 아이콘'으로 통했다. 2019년 고려대에서 정년퇴임한 이후 '한국판 미네르바 대학'인 태재대학교 설립을 주도했고, 2023년 9월부터 초대 총장을 맡고 있다. 지난해 9월부터 대통령 직속 국가인공지능위원회 부위원장을 맡아 대한민국 AI 전략의 큰 틀을 설계하는 역할도 수행 중이다. 염 부위원장은 우선 'AI 대전환'이라는 시대적 조류를 정확히 인지할 필요가 있다고 강조했다. AI 대전환은 AI가 국민 일상과 산업 현장, 공공 부문 등에 전방위로 적용돼 국가 경제와 사회에 근본적인 구조 변화를 일으키는 현상을 의미한다. 그는 "기계가 인간의 근력을 대체하면서 생산성이 폭발적으로 높아졌는데 AI는 점차 인간의 두뇌를 대신할 것이기 때문에 제2의 두뇌인 AI를 얼마나 능동적으로 잘 활용할 수 있는지가 차별화된 경쟁력으로 이어질 것"이라고 설명했다. 염 부위원장은 대한민국이 글로벌 AI 패권 경쟁에서 'AI 강국'으로 도약하기 위해 한국 고유의 AI 생태계를 의미하는 '소버린 AI(Sovereign AI)'를 속히 구축해야 한다고 강조했다. 오픈AI가 대형언어모델(LLM) 시장을 선점하고, 미국 빅테크 기업들이 경쟁적으로 대규모 AI 투자에 나서고 있다고 해서 우리나라가 똑같은 성장 전략을 차용할 필요가 없다고 진단했다. 그는 "챗GPT와 같은 범용 AI 서비스를 고속도로에 비유하자면 모든 고속도로를 우리가 직접 만든다는 생각 대신 고속도로 위를 잘 달리는 고부가가치 자동차를 잘 만드는 것이 우월한 전략일 수 있다"고 설명했다. 해외 빅테크의 AI 모델과 오픈소스 등을 활용해 제조, 금융 등 개별 분야에 특화된 응용 버티컬 AI 서비스를 개발하는 것이 더욱 효과적일 수 있다는 의미다. 염 부위원장은 "우리나라는 구글 같은 글로벌 검색엔진을 만들지 못했지만 한국에 최적화된 네이버가 있고, 문서 작성 프로그램으로 MS워드가 대세이지만 우리는 아래아한글(한글 워드프로세서)도 많이 이용한다"며 "우리만의 독자적인 AI 모델 역량을 확보하면서도 글로벌 리소스를 전략적으로 활용하는 것이 중요하다"고 말했다. 다만 해외 AI 리소스를 활용할 때 우리만의 기준이 있어야 한다고 강조했다. 그는 "주도권과 기준이 없는 협력은 기술 종속과 데이터 유출로 이어질 수 있다"며 "기술 개발뿐 아니라 사용 방식, 기준, 교육, 데이터 보안 정책까지 우리만의 철학과 관점을 녹여 AI 생태계를 설계해야 한다"고 말했다. 우리나라가 AI 강국으로 자리매김하려면 인재 양성에도 각별히 신경을 써야 한다고 강조했다. 염 부위원장은 "AI 시대에 필요한 인재는 단순히 코딩이나 툴을 다루는 사람이 아니라 문제를 정의하고 해석하며, 기술을 비판적으로 활용할 수 있는 학습자"라며 "미래형 교육은 문제 해결력, 감성, 협업 역량을 갖춘 융합형 인재 양성에 초점이 맞춰져야 한다"고 강조했다. 염 부위원장은 국가 AI 정책의 일관성과 국가 주도의 AI 생태계 설계 중요성을 거듭 강조했다. 그는 "미국과 중국 등 경쟁국 대비 투자 여력이 부족한 우리나라는 정부 역할을 확대해 민간의 노력만으로는 해결할 수 없는 과제를 해결하는 데 주력할 필요가 있다"며 "먼저 AI 인프라스트럭처-모델-서비스 생태계가 선순환할 수 있도록 정부가 앞장서 컴퓨팅 인프라와 인재, 데이터 자원에 집중적으로 지원을 이어나가야 한다"고 설명했다. 그는 특히 "국가전략자산 차원에서 대규모 컴퓨팅센터를 확충하고 독자적 AI 모델을 확보하는 한편, AI 신진 연구자와 융합인재 양성을 위한 지원을 대폭 강화해야 한다"며 "개인정보보호법, 저작권법 등 레거시 법 제도는 AI 시대에 맞게 개편해 나가야 한다"고 덧붙였다. '데이터' 인프라 정비도 시급한 과제라고 말했다. 염 부위원장은 "인프라·기술·인재 양성을 아우르는 AI 컨트롤타워와 함께 데이터를 체계적으로 관리할 수 있는 전담기관 신설을 검토할 필요가 있다"고 말했다. 그는 "데이터는 기술보다 더 정치적인 자산"이라며 "어떤 데이터를 수집하고, 어떻게 처리하고, 누구에게 개방할지를 놓고 각국이 전략적으로 움직이고 있는 상황에서 우리나라도 세심한 데이터 관리가 필요하다"고 강조했다. 마지막으로 그는 경제·사회 전반에 AI를 내재화하는 'AI 활용 역량'을 갖춰야 한다고 말했다. 염 부위원장은 "5000만 국민이 AI 활용에서 사용자를 넘어 설계자의 마인드셋을 갖춘다면, 기술을 소비하는 나라가 아니라 AI 생태계를 주도하고 설계하는 나라가 될 수 있다"고 말했다. 국가인공지능위원회 대한민국 인공지능(AI) 정책 전반을 심의·의결하는 대통령 직속 자문위원회로 2024년 9월에 출범했다. AI 관련 연구개발과 투자 전략 수립, AI 윤리 원칙 제정 등 국가 AI 정책 전반을 다룬다. 올해 1월 AI기본법이 국회를 통과하면서 법정 기구로 격상됐다. 염재호 부위원장 △1955년 1월 서울 출생 △1978년 고려대 행정학 학사 졸업 △1989년 미국 스탠퍼드대 정치학 박사 △2015~2019년 19대 고려대 총장 △2023년 9월~현재 태재대 총장 △2024년 9월~현재 국가인공지능위원회 부위원장 [김대기 기자]</t>
+  </si>
+  <si>
+    <t>기존 유사 요약: 염재호 국가인공지능위원회 부위원장이 AI 대전환 시대에 대비하기 위해 국가 차원의 총체적 대응이 필요하다고 강조하며, 한국 고유의 AI 생태계를 구축해야 한다고 말했다. 또한, AI를 활용한 미래교육은 문제해결력과 감성, 협업능력을 갖춘 인재 양성에 초점을 맞춰야 한다고 강조했다. 데이터 전담 기관 신설과 AI 활용 역량을 키우는 것이 중요하다고 강조했다.</t>
+  </si>
+  <si>
+    <t>https://www.edaily.co.kr/News/Read?newsId=01456326642169576&amp;mediaCodeNo=257&amp;OutLnkChk=Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/009/0005494185</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0008256743</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업계뉴스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/421/0008256111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/020/0003635516</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/119/0002957005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.thelec.kr/news/articleView.html?idxno=36027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://n.news.naver.com/article/032/0003370238?sid=102 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/mnews/article/015/0005133280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.edaily.co.kr/News/Read?newsId=01453046642169576&amp;mediaCodeNo=257&amp;OutLnkChk=Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://n.news.naver.com/article/009/0005494446?sid=105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.joongang.co.kr/article/25336695</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>에듀테크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +2192,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,17 +2235,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,10 +2261,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,15 +2548,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,8 +2584,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -933,25 +2602,25 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -962,25 +2631,25 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -991,25 +2660,25 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -1020,25 +2689,25 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -1049,25 +2718,25 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2025</v>
       </c>
@@ -1078,25 +2747,25 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -1107,25 +2776,25 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -1136,25 +2805,25 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2025</v>
       </c>
@@ -1165,25 +2834,25 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2025</v>
       </c>
@@ -1194,25 +2863,25 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -1223,25 +2892,25 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -1252,25 +2921,25 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -1281,25 +2950,25 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -1310,25 +2979,25 @@
         <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2025</v>
       </c>
@@ -1339,22 +3008,22 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -1368,22 +3037,22 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -1397,22 +3066,22 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -1426,22 +3095,22 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -1455,22 +3124,22 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -1484,22 +3153,22 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -1513,22 +3182,22 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -1542,22 +3211,22 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -1571,22 +3240,22 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -1600,22 +3269,22 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -1629,22 +3298,22 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -1658,22 +3327,22 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -1687,22 +3356,22 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -1716,22 +3385,22 @@
         <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -1745,22 +3414,22 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -1774,22 +3443,22 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -1803,26 +3472,3651 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2025</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2025</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2025</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
         <v>150</v>
       </c>
-      <c r="F32" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" t="s">
         <v>151</v>
       </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" t="s">
-        <v>153</v>
+      <c r="I35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2025</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" t="s">
+        <v>139</v>
+      </c>
+      <c r="I36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2025</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2025</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2025</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2025</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" t="s">
+        <v>182</v>
+      </c>
+      <c r="I42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>2025</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2025</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" t="s">
+        <v>195</v>
+      </c>
+      <c r="G45" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" t="s">
+        <v>197</v>
+      </c>
+      <c r="I45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>2025</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" t="s">
+        <v>202</v>
+      </c>
+      <c r="I46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>206</v>
+      </c>
+      <c r="I47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>2025</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" t="s">
+        <v>209</v>
+      </c>
+      <c r="H48" t="s">
+        <v>210</v>
+      </c>
+      <c r="I48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>2025</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" t="s">
+        <v>213</v>
+      </c>
+      <c r="H49" t="s">
+        <v>214</v>
+      </c>
+      <c r="I49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" t="s">
+        <v>217</v>
+      </c>
+      <c r="G50" t="s">
+        <v>218</v>
+      </c>
+      <c r="H50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>2025</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" t="s">
+        <v>222</v>
+      </c>
+      <c r="H51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>2025</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" t="s">
+        <v>227</v>
+      </c>
+      <c r="I52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>2025</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>230</v>
+      </c>
+      <c r="H53" t="s">
+        <v>231</v>
+      </c>
+      <c r="I53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2025</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" t="s">
+        <v>236</v>
+      </c>
+      <c r="I54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>2025</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>2025</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" t="s">
+        <v>242</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>2025</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+      <c r="H57" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>2025</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" t="s">
+        <v>251</v>
+      </c>
+      <c r="G58" t="s">
+        <v>252</v>
+      </c>
+      <c r="H58" t="s">
+        <v>253</v>
+      </c>
+      <c r="I58" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>2025</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" t="s">
+        <v>257</v>
+      </c>
+      <c r="I59" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>2025</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F60" t="s">
+        <v>260</v>
+      </c>
+      <c r="G60" t="s">
+        <v>261</v>
+      </c>
+      <c r="H60" t="s">
+        <v>262</v>
+      </c>
+      <c r="I60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>2025</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" t="s">
+        <v>266</v>
+      </c>
+      <c r="I61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>2025</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" t="s">
+        <v>270</v>
+      </c>
+      <c r="H62" t="s">
+        <v>271</v>
+      </c>
+      <c r="I62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>2025</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" t="s">
+        <v>273</v>
+      </c>
+      <c r="F63" t="s">
+        <v>274</v>
+      </c>
+      <c r="G63" t="s">
+        <v>275</v>
+      </c>
+      <c r="H63" t="s">
+        <v>276</v>
+      </c>
+      <c r="I63" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>2025</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>278</v>
+      </c>
+      <c r="F64" t="s">
+        <v>279</v>
+      </c>
+      <c r="G64" t="s">
+        <v>280</v>
+      </c>
+      <c r="H64" t="s">
+        <v>281</v>
+      </c>
+      <c r="I64" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>2025</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>283</v>
+      </c>
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" t="s">
+        <v>284</v>
+      </c>
+      <c r="H65" t="s">
+        <v>285</v>
+      </c>
+      <c r="I65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>2025</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F66" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67" t="s">
+        <v>289</v>
+      </c>
+      <c r="H67" t="s">
+        <v>290</v>
+      </c>
+      <c r="I67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>2025</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" t="s">
+        <v>294</v>
+      </c>
+      <c r="I68" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>2025</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" t="s">
+        <v>298</v>
+      </c>
+      <c r="I69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>2025</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>2025</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s">
+        <v>305</v>
+      </c>
+      <c r="H71" t="s">
+        <v>306</v>
+      </c>
+      <c r="I71" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>2025</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G72" t="s">
+        <v>309</v>
+      </c>
+      <c r="H72" t="s">
+        <v>310</v>
+      </c>
+      <c r="I72" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>2025</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" t="s">
+        <v>313</v>
+      </c>
+      <c r="H73" t="s">
+        <v>314</v>
+      </c>
+      <c r="I73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>2025</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>316</v>
+      </c>
+      <c r="F74" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" t="s">
+        <v>317</v>
+      </c>
+      <c r="H74" t="s">
+        <v>318</v>
+      </c>
+      <c r="I74" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>320</v>
+      </c>
+      <c r="F75" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" t="s">
+        <v>322</v>
+      </c>
+      <c r="I75" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" t="s">
+        <v>324</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>325</v>
+      </c>
+      <c r="H76" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>2025</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F77" t="s">
+        <v>330</v>
+      </c>
+      <c r="G77" t="s">
+        <v>331</v>
+      </c>
+      <c r="H77" t="s">
+        <v>332</v>
+      </c>
+      <c r="I77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>334</v>
+      </c>
+      <c r="F78" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" t="s">
+        <v>335</v>
+      </c>
+      <c r="H78" t="s">
+        <v>336</v>
+      </c>
+      <c r="I78" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>2025</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>338</v>
+      </c>
+      <c r="F79" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" t="s">
+        <v>340</v>
+      </c>
+      <c r="I79" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>2025</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>342</v>
+      </c>
+      <c r="F80" t="s">
+        <v>343</v>
+      </c>
+      <c r="G80" t="s">
+        <v>344</v>
+      </c>
+      <c r="H80" t="s">
+        <v>345</v>
+      </c>
+      <c r="I80" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>2025</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>347</v>
+      </c>
+      <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s">
+        <v>348</v>
+      </c>
+      <c r="H81" t="s">
+        <v>349</v>
+      </c>
+      <c r="I81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>2025</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>351</v>
+      </c>
+      <c r="F82" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" t="s">
+        <v>354</v>
+      </c>
+      <c r="I82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>2025</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>356</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
+        <v>357</v>
+      </c>
+      <c r="H83" t="s">
+        <v>358</v>
+      </c>
+      <c r="I83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>2025</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>360</v>
+      </c>
+      <c r="F84" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" t="s">
+        <v>361</v>
+      </c>
+      <c r="H84" t="s">
+        <v>362</v>
+      </c>
+      <c r="I84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>2025</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>364</v>
+      </c>
+      <c r="F85" t="s">
+        <v>274</v>
+      </c>
+      <c r="G85" t="s">
+        <v>365</v>
+      </c>
+      <c r="H85" t="s">
+        <v>366</v>
+      </c>
+      <c r="I85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>2025</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>368</v>
+      </c>
+      <c r="F86" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86" t="s">
+        <v>370</v>
+      </c>
+      <c r="H86" t="s">
+        <v>371</v>
+      </c>
+      <c r="I86" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>2025</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" t="s">
+        <v>373</v>
+      </c>
+      <c r="F87" t="s">
+        <v>374</v>
+      </c>
+      <c r="G87" t="s">
+        <v>375</v>
+      </c>
+      <c r="H87" t="s">
+        <v>376</v>
+      </c>
+      <c r="I87" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>2025</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>378</v>
+      </c>
+      <c r="F88" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88" t="s">
+        <v>379</v>
+      </c>
+      <c r="H88" t="s">
+        <v>380</v>
+      </c>
+      <c r="I88" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>2025</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>382</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+      <c r="G89" t="s">
+        <v>384</v>
+      </c>
+      <c r="H89" t="s">
+        <v>385</v>
+      </c>
+      <c r="I89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>2025</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" t="s">
+        <v>387</v>
+      </c>
+      <c r="F90" t="s">
+        <v>388</v>
+      </c>
+      <c r="G90" t="s">
+        <v>389</v>
+      </c>
+      <c r="H90" t="s">
+        <v>390</v>
+      </c>
+      <c r="I90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>2025</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>392</v>
+      </c>
+      <c r="F91" t="s">
+        <v>393</v>
+      </c>
+      <c r="G91" t="s">
+        <v>394</v>
+      </c>
+      <c r="H91" t="s">
+        <v>395</v>
+      </c>
+      <c r="I91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>2025</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>397</v>
+      </c>
+      <c r="F92" t="s">
+        <v>398</v>
+      </c>
+      <c r="G92" t="s">
+        <v>399</v>
+      </c>
+      <c r="H92" t="s">
+        <v>400</v>
+      </c>
+      <c r="I92" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>2025</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>402</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+      <c r="G93" t="s">
+        <v>403</v>
+      </c>
+      <c r="H93" t="s">
+        <v>404</v>
+      </c>
+      <c r="I93" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>2025</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>406</v>
+      </c>
+      <c r="F94" t="s">
+        <v>407</v>
+      </c>
+      <c r="G94" t="s">
+        <v>408</v>
+      </c>
+      <c r="H94" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>2025</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>411</v>
+      </c>
+      <c r="F95" t="s">
+        <v>412</v>
+      </c>
+      <c r="G95" t="s">
+        <v>413</v>
+      </c>
+      <c r="H95" t="s">
+        <v>414</v>
+      </c>
+      <c r="I95" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>2025</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" t="s">
+        <v>416</v>
+      </c>
+      <c r="F96" t="s">
+        <v>398</v>
+      </c>
+      <c r="G96" t="s">
+        <v>417</v>
+      </c>
+      <c r="H96" t="s">
+        <v>418</v>
+      </c>
+      <c r="I96" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>2025</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>420</v>
+      </c>
+      <c r="F97" t="s">
+        <v>421</v>
+      </c>
+      <c r="G97" t="s">
+        <v>422</v>
+      </c>
+      <c r="H97" t="s">
+        <v>423</v>
+      </c>
+      <c r="I97" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>2025</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>425</v>
+      </c>
+      <c r="F98" t="s">
+        <v>426</v>
+      </c>
+      <c r="G98" t="s">
+        <v>427</v>
+      </c>
+      <c r="H98" t="s">
+        <v>428</v>
+      </c>
+      <c r="I98" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>2025</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>430</v>
+      </c>
+      <c r="F99" t="s">
+        <v>431</v>
+      </c>
+      <c r="G99" t="s">
+        <v>432</v>
+      </c>
+      <c r="H99" t="s">
+        <v>433</v>
+      </c>
+      <c r="I99" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>2025</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" t="s">
+        <v>435</v>
+      </c>
+      <c r="F100" t="s">
+        <v>412</v>
+      </c>
+      <c r="G100" t="s">
+        <v>436</v>
+      </c>
+      <c r="H100" t="s">
+        <v>437</v>
+      </c>
+      <c r="I100" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>2025</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" t="s">
+        <v>260</v>
+      </c>
+      <c r="G101" t="s">
+        <v>440</v>
+      </c>
+      <c r="H101" t="s">
+        <v>441</v>
+      </c>
+      <c r="I101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>2025</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>443</v>
+      </c>
+      <c r="F102" t="s">
+        <v>444</v>
+      </c>
+      <c r="G102" t="s">
+        <v>445</v>
+      </c>
+      <c r="H102" t="s">
+        <v>446</v>
+      </c>
+      <c r="I102" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>2025</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>448</v>
+      </c>
+      <c r="F103" t="s">
+        <v>260</v>
+      </c>
+      <c r="G103" t="s">
+        <v>449</v>
+      </c>
+      <c r="H103" t="s">
+        <v>450</v>
+      </c>
+      <c r="I103" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>2025</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>452</v>
+      </c>
+      <c r="F104" t="s">
+        <v>260</v>
+      </c>
+      <c r="G104" t="s">
+        <v>453</v>
+      </c>
+      <c r="H104" t="s">
+        <v>454</v>
+      </c>
+      <c r="I104" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>2025</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>456</v>
+      </c>
+      <c r="F105" t="s">
+        <v>421</v>
+      </c>
+      <c r="G105" t="s">
+        <v>457</v>
+      </c>
+      <c r="H105" t="s">
+        <v>458</v>
+      </c>
+      <c r="I105" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>2025</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>460</v>
+      </c>
+      <c r="F106" t="s">
+        <v>54</v>
+      </c>
+      <c r="G106" t="s">
+        <v>461</v>
+      </c>
+      <c r="H106" t="s">
+        <v>462</v>
+      </c>
+      <c r="I106" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>2025</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>464</v>
+      </c>
+      <c r="F107" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" t="s">
+        <v>465</v>
+      </c>
+      <c r="H107" t="s">
+        <v>466</v>
+      </c>
+      <c r="I107" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>2025</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>468</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>469</v>
+      </c>
+      <c r="H108" t="s">
+        <v>470</v>
+      </c>
+      <c r="I108" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>2025</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>399</v>
+      </c>
+      <c r="I109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>2025</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>472</v>
+      </c>
+      <c r="F110" t="s">
+        <v>426</v>
+      </c>
+      <c r="G110" t="s">
+        <v>473</v>
+      </c>
+      <c r="H110" t="s">
+        <v>474</v>
+      </c>
+      <c r="I110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>2025</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>476</v>
+      </c>
+      <c r="F111" t="s">
+        <v>343</v>
+      </c>
+      <c r="G111" t="s">
+        <v>477</v>
+      </c>
+      <c r="H111" t="s">
+        <v>478</v>
+      </c>
+      <c r="I111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>2025</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
+      </c>
+      <c r="E112" t="s">
+        <v>480</v>
+      </c>
+      <c r="F112" t="s">
+        <v>481</v>
+      </c>
+      <c r="G112" t="s">
+        <v>482</v>
+      </c>
+      <c r="H112" t="s">
+        <v>483</v>
+      </c>
+      <c r="I112" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>2025</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>485</v>
+      </c>
+      <c r="F113" t="s">
+        <v>102</v>
+      </c>
+      <c r="G113" t="s">
+        <v>486</v>
+      </c>
+      <c r="H113" t="s">
+        <v>487</v>
+      </c>
+      <c r="I113" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>2025</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" t="s">
+        <v>489</v>
+      </c>
+      <c r="F114" t="s">
+        <v>490</v>
+      </c>
+      <c r="G114" t="s">
+        <v>491</v>
+      </c>
+      <c r="H114" t="s">
+        <v>492</v>
+      </c>
+      <c r="I114" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>2025</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>83</v>
+      </c>
+      <c r="E115" t="s">
+        <v>494</v>
+      </c>
+      <c r="F115" t="s">
+        <v>495</v>
+      </c>
+      <c r="G115" t="s">
+        <v>496</v>
+      </c>
+      <c r="H115" t="s">
+        <v>497</v>
+      </c>
+      <c r="I115" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>2025</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>499</v>
+      </c>
+      <c r="F116" t="s">
+        <v>260</v>
+      </c>
+      <c r="G116" t="s">
+        <v>500</v>
+      </c>
+      <c r="H116" t="s">
+        <v>501</v>
+      </c>
+      <c r="I116" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>2025</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s">
+        <v>503</v>
+      </c>
+      <c r="F117" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" t="s">
+        <v>504</v>
+      </c>
+      <c r="H117" t="s">
+        <v>505</v>
+      </c>
+      <c r="I117" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>2025</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>507</v>
+      </c>
+      <c r="F118" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" t="s">
+        <v>508</v>
+      </c>
+      <c r="H118" t="s">
+        <v>509</v>
+      </c>
+      <c r="I118" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>2025</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>511</v>
+      </c>
+      <c r="F119" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" t="s">
+        <v>512</v>
+      </c>
+      <c r="H119" t="s">
+        <v>513</v>
+      </c>
+      <c r="I119" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>2025</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>515</v>
+      </c>
+      <c r="F120" t="s">
+        <v>352</v>
+      </c>
+      <c r="G120" t="s">
+        <v>516</v>
+      </c>
+      <c r="H120" t="s">
+        <v>517</v>
+      </c>
+      <c r="I120" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>2025</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>519</v>
+      </c>
+      <c r="F121" t="s">
+        <v>44</v>
+      </c>
+      <c r="G121" t="s">
+        <v>520</v>
+      </c>
+      <c r="H121" t="s">
+        <v>521</v>
+      </c>
+      <c r="I121" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>2025</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>523</v>
+      </c>
+      <c r="F122" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" t="s">
+        <v>524</v>
+      </c>
+      <c r="H122" t="s">
+        <v>525</v>
+      </c>
+      <c r="I122" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>2025</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" t="s">
+        <v>527</v>
+      </c>
+      <c r="F123" t="s">
+        <v>528</v>
+      </c>
+      <c r="G123" t="s">
+        <v>529</v>
+      </c>
+      <c r="H123" t="s">
+        <v>530</v>
+      </c>
+      <c r="I123" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>2025</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>532</v>
+      </c>
+      <c r="F124" t="s">
+        <v>533</v>
+      </c>
+      <c r="G124" t="s">
+        <v>534</v>
+      </c>
+      <c r="H124" t="s">
+        <v>535</v>
+      </c>
+      <c r="I124" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>2025</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>537</v>
+      </c>
+      <c r="F125" t="s">
+        <v>538</v>
+      </c>
+      <c r="G125" t="s">
+        <v>539</v>
+      </c>
+      <c r="H125" t="s">
+        <v>540</v>
+      </c>
+      <c r="I125" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>2025</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>542</v>
+      </c>
+      <c r="F126" t="s">
+        <v>64</v>
+      </c>
+      <c r="G126" t="s">
+        <v>543</v>
+      </c>
+      <c r="H126" t="s">
+        <v>544</v>
+      </c>
+      <c r="I126" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>2025</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" t="s">
+        <v>546</v>
+      </c>
+      <c r="F127" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s">
+        <v>547</v>
+      </c>
+      <c r="H127" t="s">
+        <v>548</v>
+      </c>
+      <c r="I127" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>2025</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>550</v>
+      </c>
+      <c r="F128" t="s">
+        <v>64</v>
+      </c>
+      <c r="G128" t="s">
+        <v>551</v>
+      </c>
+      <c r="H128" t="s">
+        <v>552</v>
+      </c>
+      <c r="I128" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>2025</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>554</v>
+      </c>
+      <c r="F129" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" t="s">
+        <v>555</v>
+      </c>
+      <c r="H129" t="s">
+        <v>556</v>
+      </c>
+      <c r="I129" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>2025</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>558</v>
+      </c>
+      <c r="F130" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s">
+        <v>559</v>
+      </c>
+      <c r="H130" t="s">
+        <v>560</v>
+      </c>
+      <c r="I130" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>2025</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>562</v>
+      </c>
+      <c r="F131" t="s">
+        <v>352</v>
+      </c>
+      <c r="G131" t="s">
+        <v>563</v>
+      </c>
+      <c r="H131" t="s">
+        <v>564</v>
+      </c>
+      <c r="I131" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>2025</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>566</v>
+      </c>
+      <c r="F132" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" t="s">
+        <v>567</v>
+      </c>
+      <c r="H132" t="s">
+        <v>568</v>
+      </c>
+      <c r="I132" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>2025</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>570</v>
+      </c>
+      <c r="F133" t="s">
+        <v>352</v>
+      </c>
+      <c r="G133" t="s">
+        <v>571</v>
+      </c>
+      <c r="H133" t="s">
+        <v>572</v>
+      </c>
+      <c r="I133" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>2025</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>574</v>
+      </c>
+      <c r="F134" t="s">
+        <v>398</v>
+      </c>
+      <c r="G134" t="s">
+        <v>575</v>
+      </c>
+      <c r="H134" t="s">
+        <v>576</v>
+      </c>
+      <c r="I134" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>2025</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>578</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>579</v>
+      </c>
+      <c r="H135" t="s">
+        <v>580</v>
+      </c>
+      <c r="I135" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>2025</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>582</v>
+      </c>
+      <c r="F136" t="s">
+        <v>269</v>
+      </c>
+      <c r="G136" t="s">
+        <v>583</v>
+      </c>
+      <c r="H136" t="s">
+        <v>584</v>
+      </c>
+      <c r="I136" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>2025</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>19</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>587</v>
+      </c>
+      <c r="F137" t="s">
+        <v>588</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H137" t="s">
+        <v>589</v>
+      </c>
+      <c r="I137" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>2025</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>666</v>
+      </c>
+      <c r="E138" t="s">
+        <v>591</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H138" t="s">
+        <v>592</v>
+      </c>
+      <c r="I138" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>2025</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>19</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" t="s">
+        <v>594</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H139" t="s">
+        <v>595</v>
+      </c>
+      <c r="I139" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>2025</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>597</v>
+      </c>
+      <c r="F140" t="s">
+        <v>195</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H140" t="s">
+        <v>598</v>
+      </c>
+      <c r="I140" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>2025</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>600</v>
+      </c>
+      <c r="F141" t="s">
+        <v>444</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H141" t="s">
+        <v>601</v>
+      </c>
+      <c r="I141" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>2025</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>666</v>
+      </c>
+      <c r="E142" t="s">
+        <v>603</v>
+      </c>
+      <c r="F142" t="s">
+        <v>604</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="H142" t="s">
+        <v>605</v>
+      </c>
+      <c r="I142" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>2025</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>607</v>
+      </c>
+      <c r="F143" t="s">
+        <v>608</v>
+      </c>
+      <c r="G143" t="s">
+        <v>609</v>
+      </c>
+      <c r="H143" t="s">
+        <v>610</v>
+      </c>
+      <c r="I143" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>2025</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>612</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="H144" t="s">
+        <v>613</v>
+      </c>
+      <c r="I144" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>2025</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>666</v>
+      </c>
+      <c r="E145" t="s">
+        <v>615</v>
+      </c>
+      <c r="F145" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" t="s">
+        <v>616</v>
+      </c>
+      <c r="H145" t="s">
+        <v>617</v>
+      </c>
+      <c r="I145" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>2025</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>621</v>
+      </c>
+      <c r="F146" t="s">
+        <v>622</v>
+      </c>
+      <c r="G146" t="s">
+        <v>623</v>
+      </c>
+      <c r="H146" t="s">
+        <v>624</v>
+      </c>
+      <c r="I146" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>2025</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>626</v>
+      </c>
+      <c r="F147" t="s">
+        <v>627</v>
+      </c>
+      <c r="G147" t="s">
+        <v>628</v>
+      </c>
+      <c r="H147" t="s">
+        <v>629</v>
+      </c>
+      <c r="I147" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>2025</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>631</v>
+      </c>
+      <c r="F148" t="s">
+        <v>49</v>
+      </c>
+      <c r="G148" t="s">
+        <v>632</v>
+      </c>
+      <c r="H148" t="s">
+        <v>633</v>
+      </c>
+      <c r="I148" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>2025</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>19</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>635</v>
+      </c>
+      <c r="F149" t="s">
+        <v>39</v>
+      </c>
+      <c r="G149" t="s">
+        <v>636</v>
+      </c>
+      <c r="H149" t="s">
+        <v>637</v>
+      </c>
+      <c r="I149" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>2025</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>639</v>
+      </c>
+      <c r="F150" t="s">
+        <v>39</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="H150" t="s">
+        <v>640</v>
+      </c>
+      <c r="I150" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>2025</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>19</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>642</v>
+      </c>
+      <c r="F151" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" t="s">
+        <v>643</v>
+      </c>
+      <c r="H151" t="s">
+        <v>644</v>
+      </c>
+      <c r="I151" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>2025</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>19</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
+        <v>646</v>
+      </c>
+      <c r="F152" t="s">
+        <v>195</v>
+      </c>
+      <c r="G152" t="s">
+        <v>647</v>
+      </c>
+      <c r="H152" t="s">
+        <v>648</v>
+      </c>
+      <c r="I152" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>2025</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>619</v>
+      </c>
+      <c r="F153" t="s">
+        <v>102</v>
+      </c>
+      <c r="G153" t="s">
+        <v>650</v>
+      </c>
+      <c r="H153" t="s">
+        <v>620</v>
+      </c>
+      <c r="I153" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>2025</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>676</v>
+      </c>
+      <c r="E154" t="s">
+        <v>652</v>
+      </c>
+      <c r="F154" t="s">
+        <v>343</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H154" t="s">
+        <v>653</v>
+      </c>
+      <c r="I154" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>2025</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>655</v>
+      </c>
+      <c r="F155" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H155" t="s">
+        <v>656</v>
+      </c>
+      <c r="I155" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>2025</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>19</v>
+      </c>
+      <c r="D156" t="s">
+        <v>666</v>
+      </c>
+      <c r="E156" t="s">
+        <v>586</v>
+      </c>
+      <c r="F156" t="s">
+        <v>64</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H156" t="s">
+        <v>658</v>
+      </c>
+      <c r="I156" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>2025</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>660</v>
+      </c>
+      <c r="F157" t="s">
+        <v>102</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="H157" t="s">
+        <v>661</v>
+      </c>
+      <c r="I157" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>2025</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+      <c r="C158">
+        <v>19</v>
+      </c>
+      <c r="F158" t="s">
+        <v>49</v>
+      </c>
+      <c r="G158" t="s">
+        <v>632</v>
+      </c>
+      <c r="I158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>2025</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>19</v>
+      </c>
+      <c r="F159" t="s">
+        <v>39</v>
+      </c>
+      <c r="G159" t="s">
+        <v>636</v>
+      </c>
+      <c r="I159" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G155" r:id="rId1" xr:uid="{779C182E-96D2-4623-811E-FBB827AB7FBC}"/>
+    <hyperlink ref="G137" r:id="rId2" xr:uid="{BDEE47CA-696C-461B-9FEF-67E64EE851A6}"/>
+    <hyperlink ref="G138" r:id="rId3" xr:uid="{2987AC2D-6FD7-4F71-ABFE-0168131DEC28}"/>
+    <hyperlink ref="G139" r:id="rId4" xr:uid="{325EC238-CD3F-4ADA-B18D-0B2805CFBD90}"/>
+    <hyperlink ref="G140" r:id="rId5" xr:uid="{D8C0BF40-83EB-4BE9-8CF8-8DCC8774FA55}"/>
+    <hyperlink ref="G141" r:id="rId6" xr:uid="{6DFAF08C-A5E2-4C05-9E0B-C316CEE04237}"/>
+    <hyperlink ref="G142" r:id="rId7" xr:uid="{BC557DE1-48DE-4B8B-89B5-B97D226DC38E}"/>
+    <hyperlink ref="G144" r:id="rId8" xr:uid="{2AE09462-6969-45C5-B720-4E81E0B6CAE6}"/>
+    <hyperlink ref="G150" r:id="rId9" xr:uid="{61ADF1EB-54D9-423A-BEE2-80BF2CF652AF}"/>
+    <hyperlink ref="G156" r:id="rId10" xr:uid="{99DA2014-A6DE-41C2-8BEE-C5BE7D4B729E}"/>
+    <hyperlink ref="G157" r:id="rId11" xr:uid="{842B11A0-6052-4C9F-9109-E64B29C525D7}"/>
+    <hyperlink ref="G154" r:id="rId12" xr:uid="{F81F24F0-6E38-4604-B123-4F26E23491D4}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>